--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -520,7 +520,7 @@
     <t>Principles of Operating Systems</t>
   </si>
   <si>
-    <t>&lt;p&gt;Principles of Software&lt;/p&gt;&lt;p&gt;Design&lt;/p&gt;</t>
+    <t>Principles of SoftwareDesign</t>
   </si>
   <si>
     <t>Compiler</t>
@@ -766,7 +766,7 @@
     <t>Principles-of-Operating-Systems</t>
   </si>
   <si>
-    <t>&lt;p&gt;Principles-of-Software&lt;/p&gt;&lt;p&gt;Design&lt;/p&gt;</t>
+    <t>Principles-of-SoftwareDesign</t>
   </si>
   <si>
     <t>Topics-in-Computer-Science</t>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="463">
   <si>
     <t>fa_title</t>
   </si>
@@ -61,16 +61,16 @@
     <t>c_refs</t>
   </si>
   <si>
-    <t>ریاضی عمومی 1</t>
-  </si>
-  <si>
-    <t>ریاضی عمومی 2</t>
+    <t>ریاضی عمومی ۱</t>
+  </si>
+  <si>
+    <t>ریاضی عمومی ۲</t>
   </si>
   <si>
     <t>معادلات دیفرانسیل</t>
   </si>
   <si>
-    <t>مبانی برنامه‌نویسی</t>
+    <t>مبانی کامپیوتر و برنامه‌سازی</t>
   </si>
   <si>
     <t>مبانی اقتصاد</t>
@@ -82,7 +82,7 @@
     <t>مبانی علوم ریاضی</t>
   </si>
   <si>
-    <t>آمار و احتمال 1</t>
+    <t>آمار و احتمال ۱</t>
   </si>
   <si>
     <t>تحلیل داده‌ها با نرم‌افزارهای عمومی</t>
@@ -94,7 +94,7 @@
     <t>برنامه‌نویسی پیشرفته</t>
   </si>
   <si>
-    <t>پایتون برای علم داده</t>
+    <t>برنامه‌نویسی پایتون</t>
   </si>
   <si>
     <t>ساختمان داده و الگوریتم‌ها</t>
@@ -124,7 +124,7 @@
     <t>مبانی نظریه محاسبه</t>
   </si>
   <si>
-    <t>مبانی ماتریس‌ها و جبرخطی</t>
+    <t>مبانی ماتریس‌ها و جبر خطی</t>
   </si>
   <si>
     <t>مبانی آنالیزعددی</t>
@@ -136,7 +136,7 @@
     <t>جبر خطی عددی</t>
   </si>
   <si>
-    <t>آمار و احتمال 2</t>
+    <t>آمار و احتمال ۲</t>
   </si>
   <si>
     <t>آمار محاسباتی</t>
@@ -145,18 +145,12 @@
     <t>روش‌های آماری</t>
   </si>
   <si>
-    <t>یادگیری آماری مقدماتی</t>
+    <t>یادگیری ماشین  مقدماتی</t>
   </si>
   <si>
     <t>داده‌کاوی مقدماتی</t>
   </si>
   <si>
-    <t>یادگیری ماشین  مقدماتی ۱</t>
-  </si>
-  <si>
-    <t>یادگیری ماشین مقدماتی ۲</t>
-  </si>
-  <si>
     <t>نظریه محاسبه</t>
   </si>
   <si>
@@ -175,7 +169,7 @@
     <t>معناشناسی عملیاتی برنامه‌نویسی</t>
   </si>
   <si>
-    <t>آشنایی با نظریه بازی ها</t>
+    <t>آشنایی با نظریه بازی‌ها</t>
   </si>
   <si>
     <t>الگوریتم‌های تصادفی</t>
@@ -184,7 +178,7 @@
     <t>هندسه محاسباتی</t>
   </si>
   <si>
-    <t>رگرسیون1</t>
+    <t>رگرسیون ۱</t>
   </si>
   <si>
     <t>سری های زمانی</t>
@@ -196,13 +190,13 @@
     <t>هوش محاسباتی</t>
   </si>
   <si>
-    <t>هوش تجاری  مقدماتی</t>
+    <t>هوش تجاری مقدماتی</t>
   </si>
   <si>
     <t>آشنایی با یادگیری عمیق</t>
   </si>
   <si>
-    <t>اصول مصورسازی داده ها</t>
+    <t>اصول مصورسازی داده‌ها</t>
   </si>
   <si>
     <t>مبانی کارآفرینی</t>
@@ -310,7 +304,7 @@
     <t>مدیریت پروژه‌های فناوری اطلاعات</t>
   </si>
   <si>
-    <t>تحلیل آماری داده ها</t>
+    <t>تحلیل آماری داده‌ها</t>
   </si>
   <si>
     <t>Calculus I</t>
@@ -346,7 +340,7 @@
     <t>Advanced Programming</t>
   </si>
   <si>
-    <t>Python For Data Science</t>
+    <t>Python Programming</t>
   </si>
   <si>
     <t>Data Structures &amp; Algorithms</t>
@@ -397,18 +391,12 @@
     <t>Statistical Methods</t>
   </si>
   <si>
-    <t>Elementary Statistical Learning</t>
+    <t>Elementary Machine Learning</t>
   </si>
   <si>
     <t>Elementary Data Mining</t>
   </si>
   <si>
-    <t>Elementary Machine Learning I</t>
-  </si>
-  <si>
-    <t>Elementary Machine Learning II</t>
-  </si>
-  <si>
     <t>Theory of Computation</t>
   </si>
   <si>
@@ -514,7 +502,7 @@
     <t>Computer Graphics</t>
   </si>
   <si>
-    <t>social networks</t>
+    <t>Social Networks</t>
   </si>
   <si>
     <t>Principles of Operating Systems</t>
@@ -598,7 +586,7 @@
     <t>Advanced-Programming</t>
   </si>
   <si>
-    <t>Python-For-Data-Science</t>
+    <t>Python-Programming</t>
   </si>
   <si>
     <t>Data-Structures-and-Algorithms</t>
@@ -646,18 +634,12 @@
     <t>Statistical-Methods</t>
   </si>
   <si>
-    <t>Elementary-Statistical-Learning</t>
+    <t>Elementary-Machine-Learning</t>
   </si>
   <si>
     <t>Elementary-Data-Mining</t>
   </si>
   <si>
-    <t>Elementary-Machine-Learning-I</t>
-  </si>
-  <si>
-    <t>Elementary-Machine-Learning-II</t>
-  </si>
-  <si>
     <t>Theory-of-Computation</t>
   </si>
   <si>
@@ -760,7 +742,7 @@
     <t>Computer-Graphics</t>
   </si>
   <si>
-    <t>social-networks</t>
+    <t>Social-Networks</t>
   </si>
   <si>
     <t>Principles-of-Operating-Systems</t>
@@ -811,52 +793,43 @@
     <t>تخصصی اختیاری</t>
   </si>
   <si>
-    <t>` `اختیاری</t>
-  </si>
-  <si>
-    <t>` `تخصصی اختیاری</t>
-  </si>
-  <si>
     <t>ندارد</t>
   </si>
   <si>
-    <t>ریاضی عمومی ۱</t>
-  </si>
-  <si>
-    <t>بهینه سازی خطی، مبانی ترکیبیات</t>
+    <t>تحقیق در عملیات، مبانی ترکیبیات</t>
   </si>
   <si>
     <t>؟</t>
   </si>
   <si>
-    <t>تحلیل گرافیکی و اکتشافی داده ها و احتمال 1</t>
-  </si>
-  <si>
-    <t>رگرسیون ۱</t>
-  </si>
-  <si>
-    <t>مبانی جبر، مبانی ماتریس و جبرخطی</t>
-  </si>
-  <si>
-    <t>احتمال1</t>
-  </si>
-  <si>
-    <t>طراحی و تحلیل الگوریتم‌ها، آمار و احتمال1</t>
-  </si>
-  <si>
-    <t>ساختمان داده و الگوریتم‌ها، آمار و احتمال 1</t>
+    <t>تحلیل گرافیکی و اکتشافی داده‌ها، احتمال ۱</t>
+  </si>
+  <si>
+    <t>تحلیل آماری داده‌ها، مبانی ماتریس‌ها و جبر خطی</t>
+  </si>
+  <si>
+    <t>یادگیری ماشین مقدماتی</t>
+  </si>
+  <si>
+    <t>مبانی جبر، مبانی ماتریس‌ها و جبر خطی</t>
+  </si>
+  <si>
+    <t>طراحی و تحلیل الگوریتم‌ها، آمار و احتمال ۱</t>
+  </si>
+  <si>
+    <t>مبانی ماتریس‌ها و جبر خطی، آمار و احتمال ۱</t>
+  </si>
+  <si>
+    <t>ساختمان داده و الگوریتم‌ها، آمار و احتمال۱</t>
   </si>
   <si>
     <t>داده کاوی مقدماتی</t>
   </si>
   <si>
-    <t>آنالیز ریاضی و مبانی ماتریس‌ها و جبر خطی</t>
-  </si>
-  <si>
-    <t>اصول سیستم‌های کامپیوتری -  اصول سیستم‌های عامل</t>
-  </si>
-  <si>
-    <t>ساختمان داده‌ها و الگوریتم‌ها</t>
+    <t>مبانی آنالیز ریاضی، مبانی ماتریس‌ها و جبر خطی</t>
+  </si>
+  <si>
+    <t>اصول سیستم‌های کامپیوتری، اصول سیستم‌های عامل</t>
   </si>
   <si>
     <t>گذراندن 75 واحد</t>
@@ -868,10 +841,10 @@
     <t>مبانی آنالیز عددی</t>
   </si>
   <si>
-    <t>احتمال۲</t>
-  </si>
-  <si>
-    <t>شبکه های کامپيوتری ،اصول سيستم های عامل</t>
+    <t>احتمال ۲</t>
+  </si>
+  <si>
+    <t>شبکه‌های کامپيوتری ،اصول سيستم های عامل</t>
   </si>
   <si>
     <t>برنامه‌نویسی پیشرفته، اصول سیستم‌های کامپیوتری</t>
@@ -880,6 +853,9 @@
     <t>معادلات دیفرانسيل</t>
   </si>
   <si>
+    <t>آمار و احتمال مقدماتی</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -898,9 +874,6 @@
     <t>2+1</t>
   </si>
   <si>
-    <t>1+2</t>
-  </si>
-  <si>
     <t>۳</t>
   </si>
   <si>
@@ -937,6 +910,9 @@
     <t>192</t>
   </si>
   <si>
+    <t>۴۸</t>
+  </si>
+  <si>
     <t xml:space="preserve"> دارد</t>
   </si>
   <si>
@@ -946,7 +922,7 @@
     <t xml:space="preserve"> : دارد</t>
   </si>
   <si>
-    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط، جمع و ضرب و ریشه، نمایش هندسی اعداد مختلط، نمایش قطبی اعداد مختلط، تابع، جبر توابع، حد و قضایاي مربوط به حد، بینهایت و حد چپ و راست، پیوستگی، مشتق، دستورهاي مشتقگیري، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه رل، قضیه میانگین، بسط تیلر، کاربردهاي مهندسی و فیزیکی مشتق، منحنیها و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشههاي معادلات، تعریف انتگرال توابع پیوسته و قطعه پیوسته، قضایاي اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روشهاي تقریبی برآورد انتگرال در محاسبه مساحت و حجم و طول منحنی و گشتاور و مرکز ثقل و کار و .... (در مختصات دکارتی و قطبی)، لگاریتم و تابع نمائی و مشتق آنها، تابعهاي هذلولولی، روشهاي انتگرال گیري مانند تعویض متغیر و جز به جز و تجزیه کسرها، برخی تعویض متغیرهاي خاص\n', '**\n']</t>
+    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط، جمع و ضرب و ریشه، نمایش هندسی اعداد مختلط، نمایش قطبی اعداد مختلط، تابع، جبر توابع، حد و قضایاي مربوط به حد، بینهایت و حد چپ و راست، پیوستگی، مشتق، دستورهاي مشتق\u200cگیري، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه رل، قضیه میانگین، بسط تیلر، کاربردهاي مهندسی و فیزیکی مشتق، منحنیها و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه\u200cهاي معادلات، تعریف انتگرال توابع پیوسته و قطعه پیوسته، قضایاي اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش\u200cهاي تقریبی برآورد انتگرال در محاسبه مساحت و حجم و طول منحنی و گشتاور و مرکز ثقل و کار و .... (در مختصات دکارتی و قطبی)، لگاریتم و تابع نمائی و مشتق آنها، تابع\u200cهاي هذلولولی، روش\u200cهاي انتگرال\u200cگیري مانند تعویض متغیر و جز به جز و تجزیه کسرها، برخی تعویض متغیرهاي خاص\n', '**\n']</t>
   </si>
   <si>
     <t>['سیستم مختصات قطبی، نمودارهاي قطبی دنباله، سري عددي و قضایاي مربوط به سري توانی، قضیه تیلور با باقیمانده، معادلات پارامتري،\n', 'مختصات فضائی، قائده زنجیري براي مشتق جزئی، دیفرانسیل کامل، انتگرالهاي دوگانه و سه گانه و کاربرد آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیري (بدون اثبات دقیق)، مختصات استوانه\u200cاي و کروي\n']</t>
@@ -955,13 +931,13 @@
     <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n']</t>
   </si>
   <si>
-    <t>['مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، کلاسها (به صورت مختصر)، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، عملیات ریاضی نمادین با SymPy. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
+    <t>['مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، کلاسها (به صورت مختصر)، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، عملیات ریاضی نمادین با SymPy، مستندسازی. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
   </si>
   <si>
     <t>['اقتصاد: مبانی و مدل ها. معاملات، مزیت مقایسه ای و سیستم بازار. قیمت ها از کجا می آیند: تعادل تقاضا و عرضه. بهره وری اقتصادی ، تعیین قیمت و مالیات ها. سیاست های زیست محیطی و خدمات عمومی. انعطاف پذیری: پاسخگویی تقاضا. شرکت ها، بازار سهام و حاکمیت شرکتی. انتخاب مصرف کننده و اقتصاد رفتاری. فناوری ، تولید و هزینه ها. شرکت ها در بازارهای کاملاً رقابتی. سیاست انحصاری و ضد انحصاری.\n']</t>
   </si>
   <si>
-    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. با این حال موارد زیر پیشنهاد می\u200cگردد:\n', '- **آشنایی مقدماتی با حروف\u200cچینی کامپیوتری**\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- **آشنایی مقدماتی با مجموعه میکروسافت آفیس**\n', '- **آشنایی با سرویس\u200cهای کاربردی**\n', 'سرویس\u200cهای ابری گوگل شامل پست الکترونیکی جیمیل، گوگل درایو و گوگل داکس، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange و Stack Overflow\n', '- **آشنایی با سیستم عامل لینوکس**\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod و kill\n', '- تایپ ده انگشتی\n']</t>
+    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. با این حال موارد زیر پیشنهاد می\u200cگردد:\n', '- تایپ ده انگشتی\n', '- **آشنایی مقدماتی با حروف\u200cچینی کامپیوتری**\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- **آشنایی مقدماتی با مجموعه میکروسافت آفیس**\n', '- **آشنایی با سرویس\u200cهای کاربردی**\n', 'سرویس\u200cهای ابری گوگل شامل پست الکترونیکی جیمیل، گوگل درایو و گوگل داکس، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- **آشنایی با سیستم عامل لینوکس**\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod و kill\n']</t>
   </si>
   <si>
     <t>['منطق گزاره ها و جدول ارزش. مجموعه ها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه های متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n']</t>
@@ -970,16 +946,16 @@
     <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز.\n']</t>
   </si>
   <si>
-    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده ها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده های چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده های چندمتغیره رسته ای، نمودار پراکنش برای نمایش همبستگی در داده های دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده ها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده ها  با استفاده از نرم افزار اکسل  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده های واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['تعریف &lt;a name="_hlk96854985"&gt;&lt;/a&gt;&lt;a name="_hlk96855053"&gt;&lt;/a&gt;آزمایش تصادفی و فضای نمونه، فضای نمونه باپایان و بی پایان، پیشامدها، پیشامد قطعی و محال، رخ دادن پیشامد، اعمال روی پیشامدها و تعبیر آنها، مکمل یک پیشامد، اجتماع، اشتراک، زیرپیشامد، تفاضل دو پیشامد، تفاضل متقارن پیشامدها، تعریف احتمال، تعبیرهای مختلف احتمال، تعیبر فراوانی نسبی احتمال، تعبیر شخصی احتمال، اصول کولموگوروف، قضایای احتمال، مدل احتمال با فضای نمونه باپایان، مدل احتمال یکنواخت، محاسبه احتمال در مدل یکنواخت، قواعد شمارش، اصل ضرب و اصل جمع در شمارش، انواع جایگشت ها، جایگشت خطی، دوری،  حلقوی، جایگشت چیزهای مشابه، ترکیب،  فرمول استرلینگ، بسط دوجمله ای، بسط چند جمله ای،  مدل های جعبه و مهره، حل مثال هایی از کاربرد روش\x1fهای شمارش در محاسبه احتمال ها در مدل یکنواخت با فضای نمونه باپایان، مدل احتمال با فضای نمونه دلخواه، اشاره ای کوتاه و مقدماتی به تعریف  میدان سیگما و تابع مجموعه ای و تعریف یک فضای احتمال، احتمال شرطی، قانون ضرب احتمال، استقلال دو و چند پیشامد،  افراز فضای نمونه و فرمول احتمال کل، قضیه بیز، احتمال پیشین و پسین، اشاره ای به کاربرد  احتمال شرطی و قضیه بیز  در جدول توافقی دو در دو (ماتریس در هم ریختگی) در مسائل رده بندی و داده کاوی،  استفاده از نرم افزارهای آماری برای شمارش و محاسبه احتمال ها. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**   تدریس و سخنرانی،  حل مثال\x1fهای کاربردی و حتی الامکان پرهیز از تاکید بر مثال\x1fهای کلیشه\x1fای تاس و سکه در درس  با هدف علاقه مند ساختن دانشجو، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه و آموزش محاسبات نرم افزاری. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار می شود. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز**\n']</t>
+    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای نمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از نرم افزار اکسل  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
+    <t>['تعریف آزمایش تصادفی و فضای نمونه، فضای نمونه باپایان و بی پایان، پیشامدها، پیشامد قطعی و محال، رخ دادن پیشامد، اعمال روی پیشامدها و تعبیر آنها، مکمل یک پیشامد، اجتماع، اشتراک، زیرپیشامد، تفاضل دو پیشامد، تفاضل متقارن پیشامدها، تعریف احتمال، تعبیرهای مختلف احتمال، تعیبر فراوانی نسبی احتمال، تعبیر شخصی احتمال، اصول کولموگوروف، قضایای احتمال، مدل احتمال با فضای نمونه باپایان، مدل احتمال یکنواخت، محاسبه احتمال در مدل یکنواخت، قواعد شمارش، اصل ضرب و اصل جمع در شمارش، انواع جایگشت ها، جایگشت خطی، دوری،  حلقوی، جایگشت چیزهای مشابه، ترکیب،  فرمول استرلینگ، بسط دوجمله ای، بسط چند جمله ای،  مدل های جعبه و مهره، حل مثال هایی از کاربرد روش\x1fهای شمارش در محاسبه احتمال ها در مدل یکنواخت با فضای نمونه باپایان، مدل احتمال با فضای نمونه دلخواه، اشاره ای کوتاه و مقدماتی به تعریف  میدان سیگما و تابع مجموعه ای و تعریف یک فضای احتمال، احتمال شرطی، قانون ضرب احتمال، استقلال دو و چند پیشامد،  افراز فضای نمونه و فرمول احتمال کل، قضیه بیز، احتمال پیشین و پسین، اشاره ای به کاربرد  احتمال شرطی و قضیه بیز  در جدول توافقی دو در دو (ماتریس در هم ریختگی) در مسائل رده بندی و داده کاوی،  استفاده از نرم افزارهای آماری برای شمارش و محاسبه احتمال ها. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**   تدریس و سخنرانی،  حل مثال\x1fهای کاربردی و حتی الامکان پرهیز از تاکید بر مثال\x1fهای کلیشه\x1fای تاس و سکه در درس  با هدف علاقه مند ساختن دانشجو، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه و آموزش محاسبات نرم افزاری. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار می شود. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز**\n']</t>
   </si>
   <si>
     <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tکارکردن با استاتیک ها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tفایل های ترتیبی\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tالگوریتمهای جستجو و مرتب\u200cسازی\n', '•\tحافظه پویا\n', '•\tموارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
   </si>
   <si>
-    <t>['مرور مقدمات برنامه\u200cنویسی در پایتون، انواع داده\u200cای، ساختارهای شرطی و کنترلی، حلقه\u200cها و توابع. ماژول\u200cها. لیست\u200cها، فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات رو ی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. آشنایی با ماژول\u200cهای NumPy و SciPy. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. پرونده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. پانداس – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، عبارات با قاعده، Threads، جانگو\n']</t>
+    <t>['مرور مقدمات برنامه\u200cنویسی در پایتون، انواع داده\u200cای، ساختارهای شرطی و کنترلی، حلقه\u200cها و توابع. ماژول\u200cها. لیست\u200cها، فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات رو ی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. پرونده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، عبارات با قاعده، Threads، جانگو\n']</t>
   </si>
   <si>
     <t>['آنالیز پیچیدگی زمان و حافظه الگوریتم\u200cها، توابع بازگشتی، معرفی ساختمان\u200cهای داده\u200cای مقدماتی (لیست پیوندی، پشته، صف و صف اولویت\u200cدار) و الگوریتم\u200cهای وابسته به آن\u200cها،  نمایش ماتریس\u200cها در حافظه، ماتریس\u200cهای تنک،\u200c تطابق رشته، درخت\u200cها و الگوریتم\u200cهای پیمایش مربوطه، درخت عبارت، تبدیل نگارش\u200cهای مختلف یک عبارت ریاضی، درهم\u200cسازی، گراف\u200cها و الگوریتم\u200cهای مربوط به گراف (BFS، DFS و ...) ، الگوریتم\u200cهای جستجو و مرتب\u200cسازی.\n']</t>
@@ -991,10 +967,10 @@
     <t>['- آشنایی با UML\n', '- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با عبارات با قاعده\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی مقدماتی با** LaTeX\n', '- دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- **مقدمات برنامه\u200cنویسی وب**\n', '- اصول کلی HTML، آشنایی با JavaScript و CSS\n']</t>
   </si>
   <si>
-    <t>['مدل معنایی داده. مدلسازی داده محور. مدل هویت-رابطه. مدل هویت-رابطه بهبودیافته. مقدمات ساخت پایگاه داده های رابطه ای. بارگذاری و استخراج داده. بروزرسانی و حذف داده. مکانیزم ماشه در پایگاه داده. وابستگی تابعی. فرم\u200cهای نرمال. جبر رابطه\u200cای. ایندکس. ساختمان داده درخت-ب. تئوری پایگاه دادههای عظیم. پایگاه داده های غیررابطه ای مانند مونگودیبی. دادگان غیرساخت یافته در پایگاه داده های غیررابطه ای.\n']</t>
-  </si>
-  <si>
-    <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086..\n']</t>
+    <t>['مدل معنایی داده. مدلسازی داده محور. مدل هویت-رابطه. مدل هویت-رابطه بهبودیافته. مقدمات ساخت پایگاه داده\u200cهای رابطه ای. بارگذاری و استخراج داده. بروزرسانی و حذف داده. مکانیزم ماشه در پایگاه داده. وابستگی تابعی. فرم\u200cهای نرمال. جبر رابطه\u200cای. ایندکس. ساختمان داده درخت-ب. تئوری پایگاه دادههای عظیم. پایگاه داده\u200cهای غیررابطه ای مانند مونگودیبی. دادگان غیرساخت یافته در پایگاه داده\u200cهای غیررابطه ای.\n']</t>
+  </si>
+  <si>
+    <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n']</t>
   </si>
   <si>
     <t>['دوره سریع مفاهیم مجموعه ها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتري، تبدیلها و ترکیب ها و ضرایب دوجمله اي، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزي و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوي که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس هاي صفر و یک (آماده سازي براي بخش مربع هاي لاتین و گراف ها)، آشنایی با ماتریس هاي آدامار و برخی نتایج در این مورد. گراف ها و مدل هاي مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهاي آن در مدلسازي (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه اي، انواع اصلی گراف نظیر گراف هاي کامل، درخت ها، گراف هاي دوبخشی، گراف هاي اویلري و هامیلتونی و گراف هاي جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق هاي کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزي گراف ها و چند جمله اي رنگی (با ارائه مثال و الگورتیم). مربع هاي لاتین، طرح ها و هندسه هاي متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n']</t>
@@ -1003,13 +979,13 @@
     <t>['آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعهها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه ها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه های نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n']</t>
   </si>
   <si>
-    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه سازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه سازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای حل مساله کوتاه ترین مسیر. الگوریتم\u200cهای حل مساله بیشینه جریان. الگوریتم\u200cهای حل مساله کمینه هزینه انتقال. الگوریتم سیمپلکس شبکه. الگوریتم\u200cهای تطابق. الگوریتمهای کوچکترین درخت فراگیر. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه سازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، کمترین برش)، الگوریتم ادمونز کارپ، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف. اجرای پروژه کاربردی.\n']</t>
+    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای حل مساله کوتاه ترین مسیر. الگوریتم\u200cهای حل مساله بیشینه جریان. الگوریتم\u200cهای حل مساله کمینه هزینه انتقال. الگوریتم سیمپلکس شبکه. الگوریتم\u200cهای تطابق. الگوریتمهای کوچکترین درخت فراگیر. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، کمترین برش)، الگوریتم ادمونز کارپ، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف. اجرای پروژه کاربردی.\n']</t>
   </si>
   <si>
     <t>['اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n']</t>
   </si>
   <si>
-    <t>['دستگاه معادلات خطی و ماتریسها. دترمینان. فضای برداری. فضای ضرب داخلی. تبدیل خطی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون.\n', 'مشتق برداری  و ماتریسی\n']</t>
+    <t>['دستگاه معادلات خطی و ماتریسها. دترمینان. فضای برداری. فضای ضرب داخلی. تبدیل خطی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون.\n']</t>
   </si>
   <si>
     <t>['منابع خطا، سیستم\u200cهای نمایشی اعداد، خطای رندکردن و تحلیل آن. ریشه\u200cیابی توابع و دستگاههای غیر خطی. درون\u200cیابی. تقریب کمترین مربعات. مشتق\u200cگیری عددی. انتگرال\u200cگیری عددی. حل دستگاه\u200cهای خطی.\n']</t>
@@ -1018,34 +994,28 @@
     <t>['اعداد حقیقی و آشنایی با فضاهای متریک و مفاهیم توپولوژیکی آن. مجموعه اعداد حقیقی، اصل کمال و خاصیت ارشمیدسی. مجموعه\u200cهای باز و بسته. مجموعه\u200cهای فشرده. مجموعه\u200cهای همبند. پیوستگی توابع. مشتق توابع. قضیه مقدار میانی و قضیه اکسترمم. پیوستگی یکنواخت. قضیه مقدار میانگین و قاعده هوپیتال. فضاهای متریک. دنباله\u200cها و همگرایی آن\u200cها. حد توابع. حفظ پیوستگی و همبندی توسط توابع پیوسته.\n']</t>
   </si>
   <si>
-    <t>['مروری بر مقدمات جبرخطی و مبانی ماتریس ها. ضرب داخلی. نرم برداری و ماتریسی. حل دستگاه های خطی و تجزیه LU. تحلیل حساسیت دستگاههای خطی. روش گاوس با محورگیری جزئی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها.\n']</t>
+    <t>['مروری بر مقدمات جبر خطی و مبانی ماتریس ها. ضرب داخلی. نرم برداری و ماتریسی. حل دستگاه های خطی و تجزیه LU. تحلیل حساسیت دستگاههای خطی. روش گاوس با محورگیری جزئی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها.\n']</t>
   </si>
   <si>
     <t>['توزیعهای توام: تابع احتمال، تابع چگالی و تابع توزیع توام، متغیرهای تصادفی مستقل، کواریانس، ضریب همبستگی، مثال هایی از توزیع های توام خاص. توزیع های شرطی: توزیع های شرطی گسسته، توزیع های شرطی پیوسته، کاربرد توزیع های شرطی، امید ریاضی شرطی و کاربردهای آن شامل امید کل، واریانس شرطی. توزیع توابعی از متغیرهای تصادفی: روش تابع توزیع، روش تغییر متغیرها (دو یا چند متغیره)، روش تابع مولد گشتاور، توزیع مجموع متغیرهای تصادفی، مجموع تعداد تصادفی از متغیرهای تصادفی، امید ریاضی مجموع تعداد تصادفی از متغیرهای تصادفی. قضیه حد مرکزی و تقریب دوجمله ای توسط نرمال، تقریب پواسن به نرمال. آمار توصیفی: نمونه، جامعه آماری، شاخصهای آماری، نمودارهای آماری. نمونه تصادفی، توزیع میانگین نمونه ای، توزیع های نمونه ای، تی استودنت، کای-دو و توزیع فیشر. روشهای برآوردیابی پارامترهای نامعلوم: برآوردیابی نقطه ای، برآورد فاصله ای، فاصله اطمینان با اندازه نمونه\u200cهای بزرگ. آشنایی با مفاهیم آزمون فرضها: آزمون فرضهای ساده، آزمون فرض های یک طرفه، آزمون فرض های دوطرفه، آزمون واریانس جمعیت نرمال، آزمون میانگین و نسبت با اندازه نمونه های بزرگ، استنباط در مورد دو میانگین، استنباط در مورد جفت مشاهدات، آزمون میانگین و نسبت دو جمعیت با اندازه نمونه های بزرگ.\n']</t>
   </si>
   <si>
-    <t>['مروري بر مباحث آمار توصیفی، پالايش داده\u200cها با اندازه\u200c وابعاد زياد، رسم نمودار هسته\u200cهاي چگالي يك و دومتغیره، آزمون\u200cهاي نرمال يك و چند متغيره، كاربرد روش\u200cهاي مونت\u200cکارلو در استنباط آماري، مقدمه\u200cاي بر شيوه\u200c شبيه\u200cسازي در توليد داده\u200cهاي تصادفي از چند توزيع آماري، مانند نرمال و تي-استيودنت، يك و چند متغيره و بررسي ويژگي آن\u200cها، مطالعات شبيه\u200cسازي براي آزمون برابري ميانگين\u200cها، واريانس\u200cها و ميانه\u200cهاي جوامع با نمونه\u200cهاي مستقل از توزيع\u200cهاي نرمال و چند توزيع غیر نرمال. کاربرد روش مونت\u200cکارلو دریافتن احتمال\u200cهاي پيچيده و p-مقدار برخي آزمون\u200cها، شبيه\u200cسازي مدل\u200cهاي رگرسيون خطي با انواع متغيرهاي توضيحي كمي و كيفي و با فرض مانده\u200cهاي غیر نرمال و وابسته، بررسي استواري مدل نسبت به نقض فرض\u200cهاي معمول، مباحث تکمیل\u200cکننده در صحت و اعتبار مدل\u200cهاي برازش شده باوجود مشاهدات پرت و ناهمساني واريانس، معرفي راهبردهاي مناسب مانند رگرسيون استوار نا پارامتری، يافتن برآوردهاي ماکسيمم درستنمايي توسط روش\u200cهاي بهينه\u200cسازي عددي مانند نيوتن-رافسون و امتياز فيشر، روش\u200c بوت\u200cاسترپ و جک\u200cنايف و کاربرد آن\u200cها در مباحث آماري؛ الگوريتمEM و کاربرد آن در برآورد یابی توزيع\u200cهاي آميخته متداول پيوسته و گسسته يک متغيره.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه. پروژه های درسی و نوشتن گزارش نتایج  توسط دانشجو،  مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیز نیاز دارد، فعالیت\x1fهای تعیین شده ای توسط استاد درس بایستی در آزمایشگاه نرم افزار ارائه شود و دانشجویان نیز فعالیت\x1fهای تعریف شده ای را انجام \x1fدهند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['مروري بر مباحث آمار توصیفی، پالايش داده\u200cها با اندازه\u200c وابعاد زياد، رسم نمودار هسته\u200cهاي چگالي يك و دومتغیره، آزمون\u200cهاي نرمال يك و چند متغيره، كاربرد روش\u200cهاي مونت\u200cکارلو در استنباط آماري، مقدمه\u200cاي بر شيوه\u200c شبيه\u200cسازي در توليد داده\u200cهاي تصادفي از چند توزيع آماري، مانند نرمال و تي-استيودنت، يك و چند متغيره و بررسي ويژگي آن\u200cها، مطالعات شبيه\u200cسازي براي آزمون برابري ميانگين\u200cها، واريانس\u200cها و ميانه\u200cهاي جوامع با نمونه\u200cهاي مستقل از توزيع\u200cهاي نرمال و چند توزيع غیر نرمال. کاربرد روش مونت\u200cکارلو دریافتن احتمال\u200cهاي پيچيده و p-مقدار برخي آزمون\u200cها، شبيه\u200cسازي مدل\u200cهاي رگرسيون خطي با انواع متغيرهاي توضيحي كمي و كيفي و با فرض مانده\u200cهاي غیر نرمال و وابسته، بررسي استواري مدل نسبت به نقض فرض\u200cهاي معمول، مباحث تکمیل\u200cکننده در صحت و اعتبار مدل\u200cهاي برازش شده باوجود مشاهدات پرت و ناهمساني واريانس، معرفي راهبردهاي مناسب مانند رگرسيون استوار ناپارامتری، يافتن برآوردهاي ماکسيمم درستنمايي توسط روش\u200cهاي بهينه\u200cسازي عددي مانند نيوتن-رافسون و امتياز فيشر، روش\u200c بوت\u200cاسترپ و جک\u200cنايف و کاربرد آن\u200cها در مباحث آماري؛ الگوريتمEM و کاربرد آن در برآورد یابی توزيع\u200cهاي آميخته متداول پيوسته و گسسته يک متغيره.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه. پروژه های درسی و نوشتن گزارش نتایج  توسط دانشجو،  مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیز نیاز دارد، فعالیت\x1fهای تعیین شده ای توسط استاد درس بایستی در آزمایشگاه نرم افزار ارائه شود و دانشجویان نیز فعالیت\x1fهای تعریف شده ای را انجام \x1fدهند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['نمونه تصادفی، توزیع میانگین نمونه ای،  قضیه حدمرکزی، برآورد نقطه ای و ویژگی های آن، برآورد فاصله ای برای پارامترهای میانگین، واریانس و نسبت در یک جامعه و  مقایسه دو جامعه در حالات: جوامع نرمال، جوامع غیرنرمال، واریانس های دو جامعه معلوم، واریانس های دو جامعه مجهول و واریانس ها مجهول ولی برابر، حجم نمونه ها کم و حجم نمونه ها زیاد، بر اساس دو نمونه مستقل و دو نمونه وابسته،  آزمون فرضیه های آماری: بیان مفاهیم و اصول آزمون های آماری، انواع خطا و اهمیت آنها، اندازه آزمون، آزمون های پارامتری یک طرفه و دو طرفه برای میانگین، واریانس و نسبت یک جامعه و مقایسه  دو جامعه در حالات : واریانس معلوم، واریانس مجهول، میانگین معلوم، میانگین مجهول، حجم نمونه ها کم، حجم نمونه ها زیاد، دو جامعه مستقل و دو جامعه وابسته، نمودار پراکنش، براورد، آزمون فرض و فاصله اطمینان برای ضریب همبستگی پیرسون،  رگرسیون خطی ساده، آزمون خی دو برای نیکوئی برازش، جدول توافقی و آزمون استقلال، محاسبات و تحلیل داده با حداقل یک نرم افزار آماری و تفسیر خروجی های آن. \n', '`     `**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از یکی حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['اصطلاحات و مفاهیم پایه یادگیری آماری، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، مدل\u200cهای رگرسیون خطی و یادگیری با نظارت،  انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپیلاین و غیرخطی در یادگیری آماری، رگرسیون درختی، درخت های تصادفی،  رده بندی، کاربرد انواع مدل\u200cهای رگرسیون لجستیک در رده\u200cبندی، درخت رده\u200cبندی، ماشین بردار پشتیبان و کاربرد آن در رده\u200cبندی، آموزش و آزمایش مدل\u200cها، روش\x1fهای اعتبار سنجی متقابل و بوت استرپ برای بررسی صحت مدل\u200cها، رده بندی،  بررسی الگوریتم\u200cهای رده\u200cبندی با اعتبار سنجی متقابل،  الگوریتم\u200cهای یادگیری بدون نظارت، روشهای کاهش بعد، کاربرد مؤلفه\u200cهای اصلی در یادگیری بی نظارت، روشهای خوشه\u200cبندی به\u200cعنوان الگوریتم\u200cهای بی نظارت، روش خوشه\u200cبندی  K-Means و روش سلسله مراتبی.\n', '` `**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه.  رویکرد این درس آشنایی دانشجو با مباحث یادگیری آماری است و  مباحث نظری صرفا در حد نیاز آموزش داده شوند. مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد، استاد درس بایستی فعالیت های مشخصی را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت\x1fهای تعریف شده ای را انجام \x1fدهند.  نرم\u200cافزار آمار R یا پایتون  برای آموزش مطالب درسی توصیه می شود. این درس نیاز به انجام پروژه و تحلیل داده های واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات موردنیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['معرفی داده کاوی و تحلیل داده\u200cها. گرداوری داده\u200cها. دیداری سازی داده\u200cها. خوشه بندی داده\u200cها. رده بندی داده\u200cها. تشخیص الگو و پیش بینی. قواعد پیوند. کشف داده\u200cهای نابه\u200cهنجار. کار با داده\u200cهای واقعی.\n']</t>
-  </si>
-  <si>
-    <t>['یادگیری آماری، تابع برآوردگر، معاوضه بین دقت پیش بینی و تفسیرپذیری مدل، یادگیری با نظارت در مقابل یادگیری بدون نظارت، رگرسیون در مقابل طبقه بندی، ارزیابی دقت مدل، اندازه گیری کیفیت برازش، مبادله سوگیری-واریانس، رگرسیون خطی، رگرسیون خطی ساده، برآورد ضرایب، ارزیابی دقت برآورد ضرایب، ارزیابی دقت مدل، رگرسیون خطی چندگانه، برآورد ضرایب رگرسیون، مقایسه رگرسیون خطی با k- نزدیکترین همسایه، رگرسیون خطی چندگانه، شرایط تعامل، تبدیل های غیر خطی پیش بینی کننده ها، پیش بینی کننده های کیفی، مروری بر طبقه بندی، رگرسیون لجستیک، مدل لجستیک، برآورد ضرایب رگرسیون، رگرسیون لجستیک چندگانه، رگرسیون لجستیک چند جمله ای، مدل های مولد برای طبقه بندی، تجزیه و تحلیل تفکیک خطی، تجزیه و تحلیل تفکیک درجه دوم، بیز ناپخته، مقایسه روش های طبقه بندی، مدل های خطی تعمیم یافته، مثال واقعی برای رگرسیون خطی مانند داده\u200cهای اشتراک دوچرخه، رگرسیون پواسون در داده های اشتراک دوچرخه، داده های بازار سهام، روش نمونه گیری مجدد، اعتبار سنجی متقابل، رویکرد مجموعه اعتبار سنجی، اعتبارسنجی متقابل، تعادل بین بایاس و واریانس، بوت استرپ، انتخاب و تنظیم مدل خطی، انتخاب زیر مجموعه، بهترین انتخاب زیر مجموعه، انتخاب گام به گام، انتخاب مدل بهینه، روش های انقباض، رگرسیون ریج، لاسو، انتخاب پارامتر تنظیم، روش های کاهش ابعاد، رگرسیون مؤلفه\u200cهای اصلی، حداقل مربعات جزئی، ملاحظات در ابعاد بالا، داده های با ابعاد بالا، رگرسیون در ابعاد بالا، تفسیر نتایج در ابعاد بالا، روش های منظم سازی، فراتر از خطی بودن، رگرسیون چند جمله ای، توابع پایه، اسپلاین\u200cها ، چند جمله ای های تکه ای، محدودیت ها و اسپلاین\u200cها، نمایندگی پایه اسپلاین\u200c، انتخاب تعداد و مکان گره ها، مقایسه با رگرسیون چند جمله ای، هموارسازی اسپلاین، مروری بر هموارسازی اسپلاین ها، انتخاب پارامتر هموارسازی λ، رگرسیون محلی، مدل های جمعی تعمیم یافته، مدلهای جمعی تعمیم\u200cیافته برای مشکلات رگرسیون، مدلهای جمعی تعمیم\u200cیافته برای مسائل طبقه بندی، روش مبتنی بر درخت، اصول درختان تصمیم، درختان رگرسیون، درختان طبقه بندی، درختان در مقابل مدل های خطی، مزایا و معایب درختان، روش بگینگ (دسته\u200cبندی) ، جنگل تصادفی، بوستینگ (تقویت شده) و درختان رگرسیون جمعی بیزی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'سخنرانی، در صورت نیاز شبیه\u200cسازی و محاسبات نرم\u200cافزاری، انجام تکلیف\u200cهای محول شده توسط دانشجویان. \n', 'پیشنهاد می\u200cشود به جای منابع متعدد، فقط از کتاب ISL زیر در دو درس یادگیری ماشین مقدماتی ۱ و ۲ استفاده شود. به این ترتیب دانشجویان این کتاب را به خوبی فراخواهند گرفت و آمادگی پیدا خواهند کرد که مطالب عمیق\u200cتر را در تحصیلات تکمیلی از کتاب ESL دنبال نمایند.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['**ماشین بردار پشتیبان** (SVM)، طبقه بندی کننده بیشینه کننده\u200cی حاشیه، ابرصفحه، طبقه بندی با استفاده از یک ابرصفحه جداکننده، طبقه بند ماشین بردار پشتیبان، طبقه بندی با مرز تصمیم غیر خطی، ماشین بردار پشتیبان، مثال کاربردی برای داده های بیماری قلبی، SVM با بیش از دو کلاس، طبقه بندی یکی در مقابل همه، رابطه با رگرسیون لجستیک، منحنی های ROC، SVM، کاربرد برای داده های بیان ژن، **شبکه های عصبی** تک لایه، شبکه های عصبی چند لایه، شبکه های عصبی کانولوشنال، لایه های پیچشی، ادغام لایه ها، معماری یک شبکه عصبی کانولوشنال، افزایش داده ها، نتایج با استفاده از یک طبقه بندی کننده از پیش آموزش دیده، طبقه بندی اسناد، شبکه های عصبی برگشتی (RNN )، مدل های متوالی برای طبقه بندی اسناد، پیش بینی سری های زمانی، برازش یک شبکه عصبی، قاعده\u200cی پس انتشار خطا، منظم سازی و نزول گرادیان تصادفی، تنظیم شبکه، درون یابی و نزول دوگانه، شبکه چند لایه در داده های رقمی MNIST، **یادگیری عمیق،** شبکه های عصبی پیچشی (CNN)، استفاده از مدل های CNN از پیش آموزش دیده، تجزیه و تحلیل بقا و داده های سانسور شده، زمان بقا و سانسور، منحنی بقای کاپلان مایر، آزمون Log-Rank، مدل های رگرسیون با پاسخ بقا، تابع خطر، مثال: داده های سرطان مغز، انتشارات و مرکز تماس. انقباض برای مدل کاکس، یادگیری بدون نظارت، چالش یادگیری بدون نظارت، تجزیه و تحلیل اجزای اصلی (PCA)، روش های خوشه بندی، K-Means Clustering، خوشه بندی سلسله مراتبی، مروری بر آزمون فرض، خطاهای نوع I و نوع II، چالش تست چندگانه، میزان خطای خانوادگی،\u200c رویکردهایی برای کنترل میزان خطای خانوادگی، مبادله بین FWER و Power، نرخ کشف نادرست، شهود برای نرخ کشف کاذب، رویه بنجامینی-هخبرگ، رویکرد نمونه گیری مجدد برای مقادیر p و کشف نادرست نرخ ها.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'سخنرانی، در صورت نیاز شبیه\u200cسازی و محاسبات نرم\u200cافزاری، انجام تکلیف\u200cهای محول شده توسط دانشجویان. \n', 'پیشنهاد می\u200cشود به جای منابع متعدد، فقط از کتاب ISL زیر در دو درس یادگیری ماشین مقدماتی ۱ و ۲ استفاده شود. به این ترتیب دانشجویان این کتاب را به خوبی فراخواهند گرفت و آمادگی پیدا خواهند کرد که مطالب عمیق\u200cتر را در تحصیلات تکمیلی از کتاب ESL دنبال نمایند.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، آشنایی مقدماتی با شبکه\u200cهای عصبی، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ناپخته، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، روشهای کاهش بعد، PCA و LDA.\n', 'پروژه کاربردی (حتی الامکان تحت وب)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه.  رویکرد این درس آشنایی دانشجو با مباحث یادگیری ماشینی است و مباحث نظری صرفا در حد نیاز آموزش داده شوند. در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس بهینه\u200cسازی غیرخطی گفته شده است. همچنین به فرض سایر روش\u200cهای مرتبط همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در درس تکمیلی مرتبط با یادگیری ماشین، همچون دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
+    <t>['مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پيش پردازش و آماده سازي داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استاندارد سازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', 'سایر روشهای خوشه\u200cبندی که در درس یادگیری ماشین مقدماتی گفته نشده است، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی که در درس یادگیری ماشین مقدماتی گفته نشده است.\n', 'روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، میانگین متحرک، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', 'شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی، معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحليل آنها بوسيله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با حوزه\u200cی یادگیری ماشین اشتراک دارد، در این برنامه درسی سعی شده است که هم\u200cپوشانی مطالب کمینه باشد. شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
   </si>
   <si>
     <t>['معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه های محاسبه ناپذیر. مجموعه های خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n']</t>
   </si>
   <si>
-    <t>['منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم های انتقالی.\n']</t>
+    <t>['منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم\u200cهای انتقالی.\n']</t>
   </si>
   <si>
     <t>['یادآوری مفاهیم حلقه، میدان، حلقه خارج قسمتی، حوزه ایده آل اصلی، حلقه چندجمله\u200cای\u200cها، الگوریتم تقسیم، فضای برداری روی میدان متناهی، پایه و بعد یک فضای برداری. تعریف مفاهیم ابتدایی کدگذاری شامل مجموعه الفبا، کد و کد کلمه، تعریف فاصله همینگ و خواص آن و ….  مقدمه\u200cای بر میدان\u200cهای متناهی. مقدمه\u200cای بر کدهای خطی. تعریف کد دوری.\n']</t>
@@ -1069,25 +1039,25 @@
     <t>['- مقدمه (۲ جلسه)\n', '  - معرفی درس، نمونه مسائل هندسی\n', '- پوسته\u200cی محدب (۴ جلسه)\n', '  - محاسبه\u200cی پوسته\u200cی محدب در صفحه، عملیات پایه\u200cی هندسی\n', '  - چند روش برای محاسبه\u200cی پوسته\u200cی محدب در صفحه\n', '  - اثبات کران پایین، قضیه\u200cی بن-اُر\n', '  - الگوریتم\u200cهای حساس به خروجی، دو الگوریتم بهینه از چن\n', '- دوگان هندسی (۱ جلسه)\n', '  - دوگان نقاط، پوش\u200cهای بالایی و پایینی، کاربردها، دوگان در فضای سه\u200cبعدی\n', '- پوسته\u200cی محدب در فضای سه\u200cبعدی (۲ جلسه)\n', '  - پیچیدگی ترکیبیاتی، نحوه\u200cی نمایش، الگوریتم کادوپیچی\n', '  - الگوریتم تصادفی کلارکسون-شور، پوسته\u200cی محدب در فضاهای بالاتر\n', '- تقاطع و چینش خطوط (۲ جلسه)\n', '  - ساخت چینش خطوط، الگوریتم افزایشی، قضیه\u200cی قلمرو یک خط\n', '  - تقاطع پاره\u200cخط\u200cها، الگوریتم جاروب صفحه، الگوریتم تقسیم و حل\n', '- نمودار ورونوی و مثلث\u200cبندی دلونی (۴ جلسه)\n', '  - تعریف نمودار ورونوی، ویژگی\u200cها و قضایا\n', '  - مثلث\u200cبندی دلونی و خواص آن، الگوریتم فورچیون\n', '  - ارتباط با پوسته\u200cی محدب، الگوریتم تصادفی ساخت\n', '  - کاربردهای نمودار ورونوی و مثلث\u200cبندی دلونی، نمودار ورونوی مرتبه\u200cی بالاتر\n', '- برنامه\u200cریزی خطی (۴ جلسه)\n', '  - تعریف برنامه\u200cریزی خطی، کاربردهای هندسی در فضای پایین\n', '  - الگوریتم هرس و جست\u200cوجوی مگیدو، الگوریتم تصادفی-افزایشی سایدل\n', '  - الگوریتم نمونه\u200cبرداری تصادفی کلارکسون\n', '  - مسائل شبیه به برنامه\u200cریزی خطی، کوچک\u200cترین دایره\u200cی محیطی\n', '- مکان\u200cیابی نقاط (۲ جلسه)\n', '  - روش تقسیم و حل، نقشه\u200cی ذوزنقه\u200cای، الگوریتم افزایشی تصادفی\n', '  - الگوریتم هرس و جست\u200cوجوی کرکپاتریک\n', '- مثلث\u200cبندی چندضلعی (۲ جلسه)\n', '  - روش ذوزنقه\u200cبندی، الگوریتم تصادفی سایدل\n', '  - کاربردهای مثلث\u200cبندی، مسئله\u200cی گالری هنر\n', '- جست\u200cوجوی بازه\u200cای (۲ جلسه)\n', '  - بازه\u200cهای متعامد: درخت کی\u200cدی، درخت بازه، آبشار کسری\n', '  - پنجره\u200cبندی، درخت جست\u200cوجوی اولویت، درخت پاره\u200cخط\n']</t>
   </si>
   <si>
-    <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده های واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده های واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['مثالهایی از سری های زمانی و اهداف تحلیل سری های زمانی.  مدل های دارای روند و مؤلفه فصلی در حوزه زمان و روشهای برآورد و حذف آنها (عملگرهای پسرو و تفاضلی). مدل های مبتنی بر روابط خودهمبستگی (تعاریف اولیه مانند تابع خود کوواریانس، خودهمبستگی، خودهمبستگی جزئی). توابع خود کوواریانس و خودهمبستگی نمونه\u200cای. آزمون های گوناگون برای تصادفی و نرمال بودن دنباله\u200cهای متغیرهای تصادفی. معرفی کلاس ARIMA از مدل\u200cهای خطی و وارون\u200cپذیر. برآورد میانگین و توابع خود کوواریانس و خودهمبستگی مدل های ایستا. پیشبینی مدل های سری های زمانی ایستا. مدل\u200cهای ARIMA با استفاده از برآوردهای اولیه. برآوردگرهای MLE، بررسی درستی و صحت مدل، معیار AICC. سری های زمانی در حوزه فرکانس. برآورد پارامترهای مدل و چگونگی تعیین مدل و معرفی مدل های سری زمانی مبتنی بر واریانس شرطی.\n']</t>
   </si>
   <si>
-    <t>['تاریخچه و کاربرد هوش مصنوعی. توسعه عاملهای هوشمند واکنشی، مدل گرا، هدف گرا و سودمند. روشهای جستجوی فضای حالت مساله به صورت ناآگاهانه. جستجوی \\*A. زنجیره مارکوف. شبکه های باور. جستجوی هیوریستیک، تپه نوردی، پرتوی محلی. الگوریتم ژنتیک. بازیها و جستجوی تخاصمی. مسائل ارضای محدودیت. عاملهای منطقی. طرح ریزی مساله. عدم قطعیت در مسائل هوش مصنوعی. بازنمایی دانش در هوش مصنوعی. کاربردهای هوش مصنوعی. آشنایی با سیستم های خبره.\n']</t>
-  </si>
-  <si>
-    <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه سازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'گرچه که شبکه\u200cهای عصبی هم در حوزه محاسبات نرم قرار می\u200cگیرد، اما به سبب ازدیاد سرفصل این درس و هم اینکه شبکه\u200cهای عصبی در درس\u200cهای دیگری مرور می\u200cشوند، در سرفصل این درس قرار داده نشده است. البته وابسته به نظر استاد می\u200cتوان مروری بر شبکه\u200cهای عصبی نیز داشت.\n', '**~~شبکه\u200cهای عصبی:~~**\n', '~~پرسپترون، یادگیری پرسپترون،\u200c توابع فعالیت~~\n', '~~معماری\u200cهای شبکه\u200cهای عصبی: پرسپترون چند لایه ، هاپفیلد، خود سازمانده، ART و ...~~\n']</t>
-  </si>
-  <si>
-    <t>['`   `مفاهیم مقدماتی و ابزارهای هوش تجاری، فرایند تصمیم گیری، سیستم های پشتیبان تصمیم گیری، مفاهیم، روشها و تکنولوژی، تصمیم گیری براساس مدل های آماری در سیستم های تجاری، داده کاوی در هوش تجاری،  فرایند استخراج، تبدیل و  بارگذاری داده ها (ETL) ، وب کاوی، انبار داده ها،  پاکسازی داده ها، تهیه و ساخت جداول، ایجاد ارتباط بین جداول، طراحی و ساخت  انواع گزارش ها، گزارش های زمان محور و مکان محور روی نقشه، ساخت انواع نمودارها، ساخت و سفارشی سازی داشبوردهای مدیریتی با استفاده از نرم افزارهایی مانند Tableau، Power BI، Self-Service BI، Tableau Prep، QlikSense، ارائه پروژه های دانشجویان. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['با توجه به سرفصلی که برای یادگیری ماشین مقدماتی ۲ گذاشته\u200cام، این سرفصل باید اصلاح شود\n', '`    `مروری بر اصول یادگیری ماشینی، مرور اجمالی بر جبر خطی، یادگیری نظارتی (رگرسیون خطی،  رده بندی با استفاده از ماشین بردار پشتیبان و رگرسیون لوجستیک، رگرسیون ریج و لاسو)، یادگیری غیر نظارتی ( روشهای خوشه بندی سلسله مراتبی و k- میانگین)، کاهش بعد با استفاده از مولفه های اصلی، انواع خطا -(training and test error) و cross-validation، مرور اجمالی بر بهینه سازی (optimization and gradient-based optimization)، مروری بر شبکه های عصبی پرسپترون (Perceptron)   برای طبقه بندی (قابلیتها و محدودیتها)، آشنایی با توابع activation، توابع هزینه (loss function) و روشهای ارزیابی (monitoring)، بهینه سازی از طریق الگوریتم پس انتشار (back propagation algorithm)، Regularization در یادگیری عمیق (Dropout)، شبکه های عمیق،  شبکه های عصبی متراکم (dense)، شبکه عصبی کانولوشن  (convolution) و کاربردهای آن در بینایی ماشین، شبکه بازگشتی  (recurrent)و کاربردهای آن در پردازش سریهای زمانی و داده های زبانی، یادگیری خود کدگذارها (Auto encoders) \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری  داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['مرور انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، سری های زمانی، داده های یک متغیره و چند متغیره ( مانند بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، انواع نمودار دایره\x1fای، انواع نمودارهای ستونی، نمودار پراکنش برای نمایش همبستگی، به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی)، آشنایی با دیداری سازی اطلاعات به\u200cروش اینفوگرافی، مصورسازی داده\u200cهای متنی با نمودارهای مناسب از جمله ابرکلمات ، مصورسازی داده\u200cهای فضایی روی نقشه\u200cهای جغرافیایی ایستا و پویا ، ایجاد نمودارهای تعاملی و پویا ، ایجاد داشبوردهای اطلاعاتی و وب-اپلیکیشن\u200cها، آشنایی با بسته\u200cهای ggplot، plotly، Matplotlib, ,Seaborn  Bokeh, Altair در پایتون و همچنین آشنایی با Tableau و  Power BI توصیه می\u200cشود. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه**: کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['تاریخچه و کاربرد هوش مصنوعی. توسعه عاملهای هوشمند واکنشی، مدل گرا، هدف گرا و سودمند. روشهای جستجوی فضای حالت مساله به صورت ناآگاهانه. جستجوی \\*A. زنجیره مارکوف. شبکه\u200cهای باور. جستجوی هیوریستیک، تپه نوردی، پرتوی محلی. الگوریتم ژنتیک. بازیها و جستجوی تخاصمی. مسائل ارضای محدودیت. عاملهای منطقی. طرح ریزی مساله. عدم قطعیت در مسائل هوش مصنوعی. بازنمایی دانش در هوش مصنوعی. کاربردهای هوش مصنوعی. آشنایی با سیستم\u200cهای خبره.\n']</t>
+  </si>
+  <si>
+    <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'گرچه که شبکه\u200cهای عصبی هم در حوزه محاسبات نرم قرار می\u200cگیرد، اما به سبب ازدیاد سرفصل این درس و هم اینکه شبکه\u200cهای عصبی در درس\u200cهای دیگری مرور می\u200cشوند، در سرفصل این درس قرار داده نشده است. البته وابسته به نظر استاد می\u200cتوان مروری بر شبکه\u200cهای عصبی نیز داشت.\n', '**~~شبکه\u200cهای عصبی:~~**\n', '~~پرسپترون، یادگیری پرسپترون،\u200c توابع فعالیت~~\n', '~~معماری\u200cهای شبکه\u200cهای عصبی: پرسپترون چند لایه ، هاپفیلد، خود سازمانده، ART و ...~~\n']</t>
+  </si>
+  <si>
+    <t>['`   `مفاهیم مقدماتی و ابزارهای هوش تجاری، فرایند تصمیم گیری، سیستم\u200cهای پشتیبان تصمیم گیری، مفاهیم، روشها و تکنولوژی، تصمیم گیری براساس مدل های آماری در سیستم\u200cهای تجاری، داده کاوی در هوش تجاری،  فرایند استخراج، تبدیل و  بارگذاری داده\u200cها (ETL) ، وب کاوی، انبار داده\u200cها،  پاکسازی داده\u200cها، تهیه و ساخت جداول، ایجاد ارتباط بین جداول، طراحی و ساخت  انواع گزارش ها، گزارش های زمان محور و مکان محور روی نقشه، ساخت انواع نمودارها، ساخت و سفارشی سازی داشبوردهای مدیریتی با استفاده از نرم افزارهایی مانند Tableau، Power BI، Self-Service BI، Tableau Prep، QlikSense، ارائه پروژه های دانشجویان. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
+    <t>['`    `مروری مختصر بر رگرسیون، لجستیک رگرسیون و مدل پرسپترون. معرفی تنسورها، عملیات روی تنسورها (برش، عملیات درجا و ...)، مشتق\u200cگیری خودکار، انتقال تنسورها به کارت گرافیک، آشنایی با انواع توابع فعالیت، توابع هزینه و الگوریتم\u200cهای بهینه\u200cسازی مورد استفاده در روال گرادیان کاهشی، روشهای ارزیابی (monitoring)، الگوریتم پس انتشار، بیش برازشی و کم برازشی، آماده\u200cسازی داده\u200cها،  منظم\u200cسازی، Dropout، شبکه\u200cهای عصبی متراکم (تمام متصل یا چگال)، شبکه\u200cهای عصبی پیچشی (کانولوشنی)، نمایش آنچه که لایه\u200cهای لایه\u200cهای پیچشی آموزش می\u200cبینند، یادگیری عمیق برای داده\u200cهای متنی و سری زمانی، شبکه\u200cهای برگشتی  (RNN, GRU, LSTM) و کاربردهای آنها. یادگیری خود کدگذارها، آشنایی با چند معماری معروف، انتقال یادگیری، یادگیری انتها به انتها، طبقه\u200cبندی داده\u200cهای تصویری، متنی، تنظیم پارامترها. شبکه\u200cهای مولد هم\u200cآورد (GAN)، نمایش برخی توانمندی\u200cهای یادگیری عمیق از طریق بیان مثالهای کاربردی از قبیل تولید متن، شناسایی چهره، تولید تصویر جعلی، رؤیای عمیق، انتقال سبک عصبی، نقاشی با شبکه\u200cهای عصبی و بیان توابع هزینه\u200cی مرتبط با آنها. آشنایی با حداقل یکی از کتابخانه\u200cهای معروف حوزه یادگیری عمیق مانند پای\u200cتورچ یا تنسورفلو. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', 'با توجه به اینکه پیش\u200cنیاز این درس، یادگیری ماشین مقدماتی است و در آن درس رگرسیون، مدل پرسپترون و شبکه\u200cهای چند لایه پرسپترونی گفته شده\u200cاند، در این درس می\u200cتوان به سرعت وارد مبحث موضوع یادگیری عمیق شد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
+    <t>['مرور انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، سری های زمانی، داده\u200cهای یک متغیره و چند متغیره ( مانند بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، انواع نمودار دایره\x1fای، انواع نمودارهای ستونی، نمودار پراکنش برای نمایش همبستگی، به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی)، آشنایی با دیداری سازی اطلاعات به\u200cروش اینفوگرافی، مصورسازی داده\u200cهای متنی با نمودارهای مناسب از جمله ابرکلمات ، مصورسازی داده\u200cهای فضایی روی نقشه\u200cهای جغرافیایی ایستا و پویا ، ایجاد نمودارهای تعاملی و پویا ، ایجاد داشبوردهای اطلاعاتی و وب-اپلیکیشن\u200cها، آشنایی با بسته\u200cهای ggplot، plotly، Matplotlib, ,Seaborn  Bokeh, Altair در پایتون و همچنین آشنایی با Tableau و  Power BI توصیه می\u200cشود. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه**: کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['تاریخچه کارآفرینی، مفاهیم کارآفرینی و انواع آن. انواع کسب وکار و مبانی و اصول کسب وکار. مبانی بازار و مدیریت بازار. داستان\u200cهای موفقیت و شکست کارآفرینان و قهرمانان توسعه. ارزیابی امکان سنجی و انتخاب ایده کارآفرینی. چارچوب طرح کسب وکار. طراحی جداول و محاسبات طرح کسب وکار. مراحل ثبت و تأسیس شرکت و آشنایی با انواع شرکت\u200cها. مبانی کسب وکار در اقتصاد ایران و کلیات قوانین تجارت در ایران. تجربیات موفق کارآفرینان ایرانی. مهارت\u200cهای کارآفرینی: کار گروهی، مدیریت منابع، مدیریت مالی، ارتباطات و …. برنامه ریزی و سازماندهی کسب وکار. راه\u200cاندازی کسب وکار، تولید، کنترل کیفیت و کنترل هزینه ها. بازاریابی، فروش و ارتباط با مشتری.\n']</t>
@@ -1105,7 +1075,7 @@
     <t>['`   `آشنایی با: مفاهیم و تعریف مدیریت. کاربرد های سازمان و انواع آن. برنامه ریزی و انواع آن با تاکید بر حوزه سیاسی. انگیزش و روش های ایجاد و تقویت انگیزه با تاکید بر سازمان های سیاسی. هدایت رهبری با تاکید بر هداریت و رهبری سیاسی. نظارت(کنترل) و روش های آن با تاکید بر نظارت در حوزه سیاست. خلاقیت و نوآوری و روش های ایجاد و تقویت آن با تاکید حوزه های سیاسی. روش های تصمیم گیری و انواع آن. رهیافت های عمده در سیر تکوینی نظریه های مدیریتی شامل رهیافت های سنتی منابع انسانی کمی و اقتضایی. انواع الگو های مدیریتی. الگو های مدیریت سیاسی. اصول مدیریت در اسلام. الکوی مدیریت حکمرانی انبیا- آشنایی با مدیریت در محیط سیاس. احزاب سازمان های مردم نهاد و مانند آن. مطالعه موردی شیوه های مدیریت سیاس در سیاست داخلی و خارجی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. دانشجویان باید تکلیف\u200cهای محول شده را انجام و ارائه نمایند.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['`\t`مقدمه اي بر مدلسازي، تعریف مدلسازي و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهاي اقتصادي مدلهاي بیویوژیکی و زیستی، مدلهاي فیزیکی، مدلهاي تصادفی، مدلهاي دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازي: انواع توابع ونمایش آنها با استفاد از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازي، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهاي اقتصادي از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازي، مقایسه بین، توابع خطی و نمایی در مدلسازي، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازي، رشد وکاهش نمایی، استفاد از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژي و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاد از گرافها در مدلسازي، بسط گرافها و گرافهاي شیفت یافته و کاربرد آنها در مدلسازي همراه با ارائه چند مثال؛ توابع توانی و چند جمله اي ها در مدلسازي، تابع لجستیکی و چند جمله ایهادر مدل رشد جمعیت (کولونی باذخیرغذایی ثابت، جمعیت با ذخیرغذایی حایت پایدار)، توابع متناوب، دامنه و دور آنها و استفاد از آنها در مدلسازي با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاد از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همرا با کاربرد آن در مدلسازي همرا با ارائه چند مثال.\n']</t>
+    <t>['`\t`مقدمه اي بر مدلسازي، تعریف مدلسازي و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهاي اقتصادي مدلهاي بیویوژیکی و زیستی، مدلهاي فیزیکی، مدلهاي تصادفی، مدلهاي دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازي: انواع توابع ونمایش آنها با استفاد از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازي، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهاي اقتصادي از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازي، مقایسه بین، توابع خطی و نمایی در مدلسازي، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازي، رشد وکاهش نمایی، استفاد از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژي و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاد از گرافها در مدلسازي، بسط گرافها و گرافهاي شیفت یافته و کاربرد آنها در مدلسازي همراه با ارائه چند مثال؛ توابع توانی و چند جمله اي ها در مدلسازي، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازي با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازي همراه با ارائه چند مثال.\n']</t>
   </si>
   <si>
     <t>['`\t`معرفی یکی از نرم افزارهاي ریاضی، نحوه نصب و استفاده از راهنماي آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهاي n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهاي تابع، رسم نمودارهاي دو بعدي، برنامهنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهاي تقریبی برآورد انتگرال، دنباله\u200cها و سري ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n']</t>
@@ -1120,13 +1090,13 @@
     <t>['`\t`آشنایی با زمینه هاي تحقیق در عملیات، مدل بندي مسائل بهینه سازي، مفاهیم پایه اي مرتبط با برنامه ریزي خطی شامل روشهاي ترسیمی، سیمپلکس اولیه و دوگان، دوفازي و M بزرگ، دوگانی، تحلیل حساسیت و قضایاي مرتبط با آنها. قضایا و روشهاي حل مسائل حمل ونقل ساده و مرکب. مدل سازي مساله تخصیص و روش حل آن. آشنایی با برنامه ریزي عدد صحیح و روشهاي شاخه و کران و صفحات برشی. معرفی یک نرم افزار یا زبان مدلسازي جهت حل مسائل بهینه سازي، مانند CPLEX ، GAMS ،   LINGO\n']</t>
   </si>
   <si>
-    <t>['مدل سازي شامل: برازش داده ها(کمترین مربعات خطی و غیر خطی)، مدل هاي سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازي، آنالیز محدب مقدماتی (مجموعه و توابع محدب و برخی قضایاي مربوطه)، شرایط لازم و کافی براي مسایل نامقید و مقید، شرایط اسلیتر، لم فارکاس محدب، شرایط کاروش-کیون-تاکر، دوگانی در بهینه سازي محدب (دوگان لاگرانژ، دوگان ولف و قضایاي مربوطه)؛ الگوریتم\u200cهاي حل مسایل نا مقید شامل: روشهاي بر مبناي جستجوي خطی( جستجوي طلایی، فیبوناچی، عقب گرد)، روشهاي گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش هاي گرادیان مزدوج و شبه نیوتن. پیاده سازي الگوریتم\u200cها  و مقایسه عملکرد آنها؛ الگوریتم\u200cهاي حل مسایل مقید شامل: روش گرادیان کاهش یافته و بسط یافته آن؛ مسابل بهینه سازي درجه دوم محدب با قیود خطی و معرفی برخی روش هاي حل آن از قبیل روش سیمپلکس توسعه یافته؛ کاربردهایی از بهینه سازي محدب مانند طبقه بندي خطی، \u200cمشتقات ماتریسی.\n']</t>
+    <t>['مدل سازي شامل: برازش داده\u200cها(کمترین مربعات خطی و غیر خطی)، مدل هاي سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازي، آنالیز محدب مقدماتی (مجموعه و توابع محدب و برخی قضایاي مربوطه)، شرایط لازم و کافی براي مسایل نامقید و مقید، شرایط اسلیتر، لم فارکاس محدب، شرایط کاروش-کیون-تاکر، دوگانی در بهینه سازي محدب (دوگان لاگرانژ، دوگان ولف و قضایاي مربوطه)؛ الگوریتم\u200cهاي حل مسایل نا مقید شامل: روشهاي بر مبناي جستجوي خطی( جستجوي طلایی، فیبوناچی، عقب گرد)، روشهاي گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش هاي گرادیان مزدوج و شبه نیوتن. پیاده سازي الگوریتم\u200cها  و مقایسه عملکرد آنها؛ الگوریتم\u200cهاي حل مسایل مقید شامل: روش گرادیان کاهش یافته و بسط یافته آن؛ مسابل بهینه سازي درجه دوم محدب با قیود خطی و معرفی برخی روش هاي حل آن از قبیل روش سیمپلکس توسعه یافته؛ کاربردهایی از بهینه سازي محدب مانند طبقه بندي خطی،\u200c ماشین بردار پشتیبان.\n']</t>
   </si>
   <si>
     <t>['نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n']</t>
   </si>
   <si>
-    <t>['حبر خطی و فضاهاي هیلبرت: یادآوري فضاهاي برداري و خواص آن، ضرب داخلی و تعامد، عملگرهاي خطی و خود الحاق روي فضاي ضرب داخلی، فضاهاي هیلبرت، دنباله ها و سري ها در فضاي هیلبرت، پایه هاي متعامد؛ سري فوریه: دیدگاه هاي تاریخی، تحلیل سیگنال و مثال هاي متنوع، سري فوریه و قضایاي همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی هاي تبدیل فوریه، تبدیل فوریه در فضاهاي اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهاي آن؛ موجک ها:  سیستم هاي هار، تبدیل گسسته هار، آناییز چند ریز ساز، پایه هاي موجکی، تبدیل هاي گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n']</t>
+    <t>['حبر خطی و فضاهاي هیلبرت: یادآوري فضاهاي برداري و خواص آن، ضرب داخلی و تعامد، عملگرهاي خطی و خود الحاق روي فضاي ضرب داخلی، فضاهاي هیلبرت، دنباله ها و سري ها در فضاي هیلبرت، پایه هاي متعامد؛ سري فوریه: دیدگاه هاي تاریخی، تحلیل سیگنال و مثال هاي متنوع، سري فوریه و قضایاي همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی هاي تبدیل فوریه، تبدیل فوریه در فضاهاي اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهاي آن؛ موجک ها:  سیستم هاي هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه هاي موجکی، تبدیل هاي گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n']</t>
   </si>
   <si>
     <t>['مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n']</t>
@@ -1141,13 +1111,13 @@
     <t>['برنامه\u200cنویسی مبتنی بر سوکت. سویچینگ بسته\u200cهای آی\u200cپی. آدرس\u200cدهی و هدایت مبتنی بر آی\u200cپی. قراردادهای انتقال (تی\u200cسی\u200cپی و یو\u200cدی\u200cپی\u200c). کنترل ازدحام. ترجمه\u200cی آدرس\u200cها (دی\u200cان\u200cاس\u200c، دی\u200cاچ\u200cسی\u200cپی و اِی\u200cآر\u200cپی\u200c). میان\u200cافزار (Middleware). سوئیچ ها و پل\u200cها (Switches and Bridges). اتصالات (Links). مسیریابی حالت اتصال. مسیریابی بردار فاصله و بردار مسیر. مسیریابی بردار مسیر مبتنی بر خط مشی (BGP). شبکه\u200cهای فرالایه\u200cای و همتا-به-همتا. جریان\u200cسازی چندرسانه\u200cای. سویچینگ مداری (Circuit Switching). شبکه\u200cهای بی\u200cسیم و همراه. شبکه توزیع محتوا (CDN). شبکه\u200cهای مبتنی بر نرم\u200c\u200cافزار.\n']</t>
   </si>
   <si>
-    <t>['مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده های ورودی به مدل. آزمایش مدلهای شبیه سازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n']</t>
+    <t>['مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه سازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n']</t>
   </si>
   <si>
     <t>['آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصور سازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n']</t>
   </si>
   <si>
-    <t>['خواص گرافی شبکه های اجتماعی. نظریه بازی در شبکه های اجتماعی. انتشار اطلاعات در شبکه های اجتماعی. دینامیک شبکه های اجتماعی.\n']</t>
+    <t>['خواص گرافی شبکه\u200cهای اجتماعی. نظریه بازی در شبکه\u200cهای اجتماعی. انتشار اطلاعات در شبکه\u200cهای اجتماعی. دینامیک شبکه\u200cهای اجتماعی.\n']</t>
   </si>
   <si>
     <t>['بررسی کلی سیستمهای عامل. بررسی پیشینه های سیستم عامل. مدیریت فرآیند. مدیریت چند نخی. زمانبندی. مدیریت همزمانی. مدیریت بن بست و الگوریتم\u200cهای شناسایی و رفع بن بست. مدیریت ذخیره سازی. برنامه\u200cنویسی لینوکس.\n']</t>
@@ -1156,7 +1126,7 @@
     <t>['بررسی مدل های تولید نرم افزار(آبشاری و غیره)، روش های تعریف نیازها (صوری و غیر صوری)، روشهای وارسی و اعتبار سنجی، روشهای طراحی(از بالا به پایین، از پایین به بالا)، موضوعی، فرآروندی و داده ای، پیاده سازی، آزمون، اشکال زدایی، نگهداری، قابلیت اطمینان، استفاده مجدد، قابلیت حمل، کارآیی، طراحی نرم افزار بوسیله کامپیوتر، انجام پروژه تیمی.\n']</t>
   </si>
   <si>
-    <t>['معرفی کلی کامپایلر. فاز تحلیل لغوی. آتوماتای متناهی. تجزیه بالا یه پایین. تجزیه پایین به بالا. تحلیل معنایی. تولید کد. بهینه سازی محلی. بهینه سازی سراسری.\n']</t>
+    <t>['معرفی کلی کامپایلر. فاز تحلیل لغوی. آتوماتای متناهی. تجزیه بالا یه پایین. تجزیه پایین به بالا. تحلیل معنایی. تولید کد. بهینه\u200cسازی محلی. بهینه\u200cسازی سراسری.\n']</t>
   </si>
   <si>
     <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n']</t>
@@ -1174,28 +1144,28 @@
     <t>['حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n']</t>
   </si>
   <si>
-    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده  ها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه ها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\)) ها، کاربرد کلان داده ها در حوزه های مختلف، آشنایی با محاسبات ابری، کلان داده ها و یادگیری ماشینی، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی (Prescriptive) کلان داده ها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
+    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، کلان داده\u200cها و یادگیری ماشینی، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی (Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)]()\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
   </si>
   <si>
     <t>['**مقدمه.  الگوریتم\u200cهای تقریبی. جستجوی محلی. الگوریتم\u200cهای تصادفی. الگوریتم\u200cهای آنلاین. الگوریتم\u200cهای استریمینگ. الگوریتم\u200cهای هندسی و ترسیم گراف.**\n']</t>
   </si>
   <si>
-    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهيم پایه\u200cای  فرایند تصادفي،  توزیع\u200cهای با بعد متناهي، ایستایي، با نموهای همگن، با نموهای مستقل، ویژگي ماركوفی، فرآیندهای برنولي و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشي. فرآیند گام برداری تصادفي: ویژگی\u200cهای و مسئله ورشکستگي بازیکن،   فرآیند پواسن، معرفي فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائي، دوجمله\u200cای، هندسي، یکنواخت و بتا، توزیع شرطي زمان\u200cهای بين ورود و ارتباط با آماره\u200cهای ترتيبي توزیع یکنواخت،  فرآیند پواسون مركب و كاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجيرهای ماركف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- كولموگرو،  توزیع اوليه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجيرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتي، وضعیت\u200cهای بازگشتي مثبت و بازگشتي پوچ، متوسط تعداد دفعات ملاقات از یک وضعيت بازگشتي،  متوسط اولين زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: &lt;a name="_hlk86305627"&gt;&lt;/a&gt;شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n']</t>
-  </si>
-  <si>
-    <t>['1- آشنایی با مفاهیم رایانش ابری، مدلهای مختلف استقرار و سرویس دهی 2- آشنایی با معماری مرجع رایانش ابری 3- آشنایی با مفاهیم مجازی سازی در سطح سخت افزار، در سطح سیستم عامل و در سطح زبان برنامه\u200cنویسی 4- آشنایی با مدلهای مختلف برنامه\u200cنویسی ابر مانند مدل کیسه وظایف، جریانهای کاری، مدل ریزخدمت 5- آشنایی با مفاهیم تحلیل داده های عظیم و امکانات ابری برای پردازش این نوع داده ها همچون: سیستم فایل توزیع شده مانند HDFS، پایگاه داده های NoSQL همانند HBase، مدلهای برنامه\u200cنویسی مانند Map-Reduce، پردازش گرافی مانند Giraph و پردازش جریانی همانند Storm 6- آشنایی با مدیریت منابع و زمانبندی در ابر روشهای مختلف زمانبندی وظایف مستقل و جریانهای کاری 7- آشنایی با محاسبات ابری سبز و روشهای برقراری آن 8- آشنایی با مدلهای بین ابری همانند ابر متحد شده و چند ابری و تفاوتهای آنها، و آشنایی با مفهوم کارگزاری ابر 9- آشنایی با مفهوم محاسبات لبه ای و ارتباط آن با رایانش ابری، محاسبات ابری متحرک و انواع آن و محاسبات مهی\n']</t>
+    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهيم پایه\u200cای  فرایند تصادفي،  توزیع\u200cهای با بعد متناهي، ایستایي، با نموهای همگن، با نموهای مستقل، ویژگي ماركوفی، فرآیندهای برنولي و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشي. فرآیند گام برداری تصادفي: ویژگی\u200cهای و مسئله ورشکستگي بازیکن،   فرآیند پواسن، معرفي فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائي، دوجمله\u200cای، هندسي، یکنواخت و بتا، توزیع شرطي زمان\u200cهای بين ورود و ارتباط با آماره\u200cهای ترتيبي توزیع یکنواخت،  فرآیند پواسون مركب و كاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجيرهای ماركف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- كولموگرو،  توزیع اوليه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجيرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتي، وضعیت\u200cهای بازگشتي مثبت و بازگشتي پوچ، متوسط تعداد دفعات ملاقات از یک وضعيت بازگشتي،  متوسط اولين زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n']</t>
+  </si>
+  <si>
+    <t>['1- آشنایی با مفاهیم رایانش ابری، مدلهای مختلف استقرار و سرویس دهی 2- آشنایی با معماری مرجع رایانش ابری 3- آشنایی با مفاهیم مجازی سازی در سطح سخت افزار، در سطح سیستم عامل و در سطح زبان برنامه\u200cنویسی 4- آشنایی با مدلهای مختلف برنامه\u200cنویسی ابر مانند مدل کیسه وظایف، جریانهای کاری، مدل ریزخدمت 5- آشنایی با مفاهیم تحلیل داده\u200cهای عظیم و امکانات ابری برای پردازش این نوع داده\u200cها همچون: سیستم فایل توزیع شده مانند HDFS، پایگاه داده\u200cهای NoSQL همانند HBase، مدلهای برنامه\u200cنویسی مانند Map-Reduce، پردازش گرافی مانند Giraph و پردازش جریانی همانند Storm 6- آشنایی با مدیریت منابع و زمانبندی در ابر روشهای مختلف زمانبندی وظایف مستقل و جریانهای کاری 7- آشنایی با محاسبات ابری سبز و روشهای برقراری آن 8- آشنایی با مدلهای بین ابری همانند ابر متحد شده و چند ابری و تفاوتهای آنها، و آشنایی با مفهوم کارگزاری ابر 9- آشنایی با مفهوم محاسبات لبه ای و ارتباط آن با رایانش ابری، محاسبات ابری متحرک و انواع آن و محاسبات مهی\n']</t>
   </si>
   <si>
     <t>['معرفی معماری سیستم\u200cهای چندهسته\u200cای و مدل\u200cهای برنامه\u200cنوسی موازی\n', 'تاریخچه ظهور سیستم\u200cهای چند\u200cهسته\u200cای،  چالش\u200cهای برنامه\u200cنویسی کارا روی سیستم\u200cهای چند\u200cهسته\u200cای، معرفی سطوح موازات در برنامه\u200cها، تحلیل تسریع در سیستم\u200cهای چند\u200cهسته\u200cای همگون و ناهمگون، ارائه\u200cی\u200c چند نمونه واقعی از سیستم\u200cهای چند\u200cهسته\u200cای\n', 'چند\u200cپردازنده\u200cها با حافظه مشترک، \n', 'معرفی کلی معماری،  ارائه\u200cی مسئله\u200cی Cache Coherence و راه\u200cحل\u200cها، معرفی اجمالی مدل برنامه\u200cنویسی و نحوه همگام\u200cسازی نخ\u200cها،\u200c نحوه برخورد با ناحیه\u200cهای بحرانی، ایده\u200cهای کلی در بهبود برنامه\u200cهای موازی\n', 'الگو\u200cهای رایج موازی\u200cسازی محاسبات و مدیریت داده\n', 'الگوهای محاسباتی موازی: Map, Reduction, Scan, Stencil, Recurrence, Fork-Join\n', 'الگوهای موازی مدیریت داده: Gather, Scatter, Pack, Geometric Decomposition &amp; Partitions\n', 'برنامه\u200cنویسی موازی عمومی در سیستم\u200cهای چند\u200cهسته ای\n', 'برنامه\u200cنویسی با Pthreads،\u200c برنامه\u200cنویسی با OpenMP\n', 'برنامه\u200cنوسی موازی در سیستم\u200cهای برداری\n', 'معرفی کلی سیستم\u200cهای برداری و آرایه\u200cای،\u200c معرفی ISA مخصوص پردازنده Intel برای محاسبات SIMD،\u200c معرفی معماری و نحوه برنامه\u200cنویسی پردازنده CELL BE\n', 'برنامه\u200cنویسی موازی در پردازنده\u200cهای گرافیکی عام\u200cمنظوره\n', 'معرفی جامع معماری پردازنده\u200cهای گرافیکی، معرفی معماری چند نمونه واقعی از پردازنده\u200cهای گرافیکی شرکت NVIDIA\n', 'برنامه\u200cنویسی با زبان CUDA، معرفی Profiler شرکت NVIDIA\n', 'معرفی اجمالی برنامه\u200cنویسی موازی در سیستم\u200cهای توزیع\u200cشده\n', 'معرفی کتابخانه Message Passing Interface (MPI) و نحوه\u200cی برنامه\u200cنویسی موازی براساس مدل تبادل پیام\n']</t>
   </si>
   <si>
-    <t>['--مفاهیم اولیه، سيگنال های زمان پيوسته و گسسته، متغير مستقل و تبدیلات آن، دسته بندی سيگنال ها و سيستم ها، معرفی سيگنال های پایه (پيوسته و گسسته)، معرفی خواص سيستم ها: حافظه دار بودن، معکوس پذیری ، علی بودن، پایداری، خطی بودن و تغيير ناپذیر با زمان \n', '--سیستم های خطی تغییر ناپذیر با زمان، کانولوشن گسسته و پيوسته o روشی سریع برای کانولوشن گسسته o خواص کانولوشن  \n', '، پاسخ ضربه و خواص سيستم های LTI o نمایش بلوکی سيستم های LTI \n', '--سری فوریه زمان-پیوسته ، سری فوریه عمومی و مبحث توابع متعامد o توابع متعامد لژاندر؛ والش، لاگر، نمایی مختلط، پاسخ سيستم های LTI به سيگنالهای نمایی مختلط، خواص سری فوریه o خواص سری فوریه، بحث همگرایی سری فوریه \n', '--تبدیل فوریه زمان –پیوسته، تبدیل فوریه زمان پيوسته o خواص تبدیل فوریه، نمایش بلوکی سيستم های LTI وتبدیل فوریه o پاسخ فرکانس و حل معادلات سيستم های LTI o تبدیل فوریه توابع خاص \n', '--کاربردهای تبدیل فوریه زمان-پیوسته o انواع فيلترها o نمونه برداری، مدولاسيون، دمدولاسيون، دسترسی چندگانه \n', '--سری فوریه زمان-گسسته، سری فوریه گسسته و تفاوتهای آن با سری پيوسته، پاسخ سيستم های LTI و سری فوریه گسسته ، خواص سری فوریه گسسته \n', '--تبدیل فوریه زمان-گسسته، تبدیل فوریه زمان گسسته o خواص تبدیل فوریه زمان گسسته، فيلترهای دیجيتال و تبدیل فوریه زمان گسسته o پاسخ فرکانس و حل معادلات سيستم های زمان گسسته، نمایش بلوکی سيستمهای گسسته با استفاده از تبدیل فوریه زمان گسسته، تبدیل DFT \n', '--تبدیل Z و خواص آن\n']</t>
+    <t>['--مفاهیم اولیه، سيگنال های زمان پيوسته و گسسته، متغير مستقل و تبدیلات آن، دسته بندی سيگنال ها و سيستم ها، معرفی سيگنال های پایه (پيوسته و گسسته)، معرفی خواص سيستم ها: حافظه دار بودن، معکوس پذیری ، علی بودن، پایداری، خطی بودن و تغيير ناپذیر با زمان \n', '--سیستم\u200cهای خطی تغییر ناپذیر با زمان، کانولوشن گسسته و پيوسته، روشی سریع برای کانولوشن گسسته، خواص کانولوشن  \n', '، پاسخ ضربه و خواص سيستم های LTI، نمایش بلوکی سيستم های LTI \n', '--سری فوریه زمان-پیوسته ، سری فوریه عمومی و مبحث توابع متعامد، توابع متعامد لژاندر؛ والش، لاگر، نمایی مختلط، پاسخ سيستم های LTI به سيگنالهای نمایی مختلط، خواص سری فوریه، خواص سری فوریه، بحث همگرایی سری فوریه \n', '--تبدیل فوریه زمان –پیوسته، تبدیل فوریه زمان پيوسته، خواص تبدیل فوریه، نمایش بلوکی سيستم های LTI وتبدیل فوریه، پاسخ فرکانس و حل معادلات سيستم های LTI، تبدیل فوریه توابع خاص \n', '--کاربردهای تبدیل فوریه زمان-پیوسته، انواع فيلترها، نمونه برداری، مدولاسيون، دمدولاسيون، دسترسی چندگانه \n', '--سری فوریه زمان-گسسته، سری فوریه گسسته و تفاوتهای آن با سری پيوسته، پاسخ سيستم های LTI و سری فوریه گسسته ، خواص سری فوریه گسسته \n', '--تبدیل فوریه زمان-گسسته، تبدیل فوریه زمان گسسته، خواص تبدیل فوریه زمان گسسته، فيلترهای دیجيتال و تبدیل فوریه زمان گسسته، پاسخ فرکانس و حل معادلات سيستم های زمان گسسته، نمایش بلوکی سيستمهای گسسته با استفاده از تبدیل فوریه زمان گسسته، تبدیل DFT \n', '--تبدیل Z و خواص آن\n']</t>
   </si>
   <si>
     <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n']</t>
   </si>
   <si>
-    <t>['آمار توصیفی\n', '• مثال کاربردی از آمار توصیفی\n', '• مفاهیم ابتدایی آمار استنباطی\n', '• آمار استنباطی بازه اطمینان\n', '• آزمون فرضیه و مثال کاربری از آزمون فرضیه\n', '- **آشنایی با احتمالات و آمار – آماره\u200cهای معمول – واریانس، کوواریانس – توابع چگالی احتمال**\n', '- **تخمین**\n', '  - تخمین نقطه\u200cای\n', '  - تخمین بازه\u200cای\n', '  - تخمینگر بیشینه درست\u200cنمایی\n', '- **تست فرضیه**\n', '  - خطای نوع ۱ و نوع ۲\n', '  - P-value\n', '  - ارتباط با بازه اطمینان\n', '  - برخی از تست\u200cهای مهم مانند Chi-Square\n', '- **رگرسیون خطی**\n', '  - روش کمترین مربعات\n', '  - خواص تخمین\u200cگر کمترین مربعات\n', '  - استنتاج درباره ضرایب رگرسیون\n', '  - انتخاب مدل و بررسی صحت آن\n', '- **تحلیل واریانس**\n', '  - تحلیل واریانس\n', '  - ANOVA\n', '- **روش بدون پارامتر**\n', '  - ضرایب همبستگی Spearman rank\n', '- **آمار بیزی**\n', '  - استنتاج بیزی\n', '- R2 Score – \n', '- سریهای زمانی – خودهمبستگی – مانایی\n', '- احتمال شرطی – قانون احتمال کل\n']</t>
+    <t>['آمار توصیفی\n', '• مثال کاربردی از آمار توصیفی\n', '• مفاهیم ابتدایی آمار استنباطی\n', '• آمار استنباطی بازه اطمینان\n', '• آزمون فرضیه و مثال کاربری از آزمون فرضیه\n', '- **آشنایی با احتمالات و آمار – آماره\u200cهای معمول – واریانس، کوواریانس – توابع چگالی احتمال**\n', '- **تخمین**\n', '  - تخمین نقطه\u200cای\n', '  - تخمین بازه\u200cای\n', '  - تخمینگر بیشینه درست\u200cنمایی\n', '- **تست فرضیه**\n', '  - خطای نوع ۱ و نوع ۲\n', '  - P-value\n', '  - ارتباط با بازه اطمینان\n', '  - برخی از تست\u200cهای مهم مانند Chi-Square\n', '- **رگرسیون خطی**\n', '  - روش کمترین مربعات\n', '  - خواص تخمین\u200cگر کمترین مربعات\n', '  - استنتاج درباره ضرایب رگرسیون\n', '  - انتخاب مدل و بررسی صحت آن\n', '  - معنی\u200cداری ضرائب مدل\n', '- **تحلیل واریانس**\n', '  - تحلیل واریانس\n', '  - ANOVA\n', '- **روش بدون پارامتر**\n', '  - ضرایب همبستگی Spearman rank\n', '- **آمار بیزی**\n', '  - استنتاج بیزی\n', '- R2 Score – \n', '- سریهای زمانی – خودهمبستگی – مانایی، میانگین متحرک\n', '- احتمال شرطی – قانون احتمال کل\n']</t>
   </si>
   <si>
     <t>['کتاب حساب دیفرانسیل و انتگرال تالیف جیمز استوارت – ترجمه ارشک حمیدي ویراست حداقل 6\n', '` `کتاب حساب دیفرانسیل و انتگرال و هندسه تحلیلی، تالیف توماس فینی – ویر، ویرایش حداقل ۹\n', 'سیاوش شهشهانی، "حساب دیفرانسیل و انتگرال"، جلد اول، ویراست دوم، انتشارات فاطمی، ۱۳۹۶.\n', 'Robert A. Adams and Cristopher Essex. Calculus, A Complete Course. 9th Edition, Pearson, 2018.\n', 'James Stewart. Calculus. 8th Edition, Cengage learning, 2016.\n']</t>
@@ -1204,10 +1174,10 @@
     <t>['William E. Boyce, Richard C. DiPrima, Douglas B. Meade, Elementary Differential Equations and Boundary Value Problems, 11th Edition, WILEY, 2017.\n', ')ویرایش نهم این کتاب توسط حمیدرضا ظهوری زنگنه ترجمه و توسط انتشارات فاطمی منتشر شده است.(\n', 'Stephen Goode, Scott Annin, Differential Equations and Linear Algebra by Stephen, Pearson, 2016C. H. Edwards, D. E. Penney, Elementary Differential Equations, 6th Edition, Pearson Education, Inc. 2008. \n', 'D. G. Zill, A First Course in Differential Equations with Modeling Applications, 10th Edition, Brooks/Cole, Cengage Learning, 2012.\n']</t>
   </si>
   <si>
-    <t>['&lt;https://github.com/ambadidi/Python-Books&gt;\n', '1. Eric Matthes, Python Crash Course: A Hands-On, Project-Based Introduction to Programming, No Starch Press, 2019\n', '1. Allen Downey, Think Python, How to Think Like a Computer Scientist, 2nd Edition, Green Tea Press, 2015\n', '1. P. Wentworth, J. Elkner, A. B. Downey, C. Meyers. How to Think Like a Computer Scientist: Learning with Python. 3rd Edition, Open Book Project, 2011.\n', '1. J. Campbell, P. Gries, J. Montojo, G. Wilson. Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf, 2009.\n', '1. J. M. Zelle. Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates, 2004.\n', '1. Micha Gorelick and Ian Ozsvald, High-Performance-Python, y O’Reilly Media, Inc., 2014\n', '1. Learning Python\xa0by Mark Lutz\n', '1. Head First Programming\xa0by Paul Barry and David Griffiths\n', '1. Python Programming: A Complete Guide For Beginners To Master And Become An Expert\xa0by Brian Draper\n']</t>
-  </si>
-  <si>
-    <t>['&lt;a name="_hlk932247371"&gt;&lt;/a&gt;O’Sullivan, A., Sheffrin, S., &amp; Perez, S., Survey of Economics: Principles, Applications, and Tools, 8th Edition, Boston: Pearson, 2019.\n']</t>
+    <t>['1. Eric Matthes, Python Crash Course: A Hands-On, Project-Based Introduction to Programming, No Starch Press, 2019\n', '1. Allen Downey, Think Python, How to Think Like a Computer Scientist, 2nd Edition, Green Tea Press, 2015\n', '1. P. Wentworth, J. Elkner, A. B. Downey, C. Meyers. How to Think Like a Computer Scientist: Learning with Python. 3rd Edition, Open Book Project, 2011.\n', '1. J. Campbell, P. Gries, J. Montojo, G. Wilson. Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf, 2009.\n', '1. J. M. Zelle. Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates, 2004.\n', '1. Micha Gorelick and Ian Ozsvald, High-Performance-Python, y O’Reilly Media, Inc., 2014\n', '1. Learning Python\xa0by Mark Lutz\n', '1. Head First Programming\xa0by Paul Barry and David Griffiths\n', '1. Python Programming: A Complete Guide For Beginners To Master And Become An Expert\xa0by Brian Draper\n', '1. [Introduction To Computer Science And Programming In Python](https://ocw.mit.edu/courses/6-0001-introduction-to-computer-science-and-programming-in-python-fall-2016/pages/lecture-slides-code/), MIT Open Courseware\n', '1. Some other references: &lt;https://github.com/ambadidi/Python-Books&gt;\n']</t>
+  </si>
+  <si>
+    <t>['O’Sullivan, A., Sheffrin, S., &amp; Perez, S., Survey of Economics: Principles, Applications, and Tools, 8th Edition, Boston: Pearson, 2019.\n']</t>
   </si>
   <si>
     <t>['در اختیار مدرس\n', '**\n']</t>
@@ -1222,7 +1192,7 @@
     <t>['~~1. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.~~ \n', '~~2. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتي، جلد 1 و2، ترجمه محمدرضا مشکاني، مرکز نشر دانشگاهی.~~\n', '~~2. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.~~\n', '~~3. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature.~~ \n', '~~4. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.~~\n']</t>
   </si>
   <si>
-    <t>['1\\. بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', '2\\. قهرمانی، سعید. (1397).  مباني احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', '3\\. راس، شلدون. (1389).  مباني احتمال، ترجمه پارسيان، ا.  همداني، ع.، ويرايش هشتم، انتشارات شيخ بهايي، اصفهان. \n', '1\\. Baclawski, K. (2008).\xa0Introduction to Probability with R. Chapman and Hall/CRC.\n', '2\\. Kerns, G. J. (2018).\xa0Introduction to Probability and Statistics using R. Lulu. Com.\n', '3\\. Horgan, Jane (2020). Probability with R, Second Edition, John Wiley &amp; Sons.\n']</t>
+    <t>['\\1. بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', '\\2. قهرمانی، سعید. (1397).  مباني احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', '\\3. راس، شلدون. (1389).  مباني احتمال، ترجمه پارسيان، ا.  همداني، ع.، ويرايش هشتم، انتشارات شيخ بهايي، اصفهان. \n', '\\1. Baclawski, K. (2008).\xa0Introduction to Probability with R. Chapman and Hall/CRC.\n', '\\2. Kerns, G. J. (2018).\xa0Introduction to Probability and Statistics using R. Lulu. Com.\n', '\\3. Horgan, Jane (2020). Probability with R, Second Edition, John Wiley &amp; Sons.\n']</t>
   </si>
   <si>
     <t>['Ivor Horton and Peter Van Weert, Beginning C++17: From Novice to Professional, Apress, 2018\n', 'Ivor Horton and Peter Van Weert, Beginning C++20: From Novice to Professional, Apress, 2020\n', 'P. Deitel, H. Deitel. C++: How to Program. 11th Edition, Pearson Education, 2017.\n']</t>
@@ -1252,7 +1222,7 @@
     <t>['J. M. Henle, An Outline of Set Theory, Springer-Verlag, 1986.\n', 'M. Huth, M. Ryan, Logic in Computer Sciences, Modeling and Reasoning about Systems, Cambridge University Press, 2004.\n', '**\n']</t>
   </si>
   <si>
-    <t>['حمدی طه، آشنایی با تحقیق در عملیات: برنامهریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی،1387\n', 'مهدی قطعی، بهینه سازی خطی و بهینه سازی ترکیبیاتی، انتشارات ناقوس، 1395.\n', 'J. Lee, A First Course in Combinatorial Optimization, Cambridge University Press, 2004.\n', 'T.H. Cormen, C.E. Leiserson, R.L. Rivest, C. Stein, Introduction to Algorithms, 3rd Edition, The MIT Press, 2009.\n', 'C.H. Papadimitriou, R. Steiglitz, Combinatorial Optimization Algorithms and Complexity, Perintice Hall, 1982.\n', 'V. Balakrishnan, Network Optimization, Chapman and Hall/CRC , 1995.\n', 'R.K. Ahuja, T.L. Magnanti, J.B. Orlin, Network Flows: Theory, Algorithms, and Applications, Prentice-Hall, 1993.\n', '**\n']</t>
+    <t>['حمدی طه، آشنایی با تحقیق در عملیات: برنامهریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی،1387\n', 'مهدی قطعی، تحقیق در عملیات و بهینه\u200cسازی ترکیبیاتی، انتشارات ناقوس، 1395.\n', 'J. Lee, A First Course in Combinatorial Optimization, Cambridge University Press, 2004.\n', 'T.H. Cormen, C.E. Leiserson, R.L. Rivest, C. Stein, Introduction to Algorithms, 3rd Edition, The MIT Press, 2009.\n', 'C.H. Papadimitriou, R. Steiglitz, Combinatorial Optimization Algorithms and Complexity, Perintice Hall, 1982.\n', 'V. Balakrishnan, Network Optimization, Chapman and Hall/CRC , 1995.\n', 'R.K. Ahuja, T.L. Magnanti, J.B. Orlin, Network Flows: Theory, Algorithms, and Applications, Prentice-Hall, 1993.\n', '**\n']</t>
   </si>
   <si>
     <t>['Sipser, Michael. Introduction to the Theory of Computation. Cengage learning, 2012.\n', 'G. Boolos, J. Burgess, and R. Jeffrey. Computability and Logic. 5th Edition, Cambridge University Press, 2007.\n', 'D. Kozen. Theory of Computation. Springer, 2006.\n', 'S. Hedman. A First Course in Logic: An introduction to model theory, proof theory, computability, and complexity. Oxford University Press, 2004.\n']</t>
@@ -1273,22 +1243,16 @@
     <t>['ن. نعمت الهی، آمار و احتمالات مهندسی، انتشارات دلفک، 1394.\n', 'ش. م. راس، مقدمهای بر آمار و احتمال (برای دانشجویان مهندسی و علوم)، ترجمه مجید اسدی و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1382.\n', 'ج. بهبودیان، آمار و احتمال مقدماتی، انتشارات دانشگاه امام رضا (ع)، 1383.\n', 'س. قهرمانی، مبانی احتمال، ترجمه غلامحسین شاهکار و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1390.\n', 'G. G. Roussas, Introduction to probability, 2nd Edition, Academic Press, 2014.\n']</t>
   </si>
   <si>
-    <t>['گیونز، جف\u200c اچ\u200c. (1393). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '1\\. Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '2\\.Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '3\\. Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
-  </si>
-  <si>
-    <t>['1\\. نعمت اللهی، نادر ( 1397). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '2\\. جانسون، ر. آ. و  باتاچاریا، گ.، (1388).  آمار اصول و روش ها، جلد 1 و 2، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '3\\. ووناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '` `4. بهبودیان، ج.، آمار و احتمال مقدماتی (1394).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '5\\. طاهری، س.م. (1399). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '` `Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', 'Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
-  </si>
-  <si>
-    <t>['1\\. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م. \n', '1. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '1. ` `James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '1. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n']</t>
-  </si>
-  <si>
-    <t>['محمد صنیعی آباده ، سینا محمودی، محدثه طاهرپرور، داده کاوی کاربردی، ناشر نیاز دانش، چاپ سوم، 1396 \n', 'Aggarwal, C. C., Data mining: the textbook. Springer, 2015.\n', 'Tan, P. N., Steinbach, M., &amp; Kumar, V., Introduction to data mining. Pearson Education India, 2016.\n', 'Han, J., Pei, J., &amp; Kamber, M., Data mining: concepts and techniques. Elsevier, 2011.\n', 'Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.\n', 'Introduction to statistical learning , Hastie, Tibshirani\n']</t>
-  </si>
-  <si>
-    <t>['1. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '([برنامه\u200cهای کتاب فوق به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['1. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '([برنامه\u200cهای کتاب فوق به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n']</t>
+    <t>['گیونز، جف\u200c اچ\u200c. (1393). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '\\1. Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '2.Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '\\3. Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. نعمت اللهی، نادر ( 1397). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (1388).  آمار اصول و روش ها، جلد 1 و 2، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (1394).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (1399). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان کتاب اصلی -کتاب زیر- قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '2. Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.**\n']</t>
+  </si>
+  <si>
+    <t>['` `شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دكتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', 'مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', 'زینل همدانی، علی (1394). دانشیابی داده\u200cها ( مقدمه ای بر داده کاوی)، انتشارات دانشگاه صنعتی اصفهان. \n', 'Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', 'Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', 'Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', 'Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', 'Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.\n']</t>
   </si>
   <si>
     <t>['Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', 'Cooper, S. Barry. Computability theory. CRC Press, 2003.\n', 'M. Divis, R. Sigal, E. Weyuker, Computability, Complexity, and Languages. 2nd Edition, Academic Press, 1997. \n']</t>
@@ -1309,7 +1273,7 @@
     <t>['G. Winskel, The Formal Semantics of Programming Languages An Introduction, The MIT Press, 1994\n']</t>
   </si>
   <si>
-    <t>['1\\. عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '2\\. عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '3\\. سوری، علی. (1400). نظریه بازي\u200cها و كاربردهاي اقتصادي، انتشارات نور علم.\n', '5\\. زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '1\\. Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
+    <t>['\\1. عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '\\2. عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '\\3. سوری، علی. (1400). نظریه بازي\u200cها و كاربردهاي اقتصادي، انتشارات نور علم.\n', '\\5. زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '\\1. Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
   </si>
   <si>
     <t>['R. Motwani and P. Raghavan. Randomized Algorithms. Cambridge University Press, 1995.\n', 'J. Matoušek and J. Vondrák. The Probabilistic Method. Lecture Notes, Department of Applied Mathematics, Charles University, Prague, 2001.\n', 'M. Mitzenmacher and E. Upfa. Probability and Computing: Randomized Algorithms and Probabilistic Analysis. Cambridge University Press, 2005.\n']</t>
@@ -1318,7 +1282,7 @@
     <t>['M. de Berg, O. Cheong, M. van Kreveld, and M. Overmars. Computational Geometry: Algorithms and Applications. 3rd edition, Springer-Verlag, 2008.\n', "J. O'Rourke. Computational Geometry in C. 2nd edition, Cambridge University Press, 1998.\n", 'Jean-Daniel Boissonnat and Mariette Yvinec, Algorithmic Geometry, Cambridge Univ. Press, 1998. \n', "Satyan L. Devadoss and Joseph O'Rourke, Discrete and Computational Geometry, Princeton Univ. Press, 2011.\n", 'Herbert Edelsbrunner, Algorithms in Combinatorial Geometry, Springer, 1987. \n', "Jacob E. Goodman, Joseph O'Rourke, and Csaba D. Tóth (editors), Handbook of Discrete and Computational Geometry, 3rd edition, CRC Press, 2017.\n", 'Sariel Har-Peled, Geometric Approximation Algorithms, AMS Press, 2011. Early draft and additional material available as PDF files.\n', 'Jiří Matoušek, Lectures on Discrete Geometry, Springer, 2002.\n', "Joseph O'Rourke, Computational Geometry in C, Second Edition, Cambridge Univ. Press, 1998.\n", 'Franco P. Preparata and Michael Ian Shamos, Computational Geometry: An Introduction, Springer, 1985\n']</t>
   </si>
   <si>
-    <t>['1-مونتگمری، د.،  پک، آ و جافری، و. (1395). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '2\\. امینی، م. زمانی، ح. روزبه، م.  (1398). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '1. Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '1. Olive, D. (2017). Linear Regression, Springer.\n', '1. Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '1. Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '1. Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n']</t>
+    <t>['1-مونتگمری، د.،  پک، آ و جافری، و. (1395). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '\\2. امینی، م. زمانی، ح. روزبه، م.  (1398). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '1. Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '1. Olive, D. (2017). Linear Regression, Springer.\n', '1. Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '1. Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '1. Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n']</t>
   </si>
   <si>
     <t>['براکول، پ. و دیویس، ر.ا. (۱۳۸۴) مقدمهای بر سریهای زمانی و پیشبینی، ترجمه محمد امینی، ابوالقاسم بزرگ نیا و محمدحسین دهقان، چاپ دوم، انتشارات دانشگاه سیستان و بلوچستان. \n', 'چتفیلد، ک. (۱۹۹۶) . مقدمهای بر تحلیل سریهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، دانشگاه فردوسی مشهد.\n', 'ترجمه محمدرضا مشکانی، ،R کرایر، ج.د.؛ سیک چن، ک. (۱۳۹۲)  تجزیه\u200cوتحلیل سریهای زمانی با استفاده از نرم\u200cافزار، مرکز نشر دانشگاهی.\n']</t>
@@ -1330,10 +1294,10 @@
     <t>['1. J. M. Keller, D. Liu and D. B. Fogel, Fundamentals of Computational Intelligence: Neural Networks, Fuzzy Systems and Evolutionary Computation, Wiley, 2016. \n', '1. P. Engelbrecht, Computational Intelligence: An Introduction, Wiley, 2007.\n', '1. Konar, Computational Intelligence: Principles, Techniques and Applications, Springer, 2007.\n']</t>
   </si>
   <si>
-    <t>['تارخ، محمد جعفر و مهاجری، حسین (1392). هوش تجاری نگرشی پویا در عرصه کسب و کار، انتشارات دانشگاه خواجه نصیر. \n', '1\\.Vercellis, C. (2011).\xa0Business intelligence: data mining and optimization for decision making. John Wiley.\n', '2\\.Azevedo, A. and Santos, M. F. (Eds.). (2020).\xa0Integration Challenges for Analytics, Business Intelligence, and Data Mining. IGI Global.\n', '3\\.Grossmann, W. and Rinderle-Ma, S. (2015). Fundamentals of business intelligence, Springer\n', '4\\.Sauter, V. L. (2014).\xa0Decision support systems for business intelligence. John Wiley &amp; Sons.\n', '5\\.Clark, D. (2019).\xa0Beginning Power BI: A Practical Guide to Self-Service Data Analytics with Excel 2016 and Power BI Desktop. Apress.\n', '6\\.Seamark, P. (2018).\xa0Beginning DAX with Power BI: The SQL Pro’s Guide to Better Business Intelligence. Apress.\n']</t>
-  </si>
-  <si>
-    <t>['1\\. نیلسن، م. (1400). شبکه های عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '1. Eli Stevens, Luca Antiga, and Thomas Viehmann, (2020) Deep Learning with PyTorch, Manning Pub.\n', '1. Chollet, F. (2017).  Deep Learning with Python. Manning Pub..\n', '1. Goodfellow, I., Bengio, Y. and Courville, A.  (2016). Deep Learning, MIT Press.\n', '1. Lantz, B. (2019).\xa0Machine learning with R: expert techniques for predictive modeling. Packt publishing.\n', '1. Santanu Pattanayak (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python by Santanu Pattanayak.\n', '1. Nielsen, M. A. (2015).\xa0Neural networks and deep learning, San Francisco, CA: Determination press.\n']</t>
+    <t>['تارخ، محمد جعفر و مهاجری، حسین (1392). هوش تجاری نگرشی پویا در عرصه کسب و کار، انتشارات دانشگاه خواجه نصیر. \n', '1.Vercellis, C. (2011).\xa0Business intelligence: data mining and optimization for decision making. John Wiley.\n', '2.Azevedo, A. and Santos, M. F. (Eds.). (2020).\xa0Integration Challenges for Analytics, Business Intelligence, and Data Mining. IGI Global.\n', '3.Grossmann, W. and Rinderle-Ma, S. (2015). Fundamentals of business intelligence, Springer\n', '4.Sauter, V. L. (2014).\xa0Decision support systems for business intelligence. John Wiley &amp; Sons.\n', '5.Clark, D. (2019).\xa0Beginning Power BI: A Practical Guide to Self-Service Data Analytics with Excel 2016 and Power BI Desktop. Apress.\n', '6.Seamark, P. (2018).\xa0Beginning DAX with Power BI: The SQL Pro’s Guide to Better Business Intelligence. Apress.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. نیلسن، م. (1400). شبکه\u200cهای عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '2. Eli Stevens, Luca Antiga, and Thomas Viehmann, (2020) Deep Learning with PyTorch, Manning Pub.\n', '2. Chollet, F. (2017).  Deep Learning with Python. Manning Pub.\n', '2. Goodfellow, I., Bengio, Y. and Courville, A.  (2016). Deep Learning, MIT Press.\n', '2. Lantz, B. (2019).\xa0Machine learning with R: expert techniques for predictive modeling. Packt publishing.\n', '2. Santanu Pattanayak (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python by Santanu Pattanayak.\n', '2. Nielsen, M. A. (2015).\xa0Neural networks and deep learning, San Francisco, CA: Determination press.\n']</t>
   </si>
   <si>
     <t>["1. Kyran Dale (2016), Data Visualization with Python and JavaScript: Scrape, Clean, Explore &amp; Transform Your Data, O'Reilly Media\n", '1. Cole Nussbaumer Knaflic  (2015), Storytelling with Data: A Data Visualization Guide for Business Professionals, Wiley \n', "1. Scott Murray (2017) Interactive Data Visualization for the Web: An Introduction to Designing with D3, O'Reilly Media\n", '1. AI Publishing (2020) Data Visualization with Python for Beginners: Visualize Your Data using Pandas, Matplotlib and Seaborn (Machine Learning &amp; Data Science for Beginners) \n']</t>
@@ -1348,10 +1312,10 @@
     <t>['E. Turban, D. King, J. K. Lee, T.-P. Liang, and D. C. Turban. Electronic Commerce: A Managerial and Social Networks Perspective. 8th Edition, Springer, 2018.\n']</t>
   </si>
   <si>
-    <t>['1\\. الوانی مهدی (1395). مدیریت عمومی. چاپ پنجاه و چهارم. تهران .نی.\n', '2\\. قلی پور رحمت ا.. . ابراهیم غلامی (1389).  فراین سیاست گذاری عمومی در ایران. تهران. مرکز پژوهش های مجلس شورای اسلامی.\n', '3\\. نامغ پرویز (1391).  مبانی مدیریت دولتی. تهران. هستان.\n']</t>
-  </si>
-  <si>
-    <t>['1\\. Functions and change, 5th Edition, Crauder, Evans and Noell, Houghton Mifflin, 2010.\n', '2\\. An Introduction to Mathematical Modeling, Michael Alder, HeavenForBooks.com, 2001.\n', '3\\. An Introduction to Mathematical Modeling: A Course in Mechanics 1st Edition, Tinsley Oden, Wily\n', 'Series in Computational Mechanics, 2011.\n', '4\\. Mathematics for Life Sciences, Calculus, Modeling, Probability and Dynamical Systems, G. Ledder, Springer, 2013.\n']</t>
+    <t>['\\1. الوانی مهدی (1395). مدیریت عمومی. چاپ پنجاه و چهارم. تهران .نی.\n', '\\2. قلی پور رحمت ا.. . ابراهیم غلامی (1389).  فراین سیاست گذاری عمومی در ایران. تهران. مرکز پژوهش های مجلس شورای اسلامی.\n', '\\3. نامغ پرویز (1391).  مبانی مدیریت دولتی. تهران. هستان.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. Functions and change, 5th Edition, Crauder, Evans and Noell, Houghton Mifflin, 2010.\n', '\\2. An Introduction to Mathematical Modeling, Michael Alder, HeavenForBooks.com, 2001.\n', '\\3. An Introduction to Mathematical Modeling: A Course in Mechanics 1st Edition, Tinsley Oden, Wily\n', 'Series in Computational Mechanics, 2011.\n', '\\4. Mathematics for Life Sciences, Calculus, Modeling, Probability and Dynamical Systems, G. Ledder, Springer, 2013.\n']</t>
   </si>
   <si>
     <t>['Applied Numerical Methods with MATLAB, by Steven C. Chapra\n', 'Matlab Symbolic Algebra and Calculus Tools, by C. P. Lopez\n', 'Mathematica, by E. Don \n']</t>
@@ -1372,7 +1336,7 @@
     <t>['Gallian, J. Contemporary abstract algebra. Nelson Education, 2012\n', '` `Kleiner, I., A history of abstract algebra. Springer Science &amp; Business Media, 2007.\n']</t>
   </si>
   <si>
-    <t>['1\\. Michael W. Frazier, An Introduction to Wavelets through Linear Algebra, Springer Undergraduate Texts in Mathematics\n', '2\\. Barbara Burke Hubbard, The World According to Wavelets, Second Edition.\n', '3\\. D. F. J. Narcowich, A. Boggess, A First Course in Wavelets with Fourier Analysis, Prentice Hall\n', '4\\. F. P. J. Van Fleet, Discrete Wavelet Transforms- An Elementary Approach with Applications \n']</t>
+    <t>['\\1. Michael W. Frazier, An Introduction to Wavelets through Linear Algebra, Springer Undergraduate Texts in Mathematics\n', '\\2. Barbara Burke Hubbard, The World According to Wavelets, Second Edition.\n', '\\3. D. F. J. Narcowich, A. Boggess, A First Course in Wavelets with Fourier Analysis, Prentice Hall\n', '\\4. F. P. J. Van Fleet, Discrete Wavelet Transforms- An Elementary Approach with Applications \n']</t>
   </si>
   <si>
     <t>['` `محمد حسن علیائی طرقبه، آموزش جامع پردازش تصویر با OpenCV و Python، ناشر: انتشارات میعاد اندیشه. ۱۴۰۰\n', 'وحید کیانی،\u200c پردازش تصاویر در پایتون: راهنمای سریع OpenCV، انتشارات دانشگاه بجنورد، ۱۴۰۲\n', 'Sandipan Dey, Hands-On Image Processing with Python: Expert techniques for advanced image analysis and effective interpretation of image data, Packt Publishing, 2018\n', 'Ravishankar Chityala, Sridevi Pudipeddi , Image Processing and Acquisition using Python, Chapman &amp; Hall, 2021\n']</t>
@@ -1399,13 +1363,13 @@
     <t>['Avi Silberschatz , Peter Baer Galvin, Greg Gagne , Operating System Concepts, Ninth Edition, John Wiley &amp; Sons, Inc. 2013.\n', 'Silberschatz, Abraham, Peter B. Galvin, and Greg Gagne. Operating system concepts with Java. Wiley Publishing, 2009.\n', 'Tanenbaum, A. Woodhull, Operating Systems: Design and Implementation, Pearson, 2009.\n']</t>
   </si>
   <si>
-    <t>['1\\. I .Sommerville, Software Engineering, 9th edition, Addison Wesley, 2010.\n', '2\\. C .Ghezzi, M .Jazayeri, D .Mandrioli, Fundamentals of software engineering, Prentice Hall, 2003.\n', '3\\. P .A. B. Ng and R. T. Yeh, Modern Software Engineering: Foundations and Current Perspectives, Van Nostrand Reinhold, 1990.\n', "4\\. R. S. Pressman and P. Roger, Software Engineering: A Practitioner's Approach, 7th edition, McGraw Hill, 2009.\n"]</t>
+    <t>['\\1. I .Sommerville, Software Engineering, 9th edition, Addison Wesley, 2010.\n', '\\2. C .Ghezzi, M .Jazayeri, D .Mandrioli, Fundamentals of software engineering, Prentice Hall, 2003.\n', '\\3. P .A. B. Ng and R. T. Yeh, Modern Software Engineering: Foundations and Current Perspectives, Van Nostrand Reinhold, 1990.\n', "\\4. R. S. Pressman and P. Roger, Software Engineering: A Practitioner's Approach, 7th edition, McGraw Hill, 2009.\n"]</t>
   </si>
   <si>
     <t>['Alfred V. Aho, Monica S. Lam, Ravi Sethi, and Jeffrey D. Ullman, Compilers: Principles, Techniques, and Tools, 2nd Edition, Pearson, 2007.\n', 'Douglas Thain, Introduction to Compilers and Language Design, 2nd Edition, 2020, downloadable from http://compilerbook.org.\n', 'Keith D. Cooper, and Linda Torczon, Engineering a Compiler, 2nd Edition, Elsevier, 2012.\n']</t>
   </si>
   <si>
-    <t>['1\\. نقوی، م. ر، ملبوبی، م. ع و رشیدی، س (1398). بیوانفورماتیک (داده\u200cپردازی زیستی)، چاپ چهارم،  انتشارات دانشگاه تهران. \n', '1. Bergeron, B. P., (2003).Bioinformatics computing. Prentice Hall Professional.\n', '1. Sensen, C. W. (2002).\xa0Essentials of Genomics and Bioinformatics. John Wiley &amp; Sons. \n', '1. Curry, E. (2020).\xa0Introduction to Bioinformatics with R: A Practical Guide for Biologists. CRC Press.\n', '1. Sinha, P. P. (2014).\xa0Bioinformatics with R cookbook. Birmingham: Packt Publishing.\n', '1. Mathur, S. K. (2009).\xa0Statistical bioinformatics with R. Academic Press.\n']</t>
+    <t>['\\1. نقوی، م. ر، ملبوبی، م. ع و رشیدی، س (1398). بیوانفورماتیک (داده\u200cپردازی زیستی)، چاپ چهارم،  انتشارات دانشگاه تهران. \n', '1. Bergeron, B. P., (2003).Bioinformatics computing. Prentice Hall Professional.\n', '1. Sensen, C. W. (2002).\xa0Essentials of Genomics and Bioinformatics. John Wiley &amp; Sons. \n', '1. Curry, E. (2020).\xa0Introduction to Bioinformatics with R: A Practical Guide for Biologists. CRC Press.\n', '1. Sinha, P. P. (2014).\xa0Bioinformatics with R cookbook. Birmingham: Packt Publishing.\n', '1. Mathur, S. K. (2009).\xa0Statistical bioinformatics with R. Academic Press.\n']</t>
   </si>
   <si>
     <t>['با نظر مدرس درس\n', '**\n']</t>
@@ -1417,19 +1381,19 @@
     <t>['R. L. Burden, J. D. Faires, Numerical Analysis. PW Publishing Company, Boston, USA, 2011.\n']</t>
   </si>
   <si>
-    <t>['1\\. مار، برنارد (1396). [داده های بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده های بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
+    <t>['\\1. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها]( )، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
   </si>
   <si>
     <t>['Cormen, T. H., Leiserson, C. E., Rivest, R. L., &amp; Stein, C. Introduction to Algorithms (3-rd edition). MIT Press and McGraw-Hill, 2009.\n', 'Kleinberg, J., &amp; Tardos, E., Algorithm design. Pearson Education India, 2006.\n', 'Erlebach, T., &amp; Persiano, G. (Eds.), Approximation and Online Algorithms: 10th\n']</t>
   </si>
   <si>
-    <t>['1\\.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '2\\. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '1\\. Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '2\\. Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '3\\. Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '4\\. Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '5\\. Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '6\\. Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
+    <t>['1.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '\\2. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '\\1. Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '\\2. Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '\\3. Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '\\4. Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '\\5. Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '\\6. Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
   </si>
   <si>
     <t>['1. `     `K. Chandrasekaran, *Essentials of cloud computing*, CRC Press, 2014 \n', '1. N**.** B. Ruparelia, *Cloud Computing*, MIT Press, 2016 \n', '1. T**.** Erl, Z**.** Mahmood, R**.** Puttini, *Cloud Computing, Concepts, Technology and Architecture*, Prentice Hall, 2013. \n', '1. I**.** Ganelin, E**.** Orhian, K**.** Sasaki, B**.** York, *Spark: Big Data Cluster Computing in Production*, Wiley, 1st Edition, 2016. ISBN-13: 978-1119254010 \n', "1. T. White, *Hadoop: The Definitive Guide: Storage and Analysis at Internet Scale,* 4th Edition. O'Reilly Media, 2015. ISBN-13: 978-1491901632 \n", '1. H. Geng, *Data Center Handbook*. Wiley, 1st Edition, 2014. ISBN-13: 978-1118436639 \n', '1. S. Adkins , J. Belamaric, V. Giersch. *OpenStack Cloud Application Development*. Wrox, 1st Edition, 2015. ISBN-13: 978-1119194316 \n', '1. B. Antony, K. Boudnik, C. Adams. *Professional Hadoop*. Wrox, 1st Edition, 2016.\n', '**\n']</t>
   </si>
   <si>
-    <t>['1. *D. A. Patterson and J. L. Hennessy. Computer Architecture: A quantitative approach. Morgan Kaufmann, 2019.*\n', '1. *J. Sanders and E. Kandrot. CUDA by examples: An introduction to GPGPU programming. Addison-Wesley, 2011.*\n', '1. *D. B. Kirk and W. W. Hwu. Programming massively parallel processors: A hands-on approach. NVIDIA, 2010.*\n', '1. *M. McCool, A.D. Robison, and J. Reinders. Structured Parallel Programming. Elsevier, 2012.*\n']</t>
+    <t>['2. *D. A. Patterson and J. L. Hennessy. Computer Architecture: A quantitative approach. Morgan Kaufmann, 2019.*\n', '2. *J. Sanders and E. Kandrot. CUDA by examples: An introduction to GPU programming. Addison-Wesley, 2011.*\n', '2. *D. B. Kirk and W. W. Hwu. Programming massively parallel processors: A hands-on approach. NVIDIA, 2010.*\n', '2. *M. McCool, A.D. Robison, and J. Reinders. Structured Parallel Programming. Elsevier, 2012.*\n']</t>
   </si>
   <si>
     <t>['A.V. Oppenheim, A.S. Willsky, S.H. Nawab, *Signals and Systems*, 2nd Edition, Prentice-Hall, 1997. ISBN: 0-13-814757-4** \n']</t>
@@ -1796,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1857,37 +1821,37 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" t="s">
         <v>299</v>
       </c>
-      <c r="L2" t="s">
-        <v>307</v>
-      </c>
       <c r="O2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1898,37 +1862,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="L3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1939,37 +1903,37 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" t="s">
         <v>299</v>
       </c>
-      <c r="L4" t="s">
-        <v>307</v>
-      </c>
       <c r="O4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P4" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1980,37 +1944,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J5" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" t="s">
         <v>299</v>
       </c>
-      <c r="L5" t="s">
-        <v>307</v>
-      </c>
       <c r="O5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P5" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2021,37 +1985,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L6" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O6" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P6" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2062,37 +2026,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2103,37 +2067,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G8" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J8" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K8" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8" t="s">
         <v>299</v>
       </c>
-      <c r="L8" t="s">
-        <v>307</v>
-      </c>
       <c r="O8" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P8" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2144,37 +2108,37 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K9" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" t="s">
         <v>299</v>
       </c>
-      <c r="L9" t="s">
-        <v>307</v>
-      </c>
       <c r="O9" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2185,34 +2149,34 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I10" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="J10" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="O10" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P10" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2223,37 +2187,37 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H11" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I11" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J11" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K11" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P11" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2264,37 +2228,37 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J12" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" t="s">
         <v>299</v>
       </c>
-      <c r="L12" t="s">
-        <v>307</v>
-      </c>
       <c r="O12" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P12" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2305,37 +2269,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J13" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K13" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" t="s">
         <v>299</v>
       </c>
-      <c r="L13" t="s">
-        <v>307</v>
-      </c>
       <c r="O13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P13" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2346,37 +2310,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I14" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J14" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K14" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L14" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O14" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P14" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2387,37 +2351,37 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J15" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K15" t="s">
+        <v>290</v>
+      </c>
+      <c r="L15" t="s">
         <v>299</v>
       </c>
-      <c r="L15" t="s">
-        <v>307</v>
-      </c>
       <c r="O15" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P15" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2428,37 +2392,37 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J16" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K16" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L16" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P16" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2469,37 +2433,37 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I17" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J17" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K17" t="s">
+        <v>291</v>
+      </c>
+      <c r="L17" t="s">
         <v>300</v>
       </c>
-      <c r="L17" t="s">
-        <v>308</v>
-      </c>
       <c r="O17" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="P17" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2510,37 +2474,37 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I18" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J18" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K18" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L18" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O18" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P18" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2551,37 +2515,37 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I19" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J19" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K19" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" t="s">
         <v>299</v>
       </c>
-      <c r="L19" t="s">
-        <v>307</v>
-      </c>
       <c r="O19" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P19" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2592,37 +2556,37 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I20" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J20" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K20" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O20" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P20" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2633,37 +2597,37 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G21" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J21" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K21" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L21" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O21" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="P21" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2674,37 +2638,37 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J22" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K22" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L22" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O22" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P22" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2715,37 +2679,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I23" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J23" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K23" t="s">
+        <v>290</v>
+      </c>
+      <c r="L23" t="s">
         <v>299</v>
       </c>
-      <c r="L23" t="s">
-        <v>307</v>
-      </c>
       <c r="O23" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="P23" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2756,37 +2720,37 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J24" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K24" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L24" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O24" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P24" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2797,37 +2761,37 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J25" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K25" t="s">
+        <v>290</v>
+      </c>
+      <c r="L25" t="s">
         <v>299</v>
       </c>
-      <c r="L25" t="s">
-        <v>307</v>
-      </c>
       <c r="O25" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P25" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2838,37 +2802,37 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I26" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J26" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K26" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L26" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O26" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P26" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2879,37 +2843,37 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I27" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J27" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K27" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" t="s">
         <v>299</v>
       </c>
-      <c r="L27" t="s">
-        <v>307</v>
-      </c>
       <c r="O27" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P27" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2920,34 +2884,34 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I28" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J28" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="O28" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P28" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2958,37 +2922,37 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I29" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
+        <v>290</v>
+      </c>
+      <c r="L29" t="s">
         <v>299</v>
       </c>
-      <c r="L29" t="s">
-        <v>307</v>
-      </c>
       <c r="O29" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P29" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2999,34 +2963,37 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
         <v>263</v>
       </c>
-      <c r="G30" t="s">
-        <v>56</v>
-      </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K30" t="s">
-        <v>304</v>
+        <v>290</v>
+      </c>
+      <c r="L30" t="s">
+        <v>299</v>
       </c>
       <c r="O30" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="P30" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3037,37 +3004,37 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s">
         <v>299</v>
       </c>
-      <c r="L31" t="s">
-        <v>308</v>
-      </c>
       <c r="O31" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P31" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3078,37 +3045,37 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P32" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3119,37 +3086,37 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P33" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3160,37 +3127,37 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I34" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O34" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="P34" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3201,37 +3168,37 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P35" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3242,37 +3209,37 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I36" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J36" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K36" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P36" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3283,37 +3250,37 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J37" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
         <v>299</v>
       </c>
-      <c r="L37" t="s">
-        <v>308</v>
-      </c>
       <c r="O37" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P37" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3324,37 +3291,34 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J38" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K38" t="s">
-        <v>299</v>
-      </c>
-      <c r="L38" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="O38" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P38" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3365,37 +3329,37 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I39" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K39" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L39" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O39" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P39" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3406,34 +3370,37 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G40" t="s">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J40" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
         <v>299</v>
       </c>
       <c r="O40" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P40" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3444,37 +3411,34 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G41" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H41" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I41" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J41" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K41" t="s">
-        <v>299</v>
-      </c>
-      <c r="L41" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="O41" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P41" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3485,37 +3449,37 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I42" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J42" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K42" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" t="s">
         <v>299</v>
       </c>
-      <c r="L42" t="s">
-        <v>307</v>
-      </c>
       <c r="O42" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P42" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3526,34 +3490,37 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="H43" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I43" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="J43" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K43" t="s">
-        <v>304</v>
+        <v>290</v>
+      </c>
+      <c r="L43" t="s">
+        <v>299</v>
       </c>
       <c r="O43" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P43" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3564,37 +3531,37 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I44" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J44" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K44" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O44" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="P44" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3605,37 +3572,37 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I45" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J45" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K45" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" t="s">
         <v>299</v>
       </c>
-      <c r="L45" t="s">
-        <v>307</v>
-      </c>
       <c r="O45" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="P45" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3646,37 +3613,37 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E46" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" t="s">
         <v>264</v>
       </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
       <c r="H46" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J46" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K46" t="s">
+        <v>290</v>
+      </c>
+      <c r="L46" t="s">
         <v>299</v>
       </c>
-      <c r="L46" t="s">
-        <v>309</v>
-      </c>
       <c r="O46" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P46" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3687,37 +3654,37 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G47" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I47" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J47" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K47" t="s">
+        <v>290</v>
+      </c>
+      <c r="L47" t="s">
         <v>299</v>
       </c>
-      <c r="L47" t="s">
-        <v>307</v>
-      </c>
       <c r="O47" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P47" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3728,37 +3695,37 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E48" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="H48" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I48" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J48" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K48" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O48" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P48" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3769,37 +3736,37 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I49" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J49" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K49" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L49" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O49" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P49" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3810,37 +3777,37 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G50" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I50" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J50" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K50" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L50" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O50" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P50" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3851,37 +3818,37 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E51" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I51" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J51" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K51" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L51" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O51" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P51" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3892,37 +3859,34 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E52" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G52" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H52" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I52" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J52" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K52" t="s">
-        <v>301</v>
-      </c>
-      <c r="L52" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="O52" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P52" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3933,37 +3897,34 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E53" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G53" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H53" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J53" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K53" t="s">
-        <v>301</v>
-      </c>
-      <c r="L53" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="O53" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="P53" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3974,34 +3935,34 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G54" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H54" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K54" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O54" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="P54" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4012,34 +3973,37 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G55" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="I55" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J55" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K55" t="s">
+        <v>290</v>
+      </c>
+      <c r="L55" t="s">
         <v>299</v>
       </c>
       <c r="O55" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P55" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4050,34 +4014,37 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E56" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G56" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="I56" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J56" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K56" t="s">
-        <v>301</v>
+        <v>290</v>
+      </c>
+      <c r="L56" t="s">
+        <v>300</v>
       </c>
       <c r="O56" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="P56" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4088,37 +4055,37 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E57" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I57" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J57" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K57" t="s">
+        <v>290</v>
+      </c>
+      <c r="L57" t="s">
         <v>299</v>
       </c>
-      <c r="L57" t="s">
-        <v>307</v>
-      </c>
       <c r="O57" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="P57" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4129,37 +4096,37 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I58" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J58" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K58" t="s">
+        <v>290</v>
+      </c>
+      <c r="L58" t="s">
         <v>299</v>
       </c>
-      <c r="L58" t="s">
-        <v>308</v>
-      </c>
       <c r="O58" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P58" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4170,37 +4137,37 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I59" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J59" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K59" t="s">
+        <v>290</v>
+      </c>
+      <c r="L59" t="s">
         <v>299</v>
       </c>
-      <c r="L59" t="s">
-        <v>307</v>
-      </c>
       <c r="O59" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P59" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4211,37 +4178,34 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I60" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J60" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K60" t="s">
-        <v>299</v>
-      </c>
-      <c r="L60" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="O60" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P60" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4252,37 +4216,37 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I61" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J61" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K61" t="s">
+        <v>290</v>
+      </c>
+      <c r="L61" t="s">
         <v>299</v>
       </c>
-      <c r="L61" t="s">
-        <v>307</v>
-      </c>
       <c r="O61" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="P61" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4293,34 +4257,37 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G62" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I62" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J62" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K62" t="s">
+        <v>290</v>
+      </c>
+      <c r="L62" t="s">
         <v>299</v>
       </c>
       <c r="O62" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="P62" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4331,37 +4298,37 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E63" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I63" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J63" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K63" t="s">
+        <v>290</v>
+      </c>
+      <c r="L63" t="s">
         <v>299</v>
       </c>
-      <c r="L63" t="s">
-        <v>307</v>
-      </c>
       <c r="O63" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="P63" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4372,37 +4339,37 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="H64" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I64" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K64" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L64" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O64" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P64" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4413,37 +4380,37 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I65" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J65" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K65" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L65" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O65" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="P65" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4454,37 +4421,37 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E66" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G66" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I66" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J66" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K66" t="s">
+        <v>290</v>
+      </c>
+      <c r="L66" t="s">
         <v>299</v>
       </c>
-      <c r="L66" t="s">
-        <v>308</v>
-      </c>
       <c r="O66" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P66" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4495,37 +4462,37 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E67" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I67" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J67" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K67" t="s">
+        <v>290</v>
+      </c>
+      <c r="L67" t="s">
         <v>299</v>
       </c>
-      <c r="L67" t="s">
-        <v>308</v>
-      </c>
       <c r="O67" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P67" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4536,37 +4503,37 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D68" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E68" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I68" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J68" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K68" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L68" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O68" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="P68" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4577,37 +4544,37 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I69" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J69" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K69" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L69" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O69" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P69" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4618,37 +4585,37 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="E70" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I70" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J70" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K70" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L70" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O70" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="P70" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4659,37 +4626,37 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E71" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G71" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H71" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I71" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J71" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K71" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L71" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O71" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P71" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4700,37 +4667,37 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="E72" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H72" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I72" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J72" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K72" t="s">
+        <v>290</v>
+      </c>
+      <c r="L72" t="s">
         <v>299</v>
       </c>
-      <c r="L72" t="s">
-        <v>308</v>
-      </c>
       <c r="O72" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P72" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4741,37 +4708,37 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G73" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H73" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I73" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J73" t="s">
+        <v>288</v>
+      </c>
+      <c r="K73" t="s">
         <v>296</v>
       </c>
-      <c r="K73" t="s">
-        <v>299</v>
-      </c>
       <c r="L73" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O73" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="P73" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4782,37 +4749,34 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G74" t="s">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="H74" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I74" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J74" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K74" t="s">
-        <v>299</v>
-      </c>
-      <c r="L74" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="O74" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P74" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4823,37 +4787,37 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H75" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J75" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K75" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="L75" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O75" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P75" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4864,34 +4828,37 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="E76" t="s">
+        <v>258</v>
+      </c>
+      <c r="G76" t="s">
         <v>264</v>
       </c>
-      <c r="G76" t="s">
-        <v>282</v>
-      </c>
       <c r="H76" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I76" t="s">
+        <v>286</v>
+      </c>
+      <c r="J76" t="s">
         <v>289</v>
       </c>
-      <c r="J76" t="s">
-        <v>297</v>
-      </c>
       <c r="K76" t="s">
-        <v>306</v>
+        <v>298</v>
+      </c>
+      <c r="L76" t="s">
+        <v>299</v>
       </c>
       <c r="O76" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="P76" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4902,37 +4869,37 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G77" t="s">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I77" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J77" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K77" t="s">
+        <v>290</v>
+      </c>
+      <c r="L77" t="s">
         <v>299</v>
       </c>
-      <c r="L77" t="s">
-        <v>308</v>
-      </c>
       <c r="O77" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P77" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4943,34 +4910,37 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="H78" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I78" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J78" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K78" t="s">
-        <v>304</v>
+        <v>290</v>
+      </c>
+      <c r="L78" t="s">
+        <v>299</v>
       </c>
       <c r="O78" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P78" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4981,37 +4951,37 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E79" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="H79" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I79" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J79" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K79" t="s">
+        <v>290</v>
+      </c>
+      <c r="L79" t="s">
         <v>299</v>
       </c>
-      <c r="L79" t="s">
-        <v>307</v>
-      </c>
       <c r="O79" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="P79" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5022,37 +4992,37 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G80" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H80" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I80" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="J80" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K80" t="s">
+        <v>290</v>
+      </c>
+      <c r="L80" t="s">
         <v>299</v>
       </c>
-      <c r="L80" t="s">
-        <v>307</v>
-      </c>
       <c r="O80" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P80" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5063,37 +5033,37 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E81" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G81" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H81" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I81" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="J81" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K81" t="s">
+        <v>290</v>
+      </c>
+      <c r="L81" t="s">
         <v>299</v>
       </c>
-      <c r="L81" t="s">
-        <v>307</v>
-      </c>
       <c r="O81" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P81" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5104,37 +5074,37 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E82" t="s">
         <v>258</v>
       </c>
-      <c r="E82" t="s">
-        <v>264</v>
-      </c>
       <c r="G82" t="s">
+        <v>259</v>
+      </c>
+      <c r="H82" t="s">
+        <v>259</v>
+      </c>
+      <c r="I82" t="s">
         <v>286</v>
       </c>
-      <c r="H82" t="s">
-        <v>267</v>
-      </c>
-      <c r="I82" t="s">
-        <v>295</v>
-      </c>
       <c r="J82" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K82" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L82" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O82" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P82" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5145,119 +5115,37 @@
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E83" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G83" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I83" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="J83" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K83" t="s">
+        <v>290</v>
+      </c>
+      <c r="L83" t="s">
         <v>299</v>
       </c>
-      <c r="L83" t="s">
-        <v>307</v>
-      </c>
       <c r="O83" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P83" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" t="s">
-        <v>260</v>
-      </c>
-      <c r="E84" t="s">
-        <v>264</v>
-      </c>
-      <c r="G84" t="s">
-        <v>267</v>
-      </c>
-      <c r="H84" t="s">
-        <v>267</v>
-      </c>
-      <c r="I84" t="s">
-        <v>295</v>
-      </c>
-      <c r="J84" t="s">
-        <v>296</v>
-      </c>
-      <c r="K84" t="s">
-        <v>299</v>
-      </c>
-      <c r="L84" t="s">
-        <v>308</v>
-      </c>
-      <c r="O84" t="s">
-        <v>392</v>
-      </c>
-      <c r="P84" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" t="s">
-        <v>261</v>
-      </c>
-      <c r="E85" t="s">
-        <v>263</v>
-      </c>
-      <c r="G85" t="s">
-        <v>267</v>
-      </c>
-      <c r="H85" t="s">
-        <v>267</v>
-      </c>
-      <c r="I85" t="s">
-        <v>289</v>
-      </c>
-      <c r="J85" t="s">
-        <v>296</v>
-      </c>
-      <c r="K85" t="s">
-        <v>299</v>
-      </c>
-      <c r="L85" t="s">
-        <v>307</v>
-      </c>
-      <c r="O85" t="s">
-        <v>393</v>
-      </c>
-      <c r="P85" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="457">
   <si>
     <t>fa_title</t>
   </si>
@@ -88,7 +88,7 @@
     <t>تحلیل داده‌ها با نرم‌افزارهای عمومی</t>
   </si>
   <si>
-    <t>احتمال م‍قدماتی</t>
+    <t>آمار و احتمال م‍قدماتی</t>
   </si>
   <si>
     <t>برنامه‌نویسی پیشرفته</t>
@@ -97,7 +97,7 @@
     <t>برنامه‌نویسی پایتون</t>
   </si>
   <si>
-    <t>ساختمان داده و الگوریتم‌ها</t>
+    <t>ساختمان داده‌ها و الگوریتم‌ها</t>
   </si>
   <si>
     <t>طراحی و تحلیل الگوریتم‌ها</t>
@@ -115,7 +115,7 @@
     <t>مبانی ترکیبیات</t>
   </si>
   <si>
-    <t>مبانی منطق و نظریه مجموعه ها</t>
+    <t>مبانی منطق و نظریه مجموعه‌ها</t>
   </si>
   <si>
     <t>بهینه‌سازی گسسته</t>
@@ -334,7 +334,7 @@
     <t>Graphical and Exploratory data analysis</t>
   </si>
   <si>
-    <t>Elementary Probability</t>
+    <t>Elementary Statistics and Probability</t>
   </si>
   <si>
     <t>Advanced Programming</t>
@@ -460,7 +460,7 @@
     <t>Basics and Principles of Management</t>
   </si>
   <si>
-    <t>Elementary Mathematical Modeling</t>
+    <t>Mathematical Modeling</t>
   </si>
   <si>
     <t>Mathematics Lab</t>
@@ -580,7 +580,7 @@
     <t>Graphical-and-Exploratory-data-analysis</t>
   </si>
   <si>
-    <t>Elementary-Probability</t>
+    <t>Elementary-Statistics-and-Probability</t>
   </si>
   <si>
     <t>Advanced-Programming</t>
@@ -700,7 +700,7 @@
     <t>Basics-and-Principles-of-Management</t>
   </si>
   <si>
-    <t>Elementary-Mathematical-Modeling</t>
+    <t>Mathematical-Modeling</t>
   </si>
   <si>
     <t>Mathematics-Lab</t>
@@ -799,10 +799,7 @@
     <t>تحقیق در عملیات، مبانی ترکیبیات</t>
   </si>
   <si>
-    <t>؟</t>
-  </si>
-  <si>
-    <t>تحلیل گرافیکی و اکتشافی داده‌ها، احتمال ۱</t>
+    <t>آمار و احتمال مقدماتی</t>
   </si>
   <si>
     <t>تحلیل آماری داده‌ها، مبانی ماتریس‌ها و جبر خطی</t>
@@ -817,10 +814,10 @@
     <t>طراحی و تحلیل الگوریتم‌ها، آمار و احتمال ۱</t>
   </si>
   <si>
-    <t>مبانی ماتریس‌ها و جبر خطی، آمار و احتمال ۱</t>
-  </si>
-  <si>
-    <t>ساختمان داده و الگوریتم‌ها، آمار و احتمال۱</t>
+    <t>مبانی ماتریس‌ها و جبر خطی، آمار و احتمال مقدماتی</t>
+  </si>
+  <si>
+    <t>ساختمان داده‌ها و الگوریتم‌ها، آمار و احتمال مقدماتی</t>
   </si>
   <si>
     <t>داده کاوی مقدماتی</t>
@@ -841,10 +838,7 @@
     <t>مبانی آنالیز عددی</t>
   </si>
   <si>
-    <t>احتمال ۲</t>
-  </si>
-  <si>
-    <t>شبکه‌های کامپيوتری ،اصول سيستم های عامل</t>
+    <t>شبکه‌های کامپيوتری، اصول سيستم های عامل</t>
   </si>
   <si>
     <t>برنامه‌نویسی پیشرفته، اصول سیستم‌های کامپیوتری</t>
@@ -853,9 +847,6 @@
     <t>معادلات دیفرانسيل</t>
   </si>
   <si>
-    <t>آمار و احتمال مقدماتی</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -871,9 +862,6 @@
     <t>1+1</t>
   </si>
   <si>
-    <t>2+1</t>
-  </si>
-  <si>
     <t>۳</t>
   </si>
   <si>
@@ -886,24 +874,18 @@
     <t>نظری-عملی</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
     <t>16+32</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>32+32</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
@@ -937,10 +919,10 @@
     <t>['اقتصاد: مبانی و مدل ها. معاملات، مزیت مقایسه ای و سیستم بازار. قیمت ها از کجا می آیند: تعادل تقاضا و عرضه. بهره وری اقتصادی ، تعیین قیمت و مالیات ها. سیاست های زیست محیطی و خدمات عمومی. انعطاف پذیری: پاسخگویی تقاضا. شرکت ها، بازار سهام و حاکمیت شرکتی. انتخاب مصرف کننده و اقتصاد رفتاری. فناوری ، تولید و هزینه ها. شرکت ها در بازارهای کاملاً رقابتی. سیاست انحصاری و ضد انحصاری.\n']</t>
   </si>
   <si>
-    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. با این حال موارد زیر پیشنهاد می\u200cگردد:\n', '- تایپ ده انگشتی\n', '- **آشنایی مقدماتی با حروف\u200cچینی کامپیوتری**\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- **آشنایی مقدماتی با مجموعه میکروسافت آفیس**\n', '- **آشنایی با سرویس\u200cهای کاربردی**\n', 'سرویس\u200cهای ابری گوگل شامل پست الکترونیکی جیمیل، گوگل درایو و گوگل داکس، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- **آشنایی با سیستم عامل لینوکس**\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod و kill\n']</t>
-  </si>
-  <si>
-    <t>['منطق گزاره ها و جدول ارزش. مجموعه ها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه های متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n']</t>
+    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '- تایپ ده انگشتی\n', '- **آشنایی مقدماتی با حروف\u200cچینی کامپیوتری**\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- **آشنایی مقدماتی با مجموعه میکروسافت آفیس**\n', '- **آشنایی با سرویس\u200cهای کاربردی**\n', 'سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- **آشنایی با سیستم عامل لینوکس**\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **مقدمات برنامه\u200cنویسی وب**\n', 'اصول کلی HTML، آشنایی با JavaScript و CSS\n']</t>
+  </si>
+  <si>
+    <t>['منطق گزاره ها و جدول ارزش. مجموعه\u200cها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه\u200cهای متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n']</t>
   </si>
   <si>
     <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز.\n']</t>
@@ -949,10 +931,10 @@
     <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای نمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از نرم افزار اکسل  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['تعریف آزمایش تصادفی و فضای نمونه، فضای نمونه باپایان و بی پایان، پیشامدها، پیشامد قطعی و محال، رخ دادن پیشامد، اعمال روی پیشامدها و تعبیر آنها، مکمل یک پیشامد، اجتماع، اشتراک، زیرپیشامد، تفاضل دو پیشامد، تفاضل متقارن پیشامدها، تعریف احتمال، تعبیرهای مختلف احتمال، تعیبر فراوانی نسبی احتمال، تعبیر شخصی احتمال، اصول کولموگوروف، قضایای احتمال، مدل احتمال با فضای نمونه باپایان، مدل احتمال یکنواخت، محاسبه احتمال در مدل یکنواخت، قواعد شمارش، اصل ضرب و اصل جمع در شمارش، انواع جایگشت ها، جایگشت خطی، دوری،  حلقوی، جایگشت چیزهای مشابه، ترکیب،  فرمول استرلینگ، بسط دوجمله ای، بسط چند جمله ای،  مدل های جعبه و مهره، حل مثال هایی از کاربرد روش\x1fهای شمارش در محاسبه احتمال ها در مدل یکنواخت با فضای نمونه باپایان، مدل احتمال با فضای نمونه دلخواه، اشاره ای کوتاه و مقدماتی به تعریف  میدان سیگما و تابع مجموعه ای و تعریف یک فضای احتمال، احتمال شرطی، قانون ضرب احتمال، استقلال دو و چند پیشامد،  افراز فضای نمونه و فرمول احتمال کل، قضیه بیز، احتمال پیشین و پسین، اشاره ای به کاربرد  احتمال شرطی و قضیه بیز  در جدول توافقی دو در دو (ماتریس در هم ریختگی) در مسائل رده بندی و داده کاوی،  استفاده از نرم افزارهای آماری برای شمارش و محاسبه احتمال ها. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**   تدریس و سخنرانی،  حل مثال\x1fهای کاربردی و حتی الامکان پرهیز از تاکید بر مثال\x1fهای کلیشه\x1fای تاس و سکه در درس  با هدف علاقه مند ساختن دانشجو، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه و آموزش محاسبات نرم افزاری. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار می شود. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز**\n']</t>
-  </si>
-  <si>
-    <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tکارکردن با استاتیک ها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tفایل های ترتیبی\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tالگوریتمهای جستجو و مرتب\u200cسازی\n', '•\tحافظه پویا\n', '•\tموارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
+    <t>['مروري بر آمار توصیفی (شیوه جمع\u200cآوري داده، انواع داده، داده\u200cي مشاهده\u200cاي، داده\u200cي طولی،...، جدولها و نمودارهاي آماري، معیارهاي مرکزي و پراکندگی)\n', 'مبانی آمار کاوشی (نمودارهاي ساقه و برگ، ساقه و برگ پشت\u200cبه\u200cپشت، نمودار جعبه\u200cاي، نمودار Q-Q)\n', 'روشهاي اساسی شمارش: قواعد شمارش، نمونه\u200cهاي مرتب و جایگشتها، نمونه\u200cهاي نامرتب و ترکیبها، افرازهاي مرتب و جایگشتهاي متمایز.\n', 'احتمال: آزمایش تصادفی (ساده و مرکب)، تعابیر متفاوت از احتمال، تابع احتمال، فضاي احتمال یکنواخت (مدل احتمال کلاسیک)، پیوستگی تابع احتمال، احتمال شرطی، آزمایشهاي مرکب، کاربرد احتمال شرطی ، استقلال، فرمول بیز. امید ریاضی\n', 'تعریف آزمایش تصادفی و فضای نمونه، فضای نمونه باپایان و بی پایان، پیشامدها، پیشامد قطعی و محال، رخ دادن پیشامد، اعمال روی پیشامدها و تعبیر آنها، مکمل یک پیشامد، اجتماع، اشتراک، زیرپیشامد، تفاضل دو پیشامد، تفاضل متقارن پیشامدها، تعریف احتمال، تعبیرهای مختلف احتمال، تعیبر فراوانی نسبی احتمال، تعبیر شخصی احتمال، اصول کولموگوروف، قضایای احتمال، مدل احتمال با فضای نمونه باپایان، مدل احتمال یکنواخت، محاسبه احتمال در مدل یکنواخت، قواعد شمارش، اصل ضرب و اصل جمع در شمارش، انواع جایگشت ها، جایگشت خطی، دوری،  حلقوی، جایگشت چیزهای مشابه، ترکیب،  فرمول استرلینگ، بسط دوجمله ای، بسط چند جمله ای،  مدل های جعبه و مهره، حل مثال هایی از کاربرد روش\x1fهای شمارش در محاسبه احتمال ها در مدل یکنواخت با فضای نمونه باپایان، مدل احتمال با فضای نمونه دلخواه، اشاره ای کوتاه و مقدماتی به تعریف  میدان سیگما و تابع مجموعه ای و تعریف یک فضای احتمال، احتمال شرطی، قانون ضرب احتمال، استقلال دو و چند پیشامد،  افراز فضای نمونه و فرمول احتمال کل، قضیه بیز، احتمال پیشین و پسین، اشاره ای به کاربرد  احتمال شرطی و قضیه بیز  در جدول توافقی دو در دو (ماتریس در هم ریختگی) در مسائل رده بندی و داده کاوی،  استفاده از نرم افزارهای آماری برای شمارش و محاسبه احتمال ها. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**   تدریس و سخنرانی،  حل مثال\x1fهای کاربردی و حتی الامکان پرهیز از تاکید بر مثال\x1fهای کلیشه\x1fای تاس و سکه در درس  با هدف علاقه مند ساختن دانشجو، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه و آموزش محاسبات نرم افزاری. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز**\n']</t>
+  </si>
+  <si>
+    <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tفایل های ترتیبی\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tالگوریتمهای جستجو و مرتب\u200cسازی\n', '•\tحافظه پویا\n', '•\tموارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
   </si>
   <si>
     <t>['مرور مقدمات برنامه\u200cنویسی در پایتون، انواع داده\u200cای، ساختارهای شرطی و کنترلی، حلقه\u200cها و توابع. ماژول\u200cها. لیست\u200cها، فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات رو ی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. پرونده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، عبارات با قاعده، Threads، جانگو\n']</t>
@@ -964,7 +946,7 @@
     <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجيره ای ماتریس ها، درخت جستجوی بهينه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعاليت های بيشينه\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و حد و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پيچيدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n']</t>
   </si>
   <si>
-    <t>['- آشنایی با UML\n', '- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با عبارات با قاعده\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی مقدماتی با** LaTeX\n', '- دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- **مقدمات برنامه\u200cنویسی وب**\n', '- اصول کلی HTML، آشنایی با JavaScript و CSS\n']</t>
+    <t>['- آشنایی با UML\n', '- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با عبارات با قاعده\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی مقدماتی با** LaTeX\n', '- دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n']</t>
   </si>
   <si>
     <t>['مدل معنایی داده. مدلسازی داده محور. مدل هویت-رابطه. مدل هویت-رابطه بهبودیافته. مقدمات ساخت پایگاه داده\u200cهای رابطه ای. بارگذاری و استخراج داده. بروزرسانی و حذف داده. مکانیزم ماشه در پایگاه داده. وابستگی تابعی. فرم\u200cهای نرمال. جبر رابطه\u200cای. ایندکس. ساختمان داده درخت-ب. تئوری پایگاه دادههای عظیم. پایگاه داده\u200cهای غیررابطه ای مانند مونگودیبی. دادگان غیرساخت یافته در پایگاه داده\u200cهای غیررابطه ای.\n']</t>
@@ -973,10 +955,10 @@
     <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n']</t>
   </si>
   <si>
-    <t>['دوره سریع مفاهیم مجموعه ها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتري، تبدیلها و ترکیب ها و ضرایب دوجمله اي، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزي و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوي که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس هاي صفر و یک (آماده سازي براي بخش مربع هاي لاتین و گراف ها)، آشنایی با ماتریس هاي آدامار و برخی نتایج در این مورد. گراف ها و مدل هاي مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهاي آن در مدلسازي (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه اي، انواع اصلی گراف نظیر گراف هاي کامل، درخت ها، گراف هاي دوبخشی، گراف هاي اویلري و هامیلتونی و گراف هاي جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق هاي کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزي گراف ها و چند جمله اي رنگی (با ارائه مثال و الگورتیم). مربع هاي لاتین، طرح ها و هندسه هاي متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n']</t>
-  </si>
-  <si>
-    <t>['آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعهها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه ها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه های نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n']</t>
+    <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتري، تبدیلها و ترکیب ها و ضرایب دوجمله اي، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزي و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوي که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس هاي صفر و یک (آماده سازي براي بخش مربع هاي لاتین و گراف ها)، آشنایی با ماتریس هاي آدامار و برخی نتایج در این مورد. گراف ها و مدل هاي مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهاي آن در مدلسازي (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه اي، انواع اصلی گراف نظیر گراف هاي کامل، درخت ها، گراف هاي دوبخشی، گراف هاي اویلري و هامیلتونی و گراف هاي جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق هاي کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزي گراف ها و چند جمله اي رنگی (با ارائه مثال و الگورتیم). مربع هاي لاتین، طرح ها و هندسه هاي متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n']</t>
+  </si>
+  <si>
+    <t>['آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعهها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n']</t>
   </si>
   <si>
     <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای حل مساله کوتاه ترین مسیر. الگوریتم\u200cهای حل مساله بیشینه جریان. الگوریتم\u200cهای حل مساله کمینه هزینه انتقال. الگوریتم سیمپلکس شبکه. الگوریتم\u200cهای تطابق. الگوریتمهای کوچکترین درخت فراگیر. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، کمترین برش)، الگوریتم ادمونز کارپ، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف. اجرای پروژه کاربردی.\n']</t>
@@ -1012,7 +994,7 @@
     <t>['مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پيش پردازش و آماده سازي داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استاندارد سازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', 'سایر روشهای خوشه\u200cبندی که در درس یادگیری ماشین مقدماتی گفته نشده است، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی که در درس یادگیری ماشین مقدماتی گفته نشده است.\n', 'روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، میانگین متحرک، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', 'شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی، معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحليل آنها بوسيله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با حوزه\u200cی یادگیری ماشین اشتراک دارد، در این برنامه درسی سعی شده است که هم\u200cپوشانی مطالب کمینه باشد. شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
   </si>
   <si>
-    <t>['معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه های محاسبه ناپذیر. مجموعه های خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n']</t>
+    <t>['معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n']</t>
   </si>
   <si>
     <t>['منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم\u200cهای انتقالی.\n']</t>
@@ -1036,7 +1018,7 @@
     <t>['احتمال و اثبات با روش احتمالاتی. الگوریتم\u200cهای تصادفی پایه\u200cای. جایگشت تصادفی و کاربردهای\u200c آن. کران پایین الگوریتم\u200cهای تصادفی. ساختمان\u200cداده. قدم\u200cزدن تصادفی. روش مونت کارلو. روش\u200cهای جبری. الگوریتم\u200cهای گراف. آنتروپی.\n']</t>
   </si>
   <si>
-    <t>['- مقدمه (۲ جلسه)\n', '  - معرفی درس، نمونه مسائل هندسی\n', '- پوسته\u200cی محدب (۴ جلسه)\n', '  - محاسبه\u200cی پوسته\u200cی محدب در صفحه، عملیات پایه\u200cی هندسی\n', '  - چند روش برای محاسبه\u200cی پوسته\u200cی محدب در صفحه\n', '  - اثبات کران پایین، قضیه\u200cی بن-اُر\n', '  - الگوریتم\u200cهای حساس به خروجی، دو الگوریتم بهینه از چن\n', '- دوگان هندسی (۱ جلسه)\n', '  - دوگان نقاط، پوش\u200cهای بالایی و پایینی، کاربردها، دوگان در فضای سه\u200cبعدی\n', '- پوسته\u200cی محدب در فضای سه\u200cبعدی (۲ جلسه)\n', '  - پیچیدگی ترکیبیاتی، نحوه\u200cی نمایش، الگوریتم کادوپیچی\n', '  - الگوریتم تصادفی کلارکسون-شور، پوسته\u200cی محدب در فضاهای بالاتر\n', '- تقاطع و چینش خطوط (۲ جلسه)\n', '  - ساخت چینش خطوط، الگوریتم افزایشی، قضیه\u200cی قلمرو یک خط\n', '  - تقاطع پاره\u200cخط\u200cها، الگوریتم جاروب صفحه، الگوریتم تقسیم و حل\n', '- نمودار ورونوی و مثلث\u200cبندی دلونی (۴ جلسه)\n', '  - تعریف نمودار ورونوی، ویژگی\u200cها و قضایا\n', '  - مثلث\u200cبندی دلونی و خواص آن، الگوریتم فورچیون\n', '  - ارتباط با پوسته\u200cی محدب، الگوریتم تصادفی ساخت\n', '  - کاربردهای نمودار ورونوی و مثلث\u200cبندی دلونی، نمودار ورونوی مرتبه\u200cی بالاتر\n', '- برنامه\u200cریزی خطی (۴ جلسه)\n', '  - تعریف برنامه\u200cریزی خطی، کاربردهای هندسی در فضای پایین\n', '  - الگوریتم هرس و جست\u200cوجوی مگیدو، الگوریتم تصادفی-افزایشی سایدل\n', '  - الگوریتم نمونه\u200cبرداری تصادفی کلارکسون\n', '  - مسائل شبیه به برنامه\u200cریزی خطی، کوچک\u200cترین دایره\u200cی محیطی\n', '- مکان\u200cیابی نقاط (۲ جلسه)\n', '  - روش تقسیم و حل، نقشه\u200cی ذوزنقه\u200cای، الگوریتم افزایشی تصادفی\n', '  - الگوریتم هرس و جست\u200cوجوی کرکپاتریک\n', '- مثلث\u200cبندی چندضلعی (۲ جلسه)\n', '  - روش ذوزنقه\u200cبندی، الگوریتم تصادفی سایدل\n', '  - کاربردهای مثلث\u200cبندی، مسئله\u200cی گالری هنر\n', '- جست\u200cوجوی بازه\u200cای (۲ جلسه)\n', '  - بازه\u200cهای متعامد: درخت کی\u200cدی، درخت بازه، آبشار کسری\n', '  - پنجره\u200cبندی، درخت جست\u200cوجوی اولویت، درخت پاره\u200cخط\n']</t>
+    <t>['- مقدمه \n', '  - معرفی درس، نمونه مسائل هندسی\n', '- پوسته\u200cی محدب \n', '  - محاسبه\u200cی پوسته\u200cی محدب در صفحه، عملیات پایه\u200cی هندسی\n', '  - چند روش برای محاسبه\u200cی پوسته\u200cی محدب در صفحه\n', '  - اثبات کران پایین، قضیه\u200cی بن-اُر\n', '  - الگوریتم\u200cهای حساس به خروجی، دو الگوریتم بهینه از چن\n', '- دوگان هندسی \n', '  - دوگان نقاط، پوش\u200cهای بالایی و پایینی، کاربردها، دوگان در فضای سه\u200cبعدی\n', '- پوسته\u200cی محدب در فضای سه\u200cبعدی \n', '  - پیچیدگی ترکیبیاتی، نحوه\u200cی نمایش، الگوریتم کادوپیچی\n', '  - الگوریتم تصادفی کلارکسون-شور، پوسته\u200cی محدب در فضاهای بالاتر\n', '- تقاطع و چینش خطوط \n', '  - ساخت چینش خطوط، الگوریتم افزایشی، قضیه\u200cی قلمرو یک خط\n', '  - تقاطع پاره\u200cخط\u200cها، الگوریتم جاروب صفحه، الگوریتم تقسیم و حل\n', '- نمودار ورونوی و مثلث\u200cبندی دلونی \n', '  - تعریف نمودار ورونوی، ویژگی\u200cها و قضایا\n', '  - مثلث\u200cبندی دلونی و خواص آن، الگوریتم فورچیون\n', '  - ارتباط با پوسته\u200cی محدب، الگوریتم تصادفی ساخت\n', '  - کاربردهای نمودار ورونوی و مثلث\u200cبندی دلونی، نمودار ورونوی مرتبه\u200cی بالاتر\n', '- برنامه\u200cریزی خطی \n', '  - تعریف برنامه\u200cریزی خطی، کاربردهای هندسی در فضای پایین\n', '  - الگوریتم هرس و جست\u200cوجوی مگیدو، الگوریتم تصادفی-افزایشی سایدل\n', '  - الگوریتم نمونه\u200cبرداری تصادفی کلارکسون\n', '  - مسائل شبیه به برنامه\u200cریزی خطی، کوچک\u200cترین دایره\u200cی محیطی\n', '- مکان\u200cیابی نقاط \n', '  - روش تقسیم و حل، نقشه\u200cی ذوزنقه\u200cای، الگوریتم افزایشی تصادفی\n', '  - الگوریتم هرس و جست\u200cوجوی کرکپاتریک\n', '- مثلث\u200cبندی چندضلعی \n', '  - روش ذوزنقه\u200cبندی، الگوریتم تصادفی سایدل\n', '  - کاربردهای مثلث\u200cبندی، مسئله\u200cی گالری هنر\n', '- جست\u200cوجوی بازه\u200cای \n', '  - بازه\u200cهای متعامد: درخت کی\u200cدی، درخت بازه، آبشار کسری\n', '  - پنجره\u200cبندی، درخت جست\u200cوجوی اولویت، درخت پاره\u200cخط\n']</t>
   </si>
   <si>
     <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
@@ -1051,7 +1033,7 @@
     <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'گرچه که شبکه\u200cهای عصبی هم در حوزه محاسبات نرم قرار می\u200cگیرد، اما به سبب ازدیاد سرفصل این درس و هم اینکه شبکه\u200cهای عصبی در درس\u200cهای دیگری مرور می\u200cشوند، در سرفصل این درس قرار داده نشده است. البته وابسته به نظر استاد می\u200cتوان مروری بر شبکه\u200cهای عصبی نیز داشت.\n', '**~~شبکه\u200cهای عصبی:~~**\n', '~~پرسپترون، یادگیری پرسپترون،\u200c توابع فعالیت~~\n', '~~معماری\u200cهای شبکه\u200cهای عصبی: پرسپترون چند لایه ، هاپفیلد، خود سازمانده، ART و ...~~\n']</t>
   </si>
   <si>
-    <t>['`   `مفاهیم مقدماتی و ابزارهای هوش تجاری، فرایند تصمیم گیری، سیستم\u200cهای پشتیبان تصمیم گیری، مفاهیم، روشها و تکنولوژی، تصمیم گیری براساس مدل های آماری در سیستم\u200cهای تجاری، داده کاوی در هوش تجاری،  فرایند استخراج، تبدیل و  بارگذاری داده\u200cها (ETL) ، وب کاوی، انبار داده\u200cها،  پاکسازی داده\u200cها، تهیه و ساخت جداول، ایجاد ارتباط بین جداول، طراحی و ساخت  انواع گزارش ها، گزارش های زمان محور و مکان محور روی نقشه، ساخت انواع نمودارها، ساخت و سفارشی سازی داشبوردهای مدیریتی با استفاده از نرم افزارهایی مانند Tableau، Power BI، Self-Service BI، Tableau Prep، QlikSense، ارائه پروژه های دانشجویان. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['`   `مفاهیم مقدماتی و ابزارهای هوش تجاری، فرایند تصمیم گیری، سیستم\u200cهای پشتیبان تصمیم گیری، مفاهیم، روشها و تکنولوژی، تصمیم گیری براساس مدل های آماری در سیستم\u200cهای تجاری، داده کاوی در هوش تجاری،  فرایند استخراج، تبدیل و  بارگذاری داده\u200cها (ETL) ، وب کاوی، انبار داده\u200cها،  پاکسازی داده\u200cها، تهیه و ساخت جداول، ایجاد ارتباط بین جداول، طراحی و ساخت  انواع گزارش ها، گزارش های زمان محور و مکان محور روی نقشه، ساخت انواع نمودارها، ساخت و سفارشی سازی داشبوردهای مدیریتی با استفاده از نرم افزارهایی مانند Tableau، Power BI، Self-Service BI، Tableau Prep، QlikSense، ارائه پروژه های دانشجویان. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['`    `مروری مختصر بر رگرسیون، لجستیک رگرسیون و مدل پرسپترون. معرفی تنسورها، عملیات روی تنسورها (برش، عملیات درجا و ...)، مشتق\u200cگیری خودکار، انتقال تنسورها به کارت گرافیک، آشنایی با انواع توابع فعالیت، توابع هزینه و الگوریتم\u200cهای بهینه\u200cسازی مورد استفاده در روال گرادیان کاهشی، روشهای ارزیابی (monitoring)، الگوریتم پس انتشار، بیش برازشی و کم برازشی، آماده\u200cسازی داده\u200cها،  منظم\u200cسازی، Dropout، شبکه\u200cهای عصبی متراکم (تمام متصل یا چگال)، شبکه\u200cهای عصبی پیچشی (کانولوشنی)، نمایش آنچه که لایه\u200cهای لایه\u200cهای پیچشی آموزش می\u200cبینند، یادگیری عمیق برای داده\u200cهای متنی و سری زمانی، شبکه\u200cهای برگشتی  (RNN, GRU, LSTM) و کاربردهای آنها. یادگیری خود کدگذارها، آشنایی با چند معماری معروف، انتقال یادگیری، یادگیری انتها به انتها، طبقه\u200cبندی داده\u200cهای تصویری، متنی، تنظیم پارامترها. شبکه\u200cهای مولد هم\u200cآورد (GAN)، نمایش برخی توانمندی\u200cهای یادگیری عمیق از طریق بیان مثالهای کاربردی از قبیل تولید متن، شناسایی چهره، تولید تصویر جعلی، رؤیای عمیق، انتقال سبک عصبی، نقاشی با شبکه\u200cهای عصبی و بیان توابع هزینه\u200cی مرتبط با آنها. آشنایی با حداقل یکی از کتابخانه\u200cهای معروف حوزه یادگیری عمیق مانند پای\u200cتورچ یا تنسورفلو. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', 'با توجه به اینکه پیش\u200cنیاز این درس، یادگیری ماشین مقدماتی است و در آن درس رگرسیون، مدل پرسپترون و شبکه\u200cهای چند لایه پرسپترونی گفته شده\u200cاند، در این درس می\u200cتوان به سرعت وارد مبحث موضوع یادگیری عمیق شد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
@@ -1069,7 +1051,7 @@
     <t>['تعاریف و مفاهیم اساسی شبکه\u200cها. طریقه رسم شبکه\u200cها، شبکه\u200cهای کوتاهترین مسیر. ماکزیمم جریان در شبکه. محاسبه مسیر بحرانی CPM و به دست آوردن زودترین و دیرترین زمان شروع و زمان شناوری. بررسی هزینه و زمان تخصیص فعالیت با توجه به منابع محدود- گزارش پیشرفت کار و کنترل پروژه. برنامه\u200cریزی پروژه به\u200cوسیله PERT. مفاهیم آماری شبکه PERT ، معرفی GERT. نرم\u200cافزار MS project و یا نرم\u200cافزار مشابه دیگر. آشنایی با برنامه\u200cهای کامپیوتری در کنترل پروژه مانند PERT/Time. معرفی برنامه\u200cهای کامپیوتری متداول موارد کاربردی. مدل\u200cهای مختلف کنترل و برنامه\u200cریزی پروژه\u200cهای کامپیوتری و نرم\u200cافزاری.\n']</t>
   </si>
   <si>
-    <t>['مقدمات (۲ جلسه). شالوده، ابزار و ساز و کارهای تجارت الکترونیکی (۱ جلسه). خرده فروشی (۲ جلسه). خدمات الکترونیکی (۲ جلسه). کسب و کار متحرک (۲ جلسه). کسب و کار هوشمند (۲ جلسه).  کسب و کار اجتماعی (۲ جلسه).بنگاه\u200cهای اجتماعی (۲ جلسه). بازاریابی الکترونیکی (۱ جلسه). تبلیغات و ترویج الکترونیکی (۱ جلسه). امنیت تجارت الکترونیکی (۲ جلسه). سامانه\u200cهای پرداخت الکترونیکی (۱ جلسه). تحقق سفارش الکترونیکی (۱ جلسه). راهبر دهای تجارت الکترونیکی (۲ جلسه). حقوق کسب و کار الکترونیکی (۱ جلسه). اسناد تجارت الکترونیکی (۲ جلسه). تجارت الکترونیکی در جهان (۱ جلسه). تجارت الکترونیکی در ایران (۱ جلسه).\n']</t>
+    <t>['مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n']</t>
   </si>
   <si>
     <t>['`   `آشنایی با: مفاهیم و تعریف مدیریت. کاربرد های سازمان و انواع آن. برنامه ریزی و انواع آن با تاکید بر حوزه سیاسی. انگیزش و روش های ایجاد و تقویت انگیزه با تاکید بر سازمان های سیاسی. هدایت رهبری با تاکید بر هداریت و رهبری سیاسی. نظارت(کنترل) و روش های آن با تاکید بر نظارت در حوزه سیاست. خلاقیت و نوآوری و روش های ایجاد و تقویت آن با تاکید حوزه های سیاسی. روش های تصمیم گیری و انواع آن. رهیافت های عمده در سیر تکوینی نظریه های مدیریتی شامل رهیافت های سنتی منابع انسانی کمی و اقتضایی. انواع الگو های مدیریتی. الگو های مدیریت سیاسی. اصول مدیریت در اسلام. الکوی مدیریت حکمرانی انبیا- آشنایی با مدیریت در محیط سیاس. احزاب سازمان های مردم نهاد و مانند آن. مطالعه موردی شیوه های مدیریت سیاس در سیاست داخلی و خارجی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. دانشجویان باید تکلیف\u200cهای محول شده را انجام و ارائه نمایند.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
@@ -1084,7 +1066,7 @@
     <t>['`\t`مروری گذرا بر منطق کالسیک (ارسطویی) و نظریه مجموعه\u200cهای کالسیک. تعریف مجموعه\u200cهای فازی و متغیر زبانی، تابع عضویت و انواع متداول آن (تابع عضویت منفرد، مثلثی، ذوزنقه و گوسی)، آشنایی با مفاهیم تکیهگاه، ارتفاع، مرکز، هسته، نرمال بودن، آلفا-برش. معرفی مفاهیم زیرمجموعه بودن فازی، مکمل فازی، اجتماع فازی، اشتراک فازی، قانون دمورگان.  مروری کوتاه بر نظریه امکان و تفاوت آن با نظریه احتمال. تعریف عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی و میانگین فازی. معرفی شرایط برقراری مجموعه انجمنی برای عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی. تعریف حاصلضرب دکارتی مجموعه\u200cهای فازی، تعریف رابطه فازی و ترکیب روابط فازی، تعریف تابع فازی، معرفی مفاهیم تصویر فازی، توسعه استوانهای فازی، اصل تجزیه فازی و اصل توسیع زاده. معرفی اعداد فازی، انواع اعداد فازی متداول (عدد فازی منفرد، مثلثی، ذوزنقه\u200cای و نمایی یا گوسی)، حساب اعداد فازی بر اساس دو روش اصل توسیع فازی و استفاده از آلفا-برشها، بررسی وجود جواب معادالت خطی فازی، رتبه بندی اعداد فازی. تعریف گزاره\u200cهای فازی، قواعد اگر- آنگاه فازی، تعریف استلزام فازی و کاربرد آن در ساختن یک سیستم استنتاج فازی(سیستم کنترل فازی). تعریف موتور استنتاج فازی، فازی ساز و انواع آن، پایگاه قواعد فازی، غیر فازی ساز و انواع آن. آشنایی با ساختن یک سیستم فازی ممدانی.\n']</t>
   </si>
   <si>
-    <t>['مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه های مستقل و خوشه ها.\n']</t>
+    <t>['مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه\u200cهای مستقل و خوشه ها.\n']</t>
   </si>
   <si>
     <t>['`\t`آشنایی با زمینه هاي تحقیق در عملیات، مدل بندي مسائل بهینه سازي، مفاهیم پایه اي مرتبط با برنامه ریزي خطی شامل روشهاي ترسیمی، سیمپلکس اولیه و دوگان، دوفازي و M بزرگ، دوگانی، تحلیل حساسیت و قضایاي مرتبط با آنها. قضایا و روشهاي حل مسائل حمل ونقل ساده و مرکب. مدل سازي مساله تخصیص و روش حل آن. آشنایی با برنامه ریزي عدد صحیح و روشهاي شاخه و کران و صفحات برشی. معرفی یک نرم افزار یا زبان مدلسازي جهت حل مسائل بهینه سازي، مانند CPLEX ، GAMS ،   LINGO\n']</t>
@@ -1102,10 +1084,10 @@
     <t>['مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n']</t>
   </si>
   <si>
-    <t>['- مقدمه و برپایی محیط توسعه اندروید (دو جلسه)\n', 'آشنایی با مفاهیم، ابزارها (Android Studio و Android SDK)، نحوه\u200cی خطایابی و آزمون در توسعه\u200cی برنامه\u200cهای اندروید، فرایند تولید یک برنامه اندروید\n', '- \u200eواسط کاربری و الگوهای آن\u200e (سه جلسه)\n', 'آشنایی با الگوی MVP، معرفی مولفه\u200cهای واسط کاربری، اصول طراحی و پیاده\u200cسازی یک واسط کاربری سفارشی (به کمک بسطview و GroupView)، مدیریت واسط کاربری به صورت پویا (dynamic layouts management)، بهترین الگوهای (best practices) طراحی واسط کاربری در اندروید\n', '- مدیریت داده\u200cها و بومی\u200cسازی (سه جلسه)\n', 'ذخیره و بازیابی اطلاعات یک برنامه کاربردی در Preference اشتراکی و اختصاصی، ارتباط با پایگاه داده (SQLite database)، مکانیزم\u200cهای پشتیبانی از localization (l10n) و internationalization (i18n)\n', '- حافظه و ریسمان\u200cها (چهار جلسه)\n', 'چرخه\u200cی حیات برنامه اندروید (application life cycle)، مدل حافظه و مدیریت ریسمان\u200cها در اندروید، آشنایی با اصول پیاده\u200cسازی الگو AsyncTask\n', '- مدیریت سرویس\u200cها\u200e (چهار جلسه)\n', 'سرویس\u200cهای مبتنی بر مکان (location-based services)، مدیریت سرویس\u200cها و هشدارها (Services, Broadcast receivers and notifications)، مدیریت دوربین، مدیریت سنسورها (sensor manager)، آشنایی با پرداخت درون برنامه\u200cای\n', '- برپایی محیط توسعه iOS (یک جلسه)\n', 'آشنایی با مفاهیم و ابزارهای توسعه برنامه\u200cنویسی (Xcode)، مروری بر مولفه\u200cهای واسط کاربری و آشنایی با Storyboards، آشنایی با الگوی MVC\n', '- برنامه\u200cنویسی با Swift (سه جلسه)\n', 'آشنایی با ساختار زبان، انواع داده\u200c، کلاس\u200cها و اشیا، قلمروها (Scopes)، اختیاری\u200cها (Optionals)، داده\u200cها و توابع عام (Generics)، آشنایی با پروتکل\u200cها (Protocols)، مدیریت خطاها، مروری بر مدیریت حافظه\n', '- تکنولوژی\u200cهای iOS (هشت جلسه)\n', 'تکنولوژی\u200cهای واسط کاربری(UIKit، Core Graphics، Core Animation)، تکنولوژی\u200cهای بازی\u200cسازی (Game Kit، Sprite Kit،OpenGL ES، Game Controller)، تکنولوژی\u200cهای مدیریت داده\u200cها (Core Data، Foundation)، مدیریت صدا و تصویر (AV Foundation)\n', '- امنیت\u200e (سه جلسه)\n', 'آشنایی با مخاطرات امنیتی و استانداردهای تخمین آن (mobile security assessment)، آشنایی با ابزارهای Obfuscation، آشنایی با ابزارهای تحلیل مخاطرات امنیتی (روش\u200cهای مبتنی بر تحلیل ایستا و پویا-static and dynamic analysis tools، روش\u200cهای مهندسی مجدد)\n']</t>
-  </si>
-  <si>
-    <t>['- مقدمه (۱ جلسه)\n', 'کلیات درس، تاریخچه\u200cی وب، پروتکل\u200c HTTP\n', '- طراحی صفحات (۲ جلسه)\n', 'ساختار HTML، عناصر و ویژگی\u200cها، پاراگراف\u200cبندی، فرمت\u200cبندی، لینک\u200cها، لیست\u200cها\n', '`      `تصاویر، جدول\u200cها، فرم\u200cها، عناصر جدید در HTML5\n', '- سبک\u200cبندی (۲ جلسه)\n', 'تعریف CSS، فرمت\u200cبندی، انتخاب\u200cکننده\u200cها، وراثت و آبشار، اصول طراحی\n', 'چیدمان صفحه، مدل جعبه\u200cای، نمایش شناور، موقعیت\u200cها، شبه\u200cکلاس\u200cها\n', '- جاوا اسکریپت (۴ جلسه)\n', 'ساختار کلی زبان، کاربردها، دستورات و توابع، متغیرها و انواع داده\u200cای، ساختارهای کنترلی\n', 'آرایه\u200cها، اشیاء، نحوه\u200cی تعریف اشیاء، سازنده\u200cها، نهان\u200cسازی داده\u200cها\n', 'مدل DOM، ویرایش عناصر و سبک\u200cها، رسیدگی به رویدادها، استثناها\n', 'کتاب\u200cخانه\u200cی jQuery، انتخاب\u200cکننده\u200cها، رویدادها، جلوه\u200cها و پویانمایی\n', '- ذخیره\u200cی داده\u200cها (۲ جلسه)\n', 'آشنایی با XML، کاربردها، DTD، تبدیل توسط XSLT، آشنایی با JSON\n', 'پایگاه\u200c داده\u200cهای رابطه\u200cای\u200c، ایجاد پایگاه داده، زبان پرس\u200cوجوی SQL\n', '- تعامل با سرور (۲ جلسه)\n', 'رابط CGI، ارسال توسط GET و POST، پردازش فرم\u200cها، کوکی\u200cها\n', 'استفاده از AJAX، ارسال درخواست، دریافت و تجزیه\u200cی پاسخ، کاربردها\n', '- پایتون (۵ جلسه)\n', 'ساختار زبان، عملگرها، انواع داده\u200cای، لیست\u200cها، رشته\u200cها، چندتایی\u200cها، فرهنگ\u200cهای داده\u200cای\n', 'توابع، ماژول\u200cها، پکیج\u200cها، توابع بی\u200cنام، آرگومان\u200cهای متغیر، دکوراتورها\n', 'رده\u200cها و اشیاء، سازنده\u200cها، وراثت، رسیدگی به استثناها\n', 'پرونده\u200cها، پردازش متن، عبارات منظم، کاربردها\n', 'خواندن صفحات وب، کارگزار وب پایتون، آشنایی با WSGI\n', '- معماری وب (۲ جلسه)\n', 'لایه\u200cبندی، معماری کاربر-کارگزار، معماری سه\u200cلایه، معماری MVC\n', 'مدل\u200cهای داده، انواع رابطه\u200c، تطابق با پایگاه\u200c داده\u200cهای رابطه\u200cای\n', '- چارچوب جنگو (۶ جلسه)\n', 'مفاهیم اولیه، نصب و راه\u200cاندازی، مؤلفه\u200cها، معماری کلی\n', 'ایجاد یک پروژه، تعریف پایگاه داده، راه\u200cاندازی مدیر، افزودن نما\n', 'لایه\u200cی مدل، نگاشت\u200cگر شیء-رابطه، وراثت، اجرای پرس\u200cوجو\n', '`     `لایه\u200cی نما، نگاشت نشانی\u200cها، اشیاء درخواست و پاسخ، نماهای عمومی\n', 'لایه\u200cی قالب\u200c، زبان تعریف قالب، تگ\u200cها و فیلترهای آماده\n', 'پردازش فرم\u200cها، ابزارک\u200cهای توکار، اعتبارسنجی\n', 'مباحث پیشرفته (۴ جلسه، در حد فرصت)\n', 'میان\u200cافزارها، بهینه\u200cسازی، فشرده\u200cسازی، استفاده از کش\n', 'احراز هویت، کنترل دسترسی\u200cها، مدیریت کاربرها و گروه\u200cها\n', 'امنیت، محافظت در مقابل حملات امنیتی، رمزنگاری\n', '`     `جلسات، ذخیره\u200cی حالت جلسه، روش\u200cهای ترکیبی\n', 'بین\u200cالمللی\u200cسازی، محلی\u200cسازی، ابزارهای ترجمه\u200c\n']</t>
+    <t>['- مقدمه و برپایی محیط توسعه اندروید \n', 'آشنایی با مفاهیم، ابزارها (Android Studio و Android SDK)، نحوه\u200cی خطایابی و آزمون در توسعه\u200cی برنامه\u200cهای اندروید، فرایند تولید یک برنامه اندروید\n', '- \u200eواسط کاربری و الگوهای آن\u200e \n', 'آشنایی با الگوی MVP، معرفی مولفه\u200cهای واسط کاربری، اصول طراحی و پیاده\u200cسازی یک واسط کاربری سفارشی (به کمک بسطview و GroupView)، مدیریت واسط کاربری به صورت پویا (dynamic layouts management)، بهترین الگوهای (best practices) طراحی واسط کاربری در اندروید\n', '- مدیریت داده\u200cها و بومی\u200cسازی \n', 'ذخیره و بازیابی اطلاعات یک برنامه کاربردی در Preference اشتراکی و اختصاصی، ارتباط با پایگاه داده (SQLite database)، مکانیزم\u200cهای پشتیبانی از localization (l10n) و internationalization (i18n)\n', '- حافظه و ریسمان\u200cها \n', 'چرخه\u200cی حیات برنامه اندروید (application life cycle)، مدل حافظه و مدیریت ریسمان\u200cها در اندروید، آشنایی با اصول پیاده\u200cسازی الگو AsyncTask\n', '- مدیریت سرویس\u200cها\u200e \n', 'سرویس\u200cهای مبتنی بر مکان (location-based services)، مدیریت سرویس\u200cها و هشدارها (Services, Broadcast receivers and notifications)، مدیریت دوربین، مدیریت سنسورها (sensor manager)، آشنایی با پرداخت درون برنامه\u200cای\n', '- برپایی محیط توسعه iOS \n', 'آشنایی با مفاهیم و ابزارهای توسعه برنامه\u200cنویسی (Xcode)، مروری بر مولفه\u200cهای واسط کاربری و آشنایی با Storyboards، آشنایی با الگوی MVC\n', '- برنامه\u200cنویسی با Swift \n', 'آشنایی با ساختار زبان، انواع داده\u200c، کلاس\u200cها و اشیا، قلمروها (Scopes)، اختیاری\u200cها (Optionals)، داده\u200cها و توابع عام (Generics)، آشنایی با پروتکل\u200cها (Protocols)، مدیریت خطاها، مروری بر مدیریت حافظه\n', '- تکنولوژی\u200cهای iOS \n', 'تکنولوژی\u200cهای واسط کاربری(UIKit، Core Graphics، Core Animation)، تکنولوژی\u200cهای بازی\u200cسازی (Game Kit، Sprite Kit،OpenGL ES، Game Controller)، تکنولوژی\u200cهای مدیریت داده\u200cها (Core Data، Foundation)، مدیریت صدا و تصویر (AV Foundation)\n', '- امنیت\u200e \n', 'آشنایی با مخاطرات امنیتی و استانداردهای تخمین آن (mobile security assessment)، آشنایی با ابزارهای Obfuscation، آشنایی با ابزارهای تحلیل مخاطرات امنیتی (روش\u200cهای مبتنی بر تحلیل ایستا و پویا-static and dynamic analysis tools، روش\u200cهای مهندسی مجدد)\n']</t>
+  </si>
+  <si>
+    <t>['- مقدمه \n', 'کلیات درس، تاریخچه\u200cی وب، پروتکل\u200c HTTP\n', '- طراحی صفحات \n', 'ساختار HTML، عناصر و ویژگی\u200cها، پاراگراف\u200cبندی، فرمت\u200cبندی، لینک\u200cها، لیست\u200cها\n', '`      `تصاویر، جدول\u200cها، فرم\u200cها، عناصر جدید در HTML5\n', '- سبک\u200cبندی \n', 'تعریف CSS، فرمت\u200cبندی، انتخاب\u200cکننده\u200cها، وراثت و آبشار، اصول طراحی\n', 'چیدمان صفحه، مدل جعبه\u200cای، نمایش شناور، موقعیت\u200cها، شبه\u200cکلاس\u200cها\n', '- جاوا اسکریپت \n', 'ساختار کلی زبان، کاربردها، دستورات و توابع، متغیرها و انواع داده\u200cای، ساختارهای کنترلی\n', 'آرایه\u200cها، اشیاء، نحوه\u200cی تعریف اشیاء، سازنده\u200cها، نهان\u200cسازی داده\u200cها\n', 'مدل DOM، ویرایش عناصر و سبک\u200cها، رسیدگی به رویدادها، استثناها\n', 'کتاب\u200cخانه\u200cی jQuery، انتخاب\u200cکننده\u200cها، رویدادها، جلوه\u200cها و پویانمایی\n', '- ذخیره\u200cی داده\u200cها \n', 'آشنایی با XML، کاربردها، DTD، تبدیل توسط XSLT، آشنایی با JSON\n', 'پایگاه\u200c داده\u200cهای رابطه\u200cای\u200c، ایجاد پایگاه داده، زبان پرس\u200cوجوی SQL\n', '- تعامل با سرور \n', 'رابط CGI، ارسال توسط GET و POST، پردازش فرم\u200cها، کوکی\u200cها\n', 'استفاده از AJAX، ارسال درخواست، دریافت و تجزیه\u200cی پاسخ، کاربردها\n', '- پایتون \n', 'ساختار زبان، عملگرها، انواع داده\u200cای، لیست\u200cها، رشته\u200cها، چندتایی\u200cها، فرهنگ\u200cهای داده\u200cای\n', 'توابع، ماژول\u200cها، پکیج\u200cها، توابع بی\u200cنام، آرگومان\u200cهای متغیر، دکوراتورها\n', 'رده\u200cها و اشیاء، سازنده\u200cها، وراثت، رسیدگی به استثناها\n', 'پرونده\u200cها، پردازش متن، عبارات منظم، کاربردها\n', 'خواندن صفحات وب، کارگزار وب پایتون، آشنایی با WSGI\n', '- معماری وب \n', 'لایه\u200cبندی، معماری کاربر-کارگزار، معماری سه\u200cلایه، معماری MVC\n', 'مدل\u200cهای داده، انواع رابطه\u200c، تطابق با پایگاه\u200c داده\u200cهای رابطه\u200cای\n', '- چارچوب جنگو \n', 'مفاهیم اولیه، نصب و راه\u200cاندازی، مؤلفه\u200cها، معماری کلی\n', 'ایجاد یک پروژه، تعریف پایگاه داده، راه\u200cاندازی مدیر، افزودن نما\n', 'لایه\u200cی مدل، نگاشت\u200cگر شیء-رابطه، وراثت، اجرای پرس\u200cوجو\n', '`     `لایه\u200cی نما، نگاشت نشانی\u200cها، اشیاء درخواست و پاسخ، نماهای عمومی\n', 'لایه\u200cی قالب\u200c، زبان تعریف قالب، تگ\u200cها و فیلترهای آماده\n', 'پردازش فرم\u200cها، ابزارک\u200cهای توکار، اعتبارسنجی\n', 'مباحث پیشرفته \n', 'میان\u200cافزارها، بهینه\u200cسازی، فشرده\u200cسازی، استفاده از کش\n', 'احراز هویت، کنترل دسترسی\u200cها، مدیریت کاربرها و گروه\u200cها\n', 'امنیت، محافظت در مقابل حملات امنیتی، رمزنگاری\n', '`     `جلسات، ذخیره\u200cی حالت جلسه، روش\u200cهای ترکیبی\n', 'بین\u200cالمللی\u200cسازی، محلی\u200cسازی، ابزارهای ترجمه\u200c\n']</t>
   </si>
   <si>
     <t>['برنامه\u200cنویسی مبتنی بر سوکت. سویچینگ بسته\u200cهای آی\u200cپی. آدرس\u200cدهی و هدایت مبتنی بر آی\u200cپی. قراردادهای انتقال (تی\u200cسی\u200cپی و یو\u200cدی\u200cپی\u200c). کنترل ازدحام. ترجمه\u200cی آدرس\u200cها (دی\u200cان\u200cاس\u200c، دی\u200cاچ\u200cسی\u200cپی و اِی\u200cآر\u200cپی\u200c). میان\u200cافزار (Middleware). سوئیچ ها و پل\u200cها (Switches and Bridges). اتصالات (Links). مسیریابی حالت اتصال. مسیریابی بردار فاصله و بردار مسیر. مسیریابی بردار مسیر مبتنی بر خط مشی (BGP). شبکه\u200cهای فرالایه\u200cای و همتا-به-همتا. جریان\u200cسازی چندرسانه\u200cای. سویچینگ مداری (Circuit Switching). شبکه\u200cهای بی\u200cسیم و همراه. شبکه توزیع محتوا (CDN). شبکه\u200cهای مبتنی بر نرم\u200c\u200cافزار.\n']</t>
@@ -1144,7 +1126,7 @@
     <t>['حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n']</t>
   </si>
   <si>
-    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، کلان داده\u200cها و یادگیری ماشینی، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی (Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)]()\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
+    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، کلان داده\u200cها و یادگیری ماشینی، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی (Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
   </si>
   <si>
     <t>['**مقدمه.  الگوریتم\u200cهای تقریبی. جستجوی محلی. الگوریتم\u200cهای تصادفی. الگوریتم\u200cهای آنلاین. الگوریتم\u200cهای استریمینگ. الگوریتم\u200cهای هندسی و ترسیم گراف.**\n']</t>
@@ -1165,7 +1147,7 @@
     <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n']</t>
   </si>
   <si>
-    <t>['آمار توصیفی\n', '• مثال کاربردی از آمار توصیفی\n', '• مفاهیم ابتدایی آمار استنباطی\n', '• آمار استنباطی بازه اطمینان\n', '• آزمون فرضیه و مثال کاربری از آزمون فرضیه\n', '- **آشنایی با احتمالات و آمار – آماره\u200cهای معمول – واریانس، کوواریانس – توابع چگالی احتمال**\n', '- **تخمین**\n', '  - تخمین نقطه\u200cای\n', '  - تخمین بازه\u200cای\n', '  - تخمینگر بیشینه درست\u200cنمایی\n', '- **تست فرضیه**\n', '  - خطای نوع ۱ و نوع ۲\n', '  - P-value\n', '  - ارتباط با بازه اطمینان\n', '  - برخی از تست\u200cهای مهم مانند Chi-Square\n', '- **رگرسیون خطی**\n', '  - روش کمترین مربعات\n', '  - خواص تخمین\u200cگر کمترین مربعات\n', '  - استنتاج درباره ضرایب رگرسیون\n', '  - انتخاب مدل و بررسی صحت آن\n', '  - معنی\u200cداری ضرائب مدل\n', '- **تحلیل واریانس**\n', '  - تحلیل واریانس\n', '  - ANOVA\n', '- **روش بدون پارامتر**\n', '  - ضرایب همبستگی Spearman rank\n', '- **آمار بیزی**\n', '  - استنتاج بیزی\n', '- R2 Score – \n', '- سریهای زمانی – خودهمبستگی – مانایی، میانگین متحرک\n', '- احتمال شرطی – قانون احتمال کل\n']</t>
+    <t>['جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری، بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، مقدمه ای بر سری های زمانی\n', 'آمار توصیفی\n', '• مثال کاربردی از آمار توصیفی\n', '• مفاهیم ابتدایی آمار استنباطی\n', '• آمار استنباطی بازه اطمینان\n', '• آزمون فرضیه و مثال کاربری از آزمون فرضیه\n', '- **آشنایی با احتمالات و آمار – آماره\u200cهای معمول – واریانس، کوواریانس – توابع چگالی احتمال**\n', '- **تخمین**\n', '  - تخمین نقطه\u200cای\n', '  - تخمین بازه\u200cای\n', '  - تخمینگر بیشینه درست\u200cنمایی\n', '- **تست فرضیه**\n', '  - خطای نوع ۱ و نوع ۲\n', '  - P-value\n', '  - ارتباط با بازه اطمینان\n', '  - برخی از تست\u200cهای مهم مانند Chi-Square\n', '- **رگرسیون خطی**\n', '  - روش کمترین مربعات\n', '  - خواص تخمین\u200cگر کمترین مربعات\n', '  - استنتاج درباره ضرایب رگرسیون\n', '  - انتخاب مدل و بررسی صحت آن\n', '  - معنی\u200cداری ضرائب مدل\n', '- **تحلیل واریانس**\n', '  - تحلیل واریانس\n', '  - ANOVA\n', '- **روش بدون پارامتر**\n', '  - ضرایب همبستگی Spearman rank\n', '- **آمار بیزی**\n', '  - استنتاج بیزی\n', '- R2 Score – \n', '- سریهای زمانی – خودهمبستگی – مانایی، میانگین متحرک\n', '- احتمال شرطی – قانون احتمال کل\n']</t>
   </si>
   <si>
     <t>['کتاب حساب دیفرانسیل و انتگرال تالیف جیمز استوارت – ترجمه ارشک حمیدي ویراست حداقل 6\n', '` `کتاب حساب دیفرانسیل و انتگرال و هندسه تحلیلی، تالیف توماس فینی – ویر، ویرایش حداقل ۹\n', 'سیاوش شهشهانی، "حساب دیفرانسیل و انتگرال"، جلد اول، ویراست دوم، انتشارات فاطمی، ۱۳۹۶.\n', 'Robert A. Adams and Cristopher Essex. Calculus, A Complete Course. 9th Edition, Pearson, 2018.\n', 'James Stewart. Calculus. 8th Edition, Cengage learning, 2016.\n']</t>
@@ -1192,7 +1174,7 @@
     <t>['~~1. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.~~ \n', '~~2. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتي، جلد 1 و2، ترجمه محمدرضا مشکاني، مرکز نشر دانشگاهی.~~\n', '~~2. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.~~\n', '~~3. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature.~~ \n', '~~4. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.~~\n']</t>
   </si>
   <si>
-    <t>['\\1. بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', '\\2. قهرمانی، سعید. (1397).  مباني احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', '\\3. راس، شلدون. (1389).  مباني احتمال، ترجمه پارسيان، ا.  همداني، ع.، ويرايش هشتم، انتشارات شيخ بهايي، اصفهان. \n', '\\1. Baclawski, K. (2008).\xa0Introduction to Probability with R. Chapman and Hall/CRC.\n', '\\2. Kerns, G. J. (2018).\xa0Introduction to Probability and Statistics using R. Lulu. Com.\n', '\\3. Horgan, Jane (2020). Probability with R, Second Edition, John Wiley &amp; Sons.\n']</t>
+    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مباني احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مباني احتمال، ترجمه پارسيان، ا.  همداني، ع.، ويرايش هشتم، انتشارات شيخ بهايي، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماري، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Baclawski, K. (2008).\xa0Introduction to Probability with R. Chapman and Hall/CRC.\n', 'Kerns, G. J. (2018).\xa0Introduction to Probability and Statistics using R. Lulu. Com.\n', 'Horgan, Jane (2020). Probability with R, Second Edition, John Wiley &amp; Sons.\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013 \n']</t>
   </si>
   <si>
     <t>['Ivor Horton and Peter Van Weert, Beginning C++17: From Novice to Professional, Apress, 2018\n', 'Ivor Horton and Peter Van Weert, Beginning C++20: From Novice to Professional, Apress, 2020\n', 'P. Deitel, H. Deitel. C++: How to Program. 11th Edition, Pearson Education, 2017.\n']</t>
@@ -1381,7 +1363,7 @@
     <t>['R. L. Burden, J. D. Faires, Numerical Analysis. PW Publishing Company, Boston, USA, 2011.\n']</t>
   </si>
   <si>
-    <t>['\\1. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها]( )، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
+    <t>['\\1. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
   </si>
   <si>
     <t>['Cormen, T. H., Leiserson, C. E., Rivest, R. L., &amp; Stein, C. Introduction to Algorithms (3-rd edition). MIT Press and McGraw-Hill, 2009.\n', 'Kleinberg, J., &amp; Tardos, E., Algorithm design. Pearson Education India, 2006.\n', 'Erlebach, T., &amp; Persiano, G. (Eds.), Approximation and Online Algorithms: 10th\n']</t>
@@ -1836,22 +1818,22 @@
         <v>259</v>
       </c>
       <c r="I2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1877,22 +1859,22 @@
         <v>259</v>
       </c>
       <c r="I3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1918,22 +1900,22 @@
         <v>259</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1959,22 +1941,22 @@
         <v>259</v>
       </c>
       <c r="I5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L5" t="s">
+        <v>293</v>
+      </c>
+      <c r="O5" t="s">
         <v>299</v>
       </c>
-      <c r="O5" t="s">
-        <v>305</v>
-      </c>
       <c r="P5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2000,22 +1982,22 @@
         <v>259</v>
       </c>
       <c r="I6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L6" t="s">
+        <v>294</v>
+      </c>
+      <c r="O6" t="s">
         <v>300</v>
       </c>
-      <c r="O6" t="s">
-        <v>306</v>
-      </c>
       <c r="P6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2041,22 +2023,22 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" t="s">
         <v>288</v>
       </c>
-      <c r="K7" t="s">
-        <v>292</v>
-      </c>
       <c r="L7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2082,22 +2064,22 @@
         <v>259</v>
       </c>
       <c r="I8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2114,7 +2096,7 @@
         <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
         <v>259</v>
@@ -2123,22 +2105,22 @@
         <v>259</v>
       </c>
       <c r="I9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2164,19 +2146,19 @@
         <v>259</v>
       </c>
       <c r="I10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J10" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" t="s">
         <v>289</v>
       </c>
-      <c r="K10" t="s">
-        <v>293</v>
-      </c>
       <c r="O10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2202,22 +2184,22 @@
         <v>259</v>
       </c>
       <c r="I11" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P11" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2243,22 +2225,22 @@
         <v>259</v>
       </c>
       <c r="I12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O12" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2284,22 +2266,22 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O13" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P13" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2325,22 +2307,22 @@
         <v>259</v>
       </c>
       <c r="I14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L14" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O14" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P14" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2366,22 +2348,22 @@
         <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J15" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O15" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P15" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2407,22 +2389,22 @@
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J16" t="s">
+        <v>284</v>
+      </c>
+      <c r="K16" t="s">
         <v>288</v>
       </c>
-      <c r="K16" t="s">
-        <v>292</v>
-      </c>
       <c r="L16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O16" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2448,22 +2430,22 @@
         <v>259</v>
       </c>
       <c r="I17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L17" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O17" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2483,28 +2465,28 @@
         <v>257</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
         <v>259</v>
       </c>
       <c r="I18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L18" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O18" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P18" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2530,22 +2512,22 @@
         <v>259</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L19" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O19" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P19" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2571,22 +2553,22 @@
         <v>259</v>
       </c>
       <c r="I20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L20" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O20" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P20" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2612,22 +2594,22 @@
         <v>259</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O21" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P21" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2653,22 +2635,22 @@
         <v>259</v>
       </c>
       <c r="I22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O22" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P22" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2694,22 +2676,22 @@
         <v>259</v>
       </c>
       <c r="I23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L23" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O23" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P23" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2735,22 +2717,22 @@
         <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O24" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P24" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2776,22 +2758,22 @@
         <v>259</v>
       </c>
       <c r="I25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J25" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L25" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O25" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2817,22 +2799,22 @@
         <v>259</v>
       </c>
       <c r="I26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L26" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O26" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P26" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2858,22 +2840,22 @@
         <v>259</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P27" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2890,7 +2872,7 @@
         <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
         <v>261</v>
@@ -2899,19 +2881,19 @@
         <v>259</v>
       </c>
       <c r="I28" t="s">
+        <v>278</v>
+      </c>
+      <c r="J28" t="s">
         <v>285</v>
       </c>
-      <c r="J28" t="s">
-        <v>289</v>
-      </c>
       <c r="K28" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O28" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P28" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2928,31 +2910,31 @@
         <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H29" t="s">
         <v>259</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P29" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2972,28 +2954,28 @@
         <v>257</v>
       </c>
       <c r="G30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H30" t="s">
         <v>259</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P30" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3013,28 +2995,28 @@
         <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H31" t="s">
         <v>259</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P31" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3060,22 +3042,22 @@
         <v>259</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O32" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P32" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3101,22 +3083,22 @@
         <v>259</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P33" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3136,28 +3118,28 @@
         <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H34" t="s">
         <v>259</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O34" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P34" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3183,22 +3165,22 @@
         <v>259</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O35" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P35" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3224,22 +3206,22 @@
         <v>259</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J36" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O36" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3265,22 +3247,22 @@
         <v>259</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O37" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P37" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3306,19 +3288,19 @@
         <v>259</v>
       </c>
       <c r="I38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J38" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P38" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3338,28 +3320,28 @@
         <v>258</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H39" t="s">
         <v>259</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J39" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K39" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L39" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O39" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P39" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3385,22 +3367,22 @@
         <v>259</v>
       </c>
       <c r="I40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P40" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3420,25 +3402,25 @@
         <v>258</v>
       </c>
       <c r="G41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H41" t="s">
         <v>259</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J41" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K41" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O41" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P41" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3464,22 +3446,22 @@
         <v>259</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J42" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K42" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O42" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P42" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3499,28 +3481,28 @@
         <v>258</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H43" t="s">
         <v>259</v>
       </c>
       <c r="I43" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K43" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L43" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O43" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P43" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3546,22 +3528,22 @@
         <v>259</v>
       </c>
       <c r="I44" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J44" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K44" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O44" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P44" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3581,28 +3563,28 @@
         <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H45" t="s">
         <v>259</v>
       </c>
       <c r="I45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J45" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K45" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O45" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P45" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3622,28 +3604,28 @@
         <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
         <v>259</v>
       </c>
       <c r="I46" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K46" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O46" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P46" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3669,22 +3651,22 @@
         <v>259</v>
       </c>
       <c r="I47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J47" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K47" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L47" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O47" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P47" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3710,22 +3692,22 @@
         <v>259</v>
       </c>
       <c r="I48" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J48" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K48" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L48" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O48" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P48" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3751,22 +3733,22 @@
         <v>259</v>
       </c>
       <c r="I49" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J49" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K49" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L49" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O49" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P49" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3792,22 +3774,22 @@
         <v>259</v>
       </c>
       <c r="I50" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J50" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K50" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L50" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O50" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P50" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3833,22 +3815,22 @@
         <v>259</v>
       </c>
       <c r="I51" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J51" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K51" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L51" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O51" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P51" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3874,19 +3856,19 @@
         <v>259</v>
       </c>
       <c r="I52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J52" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K52" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O52" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P52" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3912,19 +3894,19 @@
         <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J53" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O53" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P53" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3950,19 +3932,19 @@
         <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J54" t="s">
+        <v>284</v>
+      </c>
+      <c r="K54" t="s">
         <v>288</v>
       </c>
-      <c r="K54" t="s">
-        <v>292</v>
-      </c>
       <c r="O54" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P54" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3988,22 +3970,22 @@
         <v>259</v>
       </c>
       <c r="I55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J55" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K55" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L55" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O55" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P55" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4029,22 +4011,22 @@
         <v>259</v>
       </c>
       <c r="I56" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J56" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L56" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O56" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P56" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4061,7 +4043,7 @@
         <v>232</v>
       </c>
       <c r="E57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
@@ -4070,22 +4052,22 @@
         <v>259</v>
       </c>
       <c r="I57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J57" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K57" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L57" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O57" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P57" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4111,22 +4093,22 @@
         <v>259</v>
       </c>
       <c r="I58" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J58" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K58" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L58" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O58" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P58" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4152,22 +4134,22 @@
         <v>259</v>
       </c>
       <c r="I59" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J59" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K59" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L59" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O59" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P59" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4187,25 +4169,25 @@
         <v>258</v>
       </c>
       <c r="G60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H60" t="s">
         <v>259</v>
       </c>
       <c r="I60" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J60" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O60" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P60" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4231,22 +4213,22 @@
         <v>259</v>
       </c>
       <c r="I61" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K61" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L61" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O61" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P61" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4272,22 +4254,22 @@
         <v>259</v>
       </c>
       <c r="I62" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J62" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K62" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L62" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O62" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P62" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4313,22 +4295,22 @@
         <v>259</v>
       </c>
       <c r="I63" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J63" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K63" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L63" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O63" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P63" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4348,28 +4330,28 @@
         <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H64" t="s">
         <v>259</v>
       </c>
       <c r="I64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J64" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K64" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L64" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O64" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P64" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4395,22 +4377,22 @@
         <v>259</v>
       </c>
       <c r="I65" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J65" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K65" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L65" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O65" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P65" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4436,22 +4418,22 @@
         <v>259</v>
       </c>
       <c r="I66" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J66" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K66" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L66" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O66" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P66" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4477,22 +4459,22 @@
         <v>259</v>
       </c>
       <c r="I67" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J67" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L67" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O67" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P67" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4518,22 +4500,22 @@
         <v>259</v>
       </c>
       <c r="I68" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J68" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K68" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L68" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O68" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P68" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4559,22 +4541,22 @@
         <v>259</v>
       </c>
       <c r="I69" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J69" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K69" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L69" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O69" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P69" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4600,22 +4582,22 @@
         <v>259</v>
       </c>
       <c r="I70" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J70" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K70" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L70" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O70" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="P70" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4641,22 +4623,22 @@
         <v>259</v>
       </c>
       <c r="I71" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J71" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L71" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O71" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P71" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4676,28 +4658,28 @@
         <v>258</v>
       </c>
       <c r="G72" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
         <v>259</v>
       </c>
       <c r="I72" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J72" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K72" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L72" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O72" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P72" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4717,28 +4699,28 @@
         <v>258</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H73" t="s">
         <v>259</v>
       </c>
       <c r="I73" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J73" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K73" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L73" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O73" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P73" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4758,25 +4740,25 @@
         <v>258</v>
       </c>
       <c r="G74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H74" t="s">
         <v>259</v>
       </c>
       <c r="I74" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J74" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K74" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O74" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P74" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4796,28 +4778,28 @@
         <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H75" t="s">
         <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J75" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K75" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L75" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O75" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P75" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4837,28 +4819,28 @@
         <v>258</v>
       </c>
       <c r="G76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H76" t="s">
         <v>259</v>
       </c>
       <c r="I76" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J76" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K76" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L76" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O76" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P76" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4884,22 +4866,22 @@
         <v>259</v>
       </c>
       <c r="I77" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J77" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K77" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L77" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O77" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P77" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4919,28 +4901,28 @@
         <v>258</v>
       </c>
       <c r="G78" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s">
         <v>259</v>
       </c>
       <c r="I78" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J78" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K78" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L78" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O78" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P78" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4960,28 +4942,28 @@
         <v>258</v>
       </c>
       <c r="G79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H79" t="s">
         <v>259</v>
       </c>
       <c r="I79" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J79" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K79" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L79" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O79" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P79" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5001,28 +4983,28 @@
         <v>258</v>
       </c>
       <c r="G80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H80" t="s">
         <v>259</v>
       </c>
       <c r="I80" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J80" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K80" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L80" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O80" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P80" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5042,28 +5024,28 @@
         <v>258</v>
       </c>
       <c r="G81" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H81" t="s">
         <v>259</v>
       </c>
       <c r="I81" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J81" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K81" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L81" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O81" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P81" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5089,22 +5071,22 @@
         <v>259</v>
       </c>
       <c r="I82" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J82" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K82" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L82" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O82" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P82" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5124,28 +5106,28 @@
         <v>257</v>
       </c>
       <c r="G83" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="H83" t="s">
         <v>259</v>
       </c>
       <c r="I83" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J83" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K83" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L83" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O83" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P83" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="444">
   <si>
     <t>fa_title</t>
   </si>
@@ -85,7 +85,7 @@
     <t>آمار و احتمال ۱</t>
   </si>
   <si>
-    <t>تحلیل داده‌ها با نرم‌افزارهای عمومی</t>
+    <t>نرم‌افزارهای آماری و تحلیل داده‌ها</t>
   </si>
   <si>
     <t>آمار و احتمال م‍قدماتی</t>
@@ -127,7 +127,7 @@
     <t>مبانی ماتریس‌ها و جبر خطی</t>
   </si>
   <si>
-    <t>مبانی آنالیزعددی</t>
+    <t>مبانی آنالیز عددی</t>
   </si>
   <si>
     <t>مبانی آنالیز ریاضی</t>
@@ -157,7 +157,7 @@
     <t>منطق برای علوم کامپیوتر</t>
   </si>
   <si>
-    <t>نظریه مقدماتی کد گذاری</t>
+    <t>نظریه مقدماتی کدگذاری</t>
   </si>
   <si>
     <t>رمزنگاری</t>
@@ -181,7 +181,7 @@
     <t>رگرسیون ۱</t>
   </si>
   <si>
-    <t>سری های زمانی</t>
+    <t>سری‌های زمانی کاربردی</t>
   </si>
   <si>
     <t>هوش مصنوعی</t>
@@ -196,16 +196,10 @@
     <t>آشنایی با یادگیری عمیق</t>
   </si>
   <si>
-    <t>اصول مصورسازی داده‌ها</t>
-  </si>
-  <si>
     <t>مبانی کارآفرینی</t>
   </si>
   <si>
-    <t>توسعه کسب و کارهای نوپا</t>
-  </si>
-  <si>
-    <t>مدیریت و کنترل پروژه</t>
+    <t>طراحی و توسعه کسب و کارهای نوپا</t>
   </si>
   <si>
     <t>تجارت الکترونیک</t>
@@ -256,7 +250,7 @@
     <t>گرافیک کامپیوتری</t>
   </si>
   <si>
-    <t>شبکه‌های اجتماعی</t>
+    <t>تحلیل شبکه‌های اجتماعی</t>
   </si>
   <si>
     <t>اصول سیستم‌های عامل</t>
@@ -268,7 +262,10 @@
     <t>کامپایلر</t>
   </si>
   <si>
-    <t>مباحثی در علوم کامپیوتر</t>
+    <t>مباحثی در علوم کامپیوتر ۱</t>
+  </si>
+  <si>
+    <t>مباحثی در علوم کامپیوتر ۲</t>
   </si>
   <si>
     <t>مبانی بیوانفورماتیک</t>
@@ -283,10 +280,7 @@
     <t>آنالیز عددی</t>
   </si>
   <si>
-    <t>آشنایی با تحلیل کلان داده‌ها</t>
-  </si>
-  <si>
-    <t>مباحثی در الگوریتم‌ها</t>
+    <t>آشنایی با کلان داده‌ها</t>
   </si>
   <si>
     <t>فرایند های تصادفی</t>
@@ -307,6 +301,9 @@
     <t>تحلیل آماری داده‌ها</t>
   </si>
   <si>
+    <t>محاسبات علمی مقدماتی</t>
+  </si>
+  <si>
     <t>Calculus I</t>
   </si>
   <si>
@@ -331,7 +328,7 @@
     <t>Probability and Statistics I</t>
   </si>
   <si>
-    <t>Graphical and Exploratory data analysis</t>
+    <t>Statistical Software &amp; data analysis</t>
   </si>
   <si>
     <t>Elementary Statistics and Probability</t>
@@ -442,18 +439,12 @@
     <t>Introduction to Deep Learning</t>
   </si>
   <si>
-    <t>Elements of data visualization</t>
-  </si>
-  <si>
     <t>Foundations of Entrepreneurship</t>
   </si>
   <si>
     <t>New Business Development</t>
   </si>
   <si>
-    <t>Management and Project Control</t>
-  </si>
-  <si>
     <t>Electronic Commerce</t>
   </si>
   <si>
@@ -502,7 +493,7 @@
     <t>Computer Graphics</t>
   </si>
   <si>
-    <t>Social Networks</t>
+    <t>Social Networks Analysis</t>
   </si>
   <si>
     <t>Principles of Operating Systems</t>
@@ -514,7 +505,10 @@
     <t>Compiler</t>
   </si>
   <si>
-    <t>Topics in Computer Science</t>
+    <t>Topics in Computer Science-I</t>
+  </si>
+  <si>
+    <t>Topics in Computer Science-II</t>
   </si>
   <si>
     <t>Fundamentals of Bioinformatic</t>
@@ -529,10 +523,7 @@
     <t>Numerical Analysis</t>
   </si>
   <si>
-    <t>Introduction to Big Data Analysis</t>
-  </si>
-  <si>
-    <t>Topics in Algorithms</t>
+    <t>Introduction to Big Data</t>
   </si>
   <si>
     <t>Stochastic Processes</t>
@@ -553,6 +544,9 @@
     <t>Statistical Data Analysis</t>
   </si>
   <si>
+    <t>Elementary Scientific Computing</t>
+  </si>
+  <si>
     <t>Calculus-I</t>
   </si>
   <si>
@@ -577,7 +571,7 @@
     <t>Probability-and-Statistics-I</t>
   </si>
   <si>
-    <t>Graphical-and-Exploratory-data-analysis</t>
+    <t>Statistical-Software-and-data-analysis</t>
   </si>
   <si>
     <t>Elementary-Statistics-and-Probability</t>
@@ -682,18 +676,12 @@
     <t>Introduction-to-Deep-Learning</t>
   </si>
   <si>
-    <t>Elements-of-data-visualization</t>
-  </si>
-  <si>
     <t>Foundations-of-Entrepreneurship</t>
   </si>
   <si>
     <t>New-Business-Development</t>
   </si>
   <si>
-    <t>Management-and-Project-Control</t>
-  </si>
-  <si>
     <t>Electronic-Commerce</t>
   </si>
   <si>
@@ -742,7 +730,7 @@
     <t>Computer-Graphics</t>
   </si>
   <si>
-    <t>Social-Networks</t>
+    <t>Social-Networks-Analysis</t>
   </si>
   <si>
     <t>Principles-of-Operating-Systems</t>
@@ -751,7 +739,10 @@
     <t>Principles-of-SoftwareDesign</t>
   </si>
   <si>
-    <t>Topics-in-Computer-Science</t>
+    <t>Topics-in-Computer-Science-I</t>
+  </si>
+  <si>
+    <t>Topics-in-Computer-Science-II</t>
   </si>
   <si>
     <t>Fundamentals-of-Bioinformatic</t>
@@ -760,10 +751,7 @@
     <t>Numerical-Analysis</t>
   </si>
   <si>
-    <t>Introduction-to-Big-Data-Analysis</t>
-  </si>
-  <si>
-    <t>Topics-in-Algorithms</t>
+    <t>Introduction-to-Big-Data</t>
   </si>
   <si>
     <t>Stochastic-Processes</t>
@@ -784,6 +772,9 @@
     <t>Statistical-Data-Analysis</t>
   </si>
   <si>
+    <t>Elementary-Scientific-Computing</t>
+  </si>
+  <si>
     <t>پایه</t>
   </si>
   <si>
@@ -796,7 +787,7 @@
     <t>ندارد</t>
   </si>
   <si>
-    <t>تحقیق در عملیات، مبانی ترکیبیات</t>
+    <t>مبانی کامپیوتر و برنامه‌سازی،‌</t>
   </si>
   <si>
     <t>آمار و احتمال مقدماتی</t>
@@ -817,9 +808,6 @@
     <t>مبانی ماتریس‌ها و جبر خطی، آمار و احتمال مقدماتی</t>
   </si>
   <si>
-    <t>ساختمان داده‌ها و الگوریتم‌ها، آمار و احتمال مقدماتی</t>
-  </si>
-  <si>
     <t>داده کاوی مقدماتی</t>
   </si>
   <si>
@@ -835,7 +823,7 @@
     <t>` `اجازه گروه</t>
   </si>
   <si>
-    <t>مبانی آنالیز عددی</t>
+    <t>پایگاه داده‌ها</t>
   </si>
   <si>
     <t>شبکه‌های کامپيوتری، اصول سيستم های عامل</t>
@@ -859,21 +847,12 @@
     <t>1</t>
   </si>
   <si>
-    <t>1+1</t>
-  </si>
-  <si>
-    <t>۳</t>
-  </si>
-  <si>
     <t>نظری</t>
   </si>
   <si>
     <t>عملی</t>
   </si>
   <si>
-    <t>نظری-عملی</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -883,18 +862,12 @@
     <t>32</t>
   </si>
   <si>
-    <t>16+32</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
     <t>192</t>
   </si>
   <si>
-    <t>۴۸</t>
-  </si>
-  <si>
     <t xml:space="preserve"> دارد</t>
   </si>
   <si>
@@ -919,7 +892,7 @@
     <t>['اقتصاد: مبانی و مدل ها. معاملات، مزیت مقایسه ای و سیستم بازار. قیمت ها از کجا می آیند: تعادل تقاضا و عرضه. بهره وری اقتصادی ، تعیین قیمت و مالیات ها. سیاست های زیست محیطی و خدمات عمومی. انعطاف پذیری: پاسخگویی تقاضا. شرکت ها، بازار سهام و حاکمیت شرکتی. انتخاب مصرف کننده و اقتصاد رفتاری. فناوری ، تولید و هزینه ها. شرکت ها در بازارهای کاملاً رقابتی. سیاست انحصاری و ضد انحصاری.\n']</t>
   </si>
   <si>
-    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '- تایپ ده انگشتی\n', '- **آشنایی مقدماتی با حروف\u200cچینی کامپیوتری**\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- **آشنایی مقدماتی با مجموعه میکروسافت آفیس**\n', '- **آشنایی با سرویس\u200cهای کاربردی**\n', 'سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- **آشنایی با سیستم عامل لینوکس**\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **مقدمات برنامه\u200cنویسی وب**\n', 'اصول کلی HTML، آشنایی با JavaScript و CSS\n']</t>
+    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '- **آشنایی مقدماتی با تهیه اسناد کامپیوتری**\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- **آشنایی مقدماتی با مجموعه میکروسافت آفیس**\n', '- **آشنایی با سرویس\u200cهای کاربردی**\n', 'سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- **آشنایی با سیستم عامل لینوکس**\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX\n', 'دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n']</t>
   </si>
   <si>
     <t>['منطق گزاره ها و جدول ارزش. مجموعه\u200cها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه\u200cهای متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n']</t>
@@ -928,28 +901,28 @@
     <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز.\n']</t>
   </si>
   <si>
-    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای نمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از نرم افزار اکسل  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['مروري بر آمار توصیفی (شیوه جمع\u200cآوري داده، انواع داده، داده\u200cي مشاهده\u200cاي، داده\u200cي طولی،...، جدولها و نمودارهاي آماري، معیارهاي مرکزي و پراکندگی)\n', 'مبانی آمار کاوشی (نمودارهاي ساقه و برگ، ساقه و برگ پشت\u200cبه\u200cپشت، نمودار جعبه\u200cاي، نمودار Q-Q)\n', 'روشهاي اساسی شمارش: قواعد شمارش، نمونه\u200cهاي مرتب و جایگشتها، نمونه\u200cهاي نامرتب و ترکیبها، افرازهاي مرتب و جایگشتهاي متمایز.\n', 'احتمال: آزمایش تصادفی (ساده و مرکب)، تعابیر متفاوت از احتمال، تابع احتمال، فضاي احتمال یکنواخت (مدل احتمال کلاسیک)، پیوستگی تابع احتمال، احتمال شرطی، آزمایشهاي مرکب، کاربرد احتمال شرطی ، استقلال، فرمول بیز. امید ریاضی\n', 'تعریف آزمایش تصادفی و فضای نمونه، فضای نمونه باپایان و بی پایان، پیشامدها، پیشامد قطعی و محال، رخ دادن پیشامد، اعمال روی پیشامدها و تعبیر آنها، مکمل یک پیشامد، اجتماع، اشتراک، زیرپیشامد، تفاضل دو پیشامد، تفاضل متقارن پیشامدها، تعریف احتمال، تعبیرهای مختلف احتمال، تعیبر فراوانی نسبی احتمال، تعبیر شخصی احتمال، اصول کولموگوروف، قضایای احتمال، مدل احتمال با فضای نمونه باپایان، مدل احتمال یکنواخت، محاسبه احتمال در مدل یکنواخت، قواعد شمارش، اصل ضرب و اصل جمع در شمارش، انواع جایگشت ها، جایگشت خطی، دوری،  حلقوی، جایگشت چیزهای مشابه، ترکیب،  فرمول استرلینگ، بسط دوجمله ای، بسط چند جمله ای،  مدل های جعبه و مهره، حل مثال هایی از کاربرد روش\x1fهای شمارش در محاسبه احتمال ها در مدل یکنواخت با فضای نمونه باپایان، مدل احتمال با فضای نمونه دلخواه، اشاره ای کوتاه و مقدماتی به تعریف  میدان سیگما و تابع مجموعه ای و تعریف یک فضای احتمال، احتمال شرطی، قانون ضرب احتمال، استقلال دو و چند پیشامد،  افراز فضای نمونه و فرمول احتمال کل، قضیه بیز، احتمال پیشین و پسین، اشاره ای به کاربرد  احتمال شرطی و قضیه بیز  در جدول توافقی دو در دو (ماتریس در هم ریختگی) در مسائل رده بندی و داده کاوی،  استفاده از نرم افزارهای آماری برای شمارش و محاسبه احتمال ها. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**   تدریس و سخنرانی،  حل مثال\x1fهای کاربردی و حتی الامکان پرهیز از تاکید بر مثال\x1fهای کلیشه\x1fای تاس و سکه در درس  با هدف علاقه مند ساختن دانشجو، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه و آموزش محاسبات نرم افزاری. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز**\n']</t>
-  </si>
-  <si>
-    <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tفایل های ترتیبی\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tالگوریتمهای جستجو و مرتب\u200cسازی\n', '•\tحافظه پویا\n', '•\tموارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
-  </si>
-  <si>
-    <t>['مرور مقدمات برنامه\u200cنویسی در پایتون، انواع داده\u200cای، ساختارهای شرطی و کنترلی، حلقه\u200cها و توابع. ماژول\u200cها. لیست\u200cها، فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات رو ی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. پرونده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، عبارات با قاعده، Threads، جانگو\n']</t>
+    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای sنمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از نرم افزار اکسل  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
+    <t>['مروري بر آمار توصیفی (شیوه جمع\u200cآوري داده، انواع داده، داده\u200cي مشاهده\u200cاي، داده\u200cي طولی،...، جدولها و نمودارهاي آماري، معیارهاي مرکزي و پراکندگی)\n', 'مبانی آمار کاوشی (نمودارهاي ساقه و برگ، ساقه و برگ پشت\u200cبه\u200cپشت، نمودار جعبه\u200cاي، نمودار Q-Q)\n', 'روشهاي اساسی شمارش: قواعد شمارش، نمونه\u200cهاي مرتب و جایگشتها، نمونه\u200cهاي نامرتب و ترکیبها، افرازهاي مرتب و جایگشتهاي متمایز.\n', 'احتمال: آزمایش تصادفی (ساده و مرکب)، تعابیر متفاوت از احتمال، تابع احتمال، فضاي احتمال یکنواخت (مدل احتمال کلاسیک)، پیوستگی تابع احتمال، احتمال شرطی، آزمایشهاي مرکب، کاربرد احتمال شرطی ، استقلال، فرمول بیز. امید ریاضی\n', 'تعریف &lt;a name="_hlk96854985"&gt;&lt;/a&gt;&lt;a name="_hlk96855053"&gt;&lt;/a&gt;آزمایش تصادفی و فضای نمونه، فضای نمونه باپایان و بی پایان، پیشامدها، پیشامد قطعی و محال، رخ دادن پیشامد، اعمال روی پیشامدها و تعبیر آنها، مکمل یک پیشامد، اجتماع، اشتراک، زیرپیشامد، تفاضل دو پیشامد، تفاضل متقارن پیشامدها، تعریف احتمال، تعبیرهای مختلف احتمال، تعیبر فراوانی نسبی احتمال، تعبیر شخصی احتمال، اصول کولموگوروف، قضایای احتمال، مدل احتمال با فضای نمونه باپایان، مدل احتمال یکنواخت، محاسبه احتمال در مدل یکنواخت، قواعد شمارش، اصل ضرب و اصل جمع در شمارش، انواع جایگشت ها، جایگشت خطی، دوری،  حلقوی، جایگشت چیزهای مشابه، ترکیب،  فرمول استرلینگ، بسط دوجمله ای، بسط چند جمله ای،  مدل های جعبه و مهره، حل مثال هایی از کاربرد روش\x1fهای شمارش در محاسبه احتمال ها در مدل یکنواخت با فضای نمونه باپایان، مدل احتمال با فضای نمونه دلخواه، اشاره ای کوتاه و مقدماتی به تعریف  میدان سیگما و تابع مجموعه ای و تعریف یک فضای احتمال، احتمال شرطی، قانون ضرب احتمال، استقلال دو و چند پیشامد،  افراز فضای نمونه و فرمول احتمال کل، قضیه بیز، احتمال پیشین و پسین، اشاره ای به کاربرد  احتمال شرطی و قضیه بیز  در جدول توافقی دو در دو (ماتریس در هم ریختگی) در مسائل رده بندی و داده کاوی،  استفاده از نرم افزارهای آماری برای شمارش و محاسبه احتمال ها. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**   تدریس و سخنرانی،  حل مثال\x1fهای کاربردی و حتی الامکان پرهیز از تاکید بر مثال\x1fهای کلیشه\x1fای تاس و سکه در درس  با هدف علاقه مند ساختن دانشجو، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه و آموزش محاسبات نرم افزاری. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز**\n']</t>
+  </si>
+  <si>
+    <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tکار با فایل\u200cها\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tحافظه پویا\n', '•\t(درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
+  </si>
+  <si>
+    <t>['مرور فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات روی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. پرونده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، عبارات با قاعده، Threads، جانگو\n']</t>
   </si>
   <si>
     <t>['آنالیز پیچیدگی زمان و حافظه الگوریتم\u200cها، توابع بازگشتی، معرفی ساختمان\u200cهای داده\u200cای مقدماتی (لیست پیوندی، پشته، صف و صف اولویت\u200cدار) و الگوریتم\u200cهای وابسته به آن\u200cها،  نمایش ماتریس\u200cها در حافظه، ماتریس\u200cهای تنک،\u200c تطابق رشته، درخت\u200cها و الگوریتم\u200cهای پیمایش مربوطه، درخت عبارت، تبدیل نگارش\u200cهای مختلف یک عبارت ریاضی، درهم\u200cسازی، گراف\u200cها و الگوریتم\u200cهای مربوط به گراف (BFS، DFS و ...) ، الگوریتم\u200cهای جستجو و مرتب\u200cسازی.\n']</t>
   </si>
   <si>
-    <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجيره ای ماتریس ها، درخت جستجوی بهينه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعاليت های بيشينه\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و حد و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پيچيدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n']</t>
-  </si>
-  <si>
-    <t>['- آشنایی با UML\n', '- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با عبارات با قاعده\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی مقدماتی با** LaTeX\n', '- دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n']</t>
-  </si>
-  <si>
-    <t>['مدل معنایی داده. مدلسازی داده محور. مدل هویت-رابطه. مدل هویت-رابطه بهبودیافته. مقدمات ساخت پایگاه داده\u200cهای رابطه ای. بارگذاری و استخراج داده. بروزرسانی و حذف داده. مکانیزم ماشه در پایگاه داده. وابستگی تابعی. فرم\u200cهای نرمال. جبر رابطه\u200cای. ایندکس. ساختمان داده درخت-ب. تئوری پایگاه دادههای عظیم. پایگاه داده\u200cهای غیررابطه ای مانند مونگودیبی. دادگان غیرساخت یافته در پایگاه داده\u200cهای غیررابطه ای.\n']</t>
+    <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجيره ای ماتریس ها، درخت جستجوی بهينه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعاليت های بيشينه،  درخت پوشای کمینه.\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و کران و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پيچيدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n']</t>
+  </si>
+  <si>
+    <t>['- آشنایی با UML\n', '- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با عبارات با قاعده\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n']</t>
+  </si>
+  <si>
+    <t>['مدل معنایی داده. مدلسازی داده محور. مدل هویت-رابطه. مدل هویت-رابطه بهبودیافته. مقدمات ساخت پایگاه داده\u200cهای رابطه ای. بارگذاری و استخراج داده. بروزرسانی و حذف داده. مکانیزم ماشه در پایگاه داده. وابستگی تابعی. فرم\u200cهای نرمال. جبر رابطه\u200cای. ایندکس. تئوری پایگاه دادههای عظیم. پایگاه داده\u200cهای غیررابطه ای مانند مونگودیبی. دادگان غیرساخت یافته در پایگاه داده\u200cهای غیررابطه ای. آشنایی با SQL.\n']</t>
   </si>
   <si>
     <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n']</t>
@@ -958,10 +931,10 @@
     <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتري، تبدیلها و ترکیب ها و ضرایب دوجمله اي، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزي و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوي که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس هاي صفر و یک (آماده سازي براي بخش مربع هاي لاتین و گراف ها)، آشنایی با ماتریس هاي آدامار و برخی نتایج در این مورد. گراف ها و مدل هاي مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهاي آن در مدلسازي (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه اي، انواع اصلی گراف نظیر گراف هاي کامل، درخت ها، گراف هاي دوبخشی، گراف هاي اویلري و هامیلتونی و گراف هاي جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق هاي کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزي گراف ها و چند جمله اي رنگی (با ارائه مثال و الگورتیم). مربع هاي لاتین، طرح ها و هندسه هاي متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n']</t>
   </si>
   <si>
-    <t>['آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعهها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n']</t>
-  </si>
-  <si>
-    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای حل مساله کوتاه ترین مسیر. الگوریتم\u200cهای حل مساله بیشینه جریان. الگوریتم\u200cهای حل مساله کمینه هزینه انتقال. الگوریتم سیمپلکس شبکه. الگوریتم\u200cهای تطابق. الگوریتمهای کوچکترین درخت فراگیر. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، کمترین برش)، الگوریتم ادمونز کارپ، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف. اجرای پروژه کاربردی.\n']</t>
+    <t>['آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n']</t>
+  </si>
+  <si>
+    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای تطابق. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، برش کمینه)، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف، مسائل مکان\u200cیابی. اجرای پروژه کاربردی.\n']</t>
   </si>
   <si>
     <t>['اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n']</t>
@@ -991,7 +964,7 @@
     <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، آشنایی مقدماتی با شبکه\u200cهای عصبی، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ناپخته، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، روشهای کاهش بعد، PCA و LDA.\n', 'پروژه کاربردی (حتی الامکان تحت وب)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه.  رویکرد این درس آشنایی دانشجو با مباحث یادگیری ماشینی است و مباحث نظری صرفا در حد نیاز آموزش داده شوند. در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس بهینه\u200cسازی غیرخطی گفته شده است. همچنین به فرض سایر روش\u200cهای مرتبط همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در درس تکمیلی مرتبط با یادگیری ماشین، همچون دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پيش پردازش و آماده سازي داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استاندارد سازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', 'سایر روشهای خوشه\u200cبندی که در درس یادگیری ماشین مقدماتی گفته نشده است، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی که در درس یادگیری ماشین مقدماتی گفته نشده است.\n', 'روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، میانگین متحرک، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', 'شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی، معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحليل آنها بوسيله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با حوزه\u200cی یادگیری ماشین اشتراک دارد، در این برنامه درسی سعی شده است که هم\u200cپوشانی مطالب کمینه باشد. شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
+    <t>['مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پيش پردازش و آماده سازي داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استاندارد سازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', 'تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی \n', 'روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، میانگین متحرک، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', 'شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی، معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحليل آنها بوسيله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با حوزه\u200cی یادگیری ماشین اشتراک دارد، در این برنامه درسی سعی شده است که هم\u200cپوشانی مطالب کمینه باشد. شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
   </si>
   <si>
     <t>['معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n']</t>
@@ -1024,13 +997,13 @@
     <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['مثالهایی از سری های زمانی و اهداف تحلیل سری های زمانی.  مدل های دارای روند و مؤلفه فصلی در حوزه زمان و روشهای برآورد و حذف آنها (عملگرهای پسرو و تفاضلی). مدل های مبتنی بر روابط خودهمبستگی (تعاریف اولیه مانند تابع خود کوواریانس، خودهمبستگی، خودهمبستگی جزئی). توابع خود کوواریانس و خودهمبستگی نمونه\u200cای. آزمون های گوناگون برای تصادفی و نرمال بودن دنباله\u200cهای متغیرهای تصادفی. معرفی کلاس ARIMA از مدل\u200cهای خطی و وارون\u200cپذیر. برآورد میانگین و توابع خود کوواریانس و خودهمبستگی مدل های ایستا. پیشبینی مدل های سری های زمانی ایستا. مدل\u200cهای ARIMA با استفاده از برآوردهای اولیه. برآوردگرهای MLE، بررسی درستی و صحت مدل، معیار AICC. سری های زمانی در حوزه فرکانس. برآورد پارامترهای مدل و چگونگی تعیین مدل و معرفی مدل های سری زمانی مبتنی بر واریانس شرطی.\n']</t>
+    <t>['مثالهایی از سری های زمانی و اهداف تحلیل سری های زمانی.  مدل های دارای روند و مؤلفه فصلی در حوزه زمان و روشهای برآورد و حذف آنها (عملگرهای پسرو و تفاضلی). مدل های مبتنی بر روابط خودهمبستگی (تعاریف اولیه مانند تابع خود کوواریانس، خودهمبستگی، خودهمبستگی جزئی). توابع خود کوواریانس و خودهمبستگی نمونه\u200cای. آزمون های گوناگون برای تصادفی و نرمال بودن دنباله\u200cهای متغیرهای تصادفی. معرفی کلاس ARIMA از مدل\u200cهای خطی و وارون\u200cپذیر. برآورد میانگین و توابع خود کوواریانس و خودهمبستگی مدل های ایستا. پیشبینی مدل های سری های زمانی ایستا. مدل\u200cهای ARIMA با استفاده از برآوردهای اولیه. برآوردگرهای MLE، بررسی درستی و صحت مدل، معیار AICC. سری های زمانی در حوزه فرکانس. برآورد پارامترهای مدل و چگونگی تعیین مدل و معرفی مدل های سری زمانی مبتنی بر واریانس شرطی.\n', 'توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار ( یا نرم\u200cافزارهای مشابه) جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n']</t>
   </si>
   <si>
     <t>['تاریخچه و کاربرد هوش مصنوعی. توسعه عاملهای هوشمند واکنشی، مدل گرا، هدف گرا و سودمند. روشهای جستجوی فضای حالت مساله به صورت ناآگاهانه. جستجوی \\*A. زنجیره مارکوف. شبکه\u200cهای باور. جستجوی هیوریستیک، تپه نوردی، پرتوی محلی. الگوریتم ژنتیک. بازیها و جستجوی تخاصمی. مسائل ارضای محدودیت. عاملهای منطقی. طرح ریزی مساله. عدم قطعیت در مسائل هوش مصنوعی. بازنمایی دانش در هوش مصنوعی. کاربردهای هوش مصنوعی. آشنایی با سیستم\u200cهای خبره.\n']</t>
   </si>
   <si>
-    <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'گرچه که شبکه\u200cهای عصبی هم در حوزه محاسبات نرم قرار می\u200cگیرد، اما به سبب ازدیاد سرفصل این درس و هم اینکه شبکه\u200cهای عصبی در درس\u200cهای دیگری مرور می\u200cشوند، در سرفصل این درس قرار داده نشده است. البته وابسته به نظر استاد می\u200cتوان مروری بر شبکه\u200cهای عصبی نیز داشت.\n', '**~~شبکه\u200cهای عصبی:~~**\n', '~~پرسپترون، یادگیری پرسپترون،\u200c توابع فعالیت~~\n', '~~معماری\u200cهای شبکه\u200cهای عصبی: پرسپترون چند لایه ، هاپفیلد، خود سازمانده، ART و ...~~\n']</t>
+    <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'نکته: توصیه می\u200cشود این درس با هماهنگی با درس شبکه\u200cهای عصبی گفته شود.\n']</t>
   </si>
   <si>
     <t>['`   `مفاهیم مقدماتی و ابزارهای هوش تجاری، فرایند تصمیم گیری، سیستم\u200cهای پشتیبان تصمیم گیری، مفاهیم، روشها و تکنولوژی، تصمیم گیری براساس مدل های آماری در سیستم\u200cهای تجاری، داده کاوی در هوش تجاری،  فرایند استخراج، تبدیل و  بارگذاری داده\u200cها (ETL) ، وب کاوی، انبار داده\u200cها،  پاکسازی داده\u200cها، تهیه و ساخت جداول، ایجاد ارتباط بین جداول، طراحی و ساخت  انواع گزارش ها، گزارش های زمان محور و مکان محور روی نقشه، ساخت انواع نمودارها، ساخت و سفارشی سازی داشبوردهای مدیریتی با استفاده از نرم افزارهایی مانند Tableau، Power BI، Self-Service BI، Tableau Prep، QlikSense، ارائه پروژه های دانشجویان. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
@@ -1039,16 +1012,10 @@
     <t>['`    `مروری مختصر بر رگرسیون، لجستیک رگرسیون و مدل پرسپترون. معرفی تنسورها، عملیات روی تنسورها (برش، عملیات درجا و ...)، مشتق\u200cگیری خودکار، انتقال تنسورها به کارت گرافیک، آشنایی با انواع توابع فعالیت، توابع هزینه و الگوریتم\u200cهای بهینه\u200cسازی مورد استفاده در روال گرادیان کاهشی، روشهای ارزیابی (monitoring)، الگوریتم پس انتشار، بیش برازشی و کم برازشی، آماده\u200cسازی داده\u200cها،  منظم\u200cسازی، Dropout، شبکه\u200cهای عصبی متراکم (تمام متصل یا چگال)، شبکه\u200cهای عصبی پیچشی (کانولوشنی)، نمایش آنچه که لایه\u200cهای لایه\u200cهای پیچشی آموزش می\u200cبینند، یادگیری عمیق برای داده\u200cهای متنی و سری زمانی، شبکه\u200cهای برگشتی  (RNN, GRU, LSTM) و کاربردهای آنها. یادگیری خود کدگذارها، آشنایی با چند معماری معروف، انتقال یادگیری، یادگیری انتها به انتها، طبقه\u200cبندی داده\u200cهای تصویری، متنی، تنظیم پارامترها. شبکه\u200cهای مولد هم\u200cآورد (GAN)، نمایش برخی توانمندی\u200cهای یادگیری عمیق از طریق بیان مثالهای کاربردی از قبیل تولید متن، شناسایی چهره، تولید تصویر جعلی، رؤیای عمیق، انتقال سبک عصبی، نقاشی با شبکه\u200cهای عصبی و بیان توابع هزینه\u200cی مرتبط با آنها. آشنایی با حداقل یکی از کتابخانه\u200cهای معروف حوزه یادگیری عمیق مانند پای\u200cتورچ یا تنسورفلو. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', 'با توجه به اینکه پیش\u200cنیاز این درس، یادگیری ماشین مقدماتی است و در آن درس رگرسیون، مدل پرسپترون و شبکه\u200cهای چند لایه پرسپترونی گفته شده\u200cاند، در این درس می\u200cتوان به سرعت وارد مبحث موضوع یادگیری عمیق شد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['مرور انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، سری های زمانی، داده\u200cهای یک متغیره و چند متغیره ( مانند بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، انواع نمودار دایره\x1fای، انواع نمودارهای ستونی، نمودار پراکنش برای نمایش همبستگی، به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی)، آشنایی با دیداری سازی اطلاعات به\u200cروش اینفوگرافی، مصورسازی داده\u200cهای متنی با نمودارهای مناسب از جمله ابرکلمات ، مصورسازی داده\u200cهای فضایی روی نقشه\u200cهای جغرافیایی ایستا و پویا ، ایجاد نمودارهای تعاملی و پویا ، ایجاد داشبوردهای اطلاعاتی و وب-اپلیکیشن\u200cها، آشنایی با بسته\u200cهای ggplot، plotly، Matplotlib, ,Seaborn  Bokeh, Altair در پایتون و همچنین آشنایی با Tableau و  Power BI توصیه می\u200cشود. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه**: کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
     <t>['تاریخچه کارآفرینی، مفاهیم کارآفرینی و انواع آن. انواع کسب وکار و مبانی و اصول کسب وکار. مبانی بازار و مدیریت بازار. داستان\u200cهای موفقیت و شکست کارآفرینان و قهرمانان توسعه. ارزیابی امکان سنجی و انتخاب ایده کارآفرینی. چارچوب طرح کسب وکار. طراحی جداول و محاسبات طرح کسب وکار. مراحل ثبت و تأسیس شرکت و آشنایی با انواع شرکت\u200cها. مبانی کسب وکار در اقتصاد ایران و کلیات قوانین تجارت در ایران. تجربیات موفق کارآفرینان ایرانی. مهارت\u200cهای کارآفرینی: کار گروهی، مدیریت منابع، مدیریت مالی، ارتباطات و …. برنامه ریزی و سازماندهی کسب وکار. راه\u200cاندازی کسب وکار، تولید، کنترل کیفیت و کنترل هزینه ها. بازاریابی، فروش و ارتباط با مشتری.\n']</t>
   </si>
   <si>
-    <t>['•\tکسب و کارهای نوپا \n', '•\tارزیابی خطر \n', '•\tارزیابی منابع \n', '•\tتحليل بازار \n', '•\tتحليل مالی \n', '•\tارزش پيشنهادی \n', '•\tمهارت های کار تيمی و گروهی \n', '•\tقوانين داخلی و بين المللی کسب و کار  \n', '•\tمهارت ها و روش های توسعه نرم افزار \n', '•\tمعرفی کارآفرینان موفق در ایران و دنيا \n', '•\tمعرفی موفقيت ها و شکست های بزرگ در راه اندازی کسب و کارهای نوپا \n', '•\tسخنرانی های شخصيت های موفق در ایجاد کسب و کارهای نوپا\n']</t>
-  </si>
-  <si>
-    <t>['تعاریف و مفاهیم اساسی شبکه\u200cها. طریقه رسم شبکه\u200cها، شبکه\u200cهای کوتاهترین مسیر. ماکزیمم جریان در شبکه. محاسبه مسیر بحرانی CPM و به دست آوردن زودترین و دیرترین زمان شروع و زمان شناوری. بررسی هزینه و زمان تخصیص فعالیت با توجه به منابع محدود- گزارش پیشرفت کار و کنترل پروژه. برنامه\u200cریزی پروژه به\u200cوسیله PERT. مفاهیم آماری شبکه PERT ، معرفی GERT. نرم\u200cافزار MS project و یا نرم\u200cافزار مشابه دیگر. آشنایی با برنامه\u200cهای کامپیوتری در کنترل پروژه مانند PERT/Time. معرفی برنامه\u200cهای کامپیوتری متداول موارد کاربردی. مدل\u200cهای مختلف کنترل و برنامه\u200cریزی پروژه\u200cهای کامپیوتری و نرم\u200cافزاری.\n']</t>
+    <t>['•\tکسب و کارهای نوپا، به ویژه کسب و کارهای نوپای ناب\n', '•\tارزیابی خطر \n', '•\tارزیابی منابع \n', '•\tتحليل بازار \n', '•\tتحليل مالی \n', '•\tارزش پيشنهادی\n', '•\tفرآیند توسعه مشتری \n', '•\tتفکر طراحی\n', '•\tمهارت های کار تيمی و گروهی \n', '•\tقوانين داخلی و بين المللی کسب و کار  \n', '•\tمهارت ها و روش های توسعه نرم افزار \n', '•\tمعرفی کارآفرینان موفق در ایران و دنيا \n', '•\tمعرفی موفقيت ها و شکست های بزرگ در راه اندازی کسب و کارهای نوپا \n', '•\tسخنرانی های شخصيت های موفق در ایجاد کسب و کارهای نوپا\n']</t>
   </si>
   <si>
     <t>['مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n']</t>
@@ -1057,7 +1024,7 @@
     <t>['`   `آشنایی با: مفاهیم و تعریف مدیریت. کاربرد های سازمان و انواع آن. برنامه ریزی و انواع آن با تاکید بر حوزه سیاسی. انگیزش و روش های ایجاد و تقویت انگیزه با تاکید بر سازمان های سیاسی. هدایت رهبری با تاکید بر هداریت و رهبری سیاسی. نظارت(کنترل) و روش های آن با تاکید بر نظارت در حوزه سیاست. خلاقیت و نوآوری و روش های ایجاد و تقویت آن با تاکید حوزه های سیاسی. روش های تصمیم گیری و انواع آن. رهیافت های عمده در سیر تکوینی نظریه های مدیریتی شامل رهیافت های سنتی منابع انسانی کمی و اقتضایی. انواع الگو های مدیریتی. الگو های مدیریت سیاسی. اصول مدیریت در اسلام. الکوی مدیریت حکمرانی انبیا- آشنایی با مدیریت در محیط سیاس. احزاب سازمان های مردم نهاد و مانند آن. مطالعه موردی شیوه های مدیریت سیاس در سیاست داخلی و خارجی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. دانشجویان باید تکلیف\u200cهای محول شده را انجام و ارائه نمایند.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['`\t`مقدمه اي بر مدلسازي، تعریف مدلسازي و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهاي اقتصادي مدلهاي بیویوژیکی و زیستی، مدلهاي فیزیکی، مدلهاي تصادفی، مدلهاي دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازي: انواع توابع ونمایش آنها با استفاد از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازي، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهاي اقتصادي از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازي، مقایسه بین، توابع خطی و نمایی در مدلسازي، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازي، رشد وکاهش نمایی، استفاد از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژي و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاد از گرافها در مدلسازي، بسط گرافها و گرافهاي شیفت یافته و کاربرد آنها در مدلسازي همراه با ارائه چند مثال؛ توابع توانی و چند جمله اي ها در مدلسازي، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازي با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازي همراه با ارائه چند مثال.\n']</t>
+    <t>['`\t`مقدمه اي بر مدلسازي، تعریف مدلسازي و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهاي اقتصادي مدلهاي بیویوژیکی و زیستی، مدلهاي فیزیکی، مدلهاي تصادفی، مدلهاي دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازي: انواع توابع ونمایش آنها با استفاده از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازي، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهاي اقتصادي از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازي، مقایسه بین، توابع خطی و نمایی در مدلسازي، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازي، رشد وکاهش نمایی، استفاده از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژي و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاده از گرافها در مدلسازي، بسط گرافها و گرافهاي شیفت یافته و کاربرد آنها در مدلسازي همراه با ارائه چند مثال؛ توابع توانی و چند جمله اي ها در مدلسازي، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازي با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازي همراه با ارائه چند مثال.\n']</t>
   </si>
   <si>
     <t>['`\t`معرفی یکی از نرم افزارهاي ریاضی، نحوه نصب و استفاده از راهنماي آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهاي n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهاي تابع، رسم نمودارهاي دو بعدي، برنامهنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهاي تقریبی برآورد انتگرال، دنباله\u200cها و سري ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n']</t>
@@ -1069,10 +1036,10 @@
     <t>['مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه\u200cهای مستقل و خوشه ها.\n']</t>
   </si>
   <si>
-    <t>['`\t`آشنایی با زمینه هاي تحقیق در عملیات، مدل بندي مسائل بهینه سازي، مفاهیم پایه اي مرتبط با برنامه ریزي خطی شامل روشهاي ترسیمی، سیمپلکس اولیه و دوگان، دوفازي و M بزرگ، دوگانی، تحلیل حساسیت و قضایاي مرتبط با آنها. قضایا و روشهاي حل مسائل حمل ونقل ساده و مرکب. مدل سازي مساله تخصیص و روش حل آن. آشنایی با برنامه ریزي عدد صحیح و روشهاي شاخه و کران و صفحات برشی. معرفی یک نرم افزار یا زبان مدلسازي جهت حل مسائل بهینه سازي، مانند CPLEX ، GAMS ،   LINGO\n']</t>
-  </si>
-  <si>
-    <t>['مدل سازي شامل: برازش داده\u200cها(کمترین مربعات خطی و غیر خطی)، مدل هاي سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازي، آنالیز محدب مقدماتی (مجموعه و توابع محدب و برخی قضایاي مربوطه)، شرایط لازم و کافی براي مسایل نامقید و مقید، شرایط اسلیتر، لم فارکاس محدب، شرایط کاروش-کیون-تاکر، دوگانی در بهینه سازي محدب (دوگان لاگرانژ، دوگان ولف و قضایاي مربوطه)؛ الگوریتم\u200cهاي حل مسایل نا مقید شامل: روشهاي بر مبناي جستجوي خطی( جستجوي طلایی، فیبوناچی، عقب گرد)، روشهاي گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش هاي گرادیان مزدوج و شبه نیوتن. پیاده سازي الگوریتم\u200cها  و مقایسه عملکرد آنها؛ الگوریتم\u200cهاي حل مسایل مقید شامل: روش گرادیان کاهش یافته و بسط یافته آن؛ مسابل بهینه سازي درجه دوم محدب با قیود خطی و معرفی برخی روش هاي حل آن از قبیل روش سیمپلکس توسعه یافته؛ کاربردهایی از بهینه سازي محدب مانند طبقه بندي خطی،\u200c ماشین بردار پشتیبان.\n']</t>
+    <t>['`\t`آشنایی با زمینه هاي تحقیق در عملیات به ویژه در اقتصاد و یادگیری ماشین. مدل بندي مسائل بهینه سازي، مفاهیم پایه اي مرتبط با برنامه ریزي خطی شامل روشهاي ترسیمی، سیمپلکس اولیه و دوگان، دوفازي، دوگانی، تحلیل حساسیت. روشهاي حل مسائل حمل ونقل ساده و مرکب. مدل سازي مساله تخصیص و روش حل آن. آشنایی با برنامه ریزي عدد صحیح و روشهاي شاخه و کران و صفحات برشی،آشنایی با ماشین بردار پشتیبان. معرفی یک نرم افزار یا زبان مدلسازي جهت حل مسائل بهینه سازي، مانند CPLEX  و Pyomo\n']</t>
+  </si>
+  <si>
+    <t>['مدل سازي شامل: کاربردهایی از بهینه سازي محدب مانند طبقه بندي خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل هاي سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازي، شرایط لازم و کافی براي مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهاي حل مسایل نامقید شامل: روشهاي بر مبناي جستجوي خطی( جستجوي طلایی، فیبوناچی، عقب گرد)، روشهاي گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش هاي گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازي درجه دوم محدب با قیود خطی و معرفی برخی روش هاي حل آن ؛ الگوریتم\u200cهاي حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازي الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n']</t>
   </si>
   <si>
     <t>['نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n']</t>
@@ -1096,7 +1063,7 @@
     <t>['مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه سازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n']</t>
   </si>
   <si>
-    <t>['آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصور سازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n']</t>
+    <t>['آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصورسازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n']</t>
   </si>
   <si>
     <t>['خواص گرافی شبکه\u200cهای اجتماعی. نظریه بازی در شبکه\u200cهای اجتماعی. انتشار اطلاعات در شبکه\u200cهای اجتماعی. دینامیک شبکه\u200cهای اجتماعی.\n']</t>
@@ -1117,22 +1084,19 @@
     <t>['معرفی بیوانفورماتیک، حوزه های علم بیوانفورماتیک، کاربردهای بیوانفورماتیک،  اساس بیوشیمی و زیست\u200cشناسی سلولی، ساختار مولکولی و شیمی فیزیکی پروتئین\u200cها و DNA، گرافیک مولکولی، بانک\u200cهای اطلاعاتی ساختاری، آنالیز توالی پروتئین و DNA، روشهای پیشگو به\u200cوسیله توالی\u200cهای پروتئین و DNA، آنالیز ژنومیک، کاربرد بالینی / پزشکی و درمانی Bio-informatics\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', '**\n', '` `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['**محتوای پروژه برای هر دانشجو و توسط استاد پروژه تعیین می شود.**\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**تدریس مفاهیم در جلسات اصلی درس و برگزاری کلا سهای مشاوره در طول نیمسال .**\n']</t>
-  </si>
-  <si>
-    <t>['**محتوای کارآموزی برا ی هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n']</t>
+    <t>['**محتوای پروژه برای هر دانشجو و توسط استاد پروژه تعیین می شود.**\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**تدریس مفاهیم در جلسات اصلی درس و برگزاری کلاسهای مشاوره در طول نیمسال .**\n']</t>
+  </si>
+  <si>
+    <t>['**محتوای کارآموزی برای هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n']</t>
   </si>
   <si>
     <t>['حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n']</t>
   </si>
   <si>
-    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، کلان داده\u200cها و یادگیری ماشینی، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی (Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
-  </si>
-  <si>
-    <t>['**مقدمه.  الگوریتم\u200cهای تقریبی. جستجوی محلی. الگوریتم\u200cهای تصادفی. الگوریتم\u200cهای آنلاین. الگوریتم\u200cهای استریمینگ. الگوریتم\u200cهای هندسی و ترسیم گراف.**\n']</t>
-  </si>
-  <si>
-    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهيم پایه\u200cای  فرایند تصادفي،  توزیع\u200cهای با بعد متناهي، ایستایي، با نموهای همگن، با نموهای مستقل، ویژگي ماركوفی، فرآیندهای برنولي و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشي. فرآیند گام برداری تصادفي: ویژگی\u200cهای و مسئله ورشکستگي بازیکن،   فرآیند پواسن، معرفي فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائي، دوجمله\u200cای، هندسي، یکنواخت و بتا، توزیع شرطي زمان\u200cهای بين ورود و ارتباط با آماره\u200cهای ترتيبي توزیع یکنواخت،  فرآیند پواسون مركب و كاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجيرهای ماركف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- كولموگرو،  توزیع اوليه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجيرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتي، وضعیت\u200cهای بازگشتي مثبت و بازگشتي پوچ، متوسط تعداد دفعات ملاقات از یک وضعيت بازگشتي،  متوسط اولين زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n']</t>
+    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
+  </si>
+  <si>
+    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهيم پایه\u200cای  فرایند تصادفي،  توزیع\u200cهای با بعد متناهي، ایستایي، با نموهای همگن، با نموهای مستقل، ویژگي ماركوفی، فرآیندهای برنولي و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشي. فرآیند گام برداری تصادفي: ویژگی\u200cهای و مسئله ورشکستگي بازیکن،   فرآیند پواسن، معرفي فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائي، دوجمله\u200cای، هندسي، یکنواخت و بتا، توزیع شرطي زمان\u200cهای بين ورود و ارتباط با آماره\u200cهای ترتيبي توزیع یکنواخت،  فرآیند پواسون مركب و كاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجيرهای ماركف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- كولموگرو،  توزیع اوليه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجيرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتي، وضعیت\u200cهای بازگشتي مثبت و بازگشتي پوچ، متوسط تعداد دفعات ملاقات از یک وضعيت بازگشتي،  متوسط اولين زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: &lt;a name="_hlk86305627"&gt;&lt;/a&gt;شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n']</t>
   </si>
   <si>
     <t>['1- آشنایی با مفاهیم رایانش ابری، مدلهای مختلف استقرار و سرویس دهی 2- آشنایی با معماری مرجع رایانش ابری 3- آشنایی با مفاهیم مجازی سازی در سطح سخت افزار، در سطح سیستم عامل و در سطح زبان برنامه\u200cنویسی 4- آشنایی با مدلهای مختلف برنامه\u200cنویسی ابر مانند مدل کیسه وظایف، جریانهای کاری، مدل ریزخدمت 5- آشنایی با مفاهیم تحلیل داده\u200cهای عظیم و امکانات ابری برای پردازش این نوع داده\u200cها همچون: سیستم فایل توزیع شده مانند HDFS، پایگاه داده\u200cهای NoSQL همانند HBase، مدلهای برنامه\u200cنویسی مانند Map-Reduce، پردازش گرافی مانند Giraph و پردازش جریانی همانند Storm 6- آشنایی با مدیریت منابع و زمانبندی در ابر روشهای مختلف زمانبندی وظایف مستقل و جریانهای کاری 7- آشنایی با محاسبات ابری سبز و روشهای برقراری آن 8- آشنایی با مدلهای بین ابری همانند ابر متحد شده و چند ابری و تفاوتهای آنها، و آشنایی با مفهوم کارگزاری ابر 9- آشنایی با مفهوم محاسبات لبه ای و ارتباط آن با رایانش ابری، محاسبات ابری متحرک و انواع آن و محاسبات مهی\n']</t>
@@ -1147,7 +1111,10 @@
     <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n']</t>
   </si>
   <si>
-    <t>['جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری، بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، مقدمه ای بر سری های زمانی\n', 'آمار توصیفی\n', '• مثال کاربردی از آمار توصیفی\n', '• مفاهیم ابتدایی آمار استنباطی\n', '• آمار استنباطی بازه اطمینان\n', '• آزمون فرضیه و مثال کاربری از آزمون فرضیه\n', '- **آشنایی با احتمالات و آمار – آماره\u200cهای معمول – واریانس، کوواریانس – توابع چگالی احتمال**\n', '- **تخمین**\n', '  - تخمین نقطه\u200cای\n', '  - تخمین بازه\u200cای\n', '  - تخمینگر بیشینه درست\u200cنمایی\n', '- **تست فرضیه**\n', '  - خطای نوع ۱ و نوع ۲\n', '  - P-value\n', '  - ارتباط با بازه اطمینان\n', '  - برخی از تست\u200cهای مهم مانند Chi-Square\n', '- **رگرسیون خطی**\n', '  - روش کمترین مربعات\n', '  - خواص تخمین\u200cگر کمترین مربعات\n', '  - استنتاج درباره ضرایب رگرسیون\n', '  - انتخاب مدل و بررسی صحت آن\n', '  - معنی\u200cداری ضرائب مدل\n', '- **تحلیل واریانس**\n', '  - تحلیل واریانس\n', '  - ANOVA\n', '- **روش بدون پارامتر**\n', '  - ضرایب همبستگی Spearman rank\n', '- **آمار بیزی**\n', '  - استنتاج بیزی\n', '- R2 Score – \n', '- سریهای زمانی – خودهمبستگی – مانایی، میانگین متحرک\n', '- احتمال شرطی – قانون احتمال کل\n']</t>
+    <t>['جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری، بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، مقدمه ای بر سری های زمانی، تحلیل واریانس\n']</t>
+  </si>
+  <si>
+    <t>['سیستم\u200cهای ممیز شناور ( آشنایی با استانداردهای IEEE) و معرفی رند عدد یک.\n', 'خطای نمایش، خطرات آن و نحوه کنترل آن، نحوه محاسبات توابع پایه با سیستم ممیز شناور، پیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی علمی الگوریتم\u200cهای منتخب عددی با انتخاب استاد و مستندسازی نرم\u200cافزارهای علمی\n', '**\n']</t>
   </si>
   <si>
     <t>['کتاب حساب دیفرانسیل و انتگرال تالیف جیمز استوارت – ترجمه ارشک حمیدي ویراست حداقل 6\n', '` `کتاب حساب دیفرانسیل و انتگرال و هندسه تحلیلی، تالیف توماس فینی – ویر، ویرایش حداقل ۹\n', 'سیاوش شهشهانی، "حساب دیفرانسیل و انتگرال"، جلد اول، ویراست دوم، انتشارات فاطمی، ۱۳۹۶.\n', 'Robert A. Adams and Cristopher Essex. Calculus, A Complete Course. 9th Edition, Pearson, 2018.\n', 'James Stewart. Calculus. 8th Edition, Cengage learning, 2016.\n']</t>
@@ -1159,7 +1126,7 @@
     <t>['1. Eric Matthes, Python Crash Course: A Hands-On, Project-Based Introduction to Programming, No Starch Press, 2019\n', '1. Allen Downey, Think Python, How to Think Like a Computer Scientist, 2nd Edition, Green Tea Press, 2015\n', '1. P. Wentworth, J. Elkner, A. B. Downey, C. Meyers. How to Think Like a Computer Scientist: Learning with Python. 3rd Edition, Open Book Project, 2011.\n', '1. J. Campbell, P. Gries, J. Montojo, G. Wilson. Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf, 2009.\n', '1. J. M. Zelle. Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates, 2004.\n', '1. Micha Gorelick and Ian Ozsvald, High-Performance-Python, y O’Reilly Media, Inc., 2014\n', '1. Learning Python\xa0by Mark Lutz\n', '1. Head First Programming\xa0by Paul Barry and David Griffiths\n', '1. Python Programming: A Complete Guide For Beginners To Master And Become An Expert\xa0by Brian Draper\n', '1. [Introduction To Computer Science And Programming In Python](https://ocw.mit.edu/courses/6-0001-introduction-to-computer-science-and-programming-in-python-fall-2016/pages/lecture-slides-code/), MIT Open Courseware\n', '1. Some other references: &lt;https://github.com/ambadidi/Python-Books&gt;\n']</t>
   </si>
   <si>
-    <t>['O’Sullivan, A., Sheffrin, S., &amp; Perez, S., Survey of Economics: Principles, Applications, and Tools, 8th Edition, Boston: Pearson, 2019.\n']</t>
+    <t>['&lt;a name="_hlk932247371"&gt;&lt;/a&gt;O’Sullivan, A., Sheffrin, S., &amp; Perez, S., Survey of Economics: Principles, Applications, and Tools, 8th Edition, Boston: Pearson, 2019.\n']</t>
   </si>
   <si>
     <t>['در اختیار مدرس\n', '**\n']</t>
@@ -1225,13 +1192,13 @@
     <t>['ن. نعمت الهی، آمار و احتمالات مهندسی، انتشارات دلفک، 1394.\n', 'ش. م. راس، مقدمهای بر آمار و احتمال (برای دانشجویان مهندسی و علوم)، ترجمه مجید اسدی و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1382.\n', 'ج. بهبودیان، آمار و احتمال مقدماتی، انتشارات دانشگاه امام رضا (ع)، 1383.\n', 'س. قهرمانی، مبانی احتمال، ترجمه غلامحسین شاهکار و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1390.\n', 'G. G. Roussas, Introduction to probability, 2nd Edition, Academic Press, 2014.\n']</t>
   </si>
   <si>
-    <t>['گیونز، جف\u200c اچ\u200c. (1393). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '\\1. Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '2.Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '\\3. Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. نعمت اللهی، نادر ( 1397). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (1388).  آمار اصول و روش ها، جلد 1 و 2، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (1394).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (1399). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان کتاب اصلی -کتاب زیر- قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '2. Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.**\n']</t>
+    <t>['گیونز، جف\u200c اچ\u200c. (1393). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '1\\. Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '2\\.Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '3\\. Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['1\\. نعمت اللهی، نادر ( 1397). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '2\\. جانسون، ر. آ. و  باتاچاریا، گ.، (1388).  آمار اصول و روش ها، جلد 1 و 2، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '3\\. ووناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '4\\. بهبودیان، ج.، آمار و احتمال مقدماتی (1394).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '5\\. طاهری، س.م. (1399). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '6\\. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '7\\. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
+  </si>
+  <si>
+    <t>['1\\. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان کتاب اصلی -کتاب زیر- قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '2. Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.**\n']</t>
   </si>
   <si>
     <t>['` `شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دكتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', 'مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', 'زینل همدانی، علی (1394). دانشیابی داده\u200cها ( مقدمه ای بر داده کاوی)، انتشارات دانشگاه صنعتی اصفهان. \n', 'Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', 'Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', 'Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', 'Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', 'Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.\n']</t>
@@ -1255,7 +1222,7 @@
     <t>['G. Winskel, The Formal Semantics of Programming Languages An Introduction, The MIT Press, 1994\n']</t>
   </si>
   <si>
-    <t>['\\1. عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '\\2. عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '\\3. سوری، علی. (1400). نظریه بازي\u200cها و كاربردهاي اقتصادي، انتشارات نور علم.\n', '\\5. زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '\\1. Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
+    <t>['1\\. عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '2\\. عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '3\\. سوری، علی. (1400). نظریه بازي\u200cها و كاربردهاي اقتصادي، انتشارات نور علم.\n', '5\\. زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '1\\. Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
   </si>
   <si>
     <t>['R. Motwani and P. Raghavan. Randomized Algorithms. Cambridge University Press, 1995.\n', 'J. Matoušek and J. Vondrák. The Probabilistic Method. Lecture Notes, Department of Applied Mathematics, Charles University, Prague, 2001.\n', 'M. Mitzenmacher and E. Upfa. Probability and Computing: Randomized Algorithms and Probabilistic Analysis. Cambridge University Press, 2005.\n']</t>
@@ -1264,7 +1231,7 @@
     <t>['M. de Berg, O. Cheong, M. van Kreveld, and M. Overmars. Computational Geometry: Algorithms and Applications. 3rd edition, Springer-Verlag, 2008.\n', "J. O'Rourke. Computational Geometry in C. 2nd edition, Cambridge University Press, 1998.\n", 'Jean-Daniel Boissonnat and Mariette Yvinec, Algorithmic Geometry, Cambridge Univ. Press, 1998. \n', "Satyan L. Devadoss and Joseph O'Rourke, Discrete and Computational Geometry, Princeton Univ. Press, 2011.\n", 'Herbert Edelsbrunner, Algorithms in Combinatorial Geometry, Springer, 1987. \n', "Jacob E. Goodman, Joseph O'Rourke, and Csaba D. Tóth (editors), Handbook of Discrete and Computational Geometry, 3rd edition, CRC Press, 2017.\n", 'Sariel Har-Peled, Geometric Approximation Algorithms, AMS Press, 2011. Early draft and additional material available as PDF files.\n', 'Jiří Matoušek, Lectures on Discrete Geometry, Springer, 2002.\n', "Joseph O'Rourke, Computational Geometry in C, Second Edition, Cambridge Univ. Press, 1998.\n", 'Franco P. Preparata and Michael Ian Shamos, Computational Geometry: An Introduction, Springer, 1985\n']</t>
   </si>
   <si>
-    <t>['1-مونتگمری، د.،  پک، آ و جافری، و. (1395). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '\\2. امینی، م. زمانی، ح. روزبه، م.  (1398). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '1. Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '1. Olive, D. (2017). Linear Regression, Springer.\n', '1. Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '1. Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '1. Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n']</t>
+    <t>['1-مونتگمری، د.،  پک، آ و جافری، و. (1395). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '2\\. امینی، م. زمانی، ح. روزبه، م.  (1398). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '1. Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '1. Olive, D. (2017). Linear Regression, Springer.\n', '1. Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '1. Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '1. Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n']</t>
   </si>
   <si>
     <t>['براکول، پ. و دیویس، ر.ا. (۱۳۸۴) مقدمهای بر سریهای زمانی و پیشبینی، ترجمه محمد امینی، ابوالقاسم بزرگ نیا و محمدحسین دهقان، چاپ دوم، انتشارات دانشگاه سیستان و بلوچستان. \n', 'چتفیلد، ک. (۱۹۹۶) . مقدمهای بر تحلیل سریهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، دانشگاه فردوسی مشهد.\n', 'ترجمه محمدرضا مشکانی، ،R کرایر، ج.د.؛ سیک چن، ک. (۱۳۹۲)  تجزیه\u200cوتحلیل سریهای زمانی با استفاده از نرم\u200cافزار، مرکز نشر دانشگاهی.\n']</t>
@@ -1276,28 +1243,22 @@
     <t>['1. J. M. Keller, D. Liu and D. B. Fogel, Fundamentals of Computational Intelligence: Neural Networks, Fuzzy Systems and Evolutionary Computation, Wiley, 2016. \n', '1. P. Engelbrecht, Computational Intelligence: An Introduction, Wiley, 2007.\n', '1. Konar, Computational Intelligence: Principles, Techniques and Applications, Springer, 2007.\n']</t>
   </si>
   <si>
-    <t>['تارخ، محمد جعفر و مهاجری، حسین (1392). هوش تجاری نگرشی پویا در عرصه کسب و کار، انتشارات دانشگاه خواجه نصیر. \n', '1.Vercellis, C. (2011).\xa0Business intelligence: data mining and optimization for decision making. John Wiley.\n', '2.Azevedo, A. and Santos, M. F. (Eds.). (2020).\xa0Integration Challenges for Analytics, Business Intelligence, and Data Mining. IGI Global.\n', '3.Grossmann, W. and Rinderle-Ma, S. (2015). Fundamentals of business intelligence, Springer\n', '4.Sauter, V. L. (2014).\xa0Decision support systems for business intelligence. John Wiley &amp; Sons.\n', '5.Clark, D. (2019).\xa0Beginning Power BI: A Practical Guide to Self-Service Data Analytics with Excel 2016 and Power BI Desktop. Apress.\n', '6.Seamark, P. (2018).\xa0Beginning DAX with Power BI: The SQL Pro’s Guide to Better Business Intelligence. Apress.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. نیلسن، م. (1400). شبکه\u200cهای عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '2. Eli Stevens, Luca Antiga, and Thomas Viehmann, (2020) Deep Learning with PyTorch, Manning Pub.\n', '2. Chollet, F. (2017).  Deep Learning with Python. Manning Pub.\n', '2. Goodfellow, I., Bengio, Y. and Courville, A.  (2016). Deep Learning, MIT Press.\n', '2. Lantz, B. (2019).\xa0Machine learning with R: expert techniques for predictive modeling. Packt publishing.\n', '2. Santanu Pattanayak (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python by Santanu Pattanayak.\n', '2. Nielsen, M. A. (2015).\xa0Neural networks and deep learning, San Francisco, CA: Determination press.\n']</t>
-  </si>
-  <si>
-    <t>["1. Kyran Dale (2016), Data Visualization with Python and JavaScript: Scrape, Clean, Explore &amp; Transform Your Data, O'Reilly Media\n", '1. Cole Nussbaumer Knaflic  (2015), Storytelling with Data: A Data Visualization Guide for Business Professionals, Wiley \n', "1. Scott Murray (2017) Interactive Data Visualization for the Web: An Introduction to Designing with D3, O'Reilly Media\n", '1. AI Publishing (2020) Data Visualization with Python for Beginners: Visualize Your Data using Pandas, Matplotlib and Seaborn (Machine Learning &amp; Data Science for Beginners) \n']</t>
+    <t>['تارخ، محمد جعفر و مهاجری، حسین (1392). هوش تجاری نگرشی پویا در عرصه کسب و کار، انتشارات دانشگاه خواجه نصیر. \n', '1\\.Vercellis, C. (2011).\xa0Business intelligence: data mining and optimization for decision making. John Wiley.\n', '2\\.Azevedo, A. and Santos, M. F. (Eds.). (2020).\xa0Integration Challenges for Analytics, Business Intelligence, and Data Mining. IGI Global.\n', '3\\.Grossmann, W. and Rinderle-Ma, S. (2015). Fundamentals of business intelligence, Springer\n', '4\\.Sauter, V. L. (2014).\xa0Decision support systems for business intelligence. John Wiley &amp; Sons.\n', '5\\.Clark, D. (2019).\xa0Beginning Power BI: A Practical Guide to Self-Service Data Analytics with Excel 2016 and Power BI Desktop. Apress.\n', '6\\.Seamark, P. (2018).\xa0Beginning DAX with Power BI: The SQL Pro’s Guide to Better Business Intelligence. Apress.\n']</t>
+  </si>
+  <si>
+    <t>['1\\. نیلسن، م. (1400). شبکه\u200cهای عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '2. Eli Stevens, Luca Antiga, and Thomas Viehmann, (2020) Deep Learning with PyTorch, Manning Pub.\n', '2. Chollet, F. (2017).  Deep Learning with Python. Manning Pub.\n', '2. Goodfellow, I., Bengio, Y. and Courville, A.  (2016). Deep Learning, MIT Press.\n', '2. Lantz, B. (2019).\xa0Machine learning with R: expert techniques for predictive modeling. Packt publishing.\n', '2. Santanu Pattanayak (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python by Santanu Pattanayak.\n', '2. Nielsen, M. A. (2015).\xa0Neural networks and deep learning, San Francisco, CA: Determination press.\n']</t>
   </si>
   <si>
     <t>['منابع آزاد با نظر استاد درس\n']</t>
   </si>
   <si>
-    <t>['J.J. Moder, R. Philips, Project Management with CPM &amp; PERT, Van Nostrand Reinhold Co., 1970.\n', 'F.L. Harrison, Advanced Project Management, Wiley, 1981.\n']</t>
-  </si>
-  <si>
     <t>['E. Turban, D. King, J. K. Lee, T.-P. Liang, and D. C. Turban. Electronic Commerce: A Managerial and Social Networks Perspective. 8th Edition, Springer, 2018.\n']</t>
   </si>
   <si>
-    <t>['\\1. الوانی مهدی (1395). مدیریت عمومی. چاپ پنجاه و چهارم. تهران .نی.\n', '\\2. قلی پور رحمت ا.. . ابراهیم غلامی (1389).  فراین سیاست گذاری عمومی در ایران. تهران. مرکز پژوهش های مجلس شورای اسلامی.\n', '\\3. نامغ پرویز (1391).  مبانی مدیریت دولتی. تهران. هستان.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. Functions and change, 5th Edition, Crauder, Evans and Noell, Houghton Mifflin, 2010.\n', '\\2. An Introduction to Mathematical Modeling, Michael Alder, HeavenForBooks.com, 2001.\n', '\\3. An Introduction to Mathematical Modeling: A Course in Mechanics 1st Edition, Tinsley Oden, Wily\n', 'Series in Computational Mechanics, 2011.\n', '\\4. Mathematics for Life Sciences, Calculus, Modeling, Probability and Dynamical Systems, G. Ledder, Springer, 2013.\n']</t>
+    <t>['1\\. الوانی مهدی (1395). مدیریت عمومی. چاپ پنجاه و چهارم. تهران .نی.\n', '2\\. قلی پور رحمت ا.. . ابراهیم غلامی (1389).  فراین سیاست گذاری عمومی در ایران. تهران. مرکز پژوهش های مجلس شورای اسلامی.\n', '3\\. نامغ پرویز (1391).  مبانی مدیریت دولتی. تهران. هستان.\n']</t>
+  </si>
+  <si>
+    <t>['1\\. Functions and change, 5th Edition, Crauder, Evans and Noell, Houghton Mifflin, 2010.\n', '2\\. An Introduction to Mathematical Modeling, Michael Alder, HeavenForBooks.com, 2001.\n', '3\\. An Introduction to Mathematical Modeling: A Course in Mechanics 1st Edition, Tinsley Oden, Wily\n', 'Series in Computational Mechanics, 2011.\n', '4\\. Mathematics for Life Sciences, Calculus, Modeling, Probability and Dynamical Systems, G. Ledder, Springer, 2013.\n']</t>
   </si>
   <si>
     <t>['Applied Numerical Methods with MATLAB, by Steven C. Chapra\n', 'Matlab Symbolic Algebra and Calculus Tools, by C. P. Lopez\n', 'Mathematica, by E. Don \n']</t>
@@ -1309,7 +1270,7 @@
     <t>['Diestel, R., Extremal Graph Theory. In Graph Theory (pp. 173-207). Springer, Berlin,\n', 'Heidelberg, 2017.\n', 'West, D. B., Introduction to graph theory (Vol. 2). Upper Saddle River, NJ: Prentice hall, 1996.\n', 'Bondy, J. A., &amp; Murty, U. S. R., Graph theory with applications (Vol. 290). London: Macmillan, 1976.\n']</t>
   </si>
   <si>
-    <t>['1 .برتسیماس، سیتسیکلیس، مقدمه اي بر بهینه سازي خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا، 1394.\n', '2 .حمدي طه، آشنایی با تحقیق در عملیات: برنامه ریزي خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی، 1387.\n', '3 .وینستون، تحقیق در عملیات، برنامهریزي خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران، 1380.\n', '4 .بازارا، جارویس، شرالی، برنامه ریزي خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی، 1392.\n', '**\n']</t>
+    <t>['1 .برتسیماس، سیتسیکلیس، مقدمه اي بر بهینه سازي خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا، 1394.\n', '2 .حمدي طه، آشنایی با تحقیق در عملیات: برنامه ریزي خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی، 1387.\n', '3 .وینستون، تحقیق در عملیات، برنامه\u200cریزي خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران، 1380.\n', '4 .بازارا، جارویس، شرالی، برنامه ریزي خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی، 1392.\n', '**\n']</t>
   </si>
   <si>
     <t>['1. د. ج. لوئنبرگر، برنامه\u200cریزی خطی و غیرخطی، ترجمه نظام\u200cالدین مهدوی امیری و محمدحسین پور کاظمی، دانشگاه صنعتی شریف، ۱۳۹۲.\n', '1. M. Bazaraa, H.D. Sherali, C.M. Shetty, *Nonlinear Programming: Theory and Algorithms*, 3rd edition, John Wiley &amp; Sons, 2006.\n', '1. Stephen Boyd and Lieven Vandenberghe.\xa0*Convex optimization*. Cambridge university press, 2004.\n', '1. E.K.P. Chong, S.H. Zak, An Introduction to Optimization, 4th edition, Wiley, 2013.\n', '1. 4. I. Griva, S.G. Nash, A. Sofer, Linear and Nonlinear Optimization, 2nd edition, SIAM, 2009.\n', '1. Jorge Nocedal and Stephen Wright.\xa0*Numerical optimization*. Springer Series in Operations Research and Financial Engineering, 2nd edition, 2006.\n', '1. *Convex Optimization*\xa0taught by Ryan Tibshirani at CMU from 2013 to 2019.\n', '1. S.S. RAO: Optimization: Theory and Applications, August 9, 1978, John Wiley and Sons\n']</t>
@@ -1318,7 +1279,7 @@
     <t>['Gallian, J. Contemporary abstract algebra. Nelson Education, 2012\n', '` `Kleiner, I., A history of abstract algebra. Springer Science &amp; Business Media, 2007.\n']</t>
   </si>
   <si>
-    <t>['\\1. Michael W. Frazier, An Introduction to Wavelets through Linear Algebra, Springer Undergraduate Texts in Mathematics\n', '\\2. Barbara Burke Hubbard, The World According to Wavelets, Second Edition.\n', '\\3. D. F. J. Narcowich, A. Boggess, A First Course in Wavelets with Fourier Analysis, Prentice Hall\n', '\\4. F. P. J. Van Fleet, Discrete Wavelet Transforms- An Elementary Approach with Applications \n']</t>
+    <t>['1\\. Michael W. Frazier, An Introduction to Wavelets through Linear Algebra, Springer Undergraduate Texts in Mathematics\n', '2\\. Barbara Burke Hubbard, The World According to Wavelets, Second Edition.\n', '3\\. D. F. J. Narcowich, A. Boggess, A First Course in Wavelets with Fourier Analysis, Prentice Hall\n', '4\\. F. P. J. Van Fleet, Discrete Wavelet Transforms- An Elementary Approach with Applications \n']</t>
   </si>
   <si>
     <t>['` `محمد حسن علیائی طرقبه، آموزش جامع پردازش تصویر با OpenCV و Python، ناشر: انتشارات میعاد اندیشه. ۱۴۰۰\n', 'وحید کیانی،\u200c پردازش تصاویر در پایتون: راهنمای سریع OpenCV، انتشارات دانشگاه بجنورد، ۱۴۰۲\n', 'Sandipan Dey, Hands-On Image Processing with Python: Expert techniques for advanced image analysis and effective interpretation of image data, Packt Publishing, 2018\n', 'Ravishankar Chityala, Sridevi Pudipeddi , Image Processing and Acquisition using Python, Chapman &amp; Hall, 2021\n']</t>
@@ -1345,13 +1306,13 @@
     <t>['Avi Silberschatz , Peter Baer Galvin, Greg Gagne , Operating System Concepts, Ninth Edition, John Wiley &amp; Sons, Inc. 2013.\n', 'Silberschatz, Abraham, Peter B. Galvin, and Greg Gagne. Operating system concepts with Java. Wiley Publishing, 2009.\n', 'Tanenbaum, A. Woodhull, Operating Systems: Design and Implementation, Pearson, 2009.\n']</t>
   </si>
   <si>
-    <t>['\\1. I .Sommerville, Software Engineering, 9th edition, Addison Wesley, 2010.\n', '\\2. C .Ghezzi, M .Jazayeri, D .Mandrioli, Fundamentals of software engineering, Prentice Hall, 2003.\n', '\\3. P .A. B. Ng and R. T. Yeh, Modern Software Engineering: Foundations and Current Perspectives, Van Nostrand Reinhold, 1990.\n', "\\4. R. S. Pressman and P. Roger, Software Engineering: A Practitioner's Approach, 7th edition, McGraw Hill, 2009.\n"]</t>
+    <t>['1\\. I .Sommerville, Software Engineering, 9th edition, Addison Wesley, 2010.\n', '2\\. C .Ghezzi, M .Jazayeri, D .Mandrioli, Fundamentals of software engineering, Prentice Hall, 2003.\n', '3\\. P .A. B. Ng and R. T. Yeh, Modern Software Engineering: Foundations and Current Perspectives, Van Nostrand Reinhold, 1990.\n', "4\\. R. S. Pressman and P. Roger, Software Engineering: A Practitioner's Approach, 7th edition, McGraw Hill, 2009.\n"]</t>
   </si>
   <si>
     <t>['Alfred V. Aho, Monica S. Lam, Ravi Sethi, and Jeffrey D. Ullman, Compilers: Principles, Techniques, and Tools, 2nd Edition, Pearson, 2007.\n', 'Douglas Thain, Introduction to Compilers and Language Design, 2nd Edition, 2020, downloadable from http://compilerbook.org.\n', 'Keith D. Cooper, and Linda Torczon, Engineering a Compiler, 2nd Edition, Elsevier, 2012.\n']</t>
   </si>
   <si>
-    <t>['\\1. نقوی، م. ر، ملبوبی، م. ع و رشیدی، س (1398). بیوانفورماتیک (داده\u200cپردازی زیستی)، چاپ چهارم،  انتشارات دانشگاه تهران. \n', '1. Bergeron, B. P., (2003).Bioinformatics computing. Prentice Hall Professional.\n', '1. Sensen, C. W. (2002).\xa0Essentials of Genomics and Bioinformatics. John Wiley &amp; Sons. \n', '1. Curry, E. (2020).\xa0Introduction to Bioinformatics with R: A Practical Guide for Biologists. CRC Press.\n', '1. Sinha, P. P. (2014).\xa0Bioinformatics with R cookbook. Birmingham: Packt Publishing.\n', '1. Mathur, S. K. (2009).\xa0Statistical bioinformatics with R. Academic Press.\n']</t>
+    <t>['1\\. نقوی، م. ر، ملبوبی، م. ع و رشیدی، س (1398). بیوانفورماتیک (داده\u200cپردازی زیستی)، چاپ چهارم،  انتشارات دانشگاه تهران. \n', '1. Bergeron, B. P., (2003).Bioinformatics computing. Prentice Hall Professional.\n', '1. Sensen, C. W. (2002).\xa0Essentials of Genomics and Bioinformatics. John Wiley &amp; Sons. \n', '1. Curry, E. (2020).\xa0Introduction to Bioinformatics with R: A Practical Guide for Biologists. CRC Press.\n', '1. Sinha, P. P. (2014).\xa0Bioinformatics with R cookbook. Birmingham: Packt Publishing.\n', '1. Mathur, S. K. (2009).\xa0Statistical bioinformatics with R. Academic Press.\n']</t>
   </si>
   <si>
     <t>['با نظر مدرس درس\n', '**\n']</t>
@@ -1363,13 +1324,10 @@
     <t>['R. L. Burden, J. D. Faires, Numerical Analysis. PW Publishing Company, Boston, USA, 2011.\n']</t>
   </si>
   <si>
-    <t>['\\1. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
-  </si>
-  <si>
-    <t>['Cormen, T. H., Leiserson, C. E., Rivest, R. L., &amp; Stein, C. Introduction to Algorithms (3-rd edition). MIT Press and McGraw-Hill, 2009.\n', 'Kleinberg, J., &amp; Tardos, E., Algorithm design. Pearson Education India, 2006.\n', 'Erlebach, T., &amp; Persiano, G. (Eds.), Approximation and Online Algorithms: 10th\n']</t>
-  </si>
-  <si>
-    <t>['1.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '\\2. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '\\1. Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '\\2. Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '\\3. Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '\\4. Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '\\5. Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '\\6. Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
+    <t>['1\\. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
+  </si>
+  <si>
+    <t>['1\\.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '2\\. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '1\\. Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '2\\. Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '3\\. Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '4\\. Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '5\\. Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '6\\. Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
   </si>
   <si>
     <t>['1. `     `K. Chandrasekaran, *Essentials of cloud computing*, CRC Press, 2014 \n', '1. N**.** B. Ruparelia, *Cloud Computing*, MIT Press, 2016 \n', '1. T**.** Erl, Z**.** Mahmood, R**.** Puttini, *Cloud Computing, Concepts, Technology and Architecture*, Prentice Hall, 2013. \n', '1. I**.** Ganelin, E**.** Orhian, K**.** Sasaki, B**.** York, *Spark: Big Data Cluster Computing in Production*, Wiley, 1st Edition, 2016. ISBN-13: 978-1119254010 \n', "1. T. White, *Hadoop: The Definitive Guide: Storage and Analysis at Internet Scale,* 4th Edition. O'Reilly Media, 2015. ISBN-13: 978-1491901632 \n", '1. H. Geng, *Data Center Handbook*. Wiley, 1st Edition, 2014. ISBN-13: 978-1118436639 \n', '1. S. Adkins , J. Belamaric, V. Giersch. *OpenStack Cloud Application Development*. Wrox, 1st Edition, 2015. ISBN-13: 978-1119194316 \n', '1. B. Antony, K. Boudnik, C. Adams. *Professional Hadoop*. Wrox, 1st Edition, 2016.\n', '**\n']</t>
@@ -1384,7 +1342,10 @@
     <t>['Jack T. Marchewka. Information Technology Project Management. WILEY, 2014.**\n']</t>
   </si>
   <si>
-    <t>['Peter Bruce, Andrew Bruce, Peter Gedeck, Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python, 2nd Edition, O’Reilly Media, Inc, 2020\n', "Dawn Griffiths, Head First Statistics, O'Reilly Media, Inc, 2008\n", 'Charles Wheelan, Naked Statistics: Stripping the Dread from the Data, 2012\n', 'STATISTICS FOR BEGINNERS IN DATA SCIENCE, Theory and Applications of\n', 'Essential Statistics Concepts using Python, AI PUBLISHING\n']</t>
+    <t>['~~Peter Bruce, Andrew Bruce, Peter Gedeck, Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python, 2nd Edition, O’Reilly Media, Inc, 2020~~\n', "~~Dawn Griffiths, Head First Statistics, O'Reilly Media, Inc, 2008~~\n", '~~Charles Wheelan, Naked Statistics: Stripping the Dread from the Data, 2012~~\n', '~~STATISTICS FOR BEGINNERS IN DATA SCIENCE, Theory and Applications of~~\n', '~~Essential Statistics Concepts using Python, AI PUBLISHING~~\n']</t>
+  </si>
+  <si>
+    <t>["Scientific Computing with Case Studies, By Dianne P. O'Leary, 2009\n"]</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1803,37 +1764,37 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="P2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1844,37 +1805,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="P3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1885,37 +1846,37 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="P4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1926,37 +1887,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L5" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P5" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1967,37 +1928,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2008,37 +1969,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2049,37 +2010,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O8" t="s">
         <v>293</v>
       </c>
-      <c r="O8" t="s">
-        <v>302</v>
-      </c>
       <c r="P8" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2090,37 +2051,37 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O9" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="P9" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2131,34 +2092,34 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J10" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" t="s">
         <v>281</v>
       </c>
-      <c r="J10" t="s">
-        <v>285</v>
-      </c>
-      <c r="K10" t="s">
-        <v>289</v>
-      </c>
       <c r="O10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P10" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2169,37 +2130,37 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L11" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O11" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="P11" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2210,37 +2171,37 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K12" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P12" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2251,37 +2212,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" t="s">
         <v>257</v>
       </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
       <c r="H13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L13" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O13" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P13" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2292,37 +2253,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L14" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O14" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P14" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2333,37 +2294,37 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K15" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L15" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O15" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="P15" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2374,37 +2335,37 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K16" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L16" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O16" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="P16" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2415,37 +2376,37 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J17" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" t="s">
         <v>285</v>
       </c>
-      <c r="K17" t="s">
-        <v>287</v>
-      </c>
-      <c r="L17" t="s">
-        <v>294</v>
-      </c>
       <c r="O17" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="P17" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2456,37 +2417,37 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K18" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L18" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O18" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="P18" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2497,37 +2458,37 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K19" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L19" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O19" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P19" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2538,37 +2499,37 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J20" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L20" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O20" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P20" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2579,37 +2540,37 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J21" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K21" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L21" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O21" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="P21" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2620,37 +2581,37 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K22" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L22" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O22" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P22" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2661,37 +2622,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J23" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K23" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L23" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O23" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P23" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2702,37 +2663,37 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J24" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O24" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="P24" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2743,37 +2704,37 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I25" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J25" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O25" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P25" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2784,37 +2745,37 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J26" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K26" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O26" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="P26" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2825,37 +2786,37 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K27" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P27" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2866,34 +2827,34 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
         <v>258</v>
       </c>
-      <c r="G28" t="s">
-        <v>261</v>
-      </c>
       <c r="H28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I28" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" t="s">
         <v>278</v>
       </c>
-      <c r="J28" t="s">
-        <v>285</v>
-      </c>
       <c r="K28" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O28" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="P28" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2904,37 +2865,37 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
         <v>258</v>
       </c>
-      <c r="G29" t="s">
-        <v>261</v>
-      </c>
       <c r="H29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O29" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="P29" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2945,37 +2906,37 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J30" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="P30" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2986,37 +2947,37 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="P31" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3027,37 +2988,37 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O32" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="P32" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3068,37 +3029,37 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
         <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P33" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3109,37 +3070,37 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O34" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P34" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3150,37 +3111,37 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3191,37 +3152,37 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K36" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="P36" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3232,37 +3193,37 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I37" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K37" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="P37" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3273,34 +3234,34 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G38" t="s">
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J38" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K38" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O38" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="P38" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3311,37 +3272,37 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J39" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K39" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O39" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P39" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3352,37 +3313,37 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G40" t="s">
         <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J40" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K40" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L40" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O40" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="P40" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3393,34 +3354,34 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E41" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I41" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K41" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O41" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P41" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3431,37 +3392,37 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I42" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J42" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K42" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O42" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="P42" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3472,37 +3433,37 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G43" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J43" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K43" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L43" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O43" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P43" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3513,37 +3474,37 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I44" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J44" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K44" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="O44" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="P44" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3554,37 +3515,37 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G45" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I45" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J45" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K45" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L45" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O45" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="P45" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3595,37 +3556,37 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H46" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I46" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J46" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K46" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L46" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O46" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="P46" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3636,37 +3597,37 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E47" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="H47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I47" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J47" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K47" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L47" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O47" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="P47" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3677,37 +3638,37 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E48" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G48" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H48" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I48" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K48" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L48" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O48" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="P48" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3718,37 +3679,37 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G49" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H49" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I49" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J49" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K49" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L49" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O49" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P49" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3759,37 +3720,34 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E50" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G50" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H50" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I50" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J50" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K50" t="s">
-        <v>288</v>
-      </c>
-      <c r="L50" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="O50" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P50" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3800,37 +3758,34 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E51" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J51" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K51" t="s">
-        <v>288</v>
-      </c>
-      <c r="L51" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="O51" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="P51" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3841,34 +3796,34 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H52" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J52" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K52" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="O52" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="P52" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3879,34 +3834,37 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E53" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G53" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="I53" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J53" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K53" t="s">
-        <v>287</v>
+        <v>280</v>
+      </c>
+      <c r="L53" t="s">
+        <v>284</v>
       </c>
       <c r="O53" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P53" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3917,34 +3875,37 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E54" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G54" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="I54" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J54" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K54" t="s">
-        <v>288</v>
+        <v>280</v>
+      </c>
+      <c r="L54" t="s">
+        <v>285</v>
       </c>
       <c r="O54" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="P54" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3955,37 +3916,37 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I55" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J55" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K55" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L55" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O55" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P55" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3996,37 +3957,37 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="H56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I56" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J56" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K56" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L56" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O56" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P56" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4037,37 +3998,37 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I57" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J57" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K57" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L57" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O57" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="P57" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4078,37 +4039,34 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="H58" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J58" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K58" t="s">
-        <v>287</v>
-      </c>
-      <c r="L58" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="O58" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="P58" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4119,37 +4077,37 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E59" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J59" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K59" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L59" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O59" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P59" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4160,34 +4118,37 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G60" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I60" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J60" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K60" t="s">
-        <v>287</v>
+        <v>280</v>
+      </c>
+      <c r="L60" t="s">
+        <v>284</v>
       </c>
       <c r="O60" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P60" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4198,37 +4159,37 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G61" t="s">
         <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I61" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J61" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K61" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L61" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O61" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="P61" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4239,37 +4200,37 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E62" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="H62" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I62" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J62" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K62" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L62" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O62" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="P62" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4280,37 +4241,37 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
+        <v>255</v>
+      </c>
+      <c r="G63" t="s">
         <v>258</v>
       </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
       <c r="H63" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I63" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J63" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K63" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L63" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O63" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P63" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4321,37 +4282,37 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G64" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I64" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J64" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K64" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L64" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O64" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="P64" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4362,37 +4323,37 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I65" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J65" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K65" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L65" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O65" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="P65" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4403,37 +4364,37 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E66" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H66" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I66" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J66" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K66" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L66" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O66" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P66" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4444,37 +4405,37 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I67" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J67" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K67" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L67" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O67" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="P67" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4485,37 +4446,37 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I68" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J68" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K68" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L68" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O68" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="P68" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4526,37 +4487,37 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="H69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I69" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J69" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K69" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L69" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O69" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P69" t="s">
-        <v>443</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4567,37 +4528,37 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>256</v>
       </c>
       <c r="H70" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I70" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J70" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K70" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L70" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O70" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P70" t="s">
-        <v>444</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4608,37 +4569,37 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H71" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I71" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J71" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K71" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L71" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O71" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P71" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4649,37 +4610,37 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H72" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I72" t="s">
+        <v>274</v>
+      </c>
+      <c r="J72" t="s">
         <v>278</v>
       </c>
-      <c r="J72" t="s">
-        <v>283</v>
-      </c>
       <c r="K72" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L72" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O72" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P72" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4690,37 +4651,34 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G73" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H73" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I73" t="s">
+        <v>274</v>
+      </c>
+      <c r="J73" t="s">
         <v>278</v>
       </c>
-      <c r="J73" t="s">
-        <v>284</v>
-      </c>
       <c r="K73" t="s">
-        <v>290</v>
-      </c>
-      <c r="L73" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="O73" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="P73" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4731,34 +4689,37 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G74" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J74" t="s">
+        <v>277</v>
+      </c>
+      <c r="K74" t="s">
+        <v>280</v>
+      </c>
+      <c r="L74" t="s">
         <v>284</v>
       </c>
-      <c r="K74" t="s">
-        <v>291</v>
-      </c>
       <c r="O74" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P74" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4769,37 +4730,37 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E75" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G75" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H75" t="s">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I75" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J75" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K75" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L75" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O75" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P75" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4810,37 +4771,37 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="H76" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I76" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J76" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K76" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L76" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O76" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="P76" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4851,37 +4812,37 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G77" t="s">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="H77" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I77" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J77" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K77" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L77" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O77" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P77" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4892,37 +4853,37 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E78" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="H78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I78" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J78" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K78" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L78" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O78" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P78" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4933,37 +4894,37 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E79" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H79" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I79" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J79" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K79" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L79" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O79" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="P79" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4974,37 +4935,37 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G80" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H80" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I80" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J80" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K80" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L80" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O80" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="P80" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5015,37 +4976,37 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E81" t="s">
+        <v>254</v>
+      </c>
+      <c r="G81" t="s">
         <v>258</v>
       </c>
-      <c r="G81" t="s">
-        <v>276</v>
-      </c>
       <c r="H81" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I81" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J81" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K81" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L81" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O81" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P81" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5056,78 +5017,37 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E82" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G82" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I82" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J82" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K82" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L82" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O82" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="P82" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" t="s">
-        <v>255</v>
-      </c>
-      <c r="E83" t="s">
-        <v>257</v>
-      </c>
-      <c r="G83" t="s">
-        <v>261</v>
-      </c>
-      <c r="H83" t="s">
-        <v>259</v>
-      </c>
-      <c r="I83" t="s">
-        <v>278</v>
-      </c>
-      <c r="J83" t="s">
-        <v>283</v>
-      </c>
-      <c r="K83" t="s">
-        <v>287</v>
-      </c>
-      <c r="L83" t="s">
-        <v>293</v>
-      </c>
-      <c r="O83" t="s">
-        <v>377</v>
-      </c>
-      <c r="P83" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="441">
   <si>
     <t>fa_title</t>
   </si>
@@ -106,7 +106,7 @@
     <t>کارگاه کامپیوتر ۲</t>
   </si>
   <si>
-    <t>پایگاه داده</t>
+    <t>پایگاه داده‌ها</t>
   </si>
   <si>
     <t>اصول سیستم‌های کامپیوتری</t>
@@ -442,7 +442,7 @@
     <t>Foundations of Entrepreneurship</t>
   </si>
   <si>
-    <t>New Business Development</t>
+    <t>Design and development of start-up businesses</t>
   </si>
   <si>
     <t>Electronic Commerce</t>
@@ -679,7 +679,7 @@
     <t>Foundations-of-Entrepreneurship</t>
   </si>
   <si>
-    <t>New-Business-Development</t>
+    <t>Design-and-development-of-start-up-businesses</t>
   </si>
   <si>
     <t>Electronic-Commerce</t>
@@ -778,21 +778,18 @@
     <t>پایه</t>
   </si>
   <si>
+    <t>تخصصی اختیاری</t>
+  </si>
+  <si>
     <t>تخصصی الزامی</t>
   </si>
   <si>
-    <t>تخصصی اختیاری</t>
-  </si>
-  <si>
     <t>ندارد</t>
   </si>
   <si>
     <t>مبانی کامپیوتر و برنامه‌سازی،‌</t>
   </si>
   <si>
-    <t>آمار و احتمال مقدماتی</t>
-  </si>
-  <si>
     <t>تحلیل آماری داده‌ها، مبانی ماتریس‌ها و جبر خطی</t>
   </si>
   <si>
@@ -808,9 +805,6 @@
     <t>مبانی ماتریس‌ها و جبر خطی، آمار و احتمال مقدماتی</t>
   </si>
   <si>
-    <t>داده کاوی مقدماتی</t>
-  </si>
-  <si>
     <t>مبانی آنالیز ریاضی، مبانی ماتریس‌ها و جبر خطی</t>
   </si>
   <si>
@@ -821,9 +815,6 @@
   </si>
   <si>
     <t>` `اجازه گروه</t>
-  </si>
-  <si>
-    <t>پایگاه داده‌ها</t>
   </si>
   <si>
     <t>شبکه‌های کامپيوتری، اصول سيستم های عامل</t>
@@ -1779,22 +1770,22 @@
         <v>256</v>
       </c>
       <c r="I2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" t="s">
         <v>284</v>
       </c>
-      <c r="O2" t="s">
-        <v>287</v>
-      </c>
       <c r="P2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1820,22 +1811,22 @@
         <v>256</v>
       </c>
       <c r="I3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1861,22 +1852,22 @@
         <v>256</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1902,22 +1893,22 @@
         <v>256</v>
       </c>
       <c r="I5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1943,22 +1934,22 @@
         <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1984,22 +1975,22 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" t="s">
         <v>278</v>
       </c>
-      <c r="K7" t="s">
-        <v>281</v>
-      </c>
       <c r="L7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2016,7 +2007,7 @@
         <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G8" t="s">
         <v>256</v>
@@ -2025,22 +2016,22 @@
         <v>256</v>
       </c>
       <c r="I8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2057,7 +2048,7 @@
         <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G9" t="s">
         <v>256</v>
@@ -2066,22 +2057,22 @@
         <v>256</v>
       </c>
       <c r="I9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2107,19 +2098,19 @@
         <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" t="s">
         <v>278</v>
       </c>
-      <c r="K10" t="s">
-        <v>281</v>
-      </c>
       <c r="O10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2145,22 +2136,22 @@
         <v>256</v>
       </c>
       <c r="I11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2177,7 +2168,7 @@
         <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -2186,22 +2177,22 @@
         <v>256</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2218,7 +2209,7 @@
         <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G13" t="s">
         <v>257</v>
@@ -2227,22 +2218,22 @@
         <v>256</v>
       </c>
       <c r="I13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2259,7 +2250,7 @@
         <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -2268,22 +2259,22 @@
         <v>256</v>
       </c>
       <c r="I14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2300,7 +2291,7 @@
         <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -2309,22 +2300,22 @@
         <v>256</v>
       </c>
       <c r="I15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2341,7 +2332,7 @@
         <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G16" t="s">
         <v>256</v>
@@ -2350,22 +2341,22 @@
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K16" t="s">
         <v>278</v>
       </c>
-      <c r="K16" t="s">
-        <v>281</v>
-      </c>
       <c r="L16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2382,7 +2373,7 @@
         <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
@@ -2391,22 +2382,22 @@
         <v>256</v>
       </c>
       <c r="I17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2423,7 +2414,7 @@
         <v>192</v>
       </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -2432,22 +2423,22 @@
         <v>256</v>
       </c>
       <c r="I18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2464,7 +2455,7 @@
         <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
@@ -2473,22 +2464,22 @@
         <v>256</v>
       </c>
       <c r="I19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2505,7 +2496,7 @@
         <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
@@ -2514,22 +2505,22 @@
         <v>256</v>
       </c>
       <c r="I20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2546,7 +2537,7 @@
         <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G21" t="s">
         <v>28</v>
@@ -2555,22 +2546,22 @@
         <v>256</v>
       </c>
       <c r="I21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2587,7 +2578,7 @@
         <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -2596,22 +2587,22 @@
         <v>256</v>
       </c>
       <c r="I22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2628,7 +2619,7 @@
         <v>197</v>
       </c>
       <c r="E23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -2637,22 +2628,22 @@
         <v>256</v>
       </c>
       <c r="I23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2669,7 +2660,7 @@
         <v>198</v>
       </c>
       <c r="E24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -2678,22 +2669,22 @@
         <v>256</v>
       </c>
       <c r="I24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P24" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2710,7 +2701,7 @@
         <v>199</v>
       </c>
       <c r="E25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -2719,22 +2710,22 @@
         <v>256</v>
       </c>
       <c r="I25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2751,7 +2742,7 @@
         <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
@@ -2760,22 +2751,22 @@
         <v>256</v>
       </c>
       <c r="I26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P26" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2792,7 +2783,7 @@
         <v>201</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
@@ -2801,22 +2792,22 @@
         <v>256</v>
       </c>
       <c r="I27" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2833,28 +2824,28 @@
         <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
         <v>256</v>
       </c>
       <c r="I28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P28" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2871,31 +2862,31 @@
         <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
         <v>256</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2912,31 +2903,31 @@
         <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H30" t="s">
         <v>256</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P30" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2953,31 +2944,31 @@
         <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H31" t="s">
         <v>256</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P31" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2994,7 +2985,7 @@
         <v>206</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3003,22 +2994,22 @@
         <v>256</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P32" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3035,7 +3026,7 @@
         <v>207</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s">
         <v>21</v>
@@ -3044,22 +3035,22 @@
         <v>256</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P33" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3076,31 +3067,31 @@
         <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H34" t="s">
         <v>256</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3117,7 +3108,7 @@
         <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G35" t="s">
         <v>70</v>
@@ -3126,22 +3117,22 @@
         <v>256</v>
       </c>
       <c r="I35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K35" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3158,7 +3149,7 @@
         <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
@@ -3167,22 +3158,22 @@
         <v>256</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P36" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3199,7 +3190,7 @@
         <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3208,22 +3199,22 @@
         <v>256</v>
       </c>
       <c r="I37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L37" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P37" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3240,7 +3231,7 @@
         <v>211</v>
       </c>
       <c r="E38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G38" t="s">
         <v>22</v>
@@ -3249,19 +3240,19 @@
         <v>256</v>
       </c>
       <c r="I38" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J38" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P38" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3278,31 +3269,31 @@
         <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H39" t="s">
         <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P39" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3319,7 +3310,7 @@
         <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G40" t="s">
         <v>28</v>
@@ -3328,22 +3319,22 @@
         <v>256</v>
       </c>
       <c r="I40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P40" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3360,28 +3351,28 @@
         <v>214</v>
       </c>
       <c r="E41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H41" t="s">
         <v>256</v>
       </c>
       <c r="I41" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O41" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P41" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3398,7 +3389,7 @@
         <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G42" t="s">
         <v>94</v>
@@ -3407,22 +3398,22 @@
         <v>256</v>
       </c>
       <c r="I42" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J42" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K42" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L42" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P42" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3439,7 +3430,7 @@
         <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -3448,22 +3439,22 @@
         <v>256</v>
       </c>
       <c r="I43" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L43" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O43" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P43" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3480,7 +3471,7 @@
         <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
@@ -3489,22 +3480,22 @@
         <v>256</v>
       </c>
       <c r="I44" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J44" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L44" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O44" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P44" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3521,31 +3512,31 @@
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G45" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
         <v>256</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J45" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P45" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3562,31 +3553,31 @@
         <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H46" t="s">
         <v>256</v>
       </c>
       <c r="I46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J46" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K46" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L46" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O46" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P46" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3603,7 +3594,7 @@
         <v>220</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G47" t="s">
         <v>256</v>
@@ -3612,22 +3603,22 @@
         <v>256</v>
       </c>
       <c r="I47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K47" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L47" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O47" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P47" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3644,7 +3635,7 @@
         <v>221</v>
       </c>
       <c r="E48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G48" t="s">
         <v>256</v>
@@ -3653,22 +3644,22 @@
         <v>256</v>
       </c>
       <c r="I48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K48" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L48" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O48" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P48" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3685,7 +3676,7 @@
         <v>222</v>
       </c>
       <c r="E49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G49" t="s">
         <v>256</v>
@@ -3694,22 +3685,22 @@
         <v>256</v>
       </c>
       <c r="I49" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J49" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K49" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L49" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O49" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P49" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3726,7 +3717,7 @@
         <v>223</v>
       </c>
       <c r="E50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G50" t="s">
         <v>256</v>
@@ -3735,19 +3726,19 @@
         <v>256</v>
       </c>
       <c r="I50" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J50" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K50" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P50" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3764,7 +3755,7 @@
         <v>224</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G51" t="s">
         <v>256</v>
@@ -3773,19 +3764,19 @@
         <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K51" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O51" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P51" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3802,7 +3793,7 @@
         <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G52" t="s">
         <v>256</v>
@@ -3811,19 +3802,19 @@
         <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J52" t="s">
+        <v>275</v>
+      </c>
+      <c r="K52" t="s">
         <v>278</v>
       </c>
-      <c r="K52" t="s">
-        <v>281</v>
-      </c>
       <c r="O52" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P52" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3840,7 +3831,7 @@
         <v>226</v>
       </c>
       <c r="E53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G53" t="s">
         <v>21</v>
@@ -3849,22 +3840,22 @@
         <v>256</v>
       </c>
       <c r="I53" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J53" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K53" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L53" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P53" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3881,7 +3872,7 @@
         <v>227</v>
       </c>
       <c r="E54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -3890,22 +3881,22 @@
         <v>256</v>
       </c>
       <c r="I54" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J54" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L54" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O54" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P54" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3922,7 +3913,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
@@ -3931,22 +3922,22 @@
         <v>256</v>
       </c>
       <c r="I55" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J55" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K55" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L55" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O55" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P55" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3963,7 +3954,7 @@
         <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G56" t="s">
         <v>68</v>
@@ -3972,22 +3963,22 @@
         <v>256</v>
       </c>
       <c r="I56" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J56" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K56" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L56" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O56" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P56" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4004,7 +3995,7 @@
         <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G57" t="s">
         <v>21</v>
@@ -4013,22 +4004,22 @@
         <v>256</v>
       </c>
       <c r="I57" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O57" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P57" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4045,28 +4036,28 @@
         <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H58" t="s">
         <v>256</v>
       </c>
       <c r="I58" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K58" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O58" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P58" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4083,7 +4074,7 @@
         <v>232</v>
       </c>
       <c r="E59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G59" t="s">
         <v>25</v>
@@ -4092,22 +4083,22 @@
         <v>256</v>
       </c>
       <c r="I59" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J59" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K59" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L59" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O59" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P59" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4124,7 +4115,7 @@
         <v>233</v>
       </c>
       <c r="E60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G60" t="s">
         <v>25</v>
@@ -4133,22 +4124,22 @@
         <v>256</v>
       </c>
       <c r="I60" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J60" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O60" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P60" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4165,7 +4156,7 @@
         <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G61" t="s">
         <v>25</v>
@@ -4174,22 +4165,22 @@
         <v>256</v>
       </c>
       <c r="I61" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J61" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K61" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L61" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O61" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P61" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4206,31 +4197,31 @@
         <v>235</v>
       </c>
       <c r="E62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H62" t="s">
         <v>256</v>
       </c>
       <c r="I62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J62" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K62" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L62" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O62" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P62" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4247,31 +4238,31 @@
         <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G63" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
         <v>256</v>
       </c>
       <c r="I63" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J63" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L63" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O63" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P63" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4288,7 +4279,7 @@
         <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
@@ -4297,22 +4288,22 @@
         <v>256</v>
       </c>
       <c r="I64" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K64" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L64" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O64" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P64" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4329,7 +4320,7 @@
         <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -4338,22 +4329,22 @@
         <v>256</v>
       </c>
       <c r="I65" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K65" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L65" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O65" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4370,7 +4361,7 @@
         <v>239</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -4379,22 +4370,22 @@
         <v>256</v>
       </c>
       <c r="I66" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J66" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K66" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L66" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O66" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P66" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4411,7 +4402,7 @@
         <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
@@ -4420,22 +4411,22 @@
         <v>256</v>
       </c>
       <c r="I67" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J67" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K67" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O67" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P67" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4452,7 +4443,7 @@
         <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -4461,22 +4452,22 @@
         <v>256</v>
       </c>
       <c r="I68" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K68" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L68" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O68" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P68" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4493,7 +4484,7 @@
         <v>241</v>
       </c>
       <c r="E69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G69" t="s">
         <v>256</v>
@@ -4502,22 +4493,22 @@
         <v>256</v>
       </c>
       <c r="I69" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J69" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K69" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L69" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O69" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P69" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4534,7 +4525,7 @@
         <v>242</v>
       </c>
       <c r="E70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G70" t="s">
         <v>256</v>
@@ -4543,22 +4534,22 @@
         <v>256</v>
       </c>
       <c r="I70" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J70" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K70" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L70" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O70" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P70" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4575,31 +4566,31 @@
         <v>243</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H71" t="s">
         <v>256</v>
       </c>
       <c r="I71" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J71" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K71" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L71" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O71" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P71" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4616,31 +4607,31 @@
         <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G72" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H72" t="s">
         <v>256</v>
       </c>
       <c r="I72" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J72" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K72" t="s">
+        <v>279</v>
+      </c>
+      <c r="L72" t="s">
         <v>282</v>
       </c>
-      <c r="L72" t="s">
-        <v>285</v>
-      </c>
       <c r="O72" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P72" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4657,28 +4648,28 @@
         <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G73" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H73" t="s">
         <v>256</v>
       </c>
       <c r="I73" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K73" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O73" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P73" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4695,7 +4686,7 @@
         <v>244</v>
       </c>
       <c r="E74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -4704,22 +4695,22 @@
         <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K74" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L74" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O74" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P74" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4736,31 +4727,31 @@
         <v>245</v>
       </c>
       <c r="E75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G75" t="s">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
         <v>256</v>
       </c>
       <c r="I75" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O75" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P75" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4777,7 +4768,7 @@
         <v>246</v>
       </c>
       <c r="E76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G76" t="s">
         <v>40</v>
@@ -4786,22 +4777,22 @@
         <v>256</v>
       </c>
       <c r="I76" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J76" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K76" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L76" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O76" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P76" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4818,31 +4809,31 @@
         <v>247</v>
       </c>
       <c r="E77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G77" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H77" t="s">
         <v>256</v>
       </c>
       <c r="I77" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J77" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L77" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O77" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P77" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4859,31 +4850,31 @@
         <v>248</v>
       </c>
       <c r="E78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G78" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H78" t="s">
         <v>256</v>
       </c>
       <c r="I78" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J78" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K78" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L78" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O78" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P78" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4900,31 +4891,31 @@
         <v>249</v>
       </c>
       <c r="E79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G79" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H79" t="s">
         <v>256</v>
       </c>
       <c r="I79" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J79" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K79" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O79" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P79" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4941,7 +4932,7 @@
         <v>250</v>
       </c>
       <c r="E80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G80" t="s">
         <v>256</v>
@@ -4950,22 +4941,22 @@
         <v>256</v>
       </c>
       <c r="I80" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J80" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K80" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L80" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O80" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P80" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4982,31 +4973,31 @@
         <v>251</v>
       </c>
       <c r="E81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G81" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="H81" t="s">
         <v>256</v>
       </c>
       <c r="I81" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J81" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K81" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O81" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P81" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5023,7 +5014,7 @@
         <v>252</v>
       </c>
       <c r="E82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -5032,22 +5023,22 @@
         <v>256</v>
       </c>
       <c r="I82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J82" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K82" t="s">
+        <v>278</v>
+      </c>
+      <c r="L82" t="s">
         <v>281</v>
       </c>
-      <c r="L82" t="s">
-        <v>284</v>
-      </c>
       <c r="O82" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P82" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -952,7 +952,7 @@
     <t>['نمونه تصادفی، توزیع میانگین نمونه ای،  قضیه حدمرکزی، برآورد نقطه ای و ویژگی های آن، برآورد فاصله ای برای پارامترهای میانگین، واریانس و نسبت در یک جامعه و  مقایسه دو جامعه در حالات: جوامع نرمال، جوامع غیرنرمال، واریانس های دو جامعه معلوم، واریانس های دو جامعه مجهول و واریانس ها مجهول ولی برابر، حجم نمونه ها کم و حجم نمونه ها زیاد، بر اساس دو نمونه مستقل و دو نمونه وابسته،  آزمون فرضیه های آماری: بیان مفاهیم و اصول آزمون های آماری، انواع خطا و اهمیت آنها، اندازه آزمون، آزمون های پارامتری یک طرفه و دو طرفه برای میانگین، واریانس و نسبت یک جامعه و مقایسه  دو جامعه در حالات : واریانس معلوم، واریانس مجهول، میانگین معلوم، میانگین مجهول، حجم نمونه ها کم، حجم نمونه ها زیاد، دو جامعه مستقل و دو جامعه وابسته، نمودار پراکنش، براورد، آزمون فرض و فاصله اطمینان برای ضریب همبستگی پیرسون،  رگرسیون خطی ساده، آزمون خی دو برای نیکوئی برازش، جدول توافقی و آزمون استقلال، محاسبات و تحلیل داده با حداقل یک نرم افزار آماری و تفسیر خروجی های آن. \n', '`     `**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از یکی حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، آشنایی مقدماتی با شبکه\u200cهای عصبی، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ناپخته، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، روشهای کاهش بعد، PCA و LDA.\n', 'پروژه کاربردی (حتی الامکان تحت وب)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه.  رویکرد این درس آشنایی دانشجو با مباحث یادگیری ماشینی است و مباحث نظری صرفا در حد نیاز آموزش داده شوند. در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس بهینه\u200cسازی غیرخطی گفته شده است. همچنین به فرض سایر روش\u200cهای مرتبط همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در درس تکمیلی مرتبط با یادگیری ماشین، همچون دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، آشنایی مقدماتی با شبکه\u200cهای عصبی، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ناپخته، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، روشهای کاهش بعد، PCA و LDA.\n', 'پروژه کاربردی (حتی الامکان تحت وب)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه.  رویکرد این درس آشنایی دانشجو با مباحث یادگیری ماشینی است و مباحث نظری صرفا در حد نیاز آموزش داده شوند. در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس بهینه\u200cسازی خطی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پيش پردازش و آماده سازي داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استاندارد سازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', 'تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی \n', 'روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، میانگین متحرک، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', 'شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی، معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحليل آنها بوسيله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با حوزه\u200cی یادگیری ماشین اشتراک دارد، در این برنامه درسی سعی شده است که هم\u200cپوشانی مطالب کمینه باشد. شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
@@ -2742,7 +2742,7 @@
         <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="433">
   <si>
     <t>fa_title</t>
   </si>
@@ -82,15 +82,12 @@
     <t>مبانی علوم ریاضی</t>
   </si>
   <si>
+    <t>نرم‌افزارهای آماری و تحلیل داده‌ها</t>
+  </si>
+  <si>
     <t>آمار و احتمال ۱</t>
   </si>
   <si>
-    <t>نرم‌افزارهای آماری و تحلیل داده‌ها</t>
-  </si>
-  <si>
-    <t>آمار و احتمال م‍قدماتی</t>
-  </si>
-  <si>
     <t>برنامه‌نویسی پیشرفته</t>
   </si>
   <si>
@@ -133,6 +130,30 @@
     <t>مبانی آنالیز ریاضی</t>
   </si>
   <si>
+    <t>یادگیری ماشین مقدماتی</t>
+  </si>
+  <si>
+    <t>داده‌کاوی مقدماتی</t>
+  </si>
+  <si>
+    <t>هوش مصنوعی</t>
+  </si>
+  <si>
+    <t>تحلیل آماری داده‌ها</t>
+  </si>
+  <si>
+    <t>سری‌های زمانی کاربردی</t>
+  </si>
+  <si>
+    <t>تحقیق در عملیات</t>
+  </si>
+  <si>
+    <t>بهینه‌سازی غیرخطی</t>
+  </si>
+  <si>
+    <t>کارآموزی</t>
+  </si>
+  <si>
     <t>جبر خطی عددی</t>
   </si>
   <si>
@@ -145,12 +166,6 @@
     <t>روش‌های آماری</t>
   </si>
   <si>
-    <t>یادگیری ماشین  مقدماتی</t>
-  </si>
-  <si>
-    <t>داده‌کاوی مقدماتی</t>
-  </si>
-  <si>
     <t>نظریه محاسبه</t>
   </si>
   <si>
@@ -181,12 +196,6 @@
     <t>رگرسیون ۱</t>
   </si>
   <si>
-    <t>سری‌های زمانی کاربردی</t>
-  </si>
-  <si>
-    <t>هوش مصنوعی</t>
-  </si>
-  <si>
     <t>هوش محاسباتی</t>
   </si>
   <si>
@@ -220,12 +229,6 @@
     <t>نظریه گراف و کاربردها</t>
   </si>
   <si>
-    <t>تحقیق در عملیات</t>
-  </si>
-  <si>
-    <t>بهینه‌سازی غیرخطی</t>
-  </si>
-  <si>
     <t>مبانی جبر</t>
   </si>
   <si>
@@ -274,9 +277,6 @@
     <t>پروژه کارشناسی</t>
   </si>
   <si>
-    <t>کارآموزی</t>
-  </si>
-  <si>
     <t>آنالیز عددی</t>
   </si>
   <si>
@@ -298,9 +298,6 @@
     <t>مدیریت پروژه‌های فناوری اطلاعات</t>
   </si>
   <si>
-    <t>تحلیل آماری داده‌ها</t>
-  </si>
-  <si>
     <t>محاسبات علمی مقدماتی</t>
   </si>
   <si>
@@ -325,15 +322,12 @@
     <t>Foundation of Mathematics</t>
   </si>
   <si>
+    <t>Statistical Software &amp; data analysis</t>
+  </si>
+  <si>
     <t>Probability and Statistics I</t>
   </si>
   <si>
-    <t>Statistical Software &amp; data analysis</t>
-  </si>
-  <si>
-    <t>Elementary Statistics and Probability</t>
-  </si>
-  <si>
     <t>Advanced Programming</t>
   </si>
   <si>
@@ -364,7 +358,7 @@
     <t>Discrete Optimization</t>
   </si>
   <si>
-    <t>Introduction to The theory of Computation</t>
+    <t>Introduction to the theory of Computation</t>
   </si>
   <si>
     <t>Foundation of Matrix and Linear Algebra</t>
@@ -376,6 +370,30 @@
     <t>Foundation of Mathematical Analysis</t>
   </si>
   <si>
+    <t>Elementary Machine Learning</t>
+  </si>
+  <si>
+    <t>Elementary Data Mining</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Statistical Data Analysis</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>Operations research</t>
+  </si>
+  <si>
+    <t>Nonlinear Optimization</t>
+  </si>
+  <si>
+    <t>Apprenticeship</t>
+  </si>
+  <si>
     <t>Numerical Linear Algebra</t>
   </si>
   <si>
@@ -388,12 +406,6 @@
     <t>Statistical Methods</t>
   </si>
   <si>
-    <t>Elementary Machine Learning</t>
-  </si>
-  <si>
-    <t>Elementary Data Mining</t>
-  </si>
-  <si>
     <t>Theory of Computation</t>
   </si>
   <si>
@@ -424,12 +436,6 @@
     <t>Regression I</t>
   </si>
   <si>
-    <t>Time Series</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
     <t>Computational Intelligence</t>
   </si>
   <si>
@@ -463,12 +469,6 @@
     <t>Graph Theory &amp; Applications</t>
   </si>
   <si>
-    <t>Operations research</t>
-  </si>
-  <si>
-    <t>Nonlinear Optimization</t>
-  </si>
-  <si>
     <t>Foundation of Algebra</t>
   </si>
   <si>
@@ -517,9 +517,6 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Apprenticeship</t>
-  </si>
-  <si>
     <t>Numerical Analysis</t>
   </si>
   <si>
@@ -541,9 +538,6 @@
     <t>Information Technology Project Management</t>
   </si>
   <si>
-    <t>Statistical Data Analysis</t>
-  </si>
-  <si>
     <t>Elementary Scientific Computing</t>
   </si>
   <si>
@@ -568,15 +562,12 @@
     <t>Foundation-of-Mathematics</t>
   </si>
   <si>
+    <t>Statistical-Software-and-data-analysis</t>
+  </si>
+  <si>
     <t>Probability-and-Statistics-I</t>
   </si>
   <si>
-    <t>Statistical-Software-and-data-analysis</t>
-  </si>
-  <si>
-    <t>Elementary-Statistics-and-Probability</t>
-  </si>
-  <si>
     <t>Advanced-Programming</t>
   </si>
   <si>
@@ -604,7 +595,7 @@
     <t>Discrete-Optimization</t>
   </si>
   <si>
-    <t>Introduction-to-The-theory-of-Computation</t>
+    <t>Introduction-to-the-theory-of-Computation</t>
   </si>
   <si>
     <t>Foundation-of-Matrix-and-Linear-Algebra</t>
@@ -616,6 +607,27 @@
     <t>Foundation-of-Mathematical-Analysis</t>
   </si>
   <si>
+    <t>Elementary-Machine-Learning</t>
+  </si>
+  <si>
+    <t>Elementary-Data-Mining</t>
+  </si>
+  <si>
+    <t>Artificial-Intelligence</t>
+  </si>
+  <si>
+    <t>Statistical-Data-Analysis</t>
+  </si>
+  <si>
+    <t>Time-Series</t>
+  </si>
+  <si>
+    <t>Operations-research</t>
+  </si>
+  <si>
+    <t>Nonlinear-Optimization</t>
+  </si>
+  <si>
     <t>Numerical-Linear-Algebra</t>
   </si>
   <si>
@@ -628,12 +640,6 @@
     <t>Statistical-Methods</t>
   </si>
   <si>
-    <t>Elementary-Machine-Learning</t>
-  </si>
-  <si>
-    <t>Elementary-Data-Mining</t>
-  </si>
-  <si>
     <t>Theory-of-Computation</t>
   </si>
   <si>
@@ -661,12 +667,6 @@
     <t>Regression-I</t>
   </si>
   <si>
-    <t>Time-Series</t>
-  </si>
-  <si>
-    <t>Artificial-Intelligence</t>
-  </si>
-  <si>
     <t>Computational-Intelligence</t>
   </si>
   <si>
@@ -700,12 +700,6 @@
     <t>Graph-Theory-and-Applications</t>
   </si>
   <si>
-    <t>Operations-research</t>
-  </si>
-  <si>
-    <t>Nonlinear-Optimization</t>
-  </si>
-  <si>
     <t>Foundation-of-Algebra</t>
   </si>
   <si>
@@ -769,31 +763,25 @@
     <t>Information-Technology-Project-Management</t>
   </si>
   <si>
-    <t>Statistical-Data-Analysis</t>
-  </si>
-  <si>
     <t>Elementary-Scientific-Computing</t>
   </si>
   <si>
     <t>پایه</t>
   </si>
   <si>
+    <t>تخصصی الزامی</t>
+  </si>
+  <si>
     <t>تخصصی اختیاری</t>
   </si>
   <si>
-    <t>تخصصی الزامی</t>
-  </si>
-  <si>
     <t>ندارد</t>
   </si>
   <si>
-    <t>مبانی کامپیوتر و برنامه‌سازی،‌</t>
-  </si>
-  <si>
     <t>تحلیل آماری داده‌ها، مبانی ماتریس‌ها و جبر خطی</t>
   </si>
   <si>
-    <t>یادگیری ماشین مقدماتی</t>
+    <t>` `اجازه گروه</t>
   </si>
   <si>
     <t>مبانی جبر، مبانی ماتریس‌ها و جبر خطی</t>
@@ -802,7 +790,7 @@
     <t>طراحی و تحلیل الگوریتم‌ها، آمار و احتمال ۱</t>
   </si>
   <si>
-    <t>مبانی ماتریس‌ها و جبر خطی، آمار و احتمال مقدماتی</t>
+    <t>مبانی ماتریس‌ها و جبر خطی، آمار و احتمال ۱</t>
   </si>
   <si>
     <t>مبانی آنالیز ریاضی، مبانی ماتریس‌ها و جبر خطی</t>
@@ -814,18 +802,12 @@
     <t>گذراندن 75 واحد</t>
   </si>
   <si>
-    <t>` `اجازه گروه</t>
-  </si>
-  <si>
-    <t>شبکه‌های کامپيوتری، اصول سيستم های عامل</t>
+    <t>شبکه‌های کامپیوتری، اصول سیستم‌های عامل</t>
   </si>
   <si>
     <t>برنامه‌نویسی پیشرفته، اصول سیستم‌های کامپیوتری</t>
   </si>
   <si>
-    <t>معادلات دیفرانسيل</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -853,12 +835,12 @@
     <t>32</t>
   </si>
   <si>
+    <t>192</t>
+  </si>
+  <si>
     <t>96</t>
   </si>
   <si>
-    <t>192</t>
-  </si>
-  <si>
     <t xml:space="preserve"> دارد</t>
   </si>
   <si>
@@ -868,16 +850,16 @@
     <t xml:space="preserve"> : دارد</t>
   </si>
   <si>
-    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط، جمع و ضرب و ریشه، نمایش هندسی اعداد مختلط، نمایش قطبی اعداد مختلط، تابع، جبر توابع، حد و قضایاي مربوط به حد، بینهایت و حد چپ و راست، پیوستگی، مشتق، دستورهاي مشتق\u200cگیري، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه رل، قضیه میانگین، بسط تیلر، کاربردهاي مهندسی و فیزیکی مشتق، منحنیها و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه\u200cهاي معادلات، تعریف انتگرال توابع پیوسته و قطعه پیوسته، قضایاي اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش\u200cهاي تقریبی برآورد انتگرال در محاسبه مساحت و حجم و طول منحنی و گشتاور و مرکز ثقل و کار و .... (در مختصات دکارتی و قطبی)، لگاریتم و تابع نمائی و مشتق آنها، تابع\u200cهاي هذلولولی، روش\u200cهاي انتگرال\u200cگیري مانند تعویض متغیر و جز به جز و تجزیه کسرها، برخی تعویض متغیرهاي خاص\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['سیستم مختصات قطبی، نمودارهاي قطبی دنباله، سري عددي و قضایاي مربوط به سري توانی، قضیه تیلور با باقیمانده، معادلات پارامتري،\n', 'مختصات فضائی، قائده زنجیري براي مشتق جزئی، دیفرانسیل کامل، انتگرالهاي دوگانه و سه گانه و کاربرد آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیري (بدون اثبات دقیق)، مختصات استوانه\u200cاي و کروي\n']</t>
+    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط، جمع و ضرب و ریشه، نمایش هندسی اعداد مختلط، نمایش قطبی اعداد مختلط، تابع، جبر توابع، حد و قضایای مربوط به حد، بینهایت و حد چپ و راست، پیوستگی، مشتق، دستورهای مشتق\u200cگیری، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه رل، قضیه میانگین، بسط تیلر، کاربردهای مهندسی و فیزیکی مشتق، منحنیها و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه\u200cهای معادلات، تعریف انتگرال توابع پیوسته و قطعه پیوسته، قضایای اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش\u200cهای تقریبی برآورد انتگرال در محاسبه مساحت و حجم و طول منحنی و گشتاور و مرکز ثقل و کار و .... (در مختصات دکارتی و قطبی)، لگاریتم و تابع نمائی و مشتق آنها، تابع\u200cهای هذلولولی، روش\u200cهای انتگرال\u200cگیری مانند تعویض متغیر و جز به جز و تجزیه کسرها، برخی تعویض متغیرهای خاص\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['سیستم مختصات قطبی، نمودارهای قطبی دنباله، سری عددی و قضایای مربوط به سری توانی، قضیه تیلور با باقیمانده، معادلات پارامتری،\n', 'مختصات فضائی، قائده زنجیری برای مشتق جزئی، دیفرانسیل کامل، انتگرالهای دوگانه و سه گانه و کاربرد آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیری (بدون اثبات دقیق)، مختصات استوانه\u200cای و کروی\n']</t>
   </si>
   <si>
     <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n']</t>
   </si>
   <si>
-    <t>['مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، کلاسها (به صورت مختصر)، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، عملیات ریاضی نمادین با SymPy، مستندسازی. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
+    <t>['مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، کلاسها (به صورت مختصر)، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، عملیات ریاضی نمادین با SymPy، مستندسازی، PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
   </si>
   <si>
     <t>['اقتصاد: مبانی و مدل ها. معاملات، مزیت مقایسه ای و سیستم بازار. قیمت ها از کجا می آیند: تعادل تقاضا و عرضه. بهره وری اقتصادی ، تعیین قیمت و مالیات ها. سیاست های زیست محیطی و خدمات عمومی. انعطاف پذیری: پاسخگویی تقاضا. شرکت ها، بازار سهام و حاکمیت شرکتی. انتخاب مصرف کننده و اقتصاد رفتاری. فناوری ، تولید و هزینه ها. شرکت ها در بازارهای کاملاً رقابتی. سیاست انحصاری و ضد انحصاری.\n']</t>
@@ -889,37 +871,34 @@
     <t>['منطق گزاره ها و جدول ارزش. مجموعه\u200cها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه\u200cهای متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n']</t>
   </si>
   <si>
+    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای sنمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از نرم افزار اکسل  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
     <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز.\n']</t>
   </si>
   <si>
-    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای sنمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از نرم افزار اکسل  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['مروري بر آمار توصیفی (شیوه جمع\u200cآوري داده، انواع داده، داده\u200cي مشاهده\u200cاي، داده\u200cي طولی،...، جدولها و نمودارهاي آماري، معیارهاي مرکزي و پراکندگی)\n', 'مبانی آمار کاوشی (نمودارهاي ساقه و برگ، ساقه و برگ پشت\u200cبه\u200cپشت، نمودار جعبه\u200cاي، نمودار Q-Q)\n', 'روشهاي اساسی شمارش: قواعد شمارش، نمونه\u200cهاي مرتب و جایگشتها، نمونه\u200cهاي نامرتب و ترکیبها، افرازهاي مرتب و جایگشتهاي متمایز.\n', 'احتمال: آزمایش تصادفی (ساده و مرکب)، تعابیر متفاوت از احتمال، تابع احتمال، فضاي احتمال یکنواخت (مدل احتمال کلاسیک)، پیوستگی تابع احتمال، احتمال شرطی، آزمایشهاي مرکب، کاربرد احتمال شرطی ، استقلال، فرمول بیز. امید ریاضی\n', 'تعریف &lt;a name="_hlk96854985"&gt;&lt;/a&gt;&lt;a name="_hlk96855053"&gt;&lt;/a&gt;آزمایش تصادفی و فضای نمونه، فضای نمونه باپایان و بی پایان، پیشامدها، پیشامد قطعی و محال، رخ دادن پیشامد، اعمال روی پیشامدها و تعبیر آنها، مکمل یک پیشامد، اجتماع، اشتراک، زیرپیشامد، تفاضل دو پیشامد، تفاضل متقارن پیشامدها، تعریف احتمال، تعبیرهای مختلف احتمال، تعیبر فراوانی نسبی احتمال، تعبیر شخصی احتمال، اصول کولموگوروف، قضایای احتمال، مدل احتمال با فضای نمونه باپایان، مدل احتمال یکنواخت، محاسبه احتمال در مدل یکنواخت، قواعد شمارش، اصل ضرب و اصل جمع در شمارش، انواع جایگشت ها، جایگشت خطی، دوری،  حلقوی، جایگشت چیزهای مشابه، ترکیب،  فرمول استرلینگ، بسط دوجمله ای، بسط چند جمله ای،  مدل های جعبه و مهره، حل مثال هایی از کاربرد روش\x1fهای شمارش در محاسبه احتمال ها در مدل یکنواخت با فضای نمونه باپایان، مدل احتمال با فضای نمونه دلخواه، اشاره ای کوتاه و مقدماتی به تعریف  میدان سیگما و تابع مجموعه ای و تعریف یک فضای احتمال، احتمال شرطی، قانون ضرب احتمال، استقلال دو و چند پیشامد،  افراز فضای نمونه و فرمول احتمال کل، قضیه بیز، احتمال پیشین و پسین، اشاره ای به کاربرد  احتمال شرطی و قضیه بیز  در جدول توافقی دو در دو (ماتریس در هم ریختگی) در مسائل رده بندی و داده کاوی،  استفاده از نرم افزارهای آماری برای شمارش و محاسبه احتمال ها. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**   تدریس و سخنرانی،  حل مثال\x1fهای کاربردی و حتی الامکان پرهیز از تاکید بر مثال\x1fهای کلیشه\x1fای تاس و سکه در درس  با هدف علاقه مند ساختن دانشجو، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه و آموزش محاسبات نرم افزاری. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز**\n']</t>
-  </si>
-  <si>
-    <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tکار با فایل\u200cها\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tحافظه پویا\n', '•\t(درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
-  </si>
-  <si>
-    <t>['مرور فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات روی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. پرونده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، عبارات با قاعده، Threads، جانگو\n']</t>
+    <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tکار با فایل\u200cها\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tحافظه پویا\n', '•\t(درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
+  </si>
+  <si>
+    <t>['مرور فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات روی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، Threads.\n']</t>
   </si>
   <si>
     <t>['آنالیز پیچیدگی زمان و حافظه الگوریتم\u200cها، توابع بازگشتی، معرفی ساختمان\u200cهای داده\u200cای مقدماتی (لیست پیوندی، پشته، صف و صف اولویت\u200cدار) و الگوریتم\u200cهای وابسته به آن\u200cها،  نمایش ماتریس\u200cها در حافظه، ماتریس\u200cهای تنک،\u200c تطابق رشته، درخت\u200cها و الگوریتم\u200cهای پیمایش مربوطه، درخت عبارت، تبدیل نگارش\u200cهای مختلف یک عبارت ریاضی، درهم\u200cسازی، گراف\u200cها و الگوریتم\u200cهای مربوط به گراف (BFS، DFS و ...) ، الگوریتم\u200cهای جستجو و مرتب\u200cسازی.\n']</t>
   </si>
   <si>
-    <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجيره ای ماتریس ها، درخت جستجوی بهينه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعاليت های بيشينه،  درخت پوشای کمینه.\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و کران و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پيچيدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n']</t>
-  </si>
-  <si>
-    <t>['- آشنایی با UML\n', '- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با عبارات با قاعده\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n']</t>
-  </si>
-  <si>
-    <t>['مدل معنایی داده. مدلسازی داده محور. مدل هویت-رابطه. مدل هویت-رابطه بهبودیافته. مقدمات ساخت پایگاه داده\u200cهای رابطه ای. بارگذاری و استخراج داده. بروزرسانی و حذف داده. مکانیزم ماشه در پایگاه داده. وابستگی تابعی. فرم\u200cهای نرمال. جبر رابطه\u200cای. ایندکس. تئوری پایگاه دادههای عظیم. پایگاه داده\u200cهای غیررابطه ای مانند مونگودیبی. دادگان غیرساخت یافته در پایگاه داده\u200cهای غیررابطه ای. آشنایی با SQL.\n']</t>
+    <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجیره ای ماتریس ها، درخت جستجوی بهینه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعالیت های بیشینه،  درخت پوشای کمینه.\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و کران و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پیچیدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n']</t>
+  </si>
+  <si>
+    <t>['- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با عبارات با قاعده\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n', '- آشنایی با UML\n']</t>
+  </si>
+  <si>
+    <t>['مفاهیم پایه\u200cای (داده، فراداده، ساختارها و مدل داده\u200cها)، اصول طراحی پایگاه داده\u200cها (مدل مفهومی، نمودارهای ER، نرمال\u200cسازی، سیر تکاملی پایگاه داده\u200cها (فایل، شبکه، رابطه، شیء، شیء-رابطه، مکعب)، معرفی نرم افزارهای مدیریت پایگاه داده\u200cها (مزایا و معایب تکنولوژی¬ های مختلف)، به کارگیری یک نرم افزار مدیریت پایگاه داده\u200cها (SQL Server ، Oracle، MySQL)، زبان SQL، ساخت، حذف، و ویرایش پایگاه داده، جدول، و نما، درج، حذف، و ویرایش داده\u200cها، جستجوی داده\u200cها، مرتب سازی، انتخاب شرطی، قالب\u200cبندی نتایج جستجو، توابع محاسباتی و تجمیعی، ادغام دو یا چند جدول، آشنایی با تحلیل مه\u200cداده\u200cها با ابزارهای مدرن پایگاه داده\u200cها (SQL Server, Spark  و مانند اینها)، پایگاه داده\u200cهای غیر رابطه\u200cای.\n']</t>
   </si>
   <si>
     <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n']</t>
   </si>
   <si>
-    <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتري، تبدیلها و ترکیب ها و ضرایب دوجمله اي، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزي و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوي که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس هاي صفر و یک (آماده سازي براي بخش مربع هاي لاتین و گراف ها)، آشنایی با ماتریس هاي آدامار و برخی نتایج در این مورد. گراف ها و مدل هاي مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهاي آن در مدلسازي (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه اي، انواع اصلی گراف نظیر گراف هاي کامل، درخت ها، گراف هاي دوبخشی، گراف هاي اویلري و هامیلتونی و گراف هاي جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق هاي کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزي گراف ها و چند جمله اي رنگی (با ارائه مثال و الگورتیم). مربع هاي لاتین، طرح ها و هندسه هاي متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n']</t>
+    <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتری، تبدیلها و ترکیب ها و ضرایب دوجمله ای، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزی و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوی که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس های صفر و یک (آماده سازی برای بخش مربع های لاتین و گراف ها)، آشنایی با ماتریس های آدامار و برخی نتایج در این مورد. گراف ها و مدل های مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهای آن در مدلسازی (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه ای، انواع اصلی گراف نظیر گراف های کامل، درخت ها، گراف های دوبخشی، گراف های اویلری و هامیلتونی و گراف های جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق های کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزی گراف ها و چند جمله ای رنگی (با ارائه مثال و الگوریتم). مربع های لاتین، طرح ها و هندسه های متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n']</t>
   </si>
   <si>
     <t>['آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n']</t>
@@ -940,22 +919,40 @@
     <t>['اعداد حقیقی و آشنایی با فضاهای متریک و مفاهیم توپولوژیکی آن. مجموعه اعداد حقیقی، اصل کمال و خاصیت ارشمیدسی. مجموعه\u200cهای باز و بسته. مجموعه\u200cهای فشرده. مجموعه\u200cهای همبند. پیوستگی توابع. مشتق توابع. قضیه مقدار میانی و قضیه اکسترمم. پیوستگی یکنواخت. قضیه مقدار میانگین و قاعده هوپیتال. فضاهای متریک. دنباله\u200cها و همگرایی آن\u200cها. حد توابع. حفظ پیوستگی و همبندی توسط توابع پیوسته.\n']</t>
   </si>
   <si>
+    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ناپخته، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، روشهای کاهش بعد، PCA و LDA.\n', 'پروژه کاربردی (حتی الامکان تحت وب)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه.  رویکرد این درس آشنایی دانشجو با مباحث یادگیری ماشینی است و مباحث نظری صرفا در حد نیاز آموزش داده شوند. در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس\u200cهای بهینه\u200cسازی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
+    <t>['مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پیش پردازش و آماده سازی داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استاندارد سازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', 'تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی \n', 'روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، میانگین متحرک، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', 'شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی، معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحلیل آنها بوسیله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با حوزه\u200cی یادگیری ماشین اشتراک دارد، در این برنامه درسی سعی شده است که هم\u200cپوشانی مطالب کمینه باشد. شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
+  </si>
+  <si>
+    <t>['تاریخچه و کاربرد هوش مصنوعی. توسعه عاملهای هوشمند واکنشی، مدل گرا، هدف گرا و سودمند. روشهای جستجوی فضای حالت مساله به صورت ناآگاهانه. جستجوی \\*A. زنجیره مارکوف. شبکه\u200cهای باور. جستجوی هیوریستیک، تپه نوردی، پرتوی محلی. الگوریتم ژنتیک. بازیها و جستجوی تخاصمی. مسائل ارضای محدودیت. عاملهای منطقی. طرح ریزی مساله. عدم قطعیت در مسائل هوش مصنوعی. بازنمایی دانش در هوش مصنوعی. کاربردهای هوش مصنوعی. آشنایی با سیستم\u200cهای خبره.\n']</t>
+  </si>
+  <si>
+    <t>['جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری، بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، مقدمه ای بر سری های زمانی، تحلیل واریانس\n']</t>
+  </si>
+  <si>
+    <t>['مثالهایی از سری های زمانی و اهداف تحلیل سری های زمانی.  مدل های دارای روند و مؤلفه فصلی در حوزه زمان و روشهای برآورد و حذف آنها (عملگرهای پسرو و تفاضلی). مدل های مبتنی بر روابط خودهمبستگی (تعاریف اولیه مانند تابع خود کوواریانس، خودهمبستگی، خودهمبستگی جزئی). توابع خود کوواریانس و خودهمبستگی نمونه\u200cای. آزمون های گوناگون برای تصادفی و نرمال بودن دنباله\u200cهای متغیرهای تصادفی. معرفی کلاس ARIMA از مدل\u200cهای خطی و وارون\u200cپذیر. برآورد میانگین و توابع خود کوواریانس و خودهمبستگی مدل های ایستا. پیشبینی مدل های سری های زمانی ایستا. مدل\u200cهای ARIMA با استفاده از برآوردهای اولیه. برآوردگرهای MLE، بررسی درستی و صحت مدل، معیار AICC. سری های زمانی در حوزه فرکانس. برآورد پارامترهای مدل و چگونگی تعیین مدل و معرفی مدل های سری زمانی مبتنی بر واریانس شرطی.\n', 'توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار ( یا نرم\u200cافزارهای مشابه) جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n']</t>
+  </si>
+  <si>
+    <t>['`\t`آشنایی با زمینه های تحقیق در عملیات به ویژه در اقتصاد و یادگیری ماشین. مدل بندی مسائل بهینه سازی، مفاهیم پایه ای مرتبط با برنامه ریزی خطی شامل روشهای ترسیمی، سیمپلکس اولیه و دوگان، دوفازی، دوگانی، تحلیل حساسیت. روشهای حل مسائل حمل ونقل ساده و مرکب. مدل سازی مساله تخصیص و روش حل آن. آشنایی با برنامه ریزی عدد صحیح و روشهای شاخه و کران و صفحات برشی،آشنایی با ماشین بردار پشتیبان. معرفی یک نرم افزار یا زبان مدلسازی جهت حل مسائل بهینه سازی، مانند CPLEX  و Pyomo\n']</t>
+  </si>
+  <si>
+    <t>['مدل سازی شامل: کاربردهایی از بهینه سازی محدب مانند طبقه بندی خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل های سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازی، شرایط لازم و کافی برای مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهای حل مسایل نامقید شامل: روشهای بر مبنای جستجوی خطی( جستجوی طلایی، فیبوناچی، عقب گرد)، روشهای گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش های گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازی درجه دوم محدب با قیود خطی و معرفی برخی روش های حل آن ؛ الگوریتم\u200cهای حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازی الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n']</t>
+  </si>
+  <si>
+    <t>['**محتوای کارآموزی برای هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n']</t>
+  </si>
+  <si>
     <t>['مروری بر مقدمات جبر خطی و مبانی ماتریس ها. ضرب داخلی. نرم برداری و ماتریسی. حل دستگاه های خطی و تجزیه LU. تحلیل حساسیت دستگاههای خطی. روش گاوس با محورگیری جزئی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها.\n']</t>
   </si>
   <si>
     <t>['توزیعهای توام: تابع احتمال، تابع چگالی و تابع توزیع توام، متغیرهای تصادفی مستقل، کواریانس، ضریب همبستگی، مثال هایی از توزیع های توام خاص. توزیع های شرطی: توزیع های شرطی گسسته، توزیع های شرطی پیوسته، کاربرد توزیع های شرطی، امید ریاضی شرطی و کاربردهای آن شامل امید کل، واریانس شرطی. توزیع توابعی از متغیرهای تصادفی: روش تابع توزیع، روش تغییر متغیرها (دو یا چند متغیره)، روش تابع مولد گشتاور، توزیع مجموع متغیرهای تصادفی، مجموع تعداد تصادفی از متغیرهای تصادفی، امید ریاضی مجموع تعداد تصادفی از متغیرهای تصادفی. قضیه حد مرکزی و تقریب دوجمله ای توسط نرمال، تقریب پواسن به نرمال. آمار توصیفی: نمونه، جامعه آماری، شاخصهای آماری، نمودارهای آماری. نمونه تصادفی، توزیع میانگین نمونه ای، توزیع های نمونه ای، تی استودنت، کای-دو و توزیع فیشر. روشهای برآوردیابی پارامترهای نامعلوم: برآوردیابی نقطه ای، برآورد فاصله ای، فاصله اطمینان با اندازه نمونه\u200cهای بزرگ. آشنایی با مفاهیم آزمون فرضها: آزمون فرضهای ساده، آزمون فرض های یک طرفه، آزمون فرض های دوطرفه، آزمون واریانس جمعیت نرمال، آزمون میانگین و نسبت با اندازه نمونه های بزرگ، استنباط در مورد دو میانگین، استنباط در مورد جفت مشاهدات، آزمون میانگین و نسبت دو جمعیت با اندازه نمونه های بزرگ.\n']</t>
   </si>
   <si>
-    <t>['مروري بر مباحث آمار توصیفی، پالايش داده\u200cها با اندازه\u200c وابعاد زياد، رسم نمودار هسته\u200cهاي چگالي يك و دومتغیره، آزمون\u200cهاي نرمال يك و چند متغيره، كاربرد روش\u200cهاي مونت\u200cکارلو در استنباط آماري، مقدمه\u200cاي بر شيوه\u200c شبيه\u200cسازي در توليد داده\u200cهاي تصادفي از چند توزيع آماري، مانند نرمال و تي-استيودنت، يك و چند متغيره و بررسي ويژگي آن\u200cها، مطالعات شبيه\u200cسازي براي آزمون برابري ميانگين\u200cها، واريانس\u200cها و ميانه\u200cهاي جوامع با نمونه\u200cهاي مستقل از توزيع\u200cهاي نرمال و چند توزيع غیر نرمال. کاربرد روش مونت\u200cکارلو دریافتن احتمال\u200cهاي پيچيده و p-مقدار برخي آزمون\u200cها، شبيه\u200cسازي مدل\u200cهاي رگرسيون خطي با انواع متغيرهاي توضيحي كمي و كيفي و با فرض مانده\u200cهاي غیر نرمال و وابسته، بررسي استواري مدل نسبت به نقض فرض\u200cهاي معمول، مباحث تکمیل\u200cکننده در صحت و اعتبار مدل\u200cهاي برازش شده باوجود مشاهدات پرت و ناهمساني واريانس، معرفي راهبردهاي مناسب مانند رگرسيون استوار ناپارامتری، يافتن برآوردهاي ماکسيمم درستنمايي توسط روش\u200cهاي بهينه\u200cسازي عددي مانند نيوتن-رافسون و امتياز فيشر، روش\u200c بوت\u200cاسترپ و جک\u200cنايف و کاربرد آن\u200cها در مباحث آماري؛ الگوريتمEM و کاربرد آن در برآورد یابی توزيع\u200cهاي آميخته متداول پيوسته و گسسته يک متغيره.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه. پروژه های درسی و نوشتن گزارش نتایج  توسط دانشجو،  مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیز نیاز دارد، فعالیت\x1fهای تعیین شده ای توسط استاد درس بایستی در آزمایشگاه نرم افزار ارائه شود و دانشجویان نیز فعالیت\x1fهای تعریف شده ای را انجام \x1fدهند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['نمونه تصادفی، توزیع میانگین نمونه ای،  قضیه حدمرکزی، برآورد نقطه ای و ویژگی های آن، برآورد فاصله ای برای پارامترهای میانگین، واریانس و نسبت در یک جامعه و  مقایسه دو جامعه در حالات: جوامع نرمال، جوامع غیرنرمال، واریانس های دو جامعه معلوم، واریانس های دو جامعه مجهول و واریانس ها مجهول ولی برابر، حجم نمونه ها کم و حجم نمونه ها زیاد، بر اساس دو نمونه مستقل و دو نمونه وابسته،  آزمون فرضیه های آماری: بیان مفاهیم و اصول آزمون های آماری، انواع خطا و اهمیت آنها، اندازه آزمون، آزمون های پارامتری یک طرفه و دو طرفه برای میانگین، واریانس و نسبت یک جامعه و مقایسه  دو جامعه در حالات : واریانس معلوم، واریانس مجهول، میانگین معلوم، میانگین مجهول، حجم نمونه ها کم، حجم نمونه ها زیاد، دو جامعه مستقل و دو جامعه وابسته، نمودار پراکنش، براورد، آزمون فرض و فاصله اطمینان برای ضریب همبستگی پیرسون،  رگرسیون خطی ساده، آزمون خی دو برای نیکوئی برازش، جدول توافقی و آزمون استقلال، محاسبات و تحلیل داده با حداقل یک نرم افزار آماری و تفسیر خروجی های آن. \n', '`     `**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از یکی حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند.  کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، آشنایی مقدماتی با شبکه\u200cهای عصبی، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ناپخته، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، روشهای کاهش بعد، PCA و LDA.\n', 'پروژه کاربردی (حتی الامکان تحت وب)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه.  رویکرد این درس آشنایی دانشجو با مباحث یادگیری ماشینی است و مباحث نظری صرفا در حد نیاز آموزش داده شوند. در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس بهینه\u200cسازی خطی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پيش پردازش و آماده سازي داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استاندارد سازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', 'تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی \n', 'روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، میانگین متحرک، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', 'شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی، معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحليل آنها بوسيله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با حوزه\u200cی یادگیری ماشین اشتراک دارد، در این برنامه درسی سعی شده است که هم\u200cپوشانی مطالب کمینه باشد. شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
+    <t>['مروری بر مباحث آمار توصیفی، پالایش داده\u200cها با اندازه\u200c وابعاد زیاد، رسم نمودار هسته\u200cهای چگالی یک و دومتغیره، آزمون\u200cهای نرمال یک و چند متغیره، کاربرد روش\u200cهای مونت\u200cکارلو در استنباط آماری، مقدمه\u200cای بر شیوه\u200c شبیه\u200cسازی در تولید داده\u200cهای تصادفی از چند توزیع آماری، مانند نرمال و تی-استیودنت، یک و چند متغیره و بررسی ویژگی آن\u200cها، مطالعات شبیه\u200cسازی برای آزمون برابری میانگین\u200cها، واریانس\u200cها و میانه\u200cهای جوامع با نمونه\u200cهای مستقل از توزیع\u200cهای نرمال و چند توزیع غیر نرمال. کاربرد روش مونت\u200cکارلو دریافتن احتمال\u200cهای پیچیده و p-مقدار برخی آزمون\u200cها، شبیه\u200cسازی مدل\u200cهای رگرسیون خطی با انواع متغیرهای توضیحی کمی و کیفی و با فرض مانده\u200cهای غیر نرمال و وابسته، بررسی استواری مدل نسبت به نقض فرض\u200cهای معمول، مباحث تکمیل\u200cکننده در صحت و اعتبار مدل\u200cهای برازش شده باوجود مشاهدات پرت و ناهمسانی واریانس، معرفی راهبردهای مناسب مانند رگرسیون استوار ناپارامتری، یافتن برآوردهای ماکسیمم درستنمایی توسط روش\u200cهای بهینه\u200cسازی عددی مانند نیوتن-رافسون و امتیاز فیشر، روش\u200c بوت\u200cاسترپ و جک\u200cنایف و کاربرد آن\u200cها در مباحث آماری؛ الگوریتمEM و کاربرد آن در برآورد یابی توزیع\u200cهای آمیخته متداول پیوسته و گسسته یک متغیره.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه. پروژه های درسی و نوشتن گزارش نتایج  توسط دانشجو،  مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیز نیاز دارد، فعالیت\x1fهای تعیین شده ای توسط استاد درس بایستی در آزمایشگاه نرم افزار ارائه شود و دانشجویان نیز فعالیت\x1fهای تعریف شده ای را انجام \x1fدهند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
+    <t>['نمونه تصادفی، توزیع میانگین نمونه ای،  قضیه حدمرکزی، برآورد نقطه ای و ویژگی های آن، برآورد فاصله ای برای پارامترهای میانگین، واریانس و نسبت در یک جامعه و  مقایسه دو جامعه در حالات: جوامع نرمال، جوامع غیرنرمال، واریانس های دو جامعه معلوم، واریانس های دو جامعه مجهول و واریانس ها مجهول ولی برابر، حجم نمونه ها کم و حجم نمونه ها زیاد، بر اساس دو نمونه مستقل و دو نمونه وابسته،  آزمون فرضیه های آماری: بیان مفاهیم و اصول آزمون های آماری، انواع خطا و اهمیت آنها، اندازه آزمون، آزمون های پارامتری یک طرفه و دو طرفه برای میانگین، واریانس و نسبت یک جامعه و مقایسه  دو جامعه در حالات : واریانس معلوم، واریانس مجهول، میانگین معلوم، میانگین مجهول، حجم نمونه ها کم، حجم نمونه ها زیاد، دو جامعه مستقل و دو جامعه وابسته، نمودار پراکنش، براورد، آزمون فرض و فاصله اطمینان برای ضریب همبستگی پیرسون،  رگرسیون خطی ساده، آزمون خی دو برای نیکوئی برازش، جدول توافقی و آزمون استقلال، محاسبات و تحلیل داده با حداقل یک نرم افزار آماری و تفسیر خروجی های آن. \n', '`     `**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n']</t>
@@ -988,12 +985,6 @@
     <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['مثالهایی از سری های زمانی و اهداف تحلیل سری های زمانی.  مدل های دارای روند و مؤلفه فصلی در حوزه زمان و روشهای برآورد و حذف آنها (عملگرهای پسرو و تفاضلی). مدل های مبتنی بر روابط خودهمبستگی (تعاریف اولیه مانند تابع خود کوواریانس، خودهمبستگی، خودهمبستگی جزئی). توابع خود کوواریانس و خودهمبستگی نمونه\u200cای. آزمون های گوناگون برای تصادفی و نرمال بودن دنباله\u200cهای متغیرهای تصادفی. معرفی کلاس ARIMA از مدل\u200cهای خطی و وارون\u200cپذیر. برآورد میانگین و توابع خود کوواریانس و خودهمبستگی مدل های ایستا. پیشبینی مدل های سری های زمانی ایستا. مدل\u200cهای ARIMA با استفاده از برآوردهای اولیه. برآوردگرهای MLE، بررسی درستی و صحت مدل، معیار AICC. سری های زمانی در حوزه فرکانس. برآورد پارامترهای مدل و چگونگی تعیین مدل و معرفی مدل های سری زمانی مبتنی بر واریانس شرطی.\n', 'توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار ( یا نرم\u200cافزارهای مشابه) جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n']</t>
-  </si>
-  <si>
-    <t>['تاریخچه و کاربرد هوش مصنوعی. توسعه عاملهای هوشمند واکنشی، مدل گرا، هدف گرا و سودمند. روشهای جستجوی فضای حالت مساله به صورت ناآگاهانه. جستجوی \\*A. زنجیره مارکوف. شبکه\u200cهای باور. جستجوی هیوریستیک، تپه نوردی، پرتوی محلی. الگوریتم ژنتیک. بازیها و جستجوی تخاصمی. مسائل ارضای محدودیت. عاملهای منطقی. طرح ریزی مساله. عدم قطعیت در مسائل هوش مصنوعی. بازنمایی دانش در هوش مصنوعی. کاربردهای هوش مصنوعی. آشنایی با سیستم\u200cهای خبره.\n']</t>
-  </si>
-  <si>
     <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'نکته: توصیه می\u200cشود این درس با هماهنگی با درس شبکه\u200cهای عصبی گفته شود.\n']</t>
   </si>
   <si>
@@ -1006,7 +997,7 @@
     <t>['تاریخچه کارآفرینی، مفاهیم کارآفرینی و انواع آن. انواع کسب وکار و مبانی و اصول کسب وکار. مبانی بازار و مدیریت بازار. داستان\u200cهای موفقیت و شکست کارآفرینان و قهرمانان توسعه. ارزیابی امکان سنجی و انتخاب ایده کارآفرینی. چارچوب طرح کسب وکار. طراحی جداول و محاسبات طرح کسب وکار. مراحل ثبت و تأسیس شرکت و آشنایی با انواع شرکت\u200cها. مبانی کسب وکار در اقتصاد ایران و کلیات قوانین تجارت در ایران. تجربیات موفق کارآفرینان ایرانی. مهارت\u200cهای کارآفرینی: کار گروهی، مدیریت منابع، مدیریت مالی، ارتباطات و …. برنامه ریزی و سازماندهی کسب وکار. راه\u200cاندازی کسب وکار، تولید، کنترل کیفیت و کنترل هزینه ها. بازاریابی، فروش و ارتباط با مشتری.\n']</t>
   </si>
   <si>
-    <t>['•\tکسب و کارهای نوپا، به ویژه کسب و کارهای نوپای ناب\n', '•\tارزیابی خطر \n', '•\tارزیابی منابع \n', '•\tتحليل بازار \n', '•\tتحليل مالی \n', '•\tارزش پيشنهادی\n', '•\tفرآیند توسعه مشتری \n', '•\tتفکر طراحی\n', '•\tمهارت های کار تيمی و گروهی \n', '•\tقوانين داخلی و بين المللی کسب و کار  \n', '•\tمهارت ها و روش های توسعه نرم افزار \n', '•\tمعرفی کارآفرینان موفق در ایران و دنيا \n', '•\tمعرفی موفقيت ها و شکست های بزرگ در راه اندازی کسب و کارهای نوپا \n', '•\tسخنرانی های شخصيت های موفق در ایجاد کسب و کارهای نوپا\n']</t>
+    <t>['•\tکسب و کارهای نوپا، به ویژه کسب و کارهای نوپای ناب\n', '•\tارزیابی خطر \n', '•\tارزیابی منابع \n', '•\tتحلیل بازار \n', '•\tتحلیل مالی \n', '•\tارزش پیشنهادی\n', '•\tفرآیند توسعه مشتری \n', '•\tتفکر طراحی\n', '•\tمهارت های کار تیمی و گروهی \n', '•\tقوانین داخلی و بین المللی کسب و کار  \n', '•\tمهارت ها و روش های توسعه نرم افزار \n', '•\tمعرفی کارآفرینان موفق در ایران و دنیا \n', '•\tمعرفی موفقیت ها و شکست های بزرگ در راه اندازی کسب و کارهای نوپا \n', '•\tسخنرانی های شخصیت های موفق در ایجاد کسب و کارهای نوپا\n']</t>
   </si>
   <si>
     <t>['مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n']</t>
@@ -1015,10 +1006,10 @@
     <t>['`   `آشنایی با: مفاهیم و تعریف مدیریت. کاربرد های سازمان و انواع آن. برنامه ریزی و انواع آن با تاکید بر حوزه سیاسی. انگیزش و روش های ایجاد و تقویت انگیزه با تاکید بر سازمان های سیاسی. هدایت رهبری با تاکید بر هداریت و رهبری سیاسی. نظارت(کنترل) و روش های آن با تاکید بر نظارت در حوزه سیاست. خلاقیت و نوآوری و روش های ایجاد و تقویت آن با تاکید حوزه های سیاسی. روش های تصمیم گیری و انواع آن. رهیافت های عمده در سیر تکوینی نظریه های مدیریتی شامل رهیافت های سنتی منابع انسانی کمی و اقتضایی. انواع الگو های مدیریتی. الگو های مدیریت سیاسی. اصول مدیریت در اسلام. الکوی مدیریت حکمرانی انبیا- آشنایی با مدیریت در محیط سیاس. احزاب سازمان های مردم نهاد و مانند آن. مطالعه موردی شیوه های مدیریت سیاس در سیاست داخلی و خارجی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. دانشجویان باید تکلیف\u200cهای محول شده را انجام و ارائه نمایند.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['`\t`مقدمه اي بر مدلسازي، تعریف مدلسازي و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهاي اقتصادي مدلهاي بیویوژیکی و زیستی، مدلهاي فیزیکی، مدلهاي تصادفی، مدلهاي دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازي: انواع توابع ونمایش آنها با استفاده از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازي، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهاي اقتصادي از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازي، مقایسه بین، توابع خطی و نمایی در مدلسازي، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازي، رشد وکاهش نمایی، استفاده از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژي و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاده از گرافها در مدلسازي، بسط گرافها و گرافهاي شیفت یافته و کاربرد آنها در مدلسازي همراه با ارائه چند مثال؛ توابع توانی و چند جمله اي ها در مدلسازي، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازي با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازي همراه با ارائه چند مثال.\n']</t>
-  </si>
-  <si>
-    <t>['`\t`معرفی یکی از نرم افزارهاي ریاضی، نحوه نصب و استفاده از راهنماي آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهاي n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهاي تابع، رسم نمودارهاي دو بعدي، برنامهنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهاي تقریبی برآورد انتگرال، دنباله\u200cها و سري ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n']</t>
+    <t>['`\t`مقدمه ای بر مدلسازی، تعریف مدلسازی و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهای اقتصادی مدلهای بیویوژیکی و زیستی، مدلهای فیزیکی، مدلهای تصادفی، مدلهای دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازی: انواع توابع ونمایش آنها با استفاده از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازی، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهای اقتصادی از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازی، مقایسه بین، توابع خطی و نمایی در مدلسازی، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازی، رشد وکاهش نمایی، استفاده از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژی و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاده از گرافها در مدلسازی، بسط گرافها و گرافهای شیفت یافته و کاربرد آنها در مدلسازی همراه با ارائه چند مثال؛ توابع توانی و چند جمله ای ها در مدلسازی، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازی با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازی همراه با ارائه چند مثال.\n']</t>
+  </si>
+  <si>
+    <t>['`\t`معرفی یکی از نرم افزارهای ریاضی، نحوه نصب و استفاده از راهنمای آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهای n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهای تابع، رسم نمودارهای دو بعدی، برنامهنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهای تقریبی برآورد انتگرال، دنباله\u200cها و سری ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n']</t>
   </si>
   <si>
     <t>['`\t`مروری گذرا بر منطق کالسیک (ارسطویی) و نظریه مجموعه\u200cهای کالسیک. تعریف مجموعه\u200cهای فازی و متغیر زبانی، تابع عضویت و انواع متداول آن (تابع عضویت منفرد، مثلثی، ذوزنقه و گوسی)، آشنایی با مفاهیم تکیهگاه، ارتفاع، مرکز، هسته، نرمال بودن، آلفا-برش. معرفی مفاهیم زیرمجموعه بودن فازی، مکمل فازی، اجتماع فازی، اشتراک فازی، قانون دمورگان.  مروری کوتاه بر نظریه امکان و تفاوت آن با نظریه احتمال. تعریف عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی و میانگین فازی. معرفی شرایط برقراری مجموعه انجمنی برای عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی. تعریف حاصلضرب دکارتی مجموعه\u200cهای فازی، تعریف رابطه فازی و ترکیب روابط فازی، تعریف تابع فازی، معرفی مفاهیم تصویر فازی، توسعه استوانهای فازی، اصل تجزیه فازی و اصل توسیع زاده. معرفی اعداد فازی، انواع اعداد فازی متداول (عدد فازی منفرد، مثلثی، ذوزنقه\u200cای و نمایی یا گوسی)، حساب اعداد فازی بر اساس دو روش اصل توسیع فازی و استفاده از آلفا-برشها، بررسی وجود جواب معادالت خطی فازی، رتبه بندی اعداد فازی. تعریف گزاره\u200cهای فازی، قواعد اگر- آنگاه فازی، تعریف استلزام فازی و کاربرد آن در ساختن یک سیستم استنتاج فازی(سیستم کنترل فازی). تعریف موتور استنتاج فازی، فازی ساز و انواع آن، پایگاه قواعد فازی، غیر فازی ساز و انواع آن. آشنایی با ساختن یک سیستم فازی ممدانی.\n']</t>
@@ -1027,16 +1018,10 @@
     <t>['مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه\u200cهای مستقل و خوشه ها.\n']</t>
   </si>
   <si>
-    <t>['`\t`آشنایی با زمینه هاي تحقیق در عملیات به ویژه در اقتصاد و یادگیری ماشین. مدل بندي مسائل بهینه سازي، مفاهیم پایه اي مرتبط با برنامه ریزي خطی شامل روشهاي ترسیمی، سیمپلکس اولیه و دوگان، دوفازي، دوگانی، تحلیل حساسیت. روشهاي حل مسائل حمل ونقل ساده و مرکب. مدل سازي مساله تخصیص و روش حل آن. آشنایی با برنامه ریزي عدد صحیح و روشهاي شاخه و کران و صفحات برشی،آشنایی با ماشین بردار پشتیبان. معرفی یک نرم افزار یا زبان مدلسازي جهت حل مسائل بهینه سازي، مانند CPLEX  و Pyomo\n']</t>
-  </si>
-  <si>
-    <t>['مدل سازي شامل: کاربردهایی از بهینه سازي محدب مانند طبقه بندي خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل هاي سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازي، شرایط لازم و کافی براي مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهاي حل مسایل نامقید شامل: روشهاي بر مبناي جستجوي خطی( جستجوي طلایی، فیبوناچی، عقب گرد)، روشهاي گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش هاي گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازي درجه دوم محدب با قیود خطی و معرفی برخی روش هاي حل آن ؛ الگوریتم\u200cهاي حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازي الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n']</t>
-  </si>
-  <si>
     <t>['نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n']</t>
   </si>
   <si>
-    <t>['حبر خطی و فضاهاي هیلبرت: یادآوري فضاهاي برداري و خواص آن، ضرب داخلی و تعامد، عملگرهاي خطی و خود الحاق روي فضاي ضرب داخلی، فضاهاي هیلبرت، دنباله ها و سري ها در فضاي هیلبرت، پایه هاي متعامد؛ سري فوریه: دیدگاه هاي تاریخی، تحلیل سیگنال و مثال هاي متنوع، سري فوریه و قضایاي همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی هاي تبدیل فوریه، تبدیل فوریه در فضاهاي اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهاي آن؛ موجک ها:  سیستم هاي هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه هاي موجکی، تبدیل هاي گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n']</t>
+    <t>['حبر خطی و فضاهای هیلبرت: یادآوری فضاهای برداری و خواص آن، ضرب داخلی و تعامد، عملگرهای خطی و خود الحاق روی فضای ضرب داخلی، فضاهای هیلبرت، دنباله ها و سری ها در فضای هیلبرت، پایه های متعامد؛ سری فوریه: دیدگاه های تاریخی، تحلیل سیگنال و مثال های متنوع، سری فوریه و قضایای همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی های تبدیل فوریه، تبدیل فوریه در فضاهای اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهای آن؛ موجک ها:  سیستم های هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه های موجکی، تبدیل های گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n']</t>
   </si>
   <si>
     <t>['مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n']</t>
@@ -1078,16 +1063,13 @@
     <t>['**محتوای پروژه برای هر دانشجو و توسط استاد پروژه تعیین می شود.**\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**تدریس مفاهیم در جلسات اصلی درس و برگزاری کلاسهای مشاوره در طول نیمسال .**\n']</t>
   </si>
   <si>
-    <t>['**محتوای کارآموزی برای هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n']</t>
-  </si>
-  <si>
     <t>['حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n']</t>
   </si>
   <si>
     <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
   </si>
   <si>
-    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهيم پایه\u200cای  فرایند تصادفي،  توزیع\u200cهای با بعد متناهي، ایستایي، با نموهای همگن، با نموهای مستقل، ویژگي ماركوفی، فرآیندهای برنولي و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشي. فرآیند گام برداری تصادفي: ویژگی\u200cهای و مسئله ورشکستگي بازیکن،   فرآیند پواسن، معرفي فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائي، دوجمله\u200cای، هندسي، یکنواخت و بتا، توزیع شرطي زمان\u200cهای بين ورود و ارتباط با آماره\u200cهای ترتيبي توزیع یکنواخت،  فرآیند پواسون مركب و كاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجيرهای ماركف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- كولموگرو،  توزیع اوليه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجيرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتي، وضعیت\u200cهای بازگشتي مثبت و بازگشتي پوچ، متوسط تعداد دفعات ملاقات از یک وضعيت بازگشتي،  متوسط اولين زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: &lt;a name="_hlk86305627"&gt;&lt;/a&gt;شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n']</t>
+    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: &lt;a name="_hlk86305627"&gt;&lt;/a&gt;شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n']</t>
   </si>
   <si>
     <t>['1- آشنایی با مفاهیم رایانش ابری، مدلهای مختلف استقرار و سرویس دهی 2- آشنایی با معماری مرجع رایانش ابری 3- آشنایی با مفاهیم مجازی سازی در سطح سخت افزار، در سطح سیستم عامل و در سطح زبان برنامه\u200cنویسی 4- آشنایی با مدلهای مختلف برنامه\u200cنویسی ابر مانند مدل کیسه وظایف، جریانهای کاری، مدل ریزخدمت 5- آشنایی با مفاهیم تحلیل داده\u200cهای عظیم و امکانات ابری برای پردازش این نوع داده\u200cها همچون: سیستم فایل توزیع شده مانند HDFS، پایگاه داده\u200cهای NoSQL همانند HBase، مدلهای برنامه\u200cنویسی مانند Map-Reduce، پردازش گرافی مانند Giraph و پردازش جریانی همانند Storm 6- آشنایی با مدیریت منابع و زمانبندی در ابر روشهای مختلف زمانبندی وظایف مستقل و جریانهای کاری 7- آشنایی با محاسبات ابری سبز و روشهای برقراری آن 8- آشنایی با مدلهای بین ابری همانند ابر متحد شده و چند ابری و تفاوتهای آنها، و آشنایی با مفهوم کارگزاری ابر 9- آشنایی با مفهوم محاسبات لبه ای و ارتباط آن با رایانش ابری، محاسبات ابری متحرک و انواع آن و محاسبات مهی\n']</t>
@@ -1096,19 +1078,16 @@
     <t>['معرفی معماری سیستم\u200cهای چندهسته\u200cای و مدل\u200cهای برنامه\u200cنوسی موازی\n', 'تاریخچه ظهور سیستم\u200cهای چند\u200cهسته\u200cای،  چالش\u200cهای برنامه\u200cنویسی کارا روی سیستم\u200cهای چند\u200cهسته\u200cای، معرفی سطوح موازات در برنامه\u200cها، تحلیل تسریع در سیستم\u200cهای چند\u200cهسته\u200cای همگون و ناهمگون، ارائه\u200cی\u200c چند نمونه واقعی از سیستم\u200cهای چند\u200cهسته\u200cای\n', 'چند\u200cپردازنده\u200cها با حافظه مشترک، \n', 'معرفی کلی معماری،  ارائه\u200cی مسئله\u200cی Cache Coherence و راه\u200cحل\u200cها، معرفی اجمالی مدل برنامه\u200cنویسی و نحوه همگام\u200cسازی نخ\u200cها،\u200c نحوه برخورد با ناحیه\u200cهای بحرانی، ایده\u200cهای کلی در بهبود برنامه\u200cهای موازی\n', 'الگو\u200cهای رایج موازی\u200cسازی محاسبات و مدیریت داده\n', 'الگوهای محاسباتی موازی: Map, Reduction, Scan, Stencil, Recurrence, Fork-Join\n', 'الگوهای موازی مدیریت داده: Gather, Scatter, Pack, Geometric Decomposition &amp; Partitions\n', 'برنامه\u200cنویسی موازی عمومی در سیستم\u200cهای چند\u200cهسته ای\n', 'برنامه\u200cنویسی با Pthreads،\u200c برنامه\u200cنویسی با OpenMP\n', 'برنامه\u200cنوسی موازی در سیستم\u200cهای برداری\n', 'معرفی کلی سیستم\u200cهای برداری و آرایه\u200cای،\u200c معرفی ISA مخصوص پردازنده Intel برای محاسبات SIMD،\u200c معرفی معماری و نحوه برنامه\u200cنویسی پردازنده CELL BE\n', 'برنامه\u200cنویسی موازی در پردازنده\u200cهای گرافیکی عام\u200cمنظوره\n', 'معرفی جامع معماری پردازنده\u200cهای گرافیکی، معرفی معماری چند نمونه واقعی از پردازنده\u200cهای گرافیکی شرکت NVIDIA\n', 'برنامه\u200cنویسی با زبان CUDA، معرفی Profiler شرکت NVIDIA\n', 'معرفی اجمالی برنامه\u200cنویسی موازی در سیستم\u200cهای توزیع\u200cشده\n', 'معرفی کتابخانه Message Passing Interface (MPI) و نحوه\u200cی برنامه\u200cنویسی موازی براساس مدل تبادل پیام\n']</t>
   </si>
   <si>
-    <t>['--مفاهیم اولیه، سيگنال های زمان پيوسته و گسسته، متغير مستقل و تبدیلات آن، دسته بندی سيگنال ها و سيستم ها، معرفی سيگنال های پایه (پيوسته و گسسته)، معرفی خواص سيستم ها: حافظه دار بودن، معکوس پذیری ، علی بودن، پایداری، خطی بودن و تغيير ناپذیر با زمان \n', '--سیستم\u200cهای خطی تغییر ناپذیر با زمان، کانولوشن گسسته و پيوسته، روشی سریع برای کانولوشن گسسته، خواص کانولوشن  \n', '، پاسخ ضربه و خواص سيستم های LTI، نمایش بلوکی سيستم های LTI \n', '--سری فوریه زمان-پیوسته ، سری فوریه عمومی و مبحث توابع متعامد، توابع متعامد لژاندر؛ والش، لاگر، نمایی مختلط، پاسخ سيستم های LTI به سيگنالهای نمایی مختلط، خواص سری فوریه، خواص سری فوریه، بحث همگرایی سری فوریه \n', '--تبدیل فوریه زمان –پیوسته، تبدیل فوریه زمان پيوسته، خواص تبدیل فوریه، نمایش بلوکی سيستم های LTI وتبدیل فوریه، پاسخ فرکانس و حل معادلات سيستم های LTI، تبدیل فوریه توابع خاص \n', '--کاربردهای تبدیل فوریه زمان-پیوسته، انواع فيلترها، نمونه برداری، مدولاسيون، دمدولاسيون، دسترسی چندگانه \n', '--سری فوریه زمان-گسسته، سری فوریه گسسته و تفاوتهای آن با سری پيوسته، پاسخ سيستم های LTI و سری فوریه گسسته ، خواص سری فوریه گسسته \n', '--تبدیل فوریه زمان-گسسته، تبدیل فوریه زمان گسسته، خواص تبدیل فوریه زمان گسسته، فيلترهای دیجيتال و تبدیل فوریه زمان گسسته، پاسخ فرکانس و حل معادلات سيستم های زمان گسسته، نمایش بلوکی سيستمهای گسسته با استفاده از تبدیل فوریه زمان گسسته، تبدیل DFT \n', '--تبدیل Z و خواص آن\n']</t>
+    <t>['--مفاهیم اولیه، سیگنال های زمان پیوسته و گسسته، متغیر مستقل و تبدیلات آن، دسته بندی سیگنال ها و سیستم ها، معرفی سیگنال های پایه (پیوسته و گسسته)، معرفی خواص سیستم ها: حافظه دار بودن، معکوس پذیری ، علی بودن، پایداری، خطی بودن و تغییر ناپذیر با زمان \n', '--سیستم\u200cهای خطی تغییر ناپذیر با زمان، کانولوشن گسسته و پیوسته، روشی سریع برای کانولوشن گسسته، خواص کانولوشن  \n', '، پاسخ ضربه و خواص سیستم های LTI، نمایش بلوکی سیستم های LTI \n', '--سری فوریه زمان-پیوسته ، سری فوریه عمومی و مبحث توابع متعامد، توابع متعامد لژاندر؛ والش، لاگر، نمایی مختلط، پاسخ سیستم های LTI به سیگنالهای نمایی مختلط، خواص سری فوریه، خواص سری فوریه، بحث همگرایی سری فوریه \n', '--تبدیل فوریه زمان –پیوسته، تبدیل فوریه زمان پیوسته، خواص تبدیل فوریه، نمایش بلوکی سیستم های LTI وتبدیل فوریه، پاسخ فرکانس و حل معادلات سیستم های LTI، تبدیل فوریه توابع خاص \n', '--کاربردهای تبدیل فوریه زمان-پیوسته، انواع فیلترها، نمونه برداری، مدولاسیون، دمدولاسیون، دسترسی چندگانه \n', '--سری فوریه زمان-گسسته، سری فوریه گسسته و تفاوتهای آن با سری پیوسته، پاسخ سیستم های LTI و سری فوریه گسسته ، خواص سری فوریه گسسته \n', '--تبدیل فوریه زمان-گسسته، تبدیل فوریه زمان گسسته، خواص تبدیل فوریه زمان گسسته، فیلترهای دیجیتال و تبدیل فوریه زمان گسسته، پاسخ فرکانس و حل معادلات سیستم های زمان گسسته، نمایش بلوکی سیستمهای گسسته با استفاده از تبدیل فوریه زمان گسسته، تبدیل DFT \n', '--تبدیل Z و خواص آن\n']</t>
   </si>
   <si>
     <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n']</t>
   </si>
   <si>
-    <t>['جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری، بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، مقدمه ای بر سری های زمانی، تحلیل واریانس\n']</t>
-  </si>
-  <si>
     <t>['سیستم\u200cهای ممیز شناور ( آشنایی با استانداردهای IEEE) و معرفی رند عدد یک.\n', 'خطای نمایش، خطرات آن و نحوه کنترل آن، نحوه محاسبات توابع پایه با سیستم ممیز شناور، پیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی علمی الگوریتم\u200cهای منتخب عددی با انتخاب استاد و مستندسازی نرم\u200cافزارهای علمی\n', '**\n']</t>
   </si>
   <si>
-    <t>['کتاب حساب دیفرانسیل و انتگرال تالیف جیمز استوارت – ترجمه ارشک حمیدي ویراست حداقل 6\n', '` `کتاب حساب دیفرانسیل و انتگرال و هندسه تحلیلی، تالیف توماس فینی – ویر، ویرایش حداقل ۹\n', 'سیاوش شهشهانی، "حساب دیفرانسیل و انتگرال"، جلد اول، ویراست دوم، انتشارات فاطمی، ۱۳۹۶.\n', 'Robert A. Adams and Cristopher Essex. Calculus, A Complete Course. 9th Edition, Pearson, 2018.\n', 'James Stewart. Calculus. 8th Edition, Cengage learning, 2016.\n']</t>
+    <t>['کتاب حساب دیفرانسیل و انتگرال تالیف جیمز استوارت – ترجمه ارشک حمیدی ویراست حداقل 6\n', '` `کتاب حساب دیفرانسیل و انتگرال و هندسه تحلیلی، تالیف توماس فینی – ویر، ویرایش حداقل ۹\n', 'سیاوش شهشهانی، "حساب دیفرانسیل و انتگرال"، جلد اول، ویراست دوم، انتشارات فاطمی، ۱۳۹۶.\n', 'Robert A. Adams and Cristopher Essex. Calculus, A Complete Course. 9th Edition, Pearson, 2018.\n', 'James Stewart. Calculus. 8th Edition, Cengage learning, 2016.\n']</t>
   </si>
   <si>
     <t>['William E. Boyce, Richard C. DiPrima, Douglas B. Meade, Elementary Differential Equations and Boundary Value Problems, 11th Edition, WILEY, 2017.\n', ')ویرایش نهم این کتاب توسط حمیدرضا ظهوری زنگنه ترجمه و توسط انتشارات فاطمی منتشر شده است.(\n', 'Stephen Goode, Scott Annin, Differential Equations and Linear Algebra by Stephen, Pearson, 2016C. H. Edwards, D. E. Penney, Elementary Differential Equations, 6th Edition, Pearson Education, Inc. 2008. \n', 'D. G. Zill, A First Course in Differential Equations with Modeling Applications, 10th Edition, Brooks/Cole, Cengage Learning, 2012.\n']</t>
@@ -1123,16 +1102,13 @@
     <t>['در اختیار مدرس\n', '**\n']</t>
   </si>
   <si>
-    <t>['موحد، ضیاء، درآمدي به منطق جدید، انتشارات و آموزش انقلاب اسلامی ، 1379\n', 'ناصر، بردجربان. مبانی و مقدمات علم ریاضی، مرکز نشر پرفسور حسابی، 1377\n', 'سپهري ، محمد رضا. آشنائی با مبانی علوم ریاضی، مرکز نشر آینه، 1390\n', 'Halmos, Paul R. I set theory. Courier Dover Publications, 2017.\n', 'Stewart, Ian, and David Tall. The foundations of mathematics. OUP Oxford, 2015.\n', 'Lin, Shwu-Yeng T., and You-Feng Lin. Set theory with applications. Mancorp Pub, 1985.\n']</t>
-  </si>
-  <si>
-    <t>['راس، ش، آمار و احتمال 1، احمد پارسیان-علی همدانی، ویرایش هشتم، چاپ دهم 1389 ، انتشارات شیخ بهایی.\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n']</t>
-  </si>
-  <si>
-    <t>['~~1. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.~~ \n', '~~2. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتي، جلد 1 و2، ترجمه محمدرضا مشکاني، مرکز نشر دانشگاهی.~~\n', '~~2. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.~~\n', '~~3. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature.~~ \n', '~~4. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.~~\n']</t>
-  </si>
-  <si>
-    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مباني احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مباني احتمال، ترجمه پارسيان، ا.  همداني، ع.، ويرايش هشتم، انتشارات شيخ بهايي، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماري، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Baclawski, K. (2008).\xa0Introduction to Probability with R. Chapman and Hall/CRC.\n', 'Kerns, G. J. (2018).\xa0Introduction to Probability and Statistics using R. Lulu. Com.\n', 'Horgan, Jane (2020). Probability with R, Second Edition, John Wiley &amp; Sons.\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013 \n']</t>
+    <t>['موحد، ضیاء، درآمدی به منطق جدید، انتشارات و آموزش انقلاب اسلامی ، 1379\n', 'ناصر، بردجربان. مبانی و مقدمات علم ریاضی، مرکز نشر پرفسور حسابی، 1377\n', 'سپهری ، محمد رضا. آشنائی با مبانی علوم ریاضی، مرکز نشر آینه، 1390\n', 'Halmos, Paul R. I set theory. Courier Dover Publications, 2017.\n', 'Stewart, Ian, and David Tall. The foundations of mathematics. OUP Oxford, 2015.\n', 'Lin, Shwu-Yeng T., and You-Feng Lin. Set theory with applications. Mancorp Pub, 1985.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['1\\. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد. \n', '2\\. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '2\\. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.\n', '3\\. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature. \n', '4\\. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n']</t>
   </si>
   <si>
     <t>['Ivor Horton and Peter Van Weert, Beginning C++17: From Novice to Professional, Apress, 2018\n', 'Ivor Horton and Peter Van Weert, Beginning C++20: From Novice to Professional, Apress, 2020\n', 'P. Deitel, H. Deitel. C++: How to Program. 11th Edition, Pearson Education, 2017.\n']</t>
@@ -1150,7 +1126,7 @@
     <t>['در اختیار مدرس\n']</t>
   </si>
   <si>
-    <t>['R. Elmasri, S. Navathe, Fundamentals of Database Systems, 7th edition, 2015\n', 'A. Silberschatz, H. F. Korth, S. Sudarshan, Database System Concepts, 7th edition, 2019.\n']</t>
+    <t>['R. Elmasri, S. Navathe, Fundamentals of Database Systems, 7th edition, 2015\n', 'A. Silberschatz, H. F. Korth, S. Sudarshan, Database System Concepts, 7th edition, 2019.\n', 'Hoffer, J. A., Topi, H., &amp; Venkataraman, R. (2013). Essentials of Database Management. Pearson Higher Ed.\n', 'Coronel, C., &amp; Morris, S. (2019). Database systems: design, implementation, &amp; management. Cengage Learning.\n', 'Hoffer, J. A., Ramesh, V., &amp; Topi, H. (2016). Modern database management. Pearson\n']</t>
   </si>
   <si>
     <t>['Mano, M. Morris. Computer system architecture. 3th Edition, Prentice-Hall of India, 2003.\n', 'Patterson, D. A., &amp; Hennessy, J. L., Computer organization and design: the hardware/software interface, (Rev. ed. of: Computer organization and design/John L. Hennessy, David A. Patterson.1998.), Morgan Kaufmann, 2012.\n']</t>
@@ -1174,7 +1150,31 @@
     <t>['Burden, R. L., &amp; Faires, J. D., Solutions of equations in one variable the bisection\n', 'method. Brooks/Cole, Cengage Learning, 2011.\n', 'Dahlquist, G., &amp; Björck, Å., Numerical methods in scientific computing, volume I. Society for Industrial and Applied Mathematics, 2008.\n', 'Süli, E., &amp; Mayers, D. F., An introduction to numerical analysis. Cambridge university press, 2003.\n', 'Hildebrand, F. B., Introduction to numerical analysis. Courier Corporation, 1987.\n', 'Stoer, J., &amp; Bulirsch, R., Introduction to numerical analysis (Vol. 12). Springer Science &amp;\n', 'Business Media, 2013\n']</t>
   </si>
   <si>
-    <t>['` `مجید میرزا وزیري، فضاهاي متریک با طعم توپولوژي، انتشارات دانشگاه فردوسی مشهد، چاپ سوم، 1\n', 'Rudin, W., Principles of mathematical analysis (Vol. 3). New York: McGraw-hill, 1964.\n', 'Gordon, R. A., Real Analysis: A first course. Addison Wesley, 2001.\n']</t>
+    <t>['` `مجید میرزا وزیری، فضاهای متریک با طعم توپولوژی، انتشارات دانشگاه فردوسی مشهد، چاپ سوم، 1\n', 'Rudin, W., Principles of mathematical analysis (Vol. 3). New York: McGraw-hill, 1964.\n', 'Gordon, R. A., Real Analysis: A first course. Addison Wesley, 2001.\n']</t>
+  </si>
+  <si>
+    <t>['1\\. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان کتاب اصلی -کتاب زیر- قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '2. Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.**\n']</t>
+  </si>
+  <si>
+    <t>['` `شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دکتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', 'مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', 'زینل همدانی، علی (1394). دانشیابی داده\u200cها ( مقدمه ای بر داده کاوی)، انتشارات دانشگاه صنعتی اصفهان. \n', 'Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', 'Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', 'Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', 'Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', 'Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.\n']</t>
+  </si>
+  <si>
+    <t>['Russell, S., &amp; Norvig, P., Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES, 2020.\n']</t>
+  </si>
+  <si>
+    <t>['Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Peter Bruce, Andrew Bruce, Peter Gedeck, Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python, 2nd Edition, O’Reilly Media, Inc, 2020\n', "Dawn Griffiths, Head First Statistics, O'Reilly Media, Inc, 2008\n", 'Charles Wheelan, Naked Statistics: Stripping the Dread from the Data, 2012\n', 'STATISTICS FOR BEGINNERS IN DATA SCIENCE, Theory and Applications of\n', 'Essential Statistics Concepts using Python, AI PUBLISHING\n']</t>
+  </si>
+  <si>
+    <t>['براکول، پ. و دیویس، ر.ا. (۱۳۸۴) مقدمهای بر سریهای زمانی و پیشبینی، ترجمه محمد امینی، ابوالقاسم بزرگ نیا و محمدحسین دهقان، چاپ دوم، انتشارات دانشگاه سیستان و بلوچستان. \n', 'چتفیلد، ک. (۱۹۹۶) . مقدمهای بر تحلیل سریهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، دانشگاه فردوسی مشهد.\n', 'ترجمه محمدرضا مشکانی، ،R کرایر، ج.د.؛ سیک چن، ک. (۱۳۹۲)  تجزیه\u200cوتحلیل سریهای زمانی با استفاده از نرم\u200cافزار، مرکز نشر دانشگاهی.\n']</t>
+  </si>
+  <si>
+    <t>['1 .برتسیماس، سیتسیکلیس، مقدمه ای بر بهینه سازی خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا، 1394.\n', '2 .حمدی طه، آشنایی با تحقیق در عملیات: برنامه ریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی، 1387.\n', '3 .وینستون، تحقیق در عملیات، برنامه\u200cریزی خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران، 1380.\n', '4 .بازارا، جارویس، شرالی، برنامه ریزی خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی، 1392.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['1. د. ج. لوئنبرگر، برنامه\u200cریزی خطی و غیرخطی، ترجمه نظام\u200cالدین مهدوی امیری و محمدحسین پور کاظمی، دانشگاه صنعتی شریف، ۱۳۹۲.\n', '1. M. Bazaraa, H.D. Sherali, C.M. Shetty, *Nonlinear Programming: Theory and Algorithms*, 3rd edition, John Wiley &amp; Sons, 2006.\n', '1. Stephen Boyd and Lieven Vandenberghe.\xa0*Convex optimization*. Cambridge university press, 2004.\n', '1. E.K.P. Chong, S.H. Zak, An Introduction to Optimization, 4th edition, Wiley, 2013.\n', '1. 4. I. Griva, S.G. Nash, A. Sofer, Linear and Nonlinear Optimization, 2nd edition, SIAM, 2009.\n', '1. Jorge Nocedal and Stephen Wright.\xa0*Numerical optimization*. Springer Series in Operations Research and Financial Engineering, 2nd edition, 2006.\n', '1. *Convex Optimization*\xa0taught by Ryan Tibshirani at CMU from 2013 to 2019.\n', '1. S.S. RAO: Optimization: Theory and Applications, August 9, 1978, John Wiley and Sons\n']</t>
+  </si>
+  <si>
+    <t>['با نظر مدرس درس\n']</t>
   </si>
   <si>
     <t>['Datta, B. N., Numerical linear algebra and applications (Vol. 116). SIAM, 2010.\n', 'Trefethen, L. N., &amp; Bau III, D., Numerical linear algebra (Vol. 50). SIAM, 1997.\n']</t>
@@ -1189,12 +1189,6 @@
     <t>['1\\. نعمت اللهی، نادر ( 1397). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '2\\. جانسون، ر. آ. و  باتاچاریا، گ.، (1388).  آمار اصول و روش ها، جلد 1 و 2، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '3\\. ووناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '4\\. بهبودیان، ج.، آمار و احتمال مقدماتی (1394).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '5\\. طاهری، س.م. (1399). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '6\\. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '7\\. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
   </si>
   <si>
-    <t>['1\\. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان کتاب اصلی -کتاب زیر- قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '2. Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.**\n']</t>
-  </si>
-  <si>
-    <t>['` `شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دكتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', 'مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', 'زینل همدانی، علی (1394). دانشیابی داده\u200cها ( مقدمه ای بر داده کاوی)، انتشارات دانشگاه صنعتی اصفهان. \n', 'Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', 'Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', 'Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', 'Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', 'Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.\n']</t>
-  </si>
-  <si>
     <t>['Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', 'Cooper, S. Barry. Computability theory. CRC Press, 2003.\n', 'M. Divis, R. Sigal, E. Weyuker, Computability, Complexity, and Languages. 2nd Edition, Academic Press, 1997. \n']</t>
   </si>
   <si>
@@ -1213,7 +1207,7 @@
     <t>['G. Winskel, The Formal Semantics of Programming Languages An Introduction, The MIT Press, 1994\n']</t>
   </si>
   <si>
-    <t>['1\\. عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '2\\. عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '3\\. سوری، علی. (1400). نظریه بازي\u200cها و كاربردهاي اقتصادي، انتشارات نور علم.\n', '5\\. زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '1\\. Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
+    <t>['1\\. عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '2\\. عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '3\\. سوری، علی. (1400). نظریه بازی\u200cها و کاربردهای اقتصادی، انتشارات نور علم.\n', '5\\. زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '1\\. Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
   </si>
   <si>
     <t>['R. Motwani and P. Raghavan. Randomized Algorithms. Cambridge University Press, 1995.\n', 'J. Matoušek and J. Vondrák. The Probabilistic Method. Lecture Notes, Department of Applied Mathematics, Charles University, Prague, 2001.\n', 'M. Mitzenmacher and E. Upfa. Probability and Computing: Randomized Algorithms and Probabilistic Analysis. Cambridge University Press, 2005.\n']</t>
@@ -1225,12 +1219,6 @@
     <t>['1-مونتگمری، د.،  پک، آ و جافری، و. (1395). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '2\\. امینی، م. زمانی، ح. روزبه، م.  (1398). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '1. Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '1. Olive, D. (2017). Linear Regression, Springer.\n', '1. Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '1. Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '1. Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n']</t>
   </si>
   <si>
-    <t>['براکول، پ. و دیویس، ر.ا. (۱۳۸۴) مقدمهای بر سریهای زمانی و پیشبینی، ترجمه محمد امینی، ابوالقاسم بزرگ نیا و محمدحسین دهقان، چاپ دوم، انتشارات دانشگاه سیستان و بلوچستان. \n', 'چتفیلد، ک. (۱۹۹۶) . مقدمهای بر تحلیل سریهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، دانشگاه فردوسی مشهد.\n', 'ترجمه محمدرضا مشکانی، ،R کرایر، ج.د.؛ سیک چن، ک. (۱۳۹۲)  تجزیه\u200cوتحلیل سریهای زمانی با استفاده از نرم\u200cافزار، مرکز نشر دانشگاهی.\n']</t>
-  </si>
-  <si>
-    <t>['Russell, S., &amp; Norvig, P., Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES, 2020.\n']</t>
-  </si>
-  <si>
     <t>['1. J. M. Keller, D. Liu and D. B. Fogel, Fundamentals of Computational Intelligence: Neural Networks, Fuzzy Systems and Evolutionary Computation, Wiley, 2016. \n', '1. P. Engelbrecht, Computational Intelligence: An Introduction, Wiley, 2007.\n', '1. Konar, Computational Intelligence: Principles, Techniques and Applications, Springer, 2007.\n']</t>
   </si>
   <si>
@@ -1261,12 +1249,6 @@
     <t>['Diestel, R., Extremal Graph Theory. In Graph Theory (pp. 173-207). Springer, Berlin,\n', 'Heidelberg, 2017.\n', 'West, D. B., Introduction to graph theory (Vol. 2). Upper Saddle River, NJ: Prentice hall, 1996.\n', 'Bondy, J. A., &amp; Murty, U. S. R., Graph theory with applications (Vol. 290). London: Macmillan, 1976.\n']</t>
   </si>
   <si>
-    <t>['1 .برتسیماس، سیتسیکلیس، مقدمه اي بر بهینه سازي خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا، 1394.\n', '2 .حمدي طه، آشنایی با تحقیق در عملیات: برنامه ریزي خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی، 1387.\n', '3 .وینستون، تحقیق در عملیات، برنامه\u200cریزي خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران، 1380.\n', '4 .بازارا، جارویس، شرالی، برنامه ریزي خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی، 1392.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['1. د. ج. لوئنبرگر، برنامه\u200cریزی خطی و غیرخطی، ترجمه نظام\u200cالدین مهدوی امیری و محمدحسین پور کاظمی، دانشگاه صنعتی شریف، ۱۳۹۲.\n', '1. M. Bazaraa, H.D. Sherali, C.M. Shetty, *Nonlinear Programming: Theory and Algorithms*, 3rd edition, John Wiley &amp; Sons, 2006.\n', '1. Stephen Boyd and Lieven Vandenberghe.\xa0*Convex optimization*. Cambridge university press, 2004.\n', '1. E.K.P. Chong, S.H. Zak, An Introduction to Optimization, 4th edition, Wiley, 2013.\n', '1. 4. I. Griva, S.G. Nash, A. Sofer, Linear and Nonlinear Optimization, 2nd edition, SIAM, 2009.\n', '1. Jorge Nocedal and Stephen Wright.\xa0*Numerical optimization*. Springer Series in Operations Research and Financial Engineering, 2nd edition, 2006.\n', '1. *Convex Optimization*\xa0taught by Ryan Tibshirani at CMU from 2013 to 2019.\n', '1. S.S. RAO: Optimization: Theory and Applications, August 9, 1978, John Wiley and Sons\n']</t>
-  </si>
-  <si>
     <t>['Gallian, J. Contemporary abstract algebra. Nelson Education, 2012\n', '` `Kleiner, I., A history of abstract algebra. Springer Science &amp; Business Media, 2007.\n']</t>
   </si>
   <si>
@@ -1309,9 +1291,6 @@
     <t>['با نظر مدرس درس\n', '**\n']</t>
   </si>
   <si>
-    <t>['با نظر مدرس درس\n']</t>
-  </si>
-  <si>
     <t>['R. L. Burden, J. D. Faires, Numerical Analysis. PW Publishing Company, Boston, USA, 2011.\n']</t>
   </si>
   <si>
@@ -1333,10 +1312,7 @@
     <t>['Jack T. Marchewka. Information Technology Project Management. WILEY, 2014.**\n']</t>
   </si>
   <si>
-    <t>['~~Peter Bruce, Andrew Bruce, Peter Gedeck, Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python, 2nd Edition, O’Reilly Media, Inc, 2020~~\n', "~~Dawn Griffiths, Head First Statistics, O'Reilly Media, Inc, 2008~~\n", '~~Charles Wheelan, Naked Statistics: Stripping the Dread from the Data, 2012~~\n', '~~STATISTICS FOR BEGINNERS IN DATA SCIENCE, Theory and Applications of~~\n', '~~Essential Statistics Concepts using Python, AI PUBLISHING~~\n']</t>
-  </si>
-  <si>
-    <t>["Scientific Computing with Case Studies, By Dianne P. O'Leary, 2009\n"]</t>
+    <t>["Scientific Computing with Case Studies, By Dianne P. O'Leary, 2009\n", '[^1]: Luk, Robert W. P. (2020). Insights in How Computer Science can be a Science. Science and Philosophy 8 (2):17-46\n', '[^2]: ["Computer Science as a Profession"](https://web.archive.org/web/20080617030847/http:/www.csab.org/comp_sci_profession.html). Computing Sciences Accreditation Board. May 28, 1997.\n', '[^3]: [Computer science - Wikipedia](https://en.wikipedia.org/wiki/Computer_science)\n', '[^4]: در تدوین این برنامه درسی، برنامه\u200cهای درسی مصوب وزارت در سالهای ۱۳۹۹ تا ۱۴۰۱ برای رشته\u200cهای علوم کامپیوتر، ریاضیات و کاربردها و آمار و همچنین برنامه درسی مهندسی کامپیوتر وزارت علوم و چند دانشگاه داخلی و خارجی مورد ملاحظه قرار گرفته\u200cاند.\n', '[^5]: Andrew Ng']</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,37 +1731,37 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" t="s">
         <v>270</v>
       </c>
-      <c r="J2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" t="s">
-        <v>276</v>
-      </c>
       <c r="L2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1796,37 +1772,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" t="s">
         <v>270</v>
       </c>
-      <c r="J3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K3" t="s">
-        <v>276</v>
-      </c>
       <c r="L3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1837,37 +1813,37 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1878,37 +1854,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L5" t="s">
+        <v>275</v>
+      </c>
+      <c r="O5" t="s">
         <v>281</v>
       </c>
-      <c r="O5" t="s">
-        <v>287</v>
-      </c>
       <c r="P5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1919,37 +1895,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" t="s">
         <v>272</v>
       </c>
-      <c r="J6" t="s">
-        <v>274</v>
-      </c>
-      <c r="K6" t="s">
-        <v>278</v>
-      </c>
       <c r="L6" t="s">
+        <v>276</v>
+      </c>
+      <c r="O6" t="s">
         <v>282</v>
       </c>
-      <c r="O6" t="s">
-        <v>288</v>
-      </c>
       <c r="P6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1960,37 +1936,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2001,37 +1977,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2042,37 +2018,34 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K9" t="s">
-        <v>277</v>
-      </c>
-      <c r="L9" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="O9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2083,34 +2056,37 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" t="s">
         <v>275</v>
       </c>
-      <c r="K10" t="s">
-        <v>278</v>
-      </c>
       <c r="O10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P10" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2121,37 +2097,37 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J11" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P11" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2162,37 +2138,37 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K12" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O12" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P12" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2203,37 +2179,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P13" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2244,37 +2220,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L14" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P14" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2285,37 +2261,37 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P15" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2326,37 +2302,37 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G16" t="s">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="I16" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J16" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K16" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P16" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2367,37 +2343,37 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I17" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J17" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K17" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L17" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O17" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P17" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2408,37 +2384,37 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I18" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J18" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K18" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O18" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P18" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2449,37 +2425,37 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J19" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K19" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O19" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P19" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2490,37 +2466,37 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J20" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K20" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L20" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O20" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P20" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2531,37 +2507,37 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L21" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P21" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2572,37 +2548,37 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L22" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O22" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P22" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2613,37 +2589,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I23" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K23" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O23" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P23" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2654,37 +2630,37 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I24" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J24" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K24" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O24" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P24" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2695,37 +2671,37 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="H25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I25" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P25" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2736,37 +2712,37 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P26" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2777,37 +2753,37 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I27" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P27" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2818,34 +2794,37 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
         <v>275</v>
       </c>
-      <c r="K28" t="s">
-        <v>277</v>
-      </c>
       <c r="O28" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P28" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2856,37 +2835,37 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P29" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2897,37 +2876,37 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P30" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2938,37 +2917,37 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P31" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2979,37 +2958,34 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="H32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s">
-        <v>277</v>
-      </c>
-      <c r="L32" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P32" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3020,37 +2996,37 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O33" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P33" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3061,37 +3037,37 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J34" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3102,37 +3078,34 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="E35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J35" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
-      </c>
-      <c r="L35" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O35" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P35" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3143,37 +3116,37 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I36" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K36" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O36" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P36" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3184,37 +3157,37 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J37" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K37" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O37" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P37" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3225,34 +3198,37 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I38" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J38" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>276</v>
       </c>
       <c r="O38" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P38" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3263,37 +3239,37 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I39" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J39" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K39" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O39" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P39" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3304,37 +3280,37 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I40" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O40" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P40" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3345,34 +3321,37 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G41" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I41" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J41" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K41" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="L41" t="s">
+        <v>276</v>
       </c>
       <c r="O41" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P41" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3383,37 +3362,37 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J42" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K42" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O42" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P42" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3424,37 +3403,34 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I43" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J43" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K43" t="s">
-        <v>277</v>
-      </c>
-      <c r="L43" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O43" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P43" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3465,37 +3441,37 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="H44" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I44" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J44" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K44" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L44" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="O44" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P44" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3506,37 +3482,37 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I45" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J45" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K45" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L45" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O45" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P45" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3547,37 +3523,34 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H46" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I46" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J46" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K46" t="s">
-        <v>277</v>
-      </c>
-      <c r="L46" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O46" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P46" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3588,37 +3561,37 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E47" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I47" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J47" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K47" t="s">
+        <v>271</v>
+      </c>
+      <c r="L47" t="s">
         <v>277</v>
       </c>
-      <c r="L47" t="s">
-        <v>282</v>
-      </c>
       <c r="O47" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P47" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3629,37 +3602,37 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G48" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I48" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J48" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L48" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O48" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P48" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3670,37 +3643,37 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G49" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I49" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J49" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K49" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L49" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O49" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P49" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3711,34 +3684,37 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I50" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J50" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K50" t="s">
-        <v>278</v>
+        <v>271</v>
+      </c>
+      <c r="L50" t="s">
+        <v>276</v>
       </c>
       <c r="O50" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P50" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3749,34 +3725,37 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G51" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J51" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K51" t="s">
-        <v>277</v>
+        <v>272</v>
+      </c>
+      <c r="L51" t="s">
+        <v>276</v>
       </c>
       <c r="O51" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P51" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3787,34 +3766,37 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G52" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="I52" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J52" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K52" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+      <c r="L52" t="s">
+        <v>276</v>
       </c>
       <c r="O52" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P52" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3825,37 +3807,34 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="H53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I53" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J53" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K53" t="s">
-        <v>277</v>
-      </c>
-      <c r="L53" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="O53" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P53" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3866,37 +3845,34 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E54" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="H54" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J54" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K54" t="s">
-        <v>277</v>
-      </c>
-      <c r="L54" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O54" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P54" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3907,37 +3883,34 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="H55" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J55" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K55" t="s">
-        <v>277</v>
-      </c>
-      <c r="L55" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="O55" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P55" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3948,37 +3921,37 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I56" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J56" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K56" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L56" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O56" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P56" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3989,37 +3962,37 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I57" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J57" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K57" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O57" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P57" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4030,34 +4003,37 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G58" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I58" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J58" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K58" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="L58" t="s">
+        <v>275</v>
       </c>
       <c r="O58" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P58" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4068,37 +4044,34 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="H59" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I59" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J59" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K59" t="s">
-        <v>277</v>
-      </c>
-      <c r="L59" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O59" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P59" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4109,37 +4082,37 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I60" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J60" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K60" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L60" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O60" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P60" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4150,37 +4123,37 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I61" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J61" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K61" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L61" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O61" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P61" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4191,37 +4164,37 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G62" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I62" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J62" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K62" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L62" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O62" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P62" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4232,37 +4205,37 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="H63" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I63" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J63" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K63" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L63" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O63" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P63" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4273,37 +4246,37 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I64" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J64" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K64" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L64" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O64" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P64" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4314,37 +4287,37 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I65" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J65" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K65" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L65" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O65" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P65" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4355,37 +4328,37 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I66" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J66" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K66" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L66" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O66" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P66" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4396,37 +4369,37 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I67" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J67" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K67" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L67" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O67" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P67" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4437,37 +4410,37 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I68" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J68" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K68" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L68" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O68" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P68" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4478,37 +4451,37 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G69" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I69" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J69" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K69" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L69" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O69" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P69" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4519,37 +4492,37 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I70" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J70" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K70" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L70" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O70" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P70" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4560,37 +4533,37 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I71" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J71" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K71" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L71" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O71" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P71" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4601,37 +4574,37 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="E72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="H72" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I72" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J72" t="s">
+        <v>268</v>
+      </c>
+      <c r="K72" t="s">
+        <v>271</v>
+      </c>
+      <c r="L72" t="s">
         <v>275</v>
       </c>
-      <c r="K72" t="s">
-        <v>279</v>
-      </c>
-      <c r="L72" t="s">
-        <v>282</v>
-      </c>
       <c r="O72" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P72" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4642,34 +4615,37 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G73" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I73" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J73" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K73" t="s">
-        <v>280</v>
+        <v>274</v>
+      </c>
+      <c r="L73" t="s">
+        <v>276</v>
       </c>
       <c r="O73" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P73" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4680,37 +4656,37 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s">
         <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J74" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K74" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L74" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O74" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P74" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4721,37 +4697,37 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I75" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J75" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K75" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L75" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O75" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P75" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4762,37 +4738,37 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I76" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J76" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K76" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L76" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O76" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P76" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4803,37 +4779,37 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G77" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I77" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J77" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K77" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L77" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O77" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P77" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4844,37 +4820,37 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G78" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I78" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J78" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K78" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L78" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O78" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P78" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4885,37 +4861,37 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G79" t="s">
-        <v>269</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I79" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J79" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K79" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L79" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O79" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P79" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4926,37 +4902,37 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E80" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G80" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I80" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J80" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K80" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L80" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O80" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P80" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4967,78 +4943,37 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E81" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I81" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J81" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K81" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L81" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O81" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P81" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" t="s">
-        <v>176</v>
-      </c>
-      <c r="D82" t="s">
-        <v>252</v>
-      </c>
-      <c r="E82" t="s">
-        <v>254</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" t="s">
-        <v>256</v>
-      </c>
-      <c r="I82" t="s">
-        <v>272</v>
-      </c>
-      <c r="J82" t="s">
-        <v>274</v>
-      </c>
-      <c r="K82" t="s">
-        <v>278</v>
-      </c>
-      <c r="L82" t="s">
-        <v>281</v>
-      </c>
-      <c r="O82" t="s">
-        <v>363</v>
-      </c>
-      <c r="P82" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -82,12 +82,12 @@
     <t>مبانی علوم ریاضی</t>
   </si>
   <si>
+    <t>آمار و احتمال ۱</t>
+  </si>
+  <si>
     <t>نرم‌افزارهای آماری و تحلیل داده‌ها</t>
   </si>
   <si>
-    <t>آمار و احتمال ۱</t>
-  </si>
-  <si>
     <t>برنامه‌نویسی پیشرفته</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>Foundation of Mathematics</t>
   </si>
   <si>
+    <t>Probability and Statistics I</t>
+  </si>
+  <si>
     <t>Statistical Software &amp; data analysis</t>
   </si>
   <si>
-    <t>Probability and Statistics I</t>
-  </si>
-  <si>
     <t>Advanced Programming</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Foundation-of-Mathematics</t>
   </si>
   <si>
+    <t>Probability-and-Statistics-I</t>
+  </si>
+  <si>
     <t>Statistical-Software-and-data-analysis</t>
   </si>
   <si>
-    <t>Probability-and-Statistics-I</t>
-  </si>
-  <si>
     <t>Advanced-Programming</t>
   </si>
   <si>
@@ -871,12 +871,12 @@
     <t>['منطق گزاره ها و جدول ارزش. مجموعه\u200cها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه\u200cهای متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n']</t>
   </si>
   <si>
+    <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز.\n']</t>
+  </si>
+  <si>
     <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای sنمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از نرم افزار اکسل  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز.\n']</t>
-  </si>
-  <si>
     <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tکار با فایل\u200cها\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tحافظه پویا\n', '•\t(درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
   </si>
   <si>
@@ -1102,13 +1102,13 @@
     <t>['در اختیار مدرس\n', '**\n']</t>
   </si>
   <si>
-    <t>['موحد، ضیاء، درآمدی به منطق جدید، انتشارات و آموزش انقلاب اسلامی ، 1379\n', 'ناصر، بردجربان. مبانی و مقدمات علم ریاضی، مرکز نشر پرفسور حسابی، 1377\n', 'سپهری ، محمد رضا. آشنائی با مبانی علوم ریاضی، مرکز نشر آینه، 1390\n', 'Halmos, Paul R. I set theory. Courier Dover Publications, 2017.\n', 'Stewart, Ian, and David Tall. The foundations of mathematics. OUP Oxford, 2015.\n', 'Lin, Shwu-Yeng T., and You-Feng Lin. Set theory with applications. Mancorp Pub, 1985.\n', '**\n']</t>
+    <t>['موحد، ضیاء، درآمدی به منطق جدید، انتشارات و آموزش انقلاب اسلامی ، 1379\n', 'ناصر، بردجربان. مبانی و مقدمات علم ریاضی، مرکز نشر پرفسور حسابی، 1377\n', 'سپهری ، محمد رضا. آشنائی با مبانی علوم ریاضی، مرکز نشر آینه، 1390\n', 'Halmos, Paul R. I set theory. Courier Dover Publications, 2017.\n', 'Stewart, Ian, and David Tall. The foundations of mathematics. OUP Oxford, 2015.\n', 'Lin, Shwu-Yeng T., and You-Feng Lin. Set theory with applications. Mancorp Pub, 1985.\n']</t>
+  </si>
+  <si>
+    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n', '**\n']</t>
   </si>
   <si>
     <t>['1\\. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد. \n', '2\\. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '2\\. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.\n', '3\\. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature. \n', '4\\. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n']</t>
   </si>
   <si>
     <t>['Ivor Horton and Peter Van Weert, Beginning C++17: From Novice to Professional, Apress, 2018\n', 'Ivor Horton and Peter Van Weert, Beginning C++20: From Novice to Professional, Apress, 2020\n', 'P. Deitel, H. Deitel. C++: How to Program. 11th Edition, Pearson Education, 2017.\n']</t>
@@ -2024,7 +2024,7 @@
         <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
         <v>253</v>
@@ -2033,13 +2033,16 @@
         <v>253</v>
       </c>
       <c r="I9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K9" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="L9" t="s">
+        <v>275</v>
       </c>
       <c r="O9" t="s">
         <v>285</v>
@@ -2071,16 +2074,13 @@
         <v>253</v>
       </c>
       <c r="I10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K10" t="s">
-        <v>271</v>
-      </c>
-      <c r="L10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O10" t="s">
         <v>286</v>
@@ -2803,7 +2803,7 @@
         <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
         <v>253</v>
@@ -3046,7 +3046,7 @@
         <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
         <v>253</v>
@@ -3087,7 +3087,7 @@
         <v>252</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
         <v>253</v>
@@ -3125,7 +3125,7 @@
         <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
         <v>253</v>
@@ -3412,7 +3412,7 @@
         <v>252</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
         <v>253</v>
@@ -4255,7 +4255,7 @@
         <v>252</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
         <v>253</v>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="428">
   <si>
     <t>fa_title</t>
   </si>
@@ -73,9 +73,6 @@
     <t>مبانی کامپیوتر و برنامه‌سازی</t>
   </si>
   <si>
-    <t>مبانی اقتصاد</t>
-  </si>
-  <si>
     <t>کارگاه کامپیوتر ۱</t>
   </si>
   <si>
@@ -121,7 +118,10 @@
     <t>مبانی نظریه محاسبه</t>
   </si>
   <si>
-    <t>مبانی ماتریس‌ها و جبر خطی</t>
+    <t>مبانی محاسبات علمی</t>
+  </si>
+  <si>
+    <t>جبر خطی</t>
   </si>
   <si>
     <t>مبانی آنالیز عددی</t>
@@ -136,27 +136,30 @@
     <t>داده‌کاوی مقدماتی</t>
   </si>
   <si>
+    <t>تحلیل آماری داده‌ها</t>
+  </si>
+  <si>
+    <t>سری‌های زمانی کاربردی</t>
+  </si>
+  <si>
+    <t>تحقیق در عملیات</t>
+  </si>
+  <si>
+    <t>بهینه‌سازی غیرخطی</t>
+  </si>
+  <si>
+    <t>طراحی و توسعه کسب و کارهای نوپا</t>
+  </si>
+  <si>
+    <t>مبانی اقتصاد دیجیتال</t>
+  </si>
+  <si>
+    <t>کارآموزی</t>
+  </si>
+  <si>
     <t>هوش مصنوعی</t>
   </si>
   <si>
-    <t>تحلیل آماری داده‌ها</t>
-  </si>
-  <si>
-    <t>سری‌های زمانی کاربردی</t>
-  </si>
-  <si>
-    <t>تحقیق در عملیات</t>
-  </si>
-  <si>
-    <t>بهینه‌سازی غیرخطی</t>
-  </si>
-  <si>
-    <t>کارآموزی</t>
-  </si>
-  <si>
-    <t>جبر خطی عددی</t>
-  </si>
-  <si>
     <t>آمار و احتمال ۲</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t>مبانی کارآفرینی</t>
   </si>
   <si>
-    <t>طراحی و توسعه کسب و کارهای نوپا</t>
-  </si>
-  <si>
     <t>تجارت الکترونیک</t>
   </si>
   <si>
@@ -298,9 +298,6 @@
     <t>مدیریت پروژه‌های فناوری اطلاعات</t>
   </si>
   <si>
-    <t>محاسبات علمی مقدماتی</t>
-  </si>
-  <si>
     <t>Calculus I</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>Fundamentals of Computer Programming</t>
   </si>
   <si>
-    <t>Basics of Economics</t>
-  </si>
-  <si>
     <t>Computer Workshop I</t>
   </si>
   <si>
@@ -361,7 +355,10 @@
     <t>Introduction to the theory of Computation</t>
   </si>
   <si>
-    <t>Foundation of Matrix and Linear Algebra</t>
+    <t>Elementary Scientific Computing</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
   </si>
   <si>
     <t>Foundation of Numerical Analysis</t>
@@ -376,27 +373,30 @@
     <t>Elementary Data Mining</t>
   </si>
   <si>
+    <t>Statistical Data Analysis</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>Operations research</t>
+  </si>
+  <si>
+    <t>Nonlinear Optimization</t>
+  </si>
+  <si>
+    <t>Design and development of start-up businesses</t>
+  </si>
+  <si>
+    <t>Basics of Digital Economics</t>
+  </si>
+  <si>
+    <t>Apprenticeship</t>
+  </si>
+  <si>
     <t>Artificial Intelligence</t>
   </si>
   <si>
-    <t>Statistical Data Analysis</t>
-  </si>
-  <si>
-    <t>Time Series</t>
-  </si>
-  <si>
-    <t>Operations research</t>
-  </si>
-  <si>
-    <t>Nonlinear Optimization</t>
-  </si>
-  <si>
-    <t>Apprenticeship</t>
-  </si>
-  <si>
-    <t>Numerical Linear Algebra</t>
-  </si>
-  <si>
     <t>Probability and Statistics II</t>
   </si>
   <si>
@@ -448,9 +448,6 @@
     <t>Foundations of Entrepreneurship</t>
   </si>
   <si>
-    <t>Design and development of start-up businesses</t>
-  </si>
-  <si>
     <t>Electronic Commerce</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>Information Technology Project Management</t>
   </si>
   <si>
-    <t>Elementary Scientific Computing</t>
-  </si>
-  <si>
     <t>Calculus-I</t>
   </si>
   <si>
@@ -553,9 +547,6 @@
     <t>Fundamentals-of-Computer-Programming</t>
   </si>
   <si>
-    <t>Basics-of-Economics</t>
-  </si>
-  <si>
     <t>Computer-Workshop-I</t>
   </si>
   <si>
@@ -598,7 +589,10 @@
     <t>Introduction-to-the-theory-of-Computation</t>
   </si>
   <si>
-    <t>Foundation-of-Matrix-and-Linear-Algebra</t>
+    <t>Elementary-Scientific-Computing</t>
+  </si>
+  <si>
+    <t>Linear-Algebra</t>
   </si>
   <si>
     <t>Foundation-of-Numerical-Analysis</t>
@@ -613,24 +607,27 @@
     <t>Elementary-Data-Mining</t>
   </si>
   <si>
+    <t>Statistical-Data-Analysis</t>
+  </si>
+  <si>
+    <t>Time-Series</t>
+  </si>
+  <si>
+    <t>Operations-research</t>
+  </si>
+  <si>
+    <t>Nonlinear-Optimization</t>
+  </si>
+  <si>
+    <t>Design-and-development-of-start-up-businesses</t>
+  </si>
+  <si>
+    <t>Basics-of-Digital-Economics</t>
+  </si>
+  <si>
     <t>Artificial-Intelligence</t>
   </si>
   <si>
-    <t>Statistical-Data-Analysis</t>
-  </si>
-  <si>
-    <t>Time-Series</t>
-  </si>
-  <si>
-    <t>Operations-research</t>
-  </si>
-  <si>
-    <t>Nonlinear-Optimization</t>
-  </si>
-  <si>
-    <t>Numerical-Linear-Algebra</t>
-  </si>
-  <si>
     <t>Probability-and-Statistics-II</t>
   </si>
   <si>
@@ -679,9 +676,6 @@
     <t>Foundations-of-Entrepreneurship</t>
   </si>
   <si>
-    <t>Design-and-development-of-start-up-businesses</t>
-  </si>
-  <si>
     <t>Electronic-Commerce</t>
   </si>
   <si>
@@ -763,9 +757,6 @@
     <t>Information-Technology-Project-Management</t>
   </si>
   <si>
-    <t>Elementary-Scientific-Computing</t>
-  </si>
-  <si>
     <t>پایه</t>
   </si>
   <si>
@@ -778,22 +769,22 @@
     <t>ندارد</t>
   </si>
   <si>
-    <t>تحلیل آماری داده‌ها، مبانی ماتریس‌ها و جبر خطی</t>
+    <t>تحلیل آماری داده‌ها، مبانی محاسبات علمی</t>
   </si>
   <si>
     <t>` `اجازه گروه</t>
   </si>
   <si>
-    <t>مبانی جبر، مبانی ماتریس‌ها و جبر خطی</t>
+    <t>مبانی جبر، مبانی محاسبات علمی</t>
   </si>
   <si>
     <t>طراحی و تحلیل الگوریتم‌ها، آمار و احتمال ۱</t>
   </si>
   <si>
-    <t>مبانی ماتریس‌ها و جبر خطی، آمار و احتمال ۱</t>
-  </si>
-  <si>
-    <t>مبانی آنالیز ریاضی، مبانی ماتریس‌ها و جبر خطی</t>
+    <t>مبانی محاسبات علمی، آمار و احتمال ۱</t>
+  </si>
+  <si>
+    <t>مبانی آنالیز ریاضی، مبانی محاسبات علمی</t>
   </si>
   <si>
     <t>اصول سیستم‌های کامپیوتری، اصول سیستم‌های عامل</t>
@@ -814,12 +805,12 @@
     <t>3</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>نظری</t>
   </si>
   <si>
@@ -859,10 +850,7 @@
     <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n']</t>
   </si>
   <si>
-    <t>['مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، کلاسها (به صورت مختصر)، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، عملیات ریاضی نمادین با SymPy، مستندسازی، PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
-  </si>
-  <si>
-    <t>['اقتصاد: مبانی و مدل ها. معاملات، مزیت مقایسه ای و سیستم بازار. قیمت ها از کجا می آیند: تعادل تقاضا و عرضه. بهره وری اقتصادی ، تعیین قیمت و مالیات ها. سیاست های زیست محیطی و خدمات عمومی. انعطاف پذیری: پاسخگویی تقاضا. شرکت ها، بازار سهام و حاکمیت شرکتی. انتخاب مصرف کننده و اقتصاد رفتاری. فناوری ، تولید و هزینه ها. شرکت ها در بازارهای کاملاً رقابتی. سیاست انحصاری و ضد انحصاری.\n']</t>
+    <t>['مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، کلاسها (به صورت مختصر)، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، آشنایی با ، مستندسازی و کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
   </si>
   <si>
     <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '- **آشنایی مقدماتی با تهیه اسناد کامپیوتری**\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- **آشنایی مقدماتی با مجموعه میکروسافت آفیس**\n', '- **آشنایی با سرویس\u200cهای کاربردی**\n', 'سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- **آشنایی با سیستم عامل لینوکس**\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX\n', 'دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n']</t>
@@ -910,7 +898,10 @@
     <t>['اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n']</t>
   </si>
   <si>
-    <t>['دستگاه معادلات خطی و ماتریسها. دترمینان. فضای برداری. فضای ضرب داخلی. تبدیل خطی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون.\n']</t>
+    <t>['دستگاه معادلات خطی و ماتریسها. دترمینان. فضای برداری. فضای ضرب داخلی. تبدیل خطی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون. نرم برداری و ماتریسی. حل دستگاه های خطی و تجزیه LU. تحلیل حساسیت دستگاههای خطی. روش گاوس با محورگیری جزئی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها.\n', 'پیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی\n']</t>
+  </si>
+  <si>
+    <t>['~~سیستم\u200cهای ممیز شناور ( آشنایی با استانداردهای IEEE) و معرفی رند عدد یک.~~\n', '~~خطای نمایش، خطرات آن و نحوه کنترل آن، نحوه محاسبات توابع پایه با سیستم ممیز شناور، پیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی علمی الگوریتم\u200cهای منتخب عددی با انتخاب استاد و مستندسازی نرم\u200cافزارهای علمی~~\n', '**\n']</t>
   </si>
   <si>
     <t>['منابع خطا، سیستم\u200cهای نمایشی اعداد، خطای رندکردن و تحلیل آن. ریشه\u200cیابی توابع و دستگاههای غیر خطی. درون\u200cیابی. تقریب کمترین مربعات. مشتق\u200cگیری عددی. انتگرال\u200cگیری عددی. حل دستگاه\u200cهای خطی.\n']</t>
@@ -925,9 +916,6 @@
     <t>['مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پیش پردازش و آماده سازی داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استاندارد سازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', 'تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی \n', 'روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، میانگین متحرک، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', 'شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی، معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحلیل آنها بوسیله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با حوزه\u200cی یادگیری ماشین اشتراک دارد، در این برنامه درسی سعی شده است که هم\u200cپوشانی مطالب کمینه باشد. شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
   </si>
   <si>
-    <t>['تاریخچه و کاربرد هوش مصنوعی. توسعه عاملهای هوشمند واکنشی، مدل گرا، هدف گرا و سودمند. روشهای جستجوی فضای حالت مساله به صورت ناآگاهانه. جستجوی \\*A. زنجیره مارکوف. شبکه\u200cهای باور. جستجوی هیوریستیک، تپه نوردی، پرتوی محلی. الگوریتم ژنتیک. بازیها و جستجوی تخاصمی. مسائل ارضای محدودیت. عاملهای منطقی. طرح ریزی مساله. عدم قطعیت در مسائل هوش مصنوعی. بازنمایی دانش در هوش مصنوعی. کاربردهای هوش مصنوعی. آشنایی با سیستم\u200cهای خبره.\n']</t>
-  </si>
-  <si>
     <t>['جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری، بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، مقدمه ای بر سری های زمانی، تحلیل واریانس\n']</t>
   </si>
   <si>
@@ -940,10 +928,16 @@
     <t>['مدل سازی شامل: کاربردهایی از بهینه سازی محدب مانند طبقه بندی خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل های سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازی، شرایط لازم و کافی برای مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهای حل مسایل نامقید شامل: روشهای بر مبنای جستجوی خطی( جستجوی طلایی، فیبوناچی، عقب گرد)، روشهای گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش های گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازی درجه دوم محدب با قیود خطی و معرفی برخی روش های حل آن ؛ الگوریتم\u200cهای حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازی الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n']</t>
   </si>
   <si>
+    <t>['•\tکسب و کارهای نوپا، به ویژه کسب و کارهای نوپای ناب\n', '•\tارزیابی خطر \n', '•\tارزیابی منابع \n', '•\tتحلیل بازار \n', '•\tتحلیل مالی \n', '•\tارزش پیشنهادی\n', '•\tفرآیند توسعه مشتری \n', '•\tتفکر طراحی\n', '•\tمهارت های کار تیمی و گروهی \n', '•\tقوانین داخلی و بین المللی کسب و کار  \n', '•\tمهارت ها و روش های توسعه نرم افزار \n', '•\tمعرفی کارآفرینان موفق در ایران و دنیا \n', '•\tمعرفی موفقیت ها و شکست های بزرگ در راه اندازی کسب و کارهای نوپا \n', '•\tسخنرانی های شخصیت های موفق در ایجاد کسب و کارهای نوپا\n']</t>
+  </si>
+  <si>
+    <t>['اقتصاد: مبانی و مدل ها. معاملات، مزیت مقایسه ای و سیستم بازار. قیمت ها از کجا می آیند: تعادل تقاضا و عرضه. بهره وری اقتصادی ، تعیین قیمت و مالیات ها. سیاست های زیست محیطی و خدمات عمومی. انعطاف پذیری: پاسخگویی تقاضا. شرکت ها، بازار سهام و حاکمیت شرکتی. انتخاب مصرف کننده و اقتصاد رفتاری. فناوری ، تولید و هزینه ها. شرکت ها در بازارهای کاملاً رقابتی. سیاست انحصاری و ضد انحصاری.\n', 'اشاره\u200cای به رمزارزها و بلاکچین\n']</t>
+  </si>
+  <si>
     <t>['**محتوای کارآموزی برای هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n']</t>
   </si>
   <si>
-    <t>['مروری بر مقدمات جبر خطی و مبانی ماتریس ها. ضرب داخلی. نرم برداری و ماتریسی. حل دستگاه های خطی و تجزیه LU. تحلیل حساسیت دستگاههای خطی. روش گاوس با محورگیری جزئی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها.\n']</t>
+    <t>['مقدمه\u200cای بر هوش مصنوعی و تاریخچه\u200cی آن، معرفی عامل\u200cهای هوشمند، جست\u200cوجوی ناآگاهانه، جست\u200cوجوی اول-سطح  و جستجوی اول-عمق، جست\u200cوجوی عمق بخشی تکراری، جست\u200cوجوی هزینه-یکنواخت، جست\u200cوجوی آگاهانه، توابع ابتکاری قابل قبول  و سازگار، جست\u200cوجوی اول بهترین حریصانه، الگوریتم \\*A و اثبات بهینگی، خودکارسازی تولید توابع ابتکاری، جست\u200cوجوی محلی، تپه\u200cنوردی، شبیه\u200cسازی ذوب، جست\u200cوجوی شعاعی محلی  و الگوریتم ژنتیک، جستجوی محلی در فضای پیوسته: روش کاهش در راستای گرادیان، مسائل ارضای محدودیت، جست\u200cوجوی عقبگرد، استفاده از تکنیک\u200cهایی نظیر LCV، MRV، بررسی جلورو\u200c، MAC، AC3، حل مسائل CSP با رویکرد جستجوی محلی، جستجوی مقابله\u200cای، الگوریتم minimax و هرس آلفا-بتا، الگوریتم expectiminimax، فرایند تصمیم مارکوف، ارزیابی سیاست  و بهبود  سیاست، روش تکرار ارزش  و تکرار سیاست، یادگیری تقویتی، روش\u200cهای مبتنی بر مدل، یادگیری تفاضل زمانی  و الگوریتم Q-learning، منطق، منطق گزاره\u200cای  و استنتاج  در منطق گزاره\u200cای )، منطق مرتبه اول  و استنتاج در منطق مرتبه اول، معرفی شبکه\u200cهای بیزین، بازنمایی  در شبکه\u200cهای بیزین و استقلال  در این شبکه\u200cها، استنتاج در شبکه\u200cهای بیزین: استنتاج دقیق و استنتاج تقریبی با استفاده از نمونه برداری، تخمین پارامترها در شبکه\u200cهای بیزین، نمونه\u200cهای معروف و کاربردی از شبکه\u200cهای بیزین: مدل مارکوف، مدل مخفی مارکوف، دسته\u200cبند بیز ساده.\n']</t>
   </si>
   <si>
     <t>['توزیعهای توام: تابع احتمال، تابع چگالی و تابع توزیع توام، متغیرهای تصادفی مستقل، کواریانس، ضریب همبستگی، مثال هایی از توزیع های توام خاص. توزیع های شرطی: توزیع های شرطی گسسته، توزیع های شرطی پیوسته، کاربرد توزیع های شرطی، امید ریاضی شرطی و کاربردهای آن شامل امید کل، واریانس شرطی. توزیع توابعی از متغیرهای تصادفی: روش تابع توزیع، روش تغییر متغیرها (دو یا چند متغیره)، روش تابع مولد گشتاور، توزیع مجموع متغیرهای تصادفی، مجموع تعداد تصادفی از متغیرهای تصادفی، امید ریاضی مجموع تعداد تصادفی از متغیرهای تصادفی. قضیه حد مرکزی و تقریب دوجمله ای توسط نرمال، تقریب پواسن به نرمال. آمار توصیفی: نمونه، جامعه آماری، شاخصهای آماری، نمودارهای آماری. نمونه تصادفی، توزیع میانگین نمونه ای، توزیع های نمونه ای، تی استودنت، کای-دو و توزیع فیشر. روشهای برآوردیابی پارامترهای نامعلوم: برآوردیابی نقطه ای، برآورد فاصله ای، فاصله اطمینان با اندازه نمونه\u200cهای بزرگ. آشنایی با مفاهیم آزمون فرضها: آزمون فرضهای ساده، آزمون فرض های یک طرفه، آزمون فرض های دوطرفه، آزمون واریانس جمعیت نرمال، آزمون میانگین و نسبت با اندازه نمونه های بزرگ، استنباط در مورد دو میانگین، استنباط در مورد جفت مشاهدات، آزمون میانگین و نسبت دو جمعیت با اندازه نمونه های بزرگ.\n']</t>
@@ -997,9 +991,6 @@
     <t>['تاریخچه کارآفرینی، مفاهیم کارآفرینی و انواع آن. انواع کسب وکار و مبانی و اصول کسب وکار. مبانی بازار و مدیریت بازار. داستان\u200cهای موفقیت و شکست کارآفرینان و قهرمانان توسعه. ارزیابی امکان سنجی و انتخاب ایده کارآفرینی. چارچوب طرح کسب وکار. طراحی جداول و محاسبات طرح کسب وکار. مراحل ثبت و تأسیس شرکت و آشنایی با انواع شرکت\u200cها. مبانی کسب وکار در اقتصاد ایران و کلیات قوانین تجارت در ایران. تجربیات موفق کارآفرینان ایرانی. مهارت\u200cهای کارآفرینی: کار گروهی، مدیریت منابع، مدیریت مالی، ارتباطات و …. برنامه ریزی و سازماندهی کسب وکار. راه\u200cاندازی کسب وکار، تولید، کنترل کیفیت و کنترل هزینه ها. بازاریابی، فروش و ارتباط با مشتری.\n']</t>
   </si>
   <si>
-    <t>['•\tکسب و کارهای نوپا، به ویژه کسب و کارهای نوپای ناب\n', '•\tارزیابی خطر \n', '•\tارزیابی منابع \n', '•\tتحلیل بازار \n', '•\tتحلیل مالی \n', '•\tارزش پیشنهادی\n', '•\tفرآیند توسعه مشتری \n', '•\tتفکر طراحی\n', '•\tمهارت های کار تیمی و گروهی \n', '•\tقوانین داخلی و بین المللی کسب و کار  \n', '•\tمهارت ها و روش های توسعه نرم افزار \n', '•\tمعرفی کارآفرینان موفق در ایران و دنیا \n', '•\tمعرفی موفقیت ها و شکست های بزرگ در راه اندازی کسب و کارهای نوپا \n', '•\tسخنرانی های شخصیت های موفق در ایجاد کسب و کارهای نوپا\n']</t>
-  </si>
-  <si>
     <t>['مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n']</t>
   </si>
   <si>
@@ -1021,7 +1012,7 @@
     <t>['نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n']</t>
   </si>
   <si>
-    <t>['حبر خطی و فضاهای هیلبرت: یادآوری فضاهای برداری و خواص آن، ضرب داخلی و تعامد، عملگرهای خطی و خود الحاق روی فضای ضرب داخلی، فضاهای هیلبرت، دنباله ها و سری ها در فضای هیلبرت، پایه های متعامد؛ سری فوریه: دیدگاه های تاریخی، تحلیل سیگنال و مثال های متنوع، سری فوریه و قضایای همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی های تبدیل فوریه، تبدیل فوریه در فضاهای اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهای آن؛ موجک ها:  سیستم های هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه های موجکی، تبدیل های گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n']</t>
+    <t>['جبر خطی و فضاهای هیلبرت: یادآوری فضاهای برداری و خواص آن، ضرب داخلی و تعامد، عملگرهای خطی و خود الحاق روی فضای ضرب داخلی، فضاهای هیلبرت، دنباله ها و سری ها در فضای هیلبرت، پایه های متعامد؛ سری فوریه: دیدگاه های تاریخی، تحلیل سیگنال و مثال های متنوع، سری فوریه و قضایای همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی های تبدیل فوریه، تبدیل فوریه در فضاهای اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهای آن؛ موجک ها:  سیستم های هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه های موجکی، تبدیل های گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n']</t>
   </si>
   <si>
     <t>['مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n']</t>
@@ -1069,7 +1060,7 @@
     <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
   </si>
   <si>
-    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: &lt;a name="_hlk86305627"&gt;&lt;/a&gt;شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n']</t>
+    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n']</t>
   </si>
   <si>
     <t>['1- آشنایی با مفاهیم رایانش ابری، مدلهای مختلف استقرار و سرویس دهی 2- آشنایی با معماری مرجع رایانش ابری 3- آشنایی با مفاهیم مجازی سازی در سطح سخت افزار، در سطح سیستم عامل و در سطح زبان برنامه\u200cنویسی 4- آشنایی با مدلهای مختلف برنامه\u200cنویسی ابر مانند مدل کیسه وظایف، جریانهای کاری، مدل ریزخدمت 5- آشنایی با مفاهیم تحلیل داده\u200cهای عظیم و امکانات ابری برای پردازش این نوع داده\u200cها همچون: سیستم فایل توزیع شده مانند HDFS، پایگاه داده\u200cهای NoSQL همانند HBase، مدلهای برنامه\u200cنویسی مانند Map-Reduce، پردازش گرافی مانند Giraph و پردازش جریانی همانند Storm 6- آشنایی با مدیریت منابع و زمانبندی در ابر روشهای مختلف زمانبندی وظایف مستقل و جریانهای کاری 7- آشنایی با محاسبات ابری سبز و روشهای برقراری آن 8- آشنایی با مدلهای بین ابری همانند ابر متحد شده و چند ابری و تفاوتهای آنها، و آشنایی با مفهوم کارگزاری ابر 9- آشنایی با مفهوم محاسبات لبه ای و ارتباط آن با رایانش ابری، محاسبات ابری متحرک و انواع آن و محاسبات مهی\n']</t>
@@ -1084,9 +1075,6 @@
     <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n']</t>
   </si>
   <si>
-    <t>['سیستم\u200cهای ممیز شناور ( آشنایی با استانداردهای IEEE) و معرفی رند عدد یک.\n', 'خطای نمایش، خطرات آن و نحوه کنترل آن، نحوه محاسبات توابع پایه با سیستم ممیز شناور، پیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی علمی الگوریتم\u200cهای منتخب عددی با انتخاب استاد و مستندسازی نرم\u200cافزارهای علمی\n', '**\n']</t>
-  </si>
-  <si>
     <t>['کتاب حساب دیفرانسیل و انتگرال تالیف جیمز استوارت – ترجمه ارشک حمیدی ویراست حداقل 6\n', '` `کتاب حساب دیفرانسیل و انتگرال و هندسه تحلیلی، تالیف توماس فینی – ویر، ویرایش حداقل ۹\n', 'سیاوش شهشهانی، "حساب دیفرانسیل و انتگرال"، جلد اول، ویراست دوم، انتشارات فاطمی، ۱۳۹۶.\n', 'Robert A. Adams and Cristopher Essex. Calculus, A Complete Course. 9th Edition, Pearson, 2018.\n', 'James Stewart. Calculus. 8th Edition, Cengage learning, 2016.\n']</t>
   </si>
   <si>
@@ -1096,19 +1084,16 @@
     <t>['1. Eric Matthes, Python Crash Course: A Hands-On, Project-Based Introduction to Programming, No Starch Press, 2019\n', '1. Allen Downey, Think Python, How to Think Like a Computer Scientist, 2nd Edition, Green Tea Press, 2015\n', '1. P. Wentworth, J. Elkner, A. B. Downey, C. Meyers. How to Think Like a Computer Scientist: Learning with Python. 3rd Edition, Open Book Project, 2011.\n', '1. J. Campbell, P. Gries, J. Montojo, G. Wilson. Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf, 2009.\n', '1. J. M. Zelle. Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates, 2004.\n', '1. Micha Gorelick and Ian Ozsvald, High-Performance-Python, y O’Reilly Media, Inc., 2014\n', '1. Learning Python\xa0by Mark Lutz\n', '1. Head First Programming\xa0by Paul Barry and David Griffiths\n', '1. Python Programming: A Complete Guide For Beginners To Master And Become An Expert\xa0by Brian Draper\n', '1. [Introduction To Computer Science And Programming In Python](https://ocw.mit.edu/courses/6-0001-introduction-to-computer-science-and-programming-in-python-fall-2016/pages/lecture-slides-code/), MIT Open Courseware\n', '1. Some other references: &lt;https://github.com/ambadidi/Python-Books&gt;\n']</t>
   </si>
   <si>
-    <t>['&lt;a name="_hlk932247371"&gt;&lt;/a&gt;O’Sullivan, A., Sheffrin, S., &amp; Perez, S., Survey of Economics: Principles, Applications, and Tools, 8th Edition, Boston: Pearson, 2019.\n']</t>
-  </si>
-  <si>
     <t>['در اختیار مدرس\n', '**\n']</t>
   </si>
   <si>
     <t>['موحد، ضیاء، درآمدی به منطق جدید، انتشارات و آموزش انقلاب اسلامی ، 1379\n', 'ناصر، بردجربان. مبانی و مقدمات علم ریاضی، مرکز نشر پرفسور حسابی، 1377\n', 'سپهری ، محمد رضا. آشنائی با مبانی علوم ریاضی، مرکز نشر آینه، 1390\n', 'Halmos, Paul R. I set theory. Courier Dover Publications, 2017.\n', 'Stewart, Ian, and David Tall. The foundations of mathematics. OUP Oxford, 2015.\n', 'Lin, Shwu-Yeng T., and You-Feng Lin. Set theory with applications. Mancorp Pub, 1985.\n']</t>
   </si>
   <si>
-    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['1\\. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد. \n', '2\\. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '2\\. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.\n', '3\\. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature. \n', '4\\. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
+    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.de946f22-5e14-463b-886e-7cedea980546.007.png)\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['\\1. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد. \n', '\\2. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '\\2. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.\n', '\\3. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature. \n', '\\4. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
   </si>
   <si>
     <t>['Ivor Horton and Peter Van Weert, Beginning C++17: From Novice to Professional, Apress, 2018\n', 'Ivor Horton and Peter Van Weert, Beginning C++20: From Novice to Professional, Apress, 2020\n', 'P. Deitel, H. Deitel. C++: How to Program. 11th Edition, Pearson Education, 2017.\n']</t>
@@ -1144,7 +1129,10 @@
     <t>['Sipser, Michael. Introduction to the Theory of Computation. Cengage learning, 2012.\n', 'G. Boolos, J. Burgess, and R. Jeffrey. Computability and Logic. 5th Edition, Cambridge University Press, 2007.\n', 'D. Kozen. Theory of Computation. Springer, 2006.\n', 'S. Hedman. A First Course in Logic: An introduction to model theory, proof theory, computability, and complexity. Oxford University Press, 2004.\n']</t>
   </si>
   <si>
-    <t>['Axler, S., Linear algebra done right. Springer, 2015.\n', 'منصور واعظ پور، جبر خطی و ماتریس ها، انتشارات دانشگاه یزد، 1393.\n', 'Theodore Shifrin , Multivariable Mathematics, Linear Algebra, Multivariable Calculus, and Manifolds, Wiley, 2005\n']</t>
+    <t>['Stephen Boyd and Lieven Vandenberghe, Introduction to Applied Linear Algebra: Vectors, Matrices, and Least Squares, 2018\n', 'Axler, S., Linear algebra done right. Springer, 2015.\n', "Scientific Computing with Case Studies, By Dianne P. O'Leary, 2009\n", 'منصور واعظ پور، جبر خطی و ماتریس ها، انتشارات دانشگاه یزد، 1393.\n', 'جبر خطی با متلب، دکتر کرایچیان\n', 'Theodore Shifrin , Multivariable Mathematics, Linear Algebra, Multivariable Calculus, and Manifolds, Wiley, 2005\n', 'Datta, B. N., Numerical linear algebra and applications (Vol. 116). SIAM, 2010.\n', 'Trefethen, L. N., &amp; Bau III, D., Numerical linear algebra (Vol. 50). SIAM, 1997.\n']</t>
+  </si>
+  <si>
+    <t>['Stephen Boyd and Lieven Vandenberghe, Introduction to Applied Linear Algebra: Vectors, Matrices, and Least Squares, 2018\n', 'Axler, S., Linear algebra done right. Springer, 2015.\n']</t>
   </si>
   <si>
     <t>['Burden, R. L., &amp; Faires, J. D., Solutions of equations in one variable the bisection\n', 'method. Brooks/Cole, Cengage Learning, 2011.\n', 'Dahlquist, G., &amp; Björck, Å., Numerical methods in scientific computing, volume I. Society for Industrial and Applied Mathematics, 2008.\n', 'Süli, E., &amp; Mayers, D. F., An introduction to numerical analysis. Cambridge university press, 2003.\n', 'Hildebrand, F. B., Introduction to numerical analysis. Courier Corporation, 1987.\n', 'Stoer, J., &amp; Bulirsch, R., Introduction to numerical analysis (Vol. 12). Springer Science &amp;\n', 'Business Media, 2013\n']</t>
@@ -1153,40 +1141,43 @@
     <t>['` `مجید میرزا وزیری، فضاهای متریک با طعم توپولوژی، انتشارات دانشگاه فردوسی مشهد، چاپ سوم، 1\n', 'Rudin, W., Principles of mathematical analysis (Vol. 3). New York: McGraw-hill, 1964.\n', 'Gordon, R. A., Real Analysis: A first course. Addison Wesley, 2001.\n']</t>
   </si>
   <si>
-    <t>['1\\. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان کتاب اصلی -کتاب زیر- قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '2. Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.**\n']</t>
+    <t>['\\1. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان کتاب اصلی -کتاب زیر- قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '2. Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.**\n']</t>
   </si>
   <si>
     <t>['` `شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دکتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', 'مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', 'زینل همدانی، علی (1394). دانشیابی داده\u200cها ( مقدمه ای بر داده کاوی)، انتشارات دانشگاه صنعتی اصفهان. \n', 'Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', 'Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', 'Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', 'Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', 'Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.\n']</t>
   </si>
   <si>
+    <t>['Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Peter Bruce, Andrew Bruce, Peter Gedeck, Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python, 2nd Edition, O’Reilly Media, Inc, 2020\n', "Dawn Griffiths, Head First Statistics, O'Reilly Media, Inc, 2008\n", 'Charles Wheelan, Naked Statistics: Stripping the Dread from the Data, 2012\n', 'STATISTICS FOR BEGINNERS IN DATA SCIENCE, Theory and Applications of\n', 'Essential Statistics Concepts using Python, AI PUBLISHING\n']</t>
+  </si>
+  <si>
+    <t>['براکول، پ. و دیویس، ر.ا. (۱۳۸۴) مقدمهای بر سریهای زمانی و پیشبینی، ترجمه محمد امینی، ابوالقاسم بزرگ نیا و محمدحسین دهقان، چاپ دوم، انتشارات دانشگاه سیستان و بلوچستان. \n', 'چتفیلد، ک. (۱۹۹۶) . مقدمهای بر تحلیل سریهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، دانشگاه فردوسی مشهد.\n', 'ترجمه محمدرضا مشکانی، ،R کرایر، ج.د.؛ سیک چن، ک. (۱۳۹۲)  تجزیه\u200cوتحلیل سریهای زمانی با استفاده از نرم\u200cافزار، مرکز نشر دانشگاهی.\n']</t>
+  </si>
+  <si>
+    <t>['1 .برتسیماس، سیتسیکلیس، مقدمه ای بر بهینه سازی خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا، 1394.\n', '2 .حمدی طه، آشنایی با تحقیق در عملیات: برنامه ریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی، 1387.\n', '3 .وینستون، تحقیق در عملیات، برنامه\u200cریزی خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران، 1380.\n', '4 .بازارا، جارویس، شرالی، برنامه ریزی خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی، 1392.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['1. د. ج. لوئنبرگر، برنامه\u200cریزی خطی و غیرخطی، ترجمه نظام\u200cالدین مهدوی امیری و محمدحسین پور کاظمی، دانشگاه صنعتی شریف، ۱۳۹۲.\n', '1. M. Bazaraa, H.D. Sherali, C.M. Shetty, *Nonlinear Programming: Theory and Algorithms*, 3rd edition, John Wiley &amp; Sons, 2006.\n', '1. Stephen Boyd and Lieven Vandenberghe.\xa0*Convex optimization*. Cambridge university press, 2004.\n', '1. E.K.P. Chong, S.H. Zak, An Introduction to Optimization, 4th edition, Wiley, 2013.\n', '1. 4. I. Griva, S.G. Nash, A. Sofer, Linear and Nonlinear Optimization, 2nd edition, SIAM, 2009.\n', '1. Jorge Nocedal and Stephen Wright.\xa0*Numerical optimization*. Springer Series in Operations Research and Financial Engineering, 2nd edition, 2006.\n', '1. *Convex Optimization*\xa0taught by Ryan Tibshirani at CMU from 2013 to 2019.\n', '1. S.S. RAO: Optimization: Theory and Applications, August 9, 1978, John Wiley and Sons\n']</t>
+  </si>
+  <si>
+    <t>['منابع آزاد با نظر استاد درس\n']</t>
+  </si>
+  <si>
+    <t>['O’Sullivan, A., Sheffrin, S., &amp; Perez, S., Survey of Economics: Principles, Applications, and Tools, 8th Edition, Boston: Pearson, 2019.\n']</t>
+  </si>
+  <si>
+    <t>['با نظر مدرس درس\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.de946f22-5e14-463b-886e-7cedea980546.008.png)\n']</t>
+  </si>
+  <si>
     <t>['Russell, S., &amp; Norvig, P., Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES, 2020.\n']</t>
   </si>
   <si>
-    <t>['Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Peter Bruce, Andrew Bruce, Peter Gedeck, Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python, 2nd Edition, O’Reilly Media, Inc, 2020\n', "Dawn Griffiths, Head First Statistics, O'Reilly Media, Inc, 2008\n", 'Charles Wheelan, Naked Statistics: Stripping the Dread from the Data, 2012\n', 'STATISTICS FOR BEGINNERS IN DATA SCIENCE, Theory and Applications of\n', 'Essential Statistics Concepts using Python, AI PUBLISHING\n']</t>
-  </si>
-  <si>
-    <t>['براکول، پ. و دیویس، ر.ا. (۱۳۸۴) مقدمهای بر سریهای زمانی و پیشبینی، ترجمه محمد امینی، ابوالقاسم بزرگ نیا و محمدحسین دهقان، چاپ دوم، انتشارات دانشگاه سیستان و بلوچستان. \n', 'چتفیلد، ک. (۱۹۹۶) . مقدمهای بر تحلیل سریهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، دانشگاه فردوسی مشهد.\n', 'ترجمه محمدرضا مشکانی، ،R کرایر، ج.د.؛ سیک چن، ک. (۱۳۹۲)  تجزیه\u200cوتحلیل سریهای زمانی با استفاده از نرم\u200cافزار، مرکز نشر دانشگاهی.\n']</t>
-  </si>
-  <si>
-    <t>['1 .برتسیماس، سیتسیکلیس، مقدمه ای بر بهینه سازی خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا، 1394.\n', '2 .حمدی طه، آشنایی با تحقیق در عملیات: برنامه ریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی، 1387.\n', '3 .وینستون، تحقیق در عملیات، برنامه\u200cریزی خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران، 1380.\n', '4 .بازارا، جارویس، شرالی، برنامه ریزی خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی، 1392.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['1. د. ج. لوئنبرگر، برنامه\u200cریزی خطی و غیرخطی، ترجمه نظام\u200cالدین مهدوی امیری و محمدحسین پور کاظمی، دانشگاه صنعتی شریف، ۱۳۹۲.\n', '1. M. Bazaraa, H.D. Sherali, C.M. Shetty, *Nonlinear Programming: Theory and Algorithms*, 3rd edition, John Wiley &amp; Sons, 2006.\n', '1. Stephen Boyd and Lieven Vandenberghe.\xa0*Convex optimization*. Cambridge university press, 2004.\n', '1. E.K.P. Chong, S.H. Zak, An Introduction to Optimization, 4th edition, Wiley, 2013.\n', '1. 4. I. Griva, S.G. Nash, A. Sofer, Linear and Nonlinear Optimization, 2nd edition, SIAM, 2009.\n', '1. Jorge Nocedal and Stephen Wright.\xa0*Numerical optimization*. Springer Series in Operations Research and Financial Engineering, 2nd edition, 2006.\n', '1. *Convex Optimization*\xa0taught by Ryan Tibshirani at CMU from 2013 to 2019.\n', '1. S.S. RAO: Optimization: Theory and Applications, August 9, 1978, John Wiley and Sons\n']</t>
-  </si>
-  <si>
-    <t>['با نظر مدرس درس\n']</t>
-  </si>
-  <si>
-    <t>['Datta, B. N., Numerical linear algebra and applications (Vol. 116). SIAM, 2010.\n', 'Trefethen, L. N., &amp; Bau III, D., Numerical linear algebra (Vol. 50). SIAM, 1997.\n']</t>
-  </si>
-  <si>
     <t>['ن. نعمت الهی، آمار و احتمالات مهندسی، انتشارات دلفک، 1394.\n', 'ش. م. راس، مقدمهای بر آمار و احتمال (برای دانشجویان مهندسی و علوم)، ترجمه مجید اسدی و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1382.\n', 'ج. بهبودیان، آمار و احتمال مقدماتی، انتشارات دانشگاه امام رضا (ع)، 1383.\n', 'س. قهرمانی، مبانی احتمال، ترجمه غلامحسین شاهکار و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1390.\n', 'G. G. Roussas, Introduction to probability, 2nd Edition, Academic Press, 2014.\n']</t>
   </si>
   <si>
-    <t>['گیونز، جف\u200c اچ\u200c. (1393). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '1\\. Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '2\\.Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '3\\. Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
-  </si>
-  <si>
-    <t>['1\\. نعمت اللهی، نادر ( 1397). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '2\\. جانسون، ر. آ. و  باتاچاریا، گ.، (1388).  آمار اصول و روش ها، جلد 1 و 2، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '3\\. ووناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '4\\. بهبودیان، ج.، آمار و احتمال مقدماتی (1394).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '5\\. طاهری، س.م. (1399). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '6\\. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '7\\. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
+    <t>['گیونز، جف\u200c اچ\u200c. (1393). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '\\1. Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '2.Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '\\3. Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. نعمت اللهی، نادر ( 1397). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (1388).  آمار اصول و روش ها، جلد 1 و 2، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (1394).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (1399). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
   </si>
   <si>
     <t>['Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', 'Cooper, S. Barry. Computability theory. CRC Press, 2003.\n', 'M. Divis, R. Sigal, E. Weyuker, Computability, Complexity, and Languages. 2nd Edition, Academic Press, 1997. \n']</t>
@@ -1207,7 +1198,7 @@
     <t>['G. Winskel, The Formal Semantics of Programming Languages An Introduction, The MIT Press, 1994\n']</t>
   </si>
   <si>
-    <t>['1\\. عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '2\\. عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '3\\. سوری، علی. (1400). نظریه بازی\u200cها و کاربردهای اقتصادی، انتشارات نور علم.\n', '5\\. زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '1\\. Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
+    <t>['\\1. عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '\\2. عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '\\3. سوری، علی. (1400). نظریه بازی\u200cها و کاربردهای اقتصادی، انتشارات نور علم.\n', '\\5. زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '\\1. Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
   </si>
   <si>
     <t>['R. Motwani and P. Raghavan. Randomized Algorithms. Cambridge University Press, 1995.\n', 'J. Matoušek and J. Vondrák. The Probabilistic Method. Lecture Notes, Department of Applied Mathematics, Charles University, Prague, 2001.\n', 'M. Mitzenmacher and E. Upfa. Probability and Computing: Randomized Algorithms and Probabilistic Analysis. Cambridge University Press, 2005.\n']</t>
@@ -1216,28 +1207,25 @@
     <t>['M. de Berg, O. Cheong, M. van Kreveld, and M. Overmars. Computational Geometry: Algorithms and Applications. 3rd edition, Springer-Verlag, 2008.\n', "J. O'Rourke. Computational Geometry in C. 2nd edition, Cambridge University Press, 1998.\n", 'Jean-Daniel Boissonnat and Mariette Yvinec, Algorithmic Geometry, Cambridge Univ. Press, 1998. \n', "Satyan L. Devadoss and Joseph O'Rourke, Discrete and Computational Geometry, Princeton Univ. Press, 2011.\n", 'Herbert Edelsbrunner, Algorithms in Combinatorial Geometry, Springer, 1987. \n', "Jacob E. Goodman, Joseph O'Rourke, and Csaba D. Tóth (editors), Handbook of Discrete and Computational Geometry, 3rd edition, CRC Press, 2017.\n", 'Sariel Har-Peled, Geometric Approximation Algorithms, AMS Press, 2011. Early draft and additional material available as PDF files.\n', 'Jiří Matoušek, Lectures on Discrete Geometry, Springer, 2002.\n', "Joseph O'Rourke, Computational Geometry in C, Second Edition, Cambridge Univ. Press, 1998.\n", 'Franco P. Preparata and Michael Ian Shamos, Computational Geometry: An Introduction, Springer, 1985\n']</t>
   </si>
   <si>
-    <t>['1-مونتگمری، د.،  پک، آ و جافری، و. (1395). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '2\\. امینی، م. زمانی، ح. روزبه، م.  (1398). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '1. Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '1. Olive, D. (2017). Linear Regression, Springer.\n', '1. Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '1. Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '1. Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n']</t>
+    <t>['1-مونتگمری، د.،  پک، آ و جافری، و. (1395). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '\\2. امینی، م. زمانی، ح. روزبه، م.  (1398). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '1. Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '1. Olive, D. (2017). Linear Regression, Springer.\n', '1. Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '1. Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '1. Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n']</t>
   </si>
   <si>
     <t>['1. J. M. Keller, D. Liu and D. B. Fogel, Fundamentals of Computational Intelligence: Neural Networks, Fuzzy Systems and Evolutionary Computation, Wiley, 2016. \n', '1. P. Engelbrecht, Computational Intelligence: An Introduction, Wiley, 2007.\n', '1. Konar, Computational Intelligence: Principles, Techniques and Applications, Springer, 2007.\n']</t>
   </si>
   <si>
-    <t>['تارخ، محمد جعفر و مهاجری، حسین (1392). هوش تجاری نگرشی پویا در عرصه کسب و کار، انتشارات دانشگاه خواجه نصیر. \n', '1\\.Vercellis, C. (2011).\xa0Business intelligence: data mining and optimization for decision making. John Wiley.\n', '2\\.Azevedo, A. and Santos, M. F. (Eds.). (2020).\xa0Integration Challenges for Analytics, Business Intelligence, and Data Mining. IGI Global.\n', '3\\.Grossmann, W. and Rinderle-Ma, S. (2015). Fundamentals of business intelligence, Springer\n', '4\\.Sauter, V. L. (2014).\xa0Decision support systems for business intelligence. John Wiley &amp; Sons.\n', '5\\.Clark, D. (2019).\xa0Beginning Power BI: A Practical Guide to Self-Service Data Analytics with Excel 2016 and Power BI Desktop. Apress.\n', '6\\.Seamark, P. (2018).\xa0Beginning DAX with Power BI: The SQL Pro’s Guide to Better Business Intelligence. Apress.\n']</t>
-  </si>
-  <si>
-    <t>['1\\. نیلسن، م. (1400). شبکه\u200cهای عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '2. Eli Stevens, Luca Antiga, and Thomas Viehmann, (2020) Deep Learning with PyTorch, Manning Pub.\n', '2. Chollet, F. (2017).  Deep Learning with Python. Manning Pub.\n', '2. Goodfellow, I., Bengio, Y. and Courville, A.  (2016). Deep Learning, MIT Press.\n', '2. Lantz, B. (2019).\xa0Machine learning with R: expert techniques for predictive modeling. Packt publishing.\n', '2. Santanu Pattanayak (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python by Santanu Pattanayak.\n', '2. Nielsen, M. A. (2015).\xa0Neural networks and deep learning, San Francisco, CA: Determination press.\n']</t>
-  </si>
-  <si>
-    <t>['منابع آزاد با نظر استاد درس\n']</t>
+    <t>['تارخ، محمد جعفر و مهاجری، حسین (1392). هوش تجاری نگرشی پویا در عرصه کسب و کار، انتشارات دانشگاه خواجه نصیر. \n', '1.Vercellis, C. (2011).\xa0Business intelligence: data mining and optimization for decision making. John Wiley.\n', '2.Azevedo, A. and Santos, M. F. (Eds.). (2020).\xa0Integration Challenges for Analytics, Business Intelligence, and Data Mining. IGI Global.\n', '3.Grossmann, W. and Rinderle-Ma, S. (2015). Fundamentals of business intelligence, Springer\n', '4.Sauter, V. L. (2014).\xa0Decision support systems for business intelligence. John Wiley &amp; Sons.\n', '5.Clark, D. (2019).\xa0Beginning Power BI: A Practical Guide to Self-Service Data Analytics with Excel 2016 and Power BI Desktop. Apress.\n', '6.Seamark, P. (2018).\xa0Beginning DAX with Power BI: The SQL Pro’s Guide to Better Business Intelligence. Apress.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. نیلسن، م. (1400). شبکه\u200cهای عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '2. Eli Stevens, Luca Antiga, and Thomas Viehmann, (2020) Deep Learning with PyTorch, Manning Pub.\n', '2. Chollet, F. (2017).  Deep Learning with Python. Manning Pub.\n', '2. Goodfellow, I., Bengio, Y. and Courville, A.  (2016). Deep Learning, MIT Press.\n', '2. Lantz, B. (2019).\xa0Machine learning with R: expert techniques for predictive modeling. Packt publishing.\n', '2. Santanu Pattanayak (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python by Santanu Pattanayak.\n', '2. Nielsen, M. A. (2015).\xa0Neural networks and deep learning, San Francisco, CA: Determination press.\n']</t>
   </si>
   <si>
     <t>['E. Turban, D. King, J. K. Lee, T.-P. Liang, and D. C. Turban. Electronic Commerce: A Managerial and Social Networks Perspective. 8th Edition, Springer, 2018.\n']</t>
   </si>
   <si>
-    <t>['1\\. الوانی مهدی (1395). مدیریت عمومی. چاپ پنجاه و چهارم. تهران .نی.\n', '2\\. قلی پور رحمت ا.. . ابراهیم غلامی (1389).  فراین سیاست گذاری عمومی در ایران. تهران. مرکز پژوهش های مجلس شورای اسلامی.\n', '3\\. نامغ پرویز (1391).  مبانی مدیریت دولتی. تهران. هستان.\n']</t>
-  </si>
-  <si>
-    <t>['1\\. Functions and change, 5th Edition, Crauder, Evans and Noell, Houghton Mifflin, 2010.\n', '2\\. An Introduction to Mathematical Modeling, Michael Alder, HeavenForBooks.com, 2001.\n', '3\\. An Introduction to Mathematical Modeling: A Course in Mechanics 1st Edition, Tinsley Oden, Wily\n', 'Series in Computational Mechanics, 2011.\n', '4\\. Mathematics for Life Sciences, Calculus, Modeling, Probability and Dynamical Systems, G. Ledder, Springer, 2013.\n']</t>
+    <t>['\\1. الوانی مهدی (1395). مدیریت عمومی. چاپ پنجاه و چهارم. تهران .نی.\n', '\\2. قلی پور رحمت ا.. . ابراهیم غلامی (1389).  فراین سیاست گذاری عمومی در ایران. تهران. مرکز پژوهش های مجلس شورای اسلامی.\n', '\\3. نامغ پرویز (1391).  مبانی مدیریت دولتی. تهران. هستان.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. Functions and change, 5th Edition, Crauder, Evans and Noell, Houghton Mifflin, 2010.\n', '\\2. An Introduction to Mathematical Modeling, Michael Alder, HeavenForBooks.com, 2001.\n', '\\3. An Introduction to Mathematical Modeling: A Course in Mechanics 1st Edition, Tinsley Oden, Wily\n', 'Series in Computational Mechanics, 2011.\n', '\\4. Mathematics for Life Sciences, Calculus, Modeling, Probability and Dynamical Systems, G. Ledder, Springer, 2013.\n']</t>
   </si>
   <si>
     <t>['Applied Numerical Methods with MATLAB, by Steven C. Chapra\n', 'Matlab Symbolic Algebra and Calculus Tools, by C. P. Lopez\n', 'Mathematica, by E. Don \n']</t>
@@ -1252,7 +1240,7 @@
     <t>['Gallian, J. Contemporary abstract algebra. Nelson Education, 2012\n', '` `Kleiner, I., A history of abstract algebra. Springer Science &amp; Business Media, 2007.\n']</t>
   </si>
   <si>
-    <t>['1\\. Michael W. Frazier, An Introduction to Wavelets through Linear Algebra, Springer Undergraduate Texts in Mathematics\n', '2\\. Barbara Burke Hubbard, The World According to Wavelets, Second Edition.\n', '3\\. D. F. J. Narcowich, A. Boggess, A First Course in Wavelets with Fourier Analysis, Prentice Hall\n', '4\\. F. P. J. Van Fleet, Discrete Wavelet Transforms- An Elementary Approach with Applications \n']</t>
+    <t>['\\1. Michael W. Frazier, An Introduction to Wavelets through Linear Algebra, Springer Undergraduate Texts in Mathematics\n', '\\2. Barbara Burke Hubbard, The World According to Wavelets, Second Edition.\n', '\\3. D. F. J. Narcowich, A. Boggess, A First Course in Wavelets with Fourier Analysis, Prentice Hall\n', '\\4. F. P. J. Van Fleet, Discrete Wavelet Transforms- An Elementary Approach with Applications \n']</t>
   </si>
   <si>
     <t>['` `محمد حسن علیائی طرقبه، آموزش جامع پردازش تصویر با OpenCV و Python، ناشر: انتشارات میعاد اندیشه. ۱۴۰۰\n', 'وحید کیانی،\u200c پردازش تصاویر در پایتون: راهنمای سریع OpenCV، انتشارات دانشگاه بجنورد، ۱۴۰۲\n', 'Sandipan Dey, Hands-On Image Processing with Python: Expert techniques for advanced image analysis and effective interpretation of image data, Packt Publishing, 2018\n', 'Ravishankar Chityala, Sridevi Pudipeddi , Image Processing and Acquisition using Python, Chapman &amp; Hall, 2021\n']</t>
@@ -1279,13 +1267,13 @@
     <t>['Avi Silberschatz , Peter Baer Galvin, Greg Gagne , Operating System Concepts, Ninth Edition, John Wiley &amp; Sons, Inc. 2013.\n', 'Silberschatz, Abraham, Peter B. Galvin, and Greg Gagne. Operating system concepts with Java. Wiley Publishing, 2009.\n', 'Tanenbaum, A. Woodhull, Operating Systems: Design and Implementation, Pearson, 2009.\n']</t>
   </si>
   <si>
-    <t>['1\\. I .Sommerville, Software Engineering, 9th edition, Addison Wesley, 2010.\n', '2\\. C .Ghezzi, M .Jazayeri, D .Mandrioli, Fundamentals of software engineering, Prentice Hall, 2003.\n', '3\\. P .A. B. Ng and R. T. Yeh, Modern Software Engineering: Foundations and Current Perspectives, Van Nostrand Reinhold, 1990.\n', "4\\. R. S. Pressman and P. Roger, Software Engineering: A Practitioner's Approach, 7th edition, McGraw Hill, 2009.\n"]</t>
+    <t>['\\1. I .Sommerville, Software Engineering, 9th edition, Addison Wesley, 2010.\n', '\\2. C .Ghezzi, M .Jazayeri, D .Mandrioli, Fundamentals of software engineering, Prentice Hall, 2003.\n', '\\3. P .A. B. Ng and R. T. Yeh, Modern Software Engineering: Foundations and Current Perspectives, Van Nostrand Reinhold, 1990.\n', "\\4. R. S. Pressman and P. Roger, Software Engineering: A Practitioner's Approach, 7th edition, McGraw Hill, 2009.\n"]</t>
   </si>
   <si>
     <t>['Alfred V. Aho, Monica S. Lam, Ravi Sethi, and Jeffrey D. Ullman, Compilers: Principles, Techniques, and Tools, 2nd Edition, Pearson, 2007.\n', 'Douglas Thain, Introduction to Compilers and Language Design, 2nd Edition, 2020, downloadable from http://compilerbook.org.\n', 'Keith D. Cooper, and Linda Torczon, Engineering a Compiler, 2nd Edition, Elsevier, 2012.\n']</t>
   </si>
   <si>
-    <t>['1\\. نقوی، م. ر، ملبوبی، م. ع و رشیدی، س (1398). بیوانفورماتیک (داده\u200cپردازی زیستی)، چاپ چهارم،  انتشارات دانشگاه تهران. \n', '1. Bergeron, B. P., (2003).Bioinformatics computing. Prentice Hall Professional.\n', '1. Sensen, C. W. (2002).\xa0Essentials of Genomics and Bioinformatics. John Wiley &amp; Sons. \n', '1. Curry, E. (2020).\xa0Introduction to Bioinformatics with R: A Practical Guide for Biologists. CRC Press.\n', '1. Sinha, P. P. (2014).\xa0Bioinformatics with R cookbook. Birmingham: Packt Publishing.\n', '1. Mathur, S. K. (2009).\xa0Statistical bioinformatics with R. Academic Press.\n']</t>
+    <t>['\\1. نقوی، م. ر، ملبوبی، م. ع و رشیدی، س (1398). بیوانفورماتیک (داده\u200cپردازی زیستی)، چاپ چهارم،  انتشارات دانشگاه تهران. \n', '1. Bergeron, B. P., (2003).Bioinformatics computing. Prentice Hall Professional.\n', '1. Sensen, C. W. (2002).\xa0Essentials of Genomics and Bioinformatics. John Wiley &amp; Sons. \n', '1. Curry, E. (2020).\xa0Introduction to Bioinformatics with R: A Practical Guide for Biologists. CRC Press.\n', '1. Sinha, P. P. (2014).\xa0Bioinformatics with R cookbook. Birmingham: Packt Publishing.\n', '1. Mathur, S. K. (2009).\xa0Statistical bioinformatics with R. Academic Press.\n']</t>
   </si>
   <si>
     <t>['با نظر مدرس درس\n', '**\n']</t>
@@ -1294,10 +1282,10 @@
     <t>['R. L. Burden, J. D. Faires, Numerical Analysis. PW Publishing Company, Boston, USA, 2011.\n']</t>
   </si>
   <si>
-    <t>['1\\. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
-  </si>
-  <si>
-    <t>['1\\.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '2\\. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '1\\. Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '2\\. Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '3\\. Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '4\\. Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '5\\. Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '6\\. Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
+    <t>['\\1. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها]( )، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
+  </si>
+  <si>
+    <t>['1.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '\\2. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '\\1. Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '\\2. Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '\\3. Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '\\4. Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '\\5. Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '\\6. Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
   </si>
   <si>
     <t>['1. `     `K. Chandrasekaran, *Essentials of cloud computing*, CRC Press, 2014 \n', '1. N**.** B. Ruparelia, *Cloud Computing*, MIT Press, 2016 \n', '1. T**.** Erl, Z**.** Mahmood, R**.** Puttini, *Cloud Computing, Concepts, Technology and Architecture*, Prentice Hall, 2013. \n', '1. I**.** Ganelin, E**.** Orhian, K**.** Sasaki, B**.** York, *Spark: Big Data Cluster Computing in Production*, Wiley, 1st Edition, 2016. ISBN-13: 978-1119254010 \n', "1. T. White, *Hadoop: The Definitive Guide: Storage and Analysis at Internet Scale,* 4th Edition. O'Reilly Media, 2015. ISBN-13: 978-1491901632 \n", '1. H. Geng, *Data Center Handbook*. Wiley, 1st Edition, 2014. ISBN-13: 978-1118436639 \n', '1. S. Adkins , J. Belamaric, V. Giersch. *OpenStack Cloud Application Development*. Wrox, 1st Edition, 2015. ISBN-13: 978-1119194316 \n', '1. B. Antony, K. Boudnik, C. Adams. *Professional Hadoop*. Wrox, 1st Edition, 2016.\n', '**\n']</t>
@@ -1309,10 +1297,7 @@
     <t>['A.V. Oppenheim, A.S. Willsky, S.H. Nawab, *Signals and Systems*, 2nd Edition, Prentice-Hall, 1997. ISBN: 0-13-814757-4** \n']</t>
   </si>
   <si>
-    <t>['Jack T. Marchewka. Information Technology Project Management. WILEY, 2014.**\n']</t>
-  </si>
-  <si>
-    <t>["Scientific Computing with Case Studies, By Dianne P. O'Leary, 2009\n", '[^1]: Luk, Robert W. P. (2020). Insights in How Computer Science can be a Science. Science and Philosophy 8 (2):17-46\n', '[^2]: ["Computer Science as a Profession"](https://web.archive.org/web/20080617030847/http:/www.csab.org/comp_sci_profession.html). Computing Sciences Accreditation Board. May 28, 1997.\n', '[^3]: [Computer science - Wikipedia](https://en.wikipedia.org/wiki/Computer_science)\n', '[^4]: در تدوین این برنامه درسی، برنامه\u200cهای درسی مصوب وزارت در سالهای ۱۳۹۹ تا ۱۴۰۱ برای رشته\u200cهای علوم کامپیوتر، ریاضیات و کاربردها و آمار و همچنین برنامه درسی مهندسی کامپیوتر وزارت علوم و چند دانشگاه داخلی و خارجی مورد ملاحظه قرار گرفته\u200cاند.\n', '[^5]: Andrew Ng']</t>
+    <t>['Jack T. Marchewka. Information Technology Project Management. WILEY, 2014.\n', '[^1]: Luk, Robert W. P. (2020). Insights in How Computer Science can be a Science. Science and Philosophy 8 (2):17-46\n', '[^2]: ["Computer Science as a Profession"](https://web.archive.org/web/20080617030847/http:/www.csab.org/comp_sci_profession.html). Computing Sciences Accreditation Board. May 28, 1997.\n', '[^3]: [Computer science - Wikipedia](https://en.wikipedia.org/wiki/Computer_science)\n', '[^4]: در تدوین این برنامه درسی، برنامه\u200cهای درسی مصوب وزارت در سالهای ۱۳۹۹ تا ۱۴۰۱ برای رشته\u200cهای علوم کامپیوتر، ریاضیات و کاربردها و آمار و همچنین برنامه درسی مهندسی کامپیوتر وزارت علوم و چند دانشگاه داخلی و خارجی مورد ملاحظه قرار گرفته\u200cاند.\n', '[^5]: Andrew Ng']</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1731,37 +1716,37 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O2" t="s">
         <v>275</v>
       </c>
-      <c r="O2" t="s">
-        <v>278</v>
-      </c>
       <c r="P2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1772,37 +1757,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1813,37 +1798,37 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1854,37 +1839,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1895,37 +1880,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" t="s">
         <v>266</v>
       </c>
-      <c r="J6" t="s">
-        <v>268</v>
-      </c>
       <c r="K6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1936,37 +1921,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="I7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" t="s">
         <v>272</v>
       </c>
-      <c r="L7" t="s">
-        <v>276</v>
-      </c>
       <c r="O7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1977,37 +1962,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2018,37 +2003,34 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K9" t="s">
-        <v>271</v>
-      </c>
-      <c r="L9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2059,34 +2041,37 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L10" t="s">
         <v>272</v>
       </c>
       <c r="O10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2097,37 +2082,37 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2138,37 +2123,37 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2179,37 +2164,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2220,37 +2205,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="H14" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2261,37 +2246,37 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G15" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="I15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2302,37 +2287,37 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P16" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2343,37 +2328,37 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2384,37 +2369,37 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2425,37 +2410,37 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2466,37 +2451,37 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2507,37 +2492,37 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P21" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2548,37 +2533,37 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2589,37 +2574,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P23" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2630,37 +2615,37 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P24" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2671,37 +2656,37 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" t="s">
         <v>251</v>
       </c>
-      <c r="G25" t="s">
-        <v>254</v>
-      </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P25" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2712,37 +2697,37 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
         <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2753,37 +2738,37 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P27" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2794,37 +2779,37 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P28" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2835,37 +2820,37 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P29" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2876,37 +2861,37 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P30" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2917,37 +2902,37 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P31" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2958,34 +2943,37 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G32" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" t="s">
         <v>269</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2996,37 +2984,34 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
         <v>252</v>
       </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s">
-        <v>271</v>
-      </c>
-      <c r="L33" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P33" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3037,37 +3022,37 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3078,34 +3063,37 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
       </c>
       <c r="O35" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P35" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3116,37 +3104,34 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I36" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s">
-        <v>271</v>
-      </c>
-      <c r="L36" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3157,37 +3142,37 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I37" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O37" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P37" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3198,37 +3183,37 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P38" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3239,37 +3224,37 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K39" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P39" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3280,37 +3265,37 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P40" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3321,37 +3306,37 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I41" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P41" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3362,37 +3347,37 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J42" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K42" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P42" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3403,34 +3388,37 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I43" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J43" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K43" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="L43" t="s">
+        <v>272</v>
       </c>
       <c r="O43" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P43" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3441,37 +3429,34 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G44" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I44" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J44" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
-      </c>
-      <c r="L44" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P44" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3482,37 +3467,37 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="H45" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K45" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O45" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P45" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3523,34 +3508,37 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G46" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I46" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J46" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K46" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="L46" t="s">
+        <v>272</v>
       </c>
       <c r="O46" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P46" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3561,37 +3549,34 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I47" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J47" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K47" t="s">
-        <v>271</v>
-      </c>
-      <c r="L47" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="O47" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P47" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3602,37 +3587,37 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O48" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P48" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3643,37 +3628,37 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I49" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K49" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L49" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O49" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P49" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3684,37 +3669,37 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G50" t="s">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I50" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O50" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P50" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3725,37 +3710,37 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G51" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J51" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K51" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O51" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P51" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3766,37 +3751,37 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G52" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J52" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K52" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O52" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P52" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3807,34 +3792,34 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J53" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K53" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P53" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3845,34 +3830,34 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G54" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J54" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O54" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P54" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3883,34 +3868,34 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G55" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H55" t="s">
         <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J55" t="s">
+        <v>266</v>
+      </c>
+      <c r="K55" t="s">
         <v>269</v>
       </c>
-      <c r="K55" t="s">
-        <v>272</v>
-      </c>
       <c r="O55" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P55" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3921,37 +3906,37 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E56" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K56" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L56" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O56" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P56" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3962,37 +3947,37 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E57" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I57" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J57" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K57" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O57" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P57" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4003,37 +3988,37 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I58" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J58" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K58" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L58" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O58" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P58" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4044,34 +4029,34 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H59" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I59" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J59" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K59" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O59" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P59" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4082,37 +4067,37 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I60" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K60" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L60" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P60" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4123,37 +4108,37 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I61" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K61" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L61" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O61" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P61" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4164,37 +4149,37 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E62" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I62" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K62" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O62" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P62" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4205,37 +4190,37 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G63" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H63" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I63" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J63" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K63" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L63" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O63" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P63" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4246,37 +4231,37 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E64" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I64" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J64" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K64" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L64" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O64" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P64" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4287,37 +4272,37 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I65" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J65" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K65" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L65" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O65" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P65" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4328,37 +4313,37 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E66" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I66" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J66" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K66" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L66" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O66" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P66" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4369,37 +4354,37 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E67" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J67" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K67" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O67" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P67" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4410,37 +4395,37 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I68" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J68" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K68" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L68" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O68" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P68" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4451,37 +4436,37 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I69" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L69" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O69" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4492,37 +4477,37 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E70" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G70" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H70" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I70" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J70" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K70" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L70" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O70" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P70" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4533,37 +4518,37 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E71" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G71" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H71" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I71" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J71" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K71" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L71" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O71" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P71" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4574,37 +4559,37 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G72" t="s">
         <v>38</v>
       </c>
       <c r="H72" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I72" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J72" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K72" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L72" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O72" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P72" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4615,37 +4600,37 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E73" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G73" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I73" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J73" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K73" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O73" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P73" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4656,13 +4641,13 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -4671,22 +4656,22 @@
         <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J74" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K74" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L74" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O74" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P74" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4697,37 +4682,37 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E75" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H75" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I75" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K75" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L75" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O75" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P75" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4738,37 +4723,37 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E76" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I76" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J76" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K76" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L76" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O76" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P76" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4779,37 +4764,37 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G77" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I77" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K77" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L77" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O77" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P77" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4820,37 +4805,37 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G78" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I78" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J78" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K78" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L78" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O78" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P78" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4861,37 +4846,37 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E79" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I79" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J79" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K79" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L79" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O79" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P79" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4902,78 +4887,37 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E80" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I80" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J80" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K80" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L80" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O80" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P80" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" t="s">
-        <v>174</v>
-      </c>
-      <c r="D81" t="s">
-        <v>249</v>
-      </c>
-      <c r="E81" t="s">
-        <v>252</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" t="s">
-        <v>253</v>
-      </c>
-      <c r="I81" t="s">
-        <v>266</v>
-      </c>
-      <c r="J81" t="s">
-        <v>268</v>
-      </c>
-      <c r="K81" t="s">
-        <v>272</v>
-      </c>
-      <c r="L81" t="s">
-        <v>275</v>
-      </c>
-      <c r="O81" t="s">
-        <v>356</v>
-      </c>
-      <c r="P81" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -1297,7 +1297,7 @@
     <t>['A.V. Oppenheim, A.S. Willsky, S.H. Nawab, *Signals and Systems*, 2nd Edition, Prentice-Hall, 1997. ISBN: 0-13-814757-4** \n']</t>
   </si>
   <si>
-    <t>['Jack T. Marchewka. Information Technology Project Management. WILEY, 2014.\n', '[^1]: Luk, Robert W. P. (2020). Insights in How Computer Science can be a Science. Science and Philosophy 8 (2):17-46\n', '[^2]: ["Computer Science as a Profession"](https://web.archive.org/web/20080617030847/http:/www.csab.org/comp_sci_profession.html). Computing Sciences Accreditation Board. May 28, 1997.\n', '[^3]: [Computer science - Wikipedia](https://en.wikipedia.org/wiki/Computer_science)\n', '[^4]: در تدوین این برنامه درسی، برنامه\u200cهای درسی مصوب وزارت در سالهای ۱۳۹۹ تا ۱۴۰۱ برای رشته\u200cهای علوم کامپیوتر، ریاضیات و کاربردها و آمار و همچنین برنامه درسی مهندسی کامپیوتر وزارت علوم و چند دانشگاه داخلی و خارجی مورد ملاحظه قرار گرفته\u200cاند.\n', '[^5]: Andrew Ng']</t>
+    <t>['Jack T. Marchewka. Information Technology Project Management. WILEY, 2014.\n']</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2009,7 @@
         <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s">
         <v>250</v>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -2753,13 +2753,13 @@
         <v>250</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
         <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
         <v>272</v>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="424">
   <si>
     <t>fa_title</t>
   </si>
@@ -208,9 +208,6 @@
     <t>آشنایی با یادگیری عمیق</t>
   </si>
   <si>
-    <t>مبانی کارآفرینی</t>
-  </si>
-  <si>
     <t>تجارت الکترونیک</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t>Introduction to Deep Learning</t>
   </si>
   <si>
-    <t>Foundations of Entrepreneurship</t>
-  </si>
-  <si>
     <t>Electronic Commerce</t>
   </si>
   <si>
@@ -673,9 +667,6 @@
     <t>Introduction-to-Deep-Learning</t>
   </si>
   <si>
-    <t>Foundations-of-Entrepreneurship</t>
-  </si>
-  <si>
     <t>Electronic-Commerce</t>
   </si>
   <si>
@@ -988,9 +979,6 @@
     <t>['`    `مروری مختصر بر رگرسیون، لجستیک رگرسیون و مدل پرسپترون. معرفی تنسورها، عملیات روی تنسورها (برش، عملیات درجا و ...)، مشتق\u200cگیری خودکار، انتقال تنسورها به کارت گرافیک، آشنایی با انواع توابع فعالیت، توابع هزینه و الگوریتم\u200cهای بهینه\u200cسازی مورد استفاده در روال گرادیان کاهشی، روشهای ارزیابی (monitoring)، الگوریتم پس انتشار، بیش برازشی و کم برازشی، آماده\u200cسازی داده\u200cها،  منظم\u200cسازی، Dropout، شبکه\u200cهای عصبی متراکم (تمام متصل یا چگال)، شبکه\u200cهای عصبی پیچشی (کانولوشنی)، نمایش آنچه که لایه\u200cهای لایه\u200cهای پیچشی آموزش می\u200cبینند، یادگیری عمیق برای داده\u200cهای متنی و سری زمانی، شبکه\u200cهای برگشتی  (RNN, GRU, LSTM) و کاربردهای آنها. یادگیری خود کدگذارها، آشنایی با چند معماری معروف، انتقال یادگیری، یادگیری انتها به انتها، طبقه\u200cبندی داده\u200cهای تصویری، متنی، تنظیم پارامترها. شبکه\u200cهای مولد هم\u200cآورد (GAN)، نمایش برخی توانمندی\u200cهای یادگیری عمیق از طریق بیان مثالهای کاربردی از قبیل تولید متن، شناسایی چهره، تولید تصویر جعلی، رؤیای عمیق، انتقال سبک عصبی، نقاشی با شبکه\u200cهای عصبی و بیان توابع هزینه\u200cی مرتبط با آنها. آشنایی با حداقل یکی از کتابخانه\u200cهای معروف حوزه یادگیری عمیق مانند پای\u200cتورچ یا تنسورفلو. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', 'با توجه به اینکه پیش\u200cنیاز این درس، یادگیری ماشین مقدماتی است و در آن درس رگرسیون، مدل پرسپترون و شبکه\u200cهای چند لایه پرسپترونی گفته شده\u200cاند، در این درس می\u200cتوان به سرعت وارد مبحث موضوع یادگیری عمیق شد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['تاریخچه کارآفرینی، مفاهیم کارآفرینی و انواع آن. انواع کسب وکار و مبانی و اصول کسب وکار. مبانی بازار و مدیریت بازار. داستان\u200cهای موفقیت و شکست کارآفرینان و قهرمانان توسعه. ارزیابی امکان سنجی و انتخاب ایده کارآفرینی. چارچوب طرح کسب وکار. طراحی جداول و محاسبات طرح کسب وکار. مراحل ثبت و تأسیس شرکت و آشنایی با انواع شرکت\u200cها. مبانی کسب وکار در اقتصاد ایران و کلیات قوانین تجارت در ایران. تجربیات موفق کارآفرینان ایرانی. مهارت\u200cهای کارآفرینی: کار گروهی، مدیریت منابع، مدیریت مالی، ارتباطات و …. برنامه ریزی و سازماندهی کسب وکار. راه\u200cاندازی کسب وکار، تولید، کنترل کیفیت و کنترل هزینه ها. بازاریابی، فروش و ارتباط با مشتری.\n']</t>
-  </si>
-  <si>
     <t>['مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n']</t>
   </si>
   <si>
@@ -1090,7 +1078,7 @@
     <t>['موحد، ضیاء، درآمدی به منطق جدید، انتشارات و آموزش انقلاب اسلامی ، 1379\n', 'ناصر، بردجربان. مبانی و مقدمات علم ریاضی، مرکز نشر پرفسور حسابی، 1377\n', 'سپهری ، محمد رضا. آشنائی با مبانی علوم ریاضی، مرکز نشر آینه، 1390\n', 'Halmos, Paul R. I set theory. Courier Dover Publications, 2017.\n', 'Stewart, Ian, and David Tall. The foundations of mathematics. OUP Oxford, 2015.\n', 'Lin, Shwu-Yeng T., and You-Feng Lin. Set theory with applications. Mancorp Pub, 1985.\n']</t>
   </si>
   <si>
-    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.de946f22-5e14-463b-886e-7cedea980546.007.png)\n', '**\n']</t>
+    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.9eb183c4-53a5-4a65-8f2f-9cc2ebd1dc87.007.png)\n', '**\n']</t>
   </si>
   <si>
     <t>['\\1. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد. \n', '\\2. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '\\2. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.\n', '\\3. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature. \n', '\\4. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
@@ -1165,10 +1153,10 @@
     <t>['O’Sullivan, A., Sheffrin, S., &amp; Perez, S., Survey of Economics: Principles, Applications, and Tools, 8th Edition, Boston: Pearson, 2019.\n']</t>
   </si>
   <si>
-    <t>['با نظر مدرس درس\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.de946f22-5e14-463b-886e-7cedea980546.008.png)\n']</t>
-  </si>
-  <si>
-    <t>['Russell, S., &amp; Norvig, P., Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES, 2020.\n']</t>
+    <t>['با نظر مدرس درس\n']</t>
+  </si>
+  <si>
+    <t>['Russell, S., &amp; Norvig, P., Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES, 2020.\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.9eb183c4-53a5-4a65-8f2f-9cc2ebd1dc87.008.png)\n']</t>
   </si>
   <si>
     <t>['ن. نعمت الهی، آمار و احتمالات مهندسی، انتشارات دلفک، 1394.\n', 'ش. م. راس، مقدمهای بر آمار و احتمال (برای دانشجویان مهندسی و علوم)، ترجمه مجید اسدی و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1382.\n', 'ج. بهبودیان، آمار و احتمال مقدماتی، انتشارات دانشگاه امام رضا (ع)، 1383.\n', 'س. قهرمانی، مبانی احتمال، ترجمه غلامحسین شاهکار و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1390.\n', 'G. G. Roussas, Introduction to probability, 2nd Edition, Academic Press, 2014.\n']</t>
@@ -1297,7 +1285,7 @@
     <t>['A.V. Oppenheim, A.S. Willsky, S.H. Nawab, *Signals and Systems*, 2nd Edition, Prentice-Hall, 1997. ISBN: 0-13-814757-4** \n']</t>
   </si>
   <si>
-    <t>['Jack T. Marchewka. Information Technology Project Management. WILEY, 2014.\n']</t>
+    <t>['Jack T. Marchewka. Information Technology Project Management. WILEY, 2014.\n', '[^1]: Luk, Robert W. P. (2020). Insights in How Computer Science can be a Science. Science and Philosophy 8 (2):17-46\n', '[^2]: ["Computer Science as a Profession"](https://web.archive.org/web/20080617030847/http:/www.csab.org/comp_sci_profession.html). Computing Sciences Accreditation Board. May 28, 1997.\n', '[^3]: [Computer science - Wikipedia](https://en.wikipedia.org/wiki/Computer_science)\n', '[^4]: در تدوین این برنامه درسی، برنامه\u200cهای درسی مصوب وزارت در سالهای ۱۳۹۹ تا ۱۴۰۱ برای رشته\u200cهای علوم کامپیوتر، ریاضیات و کاربردها و آمار و همچنین برنامه درسی مهندسی کامپیوتر وزارت علوم و چند دانشگاه داخلی و خارجی مورد ملاحظه قرار گرفته\u200cاند.\n', '[^5]: Andrew Ng']</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,37 +1704,37 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O2" t="s">
         <v>272</v>
       </c>
-      <c r="O2" t="s">
-        <v>275</v>
-      </c>
       <c r="P2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1757,37 +1745,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1798,37 +1786,37 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1839,37 +1827,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1880,37 +1868,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" t="s">
         <v>263</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>266</v>
       </c>
-      <c r="K6" t="s">
-        <v>269</v>
-      </c>
       <c r="L6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1921,37 +1909,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1962,37 +1950,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2003,34 +1991,34 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I9" t="s">
+        <v>260</v>
+      </c>
+      <c r="J9" t="s">
         <v>263</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>266</v>
       </c>
-      <c r="K9" t="s">
-        <v>269</v>
-      </c>
       <c r="O9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2041,37 +2029,37 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2082,37 +2070,37 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2123,37 +2111,37 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2164,37 +2152,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P13" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2205,37 +2193,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
+        <v>260</v>
+      </c>
+      <c r="J14" t="s">
         <v>263</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>266</v>
       </c>
-      <c r="K14" t="s">
-        <v>269</v>
-      </c>
       <c r="L14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2246,37 +2234,37 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2287,37 +2275,37 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2328,37 +2316,37 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2369,37 +2357,37 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2410,37 +2398,37 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P19" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2451,37 +2439,37 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2492,37 +2480,37 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2533,37 +2521,37 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K22" t="s">
+        <v>266</v>
+      </c>
+      <c r="L22" t="s">
         <v>269</v>
       </c>
-      <c r="L22" t="s">
-        <v>272</v>
-      </c>
       <c r="O22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2574,37 +2562,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P23" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2615,37 +2603,37 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P24" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2656,37 +2644,37 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
         <v>248</v>
       </c>
-      <c r="G25" t="s">
-        <v>251</v>
-      </c>
       <c r="H25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P25" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2697,37 +2685,37 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
         <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2738,37 +2726,37 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P27" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2779,37 +2767,37 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2820,37 +2808,37 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P29" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2861,37 +2849,37 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P30" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2902,37 +2890,37 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2943,37 +2931,37 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2984,34 +2972,34 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3022,37 +3010,37 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
         <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3063,37 +3051,37 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
         <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P35" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3104,34 +3092,34 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
         <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J36" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3142,37 +3130,37 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G37" t="s">
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O37" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P37" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3183,37 +3171,37 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P38" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3224,37 +3212,37 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I39" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O39" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P39" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3265,37 +3253,37 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I40" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O40" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P40" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3306,37 +3294,37 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J41" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L41" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O41" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P41" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3347,37 +3335,37 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G42" t="s">
         <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K42" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O42" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P42" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3388,37 +3376,37 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
         <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I43" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J43" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K43" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L43" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P43" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3429,34 +3417,34 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G44" t="s">
         <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J44" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O44" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P44" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3467,37 +3455,37 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G45" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I45" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O45" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P45" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3508,37 +3496,37 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G46" t="s">
         <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I46" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J46" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K46" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O46" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P46" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3549,34 +3537,34 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E47" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G47" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H47" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I47" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J47" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K47" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O47" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P47" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3587,37 +3575,37 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E48" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
         <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I48" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O48" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P48" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3628,37 +3616,37 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E49" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
       </c>
       <c r="H49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I49" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J49" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O49" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P49" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3669,37 +3657,37 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G50" t="s">
         <v>38</v>
       </c>
       <c r="H50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J50" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O50" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P50" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3710,37 +3698,37 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J51" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K51" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L51" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O51" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P51" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3751,37 +3739,34 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H52" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K52" t="s">
-        <v>269</v>
-      </c>
-      <c r="L52" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O52" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P52" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3792,34 +3777,34 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E53" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G53" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H53" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J53" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K53" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O53" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P53" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3830,34 +3815,34 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O54" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P54" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3868,34 +3853,37 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J55" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K55" t="s">
+        <v>265</v>
+      </c>
+      <c r="L55" t="s">
         <v>269</v>
       </c>
       <c r="O55" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3906,37 +3894,37 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I56" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O56" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P56" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3947,37 +3935,37 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E57" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I57" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J57" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K57" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L57" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O57" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P57" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3988,37 +3976,34 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="H58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I58" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J58" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K58" t="s">
-        <v>268</v>
-      </c>
-      <c r="L58" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O58" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P58" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4029,34 +4014,37 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E59" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I59" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J59" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K59" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="L59" t="s">
+        <v>269</v>
       </c>
       <c r="O59" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P59" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4067,37 +4055,37 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E60" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G60" t="s">
         <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I60" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J60" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L60" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O60" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P60" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4108,37 +4096,37 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
         <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I61" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J61" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L61" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O61" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4149,37 +4137,37 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="H62" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I62" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J62" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O62" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P62" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4190,37 +4178,37 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G63" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I63" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J63" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K63" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L63" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O63" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P63" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4231,37 +4219,37 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E64" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I64" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J64" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K64" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L64" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O64" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P64" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4272,37 +4260,37 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E65" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I65" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J65" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K65" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L65" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O65" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P65" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4313,37 +4301,37 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E66" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I66" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J66" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K66" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O66" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P66" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4354,37 +4342,37 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E67" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I67" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K67" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L67" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O67" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P67" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4395,37 +4383,37 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I68" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J68" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K68" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L68" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O68" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P68" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4436,37 +4424,37 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="E69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="H69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I69" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J69" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O69" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P69" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4477,37 +4465,37 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E70" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G70" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H70" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I70" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J70" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K70" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O70" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P70" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4518,37 +4506,37 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G71" t="s">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="H71" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J71" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K71" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L71" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O71" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P71" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4559,37 +4547,37 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="H72" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I72" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K72" t="s">
         <v>268</v>
       </c>
       <c r="L72" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O72" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P72" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4600,37 +4588,37 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G73" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J73" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K73" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L73" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O73" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P73" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4641,37 +4629,37 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E74" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H74" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I74" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J74" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K74" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L74" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O74" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P74" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4682,37 +4670,37 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G75" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I75" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J75" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L75" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O75" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P75" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4723,37 +4711,37 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G76" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="H76" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I76" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J76" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K76" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L76" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O76" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P76" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4764,37 +4752,37 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E77" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H77" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I77" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J77" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L77" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O77" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P77" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4805,37 +4793,37 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E78" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J78" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K78" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L78" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O78" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P78" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4846,78 +4834,37 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="H79" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I79" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J79" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K79" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L79" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O79" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P79" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" t="s">
-        <v>172</v>
-      </c>
-      <c r="D80" t="s">
-        <v>246</v>
-      </c>
-      <c r="E80" t="s">
-        <v>249</v>
-      </c>
-      <c r="G80" t="s">
-        <v>250</v>
-      </c>
-      <c r="H80" t="s">
-        <v>250</v>
-      </c>
-      <c r="I80" t="s">
-        <v>262</v>
-      </c>
-      <c r="J80" t="s">
-        <v>265</v>
-      </c>
-      <c r="K80" t="s">
-        <v>268</v>
-      </c>
-      <c r="L80" t="s">
-        <v>273</v>
-      </c>
-      <c r="O80" t="s">
-        <v>352</v>
-      </c>
-      <c r="P80" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -853,7 +853,7 @@
     <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز.\n']</t>
   </si>
   <si>
-    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای sنمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از نرم افزار اکسل  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای sنمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از **نرم افزار اکسل**  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tکار با فایل\u200cها\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tحافظه پویا\n', '•\t(درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
@@ -1078,7 +1078,7 @@
     <t>['موحد، ضیاء، درآمدی به منطق جدید، انتشارات و آموزش انقلاب اسلامی ، 1379\n', 'ناصر، بردجربان. مبانی و مقدمات علم ریاضی، مرکز نشر پرفسور حسابی، 1377\n', 'سپهری ، محمد رضا. آشنائی با مبانی علوم ریاضی، مرکز نشر آینه، 1390\n', 'Halmos, Paul R. I set theory. Courier Dover Publications, 2017.\n', 'Stewart, Ian, and David Tall. The foundations of mathematics. OUP Oxford, 2015.\n', 'Lin, Shwu-Yeng T., and You-Feng Lin. Set theory with applications. Mancorp Pub, 1985.\n']</t>
   </si>
   <si>
-    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.9eb183c4-53a5-4a65-8f2f-9cc2ebd1dc87.007.png)\n', '**\n']</t>
+    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.f1893656-44a0-4d8d-9157-04de9ad727fd.007.png)\n', '**\n']</t>
   </si>
   <si>
     <t>['\\1. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد. \n', '\\2. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '\\2. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.\n', '\\3. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature. \n', '\\4. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
@@ -1156,7 +1156,7 @@
     <t>['با نظر مدرس درس\n']</t>
   </si>
   <si>
-    <t>['Russell, S., &amp; Norvig, P., Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES, 2020.\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.9eb183c4-53a5-4a65-8f2f-9cc2ebd1dc87.008.png)\n']</t>
+    <t>['Russell, S., &amp; Norvig, P., Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES, 2020.\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.f1893656-44a0-4d8d-9157-04de9ad727fd.008.png)\n']</t>
   </si>
   <si>
     <t>['ن. نعمت الهی، آمار و احتمالات مهندسی، انتشارات دلفک، 1394.\n', 'ش. م. راس، مقدمهای بر آمار و احتمال (برای دانشجویان مهندسی و علوم)، ترجمه مجید اسدی و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1382.\n', 'ج. بهبودیان، آمار و احتمال مقدماتی، انتشارات دانشگاه امام رضا (ع)، 1383.\n', 'س. قهرمانی، مبانی احتمال، ترجمه غلامحسین شاهکار و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1390.\n', 'G. G. Roussas, Introduction to probability, 2nd Edition, Academic Press, 2014.\n']</t>
@@ -1270,7 +1270,7 @@
     <t>['R. L. Burden, J. D. Faires, Numerical Analysis. PW Publishing Company, Boston, USA, 2011.\n']</t>
   </si>
   <si>
-    <t>['\\1. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها]( )، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
+    <t>['\\1. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
   </si>
   <si>
     <t>['1.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '\\2. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '\\1. Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '\\2. Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '\\3. Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '\\4. Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '\\5. Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '\\6. Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
@@ -1997,7 +1997,7 @@
         <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" t="s">
         <v>247</v>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="420">
   <si>
     <t>fa_title</t>
   </si>
@@ -112,187 +112,184 @@
     <t>مبانی منطق و نظریه مجموعه‌ها</t>
   </si>
   <si>
-    <t>بهینه‌سازی گسسته</t>
-  </si>
-  <si>
     <t>مبانی نظریه محاسبه</t>
   </si>
   <si>
     <t>مبانی محاسبات علمی</t>
   </si>
   <si>
+    <t>مبانی آنالیز عددی</t>
+  </si>
+  <si>
+    <t>مبانی آنالیز ریاضی</t>
+  </si>
+  <si>
+    <t>تحلیل آماری داده‌ها</t>
+  </si>
+  <si>
+    <t>سری‌های زمانی کاربردی</t>
+  </si>
+  <si>
+    <t>یادگیری ماشین مقدماتی</t>
+  </si>
+  <si>
+    <t>داده‌کاوی مقدماتی</t>
+  </si>
+  <si>
+    <t>تحقیق در عملیات</t>
+  </si>
+  <si>
+    <t>بهینه‌سازی غیرخطی</t>
+  </si>
+  <si>
+    <t>طراحی و توسعه کسب و کارهای نوپا</t>
+  </si>
+  <si>
+    <t>مبانی اقتصاد دیجیتال</t>
+  </si>
+  <si>
+    <t>کارآموزی</t>
+  </si>
+  <si>
+    <t>هوش مصنوعی</t>
+  </si>
+  <si>
+    <t>آمار و احتمال ۲</t>
+  </si>
+  <si>
+    <t>آمار محاسباتی</t>
+  </si>
+  <si>
+    <t>روش‌های آماری</t>
+  </si>
+  <si>
+    <t>نظریه محاسبه</t>
+  </si>
+  <si>
+    <t>منطق برای علوم کامپیوتر</t>
+  </si>
+  <si>
+    <t>نظریه مقدماتی کدگذاری</t>
+  </si>
+  <si>
+    <t>رمزنگاری</t>
+  </si>
+  <si>
+    <t>برنامه‌نویسی امن</t>
+  </si>
+  <si>
+    <t>معناشناسی عملیاتی برنامه‌نویسی</t>
+  </si>
+  <si>
+    <t>آشنایی با نظریه بازی‌ها</t>
+  </si>
+  <si>
+    <t>الگوریتم‌های تصادفی</t>
+  </si>
+  <si>
+    <t>هندسه محاسباتی</t>
+  </si>
+  <si>
+    <t>رگرسیون ۱</t>
+  </si>
+  <si>
+    <t>هوش محاسباتی</t>
+  </si>
+  <si>
+    <t>هوش تجاری مقدماتی</t>
+  </si>
+  <si>
+    <t>آشنایی با یادگیری عمیق</t>
+  </si>
+  <si>
+    <t>تجارت الکترونیک</t>
+  </si>
+  <si>
+    <t>مدلسازی ریاضی</t>
+  </si>
+  <si>
+    <t>آزمایشگاه ریاضی</t>
+  </si>
+  <si>
+    <t>ریاضیات فازی</t>
+  </si>
+  <si>
+    <t>نظریه گراف و کاربردها</t>
+  </si>
+  <si>
+    <t>مبانی جبر</t>
+  </si>
+  <si>
+    <t>مبانی آنالیز فوریه و موجک ها</t>
+  </si>
+  <si>
+    <t>پردازش تصویر مقدماتی</t>
+  </si>
+  <si>
+    <t>برنامه‌نویسی موبایل</t>
+  </si>
+  <si>
+    <t>برنامه‌نویسی وب</t>
+  </si>
+  <si>
+    <t>شبکه‌های کامپیوتری</t>
+  </si>
+  <si>
+    <t>شبیه سازی کامپیوتری</t>
+  </si>
+  <si>
+    <t>گرافیک کامپیوتری</t>
+  </si>
+  <si>
+    <t>تحلیل شبکه‌های اجتماعی</t>
+  </si>
+  <si>
+    <t>اصول سیستم‌های عامل</t>
+  </si>
+  <si>
+    <t>اصول طراحی نرم افزار</t>
+  </si>
+  <si>
+    <t>کامپایلر</t>
+  </si>
+  <si>
+    <t>مباحثی در علوم کامپیوتر ۱</t>
+  </si>
+  <si>
+    <t>مباحثی در علوم کامپیوتر ۲</t>
+  </si>
+  <si>
+    <t>مبانی بیوانفورماتیک</t>
+  </si>
+  <si>
+    <t>پروژه کارشناسی</t>
+  </si>
+  <si>
+    <t>آنالیز عددی</t>
+  </si>
+  <si>
+    <t>آشنایی با کلان داده‌ها</t>
+  </si>
+  <si>
+    <t>فرایند های تصادفی</t>
+  </si>
+  <si>
+    <t>مبانی رایانش ابری</t>
+  </si>
+  <si>
+    <t>رایانش چند‌هسته‌ای</t>
+  </si>
+  <si>
+    <t>سیگنال‌ها و سیستم‌ها</t>
+  </si>
+  <si>
+    <t>مدیریت پروژه‌های فناوری اطلاعات</t>
+  </si>
+  <si>
     <t>جبر خطی</t>
   </si>
   <si>
-    <t>مبانی آنالیز عددی</t>
-  </si>
-  <si>
-    <t>مبانی آنالیز ریاضی</t>
-  </si>
-  <si>
-    <t>یادگیری ماشین مقدماتی</t>
-  </si>
-  <si>
-    <t>داده‌کاوی مقدماتی</t>
-  </si>
-  <si>
-    <t>تحلیل آماری داده‌ها</t>
-  </si>
-  <si>
-    <t>سری‌های زمانی کاربردی</t>
-  </si>
-  <si>
-    <t>تحقیق در عملیات</t>
-  </si>
-  <si>
-    <t>بهینه‌سازی غیرخطی</t>
-  </si>
-  <si>
-    <t>طراحی و توسعه کسب و کارهای نوپا</t>
-  </si>
-  <si>
-    <t>مبانی اقتصاد دیجیتال</t>
-  </si>
-  <si>
-    <t>کارآموزی</t>
-  </si>
-  <si>
-    <t>هوش مصنوعی</t>
-  </si>
-  <si>
-    <t>آمار و احتمال ۲</t>
-  </si>
-  <si>
-    <t>آمار محاسباتی</t>
-  </si>
-  <si>
-    <t>روش‌های آماری</t>
-  </si>
-  <si>
-    <t>نظریه محاسبه</t>
-  </si>
-  <si>
-    <t>منطق برای علوم کامپیوتر</t>
-  </si>
-  <si>
-    <t>نظریه مقدماتی کدگذاری</t>
-  </si>
-  <si>
-    <t>رمزنگاری</t>
-  </si>
-  <si>
-    <t>برنامه‌نویسی امن</t>
-  </si>
-  <si>
-    <t>معناشناسی عملیاتی برنامه‌نویسی</t>
-  </si>
-  <si>
-    <t>آشنایی با نظریه بازی‌ها</t>
-  </si>
-  <si>
-    <t>الگوریتم‌های تصادفی</t>
-  </si>
-  <si>
-    <t>هندسه محاسباتی</t>
-  </si>
-  <si>
-    <t>رگرسیون ۱</t>
-  </si>
-  <si>
-    <t>هوش محاسباتی</t>
-  </si>
-  <si>
-    <t>هوش تجاری مقدماتی</t>
-  </si>
-  <si>
-    <t>آشنایی با یادگیری عمیق</t>
-  </si>
-  <si>
-    <t>تجارت الکترونیک</t>
-  </si>
-  <si>
-    <t>مبانی و اصول مدیریت</t>
-  </si>
-  <si>
-    <t>مدلسازی ریاضی</t>
-  </si>
-  <si>
-    <t>آزمایشگاه ریاضی</t>
-  </si>
-  <si>
-    <t>ریاضیات فازی</t>
-  </si>
-  <si>
-    <t>نظریه گراف و کاربردها</t>
-  </si>
-  <si>
-    <t>مبانی جبر</t>
-  </si>
-  <si>
-    <t>مبانی آنالیز فوریه و موجک ها</t>
-  </si>
-  <si>
-    <t>پردازش تصویر مقدماتی</t>
-  </si>
-  <si>
-    <t>برنامه‌نویسی موبایل</t>
-  </si>
-  <si>
-    <t>برنامه‌نویسی وب</t>
-  </si>
-  <si>
-    <t>شبکه‌های کامپیوتری</t>
-  </si>
-  <si>
-    <t>شبیه سازی کامپیوتری</t>
-  </si>
-  <si>
-    <t>گرافیک کامپیوتری</t>
-  </si>
-  <si>
-    <t>تحلیل شبکه‌های اجتماعی</t>
-  </si>
-  <si>
-    <t>اصول سیستم‌های عامل</t>
-  </si>
-  <si>
-    <t>اصول طراحی نرم افزار</t>
-  </si>
-  <si>
-    <t>کامپایلر</t>
-  </si>
-  <si>
-    <t>مباحثی در علوم کامپیوتر ۱</t>
-  </si>
-  <si>
-    <t>مباحثی در علوم کامپیوتر ۲</t>
-  </si>
-  <si>
-    <t>مبانی بیوانفورماتیک</t>
-  </si>
-  <si>
-    <t>پروژه کارشناسی</t>
-  </si>
-  <si>
-    <t>آنالیز عددی</t>
-  </si>
-  <si>
-    <t>آشنایی با کلان داده‌ها</t>
-  </si>
-  <si>
-    <t>فرایند های تصادفی</t>
-  </si>
-  <si>
-    <t>مبانی رایانش ابری</t>
-  </si>
-  <si>
-    <t>رایانش چند‌هسته‌ای</t>
-  </si>
-  <si>
-    <t>سیگنال‌ها و سیستم‌ها</t>
-  </si>
-  <si>
-    <t>مدیریت پروژه‌های فناوری اطلاعات</t>
+    <t>بازی‌سازی و بازی‌انگاری</t>
   </si>
   <si>
     <t>Calculus I</t>
@@ -346,187 +343,184 @@
     <t>Fundamentals of Logic</t>
   </si>
   <si>
-    <t>Discrete Optimization</t>
-  </si>
-  <si>
     <t>Introduction to the theory of Computation</t>
   </si>
   <si>
     <t>Elementary Scientific Computing</t>
   </si>
   <si>
+    <t>Foundation of Numerical Analysis</t>
+  </si>
+  <si>
+    <t>Foundation of Mathematical Analysis</t>
+  </si>
+  <si>
+    <t>Statistical Data Analysis</t>
+  </si>
+  <si>
+    <t>Applied Time Series</t>
+  </si>
+  <si>
+    <t>Elementary Machine Learning</t>
+  </si>
+  <si>
+    <t>Elementary Data Mining</t>
+  </si>
+  <si>
+    <t>Operations research</t>
+  </si>
+  <si>
+    <t>Nonlinear Optimization</t>
+  </si>
+  <si>
+    <t>Design and development of start-up businesses</t>
+  </si>
+  <si>
+    <t>Basics of Digital Economics</t>
+  </si>
+  <si>
+    <t>Apprenticeship</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Probability and Statistics II</t>
+  </si>
+  <si>
+    <t>Computational Statistics</t>
+  </si>
+  <si>
+    <t>Statistical Methods</t>
+  </si>
+  <si>
+    <t>Theory of Computation</t>
+  </si>
+  <si>
+    <t>Logic for Computer Science</t>
+  </si>
+  <si>
+    <t>Elementary Coding Theory</t>
+  </si>
+  <si>
+    <t>Cryptography</t>
+  </si>
+  <si>
+    <t>Secure Programming</t>
+  </si>
+  <si>
+    <t>Operational Semantics of Programming</t>
+  </si>
+  <si>
+    <t>Introduction to Game Theory</t>
+  </si>
+  <si>
+    <t>Randomized Algorithms</t>
+  </si>
+  <si>
+    <t>Computational Geometry</t>
+  </si>
+  <si>
+    <t>Regression I</t>
+  </si>
+  <si>
+    <t>Computational Intelligence</t>
+  </si>
+  <si>
+    <t>Elementary Business intelligence</t>
+  </si>
+  <si>
+    <t>Introduction to Deep Learning</t>
+  </si>
+  <si>
+    <t>Electronic Commerce</t>
+  </si>
+  <si>
+    <t>Mathematical Modeling</t>
+  </si>
+  <si>
+    <t>Mathematics Lab</t>
+  </si>
+  <si>
+    <t>Fuzzy Mathematics</t>
+  </si>
+  <si>
+    <t>Graph Theory &amp; Applications</t>
+  </si>
+  <si>
+    <t>Foundation of Algebra</t>
+  </si>
+  <si>
+    <t>Introduction to Fourier and Wavelet Analysis</t>
+  </si>
+  <si>
+    <t>Elementary Image Processing</t>
+  </si>
+  <si>
+    <t>Mobile Programming</t>
+  </si>
+  <si>
+    <t>Web Programming</t>
+  </si>
+  <si>
+    <t>Computer Networks</t>
+  </si>
+  <si>
+    <t>Computerized Simulation</t>
+  </si>
+  <si>
+    <t>Computer Graphics</t>
+  </si>
+  <si>
+    <t>Social Networks Analysis</t>
+  </si>
+  <si>
+    <t>Principles of Operating Systems</t>
+  </si>
+  <si>
+    <t>Principles of SoftwareDesign</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>Topics in Computer Science-I</t>
+  </si>
+  <si>
+    <t>Topics in Computer Science-II</t>
+  </si>
+  <si>
+    <t>Fundamentals of Bioinformatic</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Numerical Analysis</t>
+  </si>
+  <si>
+    <t>Introduction to Big Data</t>
+  </si>
+  <si>
+    <t>Stochastic Processes</t>
+  </si>
+  <si>
+    <t>Cloud Computing Fundamentals</t>
+  </si>
+  <si>
+    <t>Multicore Computing</t>
+  </si>
+  <si>
+    <t>Signals and Systems</t>
+  </si>
+  <si>
+    <t>Information Technology Project Management</t>
+  </si>
+  <si>
     <t>Linear Algebra</t>
   </si>
   <si>
-    <t>Foundation of Numerical Analysis</t>
-  </si>
-  <si>
-    <t>Foundation of Mathematical Analysis</t>
-  </si>
-  <si>
-    <t>Elementary Machine Learning</t>
-  </si>
-  <si>
-    <t>Elementary Data Mining</t>
-  </si>
-  <si>
-    <t>Statistical Data Analysis</t>
-  </si>
-  <si>
-    <t>Time Series</t>
-  </si>
-  <si>
-    <t>Operations research</t>
-  </si>
-  <si>
-    <t>Nonlinear Optimization</t>
-  </si>
-  <si>
-    <t>Design and development of start-up businesses</t>
-  </si>
-  <si>
-    <t>Basics of Digital Economics</t>
-  </si>
-  <si>
-    <t>Apprenticeship</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>Probability and Statistics II</t>
-  </si>
-  <si>
-    <t>Computational Statistics</t>
-  </si>
-  <si>
-    <t>Statistical Methods</t>
-  </si>
-  <si>
-    <t>Theory of Computation</t>
-  </si>
-  <si>
-    <t>Logic for Computer Science</t>
-  </si>
-  <si>
-    <t>Elementary Coding Theory</t>
-  </si>
-  <si>
-    <t>Cryptography</t>
-  </si>
-  <si>
-    <t>Secure Programming</t>
-  </si>
-  <si>
-    <t>Operational Semantics of Programming</t>
-  </si>
-  <si>
-    <t>Introduction to Game Theory</t>
-  </si>
-  <si>
-    <t>Randomized Algorithms</t>
-  </si>
-  <si>
-    <t>Computational Geometry</t>
-  </si>
-  <si>
-    <t>Regression I</t>
-  </si>
-  <si>
-    <t>Computational Intelligence</t>
-  </si>
-  <si>
-    <t>Elementary Business intelligence</t>
-  </si>
-  <si>
-    <t>Introduction to Deep Learning</t>
-  </si>
-  <si>
-    <t>Electronic Commerce</t>
-  </si>
-  <si>
-    <t>Basics and Principles of Management</t>
-  </si>
-  <si>
-    <t>Mathematical Modeling</t>
-  </si>
-  <si>
-    <t>Mathematics Lab</t>
-  </si>
-  <si>
-    <t>Fuzzy Mathematics</t>
-  </si>
-  <si>
-    <t>Graph Theory &amp; Applications</t>
-  </si>
-  <si>
-    <t>Foundation of Algebra</t>
-  </si>
-  <si>
-    <t>Introduction to Fourier and Wavelet Analysis</t>
-  </si>
-  <si>
-    <t>Elementary Image Processing</t>
-  </si>
-  <si>
-    <t>Mobile Programming</t>
-  </si>
-  <si>
-    <t>Web Programming</t>
-  </si>
-  <si>
-    <t>Computer Networks</t>
-  </si>
-  <si>
-    <t>Computerized Simulation</t>
-  </si>
-  <si>
-    <t>Computer Graphics</t>
-  </si>
-  <si>
-    <t>Social Networks Analysis</t>
-  </si>
-  <si>
-    <t>Principles of Operating Systems</t>
-  </si>
-  <si>
-    <t>Principles of SoftwareDesign</t>
-  </si>
-  <si>
-    <t>Compiler</t>
-  </si>
-  <si>
-    <t>Topics in Computer Science-I</t>
-  </si>
-  <si>
-    <t>Topics in Computer Science-II</t>
-  </si>
-  <si>
-    <t>Fundamentals of Bioinformatic</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Numerical Analysis</t>
-  </si>
-  <si>
-    <t>Introduction to Big Data</t>
-  </si>
-  <si>
-    <t>Stochastic Processes</t>
-  </si>
-  <si>
-    <t>Cloud Computing Fundamentals</t>
-  </si>
-  <si>
-    <t>Multicore Computing</t>
-  </si>
-  <si>
-    <t>Signals and Systems</t>
-  </si>
-  <si>
-    <t>Information Technology Project Management</t>
+    <t>Gamification and Game Design</t>
   </si>
   <si>
     <t>Calculus-I</t>
@@ -577,175 +571,172 @@
     <t>Fundamentals-of-Logic</t>
   </si>
   <si>
-    <t>Discrete-Optimization</t>
-  </si>
-  <si>
     <t>Introduction-to-the-theory-of-Computation</t>
   </si>
   <si>
     <t>Elementary-Scientific-Computing</t>
   </si>
   <si>
+    <t>Foundation-of-Numerical-Analysis</t>
+  </si>
+  <si>
+    <t>Foundation-of-Mathematical-Analysis</t>
+  </si>
+  <si>
+    <t>Statistical-Data-Analysis</t>
+  </si>
+  <si>
+    <t>Applied-Time-Series</t>
+  </si>
+  <si>
+    <t>Elementary-Machine-Learning</t>
+  </si>
+  <si>
+    <t>Elementary-Data-Mining</t>
+  </si>
+  <si>
+    <t>Operations-research</t>
+  </si>
+  <si>
+    <t>Nonlinear-Optimization</t>
+  </si>
+  <si>
+    <t>Design-and-development-of-start-up-businesses</t>
+  </si>
+  <si>
+    <t>Basics-of-Digital-Economics</t>
+  </si>
+  <si>
+    <t>Artificial-Intelligence</t>
+  </si>
+  <si>
+    <t>Probability-and-Statistics-II</t>
+  </si>
+  <si>
+    <t>Computational-Statistics</t>
+  </si>
+  <si>
+    <t>Statistical-Methods</t>
+  </si>
+  <si>
+    <t>Theory-of-Computation</t>
+  </si>
+  <si>
+    <t>Logic-for-Computer-Science</t>
+  </si>
+  <si>
+    <t>Elementary-Coding-Theory</t>
+  </si>
+  <si>
+    <t>Secure-Programming</t>
+  </si>
+  <si>
+    <t>Operational-Semantics-of-Programming</t>
+  </si>
+  <si>
+    <t>Introduction-to-Game-Theory</t>
+  </si>
+  <si>
+    <t>Randomized-Algorithms</t>
+  </si>
+  <si>
+    <t>Computational-Geometry</t>
+  </si>
+  <si>
+    <t>Regression-I</t>
+  </si>
+  <si>
+    <t>Computational-Intelligence</t>
+  </si>
+  <si>
+    <t>Elementary-Business-intelligence</t>
+  </si>
+  <si>
+    <t>Introduction-to-Deep-Learning</t>
+  </si>
+  <si>
+    <t>Electronic-Commerce</t>
+  </si>
+  <si>
+    <t>Mathematical-Modeling</t>
+  </si>
+  <si>
+    <t>Mathematics-Lab</t>
+  </si>
+  <si>
+    <t>Fuzzy-Mathematics</t>
+  </si>
+  <si>
+    <t>Graph-Theory-and-Applications</t>
+  </si>
+  <si>
+    <t>Foundation-of-Algebra</t>
+  </si>
+  <si>
+    <t>Introduction-to-Fourier-and-Wavelet-Analysis</t>
+  </si>
+  <si>
+    <t>Elementary-Image-Processing</t>
+  </si>
+  <si>
+    <t>Mobile-Programming</t>
+  </si>
+  <si>
+    <t>Web-Programming</t>
+  </si>
+  <si>
+    <t>Computer-Networks</t>
+  </si>
+  <si>
+    <t>Computerized-Simulation</t>
+  </si>
+  <si>
+    <t>Computer-Graphics</t>
+  </si>
+  <si>
+    <t>Social-Networks-Analysis</t>
+  </si>
+  <si>
+    <t>Principles-of-Operating-Systems</t>
+  </si>
+  <si>
+    <t>Principles-of-SoftwareDesign</t>
+  </si>
+  <si>
+    <t>Topics-in-Computer-Science-I</t>
+  </si>
+  <si>
+    <t>Topics-in-Computer-Science-II</t>
+  </si>
+  <si>
+    <t>Fundamentals-of-Bioinformatic</t>
+  </si>
+  <si>
+    <t>Numerical-Analysis</t>
+  </si>
+  <si>
+    <t>Introduction-to-Big-Data</t>
+  </si>
+  <si>
+    <t>Stochastic-Processes</t>
+  </si>
+  <si>
+    <t>Cloud-Computing-Fundamentals</t>
+  </si>
+  <si>
+    <t>Multicore-Computing</t>
+  </si>
+  <si>
+    <t>Signals-and-Systems</t>
+  </si>
+  <si>
+    <t>Information-Technology-Project-Management</t>
+  </si>
+  <si>
     <t>Linear-Algebra</t>
   </si>
   <si>
-    <t>Foundation-of-Numerical-Analysis</t>
-  </si>
-  <si>
-    <t>Foundation-of-Mathematical-Analysis</t>
-  </si>
-  <si>
-    <t>Elementary-Machine-Learning</t>
-  </si>
-  <si>
-    <t>Elementary-Data-Mining</t>
-  </si>
-  <si>
-    <t>Statistical-Data-Analysis</t>
-  </si>
-  <si>
-    <t>Time-Series</t>
-  </si>
-  <si>
-    <t>Operations-research</t>
-  </si>
-  <si>
-    <t>Nonlinear-Optimization</t>
-  </si>
-  <si>
-    <t>Design-and-development-of-start-up-businesses</t>
-  </si>
-  <si>
-    <t>Basics-of-Digital-Economics</t>
-  </si>
-  <si>
-    <t>Artificial-Intelligence</t>
-  </si>
-  <si>
-    <t>Probability-and-Statistics-II</t>
-  </si>
-  <si>
-    <t>Computational-Statistics</t>
-  </si>
-  <si>
-    <t>Statistical-Methods</t>
-  </si>
-  <si>
-    <t>Theory-of-Computation</t>
-  </si>
-  <si>
-    <t>Logic-for-Computer-Science</t>
-  </si>
-  <si>
-    <t>Elementary-Coding-Theory</t>
-  </si>
-  <si>
-    <t>Secure-Programming</t>
-  </si>
-  <si>
-    <t>Operational-Semantics-of-Programming</t>
-  </si>
-  <si>
-    <t>Introduction-to-Game-Theory</t>
-  </si>
-  <si>
-    <t>Randomized-Algorithms</t>
-  </si>
-  <si>
-    <t>Computational-Geometry</t>
-  </si>
-  <si>
-    <t>Regression-I</t>
-  </si>
-  <si>
-    <t>Computational-Intelligence</t>
-  </si>
-  <si>
-    <t>Elementary-Business-intelligence</t>
-  </si>
-  <si>
-    <t>Introduction-to-Deep-Learning</t>
-  </si>
-  <si>
-    <t>Electronic-Commerce</t>
-  </si>
-  <si>
-    <t>Basics-and-Principles-of-Management</t>
-  </si>
-  <si>
-    <t>Mathematical-Modeling</t>
-  </si>
-  <si>
-    <t>Mathematics-Lab</t>
-  </si>
-  <si>
-    <t>Fuzzy-Mathematics</t>
-  </si>
-  <si>
-    <t>Graph-Theory-and-Applications</t>
-  </si>
-  <si>
-    <t>Foundation-of-Algebra</t>
-  </si>
-  <si>
-    <t>Introduction-to-Fourier-and-Wavelet-Analysis</t>
-  </si>
-  <si>
-    <t>Elementary-Image-Processing</t>
-  </si>
-  <si>
-    <t>Mobile-Programming</t>
-  </si>
-  <si>
-    <t>Web-Programming</t>
-  </si>
-  <si>
-    <t>Computer-Networks</t>
-  </si>
-  <si>
-    <t>Computerized-Simulation</t>
-  </si>
-  <si>
-    <t>Computer-Graphics</t>
-  </si>
-  <si>
-    <t>Social-Networks-Analysis</t>
-  </si>
-  <si>
-    <t>Principles-of-Operating-Systems</t>
-  </si>
-  <si>
-    <t>Principles-of-SoftwareDesign</t>
-  </si>
-  <si>
-    <t>Topics-in-Computer-Science-I</t>
-  </si>
-  <si>
-    <t>Topics-in-Computer-Science-II</t>
-  </si>
-  <si>
-    <t>Fundamentals-of-Bioinformatic</t>
-  </si>
-  <si>
-    <t>Numerical-Analysis</t>
-  </si>
-  <si>
-    <t>Introduction-to-Big-Data</t>
-  </si>
-  <si>
-    <t>Stochastic-Processes</t>
-  </si>
-  <si>
-    <t>Cloud-Computing-Fundamentals</t>
-  </si>
-  <si>
-    <t>Multicore-Computing</t>
-  </si>
-  <si>
-    <t>Signals-and-Systems</t>
-  </si>
-  <si>
-    <t>Information-Technology-Project-Management</t>
+    <t>Gamification-and-Game-Design</t>
   </si>
   <si>
     <t>پایه</t>
@@ -763,6 +754,9 @@
     <t>تحلیل آماری داده‌ها، مبانی محاسبات علمی</t>
   </si>
   <si>
+    <t>یادگیری ماشین مقدماتی،  سری‌های زمانی کاربردی</t>
+  </si>
+  <si>
     <t>` `اجازه گروه</t>
   </si>
   <si>
@@ -790,6 +784,9 @@
     <t>برنامه‌نویسی پیشرفته، اصول سیستم‌های کامپیوتری</t>
   </si>
   <si>
+    <t>آمار و احتمال ۱، مبانی ترکیبیات، برنامه‌نویسی پیشرفته</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -832,10 +829,10 @@
     <t xml:space="preserve"> : دارد</t>
   </si>
   <si>
-    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط، جمع و ضرب و ریشه، نمایش هندسی اعداد مختلط، نمایش قطبی اعداد مختلط، تابع، جبر توابع، حد و قضایای مربوط به حد، بینهایت و حد چپ و راست، پیوستگی، مشتق، دستورهای مشتق\u200cگیری، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه رل، قضیه میانگین، بسط تیلر، کاربردهای مهندسی و فیزیکی مشتق، منحنیها و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه\u200cهای معادلات، تعریف انتگرال توابع پیوسته و قطعه پیوسته، قضایای اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش\u200cهای تقریبی برآورد انتگرال در محاسبه مساحت و حجم و طول منحنی و گشتاور و مرکز ثقل و کار و .... (در مختصات دکارتی و قطبی)، لگاریتم و تابع نمائی و مشتق آنها، تابع\u200cهای هذلولولی، روش\u200cهای انتگرال\u200cگیری مانند تعویض متغیر و جز به جز و تجزیه کسرها، برخی تعویض متغیرهای خاص\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['سیستم مختصات قطبی، نمودارهای قطبی دنباله، سری عددی و قضایای مربوط به سری توانی، قضیه تیلور با باقیمانده، معادلات پارامتری،\n', 'مختصات فضائی، قائده زنجیری برای مشتق جزئی، دیفرانسیل کامل، انتگرالهای دوگانه و سه گانه و کاربرد آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیری (بدون اثبات دقیق)، مختصات استوانه\u200cای و کروی\n']</t>
+    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط، جمع و ضرب و ریشه، نمایش هندسی اعداد مختلط، نمایش قطبی اعداد مختلط، تابع، جبر توابع، حد و قضایای مربوط به حد، بینهایت و حد چپ و راست، پیوستگی، مشتق، دستورهای مشتق\u200cگیری، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه رل، قضیه میانگین، بسط تیلر، کاربردهای مهندسی و فیزیکی مشتق، منحنیها و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه\u200cهای معادلات، تعریف انتگرال توابع پیوسته و قطعه پیوسته، قضایای اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش\u200cهای تقریبی برآورد انتگرال در محاسبه مساحت و حجم و طول منحنی و گشتاور و مرکز ثقل و کار و .... (در مختصات دکارتی و قطبی)، لگاریتم و تابع نمائی و مشتق آنها، تابع\u200cهای هذلولولی، روش\u200cهای انتگرال\u200cگیری مانند تعویض متغیر و جز به جز و تجزیه کسرها، برخی تعویض متغیرهای خاص\n']</t>
+  </si>
+  <si>
+    <t>['سیستم مختصات قطبی، نمودارهای قطبی دنباله، سری عددی و قضایای مربوط به سری توانی، قضیه تیلور با باقیمانده، معادلات پارامتری، مختصات فضائی، قائده زنجیری برای مشتق جزئی، دیفرانسیل کامل، انتگرالهای دوگانه و سه گانه و کاربرد آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیری (بدون اثبات دقیق)، مختصات استوانه\u200cای و کروی\n']</t>
   </si>
   <si>
     <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n']</t>
@@ -844,19 +841,19 @@
     <t>['مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، کلاسها (به صورت مختصر)، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، آشنایی با ، مستندسازی و کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
   </si>
   <si>
-    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '- **آشنایی مقدماتی با تهیه اسناد کامپیوتری**\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- **آشنایی مقدماتی با مجموعه میکروسافت آفیس**\n', '- **آشنایی با سرویس\u200cهای کاربردی**\n', 'سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- **آشنایی با سیستم عامل لینوکس**\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX\n', 'دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n']</t>
+    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '-\n', '- - آشنایی مقدماتی با تهیه اسناد کامپیوتری\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '-\n', '- - آشنایی مقدماتی با مجموعه میکروسافت آفیس\n', '- - آشنایی با سرویس\u200cهای کاربردی\n', 'سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '-\n', '- - آشنایی با سیستم عامل لینوکس\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX\n', 'دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n']</t>
   </si>
   <si>
     <t>['منطق گزاره ها و جدول ارزش. مجموعه\u200cها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه\u200cهای متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n']</t>
   </si>
   <si>
-    <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز.\n']</t>
+    <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز، تابع توزیع توأم.\n']</t>
   </si>
   <si>
     <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای sنمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از **نرم افزار اکسل**  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['•\tچرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '•\tمحیط\u200cهای مجتمع توسعه\n', '•\tساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '•\tبرنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '•\tوراثت در شی گرایی و چندریختی در شی گرایی\n', '•\tمدیریت استثناء\n', '•\tرابط گرافیکی و مفاهیم Interface\n', '•\tکار با فایل\u200cها\n', '•\tجریان داده\n', '•\tکار با رشته و آرایه\n', '•\tحافظه پویا\n', '•\t(درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- قالبها، فضای نام، auto، \n', '- Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
+    <t>['-\n', '- - چرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '- - محیط\u200cهای مجتمع توسعه\n', '- - ساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '- - برنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '- - وراثت در شی گرایی و چندریختی در شی گرایی\n', '- - مدیریت استثناء\n', '- - رابط گرافیکی و مفاهیم Interface\n', '- - کار با فایل\u200cها\n', '- - جریان داده\n', '- - کار با رشته و آرایه\n', '- - حافظه پویا\n', '- - (درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- - قالبها، فضای نام، auto، \n', '- - Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
   </si>
   <si>
     <t>['مرور فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات روی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، Threads.\n']</t>
@@ -868,7 +865,7 @@
     <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجیره ای ماتریس ها، درخت جستجوی بهینه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعالیت های بیشینه،  درخت پوشای کمینه.\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و کران و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پیچیدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n']</t>
   </si>
   <si>
-    <t>['- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با عبارات با قاعده\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n', '- آشنایی با UML\n']</t>
+    <t>['- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n', '- آشنایی با UML\n', '-\n']</t>
   </si>
   <si>
     <t>['مفاهیم پایه\u200cای (داده، فراداده، ساختارها و مدل داده\u200cها)، اصول طراحی پایگاه داده\u200cها (مدل مفهومی، نمودارهای ER، نرمال\u200cسازی، سیر تکاملی پایگاه داده\u200cها (فایل، شبکه، رابطه، شیء، شیء-رابطه، مکعب)، معرفی نرم افزارهای مدیریت پایگاه داده\u200cها (مزایا و معایب تکنولوژی¬ های مختلف)، به کارگیری یک نرم افزار مدیریت پایگاه داده\u200cها (SQL Server ، Oracle، MySQL)، زبان SQL، ساخت، حذف، و ویرایش پایگاه داده، جدول، و نما، درج، حذف، و ویرایش داده\u200cها، جستجوی داده\u200cها، مرتب سازی، انتخاب شرطی، قالب\u200cبندی نتایج جستجو، توابع محاسباتی و تجمیعی، ادغام دو یا چند جدول، آشنایی با تحلیل مه\u200cداده\u200cها با ابزارهای مدرن پایگاه داده\u200cها (SQL Server, Spark  و مانند اینها)، پایگاه داده\u200cهای غیر رابطه\u200cای.\n']</t>
@@ -877,61 +874,55 @@
     <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n']</t>
   </si>
   <si>
-    <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتری، تبدیلها و ترکیب ها و ضرایب دوجمله ای، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزی و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوی که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس های صفر و یک (آماده سازی برای بخش مربع های لاتین و گراف ها)، آشنایی با ماتریس های آدامار و برخی نتایج در این مورد. گراف ها و مدل های مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهای آن در مدلسازی (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه ای، انواع اصلی گراف نظیر گراف های کامل، درخت ها، گراف های دوبخشی، گراف های اویلری و هامیلتونی و گراف های جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق های کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزی گراف ها و چند جمله ای رنگی (با ارائه مثال و الگوریتم). مربع های لاتین، طرح ها و هندسه های متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n']</t>
-  </si>
-  <si>
-    <t>['آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n']</t>
-  </si>
-  <si>
-    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای تطابق. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، برش کمینه)، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف، مسائل مکان\u200cیابی. اجرای پروژه کاربردی.\n']</t>
-  </si>
-  <si>
-    <t>['اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n']</t>
-  </si>
-  <si>
-    <t>['دستگاه معادلات خطی و ماتریسها. دترمینان. فضای برداری. فضای ضرب داخلی. تبدیل خطی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون. نرم برداری و ماتریسی. حل دستگاه های خطی و تجزیه LU. تحلیل حساسیت دستگاههای خطی. روش گاوس با محورگیری جزئی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها.\n', 'پیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی\n']</t>
-  </si>
-  <si>
-    <t>['~~سیستم\u200cهای ممیز شناور ( آشنایی با استانداردهای IEEE) و معرفی رند عدد یک.~~\n', '~~خطای نمایش، خطرات آن و نحوه کنترل آن، نحوه محاسبات توابع پایه با سیستم ممیز شناور، پیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی علمی الگوریتم\u200cهای منتخب عددی با انتخاب استاد و مستندسازی نرم\u200cافزارهای علمی~~\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['منابع خطا، سیستم\u200cهای نمایشی اعداد، خطای رندکردن و تحلیل آن. ریشه\u200cیابی توابع و دستگاههای غیر خطی. درون\u200cیابی. تقریب کمترین مربعات. مشتق\u200cگیری عددی. انتگرال\u200cگیری عددی. حل دستگاه\u200cهای خطی.\n']</t>
-  </si>
-  <si>
-    <t>['اعداد حقیقی و آشنایی با فضاهای متریک و مفاهیم توپولوژیکی آن. مجموعه اعداد حقیقی، اصل کمال و خاصیت ارشمیدسی. مجموعه\u200cهای باز و بسته. مجموعه\u200cهای فشرده. مجموعه\u200cهای همبند. پیوستگی توابع. مشتق توابع. قضیه مقدار میانی و قضیه اکسترمم. پیوستگی یکنواخت. قضیه مقدار میانگین و قاعده هوپیتال. فضاهای متریک. دنباله\u200cها و همگرایی آن\u200cها. حد توابع. حفظ پیوستگی و همبندی توسط توابع پیوسته.\n']</t>
-  </si>
-  <si>
-    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ناپخته، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، روشهای کاهش بعد، PCA و LDA.\n', 'پروژه کاربردی (حتی الامکان تحت وب)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه.  رویکرد این درس آشنایی دانشجو با مباحث یادگیری ماشینی است و مباحث نظری صرفا در حد نیاز آموزش داده شوند. در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس\u200cهای بهینه\u200cسازی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پیش پردازش و آماده سازی داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استاندارد سازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', 'تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی \n', 'روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، میانگین متحرک، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', 'شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی، معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحلیل آنها بوسیله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با حوزه\u200cی یادگیری ماشین اشتراک دارد، در این برنامه درسی سعی شده است که هم\u200cپوشانی مطالب کمینه باشد. شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
-  </si>
-  <si>
-    <t>['جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری، بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، مقدمه ای بر سری های زمانی، تحلیل واریانس\n']</t>
-  </si>
-  <si>
-    <t>['مثالهایی از سری های زمانی و اهداف تحلیل سری های زمانی.  مدل های دارای روند و مؤلفه فصلی در حوزه زمان و روشهای برآورد و حذف آنها (عملگرهای پسرو و تفاضلی). مدل های مبتنی بر روابط خودهمبستگی (تعاریف اولیه مانند تابع خود کوواریانس، خودهمبستگی، خودهمبستگی جزئی). توابع خود کوواریانس و خودهمبستگی نمونه\u200cای. آزمون های گوناگون برای تصادفی و نرمال بودن دنباله\u200cهای متغیرهای تصادفی. معرفی کلاس ARIMA از مدل\u200cهای خطی و وارون\u200cپذیر. برآورد میانگین و توابع خود کوواریانس و خودهمبستگی مدل های ایستا. پیشبینی مدل های سری های زمانی ایستا. مدل\u200cهای ARIMA با استفاده از برآوردهای اولیه. برآوردگرهای MLE، بررسی درستی و صحت مدل، معیار AICC. سری های زمانی در حوزه فرکانس. برآورد پارامترهای مدل و چگونگی تعیین مدل و معرفی مدل های سری زمانی مبتنی بر واریانس شرطی.\n', 'توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار ( یا نرم\u200cافزارهای مشابه) جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n']</t>
-  </si>
-  <si>
-    <t>['`\t`آشنایی با زمینه های تحقیق در عملیات به ویژه در اقتصاد و یادگیری ماشین. مدل بندی مسائل بهینه سازی، مفاهیم پایه ای مرتبط با برنامه ریزی خطی شامل روشهای ترسیمی، سیمپلکس اولیه و دوگان، دوفازی، دوگانی، تحلیل حساسیت. روشهای حل مسائل حمل ونقل ساده و مرکب. مدل سازی مساله تخصیص و روش حل آن. آشنایی با برنامه ریزی عدد صحیح و روشهای شاخه و کران و صفحات برشی،آشنایی با ماشین بردار پشتیبان. معرفی یک نرم افزار یا زبان مدلسازی جهت حل مسائل بهینه سازی، مانند CPLEX  و Pyomo\n']</t>
-  </si>
-  <si>
-    <t>['مدل سازی شامل: کاربردهایی از بهینه سازی محدب مانند طبقه بندی خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل های سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازی، شرایط لازم و کافی برای مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهای حل مسایل نامقید شامل: روشهای بر مبنای جستجوی خطی( جستجوی طلایی، فیبوناچی، عقب گرد)، روشهای گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش های گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازی درجه دوم محدب با قیود خطی و معرفی برخی روش های حل آن ؛ الگوریتم\u200cهای حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازی الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n']</t>
+    <t>['-\n', '- دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتری، تبدیلها و ترکیب ها و ضرایب دوجمله ای، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزی و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوی که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس های صفر و یک (آماده سازی برای بخش مربع های لاتین و گراف ها)، آشنایی با ماتریس های آدامار و برخی نتایج در این مورد. گراف ها و مدل های مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهای آن در مدلسازی (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه ای، انواع اصلی گراف نظیر گراف های کامل، درخت ها، گراف های دوبخشی، گراف های اویلری و هامیلتونی و گراف های جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق های کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزی گراف ها و چند جمله ای رنگی (با ارائه مثال و الگوریتم). مربع های لاتین، طرح ها و هندسه های متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['\\1.\tخطا. انواع خطا. منابع تولید خطا. نمایش اعداد. ارقام با معنی. محاسبات پایدار و ناپایدار. حساسیت\n', '\\2.\tدستگاه معادلات خطی و ماتریسها. دترمینان. ماتریس های نواری. ماتریس های بلوکی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون. نرم برداری و ماتریسی. حل دستگاه های خطی. تجزیه LU. تحلیل حساسیت دستگاههای خطی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. دستگاه های هزنبرگ. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها. \n', '\\3.\tاعمال ماتریسی بازگشتی. تبدیل فوریه سریع\n', '\\4.\tپیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- منابع خطا، سیستم\u200cهای نمایشی اعداد، خطای رندکردن و تحلیل آن. ریشه\u200cیابی توابع و دستگاههای غیر خطی. درون\u200cیابی. تقریب کمترین مربعات. مشتق\u200cگیری عددی. انتگرال\u200cگیری عددی. حل دستگاه\u200cهای خطی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- اعداد حقیقی و آشنایی با فضاهای متریک و مفاهیم توپولوژیکی آن. مجموعه اعداد حقیقی، اصل کمال و خاصیت ارشمیدسی. مجموعه\u200cهای باز و بسته. مجموعه\u200cهای فشرده. مجموعه\u200cهای همبند. پیوستگی توابع. مشتق توابع. قضیه مقدار میانی و قضیه اکسترمم. پیوستگی یکنواخت. قضیه مقدار میانگین و قاعده هوپیتال. فضاهای متریک. دنباله\u200cها و همگرایی آن\u200cها. حد توابع. حفظ پیوستگی و همبندی توسط توابع پیوسته.\n']</t>
+  </si>
+  <si>
+    <t>['مروری بر جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری. بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، تحلیل واریانس\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- بیان اهداف تحلیل سری¬های زمانی با ذکر مثال\u200cهایی در زمینه\u200cهای مختلف مانند هواشناسی، موضوعات اقتصادی و مالی، روند، مولفه فصلی، تجزیه سری زمانی، برآورد روندها با مدل های رگرسیونی، هموارسازی، مفاهیم پایه\u200cای سری\u200cهای زمانی و فرایندهای تصادفی(تابع میانگین و واریانس، تابع خود کوواریانس، خود همبستگی و خود همبستگی جزئی،\u200c مانایی)، فرآیند نوفه سفید، قدم زدن تصادفی، سری های عمومی خطی، میانگین متحرک و فرآیند خود بازگشت،  مدل\u200cهای ARMA  و ARIMA (فصلی و غیر فصلی)، در کلاس باکس- جنکینز، آزمون ریشه واحد، تفاضل\u200cگیری،  براورد پارامترها  (روشهای گشتاوری، کمترین مربعات و ماکسیمم درستنمایی)، پیش بینی، تحلیل باقیمانده ها و بررسی تشخیص مدلها، مناسبت مدل ها، آزمون\u200cهای خودهمبستگی، آزمون های نرمال بودن، ملاکهای AIC و BIC برای انتخاب مدل، مقدمه مدل های ناهمسان واریانس شرطی، تبدیلات باکس- کاکس.\n', '- توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'آشنایی با نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ساده، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، آنالیز مؤلفه\u200cهاب اصلی (PCA) و تحلیل تفکیک خطی (LDA).\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس\u200cهای بهینه\u200cسازی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون مباحثی در علوم کامپیوتر یا دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پیش پردازش و آماده سازی داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استانداردسازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', '- تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی.\n', '- شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی.\n', '- روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', '- معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحلیل آنها بوسیله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با درس یادگیری ماشین مقدماتی اشتراک دارد، شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`آشنایی با زمینه های تحقیق در عملیات به ویژه در اقتصاد و یادگیری ماشین. مدل بندی مسائل بهینه سازی، مفاهیم پایه ای مرتبط با برنامه ریزی خطی شامل روشهای ترسیمی، سیمپلکس اولیه و دوگان، دوفازی، دوگانی، تحلیل حساسیت. روشهای حل مسائل حمل ونقل ساده و مرکب. مدل سازی مساله تخصیص و روش حل آن. آشنایی با برنامه ریزی عدد صحیح و روشهای شاخه و کران و صفحات برشی،آشنایی با ماشین بردار پشتیبان. معرفی یک نرم افزار یا زبان مدلسازی جهت حل مسائل بهینه سازی، مانند CPLEX  و Pyomo\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مدل سازی شامل: کاربردهایی از بهینه سازی محدب مانند طبقه بندی خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل های سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازی، شرایط لازم و کافی برای مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهای حل مسایل نامقید شامل: روشهای بر مبنای جستجوی خطی( جستجوی طلایی، فیبوناچی، عقب گرد)، روشهای گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش های گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازی درجه دوم محدب با قیود خطی و معرفی برخی روش های حل آن ؛ الگوریتم\u200cهای حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازی الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n', '-\n']</t>
   </si>
   <si>
     <t>['•\tکسب و کارهای نوپا، به ویژه کسب و کارهای نوپای ناب\n', '•\tارزیابی خطر \n', '•\tارزیابی منابع \n', '•\tتحلیل بازار \n', '•\tتحلیل مالی \n', '•\tارزش پیشنهادی\n', '•\tفرآیند توسعه مشتری \n', '•\tتفکر طراحی\n', '•\tمهارت های کار تیمی و گروهی \n', '•\tقوانین داخلی و بین المللی کسب و کار  \n', '•\tمهارت ها و روش های توسعه نرم افزار \n', '•\tمعرفی کارآفرینان موفق در ایران و دنیا \n', '•\tمعرفی موفقیت ها و شکست های بزرگ در راه اندازی کسب و کارهای نوپا \n', '•\tسخنرانی های شخصیت های موفق در ایجاد کسب و کارهای نوپا\n']</t>
   </si>
   <si>
-    <t>['اقتصاد: مبانی و مدل ها. معاملات، مزیت مقایسه ای و سیستم بازار. قیمت ها از کجا می آیند: تعادل تقاضا و عرضه. بهره وری اقتصادی ، تعیین قیمت و مالیات ها. سیاست های زیست محیطی و خدمات عمومی. انعطاف پذیری: پاسخگویی تقاضا. شرکت ها، بازار سهام و حاکمیت شرکتی. انتخاب مصرف کننده و اقتصاد رفتاری. فناوری ، تولید و هزینه ها. شرکت ها در بازارهای کاملاً رقابتی. سیاست انحصاری و ضد انحصاری.\n', 'اشاره\u200cای به رمزارزها و بلاکچین\n']</t>
+    <t>['-\n', '- انقلاب صنعتی چهارم\n', '- روند حضور و نفوذ فناوری های دیجیتال در صنعت\n', '- انقلاب دیجیتال\n', '- تحول دیجیتال\n', '- روندهای اقتصادی و فناوری های مرتبط با اقتصاد دیجیتال\n', '- هوش مصنوعی / بلاک چین / اینترنت اشیا  / ...\n', '- مدل های کسب و کار در اقتصاد دیجیتال\n', '- انقلاب پلتفرم\n', '- تجارت الکترونیک نسل چهارم \n', '- تشخیص فرصت و ایده پردازی در فضای کسب و کارهای دیجیتالی\n', '- طراحی و راه اندازی کسب و کار در اقتصاد دیجیتالی\n', '- اصول تیم سازی در فضای کسب و کارهای دیجیتالی\n', '- اصول مدیریت پروژه و کار تیمی در فضای کسب و کارهای دیجیتالی \n', '- نقش های کلیدی در یک کسب و کار مبتنی بر اقتصاد دیجیتال\n', '- تدوین استراتژی ورود به بازار و اصول بازاریابی در کسب و کارهای دیجیتالی\n', '- تدوین استراتژی های جذب، حفظ و توسعه مشتریان در کسب و کارهای دیجیتالی\n', '- قیمت گذاری محصولات یا خدمات\n', '- روش های تامین مالی و شیوه ارائه به سرمایه گذار و الزامات آن\n', '- ارزشگذاری فناوری\n', '- اجزای اکوسیستم نوآوری مبتنی بر اقتصاد دیجیتال و آشنایی با نقش آنها\n', '-\n']</t>
   </si>
   <si>
     <t>['**محتوای کارآموزی برای هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n']</t>
   </si>
   <si>
-    <t>['مقدمه\u200cای بر هوش مصنوعی و تاریخچه\u200cی آن، معرفی عامل\u200cهای هوشمند، جست\u200cوجوی ناآگاهانه، جست\u200cوجوی اول-سطح  و جستجوی اول-عمق، جست\u200cوجوی عمق بخشی تکراری، جست\u200cوجوی هزینه-یکنواخت، جست\u200cوجوی آگاهانه، توابع ابتکاری قابل قبول  و سازگار، جست\u200cوجوی اول بهترین حریصانه، الگوریتم \\*A و اثبات بهینگی، خودکارسازی تولید توابع ابتکاری، جست\u200cوجوی محلی، تپه\u200cنوردی، شبیه\u200cسازی ذوب، جست\u200cوجوی شعاعی محلی  و الگوریتم ژنتیک، جستجوی محلی در فضای پیوسته: روش کاهش در راستای گرادیان، مسائل ارضای محدودیت، جست\u200cوجوی عقبگرد، استفاده از تکنیک\u200cهایی نظیر LCV، MRV، بررسی جلورو\u200c، MAC، AC3، حل مسائل CSP با رویکرد جستجوی محلی، جستجوی مقابله\u200cای، الگوریتم minimax و هرس آلفا-بتا، الگوریتم expectiminimax، فرایند تصمیم مارکوف، ارزیابی سیاست  و بهبود  سیاست، روش تکرار ارزش  و تکرار سیاست، یادگیری تقویتی، روش\u200cهای مبتنی بر مدل، یادگیری تفاضل زمانی  و الگوریتم Q-learning، منطق، منطق گزاره\u200cای  و استنتاج  در منطق گزاره\u200cای )، منطق مرتبه اول  و استنتاج در منطق مرتبه اول، معرفی شبکه\u200cهای بیزین، بازنمایی  در شبکه\u200cهای بیزین و استقلال  در این شبکه\u200cها، استنتاج در شبکه\u200cهای بیزین: استنتاج دقیق و استنتاج تقریبی با استفاده از نمونه برداری، تخمین پارامترها در شبکه\u200cهای بیزین، نمونه\u200cهای معروف و کاربردی از شبکه\u200cهای بیزین: مدل مارکوف، مدل مخفی مارکوف، دسته\u200cبند بیز ساده.\n']</t>
-  </si>
-  <si>
-    <t>['توزیعهای توام: تابع احتمال، تابع چگالی و تابع توزیع توام، متغیرهای تصادفی مستقل، کواریانس، ضریب همبستگی، مثال هایی از توزیع های توام خاص. توزیع های شرطی: توزیع های شرطی گسسته، توزیع های شرطی پیوسته، کاربرد توزیع های شرطی، امید ریاضی شرطی و کاربردهای آن شامل امید کل، واریانس شرطی. توزیع توابعی از متغیرهای تصادفی: روش تابع توزیع، روش تغییر متغیرها (دو یا چند متغیره)، روش تابع مولد گشتاور، توزیع مجموع متغیرهای تصادفی، مجموع تعداد تصادفی از متغیرهای تصادفی، امید ریاضی مجموع تعداد تصادفی از متغیرهای تصادفی. قضیه حد مرکزی و تقریب دوجمله ای توسط نرمال، تقریب پواسن به نرمال. آمار توصیفی: نمونه، جامعه آماری، شاخصهای آماری، نمودارهای آماری. نمونه تصادفی، توزیع میانگین نمونه ای، توزیع های نمونه ای، تی استودنت، کای-دو و توزیع فیشر. روشهای برآوردیابی پارامترهای نامعلوم: برآوردیابی نقطه ای، برآورد فاصله ای، فاصله اطمینان با اندازه نمونه\u200cهای بزرگ. آشنایی با مفاهیم آزمون فرضها: آزمون فرضهای ساده، آزمون فرض های یک طرفه، آزمون فرض های دوطرفه، آزمون واریانس جمعیت نرمال، آزمون میانگین و نسبت با اندازه نمونه های بزرگ، استنباط در مورد دو میانگین، استنباط در مورد جفت مشاهدات، آزمون میانگین و نسبت دو جمعیت با اندازه نمونه های بزرگ.\n']</t>
+    <t>['-\n', '- مقدمه\u200cای بر هوش مصنوعی و تاریخچه\u200cی آن، معرفی عامل\u200cهای هوشمند، فضای حالت، جست\u200cوجوی ناآگاهانه، جست\u200cوجوی آگاهانه، الگوریتم \\*A و اثبات بهینگی، جست\u200cوجوی محلی، مسائل ارضای محدودیت، جست\u200cوجوی عقبگرد، حل مسائل CSP با رویکرد جستجوی محلی، جستجوی مقابله\u200cای، الگوریتم minimax و هرس آلفا-بتا، یادگیری تقویتی، روش\u200cهای مبتنی بر مدل، یادگیری تفاضل زمانی  و الگوریتم Q-learning، منطق، منطق گزاره\u200cای  و استنتاج  در منطق گزاره\u200cای، منطق مرتبه اول  و استنتاج در منطق مرتبه اول، معرفی شبکه\u200cهای بیزین، بازنمایی  در شبکه\u200cهای بیزین و استقلال  در این شبکه\u200cها، استنتاج در شبکه\u200cهای بیزین: استنتاج دقیق و استنتاج تقریبی با استفاده از نمونه برداری، تخمین پارامترها در شبکه\u200cهای بیزین، نمونه\u200cهای معروف و کاربردی از شبکه\u200cهای بیزین: مدل مارکوف، مدل مخفی مارکوف، دسته\u200cبند بیز ساده.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- توزیعهای توام: تابع احتمال، تابع چگالی و تابع توزیع توام، متغیرهای تصادفی مستقل، کواریانس، ضریب همبستگی، مثال هایی از توزیع های توام خاص. توزیع های شرطی: توزیع های شرطی گسسته، توزیع های شرطی پیوسته، کاربرد توزیع های شرطی، امید ریاضی شرطی و کاربردهای آن شامل امید کل، واریانس شرطی. توزیع توابعی از متغیرهای تصادفی: روش تابع توزیع، روش تغییر متغیرها (دو یا چند متغیره)، روش تابع مولد گشتاور، توزیع مجموع متغیرهای تصادفی، مجموع تعداد تصادفی از متغیرهای تصادفی، امید ریاضی مجموع تعداد تصادفی از متغیرهای تصادفی. قضیه حد مرکزی و تقریب دوجمله ای توسط نرمال، تقریب پواسن به نرمال. آمار توصیفی: نمونه، جامعه آماری، شاخصهای آماری، نمودارهای آماری. نمونه تصادفی، توزیع میانگین نمونه ای، توزیع های نمونه ای، تی استودنت، کای-دو و توزیع فیشر. روشهای برآوردیابی پارامترهای نامعلوم: برآوردیابی نقطه ای، برآورد فاصله ای، فاصله اطمینان با اندازه نمونه\u200cهای بزرگ. آشنایی با مفاهیم آزمون فرضها: آزمون فرضهای ساده، آزمون فرض های یک طرفه، آزمون فرض های دوطرفه، آزمون واریانس جمعیت نرمال، آزمون میانگین و نسبت با اندازه نمونه های بزرگ، استنباط در مورد دو میانگین، استنباط در مورد جفت مشاهدات، آزمون میانگین و نسبت دو جمعیت با اندازه نمونه های بزرگ.\n', '-\n']</t>
   </si>
   <si>
     <t>['مروری بر مباحث آمار توصیفی، پالایش داده\u200cها با اندازه\u200c وابعاد زیاد، رسم نمودار هسته\u200cهای چگالی یک و دومتغیره، آزمون\u200cهای نرمال یک و چند متغیره، کاربرد روش\u200cهای مونت\u200cکارلو در استنباط آماری، مقدمه\u200cای بر شیوه\u200c شبیه\u200cسازی در تولید داده\u200cهای تصادفی از چند توزیع آماری، مانند نرمال و تی-استیودنت، یک و چند متغیره و بررسی ویژگی آن\u200cها، مطالعات شبیه\u200cسازی برای آزمون برابری میانگین\u200cها، واریانس\u200cها و میانه\u200cهای جوامع با نمونه\u200cهای مستقل از توزیع\u200cهای نرمال و چند توزیع غیر نرمال. کاربرد روش مونت\u200cکارلو دریافتن احتمال\u200cهای پیچیده و p-مقدار برخی آزمون\u200cها، شبیه\u200cسازی مدل\u200cهای رگرسیون خطی با انواع متغیرهای توضیحی کمی و کیفی و با فرض مانده\u200cهای غیر نرمال و وابسته، بررسی استواری مدل نسبت به نقض فرض\u200cهای معمول، مباحث تکمیل\u200cکننده در صحت و اعتبار مدل\u200cهای برازش شده باوجود مشاهدات پرت و ناهمسانی واریانس، معرفی راهبردهای مناسب مانند رگرسیون استوار ناپارامتری، یافتن برآوردهای ماکسیمم درستنمایی توسط روش\u200cهای بهینه\u200cسازی عددی مانند نیوتن-رافسون و امتیاز فیشر، روش\u200c بوت\u200cاسترپ و جک\u200cنایف و کاربرد آن\u200cها در مباحث آماری؛ الگوریتمEM و کاربرد آن در برآورد یابی توزیع\u200cهای آمیخته متداول پیوسته و گسسته یک متغیره.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه. پروژه های درسی و نوشتن گزارش نتایج  توسط دانشجو،  مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیز نیاز دارد، فعالیت\x1fهای تعیین شده ای توسط استاد درس بایستی در آزمایشگاه نرم افزار ارائه شود و دانشجویان نیز فعالیت\x1fهای تعریف شده ای را انجام \x1fدهند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
@@ -940,34 +931,34 @@
     <t>['نمونه تصادفی، توزیع میانگین نمونه ای،  قضیه حدمرکزی، برآورد نقطه ای و ویژگی های آن، برآورد فاصله ای برای پارامترهای میانگین، واریانس و نسبت در یک جامعه و  مقایسه دو جامعه در حالات: جوامع نرمال، جوامع غیرنرمال، واریانس های دو جامعه معلوم، واریانس های دو جامعه مجهول و واریانس ها مجهول ولی برابر، حجم نمونه ها کم و حجم نمونه ها زیاد، بر اساس دو نمونه مستقل و دو نمونه وابسته،  آزمون فرضیه های آماری: بیان مفاهیم و اصول آزمون های آماری، انواع خطا و اهمیت آنها، اندازه آزمون، آزمون های پارامتری یک طرفه و دو طرفه برای میانگین، واریانس و نسبت یک جامعه و مقایسه  دو جامعه در حالات : واریانس معلوم، واریانس مجهول، میانگین معلوم، میانگین مجهول، حجم نمونه ها کم، حجم نمونه ها زیاد، دو جامعه مستقل و دو جامعه وابسته، نمودار پراکنش، براورد، آزمون فرض و فاصله اطمینان برای ضریب همبستگی پیرسون،  رگرسیون خطی ساده، آزمون خی دو برای نیکوئی برازش، جدول توافقی و آزمون استقلال، محاسبات و تحلیل داده با حداقل یک نرم افزار آماری و تفسیر خروجی های آن. \n', '`     `**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n']</t>
-  </si>
-  <si>
-    <t>['منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم\u200cهای انتقالی.\n']</t>
-  </si>
-  <si>
-    <t>['یادآوری مفاهیم حلقه، میدان، حلقه خارج قسمتی، حوزه ایده آل اصلی، حلقه چندجمله\u200cای\u200cها، الگوریتم تقسیم، فضای برداری روی میدان متناهی، پایه و بعد یک فضای برداری. تعریف مفاهیم ابتدایی کدگذاری شامل مجموعه الفبا، کد و کد کلمه، تعریف فاصله همینگ و خواص آن و ….  مقدمه\u200cای بر میدان\u200cهای متناهی. مقدمه\u200cای بر کدهای خطی. تعریف کد دوری.\n']</t>
-  </si>
-  <si>
-    <t>['مقدمه\u200cای بر رمزنگاری. ساختارهای اساسی رمزنگاری. رمزنگاری متقارن. رمزنگاری کلید عمومی. امضای دیجیتال. ریاضی رمز. تعاریف مبتنی بر شبیه\u200cسازی. مدل پیشگوی تصادفی. پروتکل های رمزنگاری. رمزنگاری کوانتومی.\n']</t>
-  </si>
-  <si>
-    <t>['مقدمه ای بر امنیت ، تعریف امنیت، مفاهیم رمزنگاری – امنیت نرم افزار، تفاوت قابلیتهای امنیتی با قابلیتهای امن، تاثیر امنیت در فرایند مهندسی نرم افزار، نیازمندیهای کیفی نرم افزار، دسته بندی مخاطرات، مدلهای تولید نرم افزار امن )مدل مستقل ، مدل توزیع شده ، مدل متمرکز( - آنالیزهای ایستا و پویا ، آنالیز ایستا )محدودیتهای آنالیز ایستا، بازخوانی کد، مدل سازی، آنالیز الگوریتم(، آنالیز پویا )تست نفوذ( – مخاطرات مشهور، سرریز بافر، بررسی ورودی، خطاها و استثنائات، امنیت برنامه های تحت وب، سطح دسترسی، حریم خصوصی - استانداردهای موجود، ASVS\\OWASP ، Cert ، SDLC ، Clasp ،Criteria Common – ابزارهای آنالیز سورس کد ، ابزارهای ایستا ، ابزارهای پویا. \n']</t>
-  </si>
-  <si>
-    <t>['معناشناسی عملیاتی. درستی یابی برنامه. تایپ های بازگشتی.\n']</t>
+    <t>['-\n', '- معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم\u200cهای انتقالی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- یادآوری مفاهیم حلقه، میدان، حلقه خارج قسمتی، حوزه ایده آل اصلی، حلقه چندجمله\u200cای\u200cها، الگوریتم تقسیم، فضای برداری روی میدان متناهی، پایه و بعد یک فضای برداری. تعریف مفاهیم ابتدایی کدگذاری شامل مجموعه الفبا، کد و کد کلمه، تعریف فاصله همینگ و خواص آن و ….  مقدمه\u200cای بر میدان\u200cهای متناهی. مقدمه\u200cای بر کدهای خطی. تعریف کد دوری.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه\u200cای بر رمزنگاری. ساختارهای اساسی رمزنگاری. رمزنگاری متقارن. رمزنگاری کلید عمومی. امضای دیجیتال. ریاضی رمز. تعاریف مبتنی بر شبیه\u200cسازی. مدل پیشگوی تصادفی. پروتکل های رمزنگاری. رمزنگاری کوانتومی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه ای بر امنیت ، تعریف امنیت، مفاهیم رمزنگاری – امنیت نرم افزار، تفاوت قابلیتهای امنیتی با قابلیتهای امن، تاثیر امنیت در فرایند مهندسی نرم افزار، نیازمندیهای کیفی نرم افزار، دسته بندی مخاطرات، مدلهای تولید نرم افزار امن )مدل مستقل ، مدل توزیع شده ، مدل متمرکز( - آنالیزهای ایستا و پویا ، آنالیز ایستا )محدودیتهای آنالیز ایستا، بازخوانی کد، مدل سازی، آنالیز الگوریتم(، آنالیز پویا )تست نفوذ( – مخاطرات مشهور، سرریز بافر، بررسی ورودی، خطاها و استثنائات، امنیت برنامه های تحت وب، سطح دسترسی، حریم خصوصی - استانداردهای موجود، ASVS\\OWASP ، Cert ، SDLC ، Clasp ،Criteria Common – ابزارهای آنالیز سورس کد ، ابزارهای ایستا ، ابزارهای پویا. \n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- معناشناسی عملیاتی. درستی یابی برنامه. تایپ های بازگشتی.\n', '-\n']</t>
   </si>
   <si>
     <t>['مفاهیم پایه ای نظریه بازی\u200cها،  تفاوت میان تصمیم\u200cگیری و بازی، طبقه\u200cبندی نظریه بازی ها، شاخه\u200cهای اصلی نظریه بازی\u200cها، تاریخچه\u200cی مختصر نظریه بازی\u200cها،  بازی\u200cهای ایستا با اطلاعات ناقص و اطلاعات کامل، فرم ماتریسی بازی، بازی متقارن،  بازی با سه بازیکن، بازی با بیش از سه بازیکن،  تعادل استراتژی غالب،  تعادل نش، تعریف تعادل نش در یک بازی n نفره، بازی\u200cهای کاملاً رقابتی،  رابطه بین تعادل نش با سایر جواب\u200cها،  بازی\u200cهای ایستا با اطلاعات کامل با استراتژی\u200cهای پیوسته،  استراتژی مختلط،  تعادل نش استراتژی مختلط در بازی\u200cهای کاملاً رقابتی، کاربردهای بازی ایستا با اطلاعات کامل در بازار، بازی انحصار دو جانبه، بازی برتراند،  حراج، مزایده و مناقصه،  مسئله منابع مشترک و مشاعات، بازی مکان\u200cیابی، مسأله شراکت، بازی پلیس و مجرم،  تبلیغات انتخاباتی، بازی\u200cهای پویا با اطلاعات  ناقص و کامل،  کاربردهایی از بازی\u200cهای پویا،  بازیهای تکراری، بازی با تکرار محدود،  بازی با تکرار نامحدود، تبانی و بازی با تکرار نامحدود، بازی های تکاملی، بازی\u200cهای همکارانه و تشکیل ائتلاف.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['احتمال و اثبات با روش احتمالاتی. الگوریتم\u200cهای تصادفی پایه\u200cای. جایگشت تصادفی و کاربردهای\u200c آن. کران پایین الگوریتم\u200cهای تصادفی. ساختمان\u200cداده. قدم\u200cزدن تصادفی. روش مونت کارلو. روش\u200cهای جبری. الگوریتم\u200cهای گراف. آنتروپی.\n']</t>
-  </si>
-  <si>
-    <t>['- مقدمه \n', '  - معرفی درس، نمونه مسائل هندسی\n', '- پوسته\u200cی محدب \n', '  - محاسبه\u200cی پوسته\u200cی محدب در صفحه، عملیات پایه\u200cی هندسی\n', '  - چند روش برای محاسبه\u200cی پوسته\u200cی محدب در صفحه\n', '  - اثبات کران پایین، قضیه\u200cی بن-اُر\n', '  - الگوریتم\u200cهای حساس به خروجی، دو الگوریتم بهینه از چن\n', '- دوگان هندسی \n', '  - دوگان نقاط، پوش\u200cهای بالایی و پایینی، کاربردها، دوگان در فضای سه\u200cبعدی\n', '- پوسته\u200cی محدب در فضای سه\u200cبعدی \n', '  - پیچیدگی ترکیبیاتی، نحوه\u200cی نمایش، الگوریتم کادوپیچی\n', '  - الگوریتم تصادفی کلارکسون-شور، پوسته\u200cی محدب در فضاهای بالاتر\n', '- تقاطع و چینش خطوط \n', '  - ساخت چینش خطوط، الگوریتم افزایشی، قضیه\u200cی قلمرو یک خط\n', '  - تقاطع پاره\u200cخط\u200cها، الگوریتم جاروب صفحه، الگوریتم تقسیم و حل\n', '- نمودار ورونوی و مثلث\u200cبندی دلونی \n', '  - تعریف نمودار ورونوی، ویژگی\u200cها و قضایا\n', '  - مثلث\u200cبندی دلونی و خواص آن، الگوریتم فورچیون\n', '  - ارتباط با پوسته\u200cی محدب، الگوریتم تصادفی ساخت\n', '  - کاربردهای نمودار ورونوی و مثلث\u200cبندی دلونی، نمودار ورونوی مرتبه\u200cی بالاتر\n', '- برنامه\u200cریزی خطی \n', '  - تعریف برنامه\u200cریزی خطی، کاربردهای هندسی در فضای پایین\n', '  - الگوریتم هرس و جست\u200cوجوی مگیدو، الگوریتم تصادفی-افزایشی سایدل\n', '  - الگوریتم نمونه\u200cبرداری تصادفی کلارکسون\n', '  - مسائل شبیه به برنامه\u200cریزی خطی، کوچک\u200cترین دایره\u200cی محیطی\n', '- مکان\u200cیابی نقاط \n', '  - روش تقسیم و حل، نقشه\u200cی ذوزنقه\u200cای، الگوریتم افزایشی تصادفی\n', '  - الگوریتم هرس و جست\u200cوجوی کرکپاتریک\n', '- مثلث\u200cبندی چندضلعی \n', '  - روش ذوزنقه\u200cبندی، الگوریتم تصادفی سایدل\n', '  - کاربردهای مثلث\u200cبندی، مسئله\u200cی گالری هنر\n', '- جست\u200cوجوی بازه\u200cای \n', '  - بازه\u200cهای متعامد: درخت کی\u200cدی، درخت بازه، آبشار کسری\n', '  - پنجره\u200cبندی، درخت جست\u200cوجوی اولویت، درخت پاره\u200cخط\n']</t>
-  </si>
-  <si>
-    <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['-\n', '- احتمال و اثبات با روش احتمالاتی. الگوریتم\u200cهای تصادفی پایه\u200cای. جایگشت تصادفی و کاربردهای\u200c آن. کران پایین الگوریتم\u200cهای تصادفی. ساختمان\u200cداده. قدم\u200cزدن تصادفی. روش مونت کارلو. روش\u200cهای جبری. الگوریتم\u200cهای گراف. آنتروپی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - مقدمه \n', '- - معرفی درس، نمونه مسائل هندسی\n', '- - پوسته\u200cی محدب \n', '- - محاسبه\u200cی پوسته\u200cی محدب در صفحه، عملیات پایه\u200cی هندسی\n', '- - چند روش برای محاسبه\u200cی پوسته\u200cی محدب در صفحه\n', '- - اثبات کران پایین، قضیه\u200cی بن-اُر\n', '- - الگوریتم\u200cهای حساس به خروجی، دو الگوریتم بهینه از چن\n', '- - دوگان هندسی \n', '- - دوگان نقاط، پوش\u200cهای بالایی و پایینی، کاربردها، دوگان در فضای سه\u200cبعدی\n', '- - پوسته\u200cی محدب در فضای سه\u200cبعدی \n', '- - پیچیدگی ترکیبیاتی، نحوه\u200cی نمایش، الگوریتم کادوپیچی\n', '- - الگوریتم تصادفی کلارکسون-شور، پوسته\u200cی محدب در فضاهای بالاتر\n', '- - تقاطع و چینش خطوط \n', '- - ساخت چینش خطوط، الگوریتم افزایشی، قضیه\u200cی قلمرو یک خط\n', '- - تقاطع پاره\u200cخط\u200cها، الگوریتم جاروب صفحه، الگوریتم تقسیم و حل\n', '- - نمودار ورونوی و مثلث\u200cبندی دلونی \n', '- - تعریف نمودار ورونوی، ویژگی\u200cها و قضایا\n', '- - مثلث\u200cبندی دلونی و خواص آن، الگوریتم فورچیون\n', '- - ارتباط با پوسته\u200cی محدب، الگوریتم تصادفی ساخت\n', '- - کاربردهای نمودار ورونوی و مثلث\u200cبندی دلونی، نمودار ورونوی مرتبه\u200cی بالاتر\n', '- - برنامه\u200cریزی خطی \n', '- - تعریف برنامه\u200cریزی خطی، کاربردهای هندسی در فضای پایین\n', '- - الگوریتم هرس و جست\u200cوجوی مگیدو، الگوریتم تصادفی-افزایشی سایدل\n', '- - الگوریتم نمونه\u200cبرداری تصادفی کلارکسون\n', '- - مسائل شبیه به برنامه\u200cریزی خطی، کوچک\u200cترین دایره\u200cی محیطی\n', '- - مکان\u200cیابی نقاط \n', '- - روش تقسیم و حل، نقشه\u200cی ذوزنقه\u200cای، الگوریتم افزایشی تصادفی\n', '- - الگوریتم هرس و جست\u200cوجوی کرکپاتریک\n', '- - مثلث\u200cبندی چندضلعی \n', '- - روش ذوزنقه\u200cبندی، الگوریتم تصادفی سایدل\n', '- - کاربردهای مثلث\u200cبندی، مسئله\u200cی گالری هنر\n', '- - جست\u200cوجوی بازه\u200cای \n', '- - بازه\u200cهای متعامد: درخت کی\u200cدی، درخت بازه، آبشار کسری\n', '- - پنجره\u200cبندی، درخت جست\u200cوجوی اولویت، درخت پاره\u200cخط\n']</t>
+  </si>
+  <si>
+    <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', 'ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'نکته: توصیه می\u200cشود این درس با هماهنگی با درس شبکه\u200cهای عصبی گفته شود.\n']</t>
@@ -979,76 +970,73 @@
     <t>['`    `مروری مختصر بر رگرسیون، لجستیک رگرسیون و مدل پرسپترون. معرفی تنسورها، عملیات روی تنسورها (برش، عملیات درجا و ...)، مشتق\u200cگیری خودکار، انتقال تنسورها به کارت گرافیک، آشنایی با انواع توابع فعالیت، توابع هزینه و الگوریتم\u200cهای بهینه\u200cسازی مورد استفاده در روال گرادیان کاهشی، روشهای ارزیابی (monitoring)، الگوریتم پس انتشار، بیش برازشی و کم برازشی، آماده\u200cسازی داده\u200cها،  منظم\u200cسازی، Dropout، شبکه\u200cهای عصبی متراکم (تمام متصل یا چگال)، شبکه\u200cهای عصبی پیچشی (کانولوشنی)، نمایش آنچه که لایه\u200cهای لایه\u200cهای پیچشی آموزش می\u200cبینند، یادگیری عمیق برای داده\u200cهای متنی و سری زمانی، شبکه\u200cهای برگشتی  (RNN, GRU, LSTM) و کاربردهای آنها. یادگیری خود کدگذارها، آشنایی با چند معماری معروف، انتقال یادگیری، یادگیری انتها به انتها، طبقه\u200cبندی داده\u200cهای تصویری، متنی، تنظیم پارامترها. شبکه\u200cهای مولد هم\u200cآورد (GAN)، نمایش برخی توانمندی\u200cهای یادگیری عمیق از طریق بیان مثالهای کاربردی از قبیل تولید متن، شناسایی چهره، تولید تصویر جعلی، رؤیای عمیق، انتقال سبک عصبی، نقاشی با شبکه\u200cهای عصبی و بیان توابع هزینه\u200cی مرتبط با آنها. آشنایی با حداقل یکی از کتابخانه\u200cهای معروف حوزه یادگیری عمیق مانند پای\u200cتورچ یا تنسورفلو. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', 'با توجه به اینکه پیش\u200cنیاز این درس، یادگیری ماشین مقدماتی است و در آن درس رگرسیون، مدل پرسپترون و شبکه\u200cهای چند لایه پرسپترونی گفته شده\u200cاند، در این درس می\u200cتوان به سرعت وارد مبحث موضوع یادگیری عمیق شد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n']</t>
-  </si>
-  <si>
-    <t>['`   `آشنایی با: مفاهیم و تعریف مدیریت. کاربرد های سازمان و انواع آن. برنامه ریزی و انواع آن با تاکید بر حوزه سیاسی. انگیزش و روش های ایجاد و تقویت انگیزه با تاکید بر سازمان های سیاسی. هدایت رهبری با تاکید بر هداریت و رهبری سیاسی. نظارت(کنترل) و روش های آن با تاکید بر نظارت در حوزه سیاست. خلاقیت و نوآوری و روش های ایجاد و تقویت آن با تاکید حوزه های سیاسی. روش های تصمیم گیری و انواع آن. رهیافت های عمده در سیر تکوینی نظریه های مدیریتی شامل رهیافت های سنتی منابع انسانی کمی و اقتضایی. انواع الگو های مدیریتی. الگو های مدیریت سیاسی. اصول مدیریت در اسلام. الکوی مدیریت حکمرانی انبیا- آشنایی با مدیریت در محیط سیاس. احزاب سازمان های مردم نهاد و مانند آن. مطالعه موردی شیوه های مدیریت سیاس در سیاست داخلی و خارجی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. دانشجویان باید تکلیف\u200cهای محول شده را انجام و ارائه نمایند.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['`\t`مقدمه ای بر مدلسازی، تعریف مدلسازی و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهای اقتصادی مدلهای بیویوژیکی و زیستی، مدلهای فیزیکی، مدلهای تصادفی، مدلهای دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازی: انواع توابع ونمایش آنها با استفاده از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازی، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهای اقتصادی از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازی، مقایسه بین، توابع خطی و نمایی در مدلسازی، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازی، رشد وکاهش نمایی، استفاده از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژی و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاده از گرافها در مدلسازی، بسط گرافها و گرافهای شیفت یافته و کاربرد آنها در مدلسازی همراه با ارائه چند مثال؛ توابع توانی و چند جمله ای ها در مدلسازی، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازی با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازی همراه با ارائه چند مثال.\n']</t>
-  </si>
-  <si>
-    <t>['`\t`معرفی یکی از نرم افزارهای ریاضی، نحوه نصب و استفاده از راهنمای آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهای n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهای تابع، رسم نمودارهای دو بعدی، برنامهنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهای تقریبی برآورد انتگرال، دنباله\u200cها و سری ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n']</t>
-  </si>
-  <si>
-    <t>['`\t`مروری گذرا بر منطق کالسیک (ارسطویی) و نظریه مجموعه\u200cهای کالسیک. تعریف مجموعه\u200cهای فازی و متغیر زبانی، تابع عضویت و انواع متداول آن (تابع عضویت منفرد، مثلثی، ذوزنقه و گوسی)، آشنایی با مفاهیم تکیهگاه، ارتفاع، مرکز، هسته، نرمال بودن، آلفا-برش. معرفی مفاهیم زیرمجموعه بودن فازی، مکمل فازی، اجتماع فازی، اشتراک فازی، قانون دمورگان.  مروری کوتاه بر نظریه امکان و تفاوت آن با نظریه احتمال. تعریف عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی و میانگین فازی. معرفی شرایط برقراری مجموعه انجمنی برای عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی. تعریف حاصلضرب دکارتی مجموعه\u200cهای فازی، تعریف رابطه فازی و ترکیب روابط فازی، تعریف تابع فازی، معرفی مفاهیم تصویر فازی، توسعه استوانهای فازی، اصل تجزیه فازی و اصل توسیع زاده. معرفی اعداد فازی، انواع اعداد فازی متداول (عدد فازی منفرد، مثلثی، ذوزنقه\u200cای و نمایی یا گوسی)، حساب اعداد فازی بر اساس دو روش اصل توسیع فازی و استفاده از آلفا-برشها، بررسی وجود جواب معادالت خطی فازی، رتبه بندی اعداد فازی. تعریف گزاره\u200cهای فازی، قواعد اگر- آنگاه فازی، تعریف استلزام فازی و کاربرد آن در ساختن یک سیستم استنتاج فازی(سیستم کنترل فازی). تعریف موتور استنتاج فازی، فازی ساز و انواع آن، پایگاه قواعد فازی، غیر فازی ساز و انواع آن. آشنایی با ساختن یک سیستم فازی ممدانی.\n']</t>
-  </si>
-  <si>
-    <t>['مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه\u200cهای مستقل و خوشه ها.\n']</t>
-  </si>
-  <si>
-    <t>['نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n']</t>
-  </si>
-  <si>
-    <t>['جبر خطی و فضاهای هیلبرت: یادآوری فضاهای برداری و خواص آن، ضرب داخلی و تعامد، عملگرهای خطی و خود الحاق روی فضای ضرب داخلی، فضاهای هیلبرت، دنباله ها و سری ها در فضای هیلبرت، پایه های متعامد؛ سری فوریه: دیدگاه های تاریخی، تحلیل سیگنال و مثال های متنوع، سری فوریه و قضایای همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی های تبدیل فوریه، تبدیل فوریه در فضاهای اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهای آن؛ موجک ها:  سیستم های هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه های موجکی، تبدیل های گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n']</t>
-  </si>
-  <si>
-    <t>['مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n']</t>
-  </si>
-  <si>
-    <t>['- مقدمه و برپایی محیط توسعه اندروید \n', 'آشنایی با مفاهیم، ابزارها (Android Studio و Android SDK)، نحوه\u200cی خطایابی و آزمون در توسعه\u200cی برنامه\u200cهای اندروید، فرایند تولید یک برنامه اندروید\n', '- \u200eواسط کاربری و الگوهای آن\u200e \n', 'آشنایی با الگوی MVP، معرفی مولفه\u200cهای واسط کاربری، اصول طراحی و پیاده\u200cسازی یک واسط کاربری سفارشی (به کمک بسطview و GroupView)، مدیریت واسط کاربری به صورت پویا (dynamic layouts management)، بهترین الگوهای (best practices) طراحی واسط کاربری در اندروید\n', '- مدیریت داده\u200cها و بومی\u200cسازی \n', 'ذخیره و بازیابی اطلاعات یک برنامه کاربردی در Preference اشتراکی و اختصاصی، ارتباط با پایگاه داده (SQLite database)، مکانیزم\u200cهای پشتیبانی از localization (l10n) و internationalization (i18n)\n', '- حافظه و ریسمان\u200cها \n', 'چرخه\u200cی حیات برنامه اندروید (application life cycle)، مدل حافظه و مدیریت ریسمان\u200cها در اندروید، آشنایی با اصول پیاده\u200cسازی الگو AsyncTask\n', '- مدیریت سرویس\u200cها\u200e \n', 'سرویس\u200cهای مبتنی بر مکان (location-based services)، مدیریت سرویس\u200cها و هشدارها (Services, Broadcast receivers and notifications)، مدیریت دوربین، مدیریت سنسورها (sensor manager)، آشنایی با پرداخت درون برنامه\u200cای\n', '- برپایی محیط توسعه iOS \n', 'آشنایی با مفاهیم و ابزارهای توسعه برنامه\u200cنویسی (Xcode)، مروری بر مولفه\u200cهای واسط کاربری و آشنایی با Storyboards، آشنایی با الگوی MVC\n', '- برنامه\u200cنویسی با Swift \n', 'آشنایی با ساختار زبان، انواع داده\u200c، کلاس\u200cها و اشیا، قلمروها (Scopes)، اختیاری\u200cها (Optionals)، داده\u200cها و توابع عام (Generics)، آشنایی با پروتکل\u200cها (Protocols)، مدیریت خطاها، مروری بر مدیریت حافظه\n', '- تکنولوژی\u200cهای iOS \n', 'تکنولوژی\u200cهای واسط کاربری(UIKit، Core Graphics، Core Animation)، تکنولوژی\u200cهای بازی\u200cسازی (Game Kit، Sprite Kit،OpenGL ES، Game Controller)، تکنولوژی\u200cهای مدیریت داده\u200cها (Core Data، Foundation)، مدیریت صدا و تصویر (AV Foundation)\n', '- امنیت\u200e \n', 'آشنایی با مخاطرات امنیتی و استانداردهای تخمین آن (mobile security assessment)، آشنایی با ابزارهای Obfuscation، آشنایی با ابزارهای تحلیل مخاطرات امنیتی (روش\u200cهای مبتنی بر تحلیل ایستا و پویا-static and dynamic analysis tools، روش\u200cهای مهندسی مجدد)\n']</t>
-  </si>
-  <si>
-    <t>['- مقدمه \n', 'کلیات درس، تاریخچه\u200cی وب، پروتکل\u200c HTTP\n', '- طراحی صفحات \n', 'ساختار HTML، عناصر و ویژگی\u200cها، پاراگراف\u200cبندی، فرمت\u200cبندی، لینک\u200cها، لیست\u200cها\n', '`      `تصاویر، جدول\u200cها، فرم\u200cها، عناصر جدید در HTML5\n', '- سبک\u200cبندی \n', 'تعریف CSS، فرمت\u200cبندی، انتخاب\u200cکننده\u200cها، وراثت و آبشار، اصول طراحی\n', 'چیدمان صفحه، مدل جعبه\u200cای، نمایش شناور، موقعیت\u200cها، شبه\u200cکلاس\u200cها\n', '- جاوا اسکریپت \n', 'ساختار کلی زبان، کاربردها، دستورات و توابع، متغیرها و انواع داده\u200cای، ساختارهای کنترلی\n', 'آرایه\u200cها، اشیاء، نحوه\u200cی تعریف اشیاء، سازنده\u200cها، نهان\u200cسازی داده\u200cها\n', 'مدل DOM، ویرایش عناصر و سبک\u200cها، رسیدگی به رویدادها، استثناها\n', 'کتاب\u200cخانه\u200cی jQuery، انتخاب\u200cکننده\u200cها، رویدادها، جلوه\u200cها و پویانمایی\n', '- ذخیره\u200cی داده\u200cها \n', 'آشنایی با XML، کاربردها، DTD، تبدیل توسط XSLT، آشنایی با JSON\n', 'پایگاه\u200c داده\u200cهای رابطه\u200cای\u200c، ایجاد پایگاه داده، زبان پرس\u200cوجوی SQL\n', '- تعامل با سرور \n', 'رابط CGI، ارسال توسط GET و POST، پردازش فرم\u200cها، کوکی\u200cها\n', 'استفاده از AJAX، ارسال درخواست، دریافت و تجزیه\u200cی پاسخ، کاربردها\n', '- پایتون \n', 'ساختار زبان، عملگرها، انواع داده\u200cای، لیست\u200cها، رشته\u200cها، چندتایی\u200cها، فرهنگ\u200cهای داده\u200cای\n', 'توابع، ماژول\u200cها، پکیج\u200cها، توابع بی\u200cنام، آرگومان\u200cهای متغیر، دکوراتورها\n', 'رده\u200cها و اشیاء، سازنده\u200cها، وراثت، رسیدگی به استثناها\n', 'پرونده\u200cها، پردازش متن، عبارات منظم، کاربردها\n', 'خواندن صفحات وب، کارگزار وب پایتون، آشنایی با WSGI\n', '- معماری وب \n', 'لایه\u200cبندی، معماری کاربر-کارگزار، معماری سه\u200cلایه، معماری MVC\n', 'مدل\u200cهای داده، انواع رابطه\u200c، تطابق با پایگاه\u200c داده\u200cهای رابطه\u200cای\n', '- چارچوب جنگو \n', 'مفاهیم اولیه، نصب و راه\u200cاندازی، مؤلفه\u200cها، معماری کلی\n', 'ایجاد یک پروژه، تعریف پایگاه داده، راه\u200cاندازی مدیر، افزودن نما\n', 'لایه\u200cی مدل، نگاشت\u200cگر شیء-رابطه، وراثت، اجرای پرس\u200cوجو\n', '`     `لایه\u200cی نما، نگاشت نشانی\u200cها، اشیاء درخواست و پاسخ، نماهای عمومی\n', 'لایه\u200cی قالب\u200c، زبان تعریف قالب، تگ\u200cها و فیلترهای آماده\n', 'پردازش فرم\u200cها، ابزارک\u200cهای توکار، اعتبارسنجی\n', 'مباحث پیشرفته \n', 'میان\u200cافزارها، بهینه\u200cسازی، فشرده\u200cسازی، استفاده از کش\n', 'احراز هویت، کنترل دسترسی\u200cها، مدیریت کاربرها و گروه\u200cها\n', 'امنیت، محافظت در مقابل حملات امنیتی، رمزنگاری\n', '`     `جلسات، ذخیره\u200cی حالت جلسه، روش\u200cهای ترکیبی\n', 'بین\u200cالمللی\u200cسازی، محلی\u200cسازی، ابزارهای ترجمه\u200c\n']</t>
-  </si>
-  <si>
-    <t>['برنامه\u200cنویسی مبتنی بر سوکت. سویچینگ بسته\u200cهای آی\u200cپی. آدرس\u200cدهی و هدایت مبتنی بر آی\u200cپی. قراردادهای انتقال (تی\u200cسی\u200cپی و یو\u200cدی\u200cپی\u200c). کنترل ازدحام. ترجمه\u200cی آدرس\u200cها (دی\u200cان\u200cاس\u200c، دی\u200cاچ\u200cسی\u200cپی و اِی\u200cآر\u200cپی\u200c). میان\u200cافزار (Middleware). سوئیچ ها و پل\u200cها (Switches and Bridges). اتصالات (Links). مسیریابی حالت اتصال. مسیریابی بردار فاصله و بردار مسیر. مسیریابی بردار مسیر مبتنی بر خط مشی (BGP). شبکه\u200cهای فرالایه\u200cای و همتا-به-همتا. جریان\u200cسازی چندرسانه\u200cای. سویچینگ مداری (Circuit Switching). شبکه\u200cهای بی\u200cسیم و همراه. شبکه توزیع محتوا (CDN). شبکه\u200cهای مبتنی بر نرم\u200c\u200cافزار.\n']</t>
-  </si>
-  <si>
-    <t>['مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه سازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n']</t>
-  </si>
-  <si>
-    <t>['آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصورسازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n']</t>
-  </si>
-  <si>
-    <t>['خواص گرافی شبکه\u200cهای اجتماعی. نظریه بازی در شبکه\u200cهای اجتماعی. انتشار اطلاعات در شبکه\u200cهای اجتماعی. دینامیک شبکه\u200cهای اجتماعی.\n']</t>
-  </si>
-  <si>
-    <t>['بررسی کلی سیستمهای عامل. بررسی پیشینه های سیستم عامل. مدیریت فرآیند. مدیریت چند نخی. زمانبندی. مدیریت همزمانی. مدیریت بن بست و الگوریتم\u200cهای شناسایی و رفع بن بست. مدیریت ذخیره سازی. برنامه\u200cنویسی لینوکس.\n']</t>
-  </si>
-  <si>
-    <t>['بررسی مدل های تولید نرم افزار(آبشاری و غیره)، روش های تعریف نیازها (صوری و غیر صوری)، روشهای وارسی و اعتبار سنجی، روشهای طراحی(از بالا به پایین، از پایین به بالا)، موضوعی، فرآروندی و داده ای، پیاده سازی، آزمون، اشکال زدایی، نگهداری، قابلیت اطمینان، استفاده مجدد، قابلیت حمل، کارآیی، طراحی نرم افزار بوسیله کامپیوتر، انجام پروژه تیمی.\n']</t>
-  </si>
-  <si>
-    <t>['معرفی کلی کامپایلر. فاز تحلیل لغوی. آتوماتای متناهی. تجزیه بالا یه پایین. تجزیه پایین به بالا. تحلیل معنایی. تولید کد. بهینه\u200cسازی محلی. بهینه\u200cسازی سراسری.\n']</t>
-  </si>
-  <si>
-    <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n']</t>
-  </si>
-  <si>
-    <t>['معرفی بیوانفورماتیک، حوزه های علم بیوانفورماتیک، کاربردهای بیوانفورماتیک،  اساس بیوشیمی و زیست\u200cشناسی سلولی، ساختار مولکولی و شیمی فیزیکی پروتئین\u200cها و DNA، گرافیک مولکولی، بانک\u200cهای اطلاعاتی ساختاری، آنالیز توالی پروتئین و DNA، روشهای پیشگو به\u200cوسیله توالی\u200cهای پروتئین و DNA، آنالیز ژنومیک، کاربرد بالینی / پزشکی و درمانی Bio-informatics\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', '**\n', '` `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. این درس نیاز به انجام پروژه توسط دانشجو دارد. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['-\n', '- مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`مقدمه ای بر مدلسازی، تعریف مدلسازی و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهای اقتصادی مدلهای بیویوژیکی و زیستی، مدلهای فیزیکی، مدلهای تصادفی، مدلهای دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازی: انواع توابع ونمایش آنها با استفاده از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازی، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهای اقتصادی از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازی، مقایسه بین، توابع خطی و نمایی در مدلسازی، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازی، رشد وکاهش نمایی، استفاده از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژی و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاده از گرافها در مدلسازی، بسط گرافها و گرافهای شیفت یافته و کاربرد آنها در مدلسازی همراه با ارائه چند مثال؛ توابع توانی و چند جمله ای ها در مدلسازی، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازی با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازی همراه با ارائه چند مثال.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`معرفی یکی از نرم افزارهای ریاضی، نحوه نصب و استفاده از راهنمای آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهای n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهای تابع، رسم نمودارهای دو بعدی، برنامه\u200cنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهای تقریبی برآورد انتگرال، دنباله\u200cها و سری ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`مروری گذرا بر منطق کالسیک (ارسطویی) و نظریه مجموعه\u200cهای کالسیک. تعریف مجموعه\u200cهای فازی و متغیر زبانی، تابع عضویت و انواع متداول آن (تابع عضویت منفرد، مثلثی، ذوزنقه و گوسی)، آشنایی با مفاهیم تکیهگاه، ارتفاع، مرکز، هسته، نرمال بودن، آلفا-برش. معرفی مفاهیم زیرمجموعه بودن فازی، مکمل فازی، اجتماع فازی، اشتراک فازی، قانون دمورگان.  مروری کوتاه بر نظریه امکان و تفاوت آن با نظریه احتمال. تعریف عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی و میانگین فازی. معرفی شرایط برقراری مجموعه انجمنی برای عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی. تعریف حاصلضرب دکارتی مجموعه\u200cهای فازی، تعریف رابطه فازی و ترکیب روابط فازی، تعریف تابع فازی، معرفی مفاهیم تصویر فازی، توسعه استوانهای فازی، اصل تجزیه فازی و اصل توسیع زاده. معرفی اعداد فازی، انواع اعداد فازی متداول (عدد فازی منفرد، مثلثی، ذوزنقه\u200cای و نمایی یا گوسی)، حساب اعداد فازی بر اساس دو روش اصل توسیع فازی و استفاده از آلفا-برشها، بررسی وجود جواب معادالت خطی فازی، رتبه بندی اعداد فازی. تعریف گزاره\u200cهای فازی، قواعد اگر- آنگاه فازی، تعریف استلزام فازی و کاربرد آن در ساختن یک سیستم استنتاج فازی(سیستم کنترل فازی). تعریف موتور استنتاج فازی، فازی ساز و انواع آن، پایگاه قواعد فازی، غیر فازی ساز و انواع آن. آشنایی با ساختن یک سیستم فازی ممدانی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه\u200cهای مستقل و خوشه ها.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- جبر خطی و فضاهای هیلبرت: یادآوری فضاهای برداری و خواص آن، ضرب داخلی و تعامد، عملگرهای خطی و خود الحاق روی فضای ضرب داخلی، فضاهای هیلبرت، دنباله ها و سری ها در فضای هیلبرت، پایه های متعامد؛ سری فوریه: دیدگاه های تاریخی، تحلیل سیگنال و مثال های متنوع، سری فوریه و قضایای همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی های تبدیل فوریه، تبدیل فوریه در فضاهای اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهای آن؛ موجک ها:  سیستم های هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه های موجکی، تبدیل های گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه و برپایی محیط توسعه اندروید \n', '- آشنایی با مفاهیم، ابزارها ، نحوه\u200cی خطایابی و آزمون در توسعه\u200cی برنامه\u200cهای اندروید، فرایند تولید یک برنامه اندروید\n', '- \u200eواسط کاربری و الگوهای آن\u200e \n', '- آشنایی با الگوی MVP، معرفی مولفه\u200cهای واسط کاربری، اصول طراحی و پیاده\u200cسازی یک واسط کاربری سفارشی ، مدیریت واسط کاربری به صورت پویا ، بهترین الگوهای  طراحی واسط کاربری در اندروید\n', '- مدیریت داده\u200cها و بومی\u200cسازی \n', '- ذخیره و بازیابی اطلاعات یک برنامه کاربردی در Preference اشتراکی و اختصاصی، ارتباط با پایگاه داده ، مکانیزم\u200cهای پشتیبانی از localization  و internationalization \n', '- حافظه و ریسمان\u200cها \n', '- چرخه\u200cی حیات برنامه اندروید ، مدل حافظه و مدیریت ریسمان\u200cها در اندروید، آشنایی با اصول پیاده\u200cسازی الگو AsyncTask\n', '- مدیریت سرویس\u200cها\u200e \n', '- سرویس\u200cهای مبتنی بر مکان ، مدیریت سرویس\u200cها و هشدارها ، مدیریت دوربین، مدیریت سنسورها ، آشنایی با پرداخت درون برنامه\u200cای\n', '- برپایی محیط توسعه iOS \n', '- آشنایی با مفاهیم و ابزارهای توسعه برنامه\u200cنویسی ، مروری بر مولفه\u200cهای واسط کاربری و آشنایی با Storyboards، آشنایی با الگوی MVC\n', '- برنامه\u200cنویسی با Swift \n', '- آشنایی با ساختار زبان، انواع داده\u200c، کلاس\u200cها و اشیا، قلمروها ، اختیاری\u200cها ، داده\u200cها و توابع عام ، آشنایی با پروتکل\u200cها ، مدیریت خطاها، مروری بر مدیریت حافظه\n', '- تکنولوژی\u200cهای iOS \n', '- تکنولوژی\u200cهای واسط کاربری، تکنولوژی\u200cهای بازی\u200cسازی ، تکنولوژی\u200cهای مدیریت داده\u200cها ، مدیریت صدا و تصویر \n', '-\n', '- امنیت\u200e، آشنایی با مخاطرات امنیتی و استانداردهای تخمین آن ، آشنایی با ابزارهای Obfuscation، آشنایی با ابزارهای تحلیل مخاطرات امنیتی\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - مقدمه \n', '- - کلیات درس، تاریخچه\u200cی وب، پروتکل\u200c HTTP\n', '- - طراحی صفحات \n', '- - ساختار HTML، عناصر و ویژگی\u200cها، پاراگراف\u200cبندی، فرمت\u200cبندی، لینک\u200cها، لیست\u200cها\n', '- - `      `تصاویر، جدول\u200cها، فرم\u200cها، عناصر جدید در HTML5\n', '- - سبک\u200cبندی \n', '- - تعریف CSS، فرمت\u200cبندی، انتخاب\u200cکننده\u200cها، وراثت و آبشار، اصول طراحی\n', '- - چیدمان صفحه، مدل جعبه\u200cای، نمایش شناور، موقعیت\u200cها، شبه\u200cکلاس\u200cها\n', '- - جاوا اسکریپت \n', '- - ساختار کلی زبان، کاربردها، دستورات و توابع، متغیرها و انواع داده\u200cای، ساختارهای کنترلی\n', '- - آرایه\u200cها، اشیاء، نحوه\u200cی تعریف اشیاء، سازنده\u200cها، نهان\u200cسازی داده\u200cها\n', '- - مدل DOM، ویرایش عناصر و سبک\u200cها، رسیدگی به رویدادها، استثناها\n', '- - کتاب\u200cخانه\u200cی jQuery، انتخاب\u200cکننده\u200cها، رویدادها، جلوه\u200cها و پویانمایی\n', '- - ذخیره\u200cی داده\u200cها \n', '- - آشنایی با XML، کاربردها، DTD، تبدیل توسط XSLT، آشنایی با JSON\n', '- - پایگاه\u200c داده\u200cهای رابطه\u200cای\u200c، ایجاد پایگاه داده، زبان پرس\u200cوجوی SQL\n', '- - تعامل با سرور \n', '- - رابط CGI، ارسال توسط GET و POST، پردازش فرم\u200cها، کوکی\u200cها\n', '- - استفاده از AJAX، ارسال درخواست، دریافت و تجزیه\u200cی پاسخ، کاربردها\n', '- - پایتون \n', '- - خواندن صفحات وب، کارگزار وب پایتون، آشنایی با WSGI\n', '- - معماری وب \n', '- لایه\u200cبندی، معماری کاربر-کارگزار، معماری سه\u200cلایه، معماری MVC\n', '- مدل\u200cهای داده، انواع رابطه\u200c، تطابق با پایگاه\u200c داده\u200cهای رابطه\u200cای\n', '- - چارچوب جنگو \n', '- مفاهیم اولیه، نصب و راه\u200cاندازی، مؤلفه\u200cها، معماری کلی\n', '- ایجاد یک پروژه، تعریف پایگاه داده، راه\u200cاندازی مدیر، افزودن نما\n', '- لایه\u200cی مدل، نگاشت\u200cگر شیء-رابطه، وراثت، اجرای پرس\u200cوجو\n', '- `     `لایه\u200cی نما، نگاشت نشانی\u200cها، اشیاء درخواست و پاسخ، نماهای عمومی\n', '- لایه\u200cی قالب\u200c، زبان تعریف قالب، تگ\u200cها و فیلترهای آماده\n', '- پردازش فرم\u200cها، ابزارک\u200cهای توکار، اعتبارسنجی\n', '- مباحث پیشرفته \n', '- میان\u200cافزارها، بهینه\u200cسازی، فشرده\u200cسازی، استفاده از کش\n', '- احراز هویت، کنترل دسترسی\u200cها، مدیریت کاربرها و گروه\u200cها\n', '- امنیت، محافظت در مقابل حملات امنیتی، رمزنگاری\n', '- `     `جلسات، ذخیره\u200cی حالت جلسه، روش\u200cهای ترکیبی\n', '- بین\u200cالمللی\u200cسازی، محلی\u200cسازی، ابزارهای ترجمه\u200c\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- برنامه\u200cنویسی مبتنی بر سوکت. سویچینگ بسته\u200cهای آی\u200cپی. آدرس\u200cدهی و هدایت مبتنی بر آی\u200cپی. قراردادهای انتقال (تی\u200cسی\u200cپی و یو\u200cدی\u200cپی\u200c). کنترل ازدحام. ترجمه\u200cی آدرس\u200cها (دی\u200cان\u200cاس\u200c، دی\u200cاچ\u200cسی\u200cپی و اِی\u200cآر\u200cپی\u200c). میان\u200cافزار (Middleware). سوئیچ ها و پل\u200cها (Switches and Bridges). اتصالات (Links). مسیریابی حالت اتصال. مسیریابی بردار فاصله و بردار مسیر. مسیریابی بردار مسیر مبتنی بر خط مشی (BGP). شبکه\u200cهای فرالایه\u200cای و همتا-به-همتا. جریان\u200cسازی چندرسانه\u200cای. سویچینگ مداری (Circuit Switching). شبکه\u200cهای بی\u200cسیم و همراه. شبکه توزیع محتوا (CDN). شبکه\u200cهای مبتنی بر نرم\u200c\u200cافزار.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه سازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصورسازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- خواص گرافی شبکه\u200cهای اجتماعی. نظریه بازی در شبکه\u200cهای اجتماعی. انتشار اطلاعات در شبکه\u200cهای اجتماعی. دینامیک شبکه\u200cهای اجتماعی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- بررسی کلی سیستمهای عامل. بررسی پیشینه های سیستم عامل. مدیریت فرآیند. مدیریت چند نخی. زمانبندی. مدیریت همزمانی. مدیریت بن بست و الگوریتم\u200cهای شناسایی و رفع بن بست. مدیریت ذخیره سازی. برنامه\u200cنویسی لینوکس.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- بررسی مدل های تولید نرم افزار(آبشاری و غیره)، روش های تعریف نیازها (صوری و غیر صوری)، روشهای وارسی و اعتبار سنجی، روشهای طراحی(از بالا به پایین، از پایین به بالا)، موضوعی، فرآروندی و داده ای، پیاده سازی، آزمون، اشکال زدایی، نگهداری، قابلیت اطمینان، استفاده مجدد، قابلیت حمل، کارآیی، طراحی نرم افزار بوسیله کامپیوتر، انجام پروژه تیمی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- معرفی کلی کامپایلر. فاز تحلیل لغوی. آتوماتای متناهی. تجزیه بالا یه پایین. تجزیه پایین به بالا. تحلیل معنایی. تولید کد. \n']</t>
+  </si>
+  <si>
+    <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['معرفی بیوانفورماتیک، حوزه های علم بیوانفورماتیک، کاربردهای بیوانفورماتیک،  اساس بیوشیمی و زیست\u200cشناسی سلولی، ساختار مولکولی و شیمی فیزیکی پروتئین\u200cها و DNA، گرافیک مولکولی، بانک\u200cهای اطلاعاتی ساختاری، آنالیز توالی پروتئین و DNA، روشهای پیشگو به\u200cوسیله توالی\u200cهای پروتئین و DNA، آنالیز ژنومیک، کاربرد بالینی / پزشکی و درمانی Bio-informatics\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['**محتوای پروژه برای هر دانشجو و توسط استاد پروژه تعیین می شود.**\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**تدریس مفاهیم در جلسات اصلی درس و برگزاری کلاسهای مشاوره در طول نیمسال .**\n']</t>
   </si>
   <si>
-    <t>['حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n']</t>
+    <t>['-\n', '- حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n', '-\n']</t>
   </si>
   <si>
     <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
   </si>
   <si>
-    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، استفاده از حداقل یک نرم افزار آماری برای آموزش مطالب درسی. در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری دارند. کلاس حل تمرین در دو بخش نظری 8 جلسه 2 ساعتی و آزمایشگاه نرم افزار در 4 جلسه 2 ساعتی برگزار شود. \n']</t>
+    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n']</t>
   </si>
   <si>
     <t>['1- آشنایی با مفاهیم رایانش ابری، مدلهای مختلف استقرار و سرویس دهی 2- آشنایی با معماری مرجع رایانش ابری 3- آشنایی با مفاهیم مجازی سازی در سطح سخت افزار، در سطح سیستم عامل و در سطح زبان برنامه\u200cنویسی 4- آشنایی با مدلهای مختلف برنامه\u200cنویسی ابر مانند مدل کیسه وظایف، جریانهای کاری، مدل ریزخدمت 5- آشنایی با مفاهیم تحلیل داده\u200cهای عظیم و امکانات ابری برای پردازش این نوع داده\u200cها همچون: سیستم فایل توزیع شده مانند HDFS، پایگاه داده\u200cهای NoSQL همانند HBase، مدلهای برنامه\u200cنویسی مانند Map-Reduce، پردازش گرافی مانند Giraph و پردازش جریانی همانند Storm 6- آشنایی با مدیریت منابع و زمانبندی در ابر روشهای مختلف زمانبندی وظایف مستقل و جریانهای کاری 7- آشنایی با محاسبات ابری سبز و روشهای برقراری آن 8- آشنایی با مدلهای بین ابری همانند ابر متحد شده و چند ابری و تفاوتهای آنها، و آشنایی با مفهوم کارگزاری ابر 9- آشنایی با مفهوم محاسبات لبه ای و ارتباط آن با رایانش ابری، محاسبات ابری متحرک و انواع آن و محاسبات مهی\n']</t>
@@ -1063,229 +1051,229 @@
     <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n']</t>
   </si>
   <si>
-    <t>['کتاب حساب دیفرانسیل و انتگرال تالیف جیمز استوارت – ترجمه ارشک حمیدی ویراست حداقل 6\n', '` `کتاب حساب دیفرانسیل و انتگرال و هندسه تحلیلی، تالیف توماس فینی – ویر، ویرایش حداقل ۹\n', 'سیاوش شهشهانی، "حساب دیفرانسیل و انتگرال"، جلد اول، ویراست دوم، انتشارات فاطمی، ۱۳۹۶.\n', 'Robert A. Adams and Cristopher Essex. Calculus, A Complete Course. 9th Edition, Pearson, 2018.\n', 'James Stewart. Calculus. 8th Edition, Cengage learning, 2016.\n']</t>
-  </si>
-  <si>
-    <t>['William E. Boyce, Richard C. DiPrima, Douglas B. Meade, Elementary Differential Equations and Boundary Value Problems, 11th Edition, WILEY, 2017.\n', ')ویرایش نهم این کتاب توسط حمیدرضا ظهوری زنگنه ترجمه و توسط انتشارات فاطمی منتشر شده است.(\n', 'Stephen Goode, Scott Annin, Differential Equations and Linear Algebra by Stephen, Pearson, 2016C. H. Edwards, D. E. Penney, Elementary Differential Equations, 6th Edition, Pearson Education, Inc. 2008. \n', 'D. G. Zill, A First Course in Differential Equations with Modeling Applications, 10th Edition, Brooks/Cole, Cengage Learning, 2012.\n']</t>
-  </si>
-  <si>
-    <t>['1. Eric Matthes, Python Crash Course: A Hands-On, Project-Based Introduction to Programming, No Starch Press, 2019\n', '1. Allen Downey, Think Python, How to Think Like a Computer Scientist, 2nd Edition, Green Tea Press, 2015\n', '1. P. Wentworth, J. Elkner, A. B. Downey, C. Meyers. How to Think Like a Computer Scientist: Learning with Python. 3rd Edition, Open Book Project, 2011.\n', '1. J. Campbell, P. Gries, J. Montojo, G. Wilson. Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf, 2009.\n', '1. J. M. Zelle. Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates, 2004.\n', '1. Micha Gorelick and Ian Ozsvald, High-Performance-Python, y O’Reilly Media, Inc., 2014\n', '1. Learning Python\xa0by Mark Lutz\n', '1. Head First Programming\xa0by Paul Barry and David Griffiths\n', '1. Python Programming: A Complete Guide For Beginners To Master And Become An Expert\xa0by Brian Draper\n', '1. [Introduction To Computer Science And Programming In Python](https://ocw.mit.edu/courses/6-0001-introduction-to-computer-science-and-programming-in-python-fall-2016/pages/lecture-slides-code/), MIT Open Courseware\n', '1. Some other references: &lt;https://github.com/ambadidi/Python-Books&gt;\n']</t>
-  </si>
-  <si>
-    <t>['در اختیار مدرس\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['موحد، ضیاء، درآمدی به منطق جدید، انتشارات و آموزش انقلاب اسلامی ، 1379\n', 'ناصر، بردجربان. مبانی و مقدمات علم ریاضی، مرکز نشر پرفسور حسابی، 1377\n', 'سپهری ، محمد رضا. آشنائی با مبانی علوم ریاضی، مرکز نشر آینه، 1390\n', 'Halmos, Paul R. I set theory. Courier Dover Publications, 2017.\n', 'Stewart, Ian, and David Tall. The foundations of mathematics. OUP Oxford, 2015.\n', 'Lin, Shwu-Yeng T., and You-Feng Lin. Set theory with applications. Mancorp Pub, 1985.\n']</t>
-  </si>
-  <si>
-    <t>['بهبودیان، جواد. (1394). آمار واحتمال مقدماتی، انتشارات دانشگاه امام رضا، \n', 'قهرمانی، سعید. (1397).  مبانی احتمال،  ترجمه شاهکار، غ. و بزرگنیا، ا.، ویرایش سوم، انتشارات دانشگاه صنعتی شریف.  \n', 'راس، شلدون. (1389).  مبانی احتمال، ترجمه پارسیان، ا.  همدانی، ع.، ویرایش هشتم، انتشارات شیخ بهایی، اصفهان. \n', 'هاگ، ر.و .تنیس، ل .آ .احتمال و استنباط آماری، ترجمه نوروز ایزددوستدار و حمید پزشک، انتشارات دانشگاه تهران،1۳۹۴\n', 'Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Grimmett, G. and Welsh D. Probability: an Introduction, 2nd Edition, OUP, 2014.\n', 'Ghahramani, S., Fundamentals of Probability: with Stochastic Process, 3rd Edition, CRC Press,2014.\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.f1893656-44a0-4d8d-9157-04de9ad727fd.007.png)\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['\\1. گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد. \n', '\\2. وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '\\2. Goos, P. and Meintrup, D. (2015).Statistics with JMP: graphs, descriptive statistics and probability. Wiley.\n', '\\3. Rahlf, T. (2019).Data Visualisation with R: 111 Eexamples. Springer Nature. \n', '\\4. Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['Ivor Horton and Peter Van Weert, Beginning C++17: From Novice to Professional, Apress, 2018\n', 'Ivor Horton and Peter Van Weert, Beginning C++20: From Novice to Professional, Apress, 2020\n', 'P. Deitel, H. Deitel. C++: How to Program. 11th Edition, Pearson Education, 2017.\n']</t>
-  </si>
-  <si>
-    <t>['1. Fabrizio Romano, Dusty Phillips, Rick van Hattem, Python: Journey from Novice to Expert, 2016, Packt Publishing\n', '1. P. Wentworth, J. Elkner, A. B. Downey, C. Meyers. How to Think Like a Computer Scientist: Learning with Python. 3rd Edition, Open Book Project, 2011.\n', '1. J. Campbell, P. Gries, J. Montojo, G. Wilson. Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf, 2009.\n', '1. J. M. Zelle. Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates, 2004.\n', '1. Micha Gorelick and Ian Ozsvald, High-Performance-Python, y O’Reilly Media, Inc., 2014\n']</t>
-  </si>
-  <si>
-    <t>['- محمد قدسی، "داده\u200cساختارهای و مبانی الگوریتم\u200cها"، چاپ چهارم، انتشارات فاطمی، ۱۳۹۳.\n', '- محمد قدسی و آیدین نصیری شرق، "۶۰۰ مسئله\u200cی چندگزینه\u200cای از داده\u200cساختارها و الگوریتم\u200cها"، چاپ ششم، انتشارات فاطمی، ۱۳۹۷.\n', '- Cormen, T. H. and Leiserson, C. E., Rivest, R. L. and Stein, C. (2009)., Introduction to Algorithms (3rd Ed), MIT Press. \n', '- Manber, U.,  (1989).Introduction to Algorithms: A Creative Approach, Addison-Wesley. \n', '- Sedgewick, R. and Wayne, K., (2011). Algorithms, 4th Ed, Addison-Wesley.\n', '- Weiss, M. A., (2012). Data Structures and Algorithm Analysis in C++, 4th Ed, Addison Wesley. \n', '- Horowitz and Sahni, Fundamental of Data Structures, 4th Ed., CSP, 1994, (Pascal, C , C++ or Generic version(\n']</t>
-  </si>
-  <si>
-    <t>['1. R. Neopolitan. Foundations of algorithms. Jones &amp; Bartlett Learning, 2015.\n', '1. J. Kleinberg and E. Tardos.\xa0Algorithm Design. Addison Wesley, 2005.\n', '1. T. Cormen, C. Leiserson, R. Riverst, and C. Stein.\xa0Introduction to Algorithms. 3rd Edition, MIT Press, 2009.\n', '1. U. Manber.\xa0Introduction to Algorithms: A Creative Approach. Addison-Wesley, 1989.\n', '1. G. Brassard, P. Bratley.\xa0Algorithmics: Theory and Practice. Prentice-Hall, 1988\n', '**\n']</t>
+    <t>['**مروری بربردارها و ماتریسها:**جمع وتفریق و ضرب ماتریسه،ضرب داخلی و نرم بردارها و ماتریسه،ضرب داخلی و نرم توابع پیوسته، ماتریسهای منفرد و غیر منفرد و معکوس و متقارن و شبه متقارن ، ماتریسهای مختلط و مختلط مزدوج و هرمیتی و شبه هرمیتی ،یکین ، نرمال، قطری – مثلثی – متعامد – مثبت معین و نیمه معین – منفی معین و نیمه معین.\n', '**دستگاه معادلات جبری خطی:** معرفی دستگاه جبری خطی – روشهای حل دستگاه معادلات جبری خطی بر پایه الگوریتم های حذفی گوس – گوس جردن – محورگیری جزئی و کلی – حل دستگاه معادلات جبری خطی برپایه تجزیه ماتریسها – تجزیه LU – تجزیه چالسکی.\n', '**فضاهای برداری:** مفهوم میدان – بسته بودن نسبت به اعمال جمع و ضرب – فضای برداری – زیرفضاهای برداری – زیر فضای ستونهای یک ماتریس – مفهوم اسپن – استقلال و وابستگی خطی بردارها – مفهوم پایه و بعد در فضای برداری – رتبه ماتریس – فضای پوچی ماتریسها – تبدیلات خطی – تبدیلات پرکاربرد از قبیل انتقال ، انعکاس ، تغییر مقیاس و دوران .\n', '**متعامد سازی و مساله حداقل مربعات :** مفهوم متعامد سازی – تصاویر متعامد – الگوریتم گرام اشمیت – مساله حداقل مربعات و کاربرد آن در حل دستگاه معادلات ناسازگار – نحوه بدست آوردن معادلات نرمال و روش های حل آنها بصورت مستقیم با استفاده از تجزیه چالسکی و تچزیه QR  - برازش داده ها با روش حداقل مربعات.\n', '**مقادیر ویژه و بردارهای ویژه :** مفاهیم مقدار ویژه و بردار ویژه – محاسبه مقادیر ویژه با روشهای تکراری مانند روش توانی – استفاده از روش QR  - قطری سازی ماتریسها با مقادیر حقیقی و مختلط – قطری سازی ماتریسها با مقادیر ویژه تکراری.\n', '**چندجمله ای ها و توابع ماتریسی :** قضیه کیلی هامیلتون – کاربرد قضیه کیلی هامیلتون برای محاسبه معکوس ماتریس – محاسبه چندجمله ای های ماتریسی – محاسبه توابع ماتریسی.\n', '**تجزیه مقادیر منفرد :** مفهوم مقادیر منفرد- کاربردهای تجزیه مقادیر منفرد – تجزیه ماتریس ها براساس مقادیر منفرد – تعیین زیر فضاهای اساسی ماتریس. \n', '-\n']</t>
+  </si>
+  <si>
+    <t>['بازی چیست؟، انواع و دسته\u200cبندی بازیها،  چالش و پازل،  سیستم ارتقا بازیکنان،  مکانیکهای بازی (قوانین بازی، عملهای بازیکن، مهارتهای بازیکن و ...)،  خطهای داستان بازی،  ساختار گردش اقتصادی بازی (چگونه بازیکن انرژی و توان به دست میآورد و آن را در چه کارهای، سرمایه\u200cگذاری میکند)، متعادل\u200cسازی بازی (متعادل\u200cسازی سختی بازی، متعادل\u200cسازی دینامیک بازی)،  مراحل بازی،  چرخه\u200cهای تعاملی بازیکن با بازی، مشخص کردن محدودیتها، اهداف و دستاوردهای هر چرخه،  نحوه دسترسی اطلاعات بازیکن به بازی،  محیط جذاب و واسط کاربری بازی،  بازیهای چند نفره و نحوه تعامل افراد در بازی، جداول رده\u200cبندی بازیکنان، امکانات رقابت در بازیهای چندنفره، بازیهای استراتژیک، روابط احتمالی در بازیها، گیم پلی بازی، بخش پروژه-محور، تولید بازی ساده با موتور بازیسازی یونیتی، مشخص کردن اشیا بازی، انیمیشن بازی، کدنویسی script های بازی، مدیریت بازی . کنترل بازی، بخش بازیانگاری، مطالعه یک مسئله اجتماعی-تجاری از نگاه بازی انگاری، - استفاده از ابزارهای بازی برای ایجاد سازوکار برای حل مسئله.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - استوارت، ج. (1395). حساب دیفرانسیل و انتگرال (ج. حمیدی، مترجم). تهران: مؤسسه آموزشی و نشریاتی مدرسه.\n', '- - شهشهانی، س. (1396). حساب دیفرانسیل و انتگرال (ویراست 2). تهران: انتشارات فاطمی.\n', '- - Stewart, J. (2016). Calculus (8th ed.). Cengage Learning.\n', '- - Adams, R. A., &amp; Essex, C. (2018). Calculus: A complete course (9th ed.). Pearson.\n', '- - Finney, T., Demana, F., Waits, B. K., Kennedy, D., &amp; Rodgers, J. (2014). Calculus: Graphical, numerical, algebraic (4th ed.). Pearson.\n']</t>
+  </si>
+  <si>
+    <t>['- - ظهوری زنگنه، ح. (مترجم). (1394). معادلات دیفرانسیل مقدماتی و مسائل مقدماتی مرزی (ویرایش ۹). انتشارات فاطمی\n', '- - Boyce, W. E., DiPrima, R. C., &amp; Meade, D. B. (2017). Elementary Differential Equations and Boundary Value Problems (11th ed.). Wiley.\n', '- - Goode, S., &amp; Annin, S. A. (2016). Differential Equations and Linear Algebra by Stephen. Pearson.\n', '- - Edwards, C. H., &amp; Penney, D. E. (2008). Elementary Differential Equations (6th ed.). Pearson Education, Inc.\n', '- - Zill, D. G. (2012). A First Course in Differential Equations with Modeling Applications (10th ed.). Brooks/Cole, Cengage Learning.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Matthes, E. (2019). Python Crash Course: A Hands-On, Project-Based Introduction to Programming. No Starch Press.\n', '- - Downey, A. (2015). Think Python: How to Think Like a Computer Scientist (2nd ed.). Green Tea Press.\n', '- - Wentworth, P., Elkner, J., Downey, A. B., &amp; Meyers, C. (2011). How to Think Like a Computer Scientist: Learning with Python (3rd ed.). Open Book Project.\n', '- - Campbell, J., Gries, P., Montojo, J., &amp; Wilson, G. (2009). Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf.\n', '- - Zelle, J. M. (2004). Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates.\n', '- - Gorelick, M., &amp; Ozsvald, I. (2014). High-Performance Python. O’Reilly Media, Inc.\n', "- - Lutz, M. (2013). Learning Python (5th ed.). O'Reilly Media.\n", "- - Barry, P., &amp; Griffiths, D. (2009). Head First Programming. O'Reilly Media.\n", '- - Draper, B. (2020). Python Programming: A Complete Guide For Beginners To Master And Become An Expert.\n', '- - [Introduction To Computer Science And Programming In Python](https://ocw.mit.edu/courses/6-0001-introduction-to-computer-science-and-programming-in-python-fall-2016/pages/lecture-slides-code/), MIT Open Courseware\n', '- Some other references: &lt;https://github.com/ambadidi/Python-Books&gt;\n']</t>
   </si>
   <si>
     <t>['در اختیار مدرس\n']</t>
   </si>
   <si>
-    <t>['R. Elmasri, S. Navathe, Fundamentals of Database Systems, 7th edition, 2015\n', 'A. Silberschatz, H. F. Korth, S. Sudarshan, Database System Concepts, 7th edition, 2019.\n', 'Hoffer, J. A., Topi, H., &amp; Venkataraman, R. (2013). Essentials of Database Management. Pearson Higher Ed.\n', 'Coronel, C., &amp; Morris, S. (2019). Database systems: design, implementation, &amp; management. Cengage Learning.\n', 'Hoffer, J. A., Ramesh, V., &amp; Topi, H. (2016). Modern database management. Pearson\n']</t>
-  </si>
-  <si>
-    <t>['Mano, M. Morris. Computer system architecture. 3th Edition, Prentice-Hall of India, 2003.\n', 'Patterson, D. A., &amp; Hennessy, J. L., Computer organization and design: the hardware/software interface, (Rev. ed. of: Computer organization and design/John L. Hennessy, David A. Patterson.1998.), Morgan Kaufmann, 2012.\n']</t>
-  </si>
-  <si>
-    <t>['ر . پ. گریمالدی، ریاضیات گسسته و ترکیبیاتی، ترجمه محمدعلی رضوانی و بیژن شمس، انتشارات فاطمی، 1377\n', 'Anderson, Ian. A first course in combinatorial mathematics. Clarendon Press, 1989.\n', 'Grimaldi, Ralph P. Discrete and Combinatorial Mathematics, 5/e. Pearson Education, India, 2006.\n']</t>
-  </si>
-  <si>
-    <t>['J. M. Henle, An Outline of Set Theory, Springer-Verlag, 1986.\n', 'M. Huth, M. Ryan, Logic in Computer Sciences, Modeling and Reasoning about Systems, Cambridge University Press, 2004.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['حمدی طه، آشنایی با تحقیق در عملیات: برنامهریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی،1387\n', 'مهدی قطعی، تحقیق در عملیات و بهینه\u200cسازی ترکیبیاتی، انتشارات ناقوس، 1395.\n', 'J. Lee, A First Course in Combinatorial Optimization, Cambridge University Press, 2004.\n', 'T.H. Cormen, C.E. Leiserson, R.L. Rivest, C. Stein, Introduction to Algorithms, 3rd Edition, The MIT Press, 2009.\n', 'C.H. Papadimitriou, R. Steiglitz, Combinatorial Optimization Algorithms and Complexity, Perintice Hall, 1982.\n', 'V. Balakrishnan, Network Optimization, Chapman and Hall/CRC , 1995.\n', 'R.K. Ahuja, T.L. Magnanti, J.B. Orlin, Network Flows: Theory, Algorithms, and Applications, Prentice-Hall, 1993.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['Sipser, Michael. Introduction to the Theory of Computation. Cengage learning, 2012.\n', 'G. Boolos, J. Burgess, and R. Jeffrey. Computability and Logic. 5th Edition, Cambridge University Press, 2007.\n', 'D. Kozen. Theory of Computation. Springer, 2006.\n', 'S. Hedman. A First Course in Logic: An introduction to model theory, proof theory, computability, and complexity. Oxford University Press, 2004.\n']</t>
-  </si>
-  <si>
-    <t>['Stephen Boyd and Lieven Vandenberghe, Introduction to Applied Linear Algebra: Vectors, Matrices, and Least Squares, 2018\n', 'Axler, S., Linear algebra done right. Springer, 2015.\n', "Scientific Computing with Case Studies, By Dianne P. O'Leary, 2009\n", 'منصور واعظ پور، جبر خطی و ماتریس ها، انتشارات دانشگاه یزد، 1393.\n', 'جبر خطی با متلب، دکتر کرایچیان\n', 'Theodore Shifrin , Multivariable Mathematics, Linear Algebra, Multivariable Calculus, and Manifolds, Wiley, 2005\n', 'Datta, B. N., Numerical linear algebra and applications (Vol. 116). SIAM, 2010.\n', 'Trefethen, L. N., &amp; Bau III, D., Numerical linear algebra (Vol. 50). SIAM, 1997.\n']</t>
-  </si>
-  <si>
-    <t>['Stephen Boyd and Lieven Vandenberghe, Introduction to Applied Linear Algebra: Vectors, Matrices, and Least Squares, 2018\n', 'Axler, S., Linear algebra done right. Springer, 2015.\n']</t>
-  </si>
-  <si>
-    <t>['Burden, R. L., &amp; Faires, J. D., Solutions of equations in one variable the bisection\n', 'method. Brooks/Cole, Cengage Learning, 2011.\n', 'Dahlquist, G., &amp; Björck, Å., Numerical methods in scientific computing, volume I. Society for Industrial and Applied Mathematics, 2008.\n', 'Süli, E., &amp; Mayers, D. F., An introduction to numerical analysis. Cambridge university press, 2003.\n', 'Hildebrand, F. B., Introduction to numerical analysis. Courier Corporation, 1987.\n', 'Stoer, J., &amp; Bulirsch, R., Introduction to numerical analysis (Vol. 12). Springer Science &amp;\n', 'Business Media, 2013\n']</t>
-  </si>
-  <si>
-    <t>['` `مجید میرزا وزیری، فضاهای متریک با طعم توپولوژی، انتشارات دانشگاه فردوسی مشهد، چاپ سوم، 1\n', 'Rudin, W., Principles of mathematical analysis (Vol. 3). New York: McGraw-hill, 1964.\n', 'Gordon, R. A., Real Analysis: A first course. Addison Wesley, 2001.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند و گویا مولفان کتاب اصلی -کتاب زیر- قصد دارند نسخه\u200cی جدیدی از کتاب با پایتون در سال ۲۰۲۳ منتشر نمایند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '2. Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.**\n']</t>
-  </si>
-  <si>
-    <t>['` `شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دکتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', 'مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', 'زینل همدانی، علی (1394). دانشیابی داده\u200cها ( مقدمه ای بر داده کاوی)، انتشارات دانشگاه صنعتی اصفهان. \n', 'Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', 'Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', 'Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', 'Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', 'Zaki, M. J., &amp; Meira, W., Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press, 2014.\n']</t>
-  </si>
-  <si>
-    <t>['Hogg, R. V. Tanis, E. and Zimmerman, D. Probability and Statistical Inference, 9th Edition, \n', 'Pearson, 2013\n', 'José Unpingco, Python for Probability, Statistics, and Machine Learning, Second Ed., 2019, Springer, Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', 'Peter Bruce, Andrew Bruce, Peter Gedeck, Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python, 2nd Edition, O’Reilly Media, Inc, 2020\n', "Dawn Griffiths, Head First Statistics, O'Reilly Media, Inc, 2008\n", 'Charles Wheelan, Naked Statistics: Stripping the Dread from the Data, 2012\n', 'STATISTICS FOR BEGINNERS IN DATA SCIENCE, Theory and Applications of\n', 'Essential Statistics Concepts using Python, AI PUBLISHING\n']</t>
-  </si>
-  <si>
-    <t>['براکول، پ. و دیویس، ر.ا. (۱۳۸۴) مقدمهای بر سریهای زمانی و پیشبینی، ترجمه محمد امینی، ابوالقاسم بزرگ نیا و محمدحسین دهقان، چاپ دوم، انتشارات دانشگاه سیستان و بلوچستان. \n', 'چتفیلد، ک. (۱۹۹۶) . مقدمهای بر تحلیل سریهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، دانشگاه فردوسی مشهد.\n', 'ترجمه محمدرضا مشکانی، ،R کرایر، ج.د.؛ سیک چن، ک. (۱۳۹۲)  تجزیه\u200cوتحلیل سریهای زمانی با استفاده از نرم\u200cافزار، مرکز نشر دانشگاهی.\n']</t>
-  </si>
-  <si>
-    <t>['1 .برتسیماس، سیتسیکلیس، مقدمه ای بر بهینه سازی خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا، 1394.\n', '2 .حمدی طه، آشنایی با تحقیق در عملیات: برنامه ریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی، 1387.\n', '3 .وینستون، تحقیق در عملیات، برنامه\u200cریزی خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران، 1380.\n', '4 .بازارا، جارویس، شرالی، برنامه ریزی خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی، 1392.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['1. د. ج. لوئنبرگر، برنامه\u200cریزی خطی و غیرخطی، ترجمه نظام\u200cالدین مهدوی امیری و محمدحسین پور کاظمی، دانشگاه صنعتی شریف، ۱۳۹۲.\n', '1. M. Bazaraa, H.D. Sherali, C.M. Shetty, *Nonlinear Programming: Theory and Algorithms*, 3rd edition, John Wiley &amp; Sons, 2006.\n', '1. Stephen Boyd and Lieven Vandenberghe.\xa0*Convex optimization*. Cambridge university press, 2004.\n', '1. E.K.P. Chong, S.H. Zak, An Introduction to Optimization, 4th edition, Wiley, 2013.\n', '1. 4. I. Griva, S.G. Nash, A. Sofer, Linear and Nonlinear Optimization, 2nd edition, SIAM, 2009.\n', '1. Jorge Nocedal and Stephen Wright.\xa0*Numerical optimization*. Springer Series in Operations Research and Financial Engineering, 2nd edition, 2006.\n', '1. *Convex Optimization*\xa0taught by Ryan Tibshirani at CMU from 2013 to 2019.\n', '1. S.S. RAO: Optimization: Theory and Applications, August 9, 1978, John Wiley and Sons\n']</t>
+    <t>['-\n', '- - موحد، ضیاء (1379). درآمدی به منطق جدید. انتشارات و آموزش انقلاب اسلامی.\n', '- - بردجربان ، ناصر (1377). مبانی و مقدمات علم ریاضی. مرکز نشر پرفسور حسابی.\n', '- - سپهری ، محمد رضا (1390). آشنائی با مبانی علوم ریاضی. مرکز نشر آینه.\n', '- - Halmos, P. R. (2017). I Set Theory. Courier Dover Publications.\n', '- - Stewart, I., &amp; Tall, D. (2015). The Foundations of Mathematics. Oxford University Press.\n', '- - Lin, S.-Y. T., &amp; Lin, Y.-F. (1985). Set Theory with Applications. Mancorp Pub.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - بهبودیان، جواد (1394). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا.\n', '- - قهرمانی، سعید (1397). مبانی احتمال، ویرایش سوم، ترجمه شاهکار، غ. و بزرگنیا، ا. انتشارات دانشگاه صنعتی شریف.\n', '- - راس، شلدون (1389). مبانی احتمال، ویرایش هشتم، ترجمه پارسیان، ا.، همدانی، ع. انتشارات شیخ بهایی.\n', '- - هاگ، ر. و تنیس، ل. آ. (1394). احتمال و استنباط آماری. ترجمه نوروز ایزددوستدار و حمید پزشک. انتشارات دانشگاه تهران.\n', '- - Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th ed.). Pearson.\n', '- - José Unpingco (2019). Python for Probability, Statistics, and Machine Learning (2nd ed.). Springer. Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', '- - Grimmett, G., &amp; Welsh, D. (2014). Probability: An Introduction (2nd ed.). Oxford University Press.\n', '- - Ghahramani, S. (2014). Fundamentals of Probability: with Stochastic Process (3rd ed.). CRC Press. \n', '` `«دروس تخصصی»\n', '![](Aspose.Words.7601dad0-2951-4f1a-8528-8c93ddffd37e.007.png)\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Horton, I., &amp; Van Weert, P. (2018). Beginning C++17: From Novice to Professional. Apress.\n', '- - Horton, I., &amp; Van Weert, P. (2020). Beginning C++20: From Novice to Professional. Apress.\n', '- - Deitel, P., &amp; Deitel, H. (2017). C++ How to Program (11th ed.). Pearson Education.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Romano, F., Phillips, D., &amp; van Hattem, R. (2016). Python: Journey from Novice to Expert. Packt Publishing.\n', '- - Wentworth, P., Elkner, J., Downey, A. B., &amp; Meyers, C. (2011). How to Think Like a Computer Scientist: Learning with Python (3rd ed.). Open Book Project.\n', '- - Campbell, J., Gries, P., Montojo, J., &amp; Wilson, G. (2009). Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf.\n', '- - Zelle, J. M. (2004). Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates.\n', "- - Gorelick, M., &amp; Ozsvald, I. (2014). High-Performance Python. O'Reilly Media, Inc.\n"]</t>
+  </si>
+  <si>
+    <t>['- قدسی، محمد (۱۳۹۳). داده\u200cساختارها و مبانی الگوریتم\u200cها (چاپ چهارم). انتشارات فاطمی.\n', '- قدسی، محمد، و نصیری شرق، آیدین (۱۳۹۷). ۶۰۰ مسئله\u200cی چندگزینه\u200cای از داده\u200cساختارها و الگوریتم\u200cها (چاپ ششم). انتشارات فاطمی\n', '- - Cormen, T. H. and Leiserson, C. E., Rivest, R. L. and Stein, C. (2009)., Introduction to Algorithms (3rd Ed), MIT Press. \n', '- - Manber, U.,  (1989).Introduction to Algorithms: A Creative Approach, Addison-Wesley. \n', '- - Sedgewick, R. and Wayne, K., (2011). Algorithms, 4th Ed, Addison-Wesley.\n', '- - Weiss, M. A., (2012). Data Structures and Algorithm Analysis in C++, 4th Ed, Addison Wesley. \n', '- Horowitz and Sahni, Fundamental of Data Structures, 4th Ed., CSP, 1994, (Pascal, C , C++ or Generic version(\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Neopolitan, R. (2015). Foundations of algorithms. Jones &amp; Bartlett Learning.\n', '- - Kleinberg, J., &amp; Tardos, E. (2005). Algorithm Design. Addison Wesley.\n', '- - Cormen, T., Leiserson, C., Rivest, R., &amp; Stein, C. (2009). Introduction to Algorithms (3rd Ed.). MIT Press.\n', '- - Manber, U. (1989). Introduction to Algorithms: A Creative Approach. Addison-Wesley.\n', '- - Brassard, G., &amp; Bratley, P. (1988). Algorithmics: Theory and Practice. Prentice-Hall.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Elmasri, R., &amp; Navathe, S. B. (2015). Fundamentals of Database Systems (7th ed.). Pearson.\n', '- - Silberschatz, A., Korth, H. F., &amp; Sudarshan, S. (2019). Database System Concepts (7th ed.). McGraw-Hill Education.\n', '- - Hoffer, J. A., Topi, H., &amp; Venkataraman, R. (2013). Essentials of Database Management. Pearson Higher Ed.\n', '- - Coronel, C., &amp; Morris, S. (2019). Database systems: design, implementation, &amp; management. Cengage Learning.\n', '- - Hoffer, J. A., Ramesh, V., &amp; Topi, H. (2016). Modern database management. Pearson.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Mano, M. Morris. (2003). Computer system architecture (3rd ed.). Prentice-Hall of India.\n', '- - Patterson, D. A., &amp; Hennessy, J. L. (2012). Computer organization and design: the hardware/software interface (Rev. ed.). Morgan Kaufmann. (Original work published 1998)\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - گریمالدی، ر. پ. (۱۳۷۷). ریاضیات گسسته و ترکیبیاتی، ترجمه محمدعلی رضوانی و بیژن شمس، انتشارات فاطمی.\n', '- - Anderson, I. (1989). A first course in combinatorial mathematics. Clarendon Press.\n', '- - Grimaldi, R. P. (2006). Discrete and Combinatorial Mathematics (5th ed.). Pearson Education India.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Henle, J. M. (1986). An Outline of Set Theory. Springer-Verlag.\n', '- - Huth, M., &amp; Ryan, M. (2004). Logic in Computer Science: Modelling and reasoning about systems. Cambridge university press.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Sipser, M. (2012). Introduction to the Theory of Computation. Cengage Learning.\n', '- - Boolos, G., Burgess, J., &amp; Jeffrey, R. (2007). Computability and Logic (5th ed.). Cambridge University Press.\n', '- - Kozen, D. (2006). Theory of Computation. Springer.\n', '- - Hedman, S. (2004). A First Course in Logic: An Introduction to Model Theory, Proof Theory, Computability, and Complexity. Oxford University Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - ون لوان، چارلز فرانسیس (۱۴۰۱)،  مقدمه ای بر محاسبات علمی، ترجمه دکتر فائزه توتونیان و دکتر داود خجسته سالکویه.\n', '- - کرایچیان، ع. (۱۴۰۱). جبر خطی با متلب. انتشارات دانشگاه فردوسی مشهد\n', "- - O'Leary, D. P. (2009). Scientific Computing with Case Studies.\n", '- - Trefethen, L. N., &amp; Bau III, D. (1997). Numerical Linear Algebra (Vol. 50). SI\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Burden, R. L., &amp; Faires, J. D. (2011). Solutions of equations in one variable: the bisection method. Brooks/Cole, Cengage Learning.\n', '- - Dahlquist, G., &amp; Björck, Å. (2008). Numerical methods in scientific computing, volume I. Society for Industrial and Applied Mathematics.\n', '- - Süli, E., &amp; Mayers, D. F. (2003). An introduction to numerical analysis. Cambridge university press.\n', '- - Hildebrand, F. B. (1987). Introduction to numerical analysis. Courier Corporation.\n', '- - Stoer, J., &amp; Bulirsch, R. (2013). Introduction to numerical analysis (Vol. 12). Springer Science &amp; Business Media.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - میرزا وزیری، م. (۱۳۸۸). فضاهای متریک با طعم توپولوژی (چاپ سوم). مشهد: انتشارات دانشگاه فردوسی.\n', '- - Rudin, W. (1964). Principles of mathematical analysis (Vol. 3). New York: McGraw-hill.\n', '- - Gordon, R. A. (2001). Real analysis: A first course. Addison Wesley.\n']</t>
+  </si>
+  <si>
+    <t>['Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th Ed.). Pearson.\n', 'Unpingco, J. (2019). Python for Probability, Statistics, and Machine Learning (2nd Ed.). Springer. [Source code available at &lt;https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E&gt;]\n', "Bruce, P., Bruce, A., &amp; Gedeck, P. (2020). Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python (2nd Ed.). O'Reilly Media, Inc.\n", "Griffiths, D. (2008). Head First Statistics. O'Reilly Media, Inc.\n", 'Wheelan, C. (2014). Naked Statistics: Stripping the Dread from the Data. W. W. Norton &amp; Company.\n', 'AI PUBLISHING. (2021). Statistics for Beginners in Data Science: Theory and Applications of Essential Statistics Concepts Using Python.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - کرایر، ج.د.؛ سیک چن، ک.  (1392). تجزیه\u200cوتحلیل سری\u200cهای زمانی با استفاده از نرم\u200cافزار R، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی. \n', '- - براکول، پ. و دیویس، ر.ا. (1384). مقدمه\u200cای بر سری\u200cهای زمانی و پیش\u200cبینی، ترجمه امینی، م.،  بزرگ نیا، ا. و  دهقان، م. ح. انتشارات دانشگاه سیستان و بلوچستان. \n', '- - چتفیلد، ک. (1996). مقدمه\u200cای بر تحلیل سری\u200cهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، انتشارات دانشگاه فردوسی مشهد\n', '- - Shumway, R. H., and Stoffer, D. S. (2019). Time series: a data analysis approach using R. Chapman and Hall/CRC.\n', '- - Cryer, J. D. and Chan, K. S. (2008). Time Series Analysis With Application in R, 2nd Ed. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '- 2. Zaki, M. J., &amp; Meira, W., (2014) Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دکتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', '- - مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', '- - Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', '- - Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', '- - Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', '- - Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', '- - Zaki, M. J., &amp; Meira, W., (2014)m Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - برتسیماس، سیتسیکلیس، (1394). مقدمه\u200cای بر بهینه\u200cسازی خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا.\n', '- - حمدی طه، (1387). آشنایی با تحقیق در عملیات: برنامه\u200cریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی.\n', '- - وینستون، (1380). تحقیق در عملیات، برنامه\u200cریزی خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران.\n', '- - بازارا، جارویس، شرالی، (1392). برنامه\u200cریزی خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی. \n']</t>
+  </si>
+  <si>
+    <t>['- لوئنبرگر، د. ج.، مهدوی امیری، ن.، و پور کاظمی، محمدحسین. (۱۳۹۲). برنامه\u200cریزی خطی و غیرخطی. تهران: دانشگاه صنعتی شریف.\n', '- Bazaraa, M., Sherali, H. D., &amp; Shetty, C. M. (2006). Nonlinear Programming: Theory and Algorithms (3rd ed.). John Wiley &amp; Sons.\n', '- Boyd, S., &amp; Vandenberghe, L. (2004). Convex optimization. Cambridge University Press.\n', '- Chong, E. K. P., &amp; Zak, S. H. (2013). An Introduction to Optimization (4th ed.). Wiley.\n', '- Griva, I., Nash, S. G., &amp; Sofer, A. (2009). Linear and Nonlinear Optimization (2nd ed.). SIAM.\n', '- Nocedal, J., &amp; Wright, S. (2006). Numerical optimization (2nd ed.). Springer Series in Operations Research and Financial Engineering.\n', '- Tibshirani, R. (2013-2019). Convex Optimization [Course]. Carnegie Mellon University.\n', '- Rao, S. S. (1978). Optimization: Theory and Applications. John Wiley &amp; Sons.\n']</t>
   </si>
   <si>
     <t>['منابع آزاد با نظر استاد درس\n']</t>
   </si>
   <si>
-    <t>['O’Sullivan, A., Sheffrin, S., &amp; Perez, S., Survey of Economics: Principles, Applications, and Tools, 8th Edition, Boston: Pearson, 2019.\n']</t>
+    <t>['Øverby, H., &amp; Audestad, J. A. (2021). Introduction to Digital Economics: Foundations, Business Models and Case Studies. Springer. \n']</t>
   </si>
   <si>
     <t>['با نظر مدرس درس\n']</t>
   </si>
   <si>
-    <t>['Russell, S., &amp; Norvig, P., Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES, 2020.\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.f1893656-44a0-4d8d-9157-04de9ad727fd.008.png)\n']</t>
-  </si>
-  <si>
-    <t>['ن. نعمت الهی، آمار و احتمالات مهندسی، انتشارات دلفک، 1394.\n', 'ش. م. راس، مقدمهای بر آمار و احتمال (برای دانشجویان مهندسی و علوم)، ترجمه مجید اسدی و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1382.\n', 'ج. بهبودیان، آمار و احتمال مقدماتی، انتشارات دانشگاه امام رضا (ع)، 1383.\n', 'س. قهرمانی، مبانی احتمال، ترجمه غلامحسین شاهکار و ابوالقاسم بزرگ نیا، انتشارات دانشگاه فردوسی مشهد، 1390.\n', 'G. G. Roussas, Introduction to probability, 2nd Edition, Academic Press, 2014.\n']</t>
-  </si>
-  <si>
-    <t>['گیونز، جف\u200c اچ\u200c. (1393). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '\\1. Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '2.Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '\\3. Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. نعمت اللهی، نادر ( 1397). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (1388).  آمار اصول و روش ها، جلد 1 و 2، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (1394).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (1399). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
-  </si>
-  <si>
-    <t>['Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', 'Cooper, S. Barry. Computability theory. CRC Press, 2003.\n', 'M. Divis, R. Sigal, E. Weyuker, Computability, Complexity, and Languages. 2nd Edition, Academic Press, 1997. \n']</t>
-  </si>
-  <si>
-    <t>['Huth, M., Ryan, M. Logic in Computer Science: Modelling and Reasoning about Systems, 2nd Edition, Cambridge: Cambridge University, 2020.\n']</t>
-  </si>
-  <si>
-    <t>['R. Hill, A First Course in Coding Theory, Oxford Applied Mathematics and Computers Science Series, 11th Edition, Clarendon Press, 2001.\n', 'S. Roman, Coding and Information, Springer, 1992.\n', 'S. Ling, C. Xing, Coding Theory: A First Course, Cambridge University Press, 2014\n']</t>
-  </si>
-  <si>
-    <t>['Jonathan Katz and Yehuda Lindell. Introduction to Modern Cryptography, CRC Press, 2007.\n', 'O. Goldreich. Foundations of Cryptograph, Volume 1: Basic Tools. Cambridge University Press, 2001.\n', 'O. Goldreich. Foundations of Cryptograph, Volume 2: Basic Applications. Cambridge University Press, 2004.\n', 'A.J. Menezes, P.C. van Oorschot, and S.A. Vanstone. Handbook of Applied Cryptography, CRC Press, 1996.\n']</t>
-  </si>
-  <si>
-    <t>['B. Chest and J. West, Secure Programming with Static Analysis, , Addison Wesley, 2007.\n', 'G. McGraw, Software Security, Addison Wesley, 2006.\n']</t>
-  </si>
-  <si>
-    <t>['G. Winskel, The Formal Semantics of Programming Languages An Introduction, The MIT Press, 1994\n']</t>
-  </si>
-  <si>
-    <t>['\\1. عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '\\2. عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '\\3. سوری، علی. (1400). نظریه بازی\u200cها و کاربردهای اقتصادی، انتشارات نور علم.\n', '\\5. زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '\\1. Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
-  </si>
-  <si>
-    <t>['R. Motwani and P. Raghavan. Randomized Algorithms. Cambridge University Press, 1995.\n', 'J. Matoušek and J. Vondrák. The Probabilistic Method. Lecture Notes, Department of Applied Mathematics, Charles University, Prague, 2001.\n', 'M. Mitzenmacher and E. Upfa. Probability and Computing: Randomized Algorithms and Probabilistic Analysis. Cambridge University Press, 2005.\n']</t>
-  </si>
-  <si>
-    <t>['M. de Berg, O. Cheong, M. van Kreveld, and M. Overmars. Computational Geometry: Algorithms and Applications. 3rd edition, Springer-Verlag, 2008.\n', "J. O'Rourke. Computational Geometry in C. 2nd edition, Cambridge University Press, 1998.\n", 'Jean-Daniel Boissonnat and Mariette Yvinec, Algorithmic Geometry, Cambridge Univ. Press, 1998. \n', "Satyan L. Devadoss and Joseph O'Rourke, Discrete and Computational Geometry, Princeton Univ. Press, 2011.\n", 'Herbert Edelsbrunner, Algorithms in Combinatorial Geometry, Springer, 1987. \n', "Jacob E. Goodman, Joseph O'Rourke, and Csaba D. Tóth (editors), Handbook of Discrete and Computational Geometry, 3rd edition, CRC Press, 2017.\n", 'Sariel Har-Peled, Geometric Approximation Algorithms, AMS Press, 2011. Early draft and additional material available as PDF files.\n', 'Jiří Matoušek, Lectures on Discrete Geometry, Springer, 2002.\n', "Joseph O'Rourke, Computational Geometry in C, Second Edition, Cambridge Univ. Press, 1998.\n", 'Franco P. Preparata and Michael Ian Shamos, Computational Geometry: An Introduction, Springer, 1985\n']</t>
-  </si>
-  <si>
-    <t>['1-مونتگمری، د.،  پک، آ و جافری، و. (1395). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '\\2. امینی، م. زمانی، ح. روزبه، م.  (1398). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '1. Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '1. Olive, D. (2017). Linear Regression, Springer.\n', '1. Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '1. Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '1. Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n']</t>
-  </si>
-  <si>
-    <t>['1. J. M. Keller, D. Liu and D. B. Fogel, Fundamentals of Computational Intelligence: Neural Networks, Fuzzy Systems and Evolutionary Computation, Wiley, 2016. \n', '1. P. Engelbrecht, Computational Intelligence: An Introduction, Wiley, 2007.\n', '1. Konar, Computational Intelligence: Principles, Techniques and Applications, Springer, 2007.\n']</t>
-  </si>
-  <si>
-    <t>['تارخ، محمد جعفر و مهاجری، حسین (1392). هوش تجاری نگرشی پویا در عرصه کسب و کار، انتشارات دانشگاه خواجه نصیر. \n', '1.Vercellis, C. (2011).\xa0Business intelligence: data mining and optimization for decision making. John Wiley.\n', '2.Azevedo, A. and Santos, M. F. (Eds.). (2020).\xa0Integration Challenges for Analytics, Business Intelligence, and Data Mining. IGI Global.\n', '3.Grossmann, W. and Rinderle-Ma, S. (2015). Fundamentals of business intelligence, Springer\n', '4.Sauter, V. L. (2014).\xa0Decision support systems for business intelligence. John Wiley &amp; Sons.\n', '5.Clark, D. (2019).\xa0Beginning Power BI: A Practical Guide to Self-Service Data Analytics with Excel 2016 and Power BI Desktop. Apress.\n', '6.Seamark, P. (2018).\xa0Beginning DAX with Power BI: The SQL Pro’s Guide to Better Business Intelligence. Apress.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. نیلسن، م. (1400). شبکه\u200cهای عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '2. Eli Stevens, Luca Antiga, and Thomas Viehmann, (2020) Deep Learning with PyTorch, Manning Pub.\n', '2. Chollet, F. (2017).  Deep Learning with Python. Manning Pub.\n', '2. Goodfellow, I., Bengio, Y. and Courville, A.  (2016). Deep Learning, MIT Press.\n', '2. Lantz, B. (2019).\xa0Machine learning with R: expert techniques for predictive modeling. Packt publishing.\n', '2. Santanu Pattanayak (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python by Santanu Pattanayak.\n', '2. Nielsen, M. A. (2015).\xa0Neural networks and deep learning, San Francisco, CA: Determination press.\n']</t>
-  </si>
-  <si>
-    <t>['E. Turban, D. King, J. K. Lee, T.-P. Liang, and D. C. Turban. Electronic Commerce: A Managerial and Social Networks Perspective. 8th Edition, Springer, 2018.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. الوانی مهدی (1395). مدیریت عمومی. چاپ پنجاه و چهارم. تهران .نی.\n', '\\2. قلی پور رحمت ا.. . ابراهیم غلامی (1389).  فراین سیاست گذاری عمومی در ایران. تهران. مرکز پژوهش های مجلس شورای اسلامی.\n', '\\3. نامغ پرویز (1391).  مبانی مدیریت دولتی. تهران. هستان.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. Functions and change, 5th Edition, Crauder, Evans and Noell, Houghton Mifflin, 2010.\n', '\\2. An Introduction to Mathematical Modeling, Michael Alder, HeavenForBooks.com, 2001.\n', '\\3. An Introduction to Mathematical Modeling: A Course in Mechanics 1st Edition, Tinsley Oden, Wily\n', 'Series in Computational Mechanics, 2011.\n', '\\4. Mathematics for Life Sciences, Calculus, Modeling, Probability and Dynamical Systems, G. Ledder, Springer, 2013.\n']</t>
-  </si>
-  <si>
-    <t>['Applied Numerical Methods with MATLAB, by Steven C. Chapra\n', 'Matlab Symbolic Algebra and Calculus Tools, by C. P. Lopez\n', 'Mathematica, by E. Don \n']</t>
-  </si>
-  <si>
-    <t>['L.X. Wang, A Course in Fuzzy Systems and Control, 1996.\n', 'G.J. Klir, B. Youn, Fuzzy Set and Fuzzy Logic (Theory and Application), 1995.\n', 'B. Bede, Mathematics of Fuzzy Sets and Fuzzy Logic, 2013.\n', 'R.R. Yager, H.T. Negoyen, Fuzzy Set and Application, 1987.\n']</t>
-  </si>
-  <si>
-    <t>['Diestel, R., Extremal Graph Theory. In Graph Theory (pp. 173-207). Springer, Berlin,\n', 'Heidelberg, 2017.\n', 'West, D. B., Introduction to graph theory (Vol. 2). Upper Saddle River, NJ: Prentice hall, 1996.\n', 'Bondy, J. A., &amp; Murty, U. S. R., Graph theory with applications (Vol. 290). London: Macmillan, 1976.\n']</t>
-  </si>
-  <si>
-    <t>['Gallian, J. Contemporary abstract algebra. Nelson Education, 2012\n', '` `Kleiner, I., A history of abstract algebra. Springer Science &amp; Business Media, 2007.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. Michael W. Frazier, An Introduction to Wavelets through Linear Algebra, Springer Undergraduate Texts in Mathematics\n', '\\2. Barbara Burke Hubbard, The World According to Wavelets, Second Edition.\n', '\\3. D. F. J. Narcowich, A. Boggess, A First Course in Wavelets with Fourier Analysis, Prentice Hall\n', '\\4. F. P. J. Van Fleet, Discrete Wavelet Transforms- An Elementary Approach with Applications \n']</t>
-  </si>
-  <si>
-    <t>['` `محمد حسن علیائی طرقبه، آموزش جامع پردازش تصویر با OpenCV و Python، ناشر: انتشارات میعاد اندیشه. ۱۴۰۰\n', 'وحید کیانی،\u200c پردازش تصاویر در پایتون: راهنمای سریع OpenCV، انتشارات دانشگاه بجنورد، ۱۴۰۲\n', 'Sandipan Dey, Hands-On Image Processing with Python: Expert techniques for advanced image analysis and effective interpretation of image data, Packt Publishing, 2018\n', 'Ravishankar Chityala, Sridevi Pudipeddi , Image Processing and Acquisition using Python, Chapman &amp; Hall, 2021\n']</t>
-  </si>
-  <si>
-    <t>["M. L. Murphy. The busy coder's guide to Android development. CommonsWare, 2011.\n", "M. Neuburg. iOS 12 Programming Fundamentals with Swift. O'Reilly Media, 2018.\n"]</t>
-  </si>
-  <si>
-    <t>['S. M. Schafer. HTML, XHTML, and CSS Bible. 5th Edition, Wiley Publishing, 2010.\n', 'J. Forcier, P. Bissex, and W. Chun. Python Web Development with Django. Pearson Addison-Wesley, 2009.\n', 'W. J. Chun. Core Python Applications Programming. 3rd Edition, Pearson Addison-Wesley, 2012.\n', 'M. Fowler, D. Rice, M. Foemmel, E. Hieatt, R. Mee, and R. Stafford. Patterns of Enterprise Application Architecture. Pearson Addison-Wesley, 2003.\n']</t>
-  </si>
-  <si>
-    <t>['Larry L. Peterson and Bruce S. Davie. Computer Networks: A Systems Approach. 5th Edition, 2011.\n']</t>
-  </si>
-  <si>
-    <t>["Wainer, G. A., Discrete-event modeling and simulation: a practitioner's approach. CRC press, 2017.\n", 'Banks, J., Discrete event system simulation. Pearson Education India, 2005.\n', 'Banks, J. (Ed.), Handbook of simulation: principles, methodology, advances, applications, and practice. John Wiley &amp; Sons, 1998.\n']</t>
-  </si>
-  <si>
-    <t>['Hearn and Baker. Computer Graphics with OpenGL. 4th Edition, Prentice Hull, 2011.\n', 'Steve Marschner and Peter Shirley. Fundamental of Computer Graphics. 4th Edition, CRC Press, 2016.\n', 'Edward Angel. OpenGL, A primer. Addison Wesley, 2002.\n']</t>
-  </si>
-  <si>
-    <t>['D. Easley, J. Kleinberg, Networks, Crowds, and Markets: Reasoning about a Highly Connected World, Cambridge University Press, 2010.\n']</t>
-  </si>
-  <si>
-    <t>['Avi Silberschatz , Peter Baer Galvin, Greg Gagne , Operating System Concepts, Ninth Edition, John Wiley &amp; Sons, Inc. 2013.\n', 'Silberschatz, Abraham, Peter B. Galvin, and Greg Gagne. Operating system concepts with Java. Wiley Publishing, 2009.\n', 'Tanenbaum, A. Woodhull, Operating Systems: Design and Implementation, Pearson, 2009.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. I .Sommerville, Software Engineering, 9th edition, Addison Wesley, 2010.\n', '\\2. C .Ghezzi, M .Jazayeri, D .Mandrioli, Fundamentals of software engineering, Prentice Hall, 2003.\n', '\\3. P .A. B. Ng and R. T. Yeh, Modern Software Engineering: Foundations and Current Perspectives, Van Nostrand Reinhold, 1990.\n', "\\4. R. S. Pressman and P. Roger, Software Engineering: A Practitioner's Approach, 7th edition, McGraw Hill, 2009.\n"]</t>
-  </si>
-  <si>
-    <t>['Alfred V. Aho, Monica S. Lam, Ravi Sethi, and Jeffrey D. Ullman, Compilers: Principles, Techniques, and Tools, 2nd Edition, Pearson, 2007.\n', 'Douglas Thain, Introduction to Compilers and Language Design, 2nd Edition, 2020, downloadable from http://compilerbook.org.\n', 'Keith D. Cooper, and Linda Torczon, Engineering a Compiler, 2nd Edition, Elsevier, 2012.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. نقوی، م. ر، ملبوبی، م. ع و رشیدی، س (1398). بیوانفورماتیک (داده\u200cپردازی زیستی)، چاپ چهارم،  انتشارات دانشگاه تهران. \n', '1. Bergeron, B. P., (2003).Bioinformatics computing. Prentice Hall Professional.\n', '1. Sensen, C. W. (2002).\xa0Essentials of Genomics and Bioinformatics. John Wiley &amp; Sons. \n', '1. Curry, E. (2020).\xa0Introduction to Bioinformatics with R: A Practical Guide for Biologists. CRC Press.\n', '1. Sinha, P. P. (2014).\xa0Bioinformatics with R cookbook. Birmingham: Packt Publishing.\n', '1. Mathur, S. K. (2009).\xa0Statistical bioinformatics with R. Academic Press.\n']</t>
-  </si>
-  <si>
-    <t>['با نظر مدرس درس\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['R. L. Burden, J. D. Faires, Numerical Analysis. PW Publishing Company, Boston, USA, 2011.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '2. EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '2. Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '2. Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "2. Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
-  </si>
-  <si>
-    <t>['1.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '\\2. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '\\1. Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '\\2. Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '\\3. Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '\\4. Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '\\5. Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '\\6. Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['1. `     `K. Chandrasekaran, *Essentials of cloud computing*, CRC Press, 2014 \n', '1. N**.** B. Ruparelia, *Cloud Computing*, MIT Press, 2016 \n', '1. T**.** Erl, Z**.** Mahmood, R**.** Puttini, *Cloud Computing, Concepts, Technology and Architecture*, Prentice Hall, 2013. \n', '1. I**.** Ganelin, E**.** Orhian, K**.** Sasaki, B**.** York, *Spark: Big Data Cluster Computing in Production*, Wiley, 1st Edition, 2016. ISBN-13: 978-1119254010 \n', "1. T. White, *Hadoop: The Definitive Guide: Storage and Analysis at Internet Scale,* 4th Edition. O'Reilly Media, 2015. ISBN-13: 978-1491901632 \n", '1. H. Geng, *Data Center Handbook*. Wiley, 1st Edition, 2014. ISBN-13: 978-1118436639 \n', '1. S. Adkins , J. Belamaric, V. Giersch. *OpenStack Cloud Application Development*. Wrox, 1st Edition, 2015. ISBN-13: 978-1119194316 \n', '1. B. Antony, K. Boudnik, C. Adams. *Professional Hadoop*. Wrox, 1st Edition, 2016.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['2. *D. A. Patterson and J. L. Hennessy. Computer Architecture: A quantitative approach. Morgan Kaufmann, 2019.*\n', '2. *J. Sanders and E. Kandrot. CUDA by examples: An introduction to GPU programming. Addison-Wesley, 2011.*\n', '2. *D. B. Kirk and W. W. Hwu. Programming massively parallel processors: A hands-on approach. NVIDIA, 2010.*\n', '2. *M. McCool, A.D. Robison, and J. Reinders. Structured Parallel Programming. Elsevier, 2012.*\n']</t>
-  </si>
-  <si>
-    <t>['A.V. Oppenheim, A.S. Willsky, S.H. Nawab, *Signals and Systems*, 2nd Edition, Prentice-Hall, 1997. ISBN: 0-13-814757-4** \n']</t>
-  </si>
-  <si>
-    <t>['Jack T. Marchewka. Information Technology Project Management. WILEY, 2014.\n', '[^1]: Luk, Robert W. P. (2020). Insights in How Computer Science can be a Science. Science and Philosophy 8 (2):17-46\n', '[^2]: ["Computer Science as a Profession"](https://web.archive.org/web/20080617030847/http:/www.csab.org/comp_sci_profession.html). Computing Sciences Accreditation Board. May 28, 1997.\n', '[^3]: [Computer science - Wikipedia](https://en.wikipedia.org/wiki/Computer_science)\n', '[^4]: در تدوین این برنامه درسی، برنامه\u200cهای درسی مصوب وزارت در سالهای ۱۳۹۹ تا ۱۴۰۱ برای رشته\u200cهای علوم کامپیوتر، ریاضیات و کاربردها و آمار و همچنین برنامه درسی مهندسی کامپیوتر وزارت علوم و چند دانشگاه داخلی و خارجی مورد ملاحظه قرار گرفته\u200cاند.\n', '[^5]: Andrew Ng']</t>
+    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.7601dad0-2951-4f1a-8528-8c93ddffd37e.008.png)\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - نعمت الهی، ن. (1394). آمار و احتمالات مهندسی. انتشارات دلفک.\n', '- - راس، ش. م.، اسدی، م.، و بزرگ نیا، ا. ق. (1382). مقدمه\u200cای بر آمار و احتمال (برای دانشجویان مهندسی و علوم). انتشارات دانشگاه فردوسی مشهد.\n', '- - بهبودیان، ج. (1383). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا (ع).\n', '- - قهرمانی، س.، شاهکار، غ.، و بزرگ نیا، ا. ق. (1390). مبانی احتمال. انتشارات دانشگاه فردوسی مشهد.\n', '- - Roussas, G. G. (2014). Introduction to probability (2nd ed.). Academic Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - گیونز، جف\u200c اچ\u200c. (۱۳۹۳). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '- Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '- Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '- Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. نعمت اللهی، نادر (۱۳۹۷). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (۱۳۸۸).  آمار اصول و روش ها، جلد ۱ و ۲، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (۱۳۹۳). آمار مقدماتی، جلد ۱ و ۲، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (۱۳۹۴).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (۱۳۹۹). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', '- - Cooper, S. Barry. (2003) Computability theory. CRC Press.\n', '- - M. Divis, R. Sigal, E. Weyuker, (1997), Computability, Complexity, and Languages. 2nd Edition, Academic Press. \n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Huth, M., Ryan, M. (2020), Logic in Computer Science: Modelling and Reasoning about Systems, 2nd Edition, Cambridge: Cambridge University.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Hill, R. (2001). A First Course in Coding Theory (11th ed.). Oxford Applied Mathematics and Computers Science Series, Clarendon Press.\n', '- - Roman, S. (1992). Coding and Information. Springer.\n', '- - Ling, S., &amp; Xing, C. (2014). Coding Theory: A First Course. Cambridge University Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Katz, J., &amp; Lindell, Y. (2007). Introduction to Modern Cryptography. CRC Press.\n', '- - Goldreich, O. (2001). Foundations of Cryptograph, Volume 1: Basic Tools. Cambridge University Press.\n', '- - Goldreich, O. (2004). Foundations of Cryptograph, Volume 2: Basic Applications. Cambridge University Press.\n', '- - Menezes, A. J., van Oorschot, P. C., &amp; Vanstone, S. A. (1996). Handbook of Applied Cryptography. CRC Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Chest, B., &amp; West, J. (2007). Secure Programming with Static Analysis. Addison Wesley.\n', '- - McGraw, G. (2006). Software Security. Addison Wesley.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Winskel, G., (1994), The Formal Semantics of Programming Languages An Introduction, The MIT Press, \n']</t>
+  </si>
+  <si>
+    <t>['- عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '- عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '- سوری، علی. (1400). نظریه بازی\u200cها و کاربردهای اقتصادی، انتشارات نور علم.\n', '- زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '- Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Motwani, R., &amp; Raghavan, P. (1995). Randomized Algorithms. Cambridge University Press.\n', '- - Matoušek, J., &amp; Vondrák, J. (2001). The Probabilistic Method [Lecture Notes]. Department of Applied Mathematics, Charles University.\n', '- - Mitzenmacher, M., &amp; Upfal, E. (2005). Probability and Computing: Randomized Algorithms and Probabilistic Analysis. Cambridge University Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Berg, M., Cheong, O., van Kreveld, M., &amp; Overmars, M. (2008). Computational Geometry: Algorithms and Applications (3rd ed.). Springer-Verlag.\n', "- - O'Rourke, J. (1998). Computational Geometry in C (2nd ed.). Cambridge University Press.\n", '- - Boissonnat, J.-D., &amp; Yvinec, M. (1998). Algorithmic Geometry. Cambridge University Press.\n', "- - Devadoss, S. L., &amp; O'Rourke, J. (2011). Discrete and Computational Geometry. Princeton University Press.\n", '- - Edelsbrunner, H. (1987). Algorithms in Combinatorial Geometry. Springer.\n', "- - Goodman, J. E., O'Rourke, J., &amp; Tóth, C. D. (Eds.). (2017). Handbook of Discrete and Computational Geometry (3rd ed.). CRC Press.\n", '- - Har-Peled, S. (2011). Geometric Approximation Algorithms. AMS Press.\n', '- - Matoušek, J. (2002). Lectures on Discrete Geometry. Springer.\n', "- - O'Rourke, J. (1998). Computational Geometry in C (2nd ed.). Cambridge University Press.\n", '- - Preparata, F. P., &amp; Shamos, M. I. (1985). Computational Geometry: An Introduction. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - مونتگمری، د.،  پک، آ و جافری، و. (۱۳۹۵). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '- - امینی، م. زمانی، ح. روزبه، م.  (۱۳۹۸). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '- - Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '- - Olive, D. (2017). Linear Regression, Springer.\n', '- - Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '- - Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '- - Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Keller, J. M., Liu, D., &amp; Fogel, D. B. (2016). Fundamentals of Computational Intelligence: Neural Networks, Fuzzy Systems and Evolutionary Computation. Wiley.\n', '- - Engelbrecht, P. (2007). Computational Intelligence: An Introduction. Wiley.\n', '- - Konar, A. (2007). Computational Intelligence: Principles, Techniques and Applications. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['تارخ، محمد جعفر و مهاجری، حسین (1392). هوش تجاری نگرشی پویا در عرصه کسب و کار، انتشارات دانشگاه خواجه نصیر. \n', '- Vercellis, C. (2011).\xa0Business intelligence: data mining and optimization for decision making. John Wiley.\n', '- Azevedo, A. and Santos, M. F. (Eds.). (2020).\xa0Integration Challenges for Analytics, Business Intelligence, and Data Mining. IGI Global.\n', '- Grossmann, W. and Rinderle-Ma, S. (2015). Fundamentals of business intelligence, Springer\n', '- Sauter, V. L. (2014).\xa0Decision support systems for business intelligence. John Wiley &amp; Sons.\n', '- Clark, D. (2019).\xa0Beginning Power BI: A Practical Guide to Self-Service Data Analytics with Excel 2016 and Power BI Desktop. Apress.\n', '- Seamark, P. (2018).\xa0Beginning DAX with Power BI: The SQL Pro’s Guide to Better Business Intelligence. Apress.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - نیلسن، م. (۱۴۰۰). شبکه\u200cهای عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '- - Stevens, E., Antiga, L., &amp; Viehmann, T. (2020). Deep Learning with PyTorch. Manning Publications.\n', '- - Chollet, F. (2017). Deep Learning with Python. Manning Publications.\n', '- - Goodfellow, I., Bengio, Y., &amp; Courville, A. (2016). Deep Learning. MIT Press.\n', '- - Lantz, B. (2019). Machine Learning with R: Expert Techniques for Predictive Modeling. Packt Publishing.\n', '- - Pattanayak, S. (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python. Apress.\n', '- - Nielsen, M. (2015). Neural Networks and Deep Learning. Determination Press.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Turban, E., King, D., Lee, J. K., Liang, T.-P., &amp; Turban, D. C. (2018). Electronic Commerce: A Managerial and Social Networks Perspective (8th ed.). Springer.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Crauder, B., Evans, A., &amp; Noell, J. (2010). Functions and Change (5th ed.). Houghton Mifflin.\n', '- - Alder, M. (2001). An Introduction to Mathematical Modeling. HeavenForBooks.com.\n', '- - Oden, J. T. (2011). An Introduction to Mathematical Modeling: A Course in Mechanics (1st ed.). Wiley Series in Computational Mechanics.\n', '- - Ledder, G. (2013). Mathematics for Life Sciences: Calculus, Modeling, Probability and Dynamical Systems. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['Chapra, S. C. (n.d.). Applied Numerical Methods with MATLAB.\n', 'Lopez, C. P. (n.d.). Matlab Symbolic Algebra and Calculus Tools.\n', 'Don, E. (n.d.). Mathematica.\n']</t>
+  </si>
+  <si>
+    <t>['- Wang, L. X. (1996). A course in fuzzy systems and control.\n', '- Klir, G. J., &amp; Youn, B. (1995). Fuzzy set and fuzzy logic: Theory and applications.\n', '- Bede, B. (2013). Mathematics of fuzzy sets and fuzzy logic.\n', '- Yager, R. R., &amp; Negoyen, H. T. (1987). Fuzzy set and applications.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - 1. Diestel, R. (2017). Extremal Graph Theory. In Graph Theory (pp. 173-207). Springer, Berlin Heidelberg.\n', '- - 2. West, D. B. (1996). Introduction to Graph Theory: Vol. 2. Prentice Hall.\n', '- - 3. Bondy, J. A., &amp; Murty, U. S. R. (1976). Graph Theory with Applications: Vol. 290. Macmillan, London..\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Gallian, J. (2012), Contemporary abstract algebra. Nelson Education,\n', '- - Kleiner, I., (2007), A history of abstract algebra. Springer Science &amp; Business Media.\n']</t>
+  </si>
+  <si>
+    <t>['- - Frazier, M. W. (1999). An introduction to wavelets through linear algebra. Springer Science &amp; Business Media.\n', '- - Hubbard, B. B. (2001). The world according to wavelets (2nd ed.). AK Peters.\n', '- - Narcowich, D. F. J., &amp; Boggess, A. (2001). A first course in wavelets with Fourier analysis. Prentice Hall.\n', '- - Van Fleet, F. P. J. (1996). Discrete wavelet transforms: An elementary approach with applications. John Wiley &amp; Sons. \n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - علیائی طرقبه، م. ح. (1400). آموزش جامع پردازش تصویر با OpenCV و Python. انتشارات میعاد اندیشه.\n', '- - کیانی، و. (1402). پردازش تصاویر در پایتون: راهنمای سریع OpenCV. انتشارات دانشگاه بجنورد.\n', '- - Dey, S. (2018). Hands-On Image Processing with Python: Expert techniques for advanced image analysis and effective interpretation of image data. Packt Publishing.\n', '- - Chityala, R., &amp; Pudipeddi, S. (2021). Image Processing and Acquisition using Python. Chapman &amp; Hall.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', "- - Murphy, M. L. (2011). The busy coder's guide to Android development. CommonsWare.\n", "- - Neuburg, M. (2018). iOS 12 Programming Fundamentals with Swift. O'Reilly Media.\n"]</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Schafer, S. M. (2010). HTML, XHTML, and CSS Bible (5th ed.). Wiley Publishing.\n', '- - Forcier, J., Bissex, P., &amp; Chun, W. (2009). Python web development with Django. Pearson Addison-Wesley.\n', '- - Chun, W. J. (2012). Core Python applications programming (3rd ed.). Pearson Addison-Wesley.\n', '- - Fowler, M., Rice, D., Foemmel, M., Hieatt, E., Mee, R., &amp; Stafford, R. (2003). Patterns of enterprise application architecture. Pearson Addison-Wesley.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Peterson, L. L., &amp; Davie, B. S. (2011). Computer Networks: A Systems Approach. 5th Edition. Morgan Kaufmann Publishers.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', "- - Wainer, G. A. (2017). Discrete-Event Modeling and Simulation: A Practitioner's Approach. CRC Press.\n", '- - Banks, J. (2005). Discrete Event System Simulation. Pearson Education India.\n', '- - Banks, J. (Ed.). (1998). Handbook of Simulation: Principles, Methodology, Advances, Applications, and Practice. John Wiley &amp; Sons.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Hearn, D., &amp; Baker, M. P. (2011). Computer Graphics with OpenGL. 4th Edition. Prentice Hull.\n', '- - Marschner, S., &amp; Shirley, P. (2016). Fundamentals of Computer Graphics. 4th Edition. CRC Press.\n', '- - Angel, E. (2002). OpenGL: A Primer. Addison Wesley.\n']</t>
+  </si>
+  <si>
+    <t>['- Easley, D., &amp; Kleinberg, J. (2010). Networks, Crowds, and Markets: Reasoning About a Highly Connected World. Cambridge University Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Silberschatz, A., Galvin, P. B., &amp; Gagne, G. (2013). Operating System Concepts, Ninth Edition. John Wiley &amp; Sons, Inc.\n', '- - Silberschatz, A., Galvin, P. B., &amp; Gagne, G. (2009). Operating System Concepts with Java. Wiley Publishing.\n', '- - Tanenbaum, A., &amp; Woodhull, A. S. (2009). Operating Systems: Design and Implementation. Pearson.\n']</t>
+  </si>
+  <si>
+    <t>['- - Sommerville, I. (2010). Software Engineering, 9th Edition. Addison Wesley.\n', '- - Ghezzi, C., Jazayeri, M., &amp; Mandrioli, D. (2003). Fundamentals of Software Engineering. Prentice Hall.\n', '- - Ng, P. A. B., &amp; Yeh, R. T. (1990). Modern Software Engineering: Foundations and Current Perspectives. Van Nostrand Reinhold.\n', "- - Pressman, R. S., &amp; Roger, P. (2009). Software Engineering: A Practitioner's Approach. 7th Edition. McGraw Hill.\n"]</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Aho, A. V., Lam, M. S., Sethi, R., &amp; Ullman, J. D. (2007). Compilers: Principles, Techniques, and Tools. 2nd Edition. Pearson.\n', '- - Thain, D. (2020). Introduction to Compilers and Language Design. 2nd Edition. Retrieved from http://compilerbook.org\n', '- - Cooper, K. D., &amp; Torczon, L. (2012). Engineering a Compiler. 2nd Edition. Elsevier.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - نقوی، م. ر، ملبوبی، م. ع و رشیدی، س (۱۳۹۸). بیوانفورماتیک (داده\u200cپردازی زیستی)، چاپ چهارم،  انتشارات دانشگاه تهران. \n', '- - Bergeron, B. P., (2003).Bioinformatics computing. Prentice Hall Professional.\n', '- - Sensen, C. W. (2002).\xa0Essentials of Genomics and Bioinformatics. John Wiley &amp; Sons. \n', '- - Curry, E. (2020).\xa0Introduction to Bioinformatics with R: A Practical Guide for Biologists. CRC Press.\n', '- - Sinha, P. P. (2014).\xa0Bioinformatics with R cookbook. Birmingham: Packt Publishing.\n', '- - Mathur, S. K. (2009).\xa0Statistical bioinformatics with R. Academic Press.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['با نظر مدرس درس\n', '**\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['- Burden, R. L., &amp; Faires, J. D. (2011). Numerical Analysis. Cengage Learning.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '- - EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '- - Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '- - Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "- - Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
+  </si>
+  <si>
+    <t>['- 1.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '- 2. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '  - Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '  - Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '  - Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '  - Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '  - Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '  - Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Chandrasekaran, K. (2014). Essentials of Cloud Computing. CRC Press.\n', '- - Ruparelia, N. B. (2016). Cloud Computing. MIT Press.\n', '- - Erl, T., Mahmood, Z., &amp; Puttini, R. (2013). Cloud Computing: Concepts, Technology, and Architecture. Prentice Hall.\n', '- - Ganelin, I., Orhian, E., Sasaki, K., &amp; York, B. (2016). Spark: Big Data Cluster Computing in Production. 1st Edition. Wiley.\n', "- - White, T. (2015). Hadoop: The Definitive Guide: Storage and Analysis at Internet Scale. 4th Edition. O'Reilly Media.\n", '- - Geng, H. (2014). Data Center Handbook. 1st Edition. Wiley.\n', '- - Adkins, S., Belamaric, J., &amp; Giersch, V. (2015). OpenStack Cloud Application Development. Wrox.\n', '- - Antony, B., Boudnik, K., &amp; Adams, C. (2016). Professional Hadoop. 1st Edition. Wrox.\n', '- - **\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Patterson, D. A., &amp; Hennessy, J. L. (2019). Computer Architecture: A Quantitative Approach. Morgan Kaufmann.\n', '- - Sanders, J., &amp; Kandrot, E. (2011). CUDA by Examples: An Introduction to GPU Programming. Addison-Wesley.\n', '- - Kirk, D. B., &amp; Hwu, W. W. (2010). Programming Massively Parallel Processors: A Hands-On Approach. NVIDIA.\n', '- - McCool, M., Robison, A. D., &amp; Reinders, J. (2012). Structured Parallel Programming. Elsevier.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Oppenheim, A. V., Willsky, A. S., &amp; Nawab, S. H. (1997). Signals and Systems. 2nd Edition. Prentice-Hall.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Marchewka, J. T. (2014). Information Technology Project Management. Wiley.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['- - داتا، ب.، (۱۳۹۵). جبر خطی عددی و کاربردها (جلد ۱ و ۲). ترجمه دکتر فائزه توتونیان، انتشارات دانشگاه فردوسی مشهد\n', '- - کرایچیان، ع. (۱۴۰۱). جبر خطی با متلب. انتشارات دانشگاه فردوسی مشهد\n', '- - Boyd, S., &amp; Vandenberghe, L. (2018). Introduction to Applied Linear Algebra: Vectors, Matrices, and Least Squares.\n', '- - Axler, S. (2015). Linear Algebra Done Right. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Schell, J. (2008). The Art of Game Design. Morgan Kaufmann Publishers.\n', '- - Kim, A. Jo. (2018). Game Thinking: Innovate Smarter &amp; Drive Deep Engagement.\n']</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,37 +1692,37 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1745,37 +1733,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1786,37 +1774,37 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1827,37 +1815,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1868,37 +1856,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1909,37 +1897,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1950,37 +1938,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1991,34 +1979,34 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2029,37 +2017,37 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2070,37 +2058,37 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2111,37 +2099,37 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2152,37 +2140,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2193,37 +2181,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P14" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2234,37 +2222,37 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2275,37 +2263,37 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2316,37 +2304,37 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2357,37 +2345,37 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2398,37 +2386,37 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2439,37 +2427,37 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2480,37 +2468,37 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L21" t="s">
         <v>269</v>
       </c>
       <c r="O21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2521,37 +2509,37 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2562,37 +2550,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2603,37 +2591,37 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P24" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2644,37 +2632,37 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
         <v>245</v>
       </c>
-      <c r="G25" t="s">
-        <v>248</v>
-      </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2685,37 +2673,37 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2726,37 +2714,37 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P27" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2767,37 +2755,37 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P28" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2808,25 +2796,25 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="H29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
         <v>265</v>
@@ -2835,10 +2823,10 @@
         <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2849,25 +2837,25 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
         <v>265</v>
@@ -2876,10 +2864,10 @@
         <v>269</v>
       </c>
       <c r="O30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2890,22 +2878,22 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
         <v>247</v>
       </c>
       <c r="H31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
         <v>262</v>
@@ -2913,14 +2901,11 @@
       <c r="K31" t="s">
         <v>266</v>
       </c>
-      <c r="L31" t="s">
-        <v>270</v>
-      </c>
       <c r="O31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2931,37 +2916,37 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2972,34 +2957,37 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>268</v>
       </c>
       <c r="O33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P33" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3010,37 +2998,34 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
         <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>265</v>
-      </c>
-      <c r="L34" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3051,37 +3036,37 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
         <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P35" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3092,34 +3077,37 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K36" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
       </c>
       <c r="O36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P36" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3130,37 +3118,37 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s">
         <v>269</v>
       </c>
       <c r="O37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P37" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3171,37 +3159,37 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P38" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3212,37 +3200,37 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3253,37 +3241,37 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G40" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P40" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3294,37 +3282,37 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P41" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3335,37 +3323,34 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K42" t="s">
-        <v>265</v>
-      </c>
-      <c r="L42" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P42" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3376,37 +3361,37 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="H43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s">
         <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P43" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3417,34 +3402,37 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H44" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K44" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="L44" t="s">
+        <v>268</v>
       </c>
       <c r="O44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P44" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3455,37 +3443,34 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H45" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K45" t="s">
-        <v>265</v>
-      </c>
-      <c r="L45" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P45" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3496,37 +3481,37 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P46" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3537,34 +3522,37 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G47" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K47" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="L47" t="s">
+        <v>268</v>
       </c>
       <c r="O47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P47" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3575,37 +3563,37 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P48" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3616,25 +3604,25 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E49" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K49" t="s">
         <v>265</v>
@@ -3643,10 +3631,10 @@
         <v>269</v>
       </c>
       <c r="O49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P49" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3657,37 +3645,34 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K50" t="s">
-        <v>265</v>
-      </c>
-      <c r="L50" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P50" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3698,37 +3683,34 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G51" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H51" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J51" t="s">
         <v>262</v>
       </c>
       <c r="K51" t="s">
-        <v>266</v>
-      </c>
-      <c r="L51" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P51" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3739,34 +3721,37 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K52" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+      <c r="L52" t="s">
+        <v>268</v>
       </c>
       <c r="O52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P52" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3777,34 +3762,37 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G53" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="I53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K53" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="L53" t="s">
+        <v>269</v>
       </c>
       <c r="O53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P53" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3815,34 +3803,37 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K54" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+      <c r="L54" t="s">
+        <v>268</v>
       </c>
       <c r="O54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P54" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3853,37 +3844,34 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="H55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K55" t="s">
-        <v>265</v>
-      </c>
-      <c r="L55" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P55" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3894,37 +3882,37 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L56" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P56" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3935,37 +3923,37 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P57" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3976,34 +3964,37 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E58" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G58" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K58" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="L58" t="s">
+        <v>268</v>
       </c>
       <c r="O58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P58" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4014,37 +4005,37 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="H59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L59" t="s">
         <v>269</v>
       </c>
       <c r="O59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P59" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4055,37 +4046,37 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L60" t="s">
         <v>269</v>
       </c>
       <c r="O60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P60" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4096,37 +4087,37 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P61" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4137,37 +4128,37 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G62" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P62" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4178,37 +4169,37 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P63" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4219,37 +4210,37 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
         <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L64" t="s">
         <v>269</v>
       </c>
       <c r="O64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P64" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4260,37 +4251,37 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L65" t="s">
         <v>269</v>
       </c>
       <c r="O65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P65" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4301,37 +4292,37 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H66" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P66" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4342,37 +4333,37 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O67" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P67" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4383,37 +4374,37 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="E68" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O68" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P68" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4424,37 +4415,37 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H69" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J69" t="s">
         <v>262</v>
       </c>
       <c r="K69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P69" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4465,37 +4456,37 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="H70" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L70" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P70" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4506,37 +4497,37 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P71" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4547,37 +4538,37 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G72" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J72" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K72" t="s">
+        <v>264</v>
+      </c>
+      <c r="L72" t="s">
         <v>268</v>
       </c>
-      <c r="L72" t="s">
-        <v>270</v>
-      </c>
       <c r="O72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P72" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4588,37 +4579,37 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E73" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="H73" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O73" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P73" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4629,37 +4620,37 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G74" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="H74" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P74" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4670,37 +4661,37 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P75" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4711,37 +4702,37 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E76" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G76" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L76" t="s">
         <v>269</v>
       </c>
       <c r="O76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P76" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4752,37 +4743,37 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E77" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G77" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="H77" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O77" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P77" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4793,78 +4784,37 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="H78" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P78" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" t="s">
-        <v>243</v>
-      </c>
-      <c r="E79" t="s">
-        <v>246</v>
-      </c>
-      <c r="G79" t="s">
-        <v>247</v>
-      </c>
-      <c r="H79" t="s">
-        <v>247</v>
-      </c>
-      <c r="I79" t="s">
-        <v>259</v>
-      </c>
-      <c r="J79" t="s">
-        <v>262</v>
-      </c>
-      <c r="K79" t="s">
-        <v>265</v>
-      </c>
-      <c r="L79" t="s">
-        <v>270</v>
-      </c>
-      <c r="O79" t="s">
-        <v>348</v>
-      </c>
-      <c r="P79" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="426">
   <si>
     <t>fa_title</t>
   </si>
@@ -112,6 +112,9 @@
     <t>مبانی منطق و نظریه مجموعه‌ها</t>
   </si>
   <si>
+    <t>بهینه‌سازی گسسته</t>
+  </si>
+  <si>
     <t>مبانی نظریه محاسبه</t>
   </si>
   <si>
@@ -343,6 +346,9 @@
     <t>Fundamentals of Logic</t>
   </si>
   <si>
+    <t>Discrete Optimization</t>
+  </si>
+  <si>
     <t>Introduction to the theory of Computation</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
     <t>Fundamentals-of-Logic</t>
   </si>
   <si>
+    <t>Discrete-Optimization</t>
+  </si>
+  <si>
     <t>Introduction-to-the-theory-of-Computation</t>
   </si>
   <si>
@@ -751,6 +760,9 @@
     <t>ندارد</t>
   </si>
   <si>
+    <t>مبانی علوم ریاضی، ریاضی عمومی ۱</t>
+  </si>
+  <si>
     <t>تحلیل آماری داده‌ها، مبانی محاسبات علمی</t>
   </si>
   <si>
@@ -880,6 +892,9 @@
     <t>['-\n', '- آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n', '-\n']</t>
   </si>
   <si>
+    <t>['-\n', '- مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای تطابق. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، برش کمینه)، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف، مسائل مکان\u200cیابی. اجرای پروژه کاربردی.\n', '-\n']</t>
+  </si>
+  <si>
     <t>['-\n', '- اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n', '-\n']</t>
   </si>
   <si>
@@ -1051,7 +1066,7 @@
     <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n']</t>
   </si>
   <si>
-    <t>['**مروری بربردارها و ماتریسها:**جمع وتفریق و ضرب ماتریسه،ضرب داخلی و نرم بردارها و ماتریسه،ضرب داخلی و نرم توابع پیوسته، ماتریسهای منفرد و غیر منفرد و معکوس و متقارن و شبه متقارن ، ماتریسهای مختلط و مختلط مزدوج و هرمیتی و شبه هرمیتی ،یکین ، نرمال، قطری – مثلثی – متعامد – مثبت معین و نیمه معین – منفی معین و نیمه معین.\n', '**دستگاه معادلات جبری خطی:** معرفی دستگاه جبری خطی – روشهای حل دستگاه معادلات جبری خطی بر پایه الگوریتم های حذفی گوس – گوس جردن – محورگیری جزئی و کلی – حل دستگاه معادلات جبری خطی برپایه تجزیه ماتریسها – تجزیه LU – تجزیه چالسکی.\n', '**فضاهای برداری:** مفهوم میدان – بسته بودن نسبت به اعمال جمع و ضرب – فضای برداری – زیرفضاهای برداری – زیر فضای ستونهای یک ماتریس – مفهوم اسپن – استقلال و وابستگی خطی بردارها – مفهوم پایه و بعد در فضای برداری – رتبه ماتریس – فضای پوچی ماتریسها – تبدیلات خطی – تبدیلات پرکاربرد از قبیل انتقال ، انعکاس ، تغییر مقیاس و دوران .\n', '**متعامد سازی و مساله حداقل مربعات :** مفهوم متعامد سازی – تصاویر متعامد – الگوریتم گرام اشمیت – مساله حداقل مربعات و کاربرد آن در حل دستگاه معادلات ناسازگار – نحوه بدست آوردن معادلات نرمال و روش های حل آنها بصورت مستقیم با استفاده از تجزیه چالسکی و تچزیه QR  - برازش داده ها با روش حداقل مربعات.\n', '**مقادیر ویژه و بردارهای ویژه :** مفاهیم مقدار ویژه و بردار ویژه – محاسبه مقادیر ویژه با روشهای تکراری مانند روش توانی – استفاده از روش QR  - قطری سازی ماتریسها با مقادیر حقیقی و مختلط – قطری سازی ماتریسها با مقادیر ویژه تکراری.\n', '**چندجمله ای ها و توابع ماتریسی :** قضیه کیلی هامیلتون – کاربرد قضیه کیلی هامیلتون برای محاسبه معکوس ماتریس – محاسبه چندجمله ای های ماتریسی – محاسبه توابع ماتریسی.\n', '**تجزیه مقادیر منفرد :** مفهوم مقادیر منفرد- کاربردهای تجزیه مقادیر منفرد – تجزیه ماتریس ها براساس مقادیر منفرد – تعیین زیر فضاهای اساسی ماتریس. \n', '-\n']</t>
+    <t>['**مروری بربردارها و ماتریسها:**جمع وتفریق و ضرب ماتریسها،ضرب داخلی و نرم بردارها و ماتریسها،ضرب داخلی و نرم توابع پیوسته، ماتریسهای منفرد و غیر منفرد و معکوس و متقارن و شبه متقارن ، ماتریسهای مختلط و مختلط مزدوج و هرمیتی و شبه هرمیتی ،یکین ، نرمال، قطری – مثلثی – متعامد – مثبت معین و نیمه معین – منفی معین و نیمه معین.\n', '**دستگاه معادلات جبری خطی:** معرفی دستگاه جبری خطی – روشهای حل دستگاه معادلات جبری خطی بر پایه الگوریتم های حذفی گوس – گوس جردن – محورگیری جزئی و کلی – حل دستگاه معادلات جبری خطی برپایه تجزیه ماتریسها – تجزیه LU – تجزیه چالسکی.\n', '**فضاهای برداری:** مفهوم میدان – بسته بودن نسبت به اعمال جمع و ضرب – فضای برداری – زیرفضاهای برداری – زیر فضای ستونهای یک ماتریس – مفهوم اسپن – استقلال و وابستگی خطی بردارها – مفهوم پایه و بعد در فضای برداری – رتبه ماتریس – فضای پوچی ماتریسها – تبدیلات خطی – تبدیلات پرکاربرد از قبیل انتقال ، انعکاس ، تغییر مقیاس و دوران .\n', '**متعامد سازی و مساله حداقل مربعات :** مفهوم متعامد سازی – تصاویر متعامد – الگوریتم گرام اشمیت – مساله حداقل مربعات و کاربرد آن در حل دستگاه معادلات ناسازگار – نحوه بدست آوردن معادلات نرمال و روش های حل آنها بصورت مستقیم با استفاده از تجزیه چالسکی و تچزیه QR  - برازش داده ها با روش حداقل مربعات.\n', '**مقادیر ویژه و بردارهای ویژه :** مفاهیم مقدار ویژه و بردار ویژه – محاسبه مقادیر ویژه با روشهای تکراری مانند روش توانی – استفاده از روش QR  - قطری سازی ماتریسها با مقادیر حقیقی و مختلط – قطری سازی ماتریسها با مقادیر ویژه تکراری.\n', '**چندجمله ای ها و توابع ماتریسی :** قضیه کیلی هامیلتون – کاربرد قضیه کیلی هامیلتون برای محاسبه معکوس ماتریس – محاسبه چندجمله ای های ماتریسی – محاسبه توابع ماتریسی.\n', '**تجزیه مقادیر منفرد :** مفهوم مقادیر منفرد- کاربردهای تجزیه مقادیر منفرد – تجزیه ماتریس ها براساس مقادیر منفرد – تعیین زیر فضاهای اساسی ماتریس. \n', '-\n']</t>
   </si>
   <si>
     <t>['بازی چیست؟، انواع و دسته\u200cبندی بازیها،  چالش و پازل،  سیستم ارتقا بازیکنان،  مکانیکهای بازی (قوانین بازی، عملهای بازیکن، مهارتهای بازیکن و ...)،  خطهای داستان بازی،  ساختار گردش اقتصادی بازی (چگونه بازیکن انرژی و توان به دست میآورد و آن را در چه کارهای، سرمایه\u200cگذاری میکند)، متعادل\u200cسازی بازی (متعادل\u200cسازی سختی بازی، متعادل\u200cسازی دینامیک بازی)،  مراحل بازی،  چرخه\u200cهای تعاملی بازیکن با بازی، مشخص کردن محدودیتها، اهداف و دستاوردهای هر چرخه،  نحوه دسترسی اطلاعات بازیکن به بازی،  محیط جذاب و واسط کاربری بازی،  بازیهای چند نفره و نحوه تعامل افراد در بازی، جداول رده\u200cبندی بازیکنان، امکانات رقابت در بازیهای چندنفره، بازیهای استراتژیک، روابط احتمالی در بازیها، گیم پلی بازی، بخش پروژه-محور، تولید بازی ساده با موتور بازیسازی یونیتی، مشخص کردن اشیا بازی، انیمیشن بازی، کدنویسی script های بازی، مدیریت بازی . کنترل بازی، بخش بازیانگاری، مطالعه یک مسئله اجتماعی-تجاری از نگاه بازی انگاری، - استفاده از ابزارهای بازی برای ایجاد سازوکار برای حل مسئله.\n']</t>
@@ -1072,7 +1087,7 @@
     <t>['-\n', '- - موحد، ضیاء (1379). درآمدی به منطق جدید. انتشارات و آموزش انقلاب اسلامی.\n', '- - بردجربان ، ناصر (1377). مبانی و مقدمات علم ریاضی. مرکز نشر پرفسور حسابی.\n', '- - سپهری ، محمد رضا (1390). آشنائی با مبانی علوم ریاضی. مرکز نشر آینه.\n', '- - Halmos, P. R. (2017). I Set Theory. Courier Dover Publications.\n', '- - Stewart, I., &amp; Tall, D. (2015). The Foundations of Mathematics. Oxford University Press.\n', '- - Lin, S.-Y. T., &amp; Lin, Y.-F. (1985). Set Theory with Applications. Mancorp Pub.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - بهبودیان، جواد (1394). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا.\n', '- - قهرمانی، سعید (1397). مبانی احتمال، ویرایش سوم، ترجمه شاهکار، غ. و بزرگنیا، ا. انتشارات دانشگاه صنعتی شریف.\n', '- - راس، شلدون (1389). مبانی احتمال، ویرایش هشتم، ترجمه پارسیان، ا.، همدانی، ع. انتشارات شیخ بهایی.\n', '- - هاگ، ر. و تنیس، ل. آ. (1394). احتمال و استنباط آماری. ترجمه نوروز ایزددوستدار و حمید پزشک. انتشارات دانشگاه تهران.\n', '- - Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th ed.). Pearson.\n', '- - José Unpingco (2019). Python for Probability, Statistics, and Machine Learning (2nd ed.). Springer. Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', '- - Grimmett, G., &amp; Welsh, D. (2014). Probability: An Introduction (2nd ed.). Oxford University Press.\n', '- - Ghahramani, S. (2014). Fundamentals of Probability: with Stochastic Process (3rd ed.). CRC Press. \n', '` `«دروس تخصصی»\n', '![](Aspose.Words.7601dad0-2951-4f1a-8528-8c93ddffd37e.007.png)\n', '**\n']</t>
+    <t>['-\n', '- - بهبودیان، جواد (1394). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا.\n', '- - قهرمانی، سعید (1397). مبانی احتمال، ویرایش سوم، ترجمه شاهکار، غ. و بزرگنیا، ا. انتشارات دانشگاه صنعتی شریف.\n', '- - راس، شلدون (1389). مبانی احتمال، ویرایش هشتم، ترجمه پارسیان، ا.، همدانی، ع. انتشارات شیخ بهایی.\n', '- - هاگ، ر. و تنیس، ل. آ. (1394). احتمال و استنباط آماری. ترجمه نوروز ایزددوستدار و حمید پزشک. انتشارات دانشگاه تهران.\n', '- - Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th ed.). Pearson.\n', '- - José Unpingco (2019). Python for Probability, Statistics, and Machine Learning (2nd ed.). Springer. Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', '- - Grimmett, G., &amp; Welsh, D. (2014). Probability: An Introduction (2nd ed.). Oxford University Press.\n', '- - Ghahramani, S. (2014). Fundamentals of Probability: with Stochastic Process (3rd ed.). CRC Press. \n']</t>
   </si>
   <si>
     <t>['-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
@@ -1099,7 +1114,10 @@
     <t>['-\n', '- - گریمالدی، ر. پ. (۱۳۷۷). ریاضیات گسسته و ترکیبیاتی، ترجمه محمدعلی رضوانی و بیژن شمس، انتشارات فاطمی.\n', '- - Anderson, I. (1989). A first course in combinatorial mathematics. Clarendon Press.\n', '- - Grimaldi, R. P. (2006). Discrete and Combinatorial Mathematics (5th ed.). Pearson Education India.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Henle, J. M. (1986). An Outline of Set Theory. Springer-Verlag.\n', '- - Huth, M., &amp; Ryan, M. (2004). Logic in Computer Science: Modelling and reasoning about systems. Cambridge university press.\n', '**\n']</t>
+    <t>['-\n', '- - Henle, J. M. (1986). An Outline of Set Theory. Springer-Verlag.\n', '- - Huth, M., &amp; Ryan, M. (2004). Logic in Computer Science: Modelling and reasoning about systems. Cambridge university press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - حمدی طه، (۱۳۸۷) آشنایی با تحقیق در عملیات: برنامه\u200cریزی خطی پویا و با اعداد صحیح، (م. بازرگان، مترجم). تهران: مرکز نشر دانشگاهی.\n', '- - مهدی قطعی، (1395). تحقیق در عملیات و بهینه\u200cسازی ترکیبیاتی. تهران: انتشارات ناقوس.\n', '- - Lee, J. (2004). A First Course in Combinatorial Optimization. Cambridge University Press.\n', '- - Cormen, T.H., Leiserson, C.E., Rivest, R.L., &amp; Stein, C. (2009). Introduction to Algorithms (3rd Ed.). The MIT Press.\n', '- - Papadimitriou, C.H., &amp; Steiglitz, R. (1982). Combinatorial Optimization Algorithms and Complexity. Prentice-Hall.\n', '- - Balakrishnan, V. (1995). Network Optimization. Chapman and Hall/CRC.\n', '- - Ahuja, R.K., Magnanti, T.L., &amp; Orlin, J.B. (1993). Network Flows: Theory, Algorithms, and Applications. Prentice-Hall.\n', '**\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Sipser, M. (2012). Introduction to the Theory of Computation. Cengage Learning.\n', '- - Boolos, G., Burgess, J., &amp; Jeffrey, R. (2007). Computability and Logic (5th ed.). Cambridge University Press.\n', '- - Kozen, D. (2006). Theory of Computation. Springer.\n', '- - Hedman, S. (2004). A First Course in Logic: An Introduction to Model Theory, Proof Theory, Computability, and Complexity. Oxford University Press.\n']</t>
@@ -1141,7 +1159,7 @@
     <t>['با نظر مدرس درس\n']</t>
   </si>
   <si>
-    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.7601dad0-2951-4f1a-8528-8c93ddffd37e.008.png)\n']</t>
+    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.4811e529-edda-4feb-ad77-629bce69f956.008.png)\n']</t>
   </si>
   <si>
     <t>['-\n', '- - نعمت الهی، ن. (1394). آمار و احتمالات مهندسی. انتشارات دلفک.\n', '- - راس، ش. م.، اسدی، م.، و بزرگ نیا، ا. ق. (1382). مقدمه\u200cای بر آمار و احتمال (برای دانشجویان مهندسی و علوم). انتشارات دانشگاه فردوسی مشهد.\n', '- - بهبودیان، ج. (1383). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا (ع).\n', '- - قهرمانی، س.، شاهکار، غ.، و بزرگ نیا، ا. ق. (1390). مبانی احتمال. انتشارات دانشگاه فردوسی مشهد.\n', '- - Roussas, G. G. (2014). Introduction to probability (2nd ed.). Academic Press.\n']</t>
@@ -1631,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1692,37 +1710,37 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1733,37 +1751,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1774,37 +1792,37 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1815,37 +1833,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P5" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1856,37 +1874,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P6" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1897,37 +1915,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1938,37 +1956,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1979,34 +1997,34 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="O9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P9" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2017,37 +2035,37 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P10" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2058,37 +2076,37 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P11" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2099,37 +2117,37 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P12" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2140,37 +2158,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J13" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L13" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P13" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2181,37 +2199,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J14" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L14" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O14" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P14" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2222,37 +2240,37 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J15" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L15" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O15" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P15" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2263,37 +2281,37 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J16" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K16" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L16" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O16" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P16" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2304,37 +2322,37 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J17" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K17" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L17" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O17" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P17" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2345,37 +2363,37 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I18" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J18" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K18" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L18" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P18" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2386,37 +2404,37 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J19" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K19" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L19" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O19" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P19" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2427,37 +2445,37 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J20" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L20" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P20" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2468,37 +2486,37 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I21" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J21" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L21" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P21" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2509,37 +2527,37 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I22" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J22" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K22" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L22" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O22" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P22" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2550,37 +2568,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I23" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J23" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K23" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O23" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P23" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2591,37 +2609,37 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J24" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O24" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P24" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2632,37 +2650,37 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O25" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P25" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2673,37 +2691,37 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H26" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K26" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P26" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2714,37 +2732,37 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="H27" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P27" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2755,37 +2773,37 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P28" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2796,37 +2814,37 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P29" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2837,37 +2855,37 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H30" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P30" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2878,34 +2896,37 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
         <v>247</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P31" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2916,37 +2937,34 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J32" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s">
-        <v>264</v>
-      </c>
-      <c r="L32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P32" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2957,37 +2975,37 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P33" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2998,34 +3016,37 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G34" t="s">
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I34" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
       </c>
       <c r="O34" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3036,37 +3057,34 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
         <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I35" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s">
-        <v>264</v>
-      </c>
-      <c r="L35" t="s">
         <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P35" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3077,37 +3095,37 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O36" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3118,37 +3136,37 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J37" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O37" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P37" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3159,37 +3177,37 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E38" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O38" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P38" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3200,37 +3218,37 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="H39" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I39" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J39" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K39" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P39" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3241,37 +3259,37 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I40" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J40" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K40" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O40" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P40" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3282,37 +3300,37 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J41" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K41" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L41" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P41" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3323,34 +3341,37 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I42" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J42" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K42" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="L42" t="s">
+        <v>272</v>
       </c>
       <c r="O42" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P42" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3361,37 +3382,34 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I43" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J43" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K43" t="s">
-        <v>264</v>
-      </c>
-      <c r="L43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O43" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P43" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3402,37 +3420,37 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="H44" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I44" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J44" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K44" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O44" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P44" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3443,34 +3461,37 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E45" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G45" t="s">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I45" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J45" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K45" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="L45" t="s">
+        <v>272</v>
       </c>
       <c r="O45" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P45" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3481,37 +3502,34 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I46" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J46" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K46" t="s">
-        <v>264</v>
-      </c>
-      <c r="L46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O46" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P46" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3522,37 +3540,37 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E47" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I47" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J47" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K47" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="O47" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P47" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3563,37 +3581,37 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E48" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I48" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J48" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K48" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L48" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O48" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P48" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3604,37 +3622,37 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E49" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G49" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J49" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K49" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L49" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O49" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P49" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3645,34 +3663,37 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="I50" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J50" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K50" t="s">
-        <v>264</v>
+        <v>269</v>
+      </c>
+      <c r="L50" t="s">
+        <v>273</v>
       </c>
       <c r="O50" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P50" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3683,34 +3704,34 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G51" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H51" t="s">
         <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J51" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K51" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O51" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P51" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3721,37 +3742,34 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="H52" t="s">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J52" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K52" t="s">
-        <v>264</v>
-      </c>
-      <c r="L52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P52" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3762,37 +3780,37 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E53" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I53" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J53" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K53" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O53" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P53" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3803,37 +3821,37 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I54" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J54" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K54" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L54" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O54" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P54" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3844,34 +3862,37 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J55" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K55" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="L55" t="s">
+        <v>272</v>
       </c>
       <c r="O55" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P55" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3882,37 +3903,34 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="H56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I56" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J56" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K56" t="s">
-        <v>264</v>
-      </c>
-      <c r="L56" t="s">
         <v>268</v>
       </c>
       <c r="O56" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P56" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3923,37 +3941,37 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E57" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G57" t="s">
         <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I57" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J57" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K57" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L57" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O57" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P57" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3964,37 +3982,37 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G58" t="s">
         <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I58" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J58" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K58" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L58" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O58" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P58" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4005,37 +4023,37 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E59" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G59" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I59" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J59" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K59" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L59" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O59" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P59" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4046,37 +4064,37 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E60" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="H60" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I60" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J60" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K60" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L60" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O60" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P60" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4087,37 +4105,37 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I61" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J61" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K61" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L61" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O61" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P61" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4128,37 +4146,37 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I62" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J62" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K62" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L62" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O62" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P62" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4169,37 +4187,37 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I63" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J63" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K63" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L63" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O63" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P63" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4210,37 +4228,37 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E64" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I64" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J64" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K64" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L64" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O64" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P64" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4251,37 +4269,37 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="E65" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I65" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J65" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K65" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L65" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O65" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P65" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4292,37 +4310,37 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="H66" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I66" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J66" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K66" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L66" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O66" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P66" t="s">
-        <v>350</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4333,37 +4351,37 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H67" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I67" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J67" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K67" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L67" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O67" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P67" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4374,37 +4392,37 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="H68" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I68" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J68" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K68" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L68" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O68" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P68" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4415,37 +4433,37 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="E69" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="H69" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I69" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J69" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K69" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L69" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O69" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P69" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4456,37 +4474,37 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I70" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J70" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K70" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L70" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O70" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P70" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4497,37 +4515,37 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E71" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H71" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J71" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K71" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L71" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O71" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P71" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4538,37 +4556,37 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E72" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I72" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J72" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K72" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L72" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O72" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P72" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4579,37 +4597,37 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G73" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I73" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J73" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K73" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L73" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O73" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P73" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4620,37 +4638,37 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E74" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G74" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H74" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I74" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J74" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K74" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L74" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O74" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P74" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4661,37 +4679,37 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="H75" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I75" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J75" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K75" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L75" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O75" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P75" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4702,37 +4720,37 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G76" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I76" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J76" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K76" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L76" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O76" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P76" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4743,37 +4761,37 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E77" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="H77" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I77" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J77" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K77" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L77" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O77" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P77" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4784,37 +4802,78 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E78" t="s">
+        <v>246</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s">
+        <v>247</v>
+      </c>
+      <c r="I78" t="s">
+        <v>262</v>
+      </c>
+      <c r="J78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K78" t="s">
+        <v>268</v>
+      </c>
+      <c r="L78" t="s">
+        <v>272</v>
+      </c>
+      <c r="O78" t="s">
+        <v>350</v>
+      </c>
+      <c r="P78" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" t="s">
         <v>243</v>
       </c>
-      <c r="G78" t="s">
-        <v>256</v>
-      </c>
-      <c r="H78" t="s">
-        <v>244</v>
-      </c>
-      <c r="I78" t="s">
-        <v>258</v>
-      </c>
-      <c r="J78" t="s">
-        <v>261</v>
-      </c>
-      <c r="K78" t="s">
-        <v>264</v>
-      </c>
-      <c r="L78" t="s">
-        <v>268</v>
-      </c>
-      <c r="O78" t="s">
-        <v>346</v>
-      </c>
-      <c r="P78" t="s">
-        <v>419</v>
+      <c r="E79" t="s">
+        <v>246</v>
+      </c>
+      <c r="G79" t="s">
+        <v>260</v>
+      </c>
+      <c r="H79" t="s">
+        <v>247</v>
+      </c>
+      <c r="I79" t="s">
+        <v>262</v>
+      </c>
+      <c r="J79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K79" t="s">
+        <v>268</v>
+      </c>
+      <c r="L79" t="s">
+        <v>272</v>
+      </c>
+      <c r="O79" t="s">
+        <v>351</v>
+      </c>
+      <c r="P79" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="427">
   <si>
     <t>fa_title</t>
   </si>
@@ -763,7 +763,7 @@
     <t>مبانی علوم ریاضی، ریاضی عمومی ۱</t>
   </si>
   <si>
-    <t>تحلیل آماری داده‌ها، مبانی محاسبات علمی</t>
+    <t>تحلیل آماری داده‌ها، مبانی محاسبات علمی،  برنامه‌نویسی پایتون</t>
   </si>
   <si>
     <t>یادگیری ماشین مقدماتی،  سری‌های زمانی کاربردی</t>
@@ -898,7 +898,7 @@
     <t>['-\n', '- اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n', '-\n']</t>
   </si>
   <si>
-    <t>['\\1.\tخطا. انواع خطا. منابع تولید خطا. نمایش اعداد. ارقام با معنی. محاسبات پایدار و ناپایدار. حساسیت\n', '\\2.\tدستگاه معادلات خطی و ماتریسها. دترمینان. ماتریس های نواری. ماتریس های بلوکی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون. نرم برداری و ماتریسی. حل دستگاه های خطی. تجزیه LU. تحلیل حساسیت دستگاههای خطی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. دستگاه های هزنبرگ. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها. \n', '\\3.\tاعمال ماتریسی بازگشتی. تبدیل فوریه سریع\n', '\\4.\tپیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی\n', '-\n']</t>
+    <t>['1\\.\tخطا. انواع خطا. منابع تولید خطا. نمایش اعداد. ارقام با معنی. محاسبات پایدار و ناپایدار. حساسیت\n', '2\\.\tدستگاه معادلات خطی و ماتریسها. دترمینان. ماتریس های نواری. ماتریس های بلوکی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون. نرم برداری و ماتریسی. حل دستگاه های خطی. تجزیه LU. تحلیل حساسیت دستگاههای خطی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. دستگاه های هزنبرگ. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها. \n', '3\\.\tاعمال ماتریسی بازگشتی. تبدیل فوریه سریع\n', '4\\.\tپیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی\n', '-\n']</t>
   </si>
   <si>
     <t>['-\n', '- منابع خطا، سیستم\u200cهای نمایشی اعداد، خطای رندکردن و تحلیل آن. ریشه\u200cیابی توابع و دستگاههای غیر خطی. درون\u200cیابی. تقریب کمترین مربعات. مشتق\u200cگیری عددی. انتگرال\u200cگیری عددی. حل دستگاه\u200cهای خطی.\n', '-\n']</t>
@@ -1051,7 +1051,7 @@
     <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
   </si>
   <si>
-    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n']</t>
+    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: &lt;a name="_hlk86305627"&gt;&lt;/a&gt;شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n']</t>
   </si>
   <si>
     <t>['1- آشنایی با مفاهیم رایانش ابری، مدلهای مختلف استقرار و سرویس دهی 2- آشنایی با معماری مرجع رایانش ابری 3- آشنایی با مفاهیم مجازی سازی در سطح سخت افزار، در سطح سیستم عامل و در سطح زبان برنامه\u200cنویسی 4- آشنایی با مدلهای مختلف برنامه\u200cنویسی ابر مانند مدل کیسه وظایف، جریانهای کاری، مدل ریزخدمت 5- آشنایی با مفاهیم تحلیل داده\u200cهای عظیم و امکانات ابری برای پردازش این نوع داده\u200cها همچون: سیستم فایل توزیع شده مانند HDFS، پایگاه داده\u200cهای NoSQL همانند HBase، مدلهای برنامه\u200cنویسی مانند Map-Reduce، پردازش گرافی مانند Giraph و پردازش جریانی همانند Storm 6- آشنایی با مدیریت منابع و زمانبندی در ابر روشهای مختلف زمانبندی وظایف مستقل و جریانهای کاری 7- آشنایی با محاسبات ابری سبز و روشهای برقراری آن 8- آشنایی با مدلهای بین ابری همانند ابر متحد شده و چند ابری و تفاوتهای آنها، و آشنایی با مفهوم کارگزاری ابر 9- آشنایی با مفهوم محاسبات لبه ای و ارتباط آن با رایانش ابری، محاسبات ابری متحرک و انواع آن و محاسبات مهی\n']</t>
@@ -1075,6 +1075,9 @@
     <t>['-\n', '- - استوارت، ج. (1395). حساب دیفرانسیل و انتگرال (ج. حمیدی، مترجم). تهران: مؤسسه آموزشی و نشریاتی مدرسه.\n', '- - شهشهانی، س. (1396). حساب دیفرانسیل و انتگرال (ویراست 2). تهران: انتشارات فاطمی.\n', '- - Stewart, J. (2016). Calculus (8th ed.). Cengage Learning.\n', '- - Adams, R. A., &amp; Essex, C. (2018). Calculus: A complete course (9th ed.). Pearson.\n', '- - Finney, T., Demana, F., Waits, B. K., Kennedy, D., &amp; Rodgers, J. (2014). Calculus: Graphical, numerical, algebraic (4th ed.). Pearson.\n']</t>
   </si>
   <si>
+    <t>['-\n', '- - استوارت، ج. (1395). حساب دیفرانسیل و انتگرال (ج. حمیدی، مترجم). تهران: مؤسسه آموزشی و نشریاتی مدرسه.\n', '- - شهشهانی، س. (1396). حساب دیفرانسیل و انتگرال (ویراست 2). تهران: انتشارات فاطمی.\n', '- - Stewart, J. (2016). Calculus (8th ed.). Cengage Learning.\n', '- - Adams, R. A., &amp; Essex, C. (2018). Calculus: A complete course (9th ed.). Pearson.\n', '- - Finney, T., Demana, F., Waits, B. K., Kennedy, D., &amp; Rodgers, J. (2014). Calculus: Graphical, numerical, algebraic (4th ed.). Pearson.\n', '&lt;a name="_hlk93224737"&gt;&lt;/a&gt;\n']</t>
+  </si>
+  <si>
     <t>['- - ظهوری زنگنه، ح. (مترجم). (1394). معادلات دیفرانسیل مقدماتی و مسائل مقدماتی مرزی (ویرایش ۹). انتشارات فاطمی\n', '- - Boyce, W. E., DiPrima, R. C., &amp; Meade, D. B. (2017). Elementary Differential Equations and Boundary Value Problems (11th ed.). Wiley.\n', '- - Goode, S., &amp; Annin, S. A. (2016). Differential Equations and Linear Algebra by Stephen. Pearson.\n', '- - Edwards, C. H., &amp; Penney, D. E. (2008). Elementary Differential Equations (6th ed.). Pearson Education, Inc.\n', '- - Zill, D. G. (2012). A First Course in Differential Equations with Modeling Applications (10th ed.). Brooks/Cole, Cengage Learning.\n']</t>
   </si>
   <si>
@@ -1090,7 +1093,7 @@
     <t>['-\n', '- - بهبودیان، جواد (1394). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا.\n', '- - قهرمانی، سعید (1397). مبانی احتمال، ویرایش سوم، ترجمه شاهکار، غ. و بزرگنیا، ا. انتشارات دانشگاه صنعتی شریف.\n', '- - راس، شلدون (1389). مبانی احتمال، ویرایش هشتم، ترجمه پارسیان، ا.، همدانی، ع. انتشارات شیخ بهایی.\n', '- - هاگ، ر. و تنیس، ل. آ. (1394). احتمال و استنباط آماری. ترجمه نوروز ایزددوستدار و حمید پزشک. انتشارات دانشگاه تهران.\n', '- - Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th ed.). Pearson.\n', '- - José Unpingco (2019). Python for Probability, Statistics, and Machine Learning (2nd ed.). Springer. Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', '- - Grimmett, G., &amp; Welsh, D. (2014). Probability: An Introduction (2nd ed.). Oxford University Press.\n', '- - Ghahramani, S. (2014). Fundamentals of Probability: with Stochastic Process (3rd ed.). CRC Press. \n']</t>
   </si>
   <si>
-    <t>['-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n']</t>
+    <t>['-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n', '**\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Horton, I., &amp; Van Weert, P. (2018). Beginning C++17: From Novice to Professional. Apress.\n', '- - Horton, I., &amp; Van Weert, P. (2020). Beginning C++20: From Novice to Professional. Apress.\n', '- - Deitel, P., &amp; Deitel, H. (2017). C++ How to Program (11th ed.). Pearson Education.\n']</t>
@@ -1138,7 +1141,7 @@
     <t>['-\n', '- - کرایر، ج.د.؛ سیک چن، ک.  (1392). تجزیه\u200cوتحلیل سری\u200cهای زمانی با استفاده از نرم\u200cافزار R، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی. \n', '- - براکول، پ. و دیویس، ر.ا. (1384). مقدمه\u200cای بر سری\u200cهای زمانی و پیش\u200cبینی، ترجمه امینی، م.،  بزرگ نیا، ا. و  دهقان، م. ح. انتشارات دانشگاه سیستان و بلوچستان. \n', '- - چتفیلد، ک. (1996). مقدمه\u200cای بر تحلیل سری\u200cهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، انتشارات دانشگاه فردوسی مشهد\n', '- - Shumway, R. H., and Stoffer, D. S. (2019). Time series: a data analysis approach using R. Chapman and Hall/CRC.\n', '- - Cryer, J. D. and Chan, K. S. (2008). Time Series Analysis With Application in R, 2nd Ed. Springer.\n']</t>
   </si>
   <si>
-    <t>['\\1. جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند)\n', '2. James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '2. Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '2. Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '- 2. Zaki, M. J., &amp; Meira, W., (2014) Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.**\n']</t>
+    <t>['-\n', '- - جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند)\n', '- James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '- Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '- Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '- - Zaki, M. J., &amp; Meira, W., (2014) Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.**\n']</t>
   </si>
   <si>
     <t>['-\n', '- - شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دکتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', '- - مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', '- - Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', '- - Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', '- - Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', '- - Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', '- - Zaki, M. J., &amp; Meira, W., (2014)m Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.\n']</t>
@@ -1153,13 +1156,13 @@
     <t>['منابع آزاد با نظر استاد درس\n']</t>
   </si>
   <si>
-    <t>['Øverby, H., &amp; Audestad, J. A. (2021). Introduction to Digital Economics: Foundations, Business Models and Case Studies. Springer. \n']</t>
+    <t>['&lt;a name="_hlk932247371"&gt;&lt;/a&gt;Øverby, H., &amp; Audestad, J. A. (2021). Introduction to Digital Economics: Foundations, Business Models and Case Studies. Springer. \n']</t>
   </si>
   <si>
     <t>['با نظر مدرس درس\n']</t>
   </si>
   <si>
-    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.4811e529-edda-4feb-ad77-629bce69f956.008.png)\n']</t>
+    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n']</t>
   </si>
   <si>
     <t>['-\n', '- - نعمت الهی، ن. (1394). آمار و احتمالات مهندسی. انتشارات دلفک.\n', '- - راس، ش. م.، اسدی، م.، و بزرگ نیا، ا. ق. (1382). مقدمه\u200cای بر آمار و احتمال (برای دانشجویان مهندسی و علوم). انتشارات دانشگاه فردوسی مشهد.\n', '- - بهبودیان، ج. (1383). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا (ع).\n', '- - قهرمانی، س.، شاهکار، غ.، و بزرگ نیا، ا. ق. (1390). مبانی احتمال. انتشارات دانشگاه فردوسی مشهد.\n', '- - Roussas, G. G. (2014). Introduction to probability (2nd ed.). Academic Press.\n']</t>
@@ -1168,7 +1171,7 @@
     <t>['-\n', '- - گیونز، جف\u200c اچ\u200c. (۱۳۹۳). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '- Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '- Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '- Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
   </si>
   <si>
-    <t>['\\1. نعمت اللهی، نادر (۱۳۹۷). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (۱۳۸۸).  آمار اصول و روش ها، جلد ۱ و ۲، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (۱۳۹۳). آمار مقدماتی، جلد ۱ و ۲، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (۱۳۹۴).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (۱۳۹۹). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
+    <t>['1\\. نعمت اللهی، نادر (۱۳۹۷). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '2\\. جانسون، ر. آ. و  باتاچاریا، گ.، (۱۳۸۸).  آمار اصول و روش ها، جلد ۱ و ۲، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '3\\. ووناکت، ت. چ. و ووناکت، ر. ج. (۱۳۹۳). آمار مقدماتی، جلد ۱ و ۲، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '4\\. بهبودیان، ج.، آمار و احتمال مقدماتی (۱۳۹۴).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '5\\. طاهری، س.م. (۱۳۹۹). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '6\\. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '7\\. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', '- - Cooper, S. Barry. (2003) Computability theory. CRC Press.\n', '- - M. Divis, R. Sigal, E. Weyuker, (1997), Computability, Complexity, and Languages. 2nd Edition, Academic Press. \n']</t>
@@ -1291,7 +1294,7 @@
     <t>['- - داتا، ب.، (۱۳۹۵). جبر خطی عددی و کاربردها (جلد ۱ و ۲). ترجمه دکتر فائزه توتونیان، انتشارات دانشگاه فردوسی مشهد\n', '- - کرایچیان، ع. (۱۴۰۱). جبر خطی با متلب. انتشارات دانشگاه فردوسی مشهد\n', '- - Boyd, S., &amp; Vandenberghe, L. (2018). Introduction to Applied Linear Algebra: Vectors, Matrices, and Least Squares.\n', '- - Axler, S. (2015). Linear Algebra Done Right. Springer.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Schell, J. (2008). The Art of Game Design. Morgan Kaufmann Publishers.\n', '- - Kim, A. Jo. (2018). Game Thinking: Innovate Smarter &amp; Drive Deep Engagement.\n']</t>
+    <t>['-\n', '- - Schell, J. (2008). The Art of Game Design. Morgan Kaufmann Publishers.\n', '- - Kim, A. Jo. (2018). Game Thinking: Innovate Smarter &amp; Drive Deep Engagement.\n', '[^1]: Luk, Robert W. P. (2020). Insights in How Computer Science can be a Science. Science and Philosophy 8 (2):17-46\n', '[^2]: ["Computer Science as a Profession"](https://web.archive.org/web/20080617030847/http:/www.csab.org/comp_sci_profession.html). Computing Sciences Accreditation Board. May 28, 1997.\n', '[^3]: [Computer science - Wikipedia](https://en.wikipedia.org/wiki/Computer_science)\n', '[^4]: در تدوین این برنامه درسی، برنامه\u200cهای درسی مصوب وزارت در سالهای ۱۳۹۹ تا ۱۴۰۱ برای رشته\u200cهای علوم کامپیوتر، ریاضیات و کاربردها و آمار و همچنین برنامه درسی مهندسی کامپیوتر وزارت علوم و چند دانشگاه داخلی (منجمله صنعتی شریف، تهران و امیرکبیر) و خارجی مورد ملاحظه قرار گرفته\u200cاند.\n', '[^5]: Andrew Ng']</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1784,7 @@
         <v>276</v>
       </c>
       <c r="P3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1822,7 +1825,7 @@
         <v>277</v>
       </c>
       <c r="P4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1863,7 +1866,7 @@
         <v>278</v>
       </c>
       <c r="P5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1904,7 +1907,7 @@
         <v>279</v>
       </c>
       <c r="P6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1945,7 +1948,7 @@
         <v>280</v>
       </c>
       <c r="P7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1986,7 +1989,7 @@
         <v>281</v>
       </c>
       <c r="P8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2024,7 +2027,7 @@
         <v>282</v>
       </c>
       <c r="P9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2065,7 +2068,7 @@
         <v>283</v>
       </c>
       <c r="P10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2106,7 +2109,7 @@
         <v>284</v>
       </c>
       <c r="P11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2147,7 +2150,7 @@
         <v>285</v>
       </c>
       <c r="P12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2188,7 +2191,7 @@
         <v>286</v>
       </c>
       <c r="P13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2229,7 +2232,7 @@
         <v>287</v>
       </c>
       <c r="P14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2270,7 +2273,7 @@
         <v>288</v>
       </c>
       <c r="P15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2311,7 +2314,7 @@
         <v>289</v>
       </c>
       <c r="P16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2352,7 +2355,7 @@
         <v>290</v>
       </c>
       <c r="P17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2393,7 +2396,7 @@
         <v>291</v>
       </c>
       <c r="P18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2434,7 +2437,7 @@
         <v>292</v>
       </c>
       <c r="P19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2475,7 +2478,7 @@
         <v>293</v>
       </c>
       <c r="P20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2516,7 +2519,7 @@
         <v>294</v>
       </c>
       <c r="P21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2557,7 +2560,7 @@
         <v>295</v>
       </c>
       <c r="P22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2598,7 +2601,7 @@
         <v>296</v>
       </c>
       <c r="P23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2639,7 +2642,7 @@
         <v>297</v>
       </c>
       <c r="P24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2680,7 +2683,7 @@
         <v>298</v>
       </c>
       <c r="P25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2721,7 +2724,7 @@
         <v>299</v>
       </c>
       <c r="P26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2762,7 +2765,7 @@
         <v>300</v>
       </c>
       <c r="P27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2803,7 +2806,7 @@
         <v>301</v>
       </c>
       <c r="P28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2844,7 +2847,7 @@
         <v>302</v>
       </c>
       <c r="P29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2870,13 +2873,13 @@
         <v>247</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
         <v>265</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
         <v>273</v>
@@ -2885,7 +2888,7 @@
         <v>303</v>
       </c>
       <c r="P30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2926,7 +2929,7 @@
         <v>304</v>
       </c>
       <c r="P31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2964,7 +2967,7 @@
         <v>305</v>
       </c>
       <c r="P32" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3005,7 +3008,7 @@
         <v>306</v>
       </c>
       <c r="P33" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3046,7 +3049,7 @@
         <v>307</v>
       </c>
       <c r="P34" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3084,7 +3087,7 @@
         <v>308</v>
       </c>
       <c r="P35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3125,7 +3128,7 @@
         <v>309</v>
       </c>
       <c r="P36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3166,7 +3169,7 @@
         <v>310</v>
       </c>
       <c r="P37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3207,7 +3210,7 @@
         <v>311</v>
       </c>
       <c r="P38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3248,7 +3251,7 @@
         <v>312</v>
       </c>
       <c r="P39" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3289,7 +3292,7 @@
         <v>313</v>
       </c>
       <c r="P40" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3330,7 +3333,7 @@
         <v>314</v>
       </c>
       <c r="P41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3371,7 +3374,7 @@
         <v>315</v>
       </c>
       <c r="P42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3409,7 +3412,7 @@
         <v>316</v>
       </c>
       <c r="P43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3450,7 +3453,7 @@
         <v>317</v>
       </c>
       <c r="P44" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3491,7 +3494,7 @@
         <v>318</v>
       </c>
       <c r="P45" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3529,7 +3532,7 @@
         <v>319</v>
       </c>
       <c r="P46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3570,7 +3573,7 @@
         <v>320</v>
       </c>
       <c r="P47" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3611,7 +3614,7 @@
         <v>321</v>
       </c>
       <c r="P48" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3652,7 +3655,7 @@
         <v>322</v>
       </c>
       <c r="P49" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3693,7 +3696,7 @@
         <v>323</v>
       </c>
       <c r="P50" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3731,7 +3734,7 @@
         <v>324</v>
       </c>
       <c r="P51" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3769,7 +3772,7 @@
         <v>325</v>
       </c>
       <c r="P52" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3810,7 +3813,7 @@
         <v>326</v>
       </c>
       <c r="P53" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3851,7 +3854,7 @@
         <v>327</v>
       </c>
       <c r="P54" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3892,7 +3895,7 @@
         <v>328</v>
       </c>
       <c r="P55" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3930,7 +3933,7 @@
         <v>329</v>
       </c>
       <c r="P56" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3971,7 +3974,7 @@
         <v>330</v>
       </c>
       <c r="P57" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4012,7 +4015,7 @@
         <v>331</v>
       </c>
       <c r="P58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4053,7 +4056,7 @@
         <v>332</v>
       </c>
       <c r="P59" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4094,7 +4097,7 @@
         <v>333</v>
       </c>
       <c r="P60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4135,7 +4138,7 @@
         <v>334</v>
       </c>
       <c r="P61" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4176,7 +4179,7 @@
         <v>335</v>
       </c>
       <c r="P62" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4217,7 +4220,7 @@
         <v>336</v>
       </c>
       <c r="P63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4258,7 +4261,7 @@
         <v>337</v>
       </c>
       <c r="P64" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4299,7 +4302,7 @@
         <v>338</v>
       </c>
       <c r="P65" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4340,7 +4343,7 @@
         <v>339</v>
       </c>
       <c r="P66" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4381,7 +4384,7 @@
         <v>340</v>
       </c>
       <c r="P67" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4422,7 +4425,7 @@
         <v>340</v>
       </c>
       <c r="P68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4463,7 +4466,7 @@
         <v>341</v>
       </c>
       <c r="P69" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4504,7 +4507,7 @@
         <v>342</v>
       </c>
       <c r="P70" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4545,7 +4548,7 @@
         <v>343</v>
       </c>
       <c r="P71" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4586,7 +4589,7 @@
         <v>344</v>
       </c>
       <c r="P72" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4627,7 +4630,7 @@
         <v>345</v>
       </c>
       <c r="P73" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4668,7 +4671,7 @@
         <v>346</v>
       </c>
       <c r="P74" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4709,7 +4712,7 @@
         <v>347</v>
       </c>
       <c r="P75" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4750,7 +4753,7 @@
         <v>348</v>
       </c>
       <c r="P76" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4791,7 +4794,7 @@
         <v>349</v>
       </c>
       <c r="P77" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4832,7 +4835,7 @@
         <v>350</v>
       </c>
       <c r="P78" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4873,7 +4876,7 @@
         <v>351</v>
       </c>
       <c r="P79" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="426">
   <si>
     <t>fa_title</t>
   </si>
@@ -70,7 +70,7 @@
     <t>معادلات دیفرانسیل</t>
   </si>
   <si>
-    <t>مبانی کامپیوتر و برنامه‌سازی</t>
+    <t>مبانی کامپیوتر و برنامه‌نویسی</t>
   </si>
   <si>
     <t>کارگاه کامپیوتر ۱</t>
@@ -91,7 +91,7 @@
     <t>برنامه‌نویسی پایتون</t>
   </si>
   <si>
-    <t>ساختمان داده‌ها و الگوریتم‌ها</t>
+    <t>ساختمان داده‌ها</t>
   </si>
   <si>
     <t>طراحی و تحلیل الگوریتم‌ها</t>
@@ -238,7 +238,7 @@
     <t>شبکه‌های کامپیوتری</t>
   </si>
   <si>
-    <t>شبیه سازی کامپیوتری</t>
+    <t>شبیه‌سازی کامپیوتری</t>
   </si>
   <si>
     <t>گرافیک کامپیوتری</t>
@@ -247,10 +247,10 @@
     <t>تحلیل شبکه‌های اجتماعی</t>
   </si>
   <si>
-    <t>اصول سیستم‌های عامل</t>
-  </si>
-  <si>
-    <t>اصول طراحی نرم افزار</t>
+    <t>سیستم‌های عامل</t>
+  </si>
+  <si>
+    <t>اصول طراحی نرم‌افزار</t>
   </si>
   <si>
     <t>کامپایلر</t>
@@ -274,7 +274,7 @@
     <t>آشنایی با کلان داده‌ها</t>
   </si>
   <si>
-    <t>فرایند های تصادفی</t>
+    <t>فرآیندهای تصادفی</t>
   </si>
   <si>
     <t>مبانی رایانش ابری</t>
@@ -325,7 +325,7 @@
     <t>Python Programming</t>
   </si>
   <si>
-    <t>Data Structures &amp; Algorithms</t>
+    <t>Data Structures</t>
   </si>
   <si>
     <t>Design &amp; Analysis of Algorithms</t>
@@ -559,7 +559,7 @@
     <t>Python-Programming</t>
   </si>
   <si>
-    <t>Data-Structures-and-Algorithms</t>
+    <t>Data-Structures</t>
   </si>
   <si>
     <t>Design-and-Analysis-of-Algorithms</t>
@@ -784,13 +784,13 @@
     <t>مبانی آنالیز ریاضی، مبانی محاسبات علمی</t>
   </si>
   <si>
-    <t>اصول سیستم‌های کامپیوتری، اصول سیستم‌های عامل</t>
+    <t>اصول سیستم‌های کامپیوتری، سیستم‌های عامل</t>
   </si>
   <si>
     <t>گذراندن 75 واحد</t>
   </si>
   <si>
-    <t>شبکه‌های کامپیوتری، اصول سیستم‌های عامل</t>
+    <t>شبکه‌های کامپیوتری، سیستم‌های عامل</t>
   </si>
   <si>
     <t>برنامه‌نویسی پیشرفته، اصول سیستم‌های کامپیوتری</t>
@@ -850,7 +850,7 @@
     <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n']</t>
   </si>
   <si>
-    <t>['مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، کلاسها (به صورت مختصر)، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، آشنایی با ، مستندسازی و کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
+    <t>['اهداف درس با هر زبان برنامه\u200cنویسی سطح بالا محقق می\u200cشود؛ اما از آنجا که تاکید این برنامه درسی بر زبان برنامه\u200cنویسی پایتون است، سرفصل پیشنهادی نیز بر اساس این زبان ذکر می\u200cشود: مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، مستندسازی، کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
   </si>
   <si>
     <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '-\n', '- - آشنایی مقدماتی با تهیه اسناد کامپیوتری\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '-\n', '- - آشنایی مقدماتی با مجموعه میکروسافت آفیس\n', '- - آشنایی با سرویس\u200cهای کاربردی\n', 'سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '-\n', '- - آشنایی با سیستم عامل لینوکس\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX\n', 'دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n']</t>
@@ -865,7 +865,7 @@
     <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای sنمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از **نرم افزار اکسل**  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - چرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '- - محیط\u200cهای مجتمع توسعه\n', '- - ساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '- - برنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '- - وراثت در شی گرایی و چندریختی در شی گرایی\n', '- - مدیریت استثناء\n', '- - رابط گرافیکی و مفاهیم Interface\n', '- - کار با فایل\u200cها\n', '- - جریان داده\n', '- - کار با رشته و آرایه\n', '- - حافظه پویا\n', '- - (درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- - قالبها، فضای نام، auto، \n', '- - Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n']</t>
+    <t>['-\n', '- - چرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '- - محیط\u200cهای مجتمع توسعه\n', '- - ساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '- - برنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '- - وراثت در شی گرایی و چندریختی در شی گرایی\n', '- - مدیریت استثناء\n', '- - رابط گرافیکی و مفاهیم Interface\n', '- - کار با فایل\u200cها\n', '- - جریان داده\n', '- - کار با رشته و آرایه\n', '- - حافظه پویا\n', '- - (درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- - قالبها، فضای نام، auto، \n', '- - Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**پیشنهاد می\u200cشود در این درس**Modern C++ **تدریس شود و در انتها در قالب یکی دو جلسه، دانشجویان با جاوا آشنا شوند (یا بالعکس). و با هماهنگی بین مدرسان این درس و در ساختمان داده\u200cها، در هر دو درس این دو زبان برنامه\u200cنویسی پوشش داده شود. یعنی اگر در این درس زبان C++ تدریس شد،  ساختمان داده\u200cها با جاوا تدریس شود.**\n']</t>
   </si>
   <si>
     <t>['مرور فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات روی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، Threads.\n']</t>
@@ -898,7 +898,7 @@
     <t>['-\n', '- اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n', '-\n']</t>
   </si>
   <si>
-    <t>['1\\.\tخطا. انواع خطا. منابع تولید خطا. نمایش اعداد. ارقام با معنی. محاسبات پایدار و ناپایدار. حساسیت\n', '2\\.\tدستگاه معادلات خطی و ماتریسها. دترمینان. ماتریس های نواری. ماتریس های بلوکی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون. نرم برداری و ماتریسی. حل دستگاه های خطی. تجزیه LU. تحلیل حساسیت دستگاههای خطی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. دستگاه های هزنبرگ. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها. \n', '3\\.\tاعمال ماتریسی بازگشتی. تبدیل فوریه سریع\n', '4\\.\tپیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی\n', '-\n']</t>
+    <t>['\\1.\tخطا. انواع خطا. منابع تولید خطا. نمایش اعداد. ارقام با معنی. محاسبات پایدار و ناپایدار. حساسیت\n', '\\2.\tدستگاه معادلات خطی و ماتریسها. دترمینان. ماتریس های نواری. ماتریس های بلوکی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون. نرم برداری و ماتریسی. حل دستگاه های خطی. تجزیه LU. تحلیل حساسیت دستگاههای خطی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. دستگاه های هزنبرگ. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها. \n', '\\3.\tاعمال ماتریسی بازگشتی. تبدیل فوریه سریع\n', '\\4.\tپیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی\n', '-\n']</t>
   </si>
   <si>
     <t>['-\n', '- منابع خطا، سیستم\u200cهای نمایشی اعداد، خطای رندکردن و تحلیل آن. ریشه\u200cیابی توابع و دستگاههای غیر خطی. درون\u200cیابی. تقریب کمترین مربعات. مشتق\u200cگیری عددی. انتگرال\u200cگیری عددی. حل دستگاه\u200cهای خطی.\n', '-\n']</t>
@@ -910,7 +910,7 @@
     <t>['مروری بر جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری. بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، تحلیل واریانس\n']</t>
   </si>
   <si>
-    <t>['-\n', '- بیان اهداف تحلیل سری¬های زمانی با ذکر مثال\u200cهایی در زمینه\u200cهای مختلف مانند هواشناسی، موضوعات اقتصادی و مالی، روند، مولفه فصلی، تجزیه سری زمانی، برآورد روندها با مدل های رگرسیونی، هموارسازی، مفاهیم پایه\u200cای سری\u200cهای زمانی و فرایندهای تصادفی(تابع میانگین و واریانس، تابع خود کوواریانس، خود همبستگی و خود همبستگی جزئی،\u200c مانایی)، فرآیند نوفه سفید، قدم زدن تصادفی، سری های عمومی خطی، میانگین متحرک و فرآیند خود بازگشت،  مدل\u200cهای ARMA  و ARIMA (فصلی و غیر فصلی)، در کلاس باکس- جنکینز، آزمون ریشه واحد، تفاضل\u200cگیری،  براورد پارامترها  (روشهای گشتاوری، کمترین مربعات و ماکسیمم درستنمایی)، پیش بینی، تحلیل باقیمانده ها و بررسی تشخیص مدلها، مناسبت مدل ها، آزمون\u200cهای خودهمبستگی، آزمون های نرمال بودن، ملاکهای AIC و BIC برای انتخاب مدل، مقدمه مدل های ناهمسان واریانس شرطی، تبدیلات باکس- کاکس.\n', '- توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n', '-\n']</t>
+    <t>['-\n', '- بیان اهداف تحلیل سری¬های زمانی با ذکر مثال\u200cهایی در زمینه\u200cهای مختلف مانند هواشناسی، موضوعات اقتصادی و مالی، روند، مولفه فصلی، تجزیه سری زمانی، برآورد روندها با مدل های رگرسیونی، هموارسازی، مفاهیم پایه\u200cای سری\u200cهای زمانی و فرآیندهای تصادفی(تابع میانگین و واریانس، تابع خود کوواریانس، خود همبستگی و خود همبستگی جزئی،\u200c مانایی)، فرآیند نوفه سفید، قدم زدن تصادفی، سری های عمومی خطی، میانگین متحرک و فرآیند خود بازگشت،  مدل\u200cهای ARMA  و ARIMA (فصلی و غیر فصلی)، در کلاس باکس- جنکینز، آزمون ریشه واحد، تفاضل\u200cگیری،  براورد پارامترها  (روشهای گشتاوری، کمترین مربعات و ماکسیمم درستنمایی)، پیش بینی، تحلیل باقیمانده ها و بررسی تشخیص مدلها، مناسبت مدل ها، آزمون\u200cهای خودهمبستگی، آزمون های نرمال بودن، ملاکهای AIC و BIC برای انتخاب مدل، مقدمه مدل های ناهمسان واریانس شرطی، تبدیلات باکس- کاکس.\n', '- توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n', '-\n']</t>
   </si>
   <si>
     <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'آشنایی با نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ساده، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، آنالیز مؤلفه\u200cهاب اصلی (PCA) و تحلیل تفکیک خطی (LDA).\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس\u200cهای بهینه\u200cسازی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون مباحثی در علوم کامپیوتر یا دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
@@ -1018,7 +1018,7 @@
     <t>['-\n', '- برنامه\u200cنویسی مبتنی بر سوکت. سویچینگ بسته\u200cهای آی\u200cپی. آدرس\u200cدهی و هدایت مبتنی بر آی\u200cپی. قراردادهای انتقال (تی\u200cسی\u200cپی و یو\u200cدی\u200cپی\u200c). کنترل ازدحام. ترجمه\u200cی آدرس\u200cها (دی\u200cان\u200cاس\u200c، دی\u200cاچ\u200cسی\u200cپی و اِی\u200cآر\u200cپی\u200c). میان\u200cافزار (Middleware). سوئیچ ها و پل\u200cها (Switches and Bridges). اتصالات (Links). مسیریابی حالت اتصال. مسیریابی بردار فاصله و بردار مسیر. مسیریابی بردار مسیر مبتنی بر خط مشی (BGP). شبکه\u200cهای فرالایه\u200cای و همتا-به-همتا. جریان\u200cسازی چندرسانه\u200cای. سویچینگ مداری (Circuit Switching). شبکه\u200cهای بی\u200cسیم و همراه. شبکه توزیع محتوا (CDN). شبکه\u200cهای مبتنی بر نرم\u200c\u200cافزار.\n', '-\n']</t>
   </si>
   <si>
-    <t>['-\n', '- مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه سازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n', '-\n']</t>
+    <t>['-\n', '- مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه\u200cسازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n', '-\n']</t>
   </si>
   <si>
     <t>['-\n', '- آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصورسازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n', '-\n']</t>
@@ -1051,7 +1051,7 @@
     <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
   </si>
   <si>
-    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: &lt;a name="_hlk86305627"&gt;&lt;/a&gt;شامل شبیه سازی و روشهای محاسباتی فرایندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایند های پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n']</t>
+    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: شامل شبیه\u200cسازی و روشهای محاسباتی فرآیندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایندهای پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n']</t>
   </si>
   <si>
     <t>['1- آشنایی با مفاهیم رایانش ابری، مدلهای مختلف استقرار و سرویس دهی 2- آشنایی با معماری مرجع رایانش ابری 3- آشنایی با مفاهیم مجازی سازی در سطح سخت افزار، در سطح سیستم عامل و در سطح زبان برنامه\u200cنویسی 4- آشنایی با مدلهای مختلف برنامه\u200cنویسی ابر مانند مدل کیسه وظایف، جریانهای کاری، مدل ریزخدمت 5- آشنایی با مفاهیم تحلیل داده\u200cهای عظیم و امکانات ابری برای پردازش این نوع داده\u200cها همچون: سیستم فایل توزیع شده مانند HDFS، پایگاه داده\u200cهای NoSQL همانند HBase، مدلهای برنامه\u200cنویسی مانند Map-Reduce، پردازش گرافی مانند Giraph و پردازش جریانی همانند Storm 6- آشنایی با مدیریت منابع و زمانبندی در ابر روشهای مختلف زمانبندی وظایف مستقل و جریانهای کاری 7- آشنایی با محاسبات ابری سبز و روشهای برقراری آن 8- آشنایی با مدلهای بین ابری همانند ابر متحد شده و چند ابری و تفاوتهای آنها، و آشنایی با مفهوم کارگزاری ابر 9- آشنایی با مفهوم محاسبات لبه ای و ارتباط آن با رایانش ابری، محاسبات ابری متحرک و انواع آن و محاسبات مهی\n']</t>
@@ -1075,9 +1075,6 @@
     <t>['-\n', '- - استوارت، ج. (1395). حساب دیفرانسیل و انتگرال (ج. حمیدی، مترجم). تهران: مؤسسه آموزشی و نشریاتی مدرسه.\n', '- - شهشهانی، س. (1396). حساب دیفرانسیل و انتگرال (ویراست 2). تهران: انتشارات فاطمی.\n', '- - Stewart, J. (2016). Calculus (8th ed.). Cengage Learning.\n', '- - Adams, R. A., &amp; Essex, C. (2018). Calculus: A complete course (9th ed.). Pearson.\n', '- - Finney, T., Demana, F., Waits, B. K., Kennedy, D., &amp; Rodgers, J. (2014). Calculus: Graphical, numerical, algebraic (4th ed.). Pearson.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - استوارت، ج. (1395). حساب دیفرانسیل و انتگرال (ج. حمیدی، مترجم). تهران: مؤسسه آموزشی و نشریاتی مدرسه.\n', '- - شهشهانی، س. (1396). حساب دیفرانسیل و انتگرال (ویراست 2). تهران: انتشارات فاطمی.\n', '- - Stewart, J. (2016). Calculus (8th ed.). Cengage Learning.\n', '- - Adams, R. A., &amp; Essex, C. (2018). Calculus: A complete course (9th ed.). Pearson.\n', '- - Finney, T., Demana, F., Waits, B. K., Kennedy, D., &amp; Rodgers, J. (2014). Calculus: Graphical, numerical, algebraic (4th ed.). Pearson.\n', '&lt;a name="_hlk93224737"&gt;&lt;/a&gt;\n']</t>
-  </si>
-  <si>
     <t>['- - ظهوری زنگنه، ح. (مترجم). (1394). معادلات دیفرانسیل مقدماتی و مسائل مقدماتی مرزی (ویرایش ۹). انتشارات فاطمی\n', '- - Boyce, W. E., DiPrima, R. C., &amp; Meade, D. B. (2017). Elementary Differential Equations and Boundary Value Problems (11th ed.). Wiley.\n', '- - Goode, S., &amp; Annin, S. A. (2016). Differential Equations and Linear Algebra by Stephen. Pearson.\n', '- - Edwards, C. H., &amp; Penney, D. E. (2008). Elementary Differential Equations (6th ed.). Pearson Education, Inc.\n', '- - Zill, D. G. (2012). A First Course in Differential Equations with Modeling Applications (10th ed.). Brooks/Cole, Cengage Learning.\n']</t>
   </si>
   <si>
@@ -1093,7 +1090,7 @@
     <t>['-\n', '- - بهبودیان، جواد (1394). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا.\n', '- - قهرمانی، سعید (1397). مبانی احتمال، ویرایش سوم، ترجمه شاهکار، غ. و بزرگنیا، ا. انتشارات دانشگاه صنعتی شریف.\n', '- - راس، شلدون (1389). مبانی احتمال، ویرایش هشتم، ترجمه پارسیان، ا.، همدانی، ع. انتشارات شیخ بهایی.\n', '- - هاگ، ر. و تنیس، ل. آ. (1394). احتمال و استنباط آماری. ترجمه نوروز ایزددوستدار و حمید پزشک. انتشارات دانشگاه تهران.\n', '- - Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th ed.). Pearson.\n', '- - José Unpingco (2019). Python for Probability, Statistics, and Machine Learning (2nd ed.). Springer. Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', '- - Grimmett, G., &amp; Welsh, D. (2014). Probability: An Introduction (2nd ed.). Oxford University Press.\n', '- - Ghahramani, S. (2014). Fundamentals of Probability: with Stochastic Process (3rd ed.). CRC Press. \n']</t>
   </si>
   <si>
-    <t>['-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n', '**\n']</t>
+    <t>['-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.027dad54-58c5-41b8-acd6-4fe5ead1dfc8.007.png)\n', '**\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Horton, I., &amp; Van Weert, P. (2018). Beginning C++17: From Novice to Professional. Apress.\n', '- - Horton, I., &amp; Van Weert, P. (2020). Beginning C++20: From Novice to Professional. Apress.\n', '- - Deitel, P., &amp; Deitel, H. (2017). C++ How to Program (11th ed.). Pearson Education.\n']</t>
@@ -1120,7 +1117,7 @@
     <t>['-\n', '- - Henle, J. M. (1986). An Outline of Set Theory. Springer-Verlag.\n', '- - Huth, M., &amp; Ryan, M. (2004). Logic in Computer Science: Modelling and reasoning about systems. Cambridge university press.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - حمدی طه، (۱۳۸۷) آشنایی با تحقیق در عملیات: برنامه\u200cریزی خطی پویا و با اعداد صحیح، (م. بازرگان، مترجم). تهران: مرکز نشر دانشگاهی.\n', '- - مهدی قطعی، (1395). تحقیق در عملیات و بهینه\u200cسازی ترکیبیاتی. تهران: انتشارات ناقوس.\n', '- - Lee, J. (2004). A First Course in Combinatorial Optimization. Cambridge University Press.\n', '- - Cormen, T.H., Leiserson, C.E., Rivest, R.L., &amp; Stein, C. (2009). Introduction to Algorithms (3rd Ed.). The MIT Press.\n', '- - Papadimitriou, C.H., &amp; Steiglitz, R. (1982). Combinatorial Optimization Algorithms and Complexity. Prentice-Hall.\n', '- - Balakrishnan, V. (1995). Network Optimization. Chapman and Hall/CRC.\n', '- - Ahuja, R.K., Magnanti, T.L., &amp; Orlin, J.B. (1993). Network Flows: Theory, Algorithms, and Applications. Prentice-Hall.\n', '**\n']</t>
+    <t>['-\n', '- - حمدی طه، (۱۳۸۷) آشنایی با تحقیق در عملیات: برنامه\u200cریزی خطی پویا و با اعداد صحیح، (م. بازرگان، مترجم). تهران: مرکز نشر دانشگاهی.\n', '- - مهدی قطعی، (1395). تحقیق در عملیات و بهینه\u200cسازی ترکیبیاتی. تهران: انتشارات ناقوس.\n', '- - Lee, J. (2004). A First Course in Combinatorial Optimization. Cambridge University Press.\n', '- - Cormen, T.H., Leiserson, C.E., Rivest, R.L., &amp; Stein, C. (2009). Introduction to Algorithms (3rd Ed.). The MIT Press.\n', '- - Papadimitriou, C.H., &amp; Steiglitz, R. (1982). Combinatorial Optimization Algorithms and Complexity. Prentice-Hall.\n', '- - Balakrishnan, V. (1995). Network Optimization. Chapman and Hall/CRC.\n', '- - Ahuja, R.K., Magnanti, T.L., &amp; Orlin, J.B. (1993). Network Flows: Theory, Algorithms, and Applications. Prentice-Hall.\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Sipser, M. (2012). Introduction to the Theory of Computation. Cengage Learning.\n', '- - Boolos, G., Burgess, J., &amp; Jeffrey, R. (2007). Computability and Logic (5th ed.). Cambridge University Press.\n', '- - Kozen, D. (2006). Theory of Computation. Springer.\n', '- - Hedman, S. (2004). A First Course in Logic: An Introduction to Model Theory, Proof Theory, Computability, and Complexity. Oxford University Press.\n']</t>
@@ -1135,7 +1132,7 @@
     <t>['-\n', '- - میرزا وزیری، م. (۱۳۸۸). فضاهای متریک با طعم توپولوژی (چاپ سوم). مشهد: انتشارات دانشگاه فردوسی.\n', '- - Rudin, W. (1964). Principles of mathematical analysis (Vol. 3). New York: McGraw-hill.\n', '- - Gordon, R. A. (2001). Real analysis: A first course. Addison Wesley.\n']</t>
   </si>
   <si>
-    <t>['Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th Ed.). Pearson.\n', 'Unpingco, J. (2019). Python for Probability, Statistics, and Machine Learning (2nd Ed.). Springer. [Source code available at &lt;https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E&gt;]\n', "Bruce, P., Bruce, A., &amp; Gedeck, P. (2020). Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python (2nd Ed.). O'Reilly Media, Inc.\n", "Griffiths, D. (2008). Head First Statistics. O'Reilly Media, Inc.\n", 'Wheelan, C. (2014). Naked Statistics: Stripping the Dread from the Data. W. W. Norton &amp; Company.\n', 'AI PUBLISHING. (2021). Statistics for Beginners in Data Science: Theory and Applications of Essential Statistics Concepts Using Python.\n']</t>
+    <t>['Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th Ed.). Pearson.\n', 'Unpingco, J. (2019). Python for Probability, Statistics, and Machine Learning (2nd Ed.). Springer. [Source codes available at &lt;https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E&gt;]\n', 'Chan, S. H. (2021). Introduction to Probability for Data Science, Michigan Publishing. [Source codes available at &lt;https://probability4datascience.com/&gt;]\n', "Bruce, P., Bruce, A., &amp; Gedeck, P. (2020). Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python (2nd Ed.). O'Reilly Media, Inc.\n", "Griffiths, D. (2008). Head First Statistics. O'Reilly Media, Inc.\n", 'Wheelan, C. (2014). Naked Statistics: Stripping the Dread from the Data. W. W. Norton &amp; Company.\n', 'AI PUBLISHING. (2021). Statistics for Beginners in Data Science: Theory and Applications of Essential Statistics Concepts Using Python.\n']</t>
   </si>
   <si>
     <t>['-\n', '- - کرایر، ج.د.؛ سیک چن، ک.  (1392). تجزیه\u200cوتحلیل سری\u200cهای زمانی با استفاده از نرم\u200cافزار R، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی. \n', '- - براکول، پ. و دیویس، ر.ا. (1384). مقدمه\u200cای بر سری\u200cهای زمانی و پیش\u200cبینی، ترجمه امینی، م.،  بزرگ نیا، ا. و  دهقان، م. ح. انتشارات دانشگاه سیستان و بلوچستان. \n', '- - چتفیلد، ک. (1996). مقدمه\u200cای بر تحلیل سری\u200cهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، انتشارات دانشگاه فردوسی مشهد\n', '- - Shumway, R. H., and Stoffer, D. S. (2019). Time series: a data analysis approach using R. Chapman and Hall/CRC.\n', '- - Cryer, J. D. and Chan, K. S. (2008). Time Series Analysis With Application in R, 2nd Ed. Springer.\n']</t>
@@ -1156,13 +1153,13 @@
     <t>['منابع آزاد با نظر استاد درس\n']</t>
   </si>
   <si>
-    <t>['&lt;a name="_hlk932247371"&gt;&lt;/a&gt;Øverby, H., &amp; Audestad, J. A. (2021). Introduction to Digital Economics: Foundations, Business Models and Case Studies. Springer. \n']</t>
+    <t>['Øverby, H., &amp; Audestad, J. A. (2021). Introduction to Digital Economics: Foundations, Business Models and Case Studies. Springer. \n']</t>
   </si>
   <si>
     <t>['با نظر مدرس درس\n']</t>
   </si>
   <si>
-    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n']</t>
+    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.027dad54-58c5-41b8-acd6-4fe5ead1dfc8.008.png)\n']</t>
   </si>
   <si>
     <t>['-\n', '- - نعمت الهی، ن. (1394). آمار و احتمالات مهندسی. انتشارات دلفک.\n', '- - راس، ش. م.، اسدی، م.، و بزرگ نیا، ا. ق. (1382). مقدمه\u200cای بر آمار و احتمال (برای دانشجویان مهندسی و علوم). انتشارات دانشگاه فردوسی مشهد.\n', '- - بهبودیان، ج. (1383). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا (ع).\n', '- - قهرمانی، س.، شاهکار، غ.، و بزرگ نیا، ا. ق. (1390). مبانی احتمال. انتشارات دانشگاه فردوسی مشهد.\n', '- - Roussas, G. G. (2014). Introduction to probability (2nd ed.). Academic Press.\n']</t>
@@ -1171,7 +1168,7 @@
     <t>['-\n', '- - گیونز، جف\u200c اچ\u200c. (۱۳۹۳). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '- Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '- Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '- Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
   </si>
   <si>
-    <t>['1\\. نعمت اللهی، نادر (۱۳۹۷). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '2\\. جانسون، ر. آ. و  باتاچاریا، گ.، (۱۳۸۸).  آمار اصول و روش ها، جلد ۱ و ۲، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '3\\. ووناکت، ت. چ. و ووناکت، ر. ج. (۱۳۹۳). آمار مقدماتی، جلد ۱ و ۲، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '4\\. بهبودیان، ج.، آمار و احتمال مقدماتی (۱۳۹۴).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '5\\. طاهری، س.م. (۱۳۹۹). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '6\\. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '7\\. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
+    <t>['\\1. نعمت اللهی، نادر (۱۳۹۷). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (۱۳۸۸).  آمار اصول و روش ها، جلد ۱ و ۲، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (۱۳۹۳). آمار مقدماتی، جلد ۱ و ۲، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (۱۳۹۴).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (۱۳۹۹). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', '- - Cooper, S. Barry. (2003) Computability theory. CRC Press.\n', '- - M. Divis, R. Sigal, E. Weyuker, (1997), Computability, Complexity, and Languages. 2nd Edition, Academic Press. \n']</t>
@@ -1276,7 +1273,7 @@
     <t>['-\n', '- - مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '- - EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '- - Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '- - Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "- - Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
   </si>
   <si>
-    <t>['- 1.جونز و اشمیت (2010). مقدمه ای بر فرایندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '- 2. دوبرو، رابرت پی. (1398). مقدمه ای بر فرایندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '  - Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '  - Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '  - Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '  - Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '  - Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '  - Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
+    <t>['- 1.جونز و اشمیت (2010). مقدمه ای بر فرآیندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '- 2. دوبرو، رابرت پی. (1398). مقدمه ای بر فرآیندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '  - Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '  - Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '  - Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '  - Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '  - Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '  - Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Chandrasekaran, K. (2014). Essentials of Cloud Computing. CRC Press.\n', '- - Ruparelia, N. B. (2016). Cloud Computing. MIT Press.\n', '- - Erl, T., Mahmood, Z., &amp; Puttini, R. (2013). Cloud Computing: Concepts, Technology, and Architecture. Prentice Hall.\n', '- - Ganelin, I., Orhian, E., Sasaki, K., &amp; York, B. (2016). Spark: Big Data Cluster Computing in Production. 1st Edition. Wiley.\n', "- - White, T. (2015). Hadoop: The Definitive Guide: Storage and Analysis at Internet Scale. 4th Edition. O'Reilly Media.\n", '- - Geng, H. (2014). Data Center Handbook. 1st Edition. Wiley.\n', '- - Adkins, S., Belamaric, J., &amp; Giersch, V. (2015). OpenStack Cloud Application Development. Wrox.\n', '- - Antony, B., Boudnik, K., &amp; Adams, C. (2016). Professional Hadoop. 1st Edition. Wrox.\n', '- - **\n']</t>
@@ -1784,7 +1781,7 @@
         <v>276</v>
       </c>
       <c r="P3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1825,7 +1822,7 @@
         <v>277</v>
       </c>
       <c r="P4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1866,7 +1863,7 @@
         <v>278</v>
       </c>
       <c r="P5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1907,7 +1904,7 @@
         <v>279</v>
       </c>
       <c r="P6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1948,7 +1945,7 @@
         <v>280</v>
       </c>
       <c r="P7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1989,7 +1986,7 @@
         <v>281</v>
       </c>
       <c r="P8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2027,7 +2024,7 @@
         <v>282</v>
       </c>
       <c r="P9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2068,7 +2065,7 @@
         <v>283</v>
       </c>
       <c r="P10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2109,7 +2106,7 @@
         <v>284</v>
       </c>
       <c r="P11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2150,7 +2147,7 @@
         <v>285</v>
       </c>
       <c r="P12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2191,7 +2188,7 @@
         <v>286</v>
       </c>
       <c r="P13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2232,7 +2229,7 @@
         <v>287</v>
       </c>
       <c r="P14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2273,7 +2270,7 @@
         <v>288</v>
       </c>
       <c r="P15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2314,7 +2311,7 @@
         <v>289</v>
       </c>
       <c r="P16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2355,7 +2352,7 @@
         <v>290</v>
       </c>
       <c r="P17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2396,7 +2393,7 @@
         <v>291</v>
       </c>
       <c r="P18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2437,7 +2434,7 @@
         <v>292</v>
       </c>
       <c r="P19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2478,7 +2475,7 @@
         <v>293</v>
       </c>
       <c r="P20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2519,7 +2516,7 @@
         <v>294</v>
       </c>
       <c r="P21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2560,7 +2557,7 @@
         <v>295</v>
       </c>
       <c r="P22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2601,7 +2598,7 @@
         <v>296</v>
       </c>
       <c r="P23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2642,7 +2639,7 @@
         <v>297</v>
       </c>
       <c r="P24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2683,7 +2680,7 @@
         <v>298</v>
       </c>
       <c r="P25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2724,7 +2721,7 @@
         <v>299</v>
       </c>
       <c r="P26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2765,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="P27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2806,7 +2803,7 @@
         <v>301</v>
       </c>
       <c r="P28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2847,7 +2844,7 @@
         <v>302</v>
       </c>
       <c r="P29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2888,7 +2885,7 @@
         <v>303</v>
       </c>
       <c r="P30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2929,7 +2926,7 @@
         <v>304</v>
       </c>
       <c r="P31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2967,7 +2964,7 @@
         <v>305</v>
       </c>
       <c r="P32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3008,7 +3005,7 @@
         <v>306</v>
       </c>
       <c r="P33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3049,7 +3046,7 @@
         <v>307</v>
       </c>
       <c r="P34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3087,7 +3084,7 @@
         <v>308</v>
       </c>
       <c r="P35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3128,7 +3125,7 @@
         <v>309</v>
       </c>
       <c r="P36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3169,7 +3166,7 @@
         <v>310</v>
       </c>
       <c r="P37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3210,7 +3207,7 @@
         <v>311</v>
       </c>
       <c r="P38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3251,7 +3248,7 @@
         <v>312</v>
       </c>
       <c r="P39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3292,7 +3289,7 @@
         <v>313</v>
       </c>
       <c r="P40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3333,7 +3330,7 @@
         <v>314</v>
       </c>
       <c r="P41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3374,7 +3371,7 @@
         <v>315</v>
       </c>
       <c r="P42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3412,7 +3409,7 @@
         <v>316</v>
       </c>
       <c r="P43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3453,7 +3450,7 @@
         <v>317</v>
       </c>
       <c r="P44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3494,7 +3491,7 @@
         <v>318</v>
       </c>
       <c r="P45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3532,7 +3529,7 @@
         <v>319</v>
       </c>
       <c r="P46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3573,7 +3570,7 @@
         <v>320</v>
       </c>
       <c r="P47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3614,7 +3611,7 @@
         <v>321</v>
       </c>
       <c r="P48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3655,7 +3652,7 @@
         <v>322</v>
       </c>
       <c r="P49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3696,7 +3693,7 @@
         <v>323</v>
       </c>
       <c r="P50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3734,7 +3731,7 @@
         <v>324</v>
       </c>
       <c r="P51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3772,7 +3769,7 @@
         <v>325</v>
       </c>
       <c r="P52" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3813,7 +3810,7 @@
         <v>326</v>
       </c>
       <c r="P53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3854,7 +3851,7 @@
         <v>327</v>
       </c>
       <c r="P54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3895,7 +3892,7 @@
         <v>328</v>
       </c>
       <c r="P55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3933,7 +3930,7 @@
         <v>329</v>
       </c>
       <c r="P56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3974,7 +3971,7 @@
         <v>330</v>
       </c>
       <c r="P57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4015,7 +4012,7 @@
         <v>331</v>
       </c>
       <c r="P58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4056,7 +4053,7 @@
         <v>332</v>
       </c>
       <c r="P59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4097,7 +4094,7 @@
         <v>333</v>
       </c>
       <c r="P60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4138,7 +4135,7 @@
         <v>334</v>
       </c>
       <c r="P61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4179,7 +4176,7 @@
         <v>335</v>
       </c>
       <c r="P62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4220,7 +4217,7 @@
         <v>336</v>
       </c>
       <c r="P63" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4261,7 +4258,7 @@
         <v>337</v>
       </c>
       <c r="P64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4302,7 +4299,7 @@
         <v>338</v>
       </c>
       <c r="P65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4343,7 +4340,7 @@
         <v>339</v>
       </c>
       <c r="P66" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4384,7 +4381,7 @@
         <v>340</v>
       </c>
       <c r="P67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4425,7 +4422,7 @@
         <v>340</v>
       </c>
       <c r="P68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4466,7 +4463,7 @@
         <v>341</v>
       </c>
       <c r="P69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4507,7 +4504,7 @@
         <v>342</v>
       </c>
       <c r="P70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4548,7 +4545,7 @@
         <v>343</v>
       </c>
       <c r="P71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4589,7 +4586,7 @@
         <v>344</v>
       </c>
       <c r="P72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4630,7 +4627,7 @@
         <v>345</v>
       </c>
       <c r="P73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4671,7 +4668,7 @@
         <v>346</v>
       </c>
       <c r="P74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4712,7 +4709,7 @@
         <v>347</v>
       </c>
       <c r="P75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4753,7 +4750,7 @@
         <v>348</v>
       </c>
       <c r="P76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4794,7 +4791,7 @@
         <v>349</v>
       </c>
       <c r="P77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4835,7 +4832,7 @@
         <v>350</v>
       </c>
       <c r="P78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4876,7 +4873,7 @@
         <v>351</v>
       </c>
       <c r="P79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="437">
   <si>
     <t>fa_title</t>
   </si>
@@ -70,7 +70,7 @@
     <t>معادلات دیفرانسیل</t>
   </si>
   <si>
-    <t>مبانی کامپیوتر و برنامه‌نویسی</t>
+    <t>مبانی کامپیوتر و برنامه‌سازی</t>
   </si>
   <si>
     <t>کارگاه کامپیوتر ۱</t>
@@ -85,7 +85,7 @@
     <t>نرم‌افزارهای آماری و تحلیل داده‌ها</t>
   </si>
   <si>
-    <t>برنامه‌نویسی پیشرفته</t>
+    <t>برنامه‌سازی پیشرفته</t>
   </si>
   <si>
     <t>برنامه‌نویسی پایتون</t>
@@ -112,63 +112,63 @@
     <t>مبانی منطق و نظریه مجموعه‌ها</t>
   </si>
   <si>
+    <t>مبانی نظریه محاسبه</t>
+  </si>
+  <si>
+    <t>مبانی محاسبات علمی</t>
+  </si>
+  <si>
+    <t>مبانی آنالیز عددی</t>
+  </si>
+  <si>
+    <t>مبانی آنالیز ریاضی</t>
+  </si>
+  <si>
+    <t>تحلیل آماری داده‌ها</t>
+  </si>
+  <si>
+    <t>سری‌های زمانی کاربردی</t>
+  </si>
+  <si>
+    <t>یادگیری ماشین مقدماتی</t>
+  </si>
+  <si>
+    <t>داده‌کاوی مقدماتی</t>
+  </si>
+  <si>
+    <t>تحقیق در عملیات</t>
+  </si>
+  <si>
+    <t>بهینه‌سازی غیرخطی</t>
+  </si>
+  <si>
+    <t>طراحی و توسعه کسب و کارهای نوپا</t>
+  </si>
+  <si>
+    <t>مبانی اقتصاد دیجیتال</t>
+  </si>
+  <si>
+    <t>کارآموزی</t>
+  </si>
+  <si>
+    <t>هوش مصنوعی</t>
+  </si>
+  <si>
+    <t>آمار و احتمال ۲</t>
+  </si>
+  <si>
+    <t>آمار محاسباتی</t>
+  </si>
+  <si>
+    <t>روش‌های آماری</t>
+  </si>
+  <si>
+    <t>نظریه محاسبه</t>
+  </si>
+  <si>
     <t>بهینه‌سازی گسسته</t>
   </si>
   <si>
-    <t>مبانی نظریه محاسبه</t>
-  </si>
-  <si>
-    <t>مبانی محاسبات علمی</t>
-  </si>
-  <si>
-    <t>مبانی آنالیز عددی</t>
-  </si>
-  <si>
-    <t>مبانی آنالیز ریاضی</t>
-  </si>
-  <si>
-    <t>تحلیل آماری داده‌ها</t>
-  </si>
-  <si>
-    <t>سری‌های زمانی کاربردی</t>
-  </si>
-  <si>
-    <t>یادگیری ماشین مقدماتی</t>
-  </si>
-  <si>
-    <t>داده‌کاوی مقدماتی</t>
-  </si>
-  <si>
-    <t>تحقیق در عملیات</t>
-  </si>
-  <si>
-    <t>بهینه‌سازی غیرخطی</t>
-  </si>
-  <si>
-    <t>طراحی و توسعه کسب و کارهای نوپا</t>
-  </si>
-  <si>
-    <t>مبانی اقتصاد دیجیتال</t>
-  </si>
-  <si>
-    <t>کارآموزی</t>
-  </si>
-  <si>
-    <t>هوش مصنوعی</t>
-  </si>
-  <si>
-    <t>آمار و احتمال ۲</t>
-  </si>
-  <si>
-    <t>آمار محاسباتی</t>
-  </si>
-  <si>
-    <t>روش‌های آماری</t>
-  </si>
-  <si>
-    <t>نظریه محاسبه</t>
-  </si>
-  <si>
     <t>منطق برای علوم کامپیوتر</t>
   </si>
   <si>
@@ -295,6 +295,12 @@
     <t>بازی‌سازی و بازی‌انگاری</t>
   </si>
   <si>
+    <t>زبان‌های برنامه‌سازی</t>
+  </si>
+  <si>
+    <t>آشنایی با پردازش زبان طبیعی</t>
+  </si>
+  <si>
     <t>Calculus I</t>
   </si>
   <si>
@@ -346,63 +352,63 @@
     <t>Fundamentals of Logic</t>
   </si>
   <si>
+    <t>Introduction to the theory of Computation</t>
+  </si>
+  <si>
+    <t>Elementary Scientific Computing</t>
+  </si>
+  <si>
+    <t>Foundation of Numerical Analysis</t>
+  </si>
+  <si>
+    <t>Foundation of Mathematical Analysis</t>
+  </si>
+  <si>
+    <t>Statistical Data Analysis</t>
+  </si>
+  <si>
+    <t>Applied Time Series</t>
+  </si>
+  <si>
+    <t>Elementary Machine Learning</t>
+  </si>
+  <si>
+    <t>Elementary Data Mining</t>
+  </si>
+  <si>
+    <t>Operations research</t>
+  </si>
+  <si>
+    <t>Nonlinear Optimization</t>
+  </si>
+  <si>
+    <t>Design and development of start-up businesses</t>
+  </si>
+  <si>
+    <t>Basics of Digital Economics</t>
+  </si>
+  <si>
+    <t>Apprenticeship</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Probability and Statistics II</t>
+  </si>
+  <si>
+    <t>Computational Statistics</t>
+  </si>
+  <si>
+    <t>Statistical Methods</t>
+  </si>
+  <si>
+    <t>Theory of Computation</t>
+  </si>
+  <si>
     <t>Discrete Optimization</t>
   </si>
   <si>
-    <t>Introduction to the theory of Computation</t>
-  </si>
-  <si>
-    <t>Elementary Scientific Computing</t>
-  </si>
-  <si>
-    <t>Foundation of Numerical Analysis</t>
-  </si>
-  <si>
-    <t>Foundation of Mathematical Analysis</t>
-  </si>
-  <si>
-    <t>Statistical Data Analysis</t>
-  </si>
-  <si>
-    <t>Applied Time Series</t>
-  </si>
-  <si>
-    <t>Elementary Machine Learning</t>
-  </si>
-  <si>
-    <t>Elementary Data Mining</t>
-  </si>
-  <si>
-    <t>Operations research</t>
-  </si>
-  <si>
-    <t>Nonlinear Optimization</t>
-  </si>
-  <si>
-    <t>Design and development of start-up businesses</t>
-  </si>
-  <si>
-    <t>Basics of Digital Economics</t>
-  </si>
-  <si>
-    <t>Apprenticeship</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>Probability and Statistics II</t>
-  </si>
-  <si>
-    <t>Computational Statistics</t>
-  </si>
-  <si>
-    <t>Statistical Methods</t>
-  </si>
-  <si>
-    <t>Theory of Computation</t>
-  </si>
-  <si>
     <t>Logic for Computer Science</t>
   </si>
   <si>
@@ -529,6 +535,12 @@
     <t>Gamification and Game Design</t>
   </si>
   <si>
+    <t>Programming Languages</t>
+  </si>
+  <si>
+    <t>Introdution to Natural Language Processing</t>
+  </si>
+  <si>
     <t>Calculus-I</t>
   </si>
   <si>
@@ -577,60 +589,60 @@
     <t>Fundamentals-of-Logic</t>
   </si>
   <si>
+    <t>Introduction-to-the-theory-of-Computation</t>
+  </si>
+  <si>
+    <t>Elementary-Scientific-Computing</t>
+  </si>
+  <si>
+    <t>Foundation-of-Numerical-Analysis</t>
+  </si>
+  <si>
+    <t>Foundation-of-Mathematical-Analysis</t>
+  </si>
+  <si>
+    <t>Statistical-Data-Analysis</t>
+  </si>
+  <si>
+    <t>Applied-Time-Series</t>
+  </si>
+  <si>
+    <t>Elementary-Machine-Learning</t>
+  </si>
+  <si>
+    <t>Elementary-Data-Mining</t>
+  </si>
+  <si>
+    <t>Operations-research</t>
+  </si>
+  <si>
+    <t>Nonlinear-Optimization</t>
+  </si>
+  <si>
+    <t>Design-and-development-of-start-up-businesses</t>
+  </si>
+  <si>
+    <t>Basics-of-Digital-Economics</t>
+  </si>
+  <si>
+    <t>Artificial-Intelligence</t>
+  </si>
+  <si>
+    <t>Probability-and-Statistics-II</t>
+  </si>
+  <si>
+    <t>Computational-Statistics</t>
+  </si>
+  <si>
+    <t>Statistical-Methods</t>
+  </si>
+  <si>
+    <t>Theory-of-Computation</t>
+  </si>
+  <si>
     <t>Discrete-Optimization</t>
   </si>
   <si>
-    <t>Introduction-to-the-theory-of-Computation</t>
-  </si>
-  <si>
-    <t>Elementary-Scientific-Computing</t>
-  </si>
-  <si>
-    <t>Foundation-of-Numerical-Analysis</t>
-  </si>
-  <si>
-    <t>Foundation-of-Mathematical-Analysis</t>
-  </si>
-  <si>
-    <t>Statistical-Data-Analysis</t>
-  </si>
-  <si>
-    <t>Applied-Time-Series</t>
-  </si>
-  <si>
-    <t>Elementary-Machine-Learning</t>
-  </si>
-  <si>
-    <t>Elementary-Data-Mining</t>
-  </si>
-  <si>
-    <t>Operations-research</t>
-  </si>
-  <si>
-    <t>Nonlinear-Optimization</t>
-  </si>
-  <si>
-    <t>Design-and-development-of-start-up-businesses</t>
-  </si>
-  <si>
-    <t>Basics-of-Digital-Economics</t>
-  </si>
-  <si>
-    <t>Artificial-Intelligence</t>
-  </si>
-  <si>
-    <t>Probability-and-Statistics-II</t>
-  </si>
-  <si>
-    <t>Computational-Statistics</t>
-  </si>
-  <si>
-    <t>Statistical-Methods</t>
-  </si>
-  <si>
-    <t>Theory-of-Computation</t>
-  </si>
-  <si>
     <t>Logic-for-Computer-Science</t>
   </si>
   <si>
@@ -748,6 +760,12 @@
     <t>Gamification-and-Game-Design</t>
   </si>
   <si>
+    <t>Programming-Languages</t>
+  </si>
+  <si>
+    <t>Introdution-to-Natural-Language-Processing</t>
+  </si>
+  <si>
     <t>پایه</t>
   </si>
   <si>
@@ -793,10 +811,13 @@
     <t>شبکه‌های کامپیوتری، سیستم‌های عامل</t>
   </si>
   <si>
-    <t>برنامه‌نویسی پیشرفته، اصول سیستم‌های کامپیوتری</t>
-  </si>
-  <si>
-    <t>آمار و احتمال ۱، مبانی ترکیبیات، برنامه‌نویسی پیشرفته</t>
+    <t>برنامه‌سازی پیشرفته، اصول سیستم‌های کامپیوتری</t>
+  </si>
+  <si>
+    <t>آمار و احتمال ۱، مبانی ترکیبیات، برنامه‌سازی پیشرفته</t>
+  </si>
+  <si>
+    <t>هوش مصنوعی،  یادگیری ماشین مقدماتی، سری‌های زمانی کاربردی</t>
   </si>
   <si>
     <t>4</t>
@@ -841,16 +862,16 @@
     <t xml:space="preserve"> : دارد</t>
   </si>
   <si>
-    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط، جمع و ضرب و ریشه، نمایش هندسی اعداد مختلط، نمایش قطبی اعداد مختلط، تابع، جبر توابع، حد و قضایای مربوط به حد، بینهایت و حد چپ و راست، پیوستگی، مشتق، دستورهای مشتق\u200cگیری، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه رل، قضیه میانگین، بسط تیلر، کاربردهای مهندسی و فیزیکی مشتق، منحنیها و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه\u200cهای معادلات، تعریف انتگرال توابع پیوسته و قطعه پیوسته، قضایای اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش\u200cهای تقریبی برآورد انتگرال در محاسبه مساحت و حجم و طول منحنی و گشتاور و مرکز ثقل و کار و .... (در مختصات دکارتی و قطبی)، لگاریتم و تابع نمائی و مشتق آنها، تابع\u200cهای هذلولولی، روش\u200cهای انتگرال\u200cگیری مانند تعویض متغیر و جز به جز و تجزیه کسرها، برخی تعویض متغیرهای خاص\n']</t>
-  </si>
-  <si>
-    <t>['سیستم مختصات قطبی، نمودارهای قطبی دنباله، سری عددی و قضایای مربوط به سری توانی، قضیه تیلور با باقیمانده، معادلات پارامتری، مختصات فضائی، قائده زنجیری برای مشتق جزئی، دیفرانسیل کامل، انتگرالهای دوگانه و سه گانه و کاربرد آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیری (بدون اثبات دقیق)، مختصات استوانه\u200cای و کروی\n']</t>
+    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط و جمع و ضرب و ریشه آنها، نمایش های مختلف اعداد مختلط، دنباله های عددی، حد و قضایای مربوط، حد بینهایت و حد در بینهایت، حد چپ و راست،  پیوستگی، پیوستگی دنباله ای، قضیه مقدار میانی برای توابع پیوسته، قضیه مقدار اکسترمم برای توابع پیوسته، مشتق، دستورهای مشتق گیری، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه مشتق ترکیب توابع، قضیه فرما (صفر شدن مشتق در یک نقطه اکسترمم)، قضیه رل، قضیه مقدار میانگین، قضیه مقدار میانگین کشی، آزمون مشتق اول و دوم برای اکسترمم ها، تقعر منحنی، نقطه عطف، دیفرانسیل یک تابع، بسط تیلر، کاربردهای هندسی و فیزیکی مشتق، خم ها، سرعت و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه های معادلات، تعریف انتگرال توابع و انتگرال پذیری، قضیه مقدار میانگین برای انتگرال ها، قضایای اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش های تقریبی برآورد انتگرال، کاربرد انتگرال در محاسبه مساحت و حجم و طول منحنی و ...، لگاریتم و تابع نمایی و مشتق آنها، تابع های هذلولوی، روش های انتگرال گیری (همه روش ها)، آشنایی با تابع گاما و خواص آن، دنباله و سری به عنوان تایع، سری عددی، قضایای همگرایی مانند آزمون نسبت، ریشه و ...، تقریب استرلینگ، قضایای هم گرائی سری توانی و قضیه تیلر با باقیمانده و بدون باقیمانده. \n']</t>
+  </si>
+  <si>
+    <t>['فضای اقلیدسی، معادلات پارامتری، مختصات فضائی، بردار در فضا، ضرب عددی، ضرب خارجی، معادلات خط و صفحه، رویه درجه دو، تابع برداری و مشتق آن، سرعت و شتاب، خمیدگی و بردارهای قائم بر منحنی، تابع چند متغیری، مشتق سوئی و جزئی، صفحه مماس و خط قائم، گردایان، قاعده زنجیری برای مشتق جزئی، دیفرانسیل کامل، انتگرال های دوگانه و چند گانه و کاربردهای آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیری (بدون اثبات دقیق)، مختصات استوانه ای و کروی، میدان برداری، انتگرال منحنی الخط، انتگرال رویه ای، دیورژانس، چرخه، لاپلاسین، پتانسیل، قضایای گرین و دیورژانس و استوکس.\n']</t>
   </si>
   <si>
     <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n']</t>
   </si>
   <si>
-    <t>['اهداف درس با هر زبان برنامه\u200cنویسی سطح بالا محقق می\u200cشود؛ اما از آنجا که تاکید این برنامه درسی بر زبان برنامه\u200cنویسی پایتون است، سرفصل پیشنهادی نیز بر اساس این زبان ذکر می\u200cشود: مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع معمولی و بازگشتی. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، مستندسازی، کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
+    <t>['اهداف درس با هر زبان برنامه\u200cنویسی سطح بالا محقق می\u200cشود، اما از آنجا که تاکید این برنامه درسی بر زبان برنامه\u200cنویسی پایتون است، سرفصل پیشنهادی نیز بر اساس این زبان ذکر می\u200cشود: مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، مستندسازی، کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
   </si>
   <si>
     <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '-\n', '- - آشنایی مقدماتی با تهیه اسناد کامپیوتری\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '-\n', '- - آشنایی مقدماتی با مجموعه میکروسافت آفیس\n', '- - آشنایی با سرویس\u200cهای کاربردی\n', 'سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '-\n', '- - آشنایی با سیستم عامل لینوکس\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX\n', 'دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n']</t>
@@ -862,7 +883,7 @@
     <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز، تابع توزیع توأم.\n']</t>
   </si>
   <si>
-    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای sنمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از **نرم افزار اکسل**  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای نمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از **نرم افزار اکسل**  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
   </si>
   <si>
     <t>['-\n', '- - چرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '- - محیط\u200cهای مجتمع توسعه\n', '- - ساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '- - برنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '- - وراثت در شی گرایی و چندریختی در شی گرایی\n', '- - مدیریت استثناء\n', '- - رابط گرافیکی و مفاهیم Interface\n', '- - کار با فایل\u200cها\n', '- - جریان داده\n', '- - کار با رشته و آرایه\n', '- - حافظه پویا\n', '- - (درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- - قالبها، فضای نام، auto، \n', '- - Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**پیشنهاد می\u200cشود در این درس**Modern C++ **تدریس شود و در انتها در قالب یکی دو جلسه، دانشجویان با جاوا آشنا شوند (یا بالعکس). و با هماهنگی بین مدرسان این درس و در ساختمان داده\u200cها، در هر دو درس این دو زبان برنامه\u200cنویسی پوشش داده شود. یعنی اگر در این درس زبان C++ تدریس شد،  ساختمان داده\u200cها با جاوا تدریس شود.**\n']</t>
@@ -886,13 +907,10 @@
     <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتری، تبدیلها و ترکیب ها و ضرایب دوجمله ای، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزی و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوی که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس های صفر و یک (آماده سازی برای بخش مربع های لاتین و گراف ها)، آشنایی با ماتریس های آدامار و برخی نتایج در این مورد. گراف ها و مدل های مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهای آن در مدلسازی (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه ای، انواع اصلی گراف نظیر گراف های کامل، درخت ها، گراف های دوبخشی، گراف های اویلری و هامیلتونی و گراف های جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق های کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزی گراف ها و چند جمله ای رنگی (با ارائه مثال و الگوریتم). مربع های لاتین، طرح ها و هندسه های متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای تطابق. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، برش کمینه)، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف، مسائل مکان\u200cیابی. اجرای پروژه کاربردی.\n', '-\n']</t>
+    <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتری، تبدیلها و ترکیب ها و ضرایب دوجمله ای، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزی و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوی که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس های صفر و یک (آماده سازی برای بخش مربع های لاتین و گراف ها)، آشنایی با ماتریس های آدامار و برخی نتایج در این مورد. گراف ها و مدل های مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهای آن در مدلسازی (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه ای، انواع اصلی گراف نظیر گراف های کامل، درخت ها، گراف های دوبخشی، گراف های اویلری و هامیلتونی و گراف های جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق های کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزی گراف ها و چند جمله ای رنگی (با ارائه مثال و الگوریتم). مربع های لاتین، طرح ها و هندسه های متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n', '-\n']</t>
   </si>
   <si>
     <t>['-\n', '- اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n', '-\n']</t>
@@ -910,7 +928,7 @@
     <t>['مروری بر جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری. بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، تحلیل واریانس\n']</t>
   </si>
   <si>
-    <t>['-\n', '- بیان اهداف تحلیل سری¬های زمانی با ذکر مثال\u200cهایی در زمینه\u200cهای مختلف مانند هواشناسی، موضوعات اقتصادی و مالی، روند، مولفه فصلی، تجزیه سری زمانی، برآورد روندها با مدل های رگرسیونی، هموارسازی، مفاهیم پایه\u200cای سری\u200cهای زمانی و فرآیندهای تصادفی(تابع میانگین و واریانس، تابع خود کوواریانس، خود همبستگی و خود همبستگی جزئی،\u200c مانایی)، فرآیند نوفه سفید، قدم زدن تصادفی، سری های عمومی خطی، میانگین متحرک و فرآیند خود بازگشت،  مدل\u200cهای ARMA  و ARIMA (فصلی و غیر فصلی)، در کلاس باکس- جنکینز، آزمون ریشه واحد، تفاضل\u200cگیری،  براورد پارامترها  (روشهای گشتاوری، کمترین مربعات و ماکسیمم درستنمایی)، پیش بینی، تحلیل باقیمانده ها و بررسی تشخیص مدلها، مناسبت مدل ها، آزمون\u200cهای خودهمبستگی، آزمون های نرمال بودن، ملاکهای AIC و BIC برای انتخاب مدل، مقدمه مدل های ناهمسان واریانس شرطی، تبدیلات باکس- کاکس.\n', '- توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n', '-\n']</t>
+    <t>['-\n', '- بیان اهداف تحلیل سریهای زمانی با ذکر مثال\u200cهایی در زمینه\u200cهای مختلف مانند هواشناسی، موضوعات اقتصادی و مالی، روند، مولفه فصلی، تجزیه سری زمانی، برآورد روندها با مدل های رگرسیونی، هموارسازی، مفاهیم پایه\u200cای سری\u200cهای زمانی و فرآیندهای تصادفی(تابع میانگین و واریانس، تابع خود کوواریانس، خود همبستگی و خود همبستگی جزئی،\u200c مانایی)، فرآیند نوفه سفید، قدم زدن تصادفی، سری های عمومی خطی، میانگین متحرک و فرآیند خود بازگشت،  مدل\u200cهای ARMA  و ARIMA (فصلی و غیر فصلی)، در کلاس باکس- جنکینز، آزمون ریشه واحد، تفاضل\u200cگیری،  براورد پارامترها  (روشهای گشتاوری، کمترین مربعات و ماکسیمم درستنمایی)، پیش بینی، تحلیل باقیمانده ها و بررسی تشخیص مدلها، مناسبت مدل ها، آزمون\u200cهای خودهمبستگی، آزمون های نرمال بودن، ملاکهای AIC و BIC برای انتخاب مدل، مقدمه مدل های ناهمسان واریانس شرطی، تبدیلات باکس- کاکس.\n', '- توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n', '-\n']</t>
   </si>
   <si>
     <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'آشنایی با نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ساده، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، آنالیز مؤلفه\u200cهاب اصلی (PCA) و تحلیل تفکیک خطی (LDA).\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس\u200cهای بهینه\u200cسازی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون مباحثی در علوم کامپیوتر یا دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
@@ -949,6 +967,9 @@
     <t>['-\n', '- معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n', '-\n']</t>
   </si>
   <si>
+    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای تطابق. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، برش کمینه)، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف، مسائل مکان\u200cیابی. اجرای پروژه کاربردی.\n', '-\n']</t>
+  </si>
+  <si>
     <t>['-\n', '- منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم\u200cهای انتقالی.\n', '-\n']</t>
   </si>
   <si>
@@ -1072,6 +1093,12 @@
     <t>['بازی چیست؟، انواع و دسته\u200cبندی بازیها،  چالش و پازل،  سیستم ارتقا بازیکنان،  مکانیکهای بازی (قوانین بازی، عملهای بازیکن، مهارتهای بازیکن و ...)،  خطهای داستان بازی،  ساختار گردش اقتصادی بازی (چگونه بازیکن انرژی و توان به دست میآورد و آن را در چه کارهای، سرمایه\u200cگذاری میکند)، متعادل\u200cسازی بازی (متعادل\u200cسازی سختی بازی، متعادل\u200cسازی دینامیک بازی)،  مراحل بازی،  چرخه\u200cهای تعاملی بازیکن با بازی، مشخص کردن محدودیتها، اهداف و دستاوردهای هر چرخه،  نحوه دسترسی اطلاعات بازیکن به بازی،  محیط جذاب و واسط کاربری بازی،  بازیهای چند نفره و نحوه تعامل افراد در بازی، جداول رده\u200cبندی بازیکنان، امکانات رقابت در بازیهای چندنفره، بازیهای استراتژیک، روابط احتمالی در بازیها، گیم پلی بازی، بخش پروژه-محور، تولید بازی ساده با موتور بازیسازی یونیتی، مشخص کردن اشیا بازی، انیمیشن بازی، کدنویسی script های بازی، مدیریت بازی . کنترل بازی، بخش بازیانگاری، مطالعه یک مسئله اجتماعی-تجاری از نگاه بازی انگاری، - استفاده از ابزارهای بازی برای ایجاد سازوکار برای حل مسئله.\n']</t>
   </si>
   <si>
+    <t>['تاریخچه و انواع زبانهای برنامه نویسی (رویه\u200cای،تابعی، شی گرا، منطق گرا، مختلط)، تأثیر سخت افزار، انتخاب مناسب زبان برای یک کاربرد معین،  ماشین های مجازی، سطوح تجرید و ترجمه زبان برنامه نویسی، تجرید داده، تجرید عملیات، متغیر، نام، نوع، حوزه و دوره حیات متغیر، نوع و حوزه متغیر ایستا و پویا، مقید سازی و زمان آن، اختصاص حافضه و جمع آوری آشغال، انواع داده ساده (مانند اعداد) و مرکب (مانند رکوردها)، معادل بودن انواع داده، تعریف نوع داده توسط برنامه نویس، تجرید عملیات و واحدهای برنامه، ساختمان های کنترل در یک یا چند واحد برنامه، روش های اشتراک اطلاعات بین چند واحد برنامه، برنامه های فرعی، عملیات موازی، انتقال پارامترها، تجرید توأم داده و عملیات، مروری بر زبانهای تابعی، شی گرا، منطق گرا و مقایسه آنها با زبانهای رویّه ای، مروری بر زبانهای نسل چهارم، طراحی و اجرای برنامه هایی به زبانهای تابعی، یا شی گرا، یا منطق گرا.\n']</t>
+  </si>
+  <si>
+    <t>['معرفی پردازش زبان طبیعی، تاریخچه مختصر، مسائل مختلف موجود در آن و چالش\u200cهای آن. عبارات منظم، توکنایزر، نرمالسازی، تشخیص ریشه و لما، تشخیص مرز جملات، روش\u200cهای پایه در مدل\u200cسازی زبانی، ان\u200cگرام\u200cها. آشنایی با روش\u200cهای مختلف بازنمایی کلمات: روش\u200cهای پایه\u200cای، روش\u200cهای مبتنی بر جبر خطی، روش\u200cهای مبتنی بر شبکه عصبی، چالش\u200cهای مختلف در بازنمایی کلمات و راه\u200cهای حل آن\u200cها. معرفی ساختار شبکه\u200cهای عصبی بازگشتی ساده و ساختارهای معروف مثل GLU و RNN، معرفی مدل\u200cهای روز ترجمه ماشینی، معرفی مدل توجه. معرفی مسایل دیگر در حوزه پردازش زبان طبیعی مانند استخراج اطلاعات، خلاصه\u200cسازی، برچسب\u200cزنی ادات سخن. آشنایی با برخی از کتابخانه\u200cهای پردازش متن مانند NLTK، Gensim و SpaCY. کاربردهایی از خوشه\u200cبندی و طبقه\u200cبندی اسناد.\n']</t>
+  </si>
+  <si>
     <t>['-\n', '- - استوارت، ج. (1395). حساب دیفرانسیل و انتگرال (ج. حمیدی، مترجم). تهران: مؤسسه آموزشی و نشریاتی مدرسه.\n', '- - شهشهانی، س. (1396). حساب دیفرانسیل و انتگرال (ویراست 2). تهران: انتشارات فاطمی.\n', '- - Stewart, J. (2016). Calculus (8th ed.). Cengage Learning.\n', '- - Adams, R. A., &amp; Essex, C. (2018). Calculus: A complete course (9th ed.). Pearson.\n', '- - Finney, T., Demana, F., Waits, B. K., Kennedy, D., &amp; Rodgers, J. (2014). Calculus: Graphical, numerical, algebraic (4th ed.). Pearson.\n']</t>
   </si>
   <si>
@@ -1090,13 +1117,13 @@
     <t>['-\n', '- - بهبودیان، جواد (1394). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا.\n', '- - قهرمانی، سعید (1397). مبانی احتمال، ویرایش سوم، ترجمه شاهکار، غ. و بزرگنیا، ا. انتشارات دانشگاه صنعتی شریف.\n', '- - راس، شلدون (1389). مبانی احتمال، ویرایش هشتم، ترجمه پارسیان، ا.، همدانی، ع. انتشارات شیخ بهایی.\n', '- - هاگ، ر. و تنیس، ل. آ. (1394). احتمال و استنباط آماری. ترجمه نوروز ایزددوستدار و حمید پزشک. انتشارات دانشگاه تهران.\n', '- - Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th ed.). Pearson.\n', '- - José Unpingco (2019). Python for Probability, Statistics, and Machine Learning (2nd ed.). Springer. Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', '- - Grimmett, G., &amp; Welsh, D. (2014). Probability: An Introduction (2nd ed.). Oxford University Press.\n', '- - Ghahramani, S. (2014). Fundamentals of Probability: with Stochastic Process (3rd ed.). CRC Press. \n']</t>
   </si>
   <si>
-    <t>['-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.027dad54-58c5-41b8-acd6-4fe5ead1dfc8.007.png)\n', '**\n']</t>
+    <t>['-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.e102faac-bb2e-4b96-b184-15e29fde7822.007.png)\n', '**\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Horton, I., &amp; Van Weert, P. (2018). Beginning C++17: From Novice to Professional. Apress.\n', '- - Horton, I., &amp; Van Weert, P. (2020). Beginning C++20: From Novice to Professional. Apress.\n', '- - Deitel, P., &amp; Deitel, H. (2017). C++ How to Program (11th ed.). Pearson Education.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Romano, F., Phillips, D., &amp; van Hattem, R. (2016). Python: Journey from Novice to Expert. Packt Publishing.\n', '- - Wentworth, P., Elkner, J., Downey, A. B., &amp; Meyers, C. (2011). How to Think Like a Computer Scientist: Learning with Python (3rd ed.). Open Book Project.\n', '- - Campbell, J., Gries, P., Montojo, J., &amp; Wilson, G. (2009). Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf.\n', '- - Zelle, J. M. (2004). Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates.\n', "- - Gorelick, M., &amp; Ozsvald, I. (2014). High-Performance Python. O'Reilly Media, Inc.\n"]</t>
+    <t>['-\n', '- - Romano, F., Phillips, D., &amp; van Hattem, R. (2016). Python: Journey from Novice to Expert. Packt Publishing.\n', '- - Wentworth, P., Elkner, J., Downey, A. B., &amp; Meyers, C. (2011). How to Think Like a Computer Scientist: Learning with Python (3rd ed.). Open Book Project.\n', '- - Campbell, J., Gries, P., Montojo, J., &amp; Wilson, G. (2009). Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf.\n', '- - Zelle, J. M. (2004). Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates.\n', "- - Gorelick, M., &amp; Ozsvald, I. (2014). High-Performance Python. O'Reilly Media, Inc.\n", '- - [DataPrep — Low code data preparation in Python](https://dataprep.ai/)\n']</t>
   </si>
   <si>
     <t>['- قدسی، محمد (۱۳۹۳). داده\u200cساختارها و مبانی الگوریتم\u200cها (چاپ چهارم). انتشارات فاطمی.\n', '- قدسی، محمد، و نصیری شرق، آیدین (۱۳۹۷). ۶۰۰ مسئله\u200cی چندگزینه\u200cای از داده\u200cساختارها و الگوریتم\u200cها (چاپ ششم). انتشارات فاطمی\n', '- - Cormen, T. H. and Leiserson, C. E., Rivest, R. L. and Stein, C. (2009)., Introduction to Algorithms (3rd Ed), MIT Press. \n', '- - Manber, U.,  (1989).Introduction to Algorithms: A Creative Approach, Addison-Wesley. \n', '- - Sedgewick, R. and Wayne, K., (2011). Algorithms, 4th Ed, Addison-Wesley.\n', '- - Weiss, M. A., (2012). Data Structures and Algorithm Analysis in C++, 4th Ed, Addison Wesley. \n', '- Horowitz and Sahni, Fundamental of Data Structures, 4th Ed., CSP, 1994, (Pascal, C , C++ or Generic version(\n']</t>
@@ -1117,63 +1144,63 @@
     <t>['-\n', '- - Henle, J. M. (1986). An Outline of Set Theory. Springer-Verlag.\n', '- - Huth, M., &amp; Ryan, M. (2004). Logic in Computer Science: Modelling and reasoning about systems. Cambridge university press.\n']</t>
   </si>
   <si>
+    <t>['-\n', '- - Sipser, M. (2012). Introduction to the Theory of Computation. Cengage Learning.\n', '- - Boolos, G., Burgess, J., &amp; Jeffrey, R. (2007). Computability and Logic (5th ed.). Cambridge University Press.\n', '- - Kozen, D. (2006). Theory of Computation. Springer.\n', '- - Hedman, S. (2004). A First Course in Logic: An Introduction to Model Theory, Proof Theory, Computability, and Complexity. Oxford University Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - ون لوان، چارلز فرانسیس (۱۴۰۱)،  مقدمه ای بر محاسبات علمی، ترجمه دکتر فائزه توتونیان و دکتر داود خجسته سالکویه.\n', '- - کرایچیان، ع. (۱۴۰۱). جبر خطی با متلب. انتشارات دانشگاه فردوسی مشهد\n', "- - O'Leary, D. P. (2009). Scientific Computing with Case Studies.\n", '- - Trefethen, L. N., &amp; Bau III, D. (1997). Numerical Linear Algebra (Vol. 50). SI\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Burden, R. L., &amp; Faires, J. D. (2011). Solutions of equations in one variable: the bisection method. Brooks/Cole, Cengage Learning.\n', '- - Dahlquist, G., &amp; Björck, Å. (2008). Numerical methods in scientific computing, volume I. Society for Industrial and Applied Mathematics.\n', '- - Süli, E., &amp; Mayers, D. F. (2003). An introduction to numerical analysis. Cambridge university press.\n', '- - Hildebrand, F. B. (1987). Introduction to numerical analysis. Courier Corporation.\n', '- - Stoer, J., &amp; Bulirsch, R. (2013). Introduction to numerical analysis (Vol. 12). Springer Science &amp; Business Media.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - میرزا وزیری، م. (۱۳۸۸). فضاهای متریک با طعم توپولوژی (چاپ سوم). مشهد: انتشارات دانشگاه فردوسی.\n', '- - Rudin, W. (1964). Principles of mathematical analysis (Vol. 3). New York: McGraw-hill.\n', '- - Gordon, R. A. (2001). Real analysis: A first course. Addison Wesley.\n']</t>
+  </si>
+  <si>
+    <t>['Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th Ed.). Pearson.\n', 'Unpingco, J. (2019). Python for Probability, Statistics, and Machine Learning (2nd Ed.). Springer. [Source codes available at &lt;https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E&gt;]\n', 'Chan, S. H. (2021). Introduction to Probability for Data Science, Michigan Publishing. [Source codes available at &lt;https://probability4datascience.com/&gt;]\n', "Bruce, P., Bruce, A., &amp; Gedeck, P. (2020). Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python (2nd Ed.). O'Reilly Media, Inc.\n", "Griffiths, D. (2008). Head First Statistics. O'Reilly Media, Inc.\n", 'Wheelan, C. (2014). Naked Statistics: Stripping the Dread from the Data. W. W. Norton &amp; Company.\n', 'AI PUBLISHING. (2021). Statistics for Beginners in Data Science: Theory and Applications of Essential Statistics Concepts Using Python.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - کرایر، ج.د.؛ سیک چن، ک.  (1392). تجزیه\u200cوتحلیل سری\u200cهای زمانی با استفاده از نرم\u200cافزار R، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی. \n', '- - براکول، پ. و دیویس، ر.ا. (1384). مقدمه\u200cای بر سری\u200cهای زمانی و پیش\u200cبینی، ترجمه امینی، م.،  بزرگ نیا، ا. و  دهقان، م. ح. انتشارات دانشگاه سیستان و بلوچستان. \n', '- - چتفیلد، ک. (1996). مقدمه\u200cای بر تحلیل سری\u200cهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، انتشارات دانشگاه فردوسی مشهد\n', '- - Shumway, R. H., and Stoffer, D. S. (2019). Time series: a data analysis approach using R. Chapman and Hall/CRC.\n', '- - Cryer, J. D. and Chan, K. S. (2008). Time Series Analysis With Application in R, 2nd Ed. Springer.\n', '- - Hyndman, R.J., &amp; Athanasopoulos, G. (2018) Forecasting: principles and practice, 2nd edition, OTexts: Melbourne, Australia. &lt;https://otexts.com/fpp2/&gt;\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند)\n', '- James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '- Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '- Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '- - Zaki, M. J., &amp; Meira, W., (2014) Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دکتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', '- - مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', '- - Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', '- - Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', '- - Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', '- - Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', '- - Zaki, M. J., &amp; Meira, W., (2014)m Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - برتسیماس، سیتسیکلیس، (1394). مقدمه\u200cای بر بهینه\u200cسازی خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا.\n', '- - حمدی طه، (1387). آشنایی با تحقیق در عملیات: برنامه\u200cریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی.\n', '- - وینستون، (1380). تحقیق در عملیات، برنامه\u200cریزی خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران.\n', '- - بازارا، جارویس، شرالی، (1392). برنامه\u200cریزی خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی. \n']</t>
+  </si>
+  <si>
+    <t>['- لوئنبرگر، د. ج.، مهدوی امیری، ن.، و پور کاظمی، محمدحسین. (۱۳۹۲). برنامه\u200cریزی خطی و غیرخطی. تهران: دانشگاه صنعتی شریف.\n', '- Bazaraa, M., Sherali, H. D., &amp; Shetty, C. M. (2006). Nonlinear Programming: Theory and Algorithms (3rd ed.). John Wiley &amp; Sons.\n', '- Boyd, S., &amp; Vandenberghe, L. (2004). Convex optimization. Cambridge University Press.\n', '- Chong, E. K. P., &amp; Zak, S. H. (2013). An Introduction to Optimization (4th ed.). Wiley.\n', '- Griva, I., Nash, S. G., &amp; Sofer, A. (2009). Linear and Nonlinear Optimization (2nd ed.). SIAM.\n', '- Nocedal, J., &amp; Wright, S. (2006). Numerical optimization (2nd ed.). Springer Series in Operations Research and Financial Engineering.\n', '- Tibshirani, R. (2013-2019). Convex Optimization [Course]. Carnegie Mellon University.\n', '- Rao, S. S. (1978). Optimization: Theory and Applications. John Wiley &amp; Sons.\n']</t>
+  </si>
+  <si>
+    <t>['منابع آزاد با نظر استاد درس\n']</t>
+  </si>
+  <si>
+    <t>['Øverby, H., &amp; Audestad, J. A. (2021). Introduction to Digital Economics: Foundations, Business Models and Case Studies. Springer. \n']</t>
+  </si>
+  <si>
+    <t>['با نظر مدرس درس\n']</t>
+  </si>
+  <si>
+    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.e102faac-bb2e-4b96-b184-15e29fde7822.008.png)\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - نعمت الهی، ن. (1394). آمار و احتمالات مهندسی. انتشارات دلفک.\n', '- - راس، ش. م.، اسدی، م.، و بزرگ نیا، ا. ق. (1382). مقدمه\u200cای بر آمار و احتمال (برای دانشجویان مهندسی و علوم). انتشارات دانشگاه فردوسی مشهد.\n', '- - بهبودیان، ج. (1383). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا (ع).\n', '- - قهرمانی، س.، شاهکار، غ.، و بزرگ نیا، ا. ق. (1390). مبانی احتمال. انتشارات دانشگاه فردوسی مشهد.\n', '- - Roussas, G. G. (2014). Introduction to probability (2nd ed.). Academic Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - گیونز، جف\u200c اچ\u200c. (۱۳۹۳). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '- Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '- Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '- Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
+  </si>
+  <si>
+    <t>['\\1. نعمت اللهی، نادر (۱۳۹۷). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (۱۳۸۸).  آمار اصول و روش ها، جلد ۱ و ۲، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (۱۳۹۳). آمار مقدماتی، جلد ۱ و ۲، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (۱۳۹۴).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (۱۳۹۹). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', '- - Cooper, S. Barry. (2003) Computability theory. CRC Press.\n', '- - M. Divis, R. Sigal, E. Weyuker, (1997), Computability, Complexity, and Languages. 2nd Edition, Academic Press. \n']</t>
+  </si>
+  <si>
     <t>['-\n', '- - حمدی طه، (۱۳۸۷) آشنایی با تحقیق در عملیات: برنامه\u200cریزی خطی پویا و با اعداد صحیح، (م. بازرگان، مترجم). تهران: مرکز نشر دانشگاهی.\n', '- - مهدی قطعی، (1395). تحقیق در عملیات و بهینه\u200cسازی ترکیبیاتی. تهران: انتشارات ناقوس.\n', '- - Lee, J. (2004). A First Course in Combinatorial Optimization. Cambridge University Press.\n', '- - Cormen, T.H., Leiserson, C.E., Rivest, R.L., &amp; Stein, C. (2009). Introduction to Algorithms (3rd Ed.). The MIT Press.\n', '- - Papadimitriou, C.H., &amp; Steiglitz, R. (1982). Combinatorial Optimization Algorithms and Complexity. Prentice-Hall.\n', '- - Balakrishnan, V. (1995). Network Optimization. Chapman and Hall/CRC.\n', '- - Ahuja, R.K., Magnanti, T.L., &amp; Orlin, J.B. (1993). Network Flows: Theory, Algorithms, and Applications. Prentice-Hall.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Sipser, M. (2012). Introduction to the Theory of Computation. Cengage Learning.\n', '- - Boolos, G., Burgess, J., &amp; Jeffrey, R. (2007). Computability and Logic (5th ed.). Cambridge University Press.\n', '- - Kozen, D. (2006). Theory of Computation. Springer.\n', '- - Hedman, S. (2004). A First Course in Logic: An Introduction to Model Theory, Proof Theory, Computability, and Complexity. Oxford University Press.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - ون لوان، چارلز فرانسیس (۱۴۰۱)،  مقدمه ای بر محاسبات علمی، ترجمه دکتر فائزه توتونیان و دکتر داود خجسته سالکویه.\n', '- - کرایچیان، ع. (۱۴۰۱). جبر خطی با متلب. انتشارات دانشگاه فردوسی مشهد\n', "- - O'Leary, D. P. (2009). Scientific Computing with Case Studies.\n", '- - Trefethen, L. N., &amp; Bau III, D. (1997). Numerical Linear Algebra (Vol. 50). SI\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - Burden, R. L., &amp; Faires, J. D. (2011). Solutions of equations in one variable: the bisection method. Brooks/Cole, Cengage Learning.\n', '- - Dahlquist, G., &amp; Björck, Å. (2008). Numerical methods in scientific computing, volume I. Society for Industrial and Applied Mathematics.\n', '- - Süli, E., &amp; Mayers, D. F. (2003). An introduction to numerical analysis. Cambridge university press.\n', '- - Hildebrand, F. B. (1987). Introduction to numerical analysis. Courier Corporation.\n', '- - Stoer, J., &amp; Bulirsch, R. (2013). Introduction to numerical analysis (Vol. 12). Springer Science &amp; Business Media.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - میرزا وزیری، م. (۱۳۸۸). فضاهای متریک با طعم توپولوژی (چاپ سوم). مشهد: انتشارات دانشگاه فردوسی.\n', '- - Rudin, W. (1964). Principles of mathematical analysis (Vol. 3). New York: McGraw-hill.\n', '- - Gordon, R. A. (2001). Real analysis: A first course. Addison Wesley.\n']</t>
-  </si>
-  <si>
-    <t>['Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th Ed.). Pearson.\n', 'Unpingco, J. (2019). Python for Probability, Statistics, and Machine Learning (2nd Ed.). Springer. [Source codes available at &lt;https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E&gt;]\n', 'Chan, S. H. (2021). Introduction to Probability for Data Science, Michigan Publishing. [Source codes available at &lt;https://probability4datascience.com/&gt;]\n', "Bruce, P., Bruce, A., &amp; Gedeck, P. (2020). Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python (2nd Ed.). O'Reilly Media, Inc.\n", "Griffiths, D. (2008). Head First Statistics. O'Reilly Media, Inc.\n", 'Wheelan, C. (2014). Naked Statistics: Stripping the Dread from the Data. W. W. Norton &amp; Company.\n', 'AI PUBLISHING. (2021). Statistics for Beginners in Data Science: Theory and Applications of Essential Statistics Concepts Using Python.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - کرایر، ج.د.؛ سیک چن، ک.  (1392). تجزیه\u200cوتحلیل سری\u200cهای زمانی با استفاده از نرم\u200cافزار R، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی. \n', '- - براکول، پ. و دیویس، ر.ا. (1384). مقدمه\u200cای بر سری\u200cهای زمانی و پیش\u200cبینی، ترجمه امینی، م.،  بزرگ نیا، ا. و  دهقان، م. ح. انتشارات دانشگاه سیستان و بلوچستان. \n', '- - چتفیلد، ک. (1996). مقدمه\u200cای بر تحلیل سری\u200cهای زمانی، ترجمه حسینعلی نیرومند چاپ ششم، انتشارات دانشگاه فردوسی مشهد\n', '- - Shumway, R. H., and Stoffer, D. S. (2019). Time series: a data analysis approach using R. Chapman and Hall/CRC.\n', '- - Cryer, J. D. and Chan, K. S. (2008). Time Series Analysis With Application in R, 2nd Ed. Springer.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند)\n', '- James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '- Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '- Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '- - Zaki, M. J., &amp; Meira, W., (2014) Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.**\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دکتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', '- - مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', '- - Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', '- - Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', '- - Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', '- - Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', '- - Zaki, M. J., &amp; Meira, W., (2014)m Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - برتسیماس، سیتسیکلیس، (1394). مقدمه\u200cای بر بهینه\u200cسازی خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا.\n', '- - حمدی طه، (1387). آشنایی با تحقیق در عملیات: برنامه\u200cریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی.\n', '- - وینستون، (1380). تحقیق در عملیات، برنامه\u200cریزی خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران.\n', '- - بازارا، جارویس، شرالی، (1392). برنامه\u200cریزی خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی. \n']</t>
-  </si>
-  <si>
-    <t>['- لوئنبرگر، د. ج.، مهدوی امیری، ن.، و پور کاظمی، محمدحسین. (۱۳۹۲). برنامه\u200cریزی خطی و غیرخطی. تهران: دانشگاه صنعتی شریف.\n', '- Bazaraa, M., Sherali, H. D., &amp; Shetty, C. M. (2006). Nonlinear Programming: Theory and Algorithms (3rd ed.). John Wiley &amp; Sons.\n', '- Boyd, S., &amp; Vandenberghe, L. (2004). Convex optimization. Cambridge University Press.\n', '- Chong, E. K. P., &amp; Zak, S. H. (2013). An Introduction to Optimization (4th ed.). Wiley.\n', '- Griva, I., Nash, S. G., &amp; Sofer, A. (2009). Linear and Nonlinear Optimization (2nd ed.). SIAM.\n', '- Nocedal, J., &amp; Wright, S. (2006). Numerical optimization (2nd ed.). Springer Series in Operations Research and Financial Engineering.\n', '- Tibshirani, R. (2013-2019). Convex Optimization [Course]. Carnegie Mellon University.\n', '- Rao, S. S. (1978). Optimization: Theory and Applications. John Wiley &amp; Sons.\n']</t>
-  </si>
-  <si>
-    <t>['منابع آزاد با نظر استاد درس\n']</t>
-  </si>
-  <si>
-    <t>['Øverby, H., &amp; Audestad, J. A. (2021). Introduction to Digital Economics: Foundations, Business Models and Case Studies. Springer. \n']</t>
-  </si>
-  <si>
-    <t>['با نظر مدرس درس\n']</t>
-  </si>
-  <si>
-    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.027dad54-58c5-41b8-acd6-4fe5ead1dfc8.008.png)\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - نعمت الهی، ن. (1394). آمار و احتمالات مهندسی. انتشارات دلفک.\n', '- - راس، ش. م.، اسدی، م.، و بزرگ نیا، ا. ق. (1382). مقدمه\u200cای بر آمار و احتمال (برای دانشجویان مهندسی و علوم). انتشارات دانشگاه فردوسی مشهد.\n', '- - بهبودیان، ج. (1383). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا (ع).\n', '- - قهرمانی، س.، شاهکار، غ.، و بزرگ نیا، ا. ق. (1390). مبانی احتمال. انتشارات دانشگاه فردوسی مشهد.\n', '- - Roussas, G. G. (2014). Introduction to probability (2nd ed.). Academic Press.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - گیونز، جف\u200c اچ\u200c. (۱۳۹۳). آما\u200cر محا\u200cسبا\u200cتی\u200c (روش\u200c بهینه\u200cسا\u200cزی عددی)، ترجمه محمدرضا مشکانی، انتشارات پژوهشکده آمار. \n', '- Rizzo, M.L. (2019). Statistical Computing with R, 2Ed  . Chapman &amp; Hall\n', '- Givens, G.H. and Hoeting, J.A. (2012). Computational Statistics, 2nd edition, Wiely.\n', '- Härdle, W. K., Okhrin, O., &amp; Okhrin, Y. (2017).\xa0Basic elements of computational statistics. Springer.\n']</t>
-  </si>
-  <si>
-    <t>['\\1. نعمت اللهی، نادر (۱۳۹۷). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (۱۳۸۸).  آمار اصول و روش ها، جلد ۱ و ۲، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (۱۳۹۳). آمار مقدماتی، جلد ۱ و ۲، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (۱۳۹۴).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (۱۳۹۹). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', '- - Cooper, S. Barry. (2003) Computability theory. CRC Press.\n', '- - M. Divis, R. Sigal, E. Weyuker, (1997), Computability, Complexity, and Languages. 2nd Edition, Academic Press. \n']</t>
-  </si>
-  <si>
     <t>['-\n', '- - Huth, M., Ryan, M. (2020), Logic in Computer Science: Modelling and Reasoning about Systems, 2nd Edition, Cambridge: Cambridge University.\n', '**\n']</t>
   </si>
   <si>
@@ -1291,7 +1318,13 @@
     <t>['- - داتا، ب.، (۱۳۹۵). جبر خطی عددی و کاربردها (جلد ۱ و ۲). ترجمه دکتر فائزه توتونیان، انتشارات دانشگاه فردوسی مشهد\n', '- - کرایچیان، ع. (۱۴۰۱). جبر خطی با متلب. انتشارات دانشگاه فردوسی مشهد\n', '- - Boyd, S., &amp; Vandenberghe, L. (2018). Introduction to Applied Linear Algebra: Vectors, Matrices, and Least Squares.\n', '- - Axler, S. (2015). Linear Algebra Done Right. Springer.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Schell, J. (2008). The Art of Game Design. Morgan Kaufmann Publishers.\n', '- - Kim, A. Jo. (2018). Game Thinking: Innovate Smarter &amp; Drive Deep Engagement.\n', '[^1]: Luk, Robert W. P. (2020). Insights in How Computer Science can be a Science. Science and Philosophy 8 (2):17-46\n', '[^2]: ["Computer Science as a Profession"](https://web.archive.org/web/20080617030847/http:/www.csab.org/comp_sci_profession.html). Computing Sciences Accreditation Board. May 28, 1997.\n', '[^3]: [Computer science - Wikipedia](https://en.wikipedia.org/wiki/Computer_science)\n', '[^4]: در تدوین این برنامه درسی، برنامه\u200cهای درسی مصوب وزارت در سالهای ۱۳۹۹ تا ۱۴۰۱ برای رشته\u200cهای علوم کامپیوتر، ریاضیات و کاربردها و آمار و همچنین برنامه درسی مهندسی کامپیوتر وزارت علوم و چند دانشگاه داخلی (منجمله صنعتی شریف، تهران و امیرکبیر) و خارجی مورد ملاحظه قرار گرفته\u200cاند.\n', '[^5]: Andrew Ng']</t>
+    <t>['-\n', '- - Schell, J. (2008). The Art of Game Design. Morgan Kaufmann Publishers.\n', '- - Kim, A. Jo. (2018). Game Thinking: Innovate Smarter &amp; Drive Deep Engagement.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Sebesta, R. W. (2012). Concepts of programming languages. Boston: Pearson.\n', '- - Pratt, T. W., &amp; Zelkowitz, M. V. (2000). Programming Languages: Design and Implementation (4th ed.). Prentice-Hall.\n', '- - Ghezzi, C., &amp; Jazayeri, M. (1997). Programming Language Concepts. Addison Wiley.\n', '- - MacLennan, B. J. (1999). Principles of Programming Languages: Design, Evaluation, and Implementation. Oxford University Press.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Jurafsky, D., &amp; Martin, J. H. (2023). Speech and Language Processing (3rd ed. Draft).\n', "- - Vajjala, S., Majumder, B., Gupta, A., &amp; Surana, H. (2020). Practical Natural Language Processing. O'Reilly Media, Inc.\n", '- - Manning, C. D., &amp; Schütze, H. (1999). Foundations of Statistical Natural Language Processing. MIT Press.\n', "- - Bird, S., Klein, E., &amp; Loper, E. (2009). Natural Language Processing with Python. O'Reilly Media.\n", '- - Clark, A. (2016). Neural Networks for NLP. Morgan &amp; Claypool Publishers.\n', '- - Goldberg, Y. (2017). Neural Network Methods in Natural Language Processing. Morgan &amp; Claypool Publishers.\n']</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1710,37 +1743,37 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="P2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1751,37 +1784,37 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="P3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1792,37 +1825,37 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I4" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J4" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L4" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P4" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1833,37 +1866,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J5" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L5" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O5" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P5" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1874,37 +1907,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="J6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K6" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L6" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O6" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="P6" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1915,37 +1948,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1956,37 +1989,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I8" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J8" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L8" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O8" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P8" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1997,34 +2030,34 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H9" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="J9" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K9" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="O9" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P9" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2035,37 +2068,37 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I10" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J10" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K10" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L10" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O10" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P10" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2076,37 +2109,37 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I11" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J11" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K11" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L11" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O11" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P11" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2117,37 +2150,37 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I12" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J12" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K12" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L12" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O12" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P12" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2158,37 +2191,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I13" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J13" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K13" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L13" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O13" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="P13" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2199,37 +2232,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="J14" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K14" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L14" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P14" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2240,37 +2273,37 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J15" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K15" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L15" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O15" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="P15" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2281,37 +2314,37 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I16" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J16" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K16" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L16" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O16" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P16" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2322,37 +2355,37 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I17" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J17" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K17" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L17" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O17" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P17" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2363,37 +2396,37 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J18" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K18" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L18" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O18" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="P18" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2404,37 +2437,37 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I19" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J19" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K19" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L19" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O19" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P19" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2445,37 +2478,37 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I20" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J20" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K20" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L20" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="O20" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P20" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2486,37 +2519,37 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I21" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J21" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K21" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L21" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="O21" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="P21" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2527,37 +2560,37 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I22" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J22" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K22" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L22" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="O22" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P22" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2568,37 +2601,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J23" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K23" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L23" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O23" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P23" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2609,37 +2642,37 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I24" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J24" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K24" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O24" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="P24" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2650,37 +2683,37 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J25" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K25" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O25" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P25" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2691,37 +2724,37 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E26" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I26" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J26" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="P26" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2732,37 +2765,37 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E27" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J27" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O27" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P27" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2773,37 +2806,37 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O28" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P28" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2814,37 +2847,37 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="H29" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="O29" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2855,37 +2888,37 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P30" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2896,37 +2929,34 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="H31" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
-      </c>
-      <c r="L31" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P31" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2937,34 +2967,37 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G32" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P32" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2975,37 +3008,37 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P33" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3016,37 +3049,34 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I34" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
-      </c>
-      <c r="L34" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P34" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3057,34 +3087,37 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E35" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G35" t="s">
         <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I35" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s">
-        <v>268</v>
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
+        <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P35" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3095,37 +3128,37 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E36" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I36" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J36" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K36" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P36" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3136,37 +3169,37 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K37" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O37" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="P37" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3177,37 +3210,37 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K38" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O38" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P38" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3218,37 +3251,37 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H39" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I39" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J39" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O39" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P39" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3259,37 +3292,37 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
         <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I40" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K40" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L40" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P40" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3300,37 +3333,37 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G41" t="s">
         <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I41" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J41" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P41" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3341,37 +3374,37 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G42" t="s">
         <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J42" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K42" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L42" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O42" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P42" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3382,34 +3415,34 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G43" t="s">
         <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I43" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J43" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K43" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="O43" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="P43" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3420,37 +3453,37 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G44" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H44" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I44" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J44" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L44" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O44" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P44" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3461,37 +3494,37 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I45" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J45" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K45" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L45" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O45" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="P45" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3502,34 +3535,34 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G46" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H46" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I46" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J46" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K46" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="O46" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P46" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3540,37 +3573,37 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G47" t="s">
         <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I47" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J47" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K47" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L47" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="O47" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P47" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3581,37 +3614,37 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I48" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J48" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K48" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L48" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O48" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="P48" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3622,37 +3655,37 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E49" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I49" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J49" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K49" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L49" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O49" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P49" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3663,37 +3696,37 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H50" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I50" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J50" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K50" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L50" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O50" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P50" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3704,34 +3737,34 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G51" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H51" t="s">
         <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J51" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K51" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="O51" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P51" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3742,34 +3775,34 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H52" t="s">
         <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="J52" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K52" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="O52" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P52" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3780,37 +3813,37 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G53" t="s">
         <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I53" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J53" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K53" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L53" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O53" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="P53" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3821,37 +3854,37 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I54" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J54" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K54" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L54" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O54" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P54" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3862,37 +3895,37 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I55" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J55" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K55" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L55" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O55" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="P55" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3903,34 +3936,34 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H56" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I56" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J56" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K56" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="O56" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="P56" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3941,37 +3974,37 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G57" t="s">
         <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I57" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J57" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K57" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L57" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O57" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P57" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3982,37 +4015,37 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E58" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G58" t="s">
         <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I58" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J58" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K58" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L58" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O58" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="P58" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4023,37 +4056,37 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G59" t="s">
         <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I59" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J59" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K59" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L59" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O59" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P59" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4064,37 +4097,37 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G60" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H60" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I60" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J60" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K60" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L60" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O60" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P60" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4105,37 +4138,37 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G61" t="s">
         <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I61" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J61" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K61" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L61" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O61" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P61" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4146,37 +4179,37 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G62" t="s">
         <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I62" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J62" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K62" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O62" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="P62" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4187,37 +4220,37 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G63" t="s">
         <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I63" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J63" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K63" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L63" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O63" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P63" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4228,37 +4261,37 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I64" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J64" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K64" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L64" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O64" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="P64" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4269,37 +4302,37 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G65" t="s">
         <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I65" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J65" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K65" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L65" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O65" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P65" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4310,37 +4343,37 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I66" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J66" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K66" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L66" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O66" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="P66" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4351,37 +4384,37 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E67" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H67" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I67" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J67" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K67" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L67" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O67" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P67" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4392,37 +4425,37 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E68" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H68" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I68" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J68" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K68" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L68" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O68" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P68" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4433,37 +4466,37 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E69" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I69" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J69" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K69" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L69" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O69" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P69" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4474,37 +4507,37 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G70" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H70" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I70" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J70" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K70" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L70" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O70" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P70" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4515,37 +4548,37 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E71" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J71" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K71" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L71" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O71" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P71" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4556,37 +4589,37 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G72" t="s">
         <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I72" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J72" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K72" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L72" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O72" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P72" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4597,37 +4630,37 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E73" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I73" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J73" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K73" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L73" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O73" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="P73" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4638,37 +4671,37 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E74" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G74" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H74" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I74" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J74" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K74" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O74" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="P74" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4679,37 +4712,37 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G75" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I75" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J75" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K75" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L75" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O75" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P75" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4720,37 +4753,37 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E76" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I76" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J76" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K76" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L76" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O76" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="P76" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4761,37 +4794,37 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E77" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G77" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H77" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I77" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J77" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K77" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L77" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O77" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P77" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4802,37 +4835,37 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E78" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I78" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J78" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K78" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L78" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O78" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="P78" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4843,37 +4876,116 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E79" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H79" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I79" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J79" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K79" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L79" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O79" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P79" t="s">
-        <v>425</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" t="s">
+        <v>252</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" t="s">
+        <v>253</v>
+      </c>
+      <c r="I80" t="s">
+        <v>269</v>
+      </c>
+      <c r="J80" t="s">
+        <v>272</v>
+      </c>
+      <c r="K80" t="s">
+        <v>275</v>
+      </c>
+      <c r="O80" t="s">
+        <v>359</v>
+      </c>
+      <c r="P80" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" t="s">
+        <v>249</v>
+      </c>
+      <c r="E81" t="s">
+        <v>252</v>
+      </c>
+      <c r="G81" t="s">
+        <v>267</v>
+      </c>
+      <c r="H81" t="s">
+        <v>253</v>
+      </c>
+      <c r="I81" t="s">
+        <v>269</v>
+      </c>
+      <c r="J81" t="s">
+        <v>272</v>
+      </c>
+      <c r="K81" t="s">
+        <v>275</v>
+      </c>
+      <c r="L81" t="s">
+        <v>279</v>
+      </c>
+      <c r="O81" t="s">
+        <v>360</v>
+      </c>
+      <c r="P81" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="435">
   <si>
     <t>fa_title</t>
   </si>
@@ -802,7 +802,7 @@
     <t>مبانی آنالیز ریاضی، مبانی محاسبات علمی</t>
   </si>
   <si>
-    <t>اصول سیستم‌های کامپیوتری، سیستم‌های عامل</t>
+    <t>یادگیری ماشین مقدماتی،  زیست شناسی سلولی و مولکولی</t>
   </si>
   <si>
     <t>گذراندن 75 واحد</t>
@@ -862,247 +862,241 @@
     <t xml:space="preserve"> : دارد</t>
   </si>
   <si>
-    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط و جمع و ضرب و ریشه آنها، نمایش های مختلف اعداد مختلط، دنباله های عددی، حد و قضایای مربوط، حد بینهایت و حد در بینهایت، حد چپ و راست،  پیوستگی، پیوستگی دنباله ای، قضیه مقدار میانی برای توابع پیوسته، قضیه مقدار اکسترمم برای توابع پیوسته، مشتق، دستورهای مشتق گیری، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه مشتق ترکیب توابع، قضیه فرما (صفر شدن مشتق در یک نقطه اکسترمم)، قضیه رل، قضیه مقدار میانگین، قضیه مقدار میانگین کشی، آزمون مشتق اول و دوم برای اکسترمم ها، تقعر منحنی، نقطه عطف، دیفرانسیل یک تابع، بسط تیلر، کاربردهای هندسی و فیزیکی مشتق، خم ها، سرعت و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه های معادلات، تعریف انتگرال توابع و انتگرال پذیری، قضیه مقدار میانگین برای انتگرال ها، قضایای اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش های تقریبی برآورد انتگرال، کاربرد انتگرال در محاسبه مساحت و حجم و طول منحنی و ...، لگاریتم و تابع نمایی و مشتق آنها، تابع های هذلولوی، روش های انتگرال گیری (همه روش ها)، آشنایی با تابع گاما و خواص آن، دنباله و سری به عنوان تایع، سری عددی، قضایای همگرایی مانند آزمون نسبت، ریشه و ...، تقریب استرلینگ، قضایای هم گرائی سری توانی و قضیه تیلر با باقیمانده و بدون باقیمانده. \n']</t>
-  </si>
-  <si>
-    <t>['فضای اقلیدسی، معادلات پارامتری، مختصات فضائی، بردار در فضا، ضرب عددی، ضرب خارجی، معادلات خط و صفحه، رویه درجه دو، تابع برداری و مشتق آن، سرعت و شتاب، خمیدگی و بردارهای قائم بر منحنی، تابع چند متغیری، مشتق سوئی و جزئی، صفحه مماس و خط قائم، گردایان، قاعده زنجیری برای مشتق جزئی، دیفرانسیل کامل، انتگرال های دوگانه و چند گانه و کاربردهای آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیری (بدون اثبات دقیق)، مختصات استوانه ای و کروی، میدان برداری، انتگرال منحنی الخط، انتگرال رویه ای، دیورژانس، چرخه، لاپلاسین، پتانسیل، قضایای گرین و دیورژانس و استوکس.\n']</t>
-  </si>
-  <si>
-    <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n']</t>
-  </si>
-  <si>
-    <t>['اهداف درس با هر زبان برنامه\u200cنویسی سطح بالا محقق می\u200cشود، اما از آنجا که تاکید این برنامه درسی بر زبان برنامه\u200cنویسی پایتون است، سرفصل پیشنهادی نیز بر اساس این زبان ذکر می\u200cشود: مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، مستندسازی، کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
-  </si>
-  <si>
-    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '-\n', '- - آشنایی مقدماتی با تهیه اسناد کامپیوتری\n', 'کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '-\n', '- - آشنایی مقدماتی با مجموعه میکروسافت آفیس\n', '- - آشنایی با سرویس\u200cهای کاربردی\n', 'سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '-\n', '- - آشنایی با سیستم عامل لینوکس\n', 'مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX\n', 'دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n']</t>
-  </si>
-  <si>
-    <t>['منطق گزاره ها و جدول ارزش. مجموعه\u200cها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه\u200cهای متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n']</t>
-  </si>
-  <si>
-    <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز، تابع توزیع توأم.\n']</t>
-  </si>
-  <si>
-    <t>['تعریف علم آمار، بیان کاربردهای آمار در سایر علوم، ارتباط و جایگاه علم آمار در علم داده\u200cها، جامعه آماری، انواع متغیرها، متغیرهای کمی  (پیوسته و گسسته) و متغیرهای رسته ای (اسمی و ترتیبی)، مقیاس ها، انواع داده\u200cها، داده\u200cهای یک متغیره و چند متغیره، داده\u200cهای سری زمانی، روشهای جمع آوری داده\u200cها، منابع داده\u200cهای ثبتی، معرفی مه داده\u200cها (کلان داده\u200cها) و منابع آنها، خلاصه کردن داده\u200cهای کمی یک متغیره با شاخص\u200cهای عددی،  انواع معیارهای مرکزیت و پراکندگی، چندکها، خلاصه کردن داده\u200cهای رسته\u200cای یک متغیره با شاخص\u200cهای عددی از قبیل نسبت\u200cها، انواع نمودارهای دیداری\u200cسازی داده\u200cهای یک متغیره کمی و رسته\u200cای، بافت نگار، منحنی فراوانی، توزیع تجربی، منحنی فراوانی نرمال،  نمودار ساقه و برگ، نمودار ستونی، نمودار جعبه ای، نمودار  سری زمانی و نمایش روند، تهیه جداول دو بعدی و چند بعدی برای خلاصه سازی داده\u200cهای چند متغیره رسته ای، نمودار دایره ای، انواع نمودارهای ستونی برای نمایش و توصیف داده\u200cهای چندمتغیره رسته ای، نمودار پراکنش برای نمایش همبستگی در داده\u200cهای دو متغیره کمی و تفسیر آن، مقایسه نموداری دو یا چند سری زمانی، مقایسه میانگین دو یا چند جامعه و نمایش اختلافها با استفاده نمودار جعبه ای و سایر نمودارهای مناسب، اشاره ای به نمودار جریان، نمودارهای شبکه ای، درختی، نمودارهای گرمایی، قطبی و مارپیچی،  نقشه ای و جغرافیایی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از **نرم افزار اکسل**  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - چرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '- - محیط\u200cهای مجتمع توسعه\n', '- - ساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '- - برنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '- - وراثت در شی گرایی و چندریختی در شی گرایی\n', '- - مدیریت استثناء\n', '- - رابط گرافیکی و مفاهیم Interface\n', '- - کار با فایل\u200cها\n', '- - جریان داده\n', '- - کار با رشته و آرایه\n', '- - حافظه پویا\n', '- - (درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- - قالبها، فضای نام، auto، \n', '- - Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**پیشنهاد می\u200cشود در این درس**Modern C++ **تدریس شود و در انتها در قالب یکی دو جلسه، دانشجویان با جاوا آشنا شوند (یا بالعکس). و با هماهنگی بین مدرسان این درس و در ساختمان داده\u200cها، در هر دو درس این دو زبان برنامه\u200cنویسی پوشش داده شود. یعنی اگر در این درس زبان C++ تدریس شد،  ساختمان داده\u200cها با جاوا تدریس شود.**\n']</t>
-  </si>
-  <si>
-    <t>['مرور فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات روی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، Threads.\n']</t>
-  </si>
-  <si>
-    <t>['آنالیز پیچیدگی زمان و حافظه الگوریتم\u200cها، توابع بازگشتی، معرفی ساختمان\u200cهای داده\u200cای مقدماتی (لیست پیوندی، پشته، صف و صف اولویت\u200cدار) و الگوریتم\u200cهای وابسته به آن\u200cها،  نمایش ماتریس\u200cها در حافظه، ماتریس\u200cهای تنک،\u200c تطابق رشته، درخت\u200cها و الگوریتم\u200cهای پیمایش مربوطه، درخت عبارت، تبدیل نگارش\u200cهای مختلف یک عبارت ریاضی، درهم\u200cسازی، گراف\u200cها و الگوریتم\u200cهای مربوط به گراف (BFS، DFS و ...) ، الگوریتم\u200cهای جستجو و مرتب\u200cسازی.\n']</t>
-  </si>
-  <si>
-    <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجیره ای ماتریس ها، درخت جستجوی بهینه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعالیت های بیشینه،  درخت پوشای کمینه.\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و کران و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پیچیدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n']</t>
-  </si>
-  <si>
-    <t>['- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n', '- آشنایی با UML\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['مفاهیم پایه\u200cای (داده، فراداده، ساختارها و مدل داده\u200cها)، اصول طراحی پایگاه داده\u200cها (مدل مفهومی، نمودارهای ER، نرمال\u200cسازی، سیر تکاملی پایگاه داده\u200cها (فایل، شبکه، رابطه، شیء، شیء-رابطه، مکعب)، معرفی نرم افزارهای مدیریت پایگاه داده\u200cها (مزایا و معایب تکنولوژی¬ های مختلف)، به کارگیری یک نرم افزار مدیریت پایگاه داده\u200cها (SQL Server ، Oracle، MySQL)، زبان SQL، ساخت، حذف، و ویرایش پایگاه داده، جدول، و نما، درج، حذف، و ویرایش داده\u200cها، جستجوی داده\u200cها، مرتب سازی، انتخاب شرطی، قالب\u200cبندی نتایج جستجو، توابع محاسباتی و تجمیعی، ادغام دو یا چند جدول، آشنایی با تحلیل مه\u200cداده\u200cها با ابزارهای مدرن پایگاه داده\u200cها (SQL Server, Spark  و مانند اینها)، پایگاه داده\u200cهای غیر رابطه\u200cای.\n']</t>
-  </si>
-  <si>
-    <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n']</t>
-  </si>
-  <si>
-    <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتری، تبدیلها و ترکیب ها و ضرایب دوجمله ای، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزی و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوی که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس های صفر و یک (آماده سازی برای بخش مربع های لاتین و گراف ها)، آشنایی با ماتریس های آدامار و برخی نتایج در این مورد. گراف ها و مدل های مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهای آن در مدلسازی (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه ای، انواع اصلی گراف نظیر گراف های کامل، درخت ها، گراف های دوبخشی، گراف های اویلری و هامیلتونی و گراف های جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق های کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزی گراف ها و چند جمله ای رنگی (با ارائه مثال و الگوریتم). مربع های لاتین، طرح ها و هندسه های متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['آشنایی با منطق: آشنایی با منطق گزارهیی، زبان منطق گزاره یی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['\\1.\tخطا. انواع خطا. منابع تولید خطا. نمایش اعداد. ارقام با معنی. محاسبات پایدار و ناپایدار. حساسیت\n', '\\2.\tدستگاه معادلات خطی و ماتریسها. دترمینان. ماتریس های نواری. ماتریس های بلوکی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون. نرم برداری و ماتریسی. حل دستگاه های خطی. تجزیه LU. تحلیل حساسیت دستگاههای خطی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. دستگاه های هزنبرگ. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها. \n', '\\3.\tاعمال ماتریسی بازگشتی. تبدیل فوریه سریع\n', '\\4.\tپیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- منابع خطا، سیستم\u200cهای نمایشی اعداد، خطای رندکردن و تحلیل آن. ریشه\u200cیابی توابع و دستگاههای غیر خطی. درون\u200cیابی. تقریب کمترین مربعات. مشتق\u200cگیری عددی. انتگرال\u200cگیری عددی. حل دستگاه\u200cهای خطی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- اعداد حقیقی و آشنایی با فضاهای متریک و مفاهیم توپولوژیکی آن. مجموعه اعداد حقیقی، اصل کمال و خاصیت ارشمیدسی. مجموعه\u200cهای باز و بسته. مجموعه\u200cهای فشرده. مجموعه\u200cهای همبند. پیوستگی توابع. مشتق توابع. قضیه مقدار میانی و قضیه اکسترمم. پیوستگی یکنواخت. قضیه مقدار میانگین و قاعده هوپیتال. فضاهای متریک. دنباله\u200cها و همگرایی آن\u200cها. حد توابع. حفظ پیوستگی و همبندی توسط توابع پیوسته.\n']</t>
-  </si>
-  <si>
-    <t>['مروری بر جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری. بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، تحلیل واریانس\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- بیان اهداف تحلیل سریهای زمانی با ذکر مثال\u200cهایی در زمینه\u200cهای مختلف مانند هواشناسی، موضوعات اقتصادی و مالی، روند، مولفه فصلی، تجزیه سری زمانی، برآورد روندها با مدل های رگرسیونی، هموارسازی، مفاهیم پایه\u200cای سری\u200cهای زمانی و فرآیندهای تصادفی(تابع میانگین و واریانس، تابع خود کوواریانس، خود همبستگی و خود همبستگی جزئی،\u200c مانایی)، فرآیند نوفه سفید، قدم زدن تصادفی، سری های عمومی خطی، میانگین متحرک و فرآیند خود بازگشت،  مدل\u200cهای ARMA  و ARIMA (فصلی و غیر فصلی)، در کلاس باکس- جنکینز، آزمون ریشه واحد، تفاضل\u200cگیری،  براورد پارامترها  (روشهای گشتاوری، کمترین مربعات و ماکسیمم درستنمایی)، پیش بینی، تحلیل باقیمانده ها و بررسی تشخیص مدلها، مناسبت مدل ها، آزمون\u200cهای خودهمبستگی، آزمون های نرمال بودن، ملاکهای AIC و BIC برای انتخاب مدل، مقدمه مدل های ناهمسان واریانس شرطی، تبدیلات باکس- کاکس.\n', '- توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'آشنایی با نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ساده، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، آنالیز مؤلفه\u200cهاب اصلی (PCA) و تحلیل تفکیک خطی (LDA).\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس\u200cهای بهینه\u200cسازی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون مباحثی در علوم کامپیوتر یا دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پیش پردازش و آماده سازی داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استانداردسازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', '- تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی.\n', '- شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی.\n', '- روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', '- معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحلیل آنها بوسیله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با درس یادگیری ماشین مقدماتی اشتراک دارد، شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- `\t`آشنایی با زمینه های تحقیق در عملیات به ویژه در اقتصاد و یادگیری ماشین. مدل بندی مسائل بهینه سازی، مفاهیم پایه ای مرتبط با برنامه ریزی خطی شامل روشهای ترسیمی، سیمپلکس اولیه و دوگان، دوفازی، دوگانی، تحلیل حساسیت. روشهای حل مسائل حمل ونقل ساده و مرکب. مدل سازی مساله تخصیص و روش حل آن. آشنایی با برنامه ریزی عدد صحیح و روشهای شاخه و کران و صفحات برشی،آشنایی با ماشین بردار پشتیبان. معرفی یک نرم افزار یا زبان مدلسازی جهت حل مسائل بهینه سازی، مانند CPLEX  و Pyomo\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مدل سازی شامل: کاربردهایی از بهینه سازی محدب مانند طبقه بندی خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل های سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازی، شرایط لازم و کافی برای مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهای حل مسایل نامقید شامل: روشهای بر مبنای جستجوی خطی( جستجوی طلایی، فیبوناچی، عقب گرد)، روشهای گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش های گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازی درجه دوم محدب با قیود خطی و معرفی برخی روش های حل آن ؛ الگوریتم\u200cهای حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازی الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['•\tکسب و کارهای نوپا، به ویژه کسب و کارهای نوپای ناب\n', '•\tارزیابی خطر \n', '•\tارزیابی منابع \n', '•\tتحلیل بازار \n', '•\tتحلیل مالی \n', '•\tارزش پیشنهادی\n', '•\tفرآیند توسعه مشتری \n', '•\tتفکر طراحی\n', '•\tمهارت های کار تیمی و گروهی \n', '•\tقوانین داخلی و بین المللی کسب و کار  \n', '•\tمهارت ها و روش های توسعه نرم افزار \n', '•\tمعرفی کارآفرینان موفق در ایران و دنیا \n', '•\tمعرفی موفقیت ها و شکست های بزرگ در راه اندازی کسب و کارهای نوپا \n', '•\tسخنرانی های شخصیت های موفق در ایجاد کسب و کارهای نوپا\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- انقلاب صنعتی چهارم\n', '- روند حضور و نفوذ فناوری های دیجیتال در صنعت\n', '- انقلاب دیجیتال\n', '- تحول دیجیتال\n', '- روندهای اقتصادی و فناوری های مرتبط با اقتصاد دیجیتال\n', '- هوش مصنوعی / بلاک چین / اینترنت اشیا  / ...\n', '- مدل های کسب و کار در اقتصاد دیجیتال\n', '- انقلاب پلتفرم\n', '- تجارت الکترونیک نسل چهارم \n', '- تشخیص فرصت و ایده پردازی در فضای کسب و کارهای دیجیتالی\n', '- طراحی و راه اندازی کسب و کار در اقتصاد دیجیتالی\n', '- اصول تیم سازی در فضای کسب و کارهای دیجیتالی\n', '- اصول مدیریت پروژه و کار تیمی در فضای کسب و کارهای دیجیتالی \n', '- نقش های کلیدی در یک کسب و کار مبتنی بر اقتصاد دیجیتال\n', '- تدوین استراتژی ورود به بازار و اصول بازاریابی در کسب و کارهای دیجیتالی\n', '- تدوین استراتژی های جذب، حفظ و توسعه مشتریان در کسب و کارهای دیجیتالی\n', '- قیمت گذاری محصولات یا خدمات\n', '- روش های تامین مالی و شیوه ارائه به سرمایه گذار و الزامات آن\n', '- ارزشگذاری فناوری\n', '- اجزای اکوسیستم نوآوری مبتنی بر اقتصاد دیجیتال و آشنایی با نقش آنها\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['**محتوای کارآموزی برای هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه\u200cای بر هوش مصنوعی و تاریخچه\u200cی آن، معرفی عامل\u200cهای هوشمند، فضای حالت، جست\u200cوجوی ناآگاهانه، جست\u200cوجوی آگاهانه، الگوریتم \\*A و اثبات بهینگی، جست\u200cوجوی محلی، مسائل ارضای محدودیت، جست\u200cوجوی عقبگرد، حل مسائل CSP با رویکرد جستجوی محلی، جستجوی مقابله\u200cای، الگوریتم minimax و هرس آلفا-بتا، یادگیری تقویتی، روش\u200cهای مبتنی بر مدل، یادگیری تفاضل زمانی  و الگوریتم Q-learning، منطق، منطق گزاره\u200cای  و استنتاج  در منطق گزاره\u200cای، منطق مرتبه اول  و استنتاج در منطق مرتبه اول، معرفی شبکه\u200cهای بیزین، بازنمایی  در شبکه\u200cهای بیزین و استقلال  در این شبکه\u200cها، استنتاج در شبکه\u200cهای بیزین: استنتاج دقیق و استنتاج تقریبی با استفاده از نمونه برداری، تخمین پارامترها در شبکه\u200cهای بیزین، نمونه\u200cهای معروف و کاربردی از شبکه\u200cهای بیزین: مدل مارکوف، مدل مخفی مارکوف، دسته\u200cبند بیز ساده.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- توزیعهای توام: تابع احتمال، تابع چگالی و تابع توزیع توام، متغیرهای تصادفی مستقل، کواریانس، ضریب همبستگی، مثال هایی از توزیع های توام خاص. توزیع های شرطی: توزیع های شرطی گسسته، توزیع های شرطی پیوسته، کاربرد توزیع های شرطی، امید ریاضی شرطی و کاربردهای آن شامل امید کل، واریانس شرطی. توزیع توابعی از متغیرهای تصادفی: روش تابع توزیع، روش تغییر متغیرها (دو یا چند متغیره)، روش تابع مولد گشتاور، توزیع مجموع متغیرهای تصادفی، مجموع تعداد تصادفی از متغیرهای تصادفی، امید ریاضی مجموع تعداد تصادفی از متغیرهای تصادفی. قضیه حد مرکزی و تقریب دوجمله ای توسط نرمال، تقریب پواسن به نرمال. آمار توصیفی: نمونه، جامعه آماری، شاخصهای آماری، نمودارهای آماری. نمونه تصادفی، توزیع میانگین نمونه ای، توزیع های نمونه ای، تی استودنت، کای-دو و توزیع فیشر. روشهای برآوردیابی پارامترهای نامعلوم: برآوردیابی نقطه ای، برآورد فاصله ای، فاصله اطمینان با اندازه نمونه\u200cهای بزرگ. آشنایی با مفاهیم آزمون فرضها: آزمون فرضهای ساده، آزمون فرض های یک طرفه، آزمون فرض های دوطرفه، آزمون واریانس جمعیت نرمال، آزمون میانگین و نسبت با اندازه نمونه های بزرگ، استنباط در مورد دو میانگین، استنباط در مورد جفت مشاهدات، آزمون میانگین و نسبت دو جمعیت با اندازه نمونه های بزرگ.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['مروری بر مباحث آمار توصیفی، پالایش داده\u200cها با اندازه\u200c وابعاد زیاد، رسم نمودار هسته\u200cهای چگالی یک و دومتغیره، آزمون\u200cهای نرمال یک و چند متغیره، کاربرد روش\u200cهای مونت\u200cکارلو در استنباط آماری، مقدمه\u200cای بر شیوه\u200c شبیه\u200cسازی در تولید داده\u200cهای تصادفی از چند توزیع آماری، مانند نرمال و تی-استیودنت، یک و چند متغیره و بررسی ویژگی آن\u200cها، مطالعات شبیه\u200cسازی برای آزمون برابری میانگین\u200cها، واریانس\u200cها و میانه\u200cهای جوامع با نمونه\u200cهای مستقل از توزیع\u200cهای نرمال و چند توزیع غیر نرمال. کاربرد روش مونت\u200cکارلو دریافتن احتمال\u200cهای پیچیده و p-مقدار برخی آزمون\u200cها، شبیه\u200cسازی مدل\u200cهای رگرسیون خطی با انواع متغیرهای توضیحی کمی و کیفی و با فرض مانده\u200cهای غیر نرمال و وابسته، بررسی استواری مدل نسبت به نقض فرض\u200cهای معمول، مباحث تکمیل\u200cکننده در صحت و اعتبار مدل\u200cهای برازش شده باوجود مشاهدات پرت و ناهمسانی واریانس، معرفی راهبردهای مناسب مانند رگرسیون استوار ناپارامتری، یافتن برآوردهای ماکسیمم درستنمایی توسط روش\u200cهای بهینه\u200cسازی عددی مانند نیوتن-رافسون و امتیاز فیشر، روش\u200c بوت\u200cاسترپ و جک\u200cنایف و کاربرد آن\u200cها در مباحث آماری؛ الگوریتمEM و کاربرد آن در برآورد یابی توزیع\u200cهای آمیخته متداول پیوسته و گسسته یک متغیره.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه. پروژه های درسی و نوشتن گزارش نتایج  توسط دانشجو،  مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیز نیاز دارد، فعالیت\x1fهای تعیین شده ای توسط استاد درس بایستی در آزمایشگاه نرم افزار ارائه شود و دانشجویان نیز فعالیت\x1fهای تعریف شده ای را انجام \x1fدهند.  \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['نمونه تصادفی، توزیع میانگین نمونه ای،  قضیه حدمرکزی، برآورد نقطه ای و ویژگی های آن، برآورد فاصله ای برای پارامترهای میانگین، واریانس و نسبت در یک جامعه و  مقایسه دو جامعه در حالات: جوامع نرمال، جوامع غیرنرمال، واریانس های دو جامعه معلوم، واریانس های دو جامعه مجهول و واریانس ها مجهول ولی برابر، حجم نمونه ها کم و حجم نمونه ها زیاد، بر اساس دو نمونه مستقل و دو نمونه وابسته،  آزمون فرضیه های آماری: بیان مفاهیم و اصول آزمون های آماری، انواع خطا و اهمیت آنها، اندازه آزمون، آزمون های پارامتری یک طرفه و دو طرفه برای میانگین، واریانس و نسبت یک جامعه و مقایسه  دو جامعه در حالات : واریانس معلوم، واریانس مجهول، میانگین معلوم، میانگین مجهول، حجم نمونه ها کم، حجم نمونه ها زیاد، دو جامعه مستقل و دو جامعه وابسته، نمودار پراکنش، براورد، آزمون فرض و فاصله اطمینان برای ضریب همبستگی پیرسون،  رگرسیون خطی ساده، آزمون خی دو برای نیکوئی برازش، جدول توافقی و آزمون استقلال، محاسبات و تحلیل داده با حداقل یک نرم افزار آماری و تفسیر خروجی های آن. \n', '`     `**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای تطابق. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، برش کمینه)، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف، مسائل مکان\u200cیابی. اجرای پروژه کاربردی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم\u200cهای انتقالی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- یادآوری مفاهیم حلقه، میدان، حلقه خارج قسمتی، حوزه ایده آل اصلی، حلقه چندجمله\u200cای\u200cها، الگوریتم تقسیم، فضای برداری روی میدان متناهی، پایه و بعد یک فضای برداری. تعریف مفاهیم ابتدایی کدگذاری شامل مجموعه الفبا، کد و کد کلمه، تعریف فاصله همینگ و خواص آن و ….  مقدمه\u200cای بر میدان\u200cهای متناهی. مقدمه\u200cای بر کدهای خطی. تعریف کد دوری.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه\u200cای بر رمزنگاری. ساختارهای اساسی رمزنگاری. رمزنگاری متقارن. رمزنگاری کلید عمومی. امضای دیجیتال. ریاضی رمز. تعاریف مبتنی بر شبیه\u200cسازی. مدل پیشگوی تصادفی. پروتکل های رمزنگاری. رمزنگاری کوانتومی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه ای بر امنیت ، تعریف امنیت، مفاهیم رمزنگاری – امنیت نرم افزار، تفاوت قابلیتهای امنیتی با قابلیتهای امن، تاثیر امنیت در فرایند مهندسی نرم افزار، نیازمندیهای کیفی نرم افزار، دسته بندی مخاطرات، مدلهای تولید نرم افزار امن )مدل مستقل ، مدل توزیع شده ، مدل متمرکز( - آنالیزهای ایستا و پویا ، آنالیز ایستا )محدودیتهای آنالیز ایستا، بازخوانی کد، مدل سازی، آنالیز الگوریتم(، آنالیز پویا )تست نفوذ( – مخاطرات مشهور، سرریز بافر، بررسی ورودی، خطاها و استثنائات، امنیت برنامه های تحت وب، سطح دسترسی، حریم خصوصی - استانداردهای موجود، ASVS\\OWASP ، Cert ، SDLC ، Clasp ،Criteria Common – ابزارهای آنالیز سورس کد ، ابزارهای ایستا ، ابزارهای پویا. \n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- معناشناسی عملیاتی. درستی یابی برنامه. تایپ های بازگشتی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['مفاهیم پایه ای نظریه بازی\u200cها،  تفاوت میان تصمیم\u200cگیری و بازی، طبقه\u200cبندی نظریه بازی ها، شاخه\u200cهای اصلی نظریه بازی\u200cها، تاریخچه\u200cی مختصر نظریه بازی\u200cها،  بازی\u200cهای ایستا با اطلاعات ناقص و اطلاعات کامل، فرم ماتریسی بازی، بازی متقارن،  بازی با سه بازیکن، بازی با بیش از سه بازیکن،  تعادل استراتژی غالب،  تعادل نش، تعریف تعادل نش در یک بازی n نفره، بازی\u200cهای کاملاً رقابتی،  رابطه بین تعادل نش با سایر جواب\u200cها،  بازی\u200cهای ایستا با اطلاعات کامل با استراتژی\u200cهای پیوسته،  استراتژی مختلط،  تعادل نش استراتژی مختلط در بازی\u200cهای کاملاً رقابتی، کاربردهای بازی ایستا با اطلاعات کامل در بازار، بازی انحصار دو جانبه، بازی برتراند،  حراج، مزایده و مناقصه،  مسئله منابع مشترک و مشاعات، بازی مکان\u200cیابی، مسأله شراکت، بازی پلیس و مجرم،  تبلیغات انتخاباتی، بازی\u200cهای پویا با اطلاعات  ناقص و کامل،  کاربردهایی از بازی\u200cهای پویا،  بازیهای تکراری، بازی با تکرار محدود،  بازی با تکرار نامحدود، تبانی و بازی با تکرار نامحدود، بازی های تکاملی، بازی\u200cهای همکارانه و تشکیل ائتلاف.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- احتمال و اثبات با روش احتمالاتی. الگوریتم\u200cهای تصادفی پایه\u200cای. جایگشت تصادفی و کاربردهای\u200c آن. کران پایین الگوریتم\u200cهای تصادفی. ساختمان\u200cداده. قدم\u200cزدن تصادفی. روش مونت کارلو. روش\u200cهای جبری. الگوریتم\u200cهای گراف. آنتروپی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - مقدمه \n', '- - معرفی درس، نمونه مسائل هندسی\n', '- - پوسته\u200cی محدب \n', '- - محاسبه\u200cی پوسته\u200cی محدب در صفحه، عملیات پایه\u200cی هندسی\n', '- - چند روش برای محاسبه\u200cی پوسته\u200cی محدب در صفحه\n', '- - اثبات کران پایین، قضیه\u200cی بن-اُر\n', '- - الگوریتم\u200cهای حساس به خروجی، دو الگوریتم بهینه از چن\n', '- - دوگان هندسی \n', '- - دوگان نقاط، پوش\u200cهای بالایی و پایینی، کاربردها، دوگان در فضای سه\u200cبعدی\n', '- - پوسته\u200cی محدب در فضای سه\u200cبعدی \n', '- - پیچیدگی ترکیبیاتی، نحوه\u200cی نمایش، الگوریتم کادوپیچی\n', '- - الگوریتم تصادفی کلارکسون-شور، پوسته\u200cی محدب در فضاهای بالاتر\n', '- - تقاطع و چینش خطوط \n', '- - ساخت چینش خطوط، الگوریتم افزایشی، قضیه\u200cی قلمرو یک خط\n', '- - تقاطع پاره\u200cخط\u200cها، الگوریتم جاروب صفحه، الگوریتم تقسیم و حل\n', '- - نمودار ورونوی و مثلث\u200cبندی دلونی \n', '- - تعریف نمودار ورونوی، ویژگی\u200cها و قضایا\n', '- - مثلث\u200cبندی دلونی و خواص آن، الگوریتم فورچیون\n', '- - ارتباط با پوسته\u200cی محدب، الگوریتم تصادفی ساخت\n', '- - کاربردهای نمودار ورونوی و مثلث\u200cبندی دلونی، نمودار ورونوی مرتبه\u200cی بالاتر\n', '- - برنامه\u200cریزی خطی \n', '- - تعریف برنامه\u200cریزی خطی، کاربردهای هندسی در فضای پایین\n', '- - الگوریتم هرس و جست\u200cوجوی مگیدو، الگوریتم تصادفی-افزایشی سایدل\n', '- - الگوریتم نمونه\u200cبرداری تصادفی کلارکسون\n', '- - مسائل شبیه به برنامه\u200cریزی خطی، کوچک\u200cترین دایره\u200cی محیطی\n', '- - مکان\u200cیابی نقاط \n', '- - روش تقسیم و حل، نقشه\u200cی ذوزنقه\u200cای، الگوریتم افزایشی تصادفی\n', '- - الگوریتم هرس و جست\u200cوجوی کرکپاتریک\n', '- - مثلث\u200cبندی چندضلعی \n', '- - روش ذوزنقه\u200cبندی، الگوریتم تصادفی سایدل\n', '- - کاربردهای مثلث\u200cبندی، مسئله\u200cی گالری هنر\n', '- - جست\u200cوجوی بازه\u200cای \n', '- - بازه\u200cهای متعامد: درخت کی\u200cدی، درخت بازه، آبشار کسری\n', '- - پنجره\u200cبندی، درخت جست\u200cوجوی اولویت، درخت پاره\u200cخط\n']</t>
-  </si>
-  <si>
-    <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', 'ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'نکته: توصیه می\u200cشود این درس با هماهنگی با درس شبکه\u200cهای عصبی گفته شود.\n']</t>
-  </si>
-  <si>
-    <t>['`   `مفاهیم مقدماتی و ابزارهای هوش تجاری، فرایند تصمیم گیری، سیستم\u200cهای پشتیبان تصمیم گیری، مفاهیم، روشها و تکنولوژی، تصمیم گیری براساس مدل های آماری در سیستم\u200cهای تجاری، داده کاوی در هوش تجاری،  فرایند استخراج، تبدیل و  بارگذاری داده\u200cها (ETL) ، وب کاوی، انبار داده\u200cها،  پاکسازی داده\u200cها، تهیه و ساخت جداول، ایجاد ارتباط بین جداول، طراحی و ساخت  انواع گزارش ها، گزارش های زمان محور و مکان محور روی نقشه، ساخت انواع نمودارها، ساخت و سفارشی سازی داشبوردهای مدیریتی با استفاده از نرم افزارهایی مانند Tableau، Power BI، Self-Service BI، Tableau Prep، QlikSense، ارائه پروژه های دانشجویان. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و در برخی مطالب نیاز به مهارت و کار با نرم افزارهای آماری برای تحلیل داده دارند. \n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['`    `مروری مختصر بر رگرسیون، لجستیک رگرسیون و مدل پرسپترون. معرفی تنسورها، عملیات روی تنسورها (برش، عملیات درجا و ...)، مشتق\u200cگیری خودکار، انتقال تنسورها به کارت گرافیک، آشنایی با انواع توابع فعالیت، توابع هزینه و الگوریتم\u200cهای بهینه\u200cسازی مورد استفاده در روال گرادیان کاهشی، روشهای ارزیابی (monitoring)، الگوریتم پس انتشار، بیش برازشی و کم برازشی، آماده\u200cسازی داده\u200cها،  منظم\u200cسازی، Dropout، شبکه\u200cهای عصبی متراکم (تمام متصل یا چگال)، شبکه\u200cهای عصبی پیچشی (کانولوشنی)، نمایش آنچه که لایه\u200cهای لایه\u200cهای پیچشی آموزش می\u200cبینند، یادگیری عمیق برای داده\u200cهای متنی و سری زمانی، شبکه\u200cهای برگشتی  (RNN, GRU, LSTM) و کاربردهای آنها. یادگیری خود کدگذارها، آشنایی با چند معماری معروف، انتقال یادگیری، یادگیری انتها به انتها، طبقه\u200cبندی داده\u200cهای تصویری، متنی، تنظیم پارامترها. شبکه\u200cهای مولد هم\u200cآورد (GAN)، نمایش برخی توانمندی\u200cهای یادگیری عمیق از طریق بیان مثالهای کاربردی از قبیل تولید متن، شناسایی چهره، تولید تصویر جعلی، رؤیای عمیق، انتقال سبک عصبی، نقاشی با شبکه\u200cهای عصبی و بیان توابع هزینه\u200cی مرتبط با آنها. آشنایی با حداقل یکی از کتابخانه\u200cهای معروف حوزه یادگیری عمیق مانند پای\u200cتورچ یا تنسورفلو. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', 'با توجه به اینکه پیش\u200cنیاز این درس، یادگیری ماشین مقدماتی است و در آن درس رگرسیون، مدل پرسپترون و شبکه\u200cهای چند لایه پرسپترونی گفته شده\u200cاند، در این درس می\u200cتوان به سرعت وارد مبحث موضوع یادگیری عمیق شد.\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- `\t`مقدمه ای بر مدلسازی، تعریف مدلسازی و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهای اقتصادی مدلهای بیویوژیکی و زیستی، مدلهای فیزیکی، مدلهای تصادفی، مدلهای دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازی: انواع توابع ونمایش آنها با استفاده از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازی، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهای اقتصادی از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازی، مقایسه بین، توابع خطی و نمایی در مدلسازی، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازی، رشد وکاهش نمایی، استفاده از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژی و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاده از گرافها در مدلسازی، بسط گرافها و گرافهای شیفت یافته و کاربرد آنها در مدلسازی همراه با ارائه چند مثال؛ توابع توانی و چند جمله ای ها در مدلسازی، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازی با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازی همراه با ارائه چند مثال.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- `\t`معرفی یکی از نرم افزارهای ریاضی، نحوه نصب و استفاده از راهنمای آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهای n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهای تابع، رسم نمودارهای دو بعدی، برنامه\u200cنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهای تقریبی برآورد انتگرال، دنباله\u200cها و سری ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- `\t`مروری گذرا بر منطق کالسیک (ارسطویی) و نظریه مجموعه\u200cهای کالسیک. تعریف مجموعه\u200cهای فازی و متغیر زبانی، تابع عضویت و انواع متداول آن (تابع عضویت منفرد، مثلثی، ذوزنقه و گوسی)، آشنایی با مفاهیم تکیهگاه، ارتفاع، مرکز، هسته، نرمال بودن، آلفا-برش. معرفی مفاهیم زیرمجموعه بودن فازی، مکمل فازی، اجتماع فازی، اشتراک فازی، قانون دمورگان.  مروری کوتاه بر نظریه امکان و تفاوت آن با نظریه احتمال. تعریف عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی و میانگین فازی. معرفی شرایط برقراری مجموعه انجمنی برای عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی. تعریف حاصلضرب دکارتی مجموعه\u200cهای فازی، تعریف رابطه فازی و ترکیب روابط فازی، تعریف تابع فازی، معرفی مفاهیم تصویر فازی، توسعه استوانهای فازی، اصل تجزیه فازی و اصل توسیع زاده. معرفی اعداد فازی، انواع اعداد فازی متداول (عدد فازی منفرد، مثلثی، ذوزنقه\u200cای و نمایی یا گوسی)، حساب اعداد فازی بر اساس دو روش اصل توسیع فازی و استفاده از آلفا-برشها، بررسی وجود جواب معادالت خطی فازی، رتبه بندی اعداد فازی. تعریف گزاره\u200cهای فازی، قواعد اگر- آنگاه فازی، تعریف استلزام فازی و کاربرد آن در ساختن یک سیستم استنتاج فازی(سیستم کنترل فازی). تعریف موتور استنتاج فازی، فازی ساز و انواع آن، پایگاه قواعد فازی، غیر فازی ساز و انواع آن. آشنایی با ساختن یک سیستم فازی ممدانی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه\u200cهای مستقل و خوشه ها.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- جبر خطی و فضاهای هیلبرت: یادآوری فضاهای برداری و خواص آن، ضرب داخلی و تعامد، عملگرهای خطی و خود الحاق روی فضای ضرب داخلی، فضاهای هیلبرت، دنباله ها و سری ها در فضای هیلبرت، پایه های متعامد؛ سری فوریه: دیدگاه های تاریخی، تحلیل سیگنال و مثال های متنوع، سری فوریه و قضایای همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی های تبدیل فوریه، تبدیل فوریه در فضاهای اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهای آن؛ موجک ها:  سیستم های هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه های موجکی، تبدیل های گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه و برپایی محیط توسعه اندروید \n', '- آشنایی با مفاهیم، ابزارها ، نحوه\u200cی خطایابی و آزمون در توسعه\u200cی برنامه\u200cهای اندروید، فرایند تولید یک برنامه اندروید\n', '- \u200eواسط کاربری و الگوهای آن\u200e \n', '- آشنایی با الگوی MVP، معرفی مولفه\u200cهای واسط کاربری، اصول طراحی و پیاده\u200cسازی یک واسط کاربری سفارشی ، مدیریت واسط کاربری به صورت پویا ، بهترین الگوهای  طراحی واسط کاربری در اندروید\n', '- مدیریت داده\u200cها و بومی\u200cسازی \n', '- ذخیره و بازیابی اطلاعات یک برنامه کاربردی در Preference اشتراکی و اختصاصی، ارتباط با پایگاه داده ، مکانیزم\u200cهای پشتیبانی از localization  و internationalization \n', '- حافظه و ریسمان\u200cها \n', '- چرخه\u200cی حیات برنامه اندروید ، مدل حافظه و مدیریت ریسمان\u200cها در اندروید، آشنایی با اصول پیاده\u200cسازی الگو AsyncTask\n', '- مدیریت سرویس\u200cها\u200e \n', '- سرویس\u200cهای مبتنی بر مکان ، مدیریت سرویس\u200cها و هشدارها ، مدیریت دوربین، مدیریت سنسورها ، آشنایی با پرداخت درون برنامه\u200cای\n', '- برپایی محیط توسعه iOS \n', '- آشنایی با مفاهیم و ابزارهای توسعه برنامه\u200cنویسی ، مروری بر مولفه\u200cهای واسط کاربری و آشنایی با Storyboards، آشنایی با الگوی MVC\n', '- برنامه\u200cنویسی با Swift \n', '- آشنایی با ساختار زبان، انواع داده\u200c، کلاس\u200cها و اشیا، قلمروها ، اختیاری\u200cها ، داده\u200cها و توابع عام ، آشنایی با پروتکل\u200cها ، مدیریت خطاها، مروری بر مدیریت حافظه\n', '- تکنولوژی\u200cهای iOS \n', '- تکنولوژی\u200cهای واسط کاربری، تکنولوژی\u200cهای بازی\u200cسازی ، تکنولوژی\u200cهای مدیریت داده\u200cها ، مدیریت صدا و تصویر \n', '-\n', '- امنیت\u200e، آشنایی با مخاطرات امنیتی و استانداردهای تخمین آن ، آشنایی با ابزارهای Obfuscation، آشنایی با ابزارهای تحلیل مخاطرات امنیتی\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - مقدمه \n', '- - کلیات درس، تاریخچه\u200cی وب، پروتکل\u200c HTTP\n', '- - طراحی صفحات \n', '- - ساختار HTML، عناصر و ویژگی\u200cها، پاراگراف\u200cبندی، فرمت\u200cبندی، لینک\u200cها، لیست\u200cها\n', '- - `      `تصاویر، جدول\u200cها، فرم\u200cها، عناصر جدید در HTML5\n', '- - سبک\u200cبندی \n', '- - تعریف CSS، فرمت\u200cبندی، انتخاب\u200cکننده\u200cها، وراثت و آبشار، اصول طراحی\n', '- - چیدمان صفحه، مدل جعبه\u200cای، نمایش شناور، موقعیت\u200cها، شبه\u200cکلاس\u200cها\n', '- - جاوا اسکریپت \n', '- - ساختار کلی زبان، کاربردها، دستورات و توابع، متغیرها و انواع داده\u200cای، ساختارهای کنترلی\n', '- - آرایه\u200cها، اشیاء، نحوه\u200cی تعریف اشیاء، سازنده\u200cها، نهان\u200cسازی داده\u200cها\n', '- - مدل DOM، ویرایش عناصر و سبک\u200cها، رسیدگی به رویدادها، استثناها\n', '- - کتاب\u200cخانه\u200cی jQuery، انتخاب\u200cکننده\u200cها، رویدادها، جلوه\u200cها و پویانمایی\n', '- - ذخیره\u200cی داده\u200cها \n', '- - آشنایی با XML، کاربردها، DTD، تبدیل توسط XSLT، آشنایی با JSON\n', '- - پایگاه\u200c داده\u200cهای رابطه\u200cای\u200c، ایجاد پایگاه داده، زبان پرس\u200cوجوی SQL\n', '- - تعامل با سرور \n', '- - رابط CGI، ارسال توسط GET و POST، پردازش فرم\u200cها، کوکی\u200cها\n', '- - استفاده از AJAX، ارسال درخواست، دریافت و تجزیه\u200cی پاسخ، کاربردها\n', '- - پایتون \n', '- - خواندن صفحات وب، کارگزار وب پایتون، آشنایی با WSGI\n', '- - معماری وب \n', '- لایه\u200cبندی، معماری کاربر-کارگزار، معماری سه\u200cلایه، معماری MVC\n', '- مدل\u200cهای داده، انواع رابطه\u200c، تطابق با پایگاه\u200c داده\u200cهای رابطه\u200cای\n', '- - چارچوب جنگو \n', '- مفاهیم اولیه، نصب و راه\u200cاندازی، مؤلفه\u200cها، معماری کلی\n', '- ایجاد یک پروژه، تعریف پایگاه داده، راه\u200cاندازی مدیر، افزودن نما\n', '- لایه\u200cی مدل، نگاشت\u200cگر شیء-رابطه، وراثت، اجرای پرس\u200cوجو\n', '- `     `لایه\u200cی نما، نگاشت نشانی\u200cها، اشیاء درخواست و پاسخ، نماهای عمومی\n', '- لایه\u200cی قالب\u200c، زبان تعریف قالب، تگ\u200cها و فیلترهای آماده\n', '- پردازش فرم\u200cها، ابزارک\u200cهای توکار، اعتبارسنجی\n', '- مباحث پیشرفته \n', '- میان\u200cافزارها، بهینه\u200cسازی، فشرده\u200cسازی، استفاده از کش\n', '- احراز هویت، کنترل دسترسی\u200cها، مدیریت کاربرها و گروه\u200cها\n', '- امنیت، محافظت در مقابل حملات امنیتی، رمزنگاری\n', '- `     `جلسات، ذخیره\u200cی حالت جلسه، روش\u200cهای ترکیبی\n', '- بین\u200cالمللی\u200cسازی، محلی\u200cسازی، ابزارهای ترجمه\u200c\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- برنامه\u200cنویسی مبتنی بر سوکت. سویچینگ بسته\u200cهای آی\u200cپی. آدرس\u200cدهی و هدایت مبتنی بر آی\u200cپی. قراردادهای انتقال (تی\u200cسی\u200cپی و یو\u200cدی\u200cپی\u200c). کنترل ازدحام. ترجمه\u200cی آدرس\u200cها (دی\u200cان\u200cاس\u200c، دی\u200cاچ\u200cسی\u200cپی و اِی\u200cآر\u200cپی\u200c). میان\u200cافزار (Middleware). سوئیچ ها و پل\u200cها (Switches and Bridges). اتصالات (Links). مسیریابی حالت اتصال. مسیریابی بردار فاصله و بردار مسیر. مسیریابی بردار مسیر مبتنی بر خط مشی (BGP). شبکه\u200cهای فرالایه\u200cای و همتا-به-همتا. جریان\u200cسازی چندرسانه\u200cای. سویچینگ مداری (Circuit Switching). شبکه\u200cهای بی\u200cسیم و همراه. شبکه توزیع محتوا (CDN). شبکه\u200cهای مبتنی بر نرم\u200c\u200cافزار.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه\u200cسازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصورسازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- خواص گرافی شبکه\u200cهای اجتماعی. نظریه بازی در شبکه\u200cهای اجتماعی. انتشار اطلاعات در شبکه\u200cهای اجتماعی. دینامیک شبکه\u200cهای اجتماعی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- بررسی کلی سیستمهای عامل. بررسی پیشینه های سیستم عامل. مدیریت فرآیند. مدیریت چند نخی. زمانبندی. مدیریت همزمانی. مدیریت بن بست و الگوریتم\u200cهای شناسایی و رفع بن بست. مدیریت ذخیره سازی. برنامه\u200cنویسی لینوکس.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- بررسی مدل های تولید نرم افزار(آبشاری و غیره)، روش های تعریف نیازها (صوری و غیر صوری)، روشهای وارسی و اعتبار سنجی، روشهای طراحی(از بالا به پایین، از پایین به بالا)، موضوعی، فرآروندی و داده ای، پیاده سازی، آزمون، اشکال زدایی، نگهداری، قابلیت اطمینان، استفاده مجدد، قابلیت حمل، کارآیی، طراحی نرم افزار بوسیله کامپیوتر، انجام پروژه تیمی.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- معرفی کلی کامپایلر. فاز تحلیل لغوی. آتوماتای متناهی. تجزیه بالا یه پایین. تجزیه پایین به بالا. تحلیل معنایی. تولید کد. \n']</t>
-  </si>
-  <si>
-    <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['معرفی بیوانفورماتیک، حوزه های علم بیوانفورماتیک، کاربردهای بیوانفورماتیک،  اساس بیوشیمی و زیست\u200cشناسی سلولی، ساختار مولکولی و شیمی فیزیکی پروتئین\u200cها و DNA، گرافیک مولکولی، بانک\u200cهای اطلاعاتی ساختاری، آنالیز توالی پروتئین و DNA، روشهای پیشگو به\u200cوسیله توالی\u200cهای پروتئین و DNA، آنالیز ژنومیک، کاربرد بالینی / پزشکی و درمانی Bio-informatics\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:**  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
-  </si>
-  <si>
-    <t>['**محتوای پروژه برای هر دانشجو و توسط استاد پروژه تعیین می شود.**\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**تدریس مفاهیم در جلسات اصلی درس و برگزاری کلاسهای مشاوره در طول نیمسال .**\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n', '-\n']</t>
-  </si>
-  <si>
-    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:** \n', 'تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس\n', '**ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:** کلاس درس و آزمایشگاه مجهز به رایانه و سرور. \n']</t>
-  </si>
-  <si>
-    <t>['بخش نظری: مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال، بخش محاسباتی: شامل شبیه\u200cسازی و روشهای محاسباتی فرآیندهای تصادفی تدریس شده (فرایند شمارشی برنولی،  فرایند گام برداری تصادفی-فرایندهای پواسون، زنجیر های مارکوف، مقدمه ای بر روشهای MCMC با استفاده از نرم افزار. \n']</t>
-  </si>
-  <si>
-    <t>['1- آشنایی با مفاهیم رایانش ابری، مدلهای مختلف استقرار و سرویس دهی 2- آشنایی با معماری مرجع رایانش ابری 3- آشنایی با مفاهیم مجازی سازی در سطح سخت افزار، در سطح سیستم عامل و در سطح زبان برنامه\u200cنویسی 4- آشنایی با مدلهای مختلف برنامه\u200cنویسی ابر مانند مدل کیسه وظایف، جریانهای کاری، مدل ریزخدمت 5- آشنایی با مفاهیم تحلیل داده\u200cهای عظیم و امکانات ابری برای پردازش این نوع داده\u200cها همچون: سیستم فایل توزیع شده مانند HDFS، پایگاه داده\u200cهای NoSQL همانند HBase، مدلهای برنامه\u200cنویسی مانند Map-Reduce، پردازش گرافی مانند Giraph و پردازش جریانی همانند Storm 6- آشنایی با مدیریت منابع و زمانبندی در ابر روشهای مختلف زمانبندی وظایف مستقل و جریانهای کاری 7- آشنایی با محاسبات ابری سبز و روشهای برقراری آن 8- آشنایی با مدلهای بین ابری همانند ابر متحد شده و چند ابری و تفاوتهای آنها، و آشنایی با مفهوم کارگزاری ابر 9- آشنایی با مفهوم محاسبات لبه ای و ارتباط آن با رایانش ابری، محاسبات ابری متحرک و انواع آن و محاسبات مهی\n']</t>
-  </si>
-  <si>
-    <t>['معرفی معماری سیستم\u200cهای چندهسته\u200cای و مدل\u200cهای برنامه\u200cنوسی موازی\n', 'تاریخچه ظهور سیستم\u200cهای چند\u200cهسته\u200cای،  چالش\u200cهای برنامه\u200cنویسی کارا روی سیستم\u200cهای چند\u200cهسته\u200cای، معرفی سطوح موازات در برنامه\u200cها، تحلیل تسریع در سیستم\u200cهای چند\u200cهسته\u200cای همگون و ناهمگون، ارائه\u200cی\u200c چند نمونه واقعی از سیستم\u200cهای چند\u200cهسته\u200cای\n', 'چند\u200cپردازنده\u200cها با حافظه مشترک، \n', 'معرفی کلی معماری،  ارائه\u200cی مسئله\u200cی Cache Coherence و راه\u200cحل\u200cها، معرفی اجمالی مدل برنامه\u200cنویسی و نحوه همگام\u200cسازی نخ\u200cها،\u200c نحوه برخورد با ناحیه\u200cهای بحرانی، ایده\u200cهای کلی در بهبود برنامه\u200cهای موازی\n', 'الگو\u200cهای رایج موازی\u200cسازی محاسبات و مدیریت داده\n', 'الگوهای محاسباتی موازی: Map, Reduction, Scan, Stencil, Recurrence, Fork-Join\n', 'الگوهای موازی مدیریت داده: Gather, Scatter, Pack, Geometric Decomposition &amp; Partitions\n', 'برنامه\u200cنویسی موازی عمومی در سیستم\u200cهای چند\u200cهسته ای\n', 'برنامه\u200cنویسی با Pthreads،\u200c برنامه\u200cنویسی با OpenMP\n', 'برنامه\u200cنوسی موازی در سیستم\u200cهای برداری\n', 'معرفی کلی سیستم\u200cهای برداری و آرایه\u200cای،\u200c معرفی ISA مخصوص پردازنده Intel برای محاسبات SIMD،\u200c معرفی معماری و نحوه برنامه\u200cنویسی پردازنده CELL BE\n', 'برنامه\u200cنویسی موازی در پردازنده\u200cهای گرافیکی عام\u200cمنظوره\n', 'معرفی جامع معماری پردازنده\u200cهای گرافیکی، معرفی معماری چند نمونه واقعی از پردازنده\u200cهای گرافیکی شرکت NVIDIA\n', 'برنامه\u200cنویسی با زبان CUDA، معرفی Profiler شرکت NVIDIA\n', 'معرفی اجمالی برنامه\u200cنویسی موازی در سیستم\u200cهای توزیع\u200cشده\n', 'معرفی کتابخانه Message Passing Interface (MPI) و نحوه\u200cی برنامه\u200cنویسی موازی براساس مدل تبادل پیام\n']</t>
-  </si>
-  <si>
-    <t>['--مفاهیم اولیه، سیگنال های زمان پیوسته و گسسته، متغیر مستقل و تبدیلات آن، دسته بندی سیگنال ها و سیستم ها، معرفی سیگنال های پایه (پیوسته و گسسته)، معرفی خواص سیستم ها: حافظه دار بودن، معکوس پذیری ، علی بودن، پایداری، خطی بودن و تغییر ناپذیر با زمان \n', '--سیستم\u200cهای خطی تغییر ناپذیر با زمان، کانولوشن گسسته و پیوسته، روشی سریع برای کانولوشن گسسته، خواص کانولوشن  \n', '، پاسخ ضربه و خواص سیستم های LTI، نمایش بلوکی سیستم های LTI \n', '--سری فوریه زمان-پیوسته ، سری فوریه عمومی و مبحث توابع متعامد، توابع متعامد لژاندر؛ والش، لاگر، نمایی مختلط، پاسخ سیستم های LTI به سیگنالهای نمایی مختلط، خواص سری فوریه، خواص سری فوریه، بحث همگرایی سری فوریه \n', '--تبدیل فوریه زمان –پیوسته، تبدیل فوریه زمان پیوسته، خواص تبدیل فوریه، نمایش بلوکی سیستم های LTI وتبدیل فوریه، پاسخ فرکانس و حل معادلات سیستم های LTI، تبدیل فوریه توابع خاص \n', '--کاربردهای تبدیل فوریه زمان-پیوسته، انواع فیلترها، نمونه برداری، مدولاسیون، دمدولاسیون، دسترسی چندگانه \n', '--سری فوریه زمان-گسسته، سری فوریه گسسته و تفاوتهای آن با سری پیوسته، پاسخ سیستم های LTI و سری فوریه گسسته ، خواص سری فوریه گسسته \n', '--تبدیل فوریه زمان-گسسته، تبدیل فوریه زمان گسسته، خواص تبدیل فوریه زمان گسسته، فیلترهای دیجیتال و تبدیل فوریه زمان گسسته، پاسخ فرکانس و حل معادلات سیستم های زمان گسسته، نمایش بلوکی سیستمهای گسسته با استفاده از تبدیل فوریه زمان گسسته، تبدیل DFT \n', '--تبدیل Z و خواص آن\n']</t>
-  </si>
-  <si>
-    <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n']</t>
-  </si>
-  <si>
-    <t>['**مروری بربردارها و ماتریسها:**جمع وتفریق و ضرب ماتریسها،ضرب داخلی و نرم بردارها و ماتریسها،ضرب داخلی و نرم توابع پیوسته، ماتریسهای منفرد و غیر منفرد و معکوس و متقارن و شبه متقارن ، ماتریسهای مختلط و مختلط مزدوج و هرمیتی و شبه هرمیتی ،یکین ، نرمال، قطری – مثلثی – متعامد – مثبت معین و نیمه معین – منفی معین و نیمه معین.\n', '**دستگاه معادلات جبری خطی:** معرفی دستگاه جبری خطی – روشهای حل دستگاه معادلات جبری خطی بر پایه الگوریتم های حذفی گوس – گوس جردن – محورگیری جزئی و کلی – حل دستگاه معادلات جبری خطی برپایه تجزیه ماتریسها – تجزیه LU – تجزیه چالسکی.\n', '**فضاهای برداری:** مفهوم میدان – بسته بودن نسبت به اعمال جمع و ضرب – فضای برداری – زیرفضاهای برداری – زیر فضای ستونهای یک ماتریس – مفهوم اسپن – استقلال و وابستگی خطی بردارها – مفهوم پایه و بعد در فضای برداری – رتبه ماتریس – فضای پوچی ماتریسها – تبدیلات خطی – تبدیلات پرکاربرد از قبیل انتقال ، انعکاس ، تغییر مقیاس و دوران .\n', '**متعامد سازی و مساله حداقل مربعات :** مفهوم متعامد سازی – تصاویر متعامد – الگوریتم گرام اشمیت – مساله حداقل مربعات و کاربرد آن در حل دستگاه معادلات ناسازگار – نحوه بدست آوردن معادلات نرمال و روش های حل آنها بصورت مستقیم با استفاده از تجزیه چالسکی و تچزیه QR  - برازش داده ها با روش حداقل مربعات.\n', '**مقادیر ویژه و بردارهای ویژه :** مفاهیم مقدار ویژه و بردار ویژه – محاسبه مقادیر ویژه با روشهای تکراری مانند روش توانی – استفاده از روش QR  - قطری سازی ماتریسها با مقادیر حقیقی و مختلط – قطری سازی ماتریسها با مقادیر ویژه تکراری.\n', '**چندجمله ای ها و توابع ماتریسی :** قضیه کیلی هامیلتون – کاربرد قضیه کیلی هامیلتون برای محاسبه معکوس ماتریس – محاسبه چندجمله ای های ماتریسی – محاسبه توابع ماتریسی.\n', '**تجزیه مقادیر منفرد :** مفهوم مقادیر منفرد- کاربردهای تجزیه مقادیر منفرد – تجزیه ماتریس ها براساس مقادیر منفرد – تعیین زیر فضاهای اساسی ماتریس. \n', '-\n']</t>
-  </si>
-  <si>
-    <t>['بازی چیست؟، انواع و دسته\u200cبندی بازیها،  چالش و پازل،  سیستم ارتقا بازیکنان،  مکانیکهای بازی (قوانین بازی، عملهای بازیکن، مهارتهای بازیکن و ...)،  خطهای داستان بازی،  ساختار گردش اقتصادی بازی (چگونه بازیکن انرژی و توان به دست میآورد و آن را در چه کارهای، سرمایه\u200cگذاری میکند)، متعادل\u200cسازی بازی (متعادل\u200cسازی سختی بازی، متعادل\u200cسازی دینامیک بازی)،  مراحل بازی،  چرخه\u200cهای تعاملی بازیکن با بازی، مشخص کردن محدودیتها، اهداف و دستاوردهای هر چرخه،  نحوه دسترسی اطلاعات بازیکن به بازی،  محیط جذاب و واسط کاربری بازی،  بازیهای چند نفره و نحوه تعامل افراد در بازی، جداول رده\u200cبندی بازیکنان، امکانات رقابت در بازیهای چندنفره، بازیهای استراتژیک، روابط احتمالی در بازیها، گیم پلی بازی، بخش پروژه-محور، تولید بازی ساده با موتور بازیسازی یونیتی، مشخص کردن اشیا بازی، انیمیشن بازی، کدنویسی script های بازی، مدیریت بازی . کنترل بازی، بخش بازیانگاری، مطالعه یک مسئله اجتماعی-تجاری از نگاه بازی انگاری، - استفاده از ابزارهای بازی برای ایجاد سازوکار برای حل مسئله.\n']</t>
-  </si>
-  <si>
-    <t>['تاریخچه و انواع زبانهای برنامه نویسی (رویه\u200cای،تابعی، شی گرا، منطق گرا، مختلط)، تأثیر سخت افزار، انتخاب مناسب زبان برای یک کاربرد معین،  ماشین های مجازی، سطوح تجرید و ترجمه زبان برنامه نویسی، تجرید داده، تجرید عملیات، متغیر، نام، نوع، حوزه و دوره حیات متغیر، نوع و حوزه متغیر ایستا و پویا، مقید سازی و زمان آن، اختصاص حافضه و جمع آوری آشغال، انواع داده ساده (مانند اعداد) و مرکب (مانند رکوردها)، معادل بودن انواع داده، تعریف نوع داده توسط برنامه نویس، تجرید عملیات و واحدهای برنامه، ساختمان های کنترل در یک یا چند واحد برنامه، روش های اشتراک اطلاعات بین چند واحد برنامه، برنامه های فرعی، عملیات موازی، انتقال پارامترها، تجرید توأم داده و عملیات، مروری بر زبانهای تابعی، شی گرا، منطق گرا و مقایسه آنها با زبانهای رویّه ای، مروری بر زبانهای نسل چهارم، طراحی و اجرای برنامه هایی به زبانهای تابعی، یا شی گرا، یا منطق گرا.\n']</t>
-  </si>
-  <si>
-    <t>['معرفی پردازش زبان طبیعی، تاریخچه مختصر، مسائل مختلف موجود در آن و چالش\u200cهای آن. عبارات منظم، توکنایزر، نرمالسازی، تشخیص ریشه و لما، تشخیص مرز جملات، روش\u200cهای پایه در مدل\u200cسازی زبانی، ان\u200cگرام\u200cها. آشنایی با روش\u200cهای مختلف بازنمایی کلمات: روش\u200cهای پایه\u200cای، روش\u200cهای مبتنی بر جبر خطی، روش\u200cهای مبتنی بر شبکه عصبی، چالش\u200cهای مختلف در بازنمایی کلمات و راه\u200cهای حل آن\u200cها. معرفی ساختار شبکه\u200cهای عصبی بازگشتی ساده و ساختارهای معروف مثل GLU و RNN، معرفی مدل\u200cهای روز ترجمه ماشینی، معرفی مدل توجه. معرفی مسایل دیگر در حوزه پردازش زبان طبیعی مانند استخراج اطلاعات، خلاصه\u200cسازی، برچسب\u200cزنی ادات سخن. آشنایی با برخی از کتابخانه\u200cهای پردازش متن مانند NLTK، Gensim و SpaCY. کاربردهایی از خوشه\u200cبندی و طبقه\u200cبندی اسناد.\n']</t>
+    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط و جمع و ضرب و ریشه آنها، نمایش های مختلف اعداد مختلط، دنباله های عددی، حد و قضایای مربوط، حد بینهایت و حد در بینهایت، حد چپ و راست،  پیوستگی، پیوستگی دنباله ای، قضیه مقدار میانی برای توابع پیوسته، قضیه مقدار اکسترمم برای توابع پیوسته، مشتق، دستورهای مشتق گیری، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه مشتق ترکیب توابع، قضیه فرما (صفر شدن مشتق در یک نقطه اکسترمم)، قضیه رل، قضیه مقدار میانگین، قضیه مقدار میانگین کشی، آزمون مشتق اول و دوم برای اکسترمم ها، تقعر منحنی، نقطه عطف، دیفرانسیل یک تابع، بسط تیلر، کاربردهای هندسی و فیزیکی مشتق، خم ها، سرعت و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه های معادلات، تعریف انتگرال توابع و انتگرال پذیری، قضیه مقدار میانگین برای انتگرال ها، قضایای اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش های تقریبی برآورد انتگرال، کاربرد انتگرال در محاسبه مساحت و حجم و طول منحنی و ...، لگاریتم و تابع نمایی و مشتق آنها، تابع های هذلولوی، روش های انتگرال گیری (همه روش ها)، آشنایی با تابع گاما و خواص آن، دنباله و سری به عنوان تایع، سری عددی، قضایای همگرایی مانند آزمون نسبت، ریشه و ...، تقریب استرلینگ، قضایای هم گرائی سری توانی و قضیه تیلر با باقیمانده و بدون باقیمانده. \n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['فضای اقلیدسی، معادلات پارامتری، مختصات فضائی، بردار در فضا، ضرب عددی، ضرب خارجی، معادلات خط و صفحه، رویه درجه دو، تابع برداری و مشتق آن، سرعت و شتاب، خمیدگی و بردارهای قائم بر منحنی، تابع چند متغیری، مشتق سوئی و جزئی، صفحه مماس و خط قائم، گردایان، قاعده زنجیری برای مشتق جزئی، دیفرانسیل کامل، انتگرال های دوگانه و چند گانه و کاربردهای آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیری (بدون اثبات دقیق)، مختصات استوانه ای و کروی، میدان برداری، انتگرال منحنی الخط، انتگرال رویه ای، دیورژانس، چرخه، لاپلاسین، پتانسیل، قضایای گرین و دیورژانس و استوکس.\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['اهداف درس با هر زبان برنامه\u200cنویسی سطح بالا محقق می\u200cشود، اما از آنجا که تاکید این برنامه درسی بر زبان برنامه\u200cنویسی پایتون است، سرفصل پیشنهادی نیز بر اساس این زبان ذکر می\u200cشود: مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، مستندسازی، کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '-\n', '- - آشنایی مقدماتی با تهیه اسناد کامپیوتری، کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- - تایپ ده انگشتی\n', '- - آشنایی مقدماتی با مجموعه میکروسافت آفیس\n', '- - آشنایی با سرویس\u200cهای کاربردی، سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- - آشنایی با سیستم عامل لینوکس، مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX، دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** آزمایشگاه کامپیوتر مجهز به ویدئو پروژکتور و نرم\u200cافزارهای موردنیاز\n']</t>
+  </si>
+  <si>
+    <t>['منطق گزاره ها و جدول ارزش. مجموعه\u200cها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه\u200cهای متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز، تابع توزیع توأم.\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['-\n', '- - چرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '- - محیط\u200cهای مجتمع توسعه\n', '- - ساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '- - برنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '- - وراثت در شی گرایی و چندریختی در شی گرایی\n', '- - مدیریت استثناء\n', '- - رابط گرافیکی و مفاهیم Interface\n', '- - کار با فایل\u200cها\n', '- - جریان داده\n', '- - کار با رشته و آرایه\n', '- - حافظه پویا\n', '- - (درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- - قالبها، فضای نام، auto، \n', '- - Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**پیشنهاد می\u200cشود در این درس**Modern C++ **تدریس شود و در انتها در قالب یکی دو جلسه، دانشجویان با جاوا آشنا شوند (یا بالعکس). و با هماهنگی بین مدرسان این درس و درس ساختمان داده\u200cها، در هر دو درس این دو زبان برنامه\u200cنویسی پوشش داده شود. یعنی اگر در این درس زبان C++ تدریس شد،  ساختمان داده\u200cها با جاوا تدریس شود.**\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['مرور فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات روی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، Threads.\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['آنالیز پیچیدگی زمان و حافظه الگوریتم\u200cها، توابع بازگشتی، معرفی ساختمان\u200cهای داده\u200cای مقدماتی (لیست پیوندی، پشته، صف و صف اولویت\u200cدار) و الگوریتم\u200cهای وابسته به آن\u200cها،  نمایش ماتریس\u200cها در حافظه، ماتریس\u200cهای تنک،\u200c تطابق رشته، درخت\u200cها و الگوریتم\u200cهای پیمایش مربوطه، درخت عبارت، تبدیل نگارش\u200cهای مختلف یک عبارت ریاضی، درهم\u200cسازی، گراف\u200cها و الگوریتم\u200cهای مربوط به گراف (BFS، DFS و ...) ، الگوریتم\u200cهای جستجو و مرتب\u200cسازی.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجیره ای ماتریس ها، درخت جستجوی بهینه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعالیت های بیشینه،  درخت پوشای کمینه.\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و کران و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پیچیدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n', '- آشنایی با UML\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** آزمایشگاه کامپیوتر مجهز به ویدئو پروژکتور و نرم\u200cافزارهای موردنیاز\n']</t>
+  </si>
+  <si>
+    <t>['مفاهیم پایه\u200cای (داده، فراداده، ساختارها و مدل داده\u200cها)، اصول طراحی پایگاه داده\u200cها (مدل مفهومی، نمودارهای ER، نرمال\u200cسازی، سیر تکاملی پایگاه داده\u200cها (فایل، شبکه، رابطه، شیء، شیء-رابطه، مکعب)، معرفی نرم افزارهای مدیریت پایگاه داده\u200cها (مزایا و معایب تکنولوژی¬ های مختلف)، به کارگیری یک نرم افزار مدیریت پایگاه داده\u200cها (SQL Server ، Oracle، MySQL)، زبان SQL، ساخت، حذف، و ویرایش پایگاه داده، جدول، و نما، درج، حذف، و ویرایش داده\u200cها، جستجوی داده\u200cها، مرتب سازی، انتخاب شرطی، قالب\u200cبندی نتایج جستجو، توابع محاسباتی و تجمیعی، ادغام دو یا چند جدول، آشنایی با تحلیل مه\u200cداده\u200cها با ابزارهای مدرن پایگاه داده\u200cها (SQL Server, Spark  و مانند اینها)، پایگاه داده\u200cهای غیر رابطه\u200cای.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتری، تبدیلها و ترکیب ها و ضرایب دوجمله ای، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزی و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوی که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس های صفر و یک (آماده سازی برای بخش مربع های لاتین و گراف ها)، آشنایی با ماتریس های آدامار و برخی نتایج در این مورد. گراف ها و مدل های مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهای آن در مدلسازی (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه ای، انواع اصلی گراف نظیر گراف های کامل، درخت ها، گراف های دوبخشی، گراف های اویلری و هامیلتونی و گراف های جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق های کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزی گراف ها و چند جمله ای رنگی (با ارائه مثال و الگوریتم). مربع های لاتین، طرح ها و هندسه های متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['آشنایی با منطق: آشنایی با منطق گزاره\u200cایی، زبان منطق گزاره\u200cایی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- اعداد حقیقی و آشنایی با فضاهای متریک و مفاهیم توپولوژیکی آن. مجموعه اعداد حقیقی، اصل کمال و خاصیت ارشمیدسی. مجموعه\u200cهای باز و بسته. مجموعه\u200cهای فشرده. مجموعه\u200cهای همبند. پیوستگی توابع. مشتق توابع. قضیه مقدار میانی و قضیه اکسترمم. پیوستگی یکنواخت. قضیه مقدار میانگین و قاعده هوپیتال. فضاهای متریک. دنباله\u200cها و همگرایی آن\u200cها. حد توابع. حفظ پیوستگی و همبندی توسط توابع پیوسته. آشنایی با تبدیل فوریه.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['مروری بر جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری. بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، تحلیل واریانس\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- بیان اهداف تحلیل سریهای زمانی با ذکر مثال\u200cهایی در زمینه\u200cهای مختلف مانند هواشناسی، موضوعات اقتصادی و مالی، روند، مولفه فصلی، تجزیه سری زمانی، برآورد روندها با مدل های رگرسیونی، هموارسازی، مفاهیم پایه\u200cای سری\u200cهای زمانی و فرآیندهای تصادفی(تابع میانگین و واریانس، تابع خود کوواریانس، خود همبستگی و خود همبستگی جزئی،\u200c مانایی)، فرآیند نوفه سفید، قدم زدن تصادفی، سری های عمومی خطی، میانگین متحرک و فرآیند خود بازگشت،  مدل\u200cهای ARMA  و ARIMA (فصلی و غیر فصلی)، در کلاس باکس- جنکینز، آزمون ریشه واحد، تفاضل\u200cگیری،  براورد پارامترها  (روشهای گشتاوری، کمترین مربعات و ماکسیمم درستنمایی)، پیش بینی، تحلیل باقیمانده ها و بررسی تشخیص مدلها، مناسبت مدل ها، آزمون\u200cهای خودهمبستگی، آزمون های نرمال بودن، ملاکهای AIC و BIC برای انتخاب مدل، مقدمه مدل های ناهمسان واریانس شرطی، تبدیلات باکس- کاکس.\n', '- توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'آشنایی با نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ساده، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، آنالیز مؤلفه\u200cهای اصلی (PCA) و تحلیل تفکیک خطی (تحلیل ممیزی یا (LDA.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس\u200cهای بهینه\u200cسازی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون مباحثی در علوم کامپیوتر یا دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پیش پردازش و آماده سازی داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استانداردسازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', '- تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی.\n', '- شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی.\n', '- روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', '- معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحلیل آنها بوسیله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با درس یادگیری ماشین مقدماتی اشتراک دارد، شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['`\t`آشنایی با زمینه های تحقیق در عملیات به ویژه در اقتصاد و یادگیری ماشین. مدل بندی مسائل بهینه سازی، مفاهیم پایه ای مرتبط با برنامه ریزی خطی شامل روشهای ترسیمی، سیمپلکس اولیه و دوگان، دوفازی، دوگانی، تحلیل حساسیت. روشهای حل مسائل حمل ونقل ساده و مرکب. مدل سازی مساله تخصیص و روش حل آن. آشنایی با برنامه ریزی عدد صحیح و روشهای شاخه و کران و صفحات برشی، آشنایی با ماشین بردار پشتیبان. معرفی یک نرم افزار یا زبان مدلسازی جهت حل مسائل بهینه سازی، مانند CPLEX  و Pyomo\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مدل سازی شامل: کاربردهایی از بهینه سازی محدب مانند طبقه بندی خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل های سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازی، شرایط لازم و کافی برای مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهای حل مسایل نامقید شامل: روشهای بر مبنای جستجوی خطی( جستجوی طلایی، فیبوناچی، عقب گرد)، روشهای گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش های گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازی درجه دوم محدب با قیود خطی و معرفی برخی روش های حل آن ؛ الگوریتم\u200cهای حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازی الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['•\tکسب و کارهای نوپا، به ویژه کسب و کارهای نوپای ناب\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- انقلاب صنعتی چهارم\n', '- روند حضور و نفوذ فناوری های دیجیتال در صنعت\n', '- انقلاب دیجیتال\n', '- تحول دیجیتال\n', '- روندهای اقتصادی و فناوری های مرتبط با اقتصاد دیجیتال\n', '- هوش مصنوعی / بلاک چین / اینترنت اشیا  / ...\n', '- مدل های کسب و کار در اقتصاد دیجیتال\n', '- انقلاب پلتفرم\n', '- تجارت الکترونیک نسل چهارم \n', '- تشخیص فرصت و ایده پردازی در فضای کسب و کارهای دیجیتالی\n', '- طراحی و راه اندازی کسب و کار در اقتصاد دیجیتالی\n', '- اصول تیم سازی در فضای کسب و کارهای دیجیتالی\n', '- اصول مدیریت پروژه و کار تیمی در فضای کسب و کارهای دیجیتالی \n', '- نقش های کلیدی در یک کسب و کار مبتنی بر اقتصاد دیجیتال\n', '- تدوین استراتژی ورود به بازار و اصول بازاریابی در کسب و کارهای دیجیتالی\n', '- تدوین استراتژی های جذب، حفظ و توسعه مشتریان در کسب و کارهای دیجیتالی\n', '- قیمت گذاری محصولات یا خدمات\n', '- روش های تامین مالی و شیوه ارائه به سرمایه گذار و الزامات آن\n', '- ارزشگذاری فناوری\n', '- اجزای اکوسیستم نوآوری مبتنی بر اقتصاد دیجیتال و آشنایی با نقش آنها\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['**محتوای کارآموزی برای هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n', '**روش یاددهی-یادگیری:** کار عملی در شرکت یا سازمان مربوطه\n', '**روش ارزیابی:** در اختیار مدرس\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه\u200cای بر هوش مصنوعی و تاریخچه\u200cی آن، معرفی عامل\u200cهای هوشمند، فضای حالت، جست\u200cوجوی ناآگاهانه، جست\u200cوجوی آگاهانه، الگوریتم \\*A و اثبات بهینگی، جست\u200cوجوی محلی، مسائل ارضای محدودیت، جست\u200cوجوی عقبگرد، حل مسائل CSP با رویکرد جستجوی محلی، جستجوی مقابله\u200cای، الگوریتم minimax و هرس آلفا-بتا، یادگیری تقویتی، روش\u200cهای مبتنی بر مدل، یادگیری تفاضل زمانی  و الگوریتم Q-learning، منطق، منطق گزاره\u200cای  و استنتاج  در منطق گزاره\u200cای، منطق مرتبه اول  و استنتاج در منطق مرتبه اول، معرفی شبکه\u200cهای بیزین، بازنمایی  در شبکه\u200cهای بیزین و استقلال  در این شبکه\u200cها، استنتاج در شبکه\u200cهای بیزین: استنتاج دقیق و استنتاج تقریبی با استفاده از نمونه برداری، تخمین پارامترها در شبکه\u200cهای بیزین، نمونه\u200cهای معروف و کاربردی از شبکه\u200cهای بیزین: مدل مارکوف، مدل مخفی مارکوف، دسته\u200cبند بیز ساده.\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- توزیعهای توام: تابع احتمال، تابع چگالی و تابع توزیع توام، متغیرهای تصادفی مستقل، کواریانس، ضریب همبستگی، مثال هایی از توزیع های توام خاص. توزیع های شرطی: توزیع های شرطی گسسته، توزیع های شرطی پیوسته، کاربرد توزیع های شرطی، امید ریاضی شرطی و کاربردهای آن شامل امید کل، واریانس شرطی. توزیع توابعی از متغیرهای تصادفی: روش تابع توزیع، روش تغییر متغیرها (دو یا چند متغیره)، روش تابع مولد گشتاور، توزیع مجموع متغیرهای تصادفی، مجموع تعداد تصادفی از متغیرهای تصادفی، امید ریاضی مجموع تعداد تصادفی از متغیرهای تصادفی. قضیه حد مرکزی و تقریب دوجمله ای توسط نرمال، تقریب پواسن به نرمال. آمار توصیفی: نمونه، جامعه آماری، شاخصهای آماری، نمودارهای آماری. نمونه تصادفی، توزیع میانگین نمونه ای، توزیع های نمونه ای، تی استودنت، کای-دو و توزیع فیشر. روشهای برآوردیابی پارامترهای نامعلوم: برآوردیابی نقطه ای، برآورد فاصله ای، فاصله اطمینان با اندازه نمونه\u200cهای بزرگ. آشنایی با مفاهیم آزمون فرضها: آزمون فرضهای ساده، آزمون فرض های یک طرفه، آزمون فرض های دوطرفه، آزمون واریانس جمعیت نرمال، آزمون میانگین و نسبت با اندازه نمونه های بزرگ، استنباط در مورد دو میانگین، استنباط در مورد جفت مشاهدات، آزمون میانگین و نسبت دو جمعیت با اندازه نمونه های بزرگ.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['مروری بر مباحث آمار توصیفی، پالایش داده\u200cها با اندازه\u200c وابعاد زیاد، رسم نمودار هسته\u200cهای چگالی یک و دومتغیره، آزمون\u200cهای نرمال یک و چند متغیره، کاربرد روش\u200cهای مونت\u200cکارلو در استنباط آماری، مقدمه\u200cای بر شیوه\u200c شبیه\u200cسازی در تولید داده\u200cهای تصادفی از چند توزیع آماری، مانند نرمال و تی-استیودنت، یک و چند متغیره و بررسی ویژگی آن\u200cها، مطالعات شبیه\u200cسازی برای آزمون برابری میانگین\u200cها، واریانس\u200cها و میانه\u200cهای جوامع با نمونه\u200cهای مستقل از توزیع\u200cهای نرمال و چند توزیع غیر نرمال. کاربرد روش مونت\u200cکارلو دریافتن احتمال\u200cهای پیچیده و p-مقدار برخی آزمون\u200cها، شبیه\u200cسازی مدل\u200cهای رگرسیون خطی با انواع متغیرهای توضیحی کمی و کیفی و با فرض مانده\u200cهای غیر نرمال و وابسته، بررسی استواری مدل نسبت به نقض فرض\u200cهای معمول، مباحث تکمیل\u200cکننده در صحت و اعتبار مدل\u200cهای برازش شده باوجود مشاهدات پرت و ناهمسانی واریانس، معرفی راهبردهای مناسب مانند رگرسیون استوار ناپارامتری، یافتن برآوردهای ماکسیمم درستنمایی توسط روش\u200cهای بهینه\u200cسازی عددی مانند نیوتن-رافسون و امتیاز فیشر، روش\u200c بوت\u200cاسترپ و جک\u200cنایف و کاربرد آن\u200cها در مباحث آماری؛ الگوریتمEM و کاربرد آن در برآورد یابی توزیع\u200cهای آمیخته متداول پیوسته و گسسته یک متغیره.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو. مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیز نیاز دارد، فعالیت\x1fهای تعیین شده ای توسط استاد درس بایستی در آزمایشگاه نرم افزار ارائه شود و دانشجویان نیز فعالیت\x1fهای تعریف شده ای را انجام \x1fدهند.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['نمونه تصادفی، توزیع میانگین نمونه ای،  قضیه حدمرکزی، برآورد نقطه ای و ویژگی های آن، برآورد فاصله ای برای پارامترهای میانگین، واریانس و نسبت در یک جامعه و  مقایسه دو جامعه در حالات: جوامع نرمال، جوامع غیرنرمال، واریانس های دو جامعه معلوم، واریانس های دو جامعه مجهول و واریانس ها مجهول ولی برابر، حجم نمونه ها کم و حجم نمونه ها زیاد، بر اساس دو نمونه مستقل و دو نمونه وابسته،  آزمون فرضیه های آماری: بیان مفاهیم و اصول آزمون های آماری، انواع خطا و اهمیت آنها، اندازه آزمون، آزمون های پارامتری یک طرفه و دو طرفه برای میانگین، واریانس و نسبت یک جامعه و مقایسه  دو جامعه در حالات : واریانس معلوم، واریانس مجهول، میانگین معلوم، میانگین مجهول، حجم نمونه ها کم، حجم نمونه ها زیاد، دو جامعه مستقل و دو جامعه وابسته، نمودار پراکنش، براورد، آزمون فرض و فاصله اطمینان برای ضریب همبستگی پیرسون،  رگرسیون خطی ساده، آزمون خی دو برای نیکوئی برازش، جدول توافقی و آزمون استقلال، محاسبات و تحلیل داده با حداقل یک نرم افزار آماری و تفسیر خروجی های آن. \n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n', '-\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای تطابق. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، برش کمینه)، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف، مسائل مکان\u200cیابی. اجرای پروژه کاربردی.\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم\u200cهای انتقالی.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- یادآوری مفاهیم حلقه، میدان، حلقه خارج قسمتی، حوزه ایده آل اصلی، حلقه چندجمله\u200cای\u200cها، الگوریتم تقسیم، فضای برداری روی میدان متناهی، پایه و بعد یک فضای برداری. تعریف مفاهیم ابتدایی کدگذاری شامل مجموعه الفبا، کد و کد کلمه، تعریف فاصله همینگ و خواص آن و ….  مقدمه\u200cای بر میدان\u200cهای متناهی. مقدمه\u200cای بر کدهای خطی. تعریف کد دوری.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه\u200cای بر رمزنگاری. ساختارهای اساسی رمزنگاری. رمزنگاری متقارن. رمزنگاری کلید عمومی. امضای دیجیتال. ریاضی رمز. تعاریف مبتنی بر شبیه\u200cسازی. مدل پیشگوی تصادفی. پروتکل های رمزنگاری. رمزنگاری کوانتومی.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه ای بر امنیت ، تعریف امنیت، مفاهیم رمزنگاری – امنیت نرم افزار، تفاوت قابلیتهای امنیتی با قابلیتهای امن، تاثیر امنیت در فرایند مهندسی نرم افزار، نیازمندیهای کیفی نرم افزار، دسته بندی مخاطرات، مدلهای تولید نرم افزار امن )مدل مستقل ، مدل توزیع شده ، مدل متمرکز( - آنالیزهای ایستا و پویا ، آنالیز ایستا )محدودیتهای آنالیز ایستا، بازخوانی کد، مدل سازی، آنالیز الگوریتم(، آنالیز پویا )تست نفوذ( – مخاطرات مشهور، سرریز بافر، بررسی ورودی، خطاها و استثنائات، امنیت برنامه های تحت وب، سطح دسترسی، حریم خصوصی - استانداردهای موجود، ASVS\\OWASP ، Cert ، SDLC ، Clasp ،Criteria Common – ابزارهای آنالیز سورس کد ، ابزارهای ایستا ، ابزارهای پویا. \n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- معناشناسی عملیاتی. درستی یابی برنامه. تایپ های بازگشتی.\n', '-\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- احتمال و اثبات با روش احتمالاتی. الگوریتم\u200cهای تصادفی پایه\u200cای. جایگشت تصادفی و کاربردهای\u200c آن. کران پایین الگوریتم\u200cهای تصادفی. ساختمان\u200cداده. قدم\u200cزدن تصادفی. روش مونت کارلو. روش\u200cهای جبری. الگوریتم\u200cهای گراف. آنتروپی.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - مقدمه \n', '- - معرفی درس، نمونه مسائل هندسی\n', '- - پوسته\u200cی محدب \n', '- - محاسبه\u200cی پوسته\u200cی محدب در صفحه، عملیات پایه\u200cی هندسی\n', '- - چند روش برای محاسبه\u200cی پوسته\u200cی محدب در صفحه\n', '- - اثبات کران پایین، قضیه\u200cی بن-اُر\n', '- - الگوریتم\u200cهای حساس به خروجی، دو الگوریتم بهینه از چن\n', '- - دوگان هندسی \n', '- - دوگان نقاط، پوش\u200cهای بالایی و پایینی، کاربردها، دوگان در فضای سه\u200cبعدی\n', '- - پوسته\u200cی محدب در فضای سه\u200cبعدی \n', '- - پیچیدگی ترکیبیاتی، نحوه\u200cی نمایش، الگوریتم کادوپیچی\n', '- - الگوریتم تصادفی کلارکسون-شور، پوسته\u200cی محدب در فضاهای بالاتر\n', '- - تقاطع و چینش خطوط \n', '- - ساخت چینش خطوط، الگوریتم افزایشی، قضیه\u200cی قلمرو یک خط\n', '- - تقاطع پاره\u200cخط\u200cها، الگوریتم جاروب صفحه، الگوریتم تقسیم و حل\n', '- - نمودار ورونوی و مثلث\u200cبندی دلونی \n', '- - تعریف نمودار ورونوی، ویژگی\u200cها و قضایا\n', '- - مثلث\u200cبندی دلونی و خواص آن، الگوریتم فورچیون\n', '- - ارتباط با پوسته\u200cی محدب، الگوریتم تصادفی ساخت\n', '- - کاربردهای نمودار ورونوی و مثلث\u200cبندی دلونی، نمودار ورونوی مرتبه\u200cی بالاتر\n', '- - برنامه\u200cریزی خطی \n', '- - تعریف برنامه\u200cریزی خطی، کاربردهای هندسی در فضای پایین\n', '- - الگوریتم هرس و جست\u200cوجوی مگیدو، الگوریتم تصادفی-افزایشی سایدل\n', '- - الگوریتم نمونه\u200cبرداری تصادفی کلارکسون\n', '- - مسائل شبیه به برنامه\u200cریزی خطی، کوچک\u200cترین دایره\u200cی محیطی\n', '- - مکان\u200cیابی نقاط \n', '- - روش تقسیم و حل، نقشه\u200cی ذوزنقه\u200cای، الگوریتم افزایشی تصادفی\n', '- - الگوریتم هرس و جست\u200cوجوی کرکپاتریک\n', '- - مثلث\u200cبندی چندضلعی \n', '- - روش ذوزنقه\u200cبندی، الگوریتم تصادفی سایدل\n', '- - کاربردهای مثلث\u200cبندی، مسئله\u200cی گالری هنر\n', '- - جست\u200cوجوی بازه\u200cای \n', '- - بازه\u200cهای متعامد: درخت کی\u200cدی، درخت بازه، آبشار کسری\n', '- - پنجره\u200cبندی، درخت جست\u200cوجوی اولویت، درخت پاره\u200cخط\n', '- **روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '- **روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '- **تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', 'ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'نکته: از آنجا که دانشجویان در دروس یادگیری ماشین مقدماتی و آشنایی با یادگیری عمیق با شبکه\u200cهای عصبی آشنایی پیدا می\u200cکنند، این موضوع در سرفصل این درس ذکر نشده است.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['`   `مفاهیم مقدماتی و ابزارهای هوش تجاری، فرایند تصمیم گیری، سیستم\u200cهای پشتیبان تصمیم گیری، مفاهیم، روشها و تکنولوژی، تصمیم گیری براساس مدل های آماری در سیستم\u200cهای تجاری، داده کاوی در هوش تجاری،  فرایند استخراج، تبدیل و  بارگذاری داده\u200cها (ETL) ، وب کاوی، انبار داده\u200cها،  پاکسازی داده\u200cها، تهیه و ساخت جداول، ایجاد ارتباط بین جداول، طراحی و ساخت  انواع گزارش ها، گزارش های زمان محور و مکان محور روی نقشه، ساخت انواع نمودارها، ساخت و سفارشی سازی داشبوردهای مدیریتی با استفاده از نرم افزارهایی مانند Tableau، Power BI، Self-Service BI، Tableau Prep، QlikSense، ارائه پروژه های دانشجویان. \n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['`    `مروری مختصر بر رگرسیون، لجستیک رگرسیون و مدل پرسپترون. معرفی تنسورها، عملیات روی تنسورها (برش، عملیات درجا و ...)، مشتق\u200cگیری خودکار، انتقال تنسورها به کارت گرافیک، آشنایی با انواع توابع فعالیت، توابع هزینه و الگوریتم\u200cهای بهینه\u200cسازی مورد استفاده در روال گرادیان کاهشی، روشهای ارزیابی (monitoring)، الگوریتم پس انتشار، بیش برازشی و کم برازشی، آماده\u200cسازی داده\u200cها،  منظم\u200cسازی، Dropout، شبکه\u200cهای عصبی متراکم (تمام متصل یا چگال)، شبکه\u200cهای عصبی پیچشی (کانولوشنی)، نمایش آنچه که لایه\u200cهای لایه\u200cهای پیچشی آموزش می\u200cبینند. کاربرد در پردازش سری\u200cهای زمانی، شبکه\u200cهای برگشتی  (RNN, GRU, GLU). یادگیری خود کدگذارها، آشنایی با چند معماری معروف، انتقال یادگیری، یادگیری انتها به انتها، طبقه\u200cبندی داده\u200cهای تصویری، متنی، تنظیم پارامترها. شبکه\u200cهای مولد هم\u200cآورد (GAN)، نمایش برخی توانمندی\u200cهای یادگیری عمیق از طریق بیان مثالهای کاربردی از قبیل تولید متن، شناسایی چهره، تولید تصویر جعلی، رؤیای عمیق، انتقال سبک عصبی، نقاشی با شبکه\u200cهای عصبی و بیان توابع هزینه\u200cی مرتبط با آنها. آشنایی با حداقل یکی از کتابخانه\u200cهای معروف حوزه یادگیری عمیق مانند پای\u200cتورچ یا تنسورفلو. \n', 'نکته: با توجه به اینکه پیش\u200cنیاز این درس، یادگیری ماشین مقدماتی است و در آن درس رگرسیون، مدل پرسپترون و شبکه\u200cهای چند لایه پرسپترونی گفته شده\u200cاند، در این درس می\u200cتوان به سرعت وارد مبحث موضوع یادگیری عمیق شد.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`مقدمه ای بر مدلسازی، تعریف مدلسازی و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهای اقتصادی مدلهای بیویوژیکی و زیستی، مدلهای فیزیکی، مدلهای تصادفی، مدلهای دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازی: انواع توابع ونمایش آنها با استفاده از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازی، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهای اقتصادی از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازی، مقایسه بین، توابع خطی و نمایی در مدلسازی، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازی، رشد وکاهش نمایی، استفاده از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژی و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاده از گرافها در مدلسازی، بسط گرافها و گرافهای شیفت یافته و کاربرد آنها در مدلسازی همراه با ارائه چند مثال؛ توابع توانی و چند جمله ای ها در مدلسازی، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازی با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازی همراه با ارائه چند مثال.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`معرفی یکی از نرم افزارهای ریاضی، نحوه نصب و استفاده از راهنمای آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهای n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهای تابع، رسم نمودارهای دو بعدی، برنامه\u200cنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهای تقریبی برآورد انتگرال، دنباله\u200cها و سری ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`مروری گذرا بر منطق کالسیک (ارسطویی) و نظریه مجموعه\u200cهای کالسیک. تعریف مجموعه\u200cهای فازی و متغیر زبانی، تابع عضویت و انواع متداول آن (تابع عضویت منفرد، مثلثی، ذوزنقه و گوسی)، آشنایی با مفاهیم تکیهگاه، ارتفاع، مرکز، هسته، نرمال بودن، آلفا-برش. معرفی مفاهیم زیرمجموعه بودن فازی، مکمل فازی، اجتماع فازی، اشتراک فازی، قانون دمورگان.  مروری کوتاه بر نظریه امکان و تفاوت آن با نظریه احتمال. تعریف عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی و میانگین فازی. معرفی شرایط برقراری مجموعه انجمنی برای عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی. تعریف حاصلضرب دکارتی مجموعه\u200cهای فازی، تعریف رابطه فازی و ترکیب روابط فازی، تعریف تابع فازی، معرفی مفاهیم تصویر فازی، توسعه استوانهای فازی، اصل تجزیه فازی و اصل توسیع زاده. معرفی اعداد فازی، انواع اعداد فازی متداول (عدد فازی منفرد، مثلثی، ذوزنقه\u200cای و نمایی یا گوسی)، حساب اعداد فازی بر اساس دو روش اصل توسیع فازی و استفاده از آلفا-برشها، بررسی وجود جواب معادالت خطی فازی، رتبه بندی اعداد فازی. تعریف گزاره\u200cهای فازی، قواعد اگر- آنگاه فازی، تعریف استلزام فازی و کاربرد آن در ساختن یک سیستم استنتاج فازی(سیستم کنترل فازی). تعریف موتور استنتاج فازی، فازی ساز و انواع آن، پایگاه قواعد فازی، غیر فازی ساز و انواع آن. آشنایی با ساختن یک سیستم فازی ممدانی.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه\u200cهای مستقل و خوشه ها.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- جبر خطی و فضاهای هیلبرت: یادآوری فضاهای برداری و خواص آن، ضرب داخلی و تعامد، عملگرهای خطی و خود الحاق روی فضای ضرب داخلی، فضاهای هیلبرت، دنباله ها و سری ها در فضای هیلبرت، پایه های متعامد؛ سری فوریه: دیدگاه های تاریخی، تحلیل سیگنال و مثال های متنوع، سری فوریه و قضایای همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی های تبدیل فوریه، تبدیل فوریه در فضاهای اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهای آن؛ موجک ها:  سیستم های هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه های موجکی، تبدیل های گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه و برپایی محیط توسعه اندروید \n', '- آشنایی با مفاهیم، ابزارها ، نحوه\u200cی خطایابی و آزمون در توسعه\u200cی برنامه\u200cهای اندروید، فرایند تولید یک برنامه اندروید\n', '- \u200eواسط کاربری و الگوهای آن\u200e \n', '- آشنایی با الگوی MVP، معرفی مولفه\u200cهای واسط کاربری، اصول طراحی و پیاده\u200cسازی یک واسط کاربری سفارشی ، مدیریت واسط کاربری به صورت پویا ، بهترین الگوهای  طراحی واسط کاربری در اندروید\n', '- مدیریت داده\u200cها و بومی\u200cسازی \n', '- ذخیره و بازیابی اطلاعات یک برنامه کاربردی در Preference اشتراکی و اختصاصی، ارتباط با پایگاه داده ، مکانیزم\u200cهای پشتیبانی از localization  و internationalization \n', '- حافظه و ریسمان\u200cها \n', '- چرخه\u200cی حیات برنامه اندروید ، مدل حافظه و مدیریت ریسمان\u200cها در اندروید، آشنایی با اصول پیاده\u200cسازی الگو AsyncTask\n', '- مدیریت سرویس\u200cها\u200e \n', '- سرویس\u200cهای مبتنی بر مکان ، مدیریت سرویس\u200cها و هشدارها ، مدیریت دوربین، مدیریت سنسورها ، آشنایی با پرداخت درون برنامه\u200cای\n', '- برپایی محیط توسعه iOS \n', '- آشنایی با مفاهیم و ابزارهای توسعه برنامه\u200cنویسی ، مروری بر مولفه\u200cهای واسط کاربری و آشنایی با Storyboards، آشنایی با الگوی MVC\n', '- برنامه\u200cنویسی با Swift \n', '- آشنایی با ساختار زبان، انواع داده\u200c، کلاس\u200cها و اشیا، قلمروها ، اختیاری\u200cها ، داده\u200cها و توابع عام ، آشنایی با پروتکل\u200cها ، مدیریت خطاها، مروری بر مدیریت حافظه\n', '- تکنولوژی\u200cهای iOS \n', '- تکنولوژی\u200cهای واسط کاربری، تکنولوژی\u200cهای بازی\u200cسازی ، تکنولوژی\u200cهای مدیریت داده\u200cها ، مدیریت صدا و تصویر \n', '-\n', '- امنیت\u200e، آشنایی با مخاطرات امنیتی و استانداردهای تخمین آن ، آشنایی با ابزارهای Obfuscation، آشنایی با ابزارهای تحلیل مخاطرات امنیتی\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - مقدمه \n', '- - کلیات درس، تاریخچه\u200cی وب، پروتکل\u200c HTTP\n', '- - طراحی صفحات \n', '- - ساختار HTML، عناصر و ویژگی\u200cها، پاراگراف\u200cبندی، فرمت\u200cبندی، لینک\u200cها، لیست\u200cها\n', '- - `      `تصاویر، جدول\u200cها، فرم\u200cها، عناصر جدید در HTML5\n', '- - سبک\u200cبندی \n', '- - تعریف CSS، فرمت\u200cبندی، انتخاب\u200cکننده\u200cها، وراثت و آبشار، اصول طراحی\n', '- - چیدمان صفحه، مدل جعبه\u200cای، نمایش شناور، موقعیت\u200cها، شبه\u200cکلاس\u200cها\n', '- - جاوا اسکریپت \n', '- - ساختار کلی زبان، کاربردها، دستورات و توابع، متغیرها و انواع داده\u200cای، ساختارهای کنترلی\n', '- - آرایه\u200cها، اشیاء، نحوه\u200cی تعریف اشیاء، سازنده\u200cها، نهان\u200cسازی داده\u200cها\n', '- - مدل DOM، ویرایش عناصر و سبک\u200cها، رسیدگی به رویدادها، استثناها\n', '- - کتاب\u200cخانه\u200cی jQuery، انتخاب\u200cکننده\u200cها، رویدادها، جلوه\u200cها و پویانمایی\n', '- - ذخیره\u200cی داده\u200cها \n', '- - آشنایی با XML، کاربردها، DTD، تبدیل توسط XSLT، آشنایی با JSON\n', '- - پایگاه\u200c داده\u200cهای رابطه\u200cای\u200c، ایجاد پایگاه داده، زبان پرس\u200cوجوی SQL\n', '- - تعامل با سرور \n', '- - رابط CGI، ارسال توسط GET و POST، پردازش فرم\u200cها، کوکی\u200cها\n', '- - استفاده از AJAX، ارسال درخواست، دریافت و تجزیه\u200cی پاسخ، کاربردها\n', '- - پایتون \n', '- - خواندن صفحات وب، کارگزار وب پایتون، آشنایی با WSGI\n', '- - معماری وب \n', '- لایه\u200cبندی، معماری کاربر-کارگزار، معماری سه\u200cلایه، معماری MVC\n', '- مدل\u200cهای داده، انواع رابطه\u200c، تطابق با پایگاه\u200c داده\u200cهای رابطه\u200cای\n', '- - چارچوب جنگو \n', '- مفاهیم اولیه، نصب و راه\u200cاندازی، مؤلفه\u200cها، معماری کلی\n', '- ایجاد یک پروژه، تعریف پایگاه داده، راه\u200cاندازی مدیر، افزودن نما\n', '- لایه\u200cی مدل، نگاشت\u200cگر شیء-رابطه، وراثت، اجرای پرس\u200cوجو\n', '- `     `لایه\u200cی نما، نگاشت نشانی\u200cها، اشیاء درخواست و پاسخ، نماهای عمومی\n', '- لایه\u200cی قالب\u200c، زبان تعریف قالب، تگ\u200cها و فیلترهای آماده\n', '- پردازش فرم\u200cها، ابزارک\u200cهای توکار، اعتبارسنجی\n', '- مباحث پیشرفته \n', '- میان\u200cافزارها، بهینه\u200cسازی، فشرده\u200cسازی، استفاده از کش\n', '- احراز هویت، کنترل دسترسی\u200cها، مدیریت کاربرها و گروه\u200cها\n', '- امنیت، محافظت در مقابل حملات امنیتی، رمزنگاری\n', '- `     `جلسات، ذخیره\u200cی حالت جلسه، روش\u200cهای ترکیبی\n', '- بین\u200cالمللی\u200cسازی، محلی\u200cسازی، ابزارهای ترجمه\u200c\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- برنامه\u200cنویسی مبتنی بر سوکت. سویچینگ بسته\u200cهای آی\u200cپی. آدرس\u200cدهی و هدایت مبتنی بر آی\u200cپی. قراردادهای انتقال (تی\u200cسی\u200cپی و یو\u200cدی\u200cپی\u200c). کنترل ازدحام. ترجمه\u200cی آدرس\u200cها (دی\u200cان\u200cاس\u200c، دی\u200cاچ\u200cسی\u200cپی و اِی\u200cآر\u200cپی\u200c). میان\u200cافزار (Middleware). سوئیچ ها و پل\u200cها (Switches and Bridges). اتصالات (Links). مسیریابی حالت اتصال. مسیریابی بردار فاصله و بردار مسیر. مسیریابی بردار مسیر مبتنی بر خط مشی (BGP). شبکه\u200cهای فرالایه\u200cای و همتا-به-همتا. جریان\u200cسازی چندرسانه\u200cای. سویچینگ مداری (Circuit Switching). شبکه\u200cهای بی\u200cسیم و همراه. شبکه توزیع محتوا (CDN). شبکه\u200cهای مبتنی بر نرم\u200c\u200cافزار.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه\u200cسازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصورسازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- خواص گرافی شبکه\u200cهای اجتماعی. نظریه بازی در شبکه\u200cهای اجتماعی. انتشار اطلاعات در شبکه\u200cهای اجتماعی. دینامیک شبکه\u200cهای اجتماعی.\n', '- انواع شبکه های اجتماعی،\u200c جهت دار/ بدون جهت، وزن دار/ بدون وزن، همگن/ ناهمگن\n', '- ` `مدل های شبکه Erdos–Rényi ، Small world ، Preferential attachment\n', '- ` `تحليل ساختاری شبکه های اجتماعی،  کوتاهترین مسير، قطر و شعاع شبکه، معيارهای مرکزیت\n', '- ` `تحليل رفتاری شبکه های اجتماعی،  انتشار اطلاعات، پيدا کردن گره های تاثيرگذار\n', '- آشنایی با کاربردهای شبکه های اجتماعی، بازاریابی، تشخيص جوامع، سيستم های توصيه و ...\n', '- بصری سازی\n', '- ` `آشنایی با ابزارهای تحليل شبکه های اجتماعی\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- بررسی کلی سیستمهای عامل. بررسی پیشینه های سیستم عامل. مدیریت فرآیند. مدیریت چند نخی. زمانبندی. مدیریت همزمانی. مدیریت بن بست و الگوریتم\u200cهای شناسایی و رفع بن بست. مدیریت ذخیره سازی. برنامه\u200cنویسی لینوکس.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مدل\u200cهای فرآیند نرم\u200cافزار: مدل آبشاری، مدل تدریجی،\u200c مدل تکاملی، مدل هم\u200cزمان\n', '- توسعه چابک، اصول چابک:\u200c مقدمه\u200cای بر چارچوب\u200cهای چابک: Scrum،\u200c مقدمه\u200cای بر نرم\u200cافزارها و ابزارهای چابک، مطالعه موردی در دنیای واقعی\n', '- فرآیند یکپارچه RUP: معرفی RUP، مدیریت نیازمندی\u200cها، زبان مدل\u200cسازی یکپارچه UML \n', '- مدل C4 برای معماری نرم\u200cافزار\n', '- اصول و الگوهای طراحی، اصول طراحی شی\u200cگرا: الگوهای طراحی نرم\u200cافزار (GoF)، استفاده از الگوهای طراحی در مواجهه با مسائل واقعی\n', '- ضدالگوها و code smellها: تشخصی ضدالگوها و code smellها\n', '- بهسازی نرم\u200cافزار: روش\u200cهای بهسازی نرم\u200cافزار، ابزارهای بهسازی نرم\u200cافزار، \n', '- کیفیت نرم\u200cافزار: مقدمه\u200eای بر مدل\u200cهای کیفیت نرم\u200cافزار، سنجه\u200cهای اندازه\u200cگیری کمّی کیفیت نرم\u200cافزار\n', '- معماری نرم\u200cافزار: مقدمه\u200cای بر مدل\u200eهای معماری نرم\u200cافزار، معماری Clean\n', '- آزمون نرم\u200cافزار: آزمون واحد، آزمون یکپارچگی، توسعه آزمون\u200cمحور (TDD)\n', '- طراحی نرم\u200cافزار به کمک هوش مصنوعی\n', '- انجام پروژه تیمی.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- معرفی کلی کامپایلر. فاز تحلیل لغوی. آتوماتای متناهی. تجزیه بالا یه پایین. تجزیه پایین به بالا. تحلیل معنایی. تولید کد. \n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['معرفی بیوانفورماتیک، حوزه های علم بیوانفورماتیک، کاربردهای بیوانفورماتیک،  اساس بیوشیمی و زیست\u200cشناسی سلولی، ساختار مولکولی و شیمی فیزیکی پروتئین\u200cها و DNA، گرافیک مولکولی، بانک\u200cهای اطلاعاتی ساختاری، آنالیز توالی پروتئین و DNA، روشهای پیشگو به\u200cوسیله توالی\u200cهای پروتئین و DNA، آنالیز ژنومیک، کاربرد بالینی / پزشکی و درمانی Bio-informatics\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['**محتوای پروژه برای هر دانشجو توسط استاد پروژه تعیین می شود.**\n', '**روش یاددهی-یادگیری:** **تدریس مفاهیم در جلسات اصلی درس و برگزاری کلاسهای مشاوره در طول نیمسال .**\n', '**روش ارزیابی:** با نظر مدرس درس\n', '**تجهیزات و امکانات موردنیاز:** با نظر مدرس درس\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور، سرور و کامپیوترپرقدرت برای محاسبات.\n']</t>
+  </si>
+  <si>
+    <t>['مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال.\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['معرفی معماری سیستم\u200cهای چندهسته\u200cای و مدل\u200cهای برنامه\u200cنوسی موازی\n', 'تاریخچه ظهور سیستم\u200cهای چند\u200cهسته\u200cای،  چالش\u200cهای برنامه\u200cنویسی کارا روی سیستم\u200cهای چند\u200cهسته\u200cای، معرفی سطوح موازات در برنامه\u200cها، تحلیل تسریع در سیستم\u200cهای چند\u200cهسته\u200cای همگون و ناهمگون، ارائه\u200cی\u200c چند نمونه واقعی از سیستم\u200cهای چند\u200cهسته\u200cای\n', 'چند\u200cپردازنده\u200cها با حافظه مشترک، \n', 'معرفی کلی معماری،  ارائه\u200cی مسئله\u200cی Cache Coherence و راه\u200cحل\u200cها، معرفی اجمالی مدل برنامه\u200cنویسی و نحوه همگام\u200cسازی نخ\u200cها،\u200c نحوه برخورد با ناحیه\u200cهای بحرانی، ایده\u200cهای کلی در بهبود برنامه\u200cهای موازی\n', 'الگو\u200cهای رایج موازی\u200cسازی محاسبات و مدیریت داده\n', 'الگوهای محاسباتی موازی: Map, Reduction, Scan, Stencil, Recurrence, Fork-Join\n', 'الگوهای موازی مدیریت داده: Gather, Scatter, Pack, Geometric Decomposition &amp; Partitions\n', 'برنامه\u200cنویسی موازی عمومی در سیستم\u200cهای چند\u200cهسته ای\n', 'برنامه\u200cنویسی با Pthreads،\u200c برنامه\u200cنویسی با OpenMP\n', 'برنامه\u200cنوسی موازی در سیستم\u200cهای برداری\n', 'معرفی کلی سیستم\u200cهای برداری و آرایه\u200cای،\u200c معرفی ISA مخصوص پردازنده Intel برای محاسبات SIMD،\u200c معرفی معماری و نحوه برنامه\u200cنویسی پردازنده CELL BE\n', 'برنامه\u200cنویسی موازی در پردازنده\u200cهای گرافیکی عام\u200cمنظوره\n', 'معرفی جامع معماری پردازنده\u200cهای گرافیکی، معرفی معماری چند نمونه واقعی از پردازنده\u200cهای گرافیکی شرکت NVIDIA\n', 'برنامه\u200cنویسی با زبان CUDA، معرفی Profiler شرکت NVIDIA\n', 'معرفی اجمالی برنامه\u200cنویسی موازی در سیستم\u200cهای توزیع\u200cشده\n', 'معرفی کتابخانه Message Passing Interface (MPI) و نحوه\u200cی برنامه\u200cنویسی موازی براساس مدل تبادل پیام\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['--مفاهیم اولیه، سیگنال های زمان پیوسته و گسسته، متغیر مستقل و تبدیلات آن، دسته بندی سیگنال ها و سیستم ها، معرفی سیگنال های پایه (پیوسته و گسسته)، معرفی خواص سیستم ها: حافظه دار بودن، معکوس پذیری ، علی بودن، پایداری، خطی بودن و تغییر ناپذیر با زمان \n', '--سیستم\u200cهای خطی تغییر ناپذیر با زمان، کانولوشن گسسته و پیوسته، روشی سریع برای کانولوشن گسسته، خواص کانولوشن  \n', '، پاسخ ضربه و خواص سیستم های LTI، نمایش بلوکی سیستم های LTI \n', '--سری فوریه زمان-پیوسته ، سری فوریه عمومی و مبحث توابع متعامد، توابع متعامد لژاندر؛ والش، لاگر، نمایی مختلط، پاسخ سیستم های LTI به سیگنالهای نمایی مختلط، خواص سری فوریه، خواص سری فوریه، بحث همگرایی سری فوریه \n', '--تبدیل فوریه زمان –پیوسته، تبدیل فوریه زمان پیوسته، خواص تبدیل فوریه، نمایش بلوکی سیستم های LTI وتبدیل فوریه، پاسخ فرکانس و حل معادلات سیستم های LTI، تبدیل فوریه توابع خاص \n', '--کاربردهای تبدیل فوریه زمان-پیوسته، انواع فیلترها، نمونه برداری، مدولاسیون، دمدولاسیون، دسترسی چندگانه \n', '--سری فوریه زمان-گسسته، سری فوریه گسسته و تفاوتهای آن با سری پیوسته، پاسخ سیستم های LTI و سری فوریه گسسته ، خواص سری فوریه گسسته \n', '--تبدیل فوریه زمان-گسسته، تبدیل فوریه زمان گسسته، خواص تبدیل فوریه زمان گسسته، فیلترهای دیجیتال و تبدیل فوریه زمان گسسته، پاسخ فرکانس و حل معادلات سیستم های زمان گسسته، نمایش بلوکی سیستمهای گسسته با استفاده از تبدیل فوریه زمان گسسته، تبدیل DFT \n', '--تبدیل Z و خواص آن\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['مروری بربردارها و ماتریسها:جمع وتفریق و ضرب ماتریسها،ضرب داخلی و نرم بردارها و ماتریسها،ضرب داخلی و نرم توابع پیوسته، ماتریسهای منفرد و غیر منفرد و معکوس و متقارن و شبه متقارن ، ماتریسهای مختلط و مختلط مزدوج و هرمیتی و شبه هرمیتی ،یکین ، نرمال، قطری – مثلثی – متعامد – مثبت معین و نیمه معین – منفی معین و نیمه معین.\n', 'دستگاه معادلات جبری خطی: معرفی دستگاه جبری خطی – روشهای حل دستگاه معادلات جبری خطی بر پایه الگوریتم های حذفی گوس – گوس جردن – محورگیری جزئی و کلی – حل دستگاه معادلات جبری خطی برپایه تجزیه ماتریسها – تجزیه LU – تجزیه چالسکی.\n', 'فضاهای برداری: مفهوم میدان – بسته بودن نسبت به اعمال جمع و ضرب – فضای برداری – زیرفضاهای برداری – زیر فضای ستونهای یک ماتریس – مفهوم اسپن – استقلال و وابستگی خطی بردارها – مفهوم پایه و بعد در فضای برداری – رتبه ماتریس – فضای پوچی ماتریسها – تبدیلات خطی – تبدیلات پرکاربرد از قبیل انتقال ، انعکاس ، تغییر مقیاس و دوران .\n', 'متعامد سازی و مساله حداقل مربعات : مفهوم متعامد سازی – تصاویر متعامد – الگوریتم گرام اشمیت – مساله حداقل مربعات و کاربرد آن در حل دستگاه معادلات ناسازگار – نحوه بدست آوردن معادلات نرمال و روش های حل آنها بصورت مستقیم با استفاده از تجزیه چالسکی و تچزیه QR  - برازش داده ها با روش حداقل مربعات.\n', 'مقادیر ویژه و بردارهای ویژه : مفاهیم مقدار ویژه و بردار ویژه – محاسبه مقادیر ویژه با روشهای تکراری مانند روش توانی – استفاده از روش QR  - قطری سازی ماتریسها با مقادیر حقیقی و مختلط – قطری سازی ماتریسها با مقادیر ویژه تکراری.\n', 'چندجمله ای ها و توابع ماتریسی : قضیه کیلی هامیلتون – کاربرد قضیه کیلی هامیلتون برای محاسبه معکوس ماتریس – محاسبه چندجمله ای های ماتریسی – محاسبه توابع ماتریسی.\n', 'تجزیه مقادیر منفرد : مفهوم مقادیر منفرد- کاربردهای تجزیه مقادیر منفرد – تجزیه ماتریس ها براساس مقادیر منفرد – تعیین زیر فضاهای اساسی ماتریس. \n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['بازی چیست؟، انواع و دسته\u200cبندی بازیها،  چالش و پازل،  سیستم ارتقا بازیکنان،  مکانیکهای بازی (قوانین بازی، عملهای بازیکن، مهارتهای بازیکن و ...)،  خطهای داستان بازی،  ساختار گردش اقتصادی بازی (چگونه بازیکن انرژی و توان به دست میآورد و آن را در چه کارهای، سرمایه\u200cگذاری میکند)، متعادل\u200cسازی بازی (متعادل\u200cسازی سختی بازی، متعادل\u200cسازی دینامیک بازی)،  مراحل بازی،  چرخه\u200cهای تعاملی بازیکن با بازی، مشخص کردن محدودیتها، اهداف و دستاوردهای هر چرخه،  نحوه دسترسی اطلاعات بازیکن به بازی،  محیط جذاب و واسط کاربری بازی،  بازیهای چند نفره و نحوه تعامل افراد در بازی، جداول رده\u200cبندی بازیکنان، امکانات رقابت در بازیهای چندنفره، بازیهای استراتژیک، روابط احتمالی در بازیها، گیم پلی بازی، بخش پروژه-محور، تولید بازی ساده با موتور بازیسازی یونیتی، مشخص کردن اشیا بازی، انیمیشن بازی، کدنویسی script های بازی، مدیریت بازی . کنترل بازی، بخش بازیانگاری، مطالعه یک مسئله اجتماعی-تجاری از نگاه بازی انگاری، - استفاده از ابزارهای بازی برای ایجاد سازوکار برای حل مسئله.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['تاریخچه و انواع زبانهای برنامه نویسی (رویه\u200cای،تابعی، شی گرا، منطق گرا، مختلط)، تأثیر سخت افزار، انتخاب مناسب زبان برای یک کاربرد معین،  ماشین های مجازی، سطوح تجرید و ترجمه زبان برنامه نویسی، تجرید داده، تجرید عملیات، متغیر، نام، نوع، حوزه و دوره حیات متغیر، نوع و حوزه متغیر ایستا و پویا، مقید سازی و زمان آن، اختصاص حافضه و جمع آوری آشغال، انواع داده ساده (مانند اعداد) و مرکب (مانند رکوردها)، معادل بودن انواع داده، تعریف نوع داده توسط برنامه نویس، تجرید عملیات و واحدهای برنامه، ساختمان های کنترل در یک یا چند واحد برنامه، روش های اشتراک اطلاعات بین چند واحد برنامه، برنامه های فرعی، عملیات موازی، انتقال پارامترها، تجرید توأم داده و عملیات، مروری بر زبانهای تابعی، شی گرا، منطق گرا و مقایسه آنها با زبانهای رویّه ای، مروری بر زبانهای نسل چهارم، طراحی و اجرای برنامه هایی به زبانهای تابعی، یا شی گرا، یا منطق گرا.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+  </si>
+  <si>
+    <t>['معرفی پردازش زبان طبیعی، تاریخچه مختصر، مسائل مختلف موجود در آن و چالش\u200cهای آن. عبارات منظم، توکنایزر، نرمالسازی، تشخیص ریشه و لما، تشخیص مرز جملات، روش\u200cهای پایه در مدل\u200cسازی زبانی، ان\u200cگرام\u200cها. آشنایی با روش\u200cهای مختلف بازنمایی کلمات: روش\u200cهای پایه\u200cای، روش\u200cهای مبتنی بر جبر خطی، روش\u200cهای مبتنی بر شبکه عصبی، چالش\u200cهای مختلف در بازنمایی کلمات و راه\u200cهای حل آن\u200cها. معرفی ساختار شبکه\u200cهای عصبی بازگشتی ساده و ساختارهای معروف مثل GLU و RNN، معرفی مدل\u200cهای روز ترجمه ماشینی، معرفی مدل توجه. معرفی مسایل دیگر در حوزه پردازش زبان طبیعی مانند استخراج اطلاعات، خلاصه\u200cسازی، برچسب\u200cزنی ادات سخن. آشنایی با برخی از کتابخانه\u200cهای پردازش متن مانند NLTK، Gensim و SpaCY. کاربردهایی از خوشه\u200cبندی و طبقه\u200cبندی اسناد.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
   </si>
   <si>
     <t>['-\n', '- - استوارت، ج. (1395). حساب دیفرانسیل و انتگرال (ج. حمیدی، مترجم). تهران: مؤسسه آموزشی و نشریاتی مدرسه.\n', '- - شهشهانی، س. (1396). حساب دیفرانسیل و انتگرال (ویراست 2). تهران: انتشارات فاطمی.\n', '- - Stewart, J. (2016). Calculus (8th ed.). Cengage Learning.\n', '- - Adams, R. A., &amp; Essex, C. (2018). Calculus: A complete course (9th ed.). Pearson.\n', '- - Finney, T., Demana, F., Waits, B. K., Kennedy, D., &amp; Rodgers, J. (2014). Calculus: Graphical, numerical, algebraic (4th ed.). Pearson.\n']</t>
   </si>
   <si>
-    <t>['- - ظهوری زنگنه، ح. (مترجم). (1394). معادلات دیفرانسیل مقدماتی و مسائل مقدماتی مرزی (ویرایش ۹). انتشارات فاطمی\n', '- - Boyce, W. E., DiPrima, R. C., &amp; Meade, D. B. (2017). Elementary Differential Equations and Boundary Value Problems (11th ed.). Wiley.\n', '- - Goode, S., &amp; Annin, S. A. (2016). Differential Equations and Linear Algebra by Stephen. Pearson.\n', '- - Edwards, C. H., &amp; Penney, D. E. (2008). Elementary Differential Equations (6th ed.). Pearson Education, Inc.\n', '- - Zill, D. G. (2012). A First Course in Differential Equations with Modeling Applications (10th ed.). Brooks/Cole, Cengage Learning.\n']</t>
+    <t>['-\n', '- - ظهوری زنگنه، ح. (مترجم). (1394). معادلات دیفرانسیل مقدماتی و مسائل مقدماتی مرزی (ویرایش ۹). انتشارات فاطمی\n', '- - Boyce, W. E., DiPrima, R. C., &amp; Meade, D. B. (2017). Elementary Differential Equations and Boundary Value Problems (11th ed.). Wiley.\n', '- - Goode, S., &amp; Annin, S. A. (2016). Differential Equations and Linear Algebra by Stephen. Pearson.\n', '- - Edwards, C. H., &amp; Penney, D. E. (2008). Elementary Differential Equations (6th ed.). Pearson Education, Inc.\n', '- - Zill, D. G. (2012). A First Course in Differential Equations with Modeling Applications (10th ed.). Brooks/Cole, Cengage Learning.\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Matthes, E. (2019). Python Crash Course: A Hands-On, Project-Based Introduction to Programming. No Starch Press.\n', '- - Downey, A. (2015). Think Python: How to Think Like a Computer Scientist (2nd ed.). Green Tea Press.\n', '- - Wentworth, P., Elkner, J., Downey, A. B., &amp; Meyers, C. (2011). How to Think Like a Computer Scientist: Learning with Python (3rd ed.). Open Book Project.\n', '- - Campbell, J., Gries, P., Montojo, J., &amp; Wilson, G. (2009). Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf.\n', '- - Zelle, J. M. (2004). Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates.\n', '- - Gorelick, M., &amp; Ozsvald, I. (2014). High-Performance Python. O’Reilly Media, Inc.\n', "- - Lutz, M. (2013). Learning Python (5th ed.). O'Reilly Media.\n", "- - Barry, P., &amp; Griffiths, D. (2009). Head First Programming. O'Reilly Media.\n", '- - Draper, B. (2020). Python Programming: A Complete Guide For Beginners To Master And Become An Expert.\n', '- - [Introduction To Computer Science And Programming In Python](https://ocw.mit.edu/courses/6-0001-introduction-to-computer-science-and-programming-in-python-fall-2016/pages/lecture-slides-code/), MIT Open Courseware\n', '- Some other references: &lt;https://github.com/ambadidi/Python-Books&gt;\n']</t>
@@ -1114,46 +1108,46 @@
     <t>['-\n', '- - موحد، ضیاء (1379). درآمدی به منطق جدید. انتشارات و آموزش انقلاب اسلامی.\n', '- - بردجربان ، ناصر (1377). مبانی و مقدمات علم ریاضی. مرکز نشر پرفسور حسابی.\n', '- - سپهری ، محمد رضا (1390). آشنائی با مبانی علوم ریاضی. مرکز نشر آینه.\n', '- - Halmos, P. R. (2017). I Set Theory. Courier Dover Publications.\n', '- - Stewart, I., &amp; Tall, D. (2015). The Foundations of Mathematics. Oxford University Press.\n', '- - Lin, S.-Y. T., &amp; Lin, Y.-F. (1985). Set Theory with Applications. Mancorp Pub.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - بهبودیان، جواد (1394). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا.\n', '- - قهرمانی، سعید (1397). مبانی احتمال، ویرایش سوم، ترجمه شاهکار، غ. و بزرگنیا، ا. انتشارات دانشگاه صنعتی شریف.\n', '- - راس، شلدون (1389). مبانی احتمال، ویرایش هشتم، ترجمه پارسیان، ا.، همدانی، ع. انتشارات شیخ بهایی.\n', '- - هاگ، ر. و تنیس، ل. آ. (1394). احتمال و استنباط آماری. ترجمه نوروز ایزددوستدار و حمید پزشک. انتشارات دانشگاه تهران.\n', '- - Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th ed.). Pearson.\n', '- - José Unpingco (2019). Python for Probability, Statistics, and Machine Learning (2nd ed.). Springer. Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', '- - Grimmett, G., &amp; Welsh, D. (2014). Probability: An Introduction (2nd ed.). Oxford University Press.\n', '- - Ghahramani, S. (2014). Fundamentals of Probability: with Stochastic Process (3rd ed.). CRC Press. \n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '**\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.e102faac-bb2e-4b96-b184-15e29fde7822.007.png)\n', '**\n']</t>
+    <t>['-\n', '- - بهبودیان، جواد (1394). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا.\n', '- - قهرمانی، سعید (1397). مبانی احتمال، ویرایش سوم، ترجمه شاهکار، غ. و بزرگنیا، ا. انتشارات دانشگاه صنعتی شریف.\n', '- - راس، شلدون (1389). مبانی احتمال، ویرایش هشتم، ترجمه پارسیان، ا.، همدانی، ع. انتشارات شیخ بهایی.\n', '- - هاگ، ر. و تنیس، ل. آ. (1394). احتمال و استنباط آماری. ترجمه نوروز ایزددوستدار و حمید پزشک. انتشارات دانشگاه تهران.\n', '- - Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th ed.). Pearson.\n', '- - José Unpingco (2019). Python for Probability, Statistics, and Machine Learning (2nd ed.). Springer. Source Codes of the book: [Github Page](https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E)\n', '- - Grimmett, G., &amp; Welsh, D. (2014). Probability: An Introduction (2nd ed.). Oxford University Press.\n', '- - Ghahramani, S. (2014). Fundamentals of Probability: with Stochastic Process (3rd ed.). CRC Press. \n', '**\n', '**پیشنهاد: این درس بشود کارگاه درس تحلیل آماری داده\u200cها – البته سرفصلش باید اصلاح بشه**\n']</t>
+  </si>
+  <si>
+    <t>['**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'برای پرورش  مهارت تحلیل داده\u200cها  و تسلط دانشجویان به نرم افزارهای آماری،  لازم است مدرس فعالیت های تعیین شده ای را در آزمایشگاه نرم افزار ارائه دهد و دانشجویان نیز فعالیت های تعریف شده ای را انجام دهند.  به طوری که نیمی از ساعات درس به آموزش تحلیل مقدماتی داده\u200cها  با استفاده از **نرم افزار اکسل**  اختصاص یابد.  دانشجویان نیز از طریق انجام پروژه های کلاسی با استفاده از داده\u200cهای واقعی و انجام تحلیل های مقدماتی گرافیکی و اکتشافی، در درس مشارکت داده شوند.  \n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n', '**منابع:** \n', '-\n', '- - گوس، جی و منیروپ، د. (1401). آمار با نرم افزار JMP: نمودارها، آمار توصیفی و احتمال، ترجمه: بزرگنیا، ا.، و همکاران، انتشارات فردوسی مشهد.\n', '- - وناکت، ت. چ. و ووناکت، ر. ج. (1393). آمار مقدماتی، جلد 1 و 2، ترجمه محمدرضا مشکانی، مرکز نشر دانشگاهی.\n', '- - Goos, P., &amp; Meintrup, D. (2015). Statistics with JMP: Graphs, Descriptive Statistics and Probability. Wiley.\n', '- - Rahlf, T. (2019). Data Visualisation with R: 111 Examples. Springer\n', '- - Gerbing, D.W.(2020) R Visualisation: Derive meening from Data. Chpman and Hall/CRC.\n', '` `«دروس تخصصی»\n', '![](Aspose.Words.045638bd-8a89-4dd3-bd71-306de3dcd810.007.png)\n', '**\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Horton, I., &amp; Van Weert, P. (2018). Beginning C++17: From Novice to Professional. Apress.\n', '- - Horton, I., &amp; Van Weert, P. (2020). Beginning C++20: From Novice to Professional. Apress.\n', '- - Deitel, P., &amp; Deitel, H. (2017). C++ How to Program (11th ed.). Pearson Education.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Romano, F., Phillips, D., &amp; van Hattem, R. (2016). Python: Journey from Novice to Expert. Packt Publishing.\n', '- - Wentworth, P., Elkner, J., Downey, A. B., &amp; Meyers, C. (2011). How to Think Like a Computer Scientist: Learning with Python (3rd ed.). Open Book Project.\n', '- - Campbell, J., Gries, P., Montojo, J., &amp; Wilson, G. (2009). Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf.\n', '- - Zelle, J. M. (2004). Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates.\n', "- - Gorelick, M., &amp; Ozsvald, I. (2014). High-Performance Python. O'Reilly Media, Inc.\n", '- - [DataPrep — Low code data preparation in Python](https://dataprep.ai/)\n']</t>
-  </si>
-  <si>
-    <t>['- قدسی، محمد (۱۳۹۳). داده\u200cساختارها و مبانی الگوریتم\u200cها (چاپ چهارم). انتشارات فاطمی.\n', '- قدسی، محمد، و نصیری شرق، آیدین (۱۳۹۷). ۶۰۰ مسئله\u200cی چندگزینه\u200cای از داده\u200cساختارها و الگوریتم\u200cها (چاپ ششم). انتشارات فاطمی\n', '- - Cormen, T. H. and Leiserson, C. E., Rivest, R. L. and Stein, C. (2009)., Introduction to Algorithms (3rd Ed), MIT Press. \n', '- - Manber, U.,  (1989).Introduction to Algorithms: A Creative Approach, Addison-Wesley. \n', '- - Sedgewick, R. and Wayne, K., (2011). Algorithms, 4th Ed, Addison-Wesley.\n', '- - Weiss, M. A., (2012). Data Structures and Algorithm Analysis in C++, 4th Ed, Addison Wesley. \n', '- Horowitz and Sahni, Fundamental of Data Structures, 4th Ed., CSP, 1994, (Pascal, C , C++ or Generic version(\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - Neopolitan, R. (2015). Foundations of algorithms. Jones &amp; Bartlett Learning.\n', '- - Kleinberg, J., &amp; Tardos, E. (2005). Algorithm Design. Addison Wesley.\n', '- - Cormen, T., Leiserson, C., Rivest, R., &amp; Stein, C. (2009). Introduction to Algorithms (3rd Ed.). MIT Press.\n', '- - Manber, U. (1989). Introduction to Algorithms: A Creative Approach. Addison-Wesley.\n', '- - Brassard, G., &amp; Bratley, P. (1988). Algorithmics: Theory and Practice. Prentice-Hall.\n', '**\n']</t>
+    <t>['-\n', '- - Romano, F., Phillips, D., &amp; van Hattem, R. (2016). Python: Journey from Novice to Expert. Packt Publishing.\n', '- - Wentworth, P., Elkner, J., Downey, A. B., &amp; Meyers, C. (2011). How to Think Like a Computer Scientist: Learning with Python (3rd ed.). Open Book Project.\n', '- - Campbell, J., Gries, P., Montojo, J., &amp; Wilson, G. (2009). Practical Programming: An Introduction to Computer Science Using Python. The Pragmatic Bookshelf.\n', '- - Zelle, J. M. (2004). Python Programming: An Introduction to Computer Science. Franklin, Beedle &amp; Associates.\n', "- - Gorelick, M., &amp; Ozsvald, I. (2014). High-Performance Python. O'Reilly Media, Inc.\n", '- - [DataPrep — Low code data preparation in Python](https://dataprep.ai/)\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['- قدسی، محمد (۱۳۹۳). داده\u200cساختارها و مبانی الگوریتم\u200cها (چاپ چهارم). انتشارات فاطمی.\n', '- قدسی، محمد، و نصیری شرق، آیدین (۱۳۹۷). ۶۰۰ مسئله\u200cی چندگزینه\u200cای از داده\u200cساختارها و الگوریتم\u200cها (چاپ ششم). انتشارات فاطمی\n', '- - Cormen, T. H. and Leiserson, C. E., Rivest, R. L. and Stein, C. (2009)., Introduction to Algorithms (3rd Ed), MIT Press. \n', '- - Manber, U.,  (1989).Introduction to Algorithms: A Creative Approach, Addison-Wesley. \n', '- - Sedgewick, R. and Wayne, K., (2011). Algorithms, 4th Ed, Addison-Wesley.\n', '- - Weiss, M. A., (2012). Data Structures and Algorithm Analysis in C++, 4th Ed, Addison Wesley. \n', '- Horowitz and Sahni, Fundamental of Data Structures, 4th Ed., CSP, 1994, (Pascal, C , C++ or Generic version(\n', '- - Goodrich, M. T., Tamassia, R., &amp; Goldwasser, M. H. (2014). Data structures and algorithms in Java. John Wiley &amp; Sons\n', '- - Drozdek, A. (2012). Data structures and algorithms in C++. Cengage Learning.\n', '- - Karumanchi, N. (2016). Data structures and algorithms made easy: Data structure and algorithmic puzzles. CareerMonk Publications.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Neopolitan, R. (2015). Foundations of algorithms. Jones &amp; Bartlett Learning.\n', '- - Kleinberg, J., &amp; Tardos, E. (2005). Algorithm Design. Addison Wesley.\n', '- - Cormen, T., Leiserson, C., Rivest, R., &amp; Stein, C. (2009). Introduction to Algorithms (3rd Ed.). MIT Press.\n', '- - Manber, U. (1989). Introduction to Algorithms: A Creative Approach. Addison-Wesley.\n', '- - Brassard, G., &amp; Bratley, P. (1988). Algorithmics: Theory and Practice. Prentice-Hall.\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Elmasri, R., &amp; Navathe, S. B. (2015). Fundamentals of Database Systems (7th ed.). Pearson.\n', '- - Silberschatz, A., Korth, H. F., &amp; Sudarshan, S. (2019). Database System Concepts (7th ed.). McGraw-Hill Education.\n', '- - Hoffer, J. A., Topi, H., &amp; Venkataraman, R. (2013). Essentials of Database Management. Pearson Higher Ed.\n', '- - Coronel, C., &amp; Morris, S. (2019). Database systems: design, implementation, &amp; management. Cengage Learning.\n', '- - Hoffer, J. A., Ramesh, V., &amp; Topi, H. (2016). Modern database management. Pearson.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Mano, M. Morris. (2003). Computer system architecture (3rd ed.). Prentice-Hall of India.\n', '- - Patterson, D. A., &amp; Hennessy, J. L. (2012). Computer organization and design: the hardware/software interface (Rev. ed.). Morgan Kaufmann. (Original work published 1998)\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - گریمالدی، ر. پ. (۱۳۷۷). ریاضیات گسسته و ترکیبیاتی، ترجمه محمدعلی رضوانی و بیژن شمس، انتشارات فاطمی.\n', '- - Anderson, I. (1989). A first course in combinatorial mathematics. Clarendon Press.\n', '- - Grimaldi, R. P. (2006). Discrete and Combinatorial Mathematics (5th ed.). Pearson Education India.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - Henle, J. M. (1986). An Outline of Set Theory. Springer-Verlag.\n', '- - Huth, M., &amp; Ryan, M. (2004). Logic in Computer Science: Modelling and reasoning about systems. Cambridge university press.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - Sipser, M. (2012). Introduction to the Theory of Computation. Cengage Learning.\n', '- - Boolos, G., Burgess, J., &amp; Jeffrey, R. (2007). Computability and Logic (5th ed.). Cambridge University Press.\n', '- - Kozen, D. (2006). Theory of Computation. Springer.\n', '- - Hedman, S. (2004). A First Course in Logic: An Introduction to Model Theory, Proof Theory, Computability, and Complexity. Oxford University Press.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - ون لوان، چارلز فرانسیس (۱۴۰۱)،  مقدمه ای بر محاسبات علمی، ترجمه دکتر فائزه توتونیان و دکتر داود خجسته سالکویه.\n', '- - کرایچیان، ع. (۱۴۰۱). جبر خطی با متلب. انتشارات دانشگاه فردوسی مشهد\n', "- - O'Leary, D. P. (2009). Scientific Computing with Case Studies.\n", '- - Trefethen, L. N., &amp; Bau III, D. (1997). Numerical Linear Algebra (Vol. 50). SI\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - Burden, R. L., &amp; Faires, J. D. (2011). Solutions of equations in one variable: the bisection method. Brooks/Cole, Cengage Learning.\n', '- - Dahlquist, G., &amp; Björck, Å. (2008). Numerical methods in scientific computing, volume I. Society for Industrial and Applied Mathematics.\n', '- - Süli, E., &amp; Mayers, D. F. (2003). An introduction to numerical analysis. Cambridge university press.\n', '- - Hildebrand, F. B. (1987). Introduction to numerical analysis. Courier Corporation.\n', '- - Stoer, J., &amp; Bulirsch, R. (2013). Introduction to numerical analysis (Vol. 12). Springer Science &amp; Business Media.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - میرزا وزیری، م. (۱۳۸۸). فضاهای متریک با طعم توپولوژی (چاپ سوم). مشهد: انتشارات دانشگاه فردوسی.\n', '- - Rudin, W. (1964). Principles of mathematical analysis (Vol. 3). New York: McGraw-hill.\n', '- - Gordon, R. A. (2001). Real analysis: A first course. Addison Wesley.\n']</t>
+    <t>['-\n', '- - Patterson, D. A., &amp; Hennessy, J. L. (2014). Computer organization and design: the hardware/software interface (Fifth. ed.). Morgan Kaufmann.  url: &lt;https://www.academia.edu/31944631/Computer_Organization_and_Design_5th_Edition_Patterson_Hennessy&gt;\n', '- - Mano, M. Morris. (2003). Computer system architecture (3rd ed.). Prentice-Hall of India.\n', '-\n', '- \n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - گریمالدی، ر. پ. (۱۳۷۷). ریاضیات گسسته و ترکیبیاتی، ترجمه محمدعلی رضوانی و بیژن شمس، انتشارات فاطمی.\n', '- - Stein, C., Drysdale, R. L., &amp; Bogart, K. (2011). Discrete Mathematics for Computer Scientists, Addison-Wesley, url: &lt;http://cslabcms.nju.edu.cn/problem_solving/images/1/1f/Discrete_Mathematics_for_Computer_Scientists.pdf&gt;\n', '- - کتاب بالا فصلی در مورد رمزنگاری هم دارد – به مباحث منطق برای علوم کامپیوتر هم پرداخته است\n', '- - Haggard, G., Schlipf, J. S., &amp; Whinston, A. B. (2006). Discrete Mathematics for Computer Scientists. Brooks/Cole Publishing. url: &lt;https://www2.cs.uh.edu/~arjun/courses/ds/DiscMaths4CompSc.pdf&gt;\n', '- - Anderson, I. (1989). A first course in combinatorial mathematics. Clarendon Press.\n', '- - Grimaldi, R. P. (2006). Discrete and Combinatorial Mathematics (5th ed.). Pearson Education India.\n', '- - Harris, J. M., Hirst, J. L., &amp; Mossinghoff, M. J. (2008). Combinatorics and Graph Theory. Springer. PDF: &lt;http://mezbanhabibi.ir/wp-content/uploads/2020/01/Combinatorics-and-Graph-theory.pdf&gt;\n', '- - Cameron, P. J. (1996). Combinatorics: Topics, Techniques, Algorithms. Cambridge University Press. Retrieved from &lt;https://webspace.maths.qmul.ac.uk/p.j.cameron/comb/&gt;\n', '- - Brualdi, R. A. (2009), Introductory Combinatorics (5th Edition), Pearson Education. &lt;https://newsite.kashanu.ac.ir/Files/IntroductoryCombinatorics.pdf&gt;\n', '- - Tucker, A. (2012). Applied Combinatorics. Wiley. url: &lt;https://www.wiley.com/en-sg/Applied+Combinatorics,+6th+Edition-p-9780470458389&gt;\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Henle, J. M. (1986). An Outline of Set Theory. Springer-Verlag.\n', '- - Huth, M., &amp; Ryan, M. (2004). Logic in Computer Science: Modelling and reasoning about systems. Cambridge university press.\n', '- - Lehman, E., Leighton, F. T., Meyer.  A. R. (2018), Mathematics for Computer Science, Samurai Media Limited, url: &lt;https://courses.csail.mit.edu/6.042/spring18/mcs.pdf&gt;\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Sipser, M. (2012). Introduction to the Theory of Computation. Cengage Learning.\n', '- - Boolos, G., Burgess, J., &amp; Jeffrey, R. (2007). Computability and Logic (5th ed.). Cambridge University Press.\n', '- - Kozen, D. (2006). Theory of Computation. Springer.\n', '- - Hedman, S. (2004). A First Course in Logic: An Introduction to Model Theory, Proof Theory, Computability, and Complexity. Oxford University Press.\n', '- - Arora, S., &amp; Barak, B. (2007). Computational Complexity A Modern Approach. Princeton University. Retrieved from &lt;https://theory.cs.princeton.edu/complexity/&gt;\n', '- - Wigderson, A. (2019), Mathematics and Computation, A Theory Revolutionizing Technology and Science, Princeton University Press. Retrieved from &lt;https://www.math.ias.edu/files/Book-online-Aug0619.pdf&gt;\n', '- - Moore, C., &amp; Mertens, S. (2011). The Nature of Computation. Oxford University Press. Retrieved from &lt;https://www-2.dc.uba.ar/staff/becher/Hopcroft-Motwani-Ullman-2001.pdf&gt;\n', '- - Singh, A. (2009), Elements of Computation Theory, Springer London, &lt;url:https://link.springer.com/book/10.1007/978-1-84882-497-3&gt;\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['\\2.\tدستگاه معادلات خطی و ماتریسها. دترمینان. ماتریس های نواری. ماتریس های بلوکی. بردار ویژه و مقادیر ویژه. قضیه کیلی همیلتون. نرم برداری و ماتریسی. حل دستگاه های خطی. تجزیه LU. تحلیل حساسیت دستگاههای خطی. تجزیه چولسکی، تجزیه QR و تجزیه هوس هولدر. دستگاه های هزنبرگ. روش های تکراری برای حل دستگاه های خطی از جمله ژاکوبی، گاوس-سایدل و SOR . روش های عددی برای یافتن مقادیر ویژه ماتریس ها. \n', '\\3.\tاعمال ماتریسی بازگشتی. تبدیل فوریه سریع در هیچ کدام از درسهای الزامی تبدیل فوریه نیست! در سرفصل آمار یک درس تعریف شده با نام ریاضی برای آمار که ترکیبی از معادلات، توابع مختلط و گراف هست و در اون درس تبدیل فوریه گفته شده.\n', '\\4.\tپیاده\u200cسازی مسائل با ماتریس\u200cهای بدحالت، پیاده\u200cسازی\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n', '**منابع**: \n', '-\n', '- - ون لوان، چارلز فرانسیس (۱۴۰۱)،  مقدمه ای بر محاسبات علمی، ترجمه دکتر فائزه توتونیان و دکتر داود خجسته سالکویه.\n', '- - کرایچیان، ع. (۱۴۰۱). جبر خطی با متلب. انتشارات دانشگاه فردوسی مشهد\n', "- - O'Leary, D. P. (2009). Scientific Computing with Case Studies.\n", '- - Trefethen, L. N., &amp; Bau III, D. (1997). Numerical Linear Algebra (Vol. 50). SI\n', '- - موارد زیر از برنامه درسی آمار گرفته شده\u200cاند. لطفا چک شوند و درصورت امکان آدرس اینترنتی مرتبط با هر یک درج شود.\n', '- - Strang, G. (2020). Linear Algebra for Everyone. Cambridge University Press.\n', '- - Strang, G. (2019). Linear Algebra and Learning from Data. Cambridge Press.\n', '- - Searle, S. R. and Khuri, A. I. (2017). Matrix algebra useful for statistics. John Wiley &amp; Sons.\n', '- - Hill, David, Kolman, Bernard (2008). Elementary Linear Algebra with Applications (9th Edition). Prentice Hall PTR. \n', '- - Fieller, N. (2018). Basics of matrix algebra for statistics with R. Chapman and Hall/CRC.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n', '**منابع**: \n', '-\n', '- - Burden, R. L., &amp; Faires, J. D. (2011). Solutions of equations in one variable: the bisection method. Brooks/Cole, Cengage Learning.\n', '- - Dahlquist, G., &amp; Björck, Å. (2008). Numerical methods in scientific computing, volume I. Society for Industrial and Applied Mathematics.\n', '- - Süli, E., &amp; Mayers, D. F. (2003). An introduction to numerical analysis. Cambridge university press.\n', '- - Hildebrand, F. B. (1987). Introduction to numerical analysis. Courier Corporation.\n', '- - Stoer, J., &amp; Bulirsch, R. (2013). Introduction to numerical analysis (Vol. 12). Springer Science &amp; Business Media.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - میرزا وزیری، م. (۱۳۸۸). فضاهای متریک با طعم توپولوژی (چاپ سوم). مشهد: انتشارات دانشگاه فردوسی.\n', '- - رودین و. (1395). اصول آنالیز ریاضی، ترجمه علی\u200cاکبر عالم زاده،  انتشارات علمی و فنی. \n', '- - آپوستل،  تام. (1394). آنالیز ریاضی، ترجمه علی\u200cاکبر عالم زاده، دانشگاه صنعتی شریف.\n', '- - Rudin, W. (1964). Principles of mathematical analysis (Vol. 3). New York: McGraw-hill.\n', '- - Gordon, R. A. (2001). Real analysis: A first course. Addison Wesley.\n', '- - Abbott, S. (2015). Understanding Analysis, 2nd  Editions, Springer. \n', '- - Bartle, R. G. and Sherbert, D, R. (2011). Introduction to real Analysis, 4th Editions, Wiley. \n', '- - Khuri, A. I., (2003). Advanced Calculus With Applications in Statistics, 2nd Editions, Wiley.\n', '-\n']</t>
   </si>
   <si>
     <t>['Hogg, R. V., Tanis, E., &amp; Zimmerman, D. (2013). Probability and Statistical Inference (9th Ed.). Pearson.\n', 'Unpingco, J. (2019). Python for Probability, Statistics, and Machine Learning (2nd Ed.). Springer. [Source codes available at &lt;https://github.com/unpingco/Python-for-Probability-Statistics-and-Machine-Learning-2E&gt;]\n', 'Chan, S. H. (2021). Introduction to Probability for Data Science, Michigan Publishing. [Source codes available at &lt;https://probability4datascience.com/&gt;]\n', "Bruce, P., Bruce, A., &amp; Gedeck, P. (2020). Practical Statistics for Data Scientists: 50+ Essential Concepts Using R and Python (2nd Ed.). O'Reilly Media, Inc.\n", "Griffiths, D. (2008). Head First Statistics. O'Reilly Media, Inc.\n", 'Wheelan, C. (2014). Naked Statistics: Stripping the Dread from the Data. W. W. Norton &amp; Company.\n', 'AI PUBLISHING. (2021). Statistics for Beginners in Data Science: Theory and Applications of Essential Statistics Concepts Using Python.\n']</t>
@@ -1165,25 +1159,25 @@
     <t>['-\n', '- - جمیز، جی، ویتن، تی، هیستی، تی و تیبشیرانی، آر. (2021). مقدمه ای بر یادگیری آماری با نرم افزار R، ترجمه: محمدپور،ع. و امین غفاری، م.  ([برنامه\u200cهای این کتاب به زبان پایتون](https://botlnec.github.io/islp/) موجودند)\n', '- James, G., Witten, D., Hastie, T. and Tibshirani, R. (2021). An Introduction to Statistical Learning, with applications in R, 2Ed, Springer, New York.  \n', '- Sugiyama, M. (2015). Introduction to Statistical Machine Learning, Elsevier Science.\n', '- Forrest, P. (2017). An Introduction to Statistical Learning, Create Space Independent Publishing Platform.\n', '- - Zaki, M. J., &amp; Meira, W., (2014) Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.**\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دکتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', '- - مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', '- - Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', '- - Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', '- - Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', '- - Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', '- - Zaki, M. J., &amp; Meira, W., (2014)m Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press.\n']</t>
+    <t>['-\n', '- - شومیلی، ج.، بروک، پی، یاهو، آ، پاتل، ان و لیختندال، ک. (1400). داده\u200cکاوی برای تحلیل خودکار کسب\u200cوکار: مفاهیم، فنون و کاربردهای R،  ترجمه دکتر محمدرضا فقیهی حبیب\u200cآبادی، انتشارات دانشگاه شهید بهشتی. \n', '- - مرادی، عباس، حسین\u200cزاده، جواد، شباک، اشکان، کیانی، کاوه و شیری، محمد. (1398). آشنایی با مفاهیم و روشهای داده کاوی، پژوهشکده آمار\n', '- - Shmueli, G., Bruce, P., Yahav, I., Patel, N., Lichtendahl, K., (2018), Data Mining for Business  Analytics Concepts, Techniques, and Applications in R, Wiley. \n', '- - Han, J., Kamber, M., Pei, J., (2012), Data Mining, Concepts and Techniques, 3rd Ed., Morgan Kaufmann Publishers, Elsevier. \n', '- - Olson, D., (2018), Data Mining Models, 2nd Ed., Business Expert Press.\n', '- - Carlo Vercellis, C., (2009), Business Intelligence, Data Mining and Optimization for Decision Making, Wiley.\n', '- - Zaki, M. J., &amp; Meira, W., (2020) Data mining and analysis: fundamental concepts and algorithms. Cambridge University Press. Retrieved from &lt;https://dataminingbook.info/&gt;\n']</t>
   </si>
   <si>
     <t>['-\n', '- - برتسیماس، سیتسیکلیس، (1394). مقدمه\u200cای بر بهینه\u200cسازی خطی، ترجمه حمید اسمعیلی، انتشارات دانشگاه بوعلی سینا.\n', '- - حمدی طه، (1387). آشنایی با تحقیق در عملیات: برنامه\u200cریزی خطی پویا و با اعداد صحیح، ترجمه محمدباقر بازرگان، مرکز نشر دانشگاهی.\n', '- - وینستون، (1380). تحقیق در عملیات، برنامه\u200cریزی خطی و حمل و نقل، ترجمه سید علی میر حسنی و محمدرضا علیرضایی، انتشارات مبتکران.\n', '- - بازارا، جارویس، شرالی، (1392). برنامه\u200cریزی خطی، ترجمه اسماعیل خرم، نشر کتاب دانشگاهی. \n']</t>
   </si>
   <si>
-    <t>['- لوئنبرگر، د. ج.، مهدوی امیری، ن.، و پور کاظمی، محمدحسین. (۱۳۹۲). برنامه\u200cریزی خطی و غیرخطی. تهران: دانشگاه صنعتی شریف.\n', '- Bazaraa, M., Sherali, H. D., &amp; Shetty, C. M. (2006). Nonlinear Programming: Theory and Algorithms (3rd ed.). John Wiley &amp; Sons.\n', '- Boyd, S., &amp; Vandenberghe, L. (2004). Convex optimization. Cambridge University Press.\n', '- Chong, E. K. P., &amp; Zak, S. H. (2013). An Introduction to Optimization (4th ed.). Wiley.\n', '- Griva, I., Nash, S. G., &amp; Sofer, A. (2009). Linear and Nonlinear Optimization (2nd ed.). SIAM.\n', '- Nocedal, J., &amp; Wright, S. (2006). Numerical optimization (2nd ed.). Springer Series in Operations Research and Financial Engineering.\n', '- Tibshirani, R. (2013-2019). Convex Optimization [Course]. Carnegie Mellon University.\n', '- Rao, S. S. (1978). Optimization: Theory and Applications. John Wiley &amp; Sons.\n']</t>
-  </si>
-  <si>
-    <t>['منابع آزاد با نظر استاد درس\n']</t>
+    <t>['- لوئنبرگر، د. ج.، مهدوی امیری، ن.، و پور کاظمی، محمدحسین. (۱۳۹۲). برنامه\u200cریزی خطی و غیرخطی. تهران: دانشگاه صنعتی شریف.\n', '- Bazaraa, M., Sherali, H. D., &amp; Shetty, C. M. (2006). Nonlinear Programming: Theory and Algorithms (3rd ed.). John Wiley &amp; Sons.\n', '- Boyd, S., &amp; Vandenberghe, L. (2004). Convex optimization. Cambridge University Press.\n', '- Chong, E. K. P., &amp; Zak, S. H. (2013). An Introduction to Optimization (4th ed.). Wiley.\n', '- Griva, I., Nash, S. G., &amp; Sofer, A. (2009). Linear and Nonlinear Optimization (2nd ed.). SIAM.\n', '- Nocedal, J., &amp; Wright, S. (2006). Numerical optimization (2nd ed.). Springer Series in Operations Research and Financial Engineering.\n', '- Tibshirani, R. (2013-2019). Convex Optimization [Course]. Carnegie Mellon University. Retrieved from &lt;https://www.stat.cmu.edu/~ryantibs/convexopt/&gt;\n', '- Rao, S. S. (1978). Optimization: Theory and Applications. John Wiley &amp; Sons.\n']</t>
+  </si>
+  <si>
+    <t>['•\tتحلیل بازار، تحلیل مالی \n', '•\tارزش پیشنهادی\n', '•\tفرآیند توسعه مشتری \n', '•\tتفکر طراحی\n', '•\tمهارت های کار تیمی و گروهی \n', '•\tقوانین داخلی و بین المللی کسب و کار  \n', '•\tمهارت ها و روش های توسعه نرم افزار \n', '•\tمعرفی کارآفرینان موفق در ایران و دنیا \n', '•\tمعرفی موفقیت ها و شکست های بزرگ در راه اندازی کسب و کارهای نوپا \n', '•\tسخنرانی های شخصیت های موفق در ایجاد کسب و کارهای نوپا\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n', '**منابع**: \n', 'منابع آزاد با نظر استاد درس\n']</t>
   </si>
   <si>
     <t>['Øverby, H., &amp; Audestad, J. A. (2021). Introduction to Digital Economics: Foundations, Business Models and Case Studies. Springer. \n']</t>
   </si>
   <si>
-    <t>['با نظر مدرس درس\n']</t>
-  </si>
-  <si>
-    <t>['Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', 'Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.e102faac-bb2e-4b96-b184-15e29fde7822.008.png)\n']</t>
+    <t>['با نظر سازمان یا شرکت مربوطه و مدرس درس \n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Russell, S., &amp; Norvig, P., (2020), Artificial intelligence: a modern approach, 4th Edition, PEARSON SERIES.\n', '- - Berkeley notes in Intro to Artificial Intelligence course: &lt;https://inst.eecs.berkeley.edu/~cs188&gt;\n', '«دروس تخصصی اختیاری»\n', '![](Aspose.Words.045638bd-8a89-4dd3-bd71-306de3dcd810.008.png)\n']</t>
   </si>
   <si>
     <t>['-\n', '- - نعمت الهی، ن. (1394). آمار و احتمالات مهندسی. انتشارات دلفک.\n', '- - راس، ش. م.، اسدی، م.، و بزرگ نیا، ا. ق. (1382). مقدمه\u200cای بر آمار و احتمال (برای دانشجویان مهندسی و علوم). انتشارات دانشگاه فردوسی مشهد.\n', '- - بهبودیان، ج. (1383). آمار و احتمال مقدماتی. انتشارات دانشگاه امام رضا (ع).\n', '- - قهرمانی، س.، شاهکار، غ.، و بزرگ نیا، ا. ق. (1390). مبانی احتمال. انتشارات دانشگاه فردوسی مشهد.\n', '- - Roussas, G. G. (2014). Introduction to probability (2nd ed.). Academic Press.\n']</t>
@@ -1195,7 +1189,7 @@
     <t>['\\1. نعمت اللهی، نادر (۱۳۹۷). روشهای آماری، انتشارات دانشگاه علامه طباطبایی.\n', '\\2. جانسون، ر. آ. و  باتاچاریا، گ.، (۱۳۸۸).  آمار اصول و روش ها، جلد ۱ و ۲، ترجمه میکائیلی، ف.، انتشارات نشر ارکان دانش.\n', '\\3. ووناکت، ت. چ. و ووناکت، ر. ج. (۱۳۹۳). آمار مقدماتی، جلد ۱ و ۲، ترجمه مشکانی، م. ر.، انتشارات مرکز نشر دانشگاهی، \n', '\\4. بهبودیان، ج.، آمار و احتمال مقدماتی (۱۳۹۴).  چاپ چهلم، انتشارات آستان قدس رضوی. \n', '\\5. طاهری، س.م. (۱۳۹۹). احتمال و آمار مهندسی، انتشارات دانشگاه تهران. \n', '\\6. Agresti, A.,  Franklin, C. Klingenberg, B.(2018). The art and science of learning from data.\xa0Peatson.\n', '\\7. Wilcox, R. R. (2016).\xa0Understanding and applying basic statistical methods using R. John Wiley &amp; Sons.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', '- - Cooper, S. Barry. (2003) Computability theory. CRC Press.\n', '- - M. Divis, R. Sigal, E. Weyuker, (1997), Computability, Complexity, and Languages. 2nd Edition, Academic Press. \n']</t>
+    <t>['-\n', '- - Sipser, M. (2003). Introduction to the Theory of Computation. 3th Edition, ACM Sigact News, 27(1), 27-29.\n', '- - Cooper, S. Barry. (2003) Computability theory. CRC Press.\n', '- - M. Divis, R. Sigal, E. Weyuker, (1997), Computability, Complexity, and Languages. 2nd Edition, Academic Press. \n', '- - Wigderson, A. (2019), Mathematics and Computation, A Theory Revolutionizing Technology and Science, Princeton University Press. Retrieved from &lt;https://www.math.ias.edu/files/Book-online-Aug0619.pdf&gt;\n', '- - Moore, C., &amp; Mertens, S. (2011). The Nature of Computation. Oxford University Press. Retrieved from &lt;https://www-2.dc.uba.ar/staff/becher/Hopcroft-Motwani-Ullman-2001.pdf&gt;\n', '- - Singh, A. (2009), Elements of Computation Theory, Springer London, &lt;url:https://link.springer.com/book/10.1007/978-1-84882-497-3&gt;\n']</t>
   </si>
   <si>
     <t>['-\n', '- - حمدی طه، (۱۳۸۷) آشنایی با تحقیق در عملیات: برنامه\u200cریزی خطی پویا و با اعداد صحیح، (م. بازرگان، مترجم). تهران: مرکز نشر دانشگاهی.\n', '- - مهدی قطعی، (1395). تحقیق در عملیات و بهینه\u200cسازی ترکیبیاتی. تهران: انتشارات ناقوس.\n', '- - Lee, J. (2004). A First Course in Combinatorial Optimization. Cambridge University Press.\n', '- - Cormen, T.H., Leiserson, C.E., Rivest, R.L., &amp; Stein, C. (2009). Introduction to Algorithms (3rd Ed.). The MIT Press.\n', '- - Papadimitriou, C.H., &amp; Steiglitz, R. (1982). Combinatorial Optimization Algorithms and Complexity. Prentice-Hall.\n', '- - Balakrishnan, V. (1995). Network Optimization. Chapman and Hall/CRC.\n', '- - Ahuja, R.K., Magnanti, T.L., &amp; Orlin, J.B. (1993). Network Flows: Theory, Algorithms, and Applications. Prentice-Hall.\n']</t>
@@ -1216,13 +1210,13 @@
     <t>['-\n', '- - Winskel, G., (1994), The Formal Semantics of Programming Languages An Introduction, The MIT Press, \n']</t>
   </si>
   <si>
-    <t>['- عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '- عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '- سوری، علی. (1400). نظریه بازی\u200cها و کاربردهای اقتصادی، انتشارات نور علم.\n', '- زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '- Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
+    <t>['**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n', '**منابع**: \n', '- عبدلی، قهرمان (1398). نظریه بازیها و کاربردهای آن (بازیهای اطلاعات ناقص ، تکاملی و همکارانه)، انتشارات سمت. \n', '- عبدلی، قهرمان (1399). نظریه بازی ها و کاربردهای آن (بازیهای ایستا و پویا با اطلاعات کامل)، انتشارات جهاد دانشگاهی. \n', '- سوری، علی. (1400). نظریه بازی\u200cها و کاربردهای اقتصادی، انتشارات نور علم.\n', '- زیگفرید، تام. (1399). ریاضیات زیبا: جان نش، نظریه بازی ها، و جست و جوی رمز طبیعت، ترجمه صادقی، مهدی، نشر نی.\n', '- Rasmusen, E. (1990). Games and information. An introduction to game theory.Wiley.  \n', '#\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Motwani, R., &amp; Raghavan, P. (1995). Randomized Algorithms. Cambridge University Press.\n', '- - Matoušek, J., &amp; Vondrák, J. (2001). The Probabilistic Method [Lecture Notes]. Department of Applied Mathematics, Charles University.\n', '- - Mitzenmacher, M., &amp; Upfal, E. (2005). Probability and Computing: Randomized Algorithms and Probabilistic Analysis. Cambridge University Press.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Berg, M., Cheong, O., van Kreveld, M., &amp; Overmars, M. (2008). Computational Geometry: Algorithms and Applications (3rd ed.). Springer-Verlag.\n', "- - O'Rourke, J. (1998). Computational Geometry in C (2nd ed.). Cambridge University Press.\n", '- - Boissonnat, J.-D., &amp; Yvinec, M. (1998). Algorithmic Geometry. Cambridge University Press.\n', "- - Devadoss, S. L., &amp; O'Rourke, J. (2011). Discrete and Computational Geometry. Princeton University Press.\n", '- - Edelsbrunner, H. (1987). Algorithms in Combinatorial Geometry. Springer.\n', "- - Goodman, J. E., O'Rourke, J., &amp; Tóth, C. D. (Eds.). (2017). Handbook of Discrete and Computational Geometry (3rd ed.). CRC Press.\n", '- - Har-Peled, S. (2011). Geometric Approximation Algorithms. AMS Press.\n', '- - Matoušek, J. (2002). Lectures on Discrete Geometry. Springer.\n', "- - O'Rourke, J. (1998). Computational Geometry in C (2nd ed.). Cambridge University Press.\n", '- - Preparata, F. P., &amp; Shamos, M. I. (1985). Computational Geometry: An Introduction. Springer.\n']</t>
+    <t>['- - Berg, M., Cheong, O., van Kreveld, M., &amp; Overmars, M. (2008). Computational Geometry: Algorithms and Applications (3rd ed.). Springer-Verlag.\n', "- - O'Rourke, J. (1998). Computational Geometry in C (2nd ed.). Cambridge University Press.\n", '- - Boissonnat, J.-D., &amp; Yvinec, M. (1998). Algorithmic Geometry. Cambridge University Press.\n', "- - Devadoss, S. L., &amp; O'Rourke, J. (2011). Discrete and Computational Geometry. Princeton University Press.\n", '- - Edelsbrunner, H. (1987). Algorithms in Combinatorial Geometry. Springer.\n', "- - Goodman, J. E., O'Rourke, J., &amp; Tóth, C. D. (Eds.). (2017). Handbook of Discrete and Computational Geometry (3rd ed.). CRC Press.\n", '- - Har-Peled, S. (2011). Geometric Approximation Algorithms. AMS Press.\n', '- - Matoušek, J. (2002). Lectures on Discrete Geometry. Springer.\n', "- - O'Rourke, J. (1998). Computational Geometry in C (2nd ed.). Cambridge University Press.\n", '- - Preparata, F. P., &amp; Shamos, M. I. (1985). Computational Geometry: An Introduction. Springer.\n']</t>
   </si>
   <si>
     <t>['-\n', '- - مونتگمری، د.،  پک، آ و جافری، و. (۱۳۹۵). مقدمه ای بر تحلیل رگرسیون خطی، ترجمه: اسماعیل زاده،  نبز، انتشارات دانشگاه کردستان.\n', '- - امینی، م. زمانی، ح. روزبه، م.  (۱۳۹۸). تحلیل رگرسیون پیشرفته با R، انتشارات پارسیان. \n', '- - Kutner, M. Nachtsheim, C. Neter J. and Li W. (2012). Applied Linear Statistical Models, 5th Edition, McGraw- Hill.\n', '- - Olive, D. (2017). Linear Regression, Springer.\n', '- - Lilja, D. J. (2016). Linear Regression Using R: An Introduction to Data Modeling. Libraries Publishing. \n', '- - Weisberg, S. (2013).\xa0Applied linear regression. John Wiley.\n', '- - Chatterjee, S., &amp; Hadi, A. S. (2013).\xa0Regression analysis by example. John Wiley.\n', '**\n']</t>
@@ -1234,7 +1228,7 @@
     <t>['تارخ، محمد جعفر و مهاجری، حسین (1392). هوش تجاری نگرشی پویا در عرصه کسب و کار، انتشارات دانشگاه خواجه نصیر. \n', '- Vercellis, C. (2011).\xa0Business intelligence: data mining and optimization for decision making. John Wiley.\n', '- Azevedo, A. and Santos, M. F. (Eds.). (2020).\xa0Integration Challenges for Analytics, Business Intelligence, and Data Mining. IGI Global.\n', '- Grossmann, W. and Rinderle-Ma, S. (2015). Fundamentals of business intelligence, Springer\n', '- Sauter, V. L. (2014).\xa0Decision support systems for business intelligence. John Wiley &amp; Sons.\n', '- Clark, D. (2019).\xa0Beginning Power BI: A Practical Guide to Self-Service Data Analytics with Excel 2016 and Power BI Desktop. Apress.\n', '- Seamark, P. (2018).\xa0Beginning DAX with Power BI: The SQL Pro’s Guide to Better Business Intelligence. Apress.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - نیلسن، م. (۱۴۰۰). شبکه\u200cهای عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '- - Stevens, E., Antiga, L., &amp; Viehmann, T. (2020). Deep Learning with PyTorch. Manning Publications.\n', '- - Chollet, F. (2017). Deep Learning with Python. Manning Publications.\n', '- - Goodfellow, I., Bengio, Y., &amp; Courville, A. (2016). Deep Learning. MIT Press.\n', '- - Lantz, B. (2019). Machine Learning with R: Expert Techniques for Predictive Modeling. Packt Publishing.\n', '- - Pattanayak, S. (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python. Apress.\n', '- - Nielsen, M. (2015). Neural Networks and Deep Learning. Determination Press.\n', '-\n']</t>
+    <t>['-\n', '- - نیلسن، م. (۱۴۰۰). شبکه\u200cهای عصبی و یادگیری عمیق، ترجمه: جاودانی گندمانی، فروزنده، سعید و هادی خسروی، انتشارات جهاد دانشگاهی چهارمحال و بختیاری. \n', '- - Zhang, A., Lipton, Z. C., Li, M., &amp; Smola, A. J. (2021). Dive into Deep Learning. Retrieved from &lt;https://d2l.ai/&gt;\n', '- - Stevens, E., Antiga, L., &amp; Viehmann, T. (2020). Deep Learning with PyTorch. Manning Publications.\n', '- - Chollet, F. (2019). Deep Learning with Python, Second Edition. Manning Publications. [[PDF](https://download.bibis.ir/Books/Artificial-Intelligence/Deep-Learning/2021/Deep%20Learning%20with%20Python%20by%20Franc%CC%A7ois%20Chollet_bibis.ir.pdf)]\n', '- - Goodfellow, I., Bengio, Y., &amp; Courville, A. (2016). Deep Learning. MIT Press.\n', '- - Lantz, B. (2019). Machine Learning with R: Expert Techniques for Predictive Modeling. Packt Publishing.\n', '- - Pattanayak, S. (2017). Pro Deep Learning with TensorFlow: A Mathematical Approach to Advanced Artificial Intelligence in Python. Apress.\n', '- - Nielsen, M. (2015). Neural Networks and Deep Learning. Determination Press.\n', '-\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Turban, E., King, D., Lee, J. K., Liang, T.-P., &amp; Turban, D. C. (2018). Electronic Commerce: A Managerial and Social Networks Perspective (8th ed.). Springer.\n']</t>
@@ -1276,13 +1270,13 @@
     <t>['-\n', '- - Hearn, D., &amp; Baker, M. P. (2011). Computer Graphics with OpenGL. 4th Edition. Prentice Hull.\n', '- - Marschner, S., &amp; Shirley, P. (2016). Fundamentals of Computer Graphics. 4th Edition. CRC Press.\n', '- - Angel, E. (2002). OpenGL: A Primer. Addison Wesley.\n']</t>
   </si>
   <si>
-    <t>['- Easley, D., &amp; Kleinberg, J. (2010). Networks, Crowds, and Markets: Reasoning About a Highly Connected World. Cambridge University Press.\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - Silberschatz, A., Galvin, P. B., &amp; Gagne, G. (2013). Operating System Concepts, Ninth Edition. John Wiley &amp; Sons, Inc.\n', '- - Silberschatz, A., Galvin, P. B., &amp; Gagne, G. (2009). Operating System Concepts with Java. Wiley Publishing.\n', '- - Tanenbaum, A., &amp; Woodhull, A. S. (2009). Operating Systems: Design and Implementation. Pearson.\n']</t>
-  </si>
-  <si>
-    <t>['- - Sommerville, I. (2010). Software Engineering, 9th Edition. Addison Wesley.\n', '- - Ghezzi, C., Jazayeri, M., &amp; Mandrioli, D. (2003). Fundamentals of Software Engineering. Prentice Hall.\n', '- - Ng, P. A. B., &amp; Yeh, R. T. (1990). Modern Software Engineering: Foundations and Current Perspectives. Van Nostrand Reinhold.\n', "- - Pressman, R. S., &amp; Roger, P. (2009). Software Engineering: A Practitioner's Approach. 7th Edition. McGraw Hill.\n"]</t>
+    <t>['- حمزه لو، ن.، آشتيانی، م.(1397)، تحليل شبکه های اجتماعی: مبانی نظری و ابزارها، انتشارات گل بيز.\n', '- غضنفری، م.، طبایی، ز.، (1398)، تحليل شبکه های اجتماعی: با بکارگيری پایتون، انتشارات شهراب\n', '- Easley, D., &amp; Kleinberg, J. (2010). Networks, Crowds, and Markets: Reasoning About a Highly Connected World. Cambridge University Press.\n', '- Platt, E. (2019) Network Science with Python and NetworkX Quick Start Guide: Explore and visualize network data effectively, Packt Publishing, Birmingham, UK. \n', '- Raj P.M., K., Mohan, A. and Srinivasa, K.G. (2018). Practical Social Network Analysis with Python (1st edition), Springer, Berlin. \n', '- Borgatti, S. P., Everett M. G. and Johnson J. C. (2018). Analyzing Social Networks (2nd edition), SAGE Publications, Newbury. \n', '- Knoke, D.H. and Yang, S. (2020). Social Network Analysis (Quantitative Applications in the Social Sciences (3rd edition), SAGE Publications, Newbury\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - Tanenbaum, A.S. (2014). Modern Operating Systems (4th Edition). Pearson.\n', '- - Silberschatz, A., Galvin, P.B., &amp; Gagne, G. (2013). Operating System Concepts (9th Edition). John Wiley &amp; Sons, Inc.\n', '- - Stallings, W. (2015). Operating Systems: Internal and Design Principles (9th Edition). Pearson.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - رسول زادگان، ع (۱۳۹۱)، مدل سازی نرم فزار به کمک UML با رویکرد RUP انتشارات علوم رایانه، چاپ اول.\n', '  - - Sommerville, I. (2010). Software Engineering, 9th Edition. Addison Wesley.\n', '  - - Ghezzi, C., Jazayeri, M., &amp; Mandrioli, D. (2003). Fundamentals of Software Engineering. Prentice Hall.\n', '  - - Ng, P. A. B., &amp; Yeh, R. T. (1990). Modern Software Engineering: Foundations and Current Perspectives. Van Nostrand Reinhold.\n', "  - - Pressman, R. S., &amp; Roger, P. (2009). Software Engineering: A Practitioner's Approach. 7th Edition. McGraw Hill.\n", '  - - Larman, C. (2004). Applying UML and Patterns: An Introduction to Object-Oriented Analysis and Design and the Unified Process (2nd ed.). Prentice Hall.\n', '  - - Gamma, E., Helm, R., Johnson, R., &amp; Vlissides, J. (1995). Design patterns: elements of reusable object-oriented software. Addison-Wesley.\n', '  - - Fowler, M., &amp; Beck, K. (1999). Refactoring: Improving the Design of Existing Code. Addison-Wesley.\n', "  - - Martin, R. C. (2017). Clean Architecture: A Craftsman's Guide to Software Structure and Design (1st ed.). Pearson.\n", '  -\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Aho, A. V., Lam, M. S., Sethi, R., &amp; Ullman, J. D. (2007). Compilers: Principles, Techniques, and Tools. 2nd Edition. Pearson.\n', '- - Thain, D. (2020). Introduction to Compilers and Language Design. 2nd Edition. Retrieved from http://compilerbook.org\n', '- - Cooper, K. D., &amp; Torczon, L. (2012). Engineering a Compiler. 2nd Edition. Elsevier.\n']</t>
@@ -1300,10 +1294,10 @@
     <t>['-\n', '- - مار، برنارد (1396). [داده\u200cهای بزرگ ارتقای تصمیم گیری و عملکرد با استفاده از داده\u200cهای بزرگ هوشمند: تحلیل شناسی و معیارها](https://ketabmail.com/%D8%AE%D8%B1%DB%8C%D8%AF%DA%A9%D8%AA%D8%A7%D8%A8-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D8%A7%D8%B1%D8%AA%D9%82%D8%A7%DB%8C-%D8%AA%D8%B5%D9%85%DB%8C%D9%85-%DA%AF%DB%8C%D8%B1%DB%8C-%D9%88-%D8%B9%D9%85%D9%84%DA%A9%D8%B1%D8%AF-%D8%A8%D8%A7-%D8%A7%D8%B3%D8%AA%D9%81%D8%A7%D8%AF%D9%87-%D8%A7%D8%B2-%D8%AF%D8%A7%D8%AF%D9%87-%D9%87%D8%A7%DB%8C-%D8%A8%D8%B2%D8%B1%DA%AF-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D8%AA%D8%AD%D9%84%DB%8C%D9%84-%D8%B4%D9%86%D8%A7%D8%B3%DB%8C-%D9%88-%D9%85%D8%B9%DB%8C%D8%A7%D8%B1%D9%87%D8%A7-%D9%85%D8%A7%D8%B1-%D9%85%D9%88%D8%B3%DB%8C-%D8%AE%D8%A7%D9%86%DB%8C-%D8%A2%D9%88%D9%86%D8%AF%D8%AF%D8%A7%D9%86%D8%B4)، ترجمه: موسی خانی، مرتضی، انتشارات آوند دانش. \n', '- - EMC Education Services. (2015).\xa0Data science and big data analytics: discovering, analyzing, visualizing and presenting data. Wiley.\n', '- - Furht, B. and Villanustre, F. (2016). Big data technologies and applications, Springer. \n', '- - Sarangi, S., and Sharma, P. (2019).\xa0Big Data: A Beginner’s Introduction. Routledge.\n', "- - Ahmed, S. T., Basha, S. M., Arumugam, S. R. and Patil, K. K. (2021).\xa0Big Data Analytics and Cloud Computing: A Beginner's Guide. MileStone Research Publications.\n"]</t>
   </si>
   <si>
-    <t>['- 1.جونز و اشمیت (2010). مقدمه ای بر فرآیندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '- 2. دوبرو، رابرت پی. (1398). مقدمه ای بر فرآیندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '  - Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '  - Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '  - Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '  - Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '  - Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '  - Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - Chandrasekaran, K. (2014). Essentials of Cloud Computing. CRC Press.\n', '- - Ruparelia, N. B. (2016). Cloud Computing. MIT Press.\n', '- - Erl, T., Mahmood, Z., &amp; Puttini, R. (2013). Cloud Computing: Concepts, Technology, and Architecture. Prentice Hall.\n', '- - Ganelin, I., Orhian, E., Sasaki, K., &amp; York, B. (2016). Spark: Big Data Cluster Computing in Production. 1st Edition. Wiley.\n', "- - White, T. (2015). Hadoop: The Definitive Guide: Storage and Analysis at Internet Scale. 4th Edition. O'Reilly Media.\n", '- - Geng, H. (2014). Data Center Handbook. 1st Edition. Wiley.\n', '- - Adkins, S., Belamaric, J., &amp; Giersch, V. (2015). OpenStack Cloud Application Development. Wrox.\n', '- - Antony, B., Boudnik, K., &amp; Adams, C. (2016). Professional Hadoop. 1st Edition. Wrox.\n', '- - **\n']</t>
+    <t>['- جونز و اشمیت (2010). مقدمه ای بر فرآیندهای تصادفی(1396) ترجمه. محمد امینی و ابوالقاسم بزرگ نیا. انتشارات دانشگاه فردوسی مشهد.\n', '- دوبرو، رابرت پی. (1398). مقدمه ای بر فرآیندهای تصادفی با R، ترجمه: موسوی، س. ن.، انتشارات دانشگاه اراک. \n', '  - Jones, P.W. and Smith, P., (2018). Stochastic Processes: An Introduction, 2nd Ed., CRC Press.\n', '  - Durrett. R. (2016). Essentials of Stochastic Processes. Third Edition, Springer. \n', '  - Robert P. Dobrow. (2016). Introduction to Stochastic Processes with R. John Wiley.\n', '  - Bhat, N. and Miller, K., (2002). Elements of Applied Stochastic Processes, 3rd Ed., John Wiley.\n', '  - Bremaud, P. M, (1999). Markov Chains, Gibbs fields, Monte Carlo Simulation and Queues, Springer.\n', '  - Korosteleva, O. (2022).\xa0Stochastic Processes with R: An Introduction. CRC Press.\n', '**\n']</t>
+  </si>
+  <si>
+    <t>['**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n', '**منابع:** \n', '-\n', '- - Chandrasekaran, K. (2014). Essentials of Cloud Computing. CRC Press.\n', '- - Ruparelia, N. B. (2016). Cloud Computing. MIT Press.\n', '- - Erl, T., Mahmood, Z., &amp; Puttini, R. (2013). Cloud Computing: Concepts, Technology, and Architecture. Prentice Hall.\n', '- - Ganelin, I., Orhian, E., Sasaki, K., &amp; York, B. (2016). Spark: Big Data Cluster Computing in Production. 1st Edition. Wiley.\n', "- - White, T. (2015). Hadoop: The Definitive Guide: Storage and Analysis at Internet Scale. 4th Edition. O'Reilly Media.\n", '- - Geng, H. (2014). Data Center Handbook. 1st Edition. Wiley.\n', '- - Adkins, S., Belamaric, J., &amp; Giersch, V. (2015). OpenStack Cloud Application Development. Wrox.\n', '- - Antony, B., Boudnik, K., &amp; Adams, C. (2016). Professional Hadoop. 1st Edition. Wrox.\n']</t>
   </si>
   <si>
     <t>['-\n', '- - Patterson, D. A., &amp; Hennessy, J. L. (2019). Computer Architecture: A Quantitative Approach. Morgan Kaufmann.\n', '- - Sanders, J., &amp; Kandrot, E. (2011). CUDA by Examples: An Introduction to GPU Programming. Addison-Wesley.\n', '- - Kirk, D. B., &amp; Hwu, W. W. (2010). Programming Massively Parallel Processors: A Hands-On Approach. NVIDIA.\n', '- - McCool, M., Robison, A. D., &amp; Reinders, J. (2012). Structured Parallel Programming. Elsevier.\n', '-\n']</t>
@@ -1324,7 +1318,7 @@
     <t>['-\n', '- - Sebesta, R. W. (2012). Concepts of programming languages. Boston: Pearson.\n', '- - Pratt, T. W., &amp; Zelkowitz, M. V. (2000). Programming Languages: Design and Implementation (4th ed.). Prentice-Hall.\n', '- - Ghezzi, C., &amp; Jazayeri, M. (1997). Programming Language Concepts. Addison Wiley.\n', '- - MacLennan, B. J. (1999). Principles of Programming Languages: Design, Evaluation, and Implementation. Oxford University Press.\n']</t>
   </si>
   <si>
-    <t>['-\n', '- - Jurafsky, D., &amp; Martin, J. H. (2023). Speech and Language Processing (3rd ed. Draft).\n', "- - Vajjala, S., Majumder, B., Gupta, A., &amp; Surana, H. (2020). Practical Natural Language Processing. O'Reilly Media, Inc.\n", '- - Manning, C. D., &amp; Schütze, H. (1999). Foundations of Statistical Natural Language Processing. MIT Press.\n', "- - Bird, S., Klein, E., &amp; Loper, E. (2009). Natural Language Processing with Python. O'Reilly Media.\n", '- - Clark, A. (2016). Neural Networks for NLP. Morgan &amp; Claypool Publishers.\n', '- - Goldberg, Y. (2017). Neural Network Methods in Natural Language Processing. Morgan &amp; Claypool Publishers.\n']</t>
+    <t>['-\n', '- - Jurafsky, D., &amp; Martin, J. H. (2023). Speech and Language Processing (3rd ed. Draft).\n', "- - Vajjala, S., Majumder, B., Gupta, A., &amp; Surana, H. (2020). Practical Natural Language Processing. O'Reilly Media, Inc.\n", '- - Manning, C. D., &amp; Schütze, H. (1999). Foundations of Statistical Natural Language Processing. MIT Press.\n', "- - Bird, S., Klein, E., &amp; Loper, E. (2009). Natural Language Processing with Python. O'Reilly Media.\n", '- - Clark, A. (2016). Neural Networks for NLP. Morgan &amp; Claypool Publishers.\n', '- - Goldberg, Y. (2017). Neural Network Methods in Natural Language Processing. Morgan &amp; Claypool Publishers.\n', '**برنامه\u200cی هشت ترمی پیشنهادی**\n', '![](Aspose.Words.045638bd-8a89-4dd3-bd71-306de3dcd810.009.png)برنامه\u200cی پیشنهادی ۸ ترمی به صورت زیر است که البته درصورت استفاده از طرح کواپ می\u200cتواند مطابق آیین\u200cنامه کواپ سنوات دانشجو بیشتر شده و برنامه مقداری متفاوت گردد.\n', '[^1]: Luk, Robert W. P. (2020). Insights in How Computer Science can be a Science. Science and Philosophy 8 (2):17-46\n', '[^2]: Andrew Ng']</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1767,7 @@
         <v>282</v>
       </c>
       <c r="P2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1814,7 +1808,7 @@
         <v>283</v>
       </c>
       <c r="P3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1855,7 +1849,7 @@
         <v>284</v>
       </c>
       <c r="P4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1896,7 +1890,7 @@
         <v>285</v>
       </c>
       <c r="P5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1937,7 +1931,7 @@
         <v>286</v>
       </c>
       <c r="P6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1978,7 +1972,7 @@
         <v>287</v>
       </c>
       <c r="P7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2019,7 +2013,7 @@
         <v>288</v>
       </c>
       <c r="P8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2057,7 +2051,7 @@
         <v>289</v>
       </c>
       <c r="P9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2098,7 +2092,7 @@
         <v>290</v>
       </c>
       <c r="P10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2139,7 +2133,7 @@
         <v>291</v>
       </c>
       <c r="P11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2180,7 +2174,7 @@
         <v>292</v>
       </c>
       <c r="P12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2221,7 +2215,7 @@
         <v>293</v>
       </c>
       <c r="P13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2262,7 +2256,7 @@
         <v>294</v>
       </c>
       <c r="P14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2303,7 +2297,7 @@
         <v>295</v>
       </c>
       <c r="P15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2344,7 +2338,7 @@
         <v>296</v>
       </c>
       <c r="P16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2385,7 +2379,7 @@
         <v>297</v>
       </c>
       <c r="P17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2426,7 +2420,7 @@
         <v>298</v>
       </c>
       <c r="P18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2467,7 +2461,7 @@
         <v>299</v>
       </c>
       <c r="P19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2505,10 +2499,10 @@
         <v>279</v>
       </c>
       <c r="O20" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2546,10 +2540,10 @@
         <v>280</v>
       </c>
       <c r="O21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2587,10 +2581,10 @@
         <v>279</v>
       </c>
       <c r="O22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2628,10 +2622,10 @@
         <v>279</v>
       </c>
       <c r="O23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2669,10 +2663,10 @@
         <v>279</v>
       </c>
       <c r="O24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2710,10 +2704,10 @@
         <v>279</v>
       </c>
       <c r="O25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2751,10 +2745,10 @@
         <v>279</v>
       </c>
       <c r="O26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2792,10 +2786,10 @@
         <v>279</v>
       </c>
       <c r="O27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2833,10 +2827,10 @@
         <v>279</v>
       </c>
       <c r="O28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2874,10 +2868,10 @@
         <v>280</v>
       </c>
       <c r="O29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2915,10 +2909,10 @@
         <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2953,10 +2947,10 @@
         <v>277</v>
       </c>
       <c r="O31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P31" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2994,10 +2988,10 @@
         <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3035,10 +3029,10 @@
         <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3067,16 +3061,16 @@
         <v>269</v>
       </c>
       <c r="J34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
         <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3114,10 +3108,10 @@
         <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3155,10 +3149,10 @@
         <v>280</v>
       </c>
       <c r="O36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3196,10 +3190,10 @@
         <v>280</v>
       </c>
       <c r="O37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3237,10 +3231,10 @@
         <v>280</v>
       </c>
       <c r="O38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3278,10 +3272,10 @@
         <v>280</v>
       </c>
       <c r="O39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3319,10 +3313,10 @@
         <v>280</v>
       </c>
       <c r="O40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P40" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3360,10 +3354,10 @@
         <v>280</v>
       </c>
       <c r="O41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P41" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3401,10 +3395,10 @@
         <v>279</v>
       </c>
       <c r="O42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3439,10 +3433,10 @@
         <v>275</v>
       </c>
       <c r="O43" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="P43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3480,10 +3474,10 @@
         <v>280</v>
       </c>
       <c r="O44" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3521,10 +3515,10 @@
         <v>279</v>
       </c>
       <c r="O45" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3559,10 +3553,10 @@
         <v>275</v>
       </c>
       <c r="O46" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P46" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3600,10 +3594,10 @@
         <v>281</v>
       </c>
       <c r="O47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P47" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3641,10 +3635,10 @@
         <v>279</v>
       </c>
       <c r="O48" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3682,10 +3676,10 @@
         <v>279</v>
       </c>
       <c r="O49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P49" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3723,10 +3717,10 @@
         <v>280</v>
       </c>
       <c r="O50" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P50" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3761,10 +3755,10 @@
         <v>275</v>
       </c>
       <c r="O51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P51" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3799,10 +3793,10 @@
         <v>276</v>
       </c>
       <c r="O52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P52" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3840,10 +3834,10 @@
         <v>279</v>
       </c>
       <c r="O53" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3881,10 +3875,10 @@
         <v>280</v>
       </c>
       <c r="O54" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3922,10 +3916,10 @@
         <v>279</v>
       </c>
       <c r="O55" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P55" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3960,10 +3954,10 @@
         <v>275</v>
       </c>
       <c r="O56" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P56" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4001,10 +3995,10 @@
         <v>279</v>
       </c>
       <c r="O57" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P57" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4042,10 +4036,10 @@
         <v>279</v>
       </c>
       <c r="O58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4083,10 +4077,10 @@
         <v>279</v>
       </c>
       <c r="O59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4106,7 +4100,7 @@
         <v>252</v>
       </c>
       <c r="G60" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
         <v>253</v>
@@ -4124,10 +4118,10 @@
         <v>280</v>
       </c>
       <c r="O60" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4165,10 +4159,10 @@
         <v>280</v>
       </c>
       <c r="O61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P61" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4206,10 +4200,10 @@
         <v>279</v>
       </c>
       <c r="O62" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P62" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4247,10 +4241,10 @@
         <v>279</v>
       </c>
       <c r="O63" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P63" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4288,10 +4282,10 @@
         <v>280</v>
       </c>
       <c r="O64" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P64" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4329,10 +4323,10 @@
         <v>280</v>
       </c>
       <c r="O65" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P65" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4370,10 +4364,10 @@
         <v>280</v>
       </c>
       <c r="O66" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P66" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4411,10 +4405,10 @@
         <v>280</v>
       </c>
       <c r="O67" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P67" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4452,10 +4446,10 @@
         <v>280</v>
       </c>
       <c r="O68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4475,7 +4469,7 @@
         <v>252</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="H69" t="s">
         <v>253</v>
@@ -4493,10 +4487,10 @@
         <v>279</v>
       </c>
       <c r="O69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P69" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4534,10 +4528,10 @@
         <v>280</v>
       </c>
       <c r="O70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P70" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4575,10 +4569,10 @@
         <v>279</v>
       </c>
       <c r="O71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P71" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4616,10 +4610,10 @@
         <v>279</v>
       </c>
       <c r="O72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P72" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4657,10 +4651,10 @@
         <v>279</v>
       </c>
       <c r="O73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P73" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4698,10 +4692,10 @@
         <v>279</v>
       </c>
       <c r="O74" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="P74" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4739,10 +4733,10 @@
         <v>279</v>
       </c>
       <c r="O75" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P75" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4780,10 +4774,10 @@
         <v>279</v>
       </c>
       <c r="O76" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P76" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4821,10 +4815,10 @@
         <v>280</v>
       </c>
       <c r="O77" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P77" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4862,10 +4856,10 @@
         <v>279</v>
       </c>
       <c r="O78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P78" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4903,10 +4897,10 @@
         <v>279</v>
       </c>
       <c r="O79" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P79" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4941,10 +4935,10 @@
         <v>275</v>
       </c>
       <c r="O80" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P80" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4982,10 +4976,10 @@
         <v>279</v>
       </c>
       <c r="O81" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P81" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/lessons.xlsx
+++ b/docs/output/lessons.xlsx
@@ -73,18 +73,18 @@
     <t>مبانی کامپیوتر و برنامه‌سازی</t>
   </si>
   <si>
+    <t>مبانی علوم ریاضی</t>
+  </si>
+  <si>
+    <t>آمار و احتمال ۱</t>
+  </si>
+  <si>
+    <t>نرم‌افزارهای آماری و تحلیل داده‌ها</t>
+  </si>
+  <si>
     <t>کارگاه کامپیوتر ۱</t>
   </si>
   <si>
-    <t>مبانی علوم ریاضی</t>
-  </si>
-  <si>
-    <t>آمار و احتمال ۱</t>
-  </si>
-  <si>
-    <t>نرم‌افزارهای آماری و تحلیل داده‌ها</t>
-  </si>
-  <si>
     <t>برنامه‌سازی پیشرفته</t>
   </si>
   <si>
@@ -154,6 +154,12 @@
     <t>هوش مصنوعی</t>
   </si>
   <si>
+    <t>آشنایی با یادگیری عمیق</t>
+  </si>
+  <si>
+    <t>بهینه‌سازی گسسته</t>
+  </si>
+  <si>
     <t>آمار و احتمال ۲</t>
   </si>
   <si>
@@ -166,9 +172,6 @@
     <t>نظریه محاسبه</t>
   </si>
   <si>
-    <t>بهینه‌سازی گسسته</t>
-  </si>
-  <si>
     <t>منطق برای علوم کامپیوتر</t>
   </si>
   <si>
@@ -202,9 +205,6 @@
     <t>هوش تجاری مقدماتی</t>
   </si>
   <si>
-    <t>آشنایی با یادگیری عمیق</t>
-  </si>
-  <si>
     <t>تجارت الکترونیک</t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>مبانی جبر</t>
   </si>
   <si>
-    <t>مبانی آنالیز فوریه و موجک ها</t>
+    <t>مبانی آنالیز فوریه و موجک‌ها</t>
   </si>
   <si>
     <t>پردازش تصویر مقدماتی</t>
@@ -313,18 +313,18 @@
     <t>Fundamentals of Computer Programming</t>
   </si>
   <si>
+    <t>Foundation of Mathematics</t>
+  </si>
+  <si>
+    <t>Probability and Statistics I</t>
+  </si>
+  <si>
+    <t>Statistical Software &amp; data analysis</t>
+  </si>
+  <si>
     <t>Computer Workshop I</t>
   </si>
   <si>
-    <t>Foundation of Mathematics</t>
-  </si>
-  <si>
-    <t>Probability and Statistics I</t>
-  </si>
-  <si>
-    <t>Statistical Software &amp; data analysis</t>
-  </si>
-  <si>
     <t>Advanced Programming</t>
   </si>
   <si>
@@ -394,6 +394,12 @@
     <t>Artificial Intelligence</t>
   </si>
   <si>
+    <t>Introduction to Deep Learning</t>
+  </si>
+  <si>
+    <t>Discrete Optimization</t>
+  </si>
+  <si>
     <t>Probability and Statistics II</t>
   </si>
   <si>
@@ -406,9 +412,6 @@
     <t>Theory of Computation</t>
   </si>
   <si>
-    <t>Discrete Optimization</t>
-  </si>
-  <si>
     <t>Logic for Computer Science</t>
   </si>
   <si>
@@ -442,9 +445,6 @@
     <t>Elementary Business intelligence</t>
   </si>
   <si>
-    <t>Introduction to Deep Learning</t>
-  </si>
-  <si>
     <t>Electronic Commerce</t>
   </si>
   <si>
@@ -553,18 +553,18 @@
     <t>Fundamentals-of-Computer-Programming</t>
   </si>
   <si>
+    <t>Foundation-of-Mathematics</t>
+  </si>
+  <si>
+    <t>Probability-and-Statistics-I</t>
+  </si>
+  <si>
+    <t>Statistical-Software-and-data-analysis</t>
+  </si>
+  <si>
     <t>Computer-Workshop-I</t>
   </si>
   <si>
-    <t>Foundation-of-Mathematics</t>
-  </si>
-  <si>
-    <t>Probability-and-Statistics-I</t>
-  </si>
-  <si>
-    <t>Statistical-Software-and-data-analysis</t>
-  </si>
-  <si>
     <t>Advanced-Programming</t>
   </si>
   <si>
@@ -628,6 +628,12 @@
     <t>Artificial-Intelligence</t>
   </si>
   <si>
+    <t>Introduction-to-Deep-Learning</t>
+  </si>
+  <si>
+    <t>Discrete-Optimization</t>
+  </si>
+  <si>
     <t>Probability-and-Statistics-II</t>
   </si>
   <si>
@@ -640,9 +646,6 @@
     <t>Theory-of-Computation</t>
   </si>
   <si>
-    <t>Discrete-Optimization</t>
-  </si>
-  <si>
     <t>Logic-for-Computer-Science</t>
   </si>
   <si>
@@ -673,9 +676,6 @@
     <t>Elementary-Business-intelligence</t>
   </si>
   <si>
-    <t>Introduction-to-Deep-Learning</t>
-  </si>
-  <si>
     <t>Electronic-Commerce</t>
   </si>
   <si>
@@ -862,235 +862,235 @@
     <t xml:space="preserve"> : دارد</t>
   </si>
   <si>
-    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط و جمع و ضرب و ریشه آنها، نمایش های مختلف اعداد مختلط، دنباله های عددی، حد و قضایای مربوط، حد بینهایت و حد در بینهایت، حد چپ و راست،  پیوستگی، پیوستگی دنباله ای، قضیه مقدار میانی برای توابع پیوسته، قضیه مقدار اکسترمم برای توابع پیوسته، مشتق، دستورهای مشتق گیری، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه مشتق ترکیب توابع، قضیه فرما (صفر شدن مشتق در یک نقطه اکسترمم)، قضیه رل، قضیه مقدار میانگین، قضیه مقدار میانگین کشی، آزمون مشتق اول و دوم برای اکسترمم ها، تقعر منحنی، نقطه عطف، دیفرانسیل یک تابع، بسط تیلر، کاربردهای هندسی و فیزیکی مشتق، خم ها، سرعت و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه های معادلات، تعریف انتگرال توابع و انتگرال پذیری، قضیه مقدار میانگین برای انتگرال ها، قضایای اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش های تقریبی برآورد انتگرال، کاربرد انتگرال در محاسبه مساحت و حجم و طول منحنی و ...، لگاریتم و تابع نمایی و مشتق آنها، تابع های هذلولوی، روش های انتگرال گیری (همه روش ها)، آشنایی با تابع گاما و خواص آن، دنباله و سری به عنوان تایع، سری عددی، قضایای همگرایی مانند آزمون نسبت، ریشه و ...، تقریب استرلینگ، قضایای هم گرائی سری توانی و قضیه تیلر با باقیمانده و بدون باقیمانده. \n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['فضای اقلیدسی، معادلات پارامتری، مختصات فضائی، بردار در فضا، ضرب عددی، ضرب خارجی، معادلات خط و صفحه، رویه درجه دو، تابع برداری و مشتق آن، سرعت و شتاب، خمیدگی و بردارهای قائم بر منحنی، تابع چند متغیری، مشتق سوئی و جزئی، صفحه مماس و خط قائم، گردایان، قاعده زنجیری برای مشتق جزئی، دیفرانسیل کامل، انتگرال های دوگانه و چند گانه و کاربردهای آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیری (بدون اثبات دقیق)، مختصات استوانه ای و کروی، میدان برداری، انتگرال منحنی الخط، انتگرال رویه ای، دیورژانس، چرخه، لاپلاسین، پتانسیل، قضایای گرین و دیورژانس و استوکس.\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['اهداف درس با هر زبان برنامه\u200cنویسی سطح بالا محقق می\u200cشود، اما از آنجا که تاکید این برنامه درسی بر زبان برنامه\u200cنویسی پایتون است، سرفصل پیشنهادی نیز بر اساس این زبان ذکر می\u200cشود: مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، مستندسازی، کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '-\n', '- - آشنایی مقدماتی با تهیه اسناد کامپیوتری، کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- - تایپ ده انگشتی\n', '- - آشنایی مقدماتی با مجموعه میکروسافت آفیس\n', '- - آشنایی با سرویس\u200cهای کاربردی، سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- - آشنایی با سیستم عامل لینوکس، مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX، دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** آزمایشگاه کامپیوتر مجهز به ویدئو پروژکتور و نرم\u200cافزارهای موردنیاز\n']</t>
-  </si>
-  <si>
-    <t>['منطق گزاره ها و جدول ارزش. مجموعه\u200cها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه\u200cهای متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس.  شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز، تابع توزیع توأم.\n', '**روش یاددهی-یادگیری:** تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+    <t>['مختصات دکارتی، مختصات قطبی، اعداد مختلط و جمع و ضرب و ریشه آنها، نمایش های مختلف اعداد مختلط، دنباله های عددی، حد و قضایای مربوط، حد بینهایت و حد در بینهایت، حد چپ و راست،  پیوستگی، پیوستگی دنباله ای، قضیه مقدار میانی برای توابع پیوسته، قضیه مقدار اکسترمم برای توابع پیوسته، مشتق، دستورهای مشتق گیری، تابع معکوس و مشتق آن، مشتق توابع مثلثاتی و توابع معکوس آنها، قضیه مشتق ترکیب توابع، قضیه فرما (صفر شدن مشتق در یک نقطه اکسترمم)، قضیه رل، قضیه مقدار میانگین، قضیه مقدار میانگین کشی، آزمون مشتق اول و دوم برای اکسترمم ها، تقعر منحنی، نقطه عطف، دیفرانسیل یک تابع، بسط تیلر، کاربردهای هندسی و فیزیکی مشتق، خم ها، سرعت و شتاب در مختصات قطبی، کاربرد مشتق در تقریب ریشه های معادلات، تعریف انتگرال توابع و انتگرال پذیری، قضیه مقدار میانگین برای انتگرال ها، قضایای اساسی حساب دیفرانسیل و انتگرال، تابع اولیه، روش های تقریبی برآورد انتگرال، کاربرد انتگرال در محاسبه مساحت و حجم و طول منحنی و ...، لگاریتم و تابع نمایی و مشتق آنها، تابع های هذلولوی، روش های انتگرال گیری (همه روش ها)، آشنایی با تابع گاما و خواص آن، دنباله و سری به عنوان تایع، سری عددی، قضایای همگرایی مانند آزمون نسبت، ریشه و ...، تقریب استرلینگ، قضایای هم گرائی سری توانی و قضیه تیلر با باقیمانده و بدون باقیمانده. \n']</t>
+  </si>
+  <si>
+    <t>['فضای اقلیدسی، معادلات پارامتری، مختصات فضائی، بردار در فضا، ضرب عددی، ضرب خارجی، معادلات خط و صفحه، رویه درجه دو، تابع برداری و مشتق آن، سرعت و شتاب، خمیدگی و بردارهای قائم بر منحنی، تابع چند متغیری، مشتق سوئی و جزئی، صفحه مماس و خط قائم، گردایان، قاعده زنجیری برای مشتق جزئی، دیفرانسیل کامل، انتگرال های دوگانه و چند گانه و کاربردهای آنها در مسائل هندسی و فیزیکی، تعویض ترتیب انتگرال گیری (بدون اثبات دقیق)، مختصات استوانه ای و کروی، میدان برداری، انتگرال منحنی الخط، انتگرال رویه ای، دیورژانس، چرخه، لاپلاسین، پتانسیل، قضایای گرین و دیورژانس و استوکس.\n']</t>
+  </si>
+  <si>
+    <t>['مفاهیم و تعاریف اولیه .معادلات جداپذیر و معادلات همگن، مدلسازی در علوم دیگر. معادلات کامل و عامل انتگرال\u200cساز. معادلات خطی مرتبه اول. معادلات غیرخطی مرتبه اول و حالات خاص آن، مدلسازی در علوم دیگر. معادلات مرتبه دوم و بالاتر، مدلسازی در علوم دیگر. حل معادلات مرتبه دوم با ضرایب ثابت و متغیر. حل معادلات مرتبه دوم و بالاتر خطی ناهمگن. حل معادله کوشی-اویلر و بررسی چند حالت خاص در حل معادلات مرتبه دوم و بالاتر. حل معادلات دیفرانسیل به کمک سریها. معادله لژاندر. سری فروبنیوس. معادله بسل. تبدیل لاپلاس و کاربردهای آن. دستگاه خطی از معادلات دیفرانسیل .\n']</t>
+  </si>
+  <si>
+    <t>['اهداف درس با هر زبان برنامه\u200cنویسی سطح بالا محقق می\u200cشود، اما از آنجا که تاکید این برنامه درسی بر زبان برنامه\u200cنویسی پایتون است، سرفصل پیشنهادی نیز بر اساس این زبان ذکر می\u200cشود: مقدمه ای بر الگوریتم. متغیرها. ورودی خروجی. ساختارهای کنترلی. ساختارهای تکرار. دامنه متغیرها. توابع. آرایه\u200cها، ساختارهای داده\u200cای پایه\u200cای در پایتون همچون رشته\u200c، لیست\u200c، تاپل و دیکشنری. کتابخانه\u200cهای معمول همچون Numpy، Scipy. عملیات روی آرایه\u200cهای نامپای، مانند اندیس دهی و برش، ufunc. کار با فایلها، حوزه شناسایی متغیرها، اشکالزدایی برنامه، جستجو و مرتب\u200cسازی، مستندسازی، کتابخانه\u200cهایی همچون SymPy برای عملیات ریاضی نمادین و PyGame. \n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'از آنجا که در این برنامه درسی، چند درس به موضوع برنامه\u200cنویسی اختصاص یافته است، شایسته است در این درس پایه، تاکید اصلی بر تقویت مهارت حل مسأله و الگوریتم\u200cنویسی دانشجویان باشد. لحاظ کردن مثالها و تمرین\u200cهای متنوع و جالب و مشارکت دانشجویان در مباحث درس و بیان روش\u200cهای مختلف حل یک مسأله می\u200cتواند ترغیب کننده دانشجویان به فراگیری درس باشد. آشنایی دانشجویان با وب\u200cگاه\u200cهای برگزاری مسابقات و چالش\u200cهای برنامه\u200cنویسی و آموزش\u200cهای متنوع دردسترس و انجام پروژه مثمرثمر خواهد بود. \n']</t>
+  </si>
+  <si>
+    <t>['منطق گزاره ها و جدول ارزش. مجموعه\u200cها و اعمال مقدماتی روی آنها. پارادوکس راسل. روابط و توابع. روابط هم ارزی و افراز. مجموعه\u200cهای متناهی، شمارا و ناشمارا. اعداد اصلی. قضایای کانتور. قضایای شرودر برنشتاین. اصل انتخاب و صورت\u200cهای معادل آن.\n']</t>
+  </si>
+  <si>
+    <t>['احتمال: فضای احتمال، قوانین احتمال، مدل های احتمال، قوانین شمارش، احتمال شرطی، استقلال و قانون بیز. متغیرهای تصادفی: تعریف متغیر تصادفی، متغیرهای تصادفی (گسسته، پیوسته و آمیخته)، تابع توزیع، تابع جرم احتمال و تابع چگالی. امید ریاضی و گشتاورها: امید ریاضی، امید ریاضی تابعی از یک متغیر تصادفی. خواص و کاربردهای امید ریاضی، میانه و مد یک توزیع، واریانس و معیارهای پراکندگی دیگر، تقارن و چولگی، گشتاورهای یک متغیر تصادفی. تبدیل یک متغیر تصادفی: تابع مولد احتمال، تابع مولد گشتاور، ویژگیها و کاربردها. توزیع های استاندارد گسسته و پیوسته: برنولی، دوجمله ای، هندسی. فوق هندسی، دوجمله ای منفی، پواسون، یکنواخت (گسسته و پیوسته)، نمایی، گاما، بتا و نرمال. توزیع تابعی از یک متغیر تصادفی، تولید اعداد تصادفی از یک متغیر تصادفی، نامساوی های احتمالی: مارکوف، چپیشف، کشی و شوارتز، تابع توزیع توأم.\n']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['-\n', '- - چرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '- - محیط\u200cهای مجتمع توسعه\n', '- - ساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '- - برنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '- - وراثت در شی گرایی و چندریختی در شی گرایی\n', '- - مدیریت استثناء\n', '- - رابط گرافیکی و مفاهیم Interface\n', '- - کار با فایل\u200cها\n', '- - جریان داده\n', '- - کار با رشته و آرایه\n', '- - حافظه پویا\n', '- - (درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- - قالبها، فضای نام، auto، \n', '- - Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**پیشنهاد می\u200cشود در این درس**Modern C++ **تدریس شود و در انتها در قالب یکی دو جلسه، دانشجویان با جاوا آشنا شوند (یا بالعکس). و با هماهنگی بین مدرسان این درس و درس ساختمان داده\u200cها، در هر دو درس این دو زبان برنامه\u200cنویسی پوشش داده شود. یعنی اگر در این درس زبان C++ تدریس شد،  ساختمان داده\u200cها با جاوا تدریس شود.**\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['مرور فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات روی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، Threads.\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['آنالیز پیچیدگی زمان و حافظه الگوریتم\u200cها، توابع بازگشتی، معرفی ساختمان\u200cهای داده\u200cای مقدماتی (لیست پیوندی، پشته، صف و صف اولویت\u200cدار) و الگوریتم\u200cهای وابسته به آن\u200cها،  نمایش ماتریس\u200cها در حافظه، ماتریس\u200cهای تنک،\u200c تطابق رشته، درخت\u200cها و الگوریتم\u200cهای پیمایش مربوطه، درخت عبارت، تبدیل نگارش\u200cهای مختلف یک عبارت ریاضی، درهم\u200cسازی، گراف\u200cها و الگوریتم\u200cهای مربوط به گراف (BFS، DFS و ...) ، الگوریتم\u200cهای جستجو و مرتب\u200cسازی.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجیره ای ماتریس ها، درخت جستجوی بهینه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعالیت های بیشینه،  درخت پوشای کمینه.\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و کران و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پیچیدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n', '- آشنایی با UML\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** آزمایشگاه کامپیوتر مجهز به ویدئو پروژکتور و نرم\u200cافزارهای موردنیاز\n']</t>
-  </si>
-  <si>
-    <t>['مفاهیم پایه\u200cای (داده، فراداده، ساختارها و مدل داده\u200cها)، اصول طراحی پایگاه داده\u200cها (مدل مفهومی، نمودارهای ER، نرمال\u200cسازی، سیر تکاملی پایگاه داده\u200cها (فایل، شبکه، رابطه، شیء، شیء-رابطه، مکعب)، معرفی نرم افزارهای مدیریت پایگاه داده\u200cها (مزایا و معایب تکنولوژی¬ های مختلف)، به کارگیری یک نرم افزار مدیریت پایگاه داده\u200cها (SQL Server ، Oracle، MySQL)، زبان SQL، ساخت، حذف، و ویرایش پایگاه داده، جدول، و نما، درج، حذف، و ویرایش داده\u200cها، جستجوی داده\u200cها، مرتب سازی، انتخاب شرطی، قالب\u200cبندی نتایج جستجو، توابع محاسباتی و تجمیعی، ادغام دو یا چند جدول، آشنایی با تحلیل مه\u200cداده\u200cها با ابزارهای مدرن پایگاه داده\u200cها (SQL Server, Spark  و مانند اینها)، پایگاه داده\u200cهای غیر رابطه\u200cای.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتری، تبدیلها و ترکیب ها و ضرایب دوجمله ای، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزی و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوی که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس های صفر و یک (آماده سازی برای بخش مربع های لاتین و گراف ها)، آشنایی با ماتریس های آدامار و برخی نتایج در این مورد. گراف ها و مدل های مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهای آن در مدلسازی (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه ای، انواع اصلی گراف نظیر گراف های کامل، درخت ها، گراف های دوبخشی، گراف های اویلری و هامیلتونی و گراف های جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق های کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزی گراف ها و چند جمله ای رنگی (با ارائه مثال و الگوریتم). مربع های لاتین، طرح ها و هندسه های متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['آشنایی با منطق: آشنایی با منطق گزاره\u200cایی، زبان منطق گزاره\u200cایی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+    <t>['مطالب اصلی مورد بحث در اختیار گروه و استاد درس است که وابسته به نیازمندی\u200cهای دانشجویان مطالب متناسب ارائه گردد. برخی از مواردی که می\u200cتواند در این درس مورد استفاده قرار گیرد در ادامه آمده است:\n', '-\n', '- - آشنایی مقدماتی با تهیه اسناد کامپیوتری، کار با نرم\u200cافزار مایکروسافت ورد، ساخت یک سند جدید، قالب\u200cدهی به کلمه، پاراگراف، صفحه، آشنایی با استایل، افزودن جدول/تصویر/فرمول به متن، ویژگی\u200cهای خاص برای نگارش فارسی\n', '- - تایپ ده انگشتی\n', '- - آشنایی مقدماتی با مجموعه میکروسافت آفیس\n', '- - آشنایی با سرویس\u200cهای کاربردی، سرویس\u200cهای ابری مانند دراپ\u200cباکس،\u200c گوگل درایو و گوگل داکس، سرویس\u200cهای محاسبات ابری، سرویس\u200cهای مدیریت گروهی مانند Trello و Doodle، سرویس\u200cهای سوال و جواب و تبادل دانش مانند Stack Exchange ،Stack Overflow و ChatGPT\n', '- - آشنایی با سیستم عامل لینوکس، مفهوم shell، جستجو در فایل\u200cها، مجوزها، Help، فشرده\u200cسازی، دستورهای مهم مانند passwd ،cp ،ls ،cd ،grep ،su ،chmod  و kill\n', '- **آشنایی مقدماتی با** LaTeX، دستورهای اولیه، استایل و پکیج، حروف\u200cچینی، فرمول\u200cنویسی، درج تصویر، ایجاد جدول\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - چرخه حیات نرم افزار، جایگاه برنامه\u200cنویسی، روشهای طرح برنامه، ایده شی گرایی\n', '- - محیط\u200cهای مجتمع توسعه\n', '- - ساختارهای کنترلی و انتخاب، توابع و توابع بازگشتی، آرایه\u200cها و ارسال آرایه ها به عنوان پارامتر\n', '- - برنامه\u200cنویسی شی گرا: شی و تعریف آن، تشخیص شی ها در یک مساله، ارتباط شی\u200cها\n', '- - وراثت در شی گرایی و چندریختی در شی گرایی\n', '- - مدیریت استثناء\n', '- - رابط گرافیکی و مفاهیم Interface\n', '- - کار با فایل\u200cها\n', '- - جریان داده\n', '- - کار با رشته و آرایه\n', '- - حافظه پویا\n', '- - (درصورت تدریس C++) موارد جدید اضافه شده به استانداردهایC++ تحت عنوان Modern C++ مانند موارد زیر بیان شوند:\n', '- - قالبها، فضای نام، auto، \n', '- - Range Based for loop, for each loop, Array class, Vectors, Raw Pointers &amp; Smart Pointers, String class, Lambda Expression, Containers &amp; Algorithms\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '**پیشنهاد می\u200cشود در این درس**Modern C++ **تدریس شود و در انتها در قالب یکی دو جلسه، دانشجویان با جاوا آشنا شوند (یا بالعکس). و با هماهنگی بین مدرسان این درس و درس ساختمان داده\u200cها، در هر دو درس این دو زبان برنامه\u200cنویسی پوشش داده شود. یعنی اگر در این درس زبان C++ تدریس شد،  ساختمان داده\u200cها با جاوا تدریس شود.**\n']</t>
+  </si>
+  <si>
+    <t>['مرور فرهنگ\u200cهای داده\u200cای، تاپل\u200cها و مجموعه\u200cها. پردازش متن. عملیات روی رشته\u200cها. آشنایی با عبارات منظم (باقاعده) و ماژول re. نمایش نمودار. آشنایی با ماژول [Matplotlib](https://github.com/rougier/matplotlib-tutorial) و Seaborn. رسم نمودار، هیستوگرام. مصورسازی داده\u200cها. کار با پرونده\u200cهای متنی و دودویی. فایلهای اکسل. Lambda function. – Pandas DataFrame . Iterators and Generators,. برنامه\u200cنویسی شیءگرا. متدها و ویژگی\u200cها. سازنده\u200cها،  وراثت، چند ریختی . برنامه\u200cنویسی مبتنی بر رویداد. رویدادها و گرداننده\u200cها. رویدادهای صفحه\u200cکلید و ماوس. واسط کاربر گرافیکی. آشنایی با ماژول Tkinter. ساخت واسط کاربر ساده. افزودن عناصر. افزودن گرداننده\u200cها. مدیریت استثناها، توابع تصادفی، نحوه ایجاد یک وب اپلیکیشن. اتصال به پایگاه داده\u200cها، Zip, Filter, Map, Reduce, Decorators, Frozen Set, Collections، Threads.\n']</t>
+  </si>
+  <si>
+    <t>['آنالیز پیچیدگی زمان و حافظه الگوریتم\u200cها، توابع بازگشتی، معرفی ساختمان\u200cهای داده\u200cای مقدماتی (لیست پیوندی، پشته، صف و صف اولویت\u200cدار) و الگوریتم\u200cهای وابسته به آن\u200cها،  نمایش ماتریس\u200cها در حافظه، ماتریس\u200cهای تنک،\u200c تطابق رشته، درخت\u200cها و الگوریتم\u200cهای پیمایش مربوطه، درخت عبارت، تبدیل نگارش\u200cهای مختلف یک عبارت ریاضی، درهم\u200cسازی، گراف\u200cها و الگوریتم\u200cهای مربوط به گراف (BFS، DFS و ...) ، الگوریتم\u200cهای جستجو و مرتب\u200cسازی.\n']</t>
+  </si>
+  <si>
+    <t>['1- آنالیز و ارزیابی الگوریتم\u200cها (مقدمه ای بر پیچیدگی)\n', '2- رویکرد تقسیم و غلبه و حل مسائل مربوط به آن، مانند الگوریتم\u200cهای مرتب\u200cسازی سریع و ادغامی، الگوریتم استراسن برای ضرب ماتریس های بزرگ\n', '3- رویکرد برنامه\u200cنویسی پویا و حل مسائل مربوط به آن، مانند بزرگترین زیررشته مشترک و هم تراز کردن دنباله ها، ضرب زنجیره ای ماتریس ها، درخت جستجوی بهینه\n', '4- رویکرد حریصانه و حل مسائل مربوط به آن، مانند الگوریتمی حریصانه برای مسائل زمان بندی، الگوریتمی حریصانه برای مسأله انتخاب فعالیت های بیشینه،  درخت پوشای کمینه.\n', '5- رویکرد برگشت به عقب و حل مسائل مربوط به آن، مانند مسأله\u200cی N-وزیر، رنگ\u200cآمیزی گراف\n', '6- رویکرد شاخه و کران و حل مسائل مربوط به آن، مانند کوله پشتی\n', '7- الگوریتم\u200cهای گراف، پیمایش سطحی و عمقی، کوتاهترین مسیر، درخت پوشای مینیم ، مؤلفه های همبندی، مرتب سازی توپولوژیکی\n', '8- انواع الگوریتم\u200cهای جستجو و مقایسه آنها\n', '۹- مقدمه ای بر پیچیدگی محاسبات و کلاس های NP-hard و P,NP,NP – complete\n']</t>
+  </si>
+  <si>
+    <t>['- آشنایی با سیستم\u200cهای کنترل نسخه و گیت\u200cهاب\n', '- آشنایی با تولید مستندات مانند Sphinx و MkDocs\n', '- **آشنایی با شبکه\u200cهای کامپیوتری**\n', '- ساختار کلی شبکه و اینترنت، موتورهای جستجو، مفاهیم اولیه مانند URL و IP، آشنایی با پروتکل\u200cهای متداول مانند FTP ،HTTP و IMAP، آشنایی با دستورهای پرکاربرد در شبکه مانند ipconfig ،ping و traceroute\n', '- آشنایی **با** مهارت\u200cهایی که یک توسعه دهنده Back-end\u200c و Front-end باید داشته باشد.\n', '- آشنایی با UML\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['مفاهیم پایه\u200cای (داده، فراداده، ساختارها و مدل داده\u200cها)، اصول طراحی پایگاه داده\u200cها (مدل مفهومی، نمودارهای ER، نرمال\u200cسازی، سیر تکاملی پایگاه داده\u200cها (فایل، شبکه، رابطه، شیء، شیء-رابطه، مکعب)، معرفی نرم افزارهای مدیریت پایگاه داده\u200cها (مزایا و معایب تکنولوژی¬ های مختلف)، به کارگیری یک نرم افزار مدیریت پایگاه داده\u200cها (SQL Server ، Oracle، MySQL)، زبان SQL، ساخت، حذف، و ویرایش پایگاه داده، جدول، و نما، درج، حذف، و ویرایش داده\u200cها، جستجوی داده\u200cها، مرتب سازی، انتخاب شرطی، قالب\u200cبندی نتایج جستجو، توابع محاسباتی و تجمیعی، ادغام دو یا چند جدول، آشنایی با تحلیل مه\u200cداده\u200cها با ابزارهای مدرن پایگاه داده\u200cها (SQL Server, Spark  و مانند اینها)، پایگاه داده\u200cهای غیر رابطه\u200cای.\n']</t>
+  </si>
+  <si>
+    <t>['جبر بول. مدارات ترکیبی. فلیپ فلاپ. مدارات ترتیبی. سیستم اعداد. زبان انتقال ثبات. کامپیوتر پایه. سیستم حافظه. خط لوله. زبان ماشین 8086.\n']</t>
+  </si>
+  <si>
+    <t>['دوره سریع مفاهیم مجموعه\u200cها، توابع، الگوریتم و منطق گزاره ها و جبر بول، شمارش شامل: مفاهیم اصلی، اصل لانه کبوتری، تبدیلها و ترکیب ها و ضرایب دوجمله ای، اصل شمول وعدم شمول، روابط بازگشتی،توابع مولد. روابط و انواع آنها: روابط و نمایش آنها، روابط هم ارزی و افزارها، روابط ترتیب جزئی و ترتیب کامل، بستار یک رابطه نسبت به خواص مختلف (این بخش با هماهنگی با درس " مبانی علوم ریاضی" ارائه می شود به نحوی که تکرار صورت نپذیرد). ماتریس ها: ماتریس ها از دیدگاه ترکیباتی، بالاخص برخی خواص مهم ماتریس های صفر و یک (آماده سازی برای بخش مربع های لاتین و گراف ها)، آشنایی با ماتریس های آدامار و برخی نتایج در این مورد. گراف ها و مدل های مبتنی بر آنها: معرفی مفهوم گراف با تاکید بر کاربردهای آن در مدلسازی (با چند مثال با نظر استاد)، آشنایی با مفاهیم اصلی نظریه گراف نظیر دور، مسیر، درجه، دنباله درجه ای، انواع اصلی گراف نظیر گراف های کامل، درخت ها، گراف های دوبخشی، گراف های اویلری و هامیلتونی و گراف های جهت دار و تورنمنت ها (با تاکید بر مثال و کاربردها)، تطابق های کامل و ماکزیمم (طرح الگوریتم و کاربردها)، رنگ آمیزی گراف ها و چند جمله ای رنگی (با ارائه مثال و الگوریتم). مربع های لاتین، طرح ها و هندسه های متناهی: آشنایی با تعریف و مفاهیم اصلی با تاکید بر ارتباط این مفاهیم (با ارائه مثال) و همچنین تاکید بر ارتباط این مفاهیم با مفاهیم قبلی طرح شده در درس نظیر گراف ها و همچنین ارائه چند مورد در این خصوص، ارائه مفهوم سیستمهای نمایندگی متمایز  و همچنین طرح صورت قضیه فیلیپ هال و ارائه مثال و کاربرد در مربعها لاتین و چند کاربرد عملی (با نظر استاد).\n']</t>
+  </si>
+  <si>
+    <t>['آشنایی با منطق: آشنایی با منطق گزاره\u200cایی، زبان منطق گزاره\u200cایی، قواعد استنتاج طبیعی، معناشناسی، قضیه صحت و تمامیت، فرم های نرمال الگوریتمهای. SAT، آشنایی با زبان منطق محموالت، زبان منطق محموالت، قواعد استنتاج طبیعی، توصیف پذیری زبان، آشنایی با زبان Prolog. آشنایی با نظریه مجموعه\u200cها: مروری بر عملگرهای اجتماع، اشتراک، و متمم گیری، تعریف تابع و رابطه، اصول نظریه مجموعه\u200cها، پارادوکس راسل. نظریه مجموعه\u200cها به عنوان پایه:ساخت اعداد طبیعی، ساخت اعداد گویا، ساخت اعداد حقیقی. مجموعه\u200cهای نامتناهی: اعداد اصلی، اعداد ترتیبی، خوشترتیبی.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- اتاماتای متناهی به عنوان یک ماشین محاسبه ساده. خواص اتاماتای متناهی. لم پامپینگ . کلاس های هم ارزی جداناپذیری روی یک زبان.  زبان های منظم و عبارتهای منظم. اتاماتای غیر قطعی و قضایای کلینی. زبان های مستقل از متن. گرامر مستقل از متن. لم پامپینگ برای زبان های مستقل از متن. اتاماتای پشته ای. اتاماتای پشته ای قطعی. خواص زبان های مستقل از متن. معرفی ماشین تورینگ. حل چند مساله با ماشین تورینگ.\n']</t>
   </si>
   <si>
     <t>['-\n']</t>
   </si>
   <si>
-    <t>['-\n', '- اعداد حقیقی و آشنایی با فضاهای متریک و مفاهیم توپولوژیکی آن. مجموعه اعداد حقیقی، اصل کمال و خاصیت ارشمیدسی. مجموعه\u200cهای باز و بسته. مجموعه\u200cهای فشرده. مجموعه\u200cهای همبند. پیوستگی توابع. مشتق توابع. قضیه مقدار میانی و قضیه اکسترمم. پیوستگی یکنواخت. قضیه مقدار میانگین و قاعده هوپیتال. فضاهای متریک. دنباله\u200cها و همگرایی آن\u200cها. حد توابع. حفظ پیوستگی و همبندی توسط توابع پیوسته. آشنایی با تبدیل فوریه.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['مروری بر جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری. بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، تحلیل واریانس\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- بیان اهداف تحلیل سریهای زمانی با ذکر مثال\u200cهایی در زمینه\u200cهای مختلف مانند هواشناسی، موضوعات اقتصادی و مالی، روند، مولفه فصلی، تجزیه سری زمانی، برآورد روندها با مدل های رگرسیونی، هموارسازی، مفاهیم پایه\u200cای سری\u200cهای زمانی و فرآیندهای تصادفی(تابع میانگین و واریانس، تابع خود کوواریانس، خود همبستگی و خود همبستگی جزئی،\u200c مانایی)، فرآیند نوفه سفید، قدم زدن تصادفی، سری های عمومی خطی، میانگین متحرک و فرآیند خود بازگشت،  مدل\u200cهای ARMA  و ARIMA (فصلی و غیر فصلی)، در کلاس باکس- جنکینز، آزمون ریشه واحد، تفاضل\u200cگیری،  براورد پارامترها  (روشهای گشتاوری، کمترین مربعات و ماکسیمم درستنمایی)، پیش بینی، تحلیل باقیمانده ها و بررسی تشخیص مدلها، مناسبت مدل ها، آزمون\u200cهای خودهمبستگی، آزمون های نرمال بودن، ملاکهای AIC و BIC برای انتخاب مدل، مقدمه مدل های ناهمسان واریانس شرطی، تبدیلات باکس- کاکس.\n', '- توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'آشنایی با نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ساده، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، آنالیز مؤلفه\u200cهای اصلی (PCA) و تحلیل تفکیک خطی (تحلیل ممیزی یا (LDA.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس\u200cهای بهینه\u200cسازی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون مباحثی در علوم کامپیوتر یا دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پیش پردازش و آماده سازی داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استانداردسازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', '- تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی.\n', '- شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی.\n', '- روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', '- معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحلیل آنها بوسیله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با درس یادگیری ماشین مقدماتی اشتراک دارد، شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['`\t`آشنایی با زمینه های تحقیق در عملیات به ویژه در اقتصاد و یادگیری ماشین. مدل بندی مسائل بهینه سازی، مفاهیم پایه ای مرتبط با برنامه ریزی خطی شامل روشهای ترسیمی، سیمپلکس اولیه و دوگان، دوفازی، دوگانی، تحلیل حساسیت. روشهای حل مسائل حمل ونقل ساده و مرکب. مدل سازی مساله تخصیص و روش حل آن. آشنایی با برنامه ریزی عدد صحیح و روشهای شاخه و کران و صفحات برشی، آشنایی با ماشین بردار پشتیبان. معرفی یک نرم افزار یا زبان مدلسازی جهت حل مسائل بهینه سازی، مانند CPLEX  و Pyomo\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مدل سازی شامل: کاربردهایی از بهینه سازی محدب مانند طبقه بندی خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل های سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازی، شرایط لازم و کافی برای مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهای حل مسایل نامقید شامل: روشهای بر مبنای جستجوی خطی( جستجوی طلایی، فیبوناچی، عقب گرد)، روشهای گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش های گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازی درجه دوم محدب با قیود خطی و معرفی برخی روش های حل آن ؛ الگوریتم\u200cهای حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازی الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+    <t>['-\n', '- اعداد حقیقی و آشنایی با فضاهای متریک و مفاهیم توپولوژیکی آن. مجموعه اعداد حقیقی، اصل کمال و خاصیت ارشمیدسی. مجموعه\u200cهای باز و بسته. مجموعه\u200cهای فشرده. مجموعه\u200cهای همبند. پیوستگی توابع. مشتق توابع. قضیه مقدار میانی و قضیه اکسترمم. پیوستگی یکنواخت. قضیه مقدار میانگین و قاعده هوپیتال. فضاهای متریک. دنباله\u200cها و همگرایی آن\u200cها. حد توابع. حفظ پیوستگی و همبندی توسط توابع پیوسته. \n']</t>
+  </si>
+  <si>
+    <t>['مروری بر جمع آوری اطلاعات آماری و تلخیص و ارائه آن، توزیع فراوانی، اندازه گیری شاخص های آماری. بررسی مفاهیم احتمالات و احتمال کلاسیک، احتمال شرطی، قانون احتمال کل، احتمال بیز، متغیرتصادفی، توزیع احتمال و توابع آن، مقدمه ای بر نمونه گیری، استنباط آماری، برآورد نقطه ای، برآورد فاصله ای، آزمون فرضیه های آماری، ضریب همبستگی و رگرسیون، انواع رگرسیون، تحلیل واریانس\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- بیان اهداف تحلیل سریهای زمانی با ذکر مثال\u200cهایی در زمینه\u200cهای مختلف مانند هواشناسی، موضوعات اقتصادی و مالی، روند، مولفه فصلی، تجزیه سری زمانی، برآورد روندها با مدل های رگرسیونی، هموارسازی، مفاهیم پایه\u200cای سری\u200cهای زمانی و فرآیندهای تصادفی(تابع میانگین و واریانس، تابع خود کوواریانس، خود همبستگی و خود همبستگی جزئی،\u200c مانایی)، فرآیند نوفه سفید، قدم زدن تصادفی، سری های عمومی خطی، میانگین متحرک و فرآیند خود بازگشت،  مدل\u200cهای ARMA  و ARIMA (فصلی و غیر فصلی)، در کلاس باکس- جنکینز، آزمون ریشه واحد، تفاضل\u200cگیری،  براورد پارامترها  (روشهای گشتاوری، کمترین مربعات و ماکسیمم درستنمایی)، پیش بینی، تحلیل باقیمانده ها و بررسی تشخیص مدلها، مناسبت مدل ها، آزمون\u200cهای خودهمبستگی، آزمون های نرمال بودن، ملاکهای AIC و BIC برای انتخاب مدل، مقدمه مدل های ناهمسان واریانس شرطی، تبدیلات باکس- کاکس.\n', '- توجه: پیاده\u200cسازی و بکارگیری عملی در نرم\u200cافزار جزیی از سرفصل است که بنا به صلاحدید مدرس اعمال می\u200cشود.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['اصطلاحات و مفاهیم پایه یادگیری ماشینی، تفاوت بین یادگیری با نظارت و یادگیری بی نظارت، طبقه\u200cبندی داده\u200cها:\u200c روش k-نزدیک\u200cترین همسایه، روشها و معیارهای ارزیابی طبقه\u200cبندها: صحت، دقت و فراخوانی، ماتریس درهم\u200cریختگی، اعتبارسنجی متقابل. رگرسیون:  رگرسیون خطی، روش معادلات نرمال، رگرسیون لجستیک، مدل ساده پرسپترون، شبکه\u200cهای عصبی چند لایه پرسپترونی.\n', 'آشنایی با نرمال\u200cسازی و استانداردسازی داده\u200cها. روش بیز ساده، درخت تصمیم و الگوریتم\u200cهای مربوطه. آشنایی مقدماتی با ترکیب طبقه\u200cبندها، جنگل تصادفی.\n', 'مباحث تکمیلی درخصوص رگرسیون:\u200c انتخاب متغیرها در مدل\u200cهای رگرسیونی، مدل\u200cهای رگرسیون چندجمله\u200cای، اسپلاین \n', 'الگوریتم\u200cهای یادگیری بدون نظارت، روش خوشه\u200cبندی  K-Means. آشنایی با چند معیار ارزیابی روش\u200cهای خوشه\u200cبندی، آنالیز مؤلفه\u200cهای اصلی (PCA) و تحلیل تفکیک خطی (تحلیل ممیزی یا (LDA.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', 'در تدریس این درس به سرفصل درس داده\u200cکاوی مقدماتی هم توجه شود که هم\u200cپوشانی تدریس کمینه باشد. فرض بر این است که روش ماشین بردار پشتیبان در درس\u200cهای بهینه\u200cسازی گفته شده است. همچنین به فرض سایر موضوعات مرتبط با یادگیری ماشین همچون روش\u200cهای منظم\u200cساز، رگرسیون ریج، روشهای بگینگ و بوستینگ،AdaBoost, XGBoost, EM، روشهای کرنل، نفرین ابعاد، موازنه بایاس-وارایانس، سایر روشهای ارزیابی طبقه\u200cبندها و خوشه\u200cبندها در دروس تکمیلی مرتبط با یادگیری ماشین، همچون مباحثی در علوم کامپیوتر یا دروس تحصیلات تکمیلی گفته خواهد شد. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مفاهیم و اصول پایه داده کاوی، انباره داده\u200cها، OLAP، پیش پردازش و آماده سازی داده\u200cها، پاکسازی داده\u200cها، یکپارچه سازی، جایگذاری داده\u200cهای گمشده (مفقود)، انتخاب متغیر و تبدیلات روی داده\u200cها، نرمال\u200cسازی و استانداردسازی داده\u200cها، تحلیل اکتشافی و مصور\u200cسازی، مجموعه اقلام مکرر، قواعد انجمنی.\n', '- تکمیل روشهای خوشه\u200cبندی در درس یادگیری ماشین مقدماتی، همچون روشهای سلسله مراتبی، روشهای مبتنی بر چگالی مانند DBSCAN، روشهای مبتنی بر گرید، مانند CLIQUE، خوشه\u200cبندی طیفی. آشنایی با سایر روش\u200cهای ارزیابی خوشه\u200cبندی.\n', '- شناسایی داده\u200cهای پرت. روش\u200cهای رتبه\u200cبندی صفحات، سیستم\u200cهای پیشنهاد دهنده، ارزیابی آنها، پالایش مشارکتی، معیارهای مختلف مقایسه، فاصله اقلیدسی، ضریب همبستگی پیرسون،\u200c شباهت کسینوسی، ضریب کاپای کوهن، پالایش بر اساس اقلام، امتیازدهی صریح و ضمنی. تجزیه و تحلیل شبکه\u200cهای اجتماعی، اشاره ای به گراف کاوی، تحلیل لینک و متن کاوی.\n', '- روشهای کاوش الگوها در داده\u200cهای ترتیبی و سری\u200cهای زمانی، GSP ،  SPADE،\u200cFreeSpan، آنالیز تناوب، Motif Discovery،  Matrix Profile، الگوریتم MASS.\n', '- معرفی برخی از نرم افزارهای تخصصی در داده کاوی، مانند RapidMiner، نحوه بارگذاری  داده\u200cها  و تحلیل آنها بوسیله نرم افزار،  ارایه پروژه های کلاسی دانشجویان.\n', 'نکته\u200c: از آنجا که برخی از موضوعات مانند روش\u200cهای طبقه\u200cبندی و خوشه\u200cبندی با درس یادگیری ماشین مقدماتی اشتراک دارد، شایسته است مدرسین این دروس در این خصوص هماهنگ باشند.\n']</t>
+  </si>
+  <si>
+    <t>['`\t`آشنایی با زمینه های تحقیق در عملیات به ویژه در اقتصاد و یادگیری ماشین. مدل بندی مسائل بهینه سازی، مفاهیم پایه ای مرتبط با برنامه ریزی خطی شامل روشهای ترسیمی، سیمپلکس اولیه و دوگان، دوفازی، دوگانی، تحلیل حساسیت. روشهای حل مسائل حمل ونقل ساده و مرکب. مدل سازی مساله تخصیص و روش حل آن. آشنایی با برنامه ریزی عدد صحیح و روشهای شاخه و کران و صفحات برشی، آشنایی با ماشین بردار پشتیبان. معرفی یک نرم افزار یا زبان مدلسازی جهت حل مسائل بهینه سازی، مانند CPLEX  و Pyomo\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مدل سازی شامل: کاربردهایی از بهینه سازی محدب مانند طبقه بندی خطی، برازش داده\u200cها (کمترین مربعات خطی و غیر خطی)، مدل های سبد سرمایه (مدل میانگین-واریانس و مینیمم واریانس مارکوویتز)، کنترل بهینه، مساله ماکسیمم درست نمایی، مساله اشتاینر، ........؛ شکل کلی مسایل بهینه سازی، شرایط لازم و کافی برای مسایل نامقید و مقید، شرایط کاروش-کیون-تاکر؛ الگوریتم\u200cهای حل مسایل نامقید شامل: روشهای بر مبنای جستجوی خطی( جستجوی طلایی، فیبوناچی، عقب گرد)، روشهای گرادیان و نیوتن و بررسی نقاط ضعف و قوت آنها. روش های گرادیان مزدوج و شبه نیوتن. مسایل بهینه سازی درجه دوم محدب با قیود خطی و معرفی برخی روش های حل آن ؛ الگوریتم\u200cهای حل مسایل مقید مانند الگوریتم\u200cهای نقطه درونی. پیاده سازی الگوریتم\u200cها  در پایتون یا نرم\u200cافزار مشابه.\n', '-\n']</t>
   </si>
   <si>
     <t>['•\tکسب و کارهای نوپا، به ویژه کسب و کارهای نوپای ناب\n']</t>
   </si>
   <si>
-    <t>['-\n', '- انقلاب صنعتی چهارم\n', '- روند حضور و نفوذ فناوری های دیجیتال در صنعت\n', '- انقلاب دیجیتال\n', '- تحول دیجیتال\n', '- روندهای اقتصادی و فناوری های مرتبط با اقتصاد دیجیتال\n', '- هوش مصنوعی / بلاک چین / اینترنت اشیا  / ...\n', '- مدل های کسب و کار در اقتصاد دیجیتال\n', '- انقلاب پلتفرم\n', '- تجارت الکترونیک نسل چهارم \n', '- تشخیص فرصت و ایده پردازی در فضای کسب و کارهای دیجیتالی\n', '- طراحی و راه اندازی کسب و کار در اقتصاد دیجیتالی\n', '- اصول تیم سازی در فضای کسب و کارهای دیجیتالی\n', '- اصول مدیریت پروژه و کار تیمی در فضای کسب و کارهای دیجیتالی \n', '- نقش های کلیدی در یک کسب و کار مبتنی بر اقتصاد دیجیتال\n', '- تدوین استراتژی ورود به بازار و اصول بازاریابی در کسب و کارهای دیجیتالی\n', '- تدوین استراتژی های جذب، حفظ و توسعه مشتریان در کسب و کارهای دیجیتالی\n', '- قیمت گذاری محصولات یا خدمات\n', '- روش های تامین مالی و شیوه ارائه به سرمایه گذار و الزامات آن\n', '- ارزشگذاری فناوری\n', '- اجزای اکوسیستم نوآوری مبتنی بر اقتصاد دیجیتال و آشنایی با نقش آنها\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['**محتوای کارآموزی برای هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n', '**روش یاددهی-یادگیری:** کار عملی در شرکت یا سازمان مربوطه\n', '**روش ارزیابی:** در اختیار مدرس\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه\u200cای بر هوش مصنوعی و تاریخچه\u200cی آن، معرفی عامل\u200cهای هوشمند، فضای حالت، جست\u200cوجوی ناآگاهانه، جست\u200cوجوی آگاهانه، الگوریتم \\*A و اثبات بهینگی، جست\u200cوجوی محلی، مسائل ارضای محدودیت، جست\u200cوجوی عقبگرد، حل مسائل CSP با رویکرد جستجوی محلی، جستجوی مقابله\u200cای، الگوریتم minimax و هرس آلفا-بتا، یادگیری تقویتی، روش\u200cهای مبتنی بر مدل، یادگیری تفاضل زمانی  و الگوریتم Q-learning، منطق، منطق گزاره\u200cای  و استنتاج  در منطق گزاره\u200cای، منطق مرتبه اول  و استنتاج در منطق مرتبه اول، معرفی شبکه\u200cهای بیزین، بازنمایی  در شبکه\u200cهای بیزین و استقلال  در این شبکه\u200cها، استنتاج در شبکه\u200cهای بیزین: استنتاج دقیق و استنتاج تقریبی با استفاده از نمونه برداری، تخمین پارامترها در شبکه\u200cهای بیزین، نمونه\u200cهای معروف و کاربردی از شبکه\u200cهای بیزین: مدل مارکوف، مدل مخفی مارکوف، دسته\u200cبند بیز ساده.\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- توزیعهای توام: تابع احتمال، تابع چگالی و تابع توزیع توام، متغیرهای تصادفی مستقل، کواریانس، ضریب همبستگی، مثال هایی از توزیع های توام خاص. توزیع های شرطی: توزیع های شرطی گسسته، توزیع های شرطی پیوسته، کاربرد توزیع های شرطی، امید ریاضی شرطی و کاربردهای آن شامل امید کل، واریانس شرطی. توزیع توابعی از متغیرهای تصادفی: روش تابع توزیع، روش تغییر متغیرها (دو یا چند متغیره)، روش تابع مولد گشتاور، توزیع مجموع متغیرهای تصادفی، مجموع تعداد تصادفی از متغیرهای تصادفی، امید ریاضی مجموع تعداد تصادفی از متغیرهای تصادفی. قضیه حد مرکزی و تقریب دوجمله ای توسط نرمال، تقریب پواسن به نرمال. آمار توصیفی: نمونه، جامعه آماری، شاخصهای آماری، نمودارهای آماری. نمونه تصادفی، توزیع میانگین نمونه ای، توزیع های نمونه ای، تی استودنت، کای-دو و توزیع فیشر. روشهای برآوردیابی پارامترهای نامعلوم: برآوردیابی نقطه ای، برآورد فاصله ای، فاصله اطمینان با اندازه نمونه\u200cهای بزرگ. آشنایی با مفاهیم آزمون فرضها: آزمون فرضهای ساده، آزمون فرض های یک طرفه، آزمون فرض های دوطرفه، آزمون واریانس جمعیت نرمال، آزمون میانگین و نسبت با اندازه نمونه های بزرگ، استنباط در مورد دو میانگین، استنباط در مورد جفت مشاهدات، آزمون میانگین و نسبت دو جمعیت با اندازه نمونه های بزرگ.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['مروری بر مباحث آمار توصیفی، پالایش داده\u200cها با اندازه\u200c وابعاد زیاد، رسم نمودار هسته\u200cهای چگالی یک و دومتغیره، آزمون\u200cهای نرمال یک و چند متغیره، کاربرد روش\u200cهای مونت\u200cکارلو در استنباط آماری، مقدمه\u200cای بر شیوه\u200c شبیه\u200cسازی در تولید داده\u200cهای تصادفی از چند توزیع آماری، مانند نرمال و تی-استیودنت، یک و چند متغیره و بررسی ویژگی آن\u200cها، مطالعات شبیه\u200cسازی برای آزمون برابری میانگین\u200cها، واریانس\u200cها و میانه\u200cهای جوامع با نمونه\u200cهای مستقل از توزیع\u200cهای نرمال و چند توزیع غیر نرمال. کاربرد روش مونت\u200cکارلو دریافتن احتمال\u200cهای پیچیده و p-مقدار برخی آزمون\u200cها، شبیه\u200cسازی مدل\u200cهای رگرسیون خطی با انواع متغیرهای توضیحی کمی و کیفی و با فرض مانده\u200cهای غیر نرمال و وابسته، بررسی استواری مدل نسبت به نقض فرض\u200cهای معمول، مباحث تکمیل\u200cکننده در صحت و اعتبار مدل\u200cهای برازش شده باوجود مشاهدات پرت و ناهمسانی واریانس، معرفی راهبردهای مناسب مانند رگرسیون استوار ناپارامتری، یافتن برآوردهای ماکسیمم درستنمایی توسط روش\u200cهای بهینه\u200cسازی عددی مانند نیوتن-رافسون و امتیاز فیشر، روش\u200c بوت\u200cاسترپ و جک\u200cنایف و کاربرد آن\u200cها در مباحث آماری؛ الگوریتمEM و کاربرد آن در برآورد یابی توزیع\u200cهای آمیخته متداول پیوسته و گسسته یک متغیره.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو. مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیز نیاز دارد، فعالیت\x1fهای تعیین شده ای توسط استاد درس بایستی در آزمایشگاه نرم افزار ارائه شود و دانشجویان نیز فعالیت\x1fهای تعریف شده ای را انجام \x1fدهند.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['نمونه تصادفی، توزیع میانگین نمونه ای،  قضیه حدمرکزی، برآورد نقطه ای و ویژگی های آن، برآورد فاصله ای برای پارامترهای میانگین، واریانس و نسبت در یک جامعه و  مقایسه دو جامعه در حالات: جوامع نرمال، جوامع غیرنرمال، واریانس های دو جامعه معلوم، واریانس های دو جامعه مجهول و واریانس ها مجهول ولی برابر، حجم نمونه ها کم و حجم نمونه ها زیاد، بر اساس دو نمونه مستقل و دو نمونه وابسته،  آزمون فرضیه های آماری: بیان مفاهیم و اصول آزمون های آماری، انواع خطا و اهمیت آنها، اندازه آزمون، آزمون های پارامتری یک طرفه و دو طرفه برای میانگین، واریانس و نسبت یک جامعه و مقایسه  دو جامعه در حالات : واریانس معلوم، واریانس مجهول، میانگین معلوم، میانگین مجهول، حجم نمونه ها کم، حجم نمونه ها زیاد، دو جامعه مستقل و دو جامعه وابسته، نمودار پراکنش، براورد، آزمون فرض و فاصله اطمینان برای ضریب همبستگی پیرسون،  رگرسیون خطی ساده، آزمون خی دو برای نیکوئی برازش، جدول توافقی و آزمون استقلال، محاسبات و تحلیل داده با حداقل یک نرم افزار آماری و تفسیر خروجی های آن. \n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n', '-\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای تطابق. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، برش کمینه)، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف، مسائل مکان\u200cیابی. اجرای پروژه کاربردی.\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم\u200cهای انتقالی.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- یادآوری مفاهیم حلقه، میدان، حلقه خارج قسمتی، حوزه ایده آل اصلی، حلقه چندجمله\u200cای\u200cها، الگوریتم تقسیم، فضای برداری روی میدان متناهی، پایه و بعد یک فضای برداری. تعریف مفاهیم ابتدایی کدگذاری شامل مجموعه الفبا، کد و کد کلمه، تعریف فاصله همینگ و خواص آن و ….  مقدمه\u200cای بر میدان\u200cهای متناهی. مقدمه\u200cای بر کدهای خطی. تعریف کد دوری.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه\u200cای بر رمزنگاری. ساختارهای اساسی رمزنگاری. رمزنگاری متقارن. رمزنگاری کلید عمومی. امضای دیجیتال. ریاضی رمز. تعاریف مبتنی بر شبیه\u200cسازی. مدل پیشگوی تصادفی. پروتکل های رمزنگاری. رمزنگاری کوانتومی.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه ای بر امنیت ، تعریف امنیت، مفاهیم رمزنگاری – امنیت نرم افزار، تفاوت قابلیتهای امنیتی با قابلیتهای امن، تاثیر امنیت در فرایند مهندسی نرم افزار، نیازمندیهای کیفی نرم افزار، دسته بندی مخاطرات، مدلهای تولید نرم افزار امن )مدل مستقل ، مدل توزیع شده ، مدل متمرکز( - آنالیزهای ایستا و پویا ، آنالیز ایستا )محدودیتهای آنالیز ایستا، بازخوانی کد، مدل سازی، آنالیز الگوریتم(، آنالیز پویا )تست نفوذ( – مخاطرات مشهور، سرریز بافر، بررسی ورودی، خطاها و استثنائات، امنیت برنامه های تحت وب، سطح دسترسی، حریم خصوصی - استانداردهای موجود، ASVS\\OWASP ، Cert ، SDLC ، Clasp ،Criteria Common – ابزارهای آنالیز سورس کد ، ابزارهای ایستا ، ابزارهای پویا. \n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- معناشناسی عملیاتی. درستی یابی برنامه. تایپ های بازگشتی.\n', '-\n', '` `**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- احتمال و اثبات با روش احتمالاتی. الگوریتم\u200cهای تصادفی پایه\u200cای. جایگشت تصادفی و کاربردهای\u200c آن. کران پایین الگوریتم\u200cهای تصادفی. ساختمان\u200cداده. قدم\u200cزدن تصادفی. روش مونت کارلو. روش\u200cهای جبری. الگوریتم\u200cهای گراف. آنتروپی.\n', '-\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - مقدمه \n', '- - معرفی درس، نمونه مسائل هندسی\n', '- - پوسته\u200cی محدب \n', '- - محاسبه\u200cی پوسته\u200cی محدب در صفحه، عملیات پایه\u200cی هندسی\n', '- - چند روش برای محاسبه\u200cی پوسته\u200cی محدب در صفحه\n', '- - اثبات کران پایین، قضیه\u200cی بن-اُر\n', '- - الگوریتم\u200cهای حساس به خروجی، دو الگوریتم بهینه از چن\n', '- - دوگان هندسی \n', '- - دوگان نقاط، پوش\u200cهای بالایی و پایینی، کاربردها، دوگان در فضای سه\u200cبعدی\n', '- - پوسته\u200cی محدب در فضای سه\u200cبعدی \n', '- - پیچیدگی ترکیبیاتی، نحوه\u200cی نمایش، الگوریتم کادوپیچی\n', '- - الگوریتم تصادفی کلارکسون-شور، پوسته\u200cی محدب در فضاهای بالاتر\n', '- - تقاطع و چینش خطوط \n', '- - ساخت چینش خطوط، الگوریتم افزایشی، قضیه\u200cی قلمرو یک خط\n', '- - تقاطع پاره\u200cخط\u200cها، الگوریتم جاروب صفحه، الگوریتم تقسیم و حل\n', '- - نمودار ورونوی و مثلث\u200cبندی دلونی \n', '- - تعریف نمودار ورونوی، ویژگی\u200cها و قضایا\n', '- - مثلث\u200cبندی دلونی و خواص آن، الگوریتم فورچیون\n', '- - ارتباط با پوسته\u200cی محدب، الگوریتم تصادفی ساخت\n', '- - کاربردهای نمودار ورونوی و مثلث\u200cبندی دلونی، نمودار ورونوی مرتبه\u200cی بالاتر\n', '- - برنامه\u200cریزی خطی \n', '- - تعریف برنامه\u200cریزی خطی، کاربردهای هندسی در فضای پایین\n', '- - الگوریتم هرس و جست\u200cوجوی مگیدو، الگوریتم تصادفی-افزایشی سایدل\n', '- - الگوریتم نمونه\u200cبرداری تصادفی کلارکسون\n', '- - مسائل شبیه به برنامه\u200cریزی خطی، کوچک\u200cترین دایره\u200cی محیطی\n', '- - مکان\u200cیابی نقاط \n', '- - روش تقسیم و حل، نقشه\u200cی ذوزنقه\u200cای، الگوریتم افزایشی تصادفی\n', '- - الگوریتم هرس و جست\u200cوجوی کرکپاتریک\n', '- - مثلث\u200cبندی چندضلعی \n', '- - روش ذوزنقه\u200cبندی، الگوریتم تصادفی سایدل\n', '- - کاربردهای مثلث\u200cبندی، مسئله\u200cی گالری هنر\n', '- - جست\u200cوجوی بازه\u200cای \n', '- - بازه\u200cهای متعامد: درخت کی\u200cدی، درخت بازه، آبشار کسری\n', '- - پنجره\u200cبندی، درخت جست\u200cوجوی اولویت، درخت پاره\u200cخط\n', '- **روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '- **روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '- **تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', 'ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'نکته: از آنجا که دانشجویان در دروس یادگیری ماشین مقدماتی و آشنایی با یادگیری عمیق با شبکه\u200cهای عصبی آشنایی پیدا می\u200cکنند، این موضوع در سرفصل این درس ذکر نشده است.\n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['`   `مفاهیم مقدماتی و ابزارهای هوش تجاری، فرایند تصمیم گیری، سیستم\u200cهای پشتیبان تصمیم گیری، مفاهیم، روشها و تکنولوژی، تصمیم گیری براساس مدل های آماری در سیستم\u200cهای تجاری، داده کاوی در هوش تجاری،  فرایند استخراج، تبدیل و  بارگذاری داده\u200cها (ETL) ، وب کاوی، انبار داده\u200cها،  پاکسازی داده\u200cها، تهیه و ساخت جداول، ایجاد ارتباط بین جداول، طراحی و ساخت  انواع گزارش ها، گزارش های زمان محور و مکان محور روی نقشه، ساخت انواع نمودارها، ساخت و سفارشی سازی داشبوردهای مدیریتی با استفاده از نرم افزارهایی مانند Tableau، Power BI، Self-Service BI، Tableau Prep، QlikSense، ارائه پروژه های دانشجویان. \n', '**روش یاددهی-یادگیری:**تدریس توسط استاد، حل مثال و مسائل مربوط به درس، مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمون\u200cهای کوتاه توسط استاد درس. شرکت در کلاس حل تمرین و انجام تکلیف\u200cهای محول شده توسط دانشجو.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['`    `مروری مختصر بر رگرسیون، لجستیک رگرسیون و مدل پرسپترون. معرفی تنسورها، عملیات روی تنسورها (برش، عملیات درجا و ...)، مشتق\u200cگیری خودکار، انتقال تنسورها به کارت گرافیک، آشنایی با انواع توابع فعالیت، توابع هزینه و الگوریتم\u200cهای بهینه\u200cسازی مورد استفاده در روال گرادیان کاهشی، روشهای ارزیابی (monitoring)، الگوریتم پس انتشار، بیش برازشی و کم برازشی، آماده\u200cسازی داده\u200cها،  منظم\u200cسازی، Dropout، شبکه\u200cهای عصبی متراکم (تمام متصل یا چگال)، شبکه\u200cهای عصبی پیچشی (کانولوشنی)، نمایش آنچه که لایه\u200cهای لایه\u200cهای پیچشی آموزش می\u200cبینند. کاربرد در پردازش سری\u200cهای زمانی، شبکه\u200cهای برگشتی  (RNN, GRU, GLU). یادگیری خود کدگذارها، آشنایی با چند معماری معروف، انتقال یادگیری، یادگیری انتها به انتها، طبقه\u200cبندی داده\u200cهای تصویری، متنی، تنظیم پارامترها. شبکه\u200cهای مولد هم\u200cآورد (GAN)، نمایش برخی توانمندی\u200cهای یادگیری عمیق از طریق بیان مثالهای کاربردی از قبیل تولید متن، شناسایی چهره، تولید تصویر جعلی، رؤیای عمیق، انتقال سبک عصبی، نقاشی با شبکه\u200cهای عصبی و بیان توابع هزینه\u200cی مرتبط با آنها. آشنایی با حداقل یکی از کتابخانه\u200cهای معروف حوزه یادگیری عمیق مانند پای\u200cتورچ یا تنسورفلو. \n', 'نکته: با توجه به اینکه پیش\u200cنیاز این درس، یادگیری ماشین مقدماتی است و در آن درس رگرسیون، مدل پرسپترون و شبکه\u200cهای چند لایه پرسپترونی گفته شده\u200cاند، در این درس می\u200cتوان به سرعت وارد مبحث موضوع یادگیری عمیق شد.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- `\t`مقدمه ای بر مدلسازی، تعریف مدلسازی و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهای اقتصادی مدلهای بیویوژیکی و زیستی، مدلهای فیزیکی، مدلهای تصادفی، مدلهای دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازی: انواع توابع ونمایش آنها با استفاده از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازی، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهای اقتصادی از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازی، مقایسه بین، توابع خطی و نمایی در مدلسازی، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازی، رشد وکاهش نمایی، استفاده از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژی و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاده از گرافها در مدلسازی، بسط گرافها و گرافهای شیفت یافته و کاربرد آنها در مدلسازی همراه با ارائه چند مثال؛ توابع توانی و چند جمله ای ها در مدلسازی، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازی با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازی همراه با ارائه چند مثال.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- `\t`معرفی یکی از نرم افزارهای ریاضی، نحوه نصب و استفاده از راهنمای آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهای n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهای تابع، رسم نمودارهای دو بعدی، برنامه\u200cنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهای تقریبی برآورد انتگرال، دنباله\u200cها و سری ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- `\t`مروری گذرا بر منطق کالسیک (ارسطویی) و نظریه مجموعه\u200cهای کالسیک. تعریف مجموعه\u200cهای فازی و متغیر زبانی، تابع عضویت و انواع متداول آن (تابع عضویت منفرد، مثلثی، ذوزنقه و گوسی)، آشنایی با مفاهیم تکیهگاه، ارتفاع، مرکز، هسته، نرمال بودن، آلفا-برش. معرفی مفاهیم زیرمجموعه بودن فازی، مکمل فازی، اجتماع فازی، اشتراک فازی، قانون دمورگان.  مروری کوتاه بر نظریه امکان و تفاوت آن با نظریه احتمال. تعریف عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی و میانگین فازی. معرفی شرایط برقراری مجموعه انجمنی برای عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی. تعریف حاصلضرب دکارتی مجموعه\u200cهای فازی، تعریف رابطه فازی و ترکیب روابط فازی، تعریف تابع فازی، معرفی مفاهیم تصویر فازی، توسعه استوانهای فازی، اصل تجزیه فازی و اصل توسیع زاده. معرفی اعداد فازی، انواع اعداد فازی متداول (عدد فازی منفرد، مثلثی، ذوزنقه\u200cای و نمایی یا گوسی)، حساب اعداد فازی بر اساس دو روش اصل توسیع فازی و استفاده از آلفا-برشها، بررسی وجود جواب معادالت خطی فازی، رتبه بندی اعداد فازی. تعریف گزاره\u200cهای فازی، قواعد اگر- آنگاه فازی، تعریف استلزام فازی و کاربرد آن در ساختن یک سیستم استنتاج فازی(سیستم کنترل فازی). تعریف موتور استنتاج فازی، فازی ساز و انواع آن، پایگاه قواعد فازی، غیر فازی ساز و انواع آن. آشنایی با ساختن یک سیستم فازی ممدانی.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه\u200cهای مستقل و خوشه ها.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- جبر خطی و فضاهای هیلبرت: یادآوری فضاهای برداری و خواص آن، ضرب داخلی و تعامد، عملگرهای خطی و خود الحاق روی فضای ضرب داخلی، فضاهای هیلبرت، دنباله ها و سری ها در فضای هیلبرت، پایه های متعامد؛ سری فوریه: دیدگاه های تاریخی، تحلیل سیگنال و مثال های متنوع، سری فوریه و قضایای همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی های تبدیل فوریه، تبدیل فوریه در فضاهای اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهای آن؛ موجک ها:  سیستم های هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه های موجکی، تبدیل های گسسته موجکی، موجک هار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه و برپایی محیط توسعه اندروید \n', '- آشنایی با مفاهیم، ابزارها ، نحوه\u200cی خطایابی و آزمون در توسعه\u200cی برنامه\u200cهای اندروید، فرایند تولید یک برنامه اندروید\n', '- \u200eواسط کاربری و الگوهای آن\u200e \n', '- آشنایی با الگوی MVP، معرفی مولفه\u200cهای واسط کاربری، اصول طراحی و پیاده\u200cسازی یک واسط کاربری سفارشی ، مدیریت واسط کاربری به صورت پویا ، بهترین الگوهای  طراحی واسط کاربری در اندروید\n', '- مدیریت داده\u200cها و بومی\u200cسازی \n', '- ذخیره و بازیابی اطلاعات یک برنامه کاربردی در Preference اشتراکی و اختصاصی، ارتباط با پایگاه داده ، مکانیزم\u200cهای پشتیبانی از localization  و internationalization \n', '- حافظه و ریسمان\u200cها \n', '- چرخه\u200cی حیات برنامه اندروید ، مدل حافظه و مدیریت ریسمان\u200cها در اندروید، آشنایی با اصول پیاده\u200cسازی الگو AsyncTask\n', '- مدیریت سرویس\u200cها\u200e \n', '- سرویس\u200cهای مبتنی بر مکان ، مدیریت سرویس\u200cها و هشدارها ، مدیریت دوربین، مدیریت سنسورها ، آشنایی با پرداخت درون برنامه\u200cای\n', '- برپایی محیط توسعه iOS \n', '- آشنایی با مفاهیم و ابزارهای توسعه برنامه\u200cنویسی ، مروری بر مولفه\u200cهای واسط کاربری و آشنایی با Storyboards، آشنایی با الگوی MVC\n', '- برنامه\u200cنویسی با Swift \n', '- آشنایی با ساختار زبان، انواع داده\u200c، کلاس\u200cها و اشیا، قلمروها ، اختیاری\u200cها ، داده\u200cها و توابع عام ، آشنایی با پروتکل\u200cها ، مدیریت خطاها، مروری بر مدیریت حافظه\n', '- تکنولوژی\u200cهای iOS \n', '- تکنولوژی\u200cهای واسط کاربری، تکنولوژی\u200cهای بازی\u200cسازی ، تکنولوژی\u200cهای مدیریت داده\u200cها ، مدیریت صدا و تصویر \n', '-\n', '- امنیت\u200e، آشنایی با مخاطرات امنیتی و استانداردهای تخمین آن ، آشنایی با ابزارهای Obfuscation، آشنایی با ابزارهای تحلیل مخاطرات امنیتی\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- - مقدمه \n', '- - کلیات درس، تاریخچه\u200cی وب، پروتکل\u200c HTTP\n', '- - طراحی صفحات \n', '- - ساختار HTML، عناصر و ویژگی\u200cها، پاراگراف\u200cبندی، فرمت\u200cبندی، لینک\u200cها، لیست\u200cها\n', '- - `      `تصاویر، جدول\u200cها، فرم\u200cها، عناصر جدید در HTML5\n', '- - سبک\u200cبندی \n', '- - تعریف CSS، فرمت\u200cبندی، انتخاب\u200cکننده\u200cها، وراثت و آبشار، اصول طراحی\n', '- - چیدمان صفحه، مدل جعبه\u200cای، نمایش شناور، موقعیت\u200cها، شبه\u200cکلاس\u200cها\n', '- - جاوا اسکریپت \n', '- - ساختار کلی زبان، کاربردها، دستورات و توابع، متغیرها و انواع داده\u200cای، ساختارهای کنترلی\n', '- - آرایه\u200cها، اشیاء، نحوه\u200cی تعریف اشیاء، سازنده\u200cها، نهان\u200cسازی داده\u200cها\n', '- - مدل DOM، ویرایش عناصر و سبک\u200cها، رسیدگی به رویدادها، استثناها\n', '- - کتاب\u200cخانه\u200cی jQuery، انتخاب\u200cکننده\u200cها، رویدادها، جلوه\u200cها و پویانمایی\n', '- - ذخیره\u200cی داده\u200cها \n', '- - آشنایی با XML، کاربردها، DTD، تبدیل توسط XSLT، آشنایی با JSON\n', '- - پایگاه\u200c داده\u200cهای رابطه\u200cای\u200c، ایجاد پایگاه داده، زبان پرس\u200cوجوی SQL\n', '- - تعامل با سرور \n', '- - رابط CGI، ارسال توسط GET و POST، پردازش فرم\u200cها، کوکی\u200cها\n', '- - استفاده از AJAX، ارسال درخواست، دریافت و تجزیه\u200cی پاسخ، کاربردها\n', '- - پایتون \n', '- - خواندن صفحات وب، کارگزار وب پایتون، آشنایی با WSGI\n', '- - معماری وب \n', '- لایه\u200cبندی، معماری کاربر-کارگزار، معماری سه\u200cلایه، معماری MVC\n', '- مدل\u200cهای داده، انواع رابطه\u200c، تطابق با پایگاه\u200c داده\u200cهای رابطه\u200cای\n', '- - چارچوب جنگو \n', '- مفاهیم اولیه، نصب و راه\u200cاندازی، مؤلفه\u200cها، معماری کلی\n', '- ایجاد یک پروژه، تعریف پایگاه داده، راه\u200cاندازی مدیر، افزودن نما\n', '- لایه\u200cی مدل، نگاشت\u200cگر شیء-رابطه، وراثت، اجرای پرس\u200cوجو\n', '- `     `لایه\u200cی نما، نگاشت نشانی\u200cها، اشیاء درخواست و پاسخ، نماهای عمومی\n', '- لایه\u200cی قالب\u200c، زبان تعریف قالب، تگ\u200cها و فیلترهای آماده\n', '- پردازش فرم\u200cها، ابزارک\u200cهای توکار، اعتبارسنجی\n', '- مباحث پیشرفته \n', '- میان\u200cافزارها، بهینه\u200cسازی، فشرده\u200cسازی، استفاده از کش\n', '- احراز هویت، کنترل دسترسی\u200cها، مدیریت کاربرها و گروه\u200cها\n', '- امنیت، محافظت در مقابل حملات امنیتی، رمزنگاری\n', '- `     `جلسات، ذخیره\u200cی حالت جلسه، روش\u200cهای ترکیبی\n', '- بین\u200cالمللی\u200cسازی، محلی\u200cسازی، ابزارهای ترجمه\u200c\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- برنامه\u200cنویسی مبتنی بر سوکت. سویچینگ بسته\u200cهای آی\u200cپی. آدرس\u200cدهی و هدایت مبتنی بر آی\u200cپی. قراردادهای انتقال (تی\u200cسی\u200cپی و یو\u200cدی\u200cپی\u200c). کنترل ازدحام. ترجمه\u200cی آدرس\u200cها (دی\u200cان\u200cاس\u200c، دی\u200cاچ\u200cسی\u200cپی و اِی\u200cآر\u200cپی\u200c). میان\u200cافزار (Middleware). سوئیچ ها و پل\u200cها (Switches and Bridges). اتصالات (Links). مسیریابی حالت اتصال. مسیریابی بردار فاصله و بردار مسیر. مسیریابی بردار مسیر مبتنی بر خط مشی (BGP). شبکه\u200cهای فرالایه\u200cای و همتا-به-همتا. جریان\u200cسازی چندرسانه\u200cای. سویچینگ مداری (Circuit Switching). شبکه\u200cهای بی\u200cسیم و همراه. شبکه توزیع محتوا (CDN). شبکه\u200cهای مبتنی بر نرم\u200c\u200cافزار.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه\u200cسازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصورسازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- خواص گرافی شبکه\u200cهای اجتماعی. نظریه بازی در شبکه\u200cهای اجتماعی. انتشار اطلاعات در شبکه\u200cهای اجتماعی. دینامیک شبکه\u200cهای اجتماعی.\n', '- انواع شبکه های اجتماعی،\u200c جهت دار/ بدون جهت، وزن دار/ بدون وزن، همگن/ ناهمگن\n', '- ` `مدل های شبکه Erdos–Rényi ، Small world ، Preferential attachment\n', '- ` `تحليل ساختاری شبکه های اجتماعی،  کوتاهترین مسير، قطر و شعاع شبکه، معيارهای مرکزیت\n', '- ` `تحليل رفتاری شبکه های اجتماعی،  انتشار اطلاعات، پيدا کردن گره های تاثيرگذار\n', '- آشنایی با کاربردهای شبکه های اجتماعی، بازاریابی، تشخيص جوامع، سيستم های توصيه و ...\n', '- بصری سازی\n', '- ` `آشنایی با ابزارهای تحليل شبکه های اجتماعی\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- بررسی کلی سیستمهای عامل. بررسی پیشینه های سیستم عامل. مدیریت فرآیند. مدیریت چند نخی. زمانبندی. مدیریت همزمانی. مدیریت بن بست و الگوریتم\u200cهای شناسایی و رفع بن بست. مدیریت ذخیره سازی. برنامه\u200cنویسی لینوکس.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- مدل\u200cهای فرآیند نرم\u200cافزار: مدل آبشاری، مدل تدریجی،\u200c مدل تکاملی، مدل هم\u200cزمان\n', '- توسعه چابک، اصول چابک:\u200c مقدمه\u200cای بر چارچوب\u200cهای چابک: Scrum،\u200c مقدمه\u200cای بر نرم\u200cافزارها و ابزارهای چابک، مطالعه موردی در دنیای واقعی\n', '- فرآیند یکپارچه RUP: معرفی RUP، مدیریت نیازمندی\u200cها، زبان مدل\u200cسازی یکپارچه UML \n', '- مدل C4 برای معماری نرم\u200cافزار\n', '- اصول و الگوهای طراحی، اصول طراحی شی\u200cگرا: الگوهای طراحی نرم\u200cافزار (GoF)، استفاده از الگوهای طراحی در مواجهه با مسائل واقعی\n', '- ضدالگوها و code smellها: تشخصی ضدالگوها و code smellها\n', '- بهسازی نرم\u200cافزار: روش\u200cهای بهسازی نرم\u200cافزار، ابزارهای بهسازی نرم\u200cافزار، \n', '- کیفیت نرم\u200cافزار: مقدمه\u200eای بر مدل\u200cهای کیفیت نرم\u200cافزار، سنجه\u200cهای اندازه\u200cگیری کمّی کیفیت نرم\u200cافزار\n', '- معماری نرم\u200cافزار: مقدمه\u200cای بر مدل\u200eهای معماری نرم\u200cافزار، معماری Clean\n', '- آزمون نرم\u200cافزار: آزمون واحد، آزمون یکپارچگی، توسعه آزمون\u200cمحور (TDD)\n', '- طراحی نرم\u200cافزار به کمک هوش مصنوعی\n', '- انجام پروژه تیمی.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- معرفی کلی کامپایلر. فاز تحلیل لغوی. آتوماتای متناهی. تجزیه بالا یه پایین. تجزیه پایین به بالا. تحلیل معنایی. تولید کد. \n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n', '-\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['معرفی بیوانفورماتیک، حوزه های علم بیوانفورماتیک، کاربردهای بیوانفورماتیک،  اساس بیوشیمی و زیست\u200cشناسی سلولی، ساختار مولکولی و شیمی فیزیکی پروتئین\u200cها و DNA، گرافیک مولکولی، بانک\u200cهای اطلاعاتی ساختاری، آنالیز توالی پروتئین و DNA، روشهای پیشگو به\u200cوسیله توالی\u200cهای پروتئین و DNA، آنالیز ژنومیک، کاربرد بالینی / پزشکی و درمانی Bio-informatics\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['**محتوای پروژه برای هر دانشجو توسط استاد پروژه تعیین می شود.**\n', '**روش یاددهی-یادگیری:** **تدریس مفاهیم در جلسات اصلی درس و برگزاری کلاسهای مشاوره در طول نیمسال .**\n', '**روش ارزیابی:** با نظر مدرس درس\n', '**تجهیزات و امکانات موردنیاز:** با نظر مدرس درس\n']</t>
-  </si>
-  <si>
-    <t>['-\n', '- حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n', '-\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور، سرور و کامپیوترپرقدرت برای محاسبات.\n']</t>
-  </si>
-  <si>
-    <t>['مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال.\n', '` `**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['معرفی معماری سیستم\u200cهای چندهسته\u200cای و مدل\u200cهای برنامه\u200cنوسی موازی\n', 'تاریخچه ظهور سیستم\u200cهای چند\u200cهسته\u200cای،  چالش\u200cهای برنامه\u200cنویسی کارا روی سیستم\u200cهای چند\u200cهسته\u200cای، معرفی سطوح موازات در برنامه\u200cها، تحلیل تسریع در سیستم\u200cهای چند\u200cهسته\u200cای همگون و ناهمگون، ارائه\u200cی\u200c چند نمونه واقعی از سیستم\u200cهای چند\u200cهسته\u200cای\n', 'چند\u200cپردازنده\u200cها با حافظه مشترک، \n', 'معرفی کلی معماری،  ارائه\u200cی مسئله\u200cی Cache Coherence و راه\u200cحل\u200cها، معرفی اجمالی مدل برنامه\u200cنویسی و نحوه همگام\u200cسازی نخ\u200cها،\u200c نحوه برخورد با ناحیه\u200cهای بحرانی، ایده\u200cهای کلی در بهبود برنامه\u200cهای موازی\n', 'الگو\u200cهای رایج موازی\u200cسازی محاسبات و مدیریت داده\n', 'الگوهای محاسباتی موازی: Map, Reduction, Scan, Stencil, Recurrence, Fork-Join\n', 'الگوهای موازی مدیریت داده: Gather, Scatter, Pack, Geometric Decomposition &amp; Partitions\n', 'برنامه\u200cنویسی موازی عمومی در سیستم\u200cهای چند\u200cهسته ای\n', 'برنامه\u200cنویسی با Pthreads،\u200c برنامه\u200cنویسی با OpenMP\n', 'برنامه\u200cنوسی موازی در سیستم\u200cهای برداری\n', 'معرفی کلی سیستم\u200cهای برداری و آرایه\u200cای،\u200c معرفی ISA مخصوص پردازنده Intel برای محاسبات SIMD،\u200c معرفی معماری و نحوه برنامه\u200cنویسی پردازنده CELL BE\n', 'برنامه\u200cنویسی موازی در پردازنده\u200cهای گرافیکی عام\u200cمنظوره\n', 'معرفی جامع معماری پردازنده\u200cهای گرافیکی، معرفی معماری چند نمونه واقعی از پردازنده\u200cهای گرافیکی شرکت NVIDIA\n', 'برنامه\u200cنویسی با زبان CUDA، معرفی Profiler شرکت NVIDIA\n', 'معرفی اجمالی برنامه\u200cنویسی موازی در سیستم\u200cهای توزیع\u200cشده\n', 'معرفی کتابخانه Message Passing Interface (MPI) و نحوه\u200cی برنامه\u200cنویسی موازی براساس مدل تبادل پیام\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['--مفاهیم اولیه، سیگنال های زمان پیوسته و گسسته، متغیر مستقل و تبدیلات آن، دسته بندی سیگنال ها و سیستم ها، معرفی سیگنال های پایه (پیوسته و گسسته)، معرفی خواص سیستم ها: حافظه دار بودن، معکوس پذیری ، علی بودن، پایداری، خطی بودن و تغییر ناپذیر با زمان \n', '--سیستم\u200cهای خطی تغییر ناپذیر با زمان، کانولوشن گسسته و پیوسته، روشی سریع برای کانولوشن گسسته، خواص کانولوشن  \n', '، پاسخ ضربه و خواص سیستم های LTI، نمایش بلوکی سیستم های LTI \n', '--سری فوریه زمان-پیوسته ، سری فوریه عمومی و مبحث توابع متعامد، توابع متعامد لژاندر؛ والش، لاگر، نمایی مختلط، پاسخ سیستم های LTI به سیگنالهای نمایی مختلط، خواص سری فوریه، خواص سری فوریه، بحث همگرایی سری فوریه \n', '--تبدیل فوریه زمان –پیوسته، تبدیل فوریه زمان پیوسته، خواص تبدیل فوریه، نمایش بلوکی سیستم های LTI وتبدیل فوریه، پاسخ فرکانس و حل معادلات سیستم های LTI، تبدیل فوریه توابع خاص \n', '--کاربردهای تبدیل فوریه زمان-پیوسته، انواع فیلترها، نمونه برداری، مدولاسیون، دمدولاسیون، دسترسی چندگانه \n', '--سری فوریه زمان-گسسته، سری فوریه گسسته و تفاوتهای آن با سری پیوسته، پاسخ سیستم های LTI و سری فوریه گسسته ، خواص سری فوریه گسسته \n', '--تبدیل فوریه زمان-گسسته، تبدیل فوریه زمان گسسته، خواص تبدیل فوریه زمان گسسته، فیلترهای دیجیتال و تبدیل فوریه زمان گسسته، پاسخ فرکانس و حل معادلات سیستم های زمان گسسته، نمایش بلوکی سیستمهای گسسته با استفاده از تبدیل فوریه زمان گسسته، تبدیل DFT \n', '--تبدیل Z و خواص آن\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['مروری بربردارها و ماتریسها:جمع وتفریق و ضرب ماتریسها،ضرب داخلی و نرم بردارها و ماتریسها،ضرب داخلی و نرم توابع پیوسته، ماتریسهای منفرد و غیر منفرد و معکوس و متقارن و شبه متقارن ، ماتریسهای مختلط و مختلط مزدوج و هرمیتی و شبه هرمیتی ،یکین ، نرمال، قطری – مثلثی – متعامد – مثبت معین و نیمه معین – منفی معین و نیمه معین.\n', 'دستگاه معادلات جبری خطی: معرفی دستگاه جبری خطی – روشهای حل دستگاه معادلات جبری خطی بر پایه الگوریتم های حذفی گوس – گوس جردن – محورگیری جزئی و کلی – حل دستگاه معادلات جبری خطی برپایه تجزیه ماتریسها – تجزیه LU – تجزیه چالسکی.\n', 'فضاهای برداری: مفهوم میدان – بسته بودن نسبت به اعمال جمع و ضرب – فضای برداری – زیرفضاهای برداری – زیر فضای ستونهای یک ماتریس – مفهوم اسپن – استقلال و وابستگی خطی بردارها – مفهوم پایه و بعد در فضای برداری – رتبه ماتریس – فضای پوچی ماتریسها – تبدیلات خطی – تبدیلات پرکاربرد از قبیل انتقال ، انعکاس ، تغییر مقیاس و دوران .\n', 'متعامد سازی و مساله حداقل مربعات : مفهوم متعامد سازی – تصاویر متعامد – الگوریتم گرام اشمیت – مساله حداقل مربعات و کاربرد آن در حل دستگاه معادلات ناسازگار – نحوه بدست آوردن معادلات نرمال و روش های حل آنها بصورت مستقیم با استفاده از تجزیه چالسکی و تچزیه QR  - برازش داده ها با روش حداقل مربعات.\n', 'مقادیر ویژه و بردارهای ویژه : مفاهیم مقدار ویژه و بردار ویژه – محاسبه مقادیر ویژه با روشهای تکراری مانند روش توانی – استفاده از روش QR  - قطری سازی ماتریسها با مقادیر حقیقی و مختلط – قطری سازی ماتریسها با مقادیر ویژه تکراری.\n', 'چندجمله ای ها و توابع ماتریسی : قضیه کیلی هامیلتون – کاربرد قضیه کیلی هامیلتون برای محاسبه معکوس ماتریس – محاسبه چندجمله ای های ماتریسی – محاسبه توابع ماتریسی.\n', 'تجزیه مقادیر منفرد : مفهوم مقادیر منفرد- کاربردهای تجزیه مقادیر منفرد – تجزیه ماتریس ها براساس مقادیر منفرد – تعیین زیر فضاهای اساسی ماتریس. \n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['بازی چیست؟، انواع و دسته\u200cبندی بازیها،  چالش و پازل،  سیستم ارتقا بازیکنان،  مکانیکهای بازی (قوانین بازی، عملهای بازیکن، مهارتهای بازیکن و ...)،  خطهای داستان بازی،  ساختار گردش اقتصادی بازی (چگونه بازیکن انرژی و توان به دست میآورد و آن را در چه کارهای، سرمایه\u200cگذاری میکند)، متعادل\u200cسازی بازی (متعادل\u200cسازی سختی بازی، متعادل\u200cسازی دینامیک بازی)،  مراحل بازی،  چرخه\u200cهای تعاملی بازیکن با بازی، مشخص کردن محدودیتها، اهداف و دستاوردهای هر چرخه،  نحوه دسترسی اطلاعات بازیکن به بازی،  محیط جذاب و واسط کاربری بازی،  بازیهای چند نفره و نحوه تعامل افراد در بازی، جداول رده\u200cبندی بازیکنان، امکانات رقابت در بازیهای چندنفره، بازیهای استراتژیک، روابط احتمالی در بازیها، گیم پلی بازی، بخش پروژه-محور، تولید بازی ساده با موتور بازیسازی یونیتی، مشخص کردن اشیا بازی، انیمیشن بازی، کدنویسی script های بازی، مدیریت بازی . کنترل بازی، بخش بازیانگاری، مطالعه یک مسئله اجتماعی-تجاری از نگاه بازی انگاری، - استفاده از ابزارهای بازی برای ایجاد سازوکار برای حل مسئله.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['تاریخچه و انواع زبانهای برنامه نویسی (رویه\u200cای،تابعی، شی گرا، منطق گرا، مختلط)، تأثیر سخت افزار، انتخاب مناسب زبان برای یک کاربرد معین،  ماشین های مجازی، سطوح تجرید و ترجمه زبان برنامه نویسی، تجرید داده، تجرید عملیات، متغیر، نام، نوع، حوزه و دوره حیات متغیر، نوع و حوزه متغیر ایستا و پویا، مقید سازی و زمان آن، اختصاص حافضه و جمع آوری آشغال، انواع داده ساده (مانند اعداد) و مرکب (مانند رکوردها)، معادل بودن انواع داده، تعریف نوع داده توسط برنامه نویس، تجرید عملیات و واحدهای برنامه، ساختمان های کنترل در یک یا چند واحد برنامه، روش های اشتراک اطلاعات بین چند واحد برنامه، برنامه های فرعی، عملیات موازی، انتقال پارامترها، تجرید توأم داده و عملیات، مروری بر زبانهای تابعی، شی گرا، منطق گرا و مقایسه آنها با زبانهای رویّه ای، مروری بر زبانهای نسل چهارم، طراحی و اجرای برنامه هایی به زبانهای تابعی، یا شی گرا، یا منطق گرا.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
-  </si>
-  <si>
-    <t>['معرفی پردازش زبان طبیعی، تاریخچه مختصر، مسائل مختلف موجود در آن و چالش\u200cهای آن. عبارات منظم، توکنایزر، نرمالسازی، تشخیص ریشه و لما، تشخیص مرز جملات، روش\u200cهای پایه در مدل\u200cسازی زبانی، ان\u200cگرام\u200cها. آشنایی با روش\u200cهای مختلف بازنمایی کلمات: روش\u200cهای پایه\u200cای، روش\u200cهای مبتنی بر جبر خطی، روش\u200cهای مبتنی بر شبکه عصبی، چالش\u200cهای مختلف در بازنمایی کلمات و راه\u200cهای حل آن\u200cها. معرفی ساختار شبکه\u200cهای عصبی بازگشتی ساده و ساختارهای معروف مثل GLU و RNN، معرفی مدل\u200cهای روز ترجمه ماشینی، معرفی مدل توجه. معرفی مسایل دیگر در حوزه پردازش زبان طبیعی مانند استخراج اطلاعات، خلاصه\u200cسازی، برچسب\u200cزنی ادات سخن. آشنایی با برخی از کتابخانه\u200cهای پردازش متن مانند NLTK، Gensim و SpaCY. کاربردهایی از خوشه\u200cبندی و طبقه\u200cبندی اسناد.\n', '**روش یاددهی-یادگیری:** تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه توسط مدرس، در کنار آموزش\x1fهای کلاس درس، دانشجویان نیاز  به تمرین بیشتر و مهارت و کار عملی دارد.\n', '**روش ارزیابی:**\n', '|ارزشیابی مستمر|میان ترم|آزمون نهایی|پروژه|\n', '| - | - | - | - |\n', '|حداکثر 20 درصد|حداکثر 40 درصد|نوشتاری: حداقل 50 درصد|در صورت نیاز حداکثر 15 درصد|\n', '**تجهیزات و امکانات موردنیاز:** کلاس مجهز به ویدئو پروژکتور\n']</t>
+    <t>['-\n', '- انقلاب صنعتی چهارم\n', '- روند حضور و نفوذ فناوری های دیجیتال در صنعت\n', '- انقلاب دیجیتال\n', '- تحول دیجیتال\n', '- روندهای اقتصادی و فناوری های مرتبط با اقتصاد دیجیتال\n', '- هوش مصنوعی / بلاک چین / اینترنت اشیا  / ...\n', '- مدل های کسب و کار در اقتصاد دیجیتال\n', '- انقلاب پلتفرم\n', '- تجارت الکترونیک نسل چهارم \n', '- تشخیص فرصت و ایده پردازی در فضای کسب و کارهای دیجیتالی\n', '- طراحی و راه اندازی کسب و کار در اقتصاد دیجیتالی\n', '- اصول تیم سازی در فضای کسب و کارهای دیجیتالی\n', '- اصول مدیریت پروژه و کار تیمی در فضای کسب و کارهای دیجیتالی \n', '- نقش های کلیدی در یک کسب و کار مبتنی بر اقتصاد دیجیتال\n', '- تدوین استراتژی ورود به بازار و اصول بازاریابی در کسب و کارهای دیجیتالی\n', '- تدوین استراتژی های جذب، حفظ و توسعه مشتریان در کسب و کارهای دیجیتالی\n', '- قیمت گذاری محصولات یا خدمات\n', '- روش های تامین مالی و شیوه ارائه به سرمایه گذار و الزامات آن\n', '- ارزشگذاری فناوری\n', '- اجزای اکوسیستم نوآوری مبتنی بر اقتصاد دیجیتال و آشنایی با نقش آنها\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['**محتوای کارآموزی برای هر دانشجو توسط شرکت و یا سازمان ارجاع داده شده مورد تایید گروه تعیین می شود.**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه\u200cای بر هوش مصنوعی و تاریخچه\u200cی آن، معرفی عامل\u200cهای هوشمند، فضای حالت، جست\u200cوجوی ناآگاهانه، جست\u200cوجوی آگاهانه، الگوریتم \\*A و اثبات بهینگی، جست\u200cوجوی محلی، مسائل ارضای محدودیت، جست\u200cوجوی عقبگرد، حل مسائل CSP با رویکرد جستجوی محلی، جستجوی مقابله\u200cای، الگوریتم minimax و هرس آلفا-بتا، یادگیری تقویتی، روش\u200cهای مبتنی بر مدل، یادگیری تفاضل زمانی  و الگوریتم Q-learning، منطق، منطق گزاره\u200cای  و استنتاج  در منطق گزاره\u200cای، منطق مرتبه اول  و استنتاج در منطق مرتبه اول، معرفی شبکه\u200cهای بیزین، بازنمایی  در شبکه\u200cهای بیزین و استقلال  در این شبکه\u200cها، استنتاج در شبکه\u200cهای بیزین: استنتاج دقیق و استنتاج تقریبی با استفاده از نمونه برداری، تخمین پارامترها در شبکه\u200cهای بیزین، نمونه\u200cهای معروف و کاربردی از شبکه\u200cهای بیزین: مدل مارکوف، مدل مخفی مارکوف، دسته\u200cبند بیز ساده.\n']</t>
+  </si>
+  <si>
+    <t>['`    `مروری مختصر بر رگرسیون، لجستیک رگرسیون و مدل پرسپترون. معرفی تنسورها، عملیات روی تنسورها (برش، عملیات درجا و ...)، مشتق\u200cگیری خودکار، انتقال تنسورها به کارت گرافیک، آشنایی با انواع توابع فعالیت، توابع هزینه و الگوریتم\u200cهای بهینه\u200cسازی مورد استفاده در روال گرادیان کاهشی، روشهای ارزیابی (monitoring)، الگوریتم پس انتشار، بیش برازشی و کم برازشی، آماده\u200cسازی داده\u200cها،  منظم\u200cسازی، Dropout، شبکه\u200cهای عصبی متراکم (تمام متصل یا چگال)، شبکه\u200cهای عصبی پیچشی (کانولوشنی)، نمایش آنچه که لایه\u200cهای لایه\u200cهای پیچشی آموزش می\u200cبینند. کاربرد در پردازش سری\u200cهای زمانی، شبکه\u200cهای برگشتی  (RNN, GRU, GLU). یادگیری خود کدگذارها، آشنایی با چند معماری معروف، انتقال یادگیری، یادگیری انتها به انتها، طبقه\u200cبندی داده\u200cهای تصویری، متنی، تنظیم پارامترها. شبکه\u200cهای مولد هم\u200cآورد (GAN)، نمایش برخی توانمندی\u200cهای یادگیری عمیق از طریق بیان مثالهای کاربردی از قبیل تولید متن، شناسایی چهره، تولید تصویر جعلی، رؤیای عمیق، انتقال سبک عصبی، نقاشی با شبکه\u200cهای عصبی و بیان توابع هزینه\u200cی مرتبط با آنها. آشنایی با حداقل یکی از کتابخانه\u200cهای معروف حوزه یادگیری عمیق مانند پای\u200cتورچ یا تنسورفلو. \n', 'نکته: با توجه به اینکه پیش\u200cنیاز این درس، یادگیری ماشین مقدماتی است و در آن درس رگرسیون، مدل پرسپترون و شبکه\u200cهای چند لایه پرسپترونی گفته شده\u200cاند، در این درس می\u200cتوان به سرعت وارد مبحث موضوع یادگیری عمیق شد.\n']</t>
+  </si>
+  <si>
+    <t>['مروری بر مدل سازی ریاضی. روشهای شمارشی و شاخه و کران برای مسایل بهینه\u200cسازی. معرفی الگوریتم فراابتکاری برای حل مسایل بهینه\u200cسازی گسسته. مدلسازی مسایل واقعی به کمک گراف و شبکه. الگوریتم\u200cهای تطابق. بررسی کاربردهای مسایل شبکه در حمل و نقل، بهینه\u200cسازی شبکه و طراحی شبکه. الگوریتمهای مسائل شبکه (جریان بیشینه، برش کمینه)، مسئله پستچی چینی  (تور اویلری و حل آن)،  مسئله کوله\u200cپشتی و الگوریتم تقریبی برای آن، برخی مسائل پوشش در گراف و حل آنها،  مسئله تخصیص و ارتباط آن با مسئله تطابق بیشینه و روش حل آن،  مسئله فروشنده دوره\u200cگرد با معرفی 2-opt ، 3-opt و NN،  مسئله افرازبندی گراف، مسائل مکان\u200cیابی. اجرای پروژه کاربردی.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- توزیعهای توام: تابع احتمال، تابع چگالی و تابع توزیع توام، متغیرهای تصادفی مستقل، کواریانس، ضریب همبستگی، مثال هایی از توزیع های توام خاص. توزیع های شرطی: توزیع های شرطی گسسته، توزیع های شرطی پیوسته، کاربرد توزیع های شرطی، امید ریاضی شرطی و کاربردهای آن شامل امید کل، واریانس شرطی. توزیع توابعی از متغیرهای تصادفی: روش تابع توزیع، روش تغییر متغیرها (دو یا چند متغیره)، روش تابع مولد گشتاور، توزیع مجموع متغیرهای تصادفی، مجموع تعداد تصادفی از متغیرهای تصادفی، امید ریاضی مجموع تعداد تصادفی از متغیرهای تصادفی. قضیه حد مرکزی و تقریب دوجمله ای توسط نرمال، تقریب پواسن به نرمال. آمار توصیفی: نمونه، جامعه آماری، شاخصهای آماری، نمودارهای آماری. نمونه تصادفی، توزیع میانگین نمونه ای، توزیع های نمونه ای، تی استودنت، کای-دو و توزیع فیشر. روشهای برآوردیابی پارامترهای نامعلوم: برآوردیابی نقطه ای، برآورد فاصله ای، فاصله اطمینان با اندازه نمونه\u200cهای بزرگ. آشنایی با مفاهیم آزمون فرضها: آزمون فرضهای ساده، آزمون فرض های یک طرفه، آزمون فرض های دوطرفه، آزمون واریانس جمعیت نرمال، آزمون میانگین و نسبت با اندازه نمونه های بزرگ، استنباط در مورد دو میانگین، استنباط در مورد جفت مشاهدات، آزمون میانگین و نسبت دو جمعیت با اندازه نمونه های بزرگ.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['مروری بر مباحث آمار توصیفی، پالایش داده\u200cها با اندازه\u200c وابعاد زیاد، رسم نمودار هسته\u200cهای چگالی یک و دومتغیره، آزمون\u200cهای نرمال یک و چند متغیره، کاربرد روش\u200cهای مونت\u200cکارلو در استنباط آماری، مقدمه\u200cای بر شیوه\u200c شبیه\u200cسازی در تولید داده\u200cهای تصادفی از چند توزیع آماری، مانند نرمال و تی-استیودنت، یک و چند متغیره و بررسی ویژگی آن\u200cها، مطالعات شبیه\u200cسازی برای آزمون برابری میانگین\u200cها، واریانس\u200cها و میانه\u200cهای جوامع با نمونه\u200cهای مستقل از توزیع\u200cهای نرمال و چند توزیع غیر نرمال. کاربرد روش مونت\u200cکارلو دریافتن احتمال\u200cهای پیچیده و p-مقدار برخی آزمون\u200cها، شبیه\u200cسازی مدل\u200cهای رگرسیون خطی با انواع متغیرهای توضیحی کمی و کیفی و با فرض مانده\u200cهای غیر نرمال و وابسته، بررسی استواری مدل نسبت به نقض فرض\u200cهای معمول، مباحث تکمیل\u200cکننده در صحت و اعتبار مدل\u200cهای برازش شده باوجود مشاهدات پرت و ناهمسانی واریانس، معرفی راهبردهای مناسب مانند رگرسیون استوار ناپارامتری، یافتن برآوردهای ماکسیمم درستنمایی توسط روش\u200cهای بهینه\u200cسازی عددی مانند نیوتن-رافسون و امتیاز فیشر، روش\u200c بوت\u200cاسترپ و جک\u200cنایف و کاربرد آن\u200cها در مباحث آماری؛ الگوریتمEM و کاربرد آن در برآورد یابی توزیع\u200cهای آمیخته متداول پیوسته و گسسته یک متغیره.\n']</t>
+  </si>
+  <si>
+    <t>['نمونه تصادفی، توزیع میانگین نمونه ای،  قضیه حدمرکزی، برآورد نقطه ای و ویژگی های آن، برآورد فاصله ای برای پارامترهای میانگین، واریانس و نسبت در یک جامعه و  مقایسه دو جامعه در حالات: جوامع نرمال، جوامع غیرنرمال، واریانس های دو جامعه معلوم، واریانس های دو جامعه مجهول و واریانس ها مجهول ولی برابر، حجم نمونه ها کم و حجم نمونه ها زیاد، بر اساس دو نمونه مستقل و دو نمونه وابسته،  آزمون فرضیه های آماری: بیان مفاهیم و اصول آزمون های آماری، انواع خطا و اهمیت آنها، اندازه آزمون، آزمون های پارامتری یک طرفه و دو طرفه برای میانگین، واریانس و نسبت یک جامعه و مقایسه  دو جامعه در حالات : واریانس معلوم، واریانس مجهول، میانگین معلوم، میانگین مجهول، حجم نمونه ها کم، حجم نمونه ها زیاد، دو جامعه مستقل و دو جامعه وابسته، نمودار پراکنش، براورد، آزمون فرض و فاصله اطمینان برای ضریب همبستگی پیرسون،  رگرسیون خطی ساده، آزمون خی دو برای نیکوئی برازش، جدول توافقی و آزمون استقلال، محاسبات و تحلیل داده با حداقل یک نرم افزار آماری و تفسیر خروجی های آن. \n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- معرفی انواع مدل های محاسباتی تورینگ که با کامپیوتر معادل است. مدلهای محاسباتی شامل مدل ریاضی و ماشین توینگ و تز تورینگ چرچ. کدگذاری گودل و ماشین تورینگ جهانی. شمارش پذیری و محاسبه پذیری. مجموعه\u200cهای محاسبه ناپذیر. مجموعه\u200cهای خلاق .اوراکل. P و NP. قضیه پست. توضیحی از محاسبه پذیریهای پیچیده تر. معرفی مسئله هایی که قابل محاسبه با تورینگ ماشین نیستند. روش اثبات حل ناپذیری مسائل با reduction.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- منطق گزاره ای. منطق محمولات. منطق درستی یابی کد برنامه. منطق زمانی. منطق شناختی. سیستم\u200cهای انتقالی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- یادآوری مفاهیم حلقه، میدان، حلقه خارج قسمتی، حوزه ایده آل اصلی، حلقه چندجمله\u200cای\u200cها، الگوریتم تقسیم، فضای برداری روی میدان متناهی، پایه و بعد یک فضای برداری. تعریف مفاهیم ابتدایی کدگذاری شامل مجموعه الفبا، کد و کد کلمه، تعریف فاصله همینگ و خواص آن و ….  مقدمه\u200cای بر میدان\u200cهای متناهی. مقدمه\u200cای بر کدهای خطی. تعریف کد دوری.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه\u200cای بر رمزنگاری. ساختارهای اساسی رمزنگاری. رمزنگاری متقارن. رمزنگاری کلید عمومی. امضای دیجیتال. ریاضی رمز. تعاریف مبتنی بر شبیه\u200cسازی. مدل پیشگوی تصادفی. پروتکل های رمزنگاری. رمزنگاری کوانتومی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه ای بر امنیت ، تعریف امنیت، مفاهیم رمزنگاری – امنیت نرم افزار، تفاوت قابلیتهای امنیتی با قابلیتهای امن، تاثیر امنیت در فرایند مهندسی نرم افزار، نیازمندیهای کیفی نرم افزار، دسته بندی مخاطرات، مدلهای تولید نرم افزار امن )مدل مستقل ، مدل توزیع شده ، مدل متمرکز( - آنالیزهای ایستا و پویا ، آنالیز ایستا )محدودیتهای آنالیز ایستا، بازخوانی کد، مدل سازی، آنالیز الگوریتم(، آنالیز پویا )تست نفوذ( – مخاطرات مشهور، سرریز بافر، بررسی ورودی، خطاها و استثنائات، امنیت برنامه های تحت وب، سطح دسترسی، حریم خصوصی - استانداردهای موجود، ASVS\\OWASP ، Cert ، SDLC ، Clasp ،Criteria Common – ابزارهای آنالیز سورس کد ، ابزارهای ایستا ، ابزارهای پویا. \n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- معناشناسی عملیاتی. درستی یابی برنامه. تایپ های بازگشتی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- احتمال و اثبات با روش احتمالاتی. الگوریتم\u200cهای تصادفی پایه\u200cای. جایگشت تصادفی و کاربردهای\u200c آن. کران پایین الگوریتم\u200cهای تصادفی. ساختمان\u200cداده. قدم\u200cزدن تصادفی. روش مونت کارلو. روش\u200cهای جبری. الگوریتم\u200cهای گراف. آنتروپی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - مقدمه \n', '- - معرفی درس، نمونه مسائل هندسی\n', '- - پوسته\u200cی محدب \n', '- - محاسبه\u200cی پوسته\u200cی محدب در صفحه، عملیات پایه\u200cی هندسی\n', '- - چند روش برای محاسبه\u200cی پوسته\u200cی محدب در صفحه\n', '- - اثبات کران پایین، قضیه\u200cی بن-اُر\n', '- - الگوریتم\u200cهای حساس به خروجی، دو الگوریتم بهینه از چن\n', '- - دوگان هندسی \n', '- - دوگان نقاط، پوش\u200cهای بالایی و پایینی، کاربردها، دوگان در فضای سه\u200cبعدی\n', '- - پوسته\u200cی محدب در فضای سه\u200cبعدی \n', '- - پیچیدگی ترکیبیاتی، نحوه\u200cی نمایش، الگوریتم کادوپیچی\n', '- - الگوریتم تصادفی کلارکسون-شور، پوسته\u200cی محدب در فضاهای بالاتر\n', '- - تقاطع و چینش خطوط \n', '- - ساخت چینش خطوط، الگوریتم افزایشی، قضیه\u200cی قلمرو یک خط\n', '- - تقاطع پاره\u200cخط\u200cها، الگوریتم جاروب صفحه، الگوریتم تقسیم و حل\n', '- - نمودار ورونوی و مثلث\u200cبندی دلونی \n', '- - تعریف نمودار ورونوی، ویژگی\u200cها و قضایا\n', '- - مثلث\u200cبندی دلونی و خواص آن، الگوریتم فورچیون\n', '- - ارتباط با پوسته\u200cی محدب، الگوریتم تصادفی ساخت\n', '- - کاربردهای نمودار ورونوی و مثلث\u200cبندی دلونی، نمودار ورونوی مرتبه\u200cی بالاتر\n', '- - برنامه\u200cریزی خطی \n', '- - تعریف برنامه\u200cریزی خطی، کاربردهای هندسی در فضای پایین\n', '- - الگوریتم هرس و جست\u200cوجوی مگیدو، الگوریتم تصادفی-افزایشی سایدل\n', '- - الگوریتم نمونه\u200cبرداری تصادفی کلارکسون\n', '- - مسائل شبیه به برنامه\u200cریزی خطی، کوچک\u200cترین دایره\u200cی محیطی\n', '- - مکان\u200cیابی نقاط \n', '- - روش تقسیم و حل، نقشه\u200cی ذوزنقه\u200cای، الگوریتم افزایشی تصادفی\n', '- - الگوریتم هرس و جست\u200cوجوی کرکپاتریک\n', '- - مثلث\u200cبندی چندضلعی \n', '- - روش ذوزنقه\u200cبندی، الگوریتم تصادفی سایدل\n', '- - کاربردهای مثلث\u200cبندی، مسئله\u200cی گالری هنر\n', '- - جست\u200cوجوی بازه\u200cای \n', '- - بازه\u200cهای متعامد: درخت کی\u200cدی، درخت بازه، آبشار کسری\n', '- - پنجره\u200cبندی، درخت جست\u200cوجوی اولویت، درخت پاره\u200cخط\n']</t>
+  </si>
+  <si>
+    <t>['نمودار پراکنش، رگرسیون خطی ساده، برآوردهای حداقل مربعات، برآورد درست نمایی ماکسیمم و ویژگی آنها، معرفی و بررسی پذیره های زیربنایی مدل در رگرسیون خطی،  آزمون فرضیه و بازه اطمینان برای پارامترهای مدل، بازه پیش بین برای تک مشاهدات و میانگین آنها، رگرسیون ساده بدون عرض از مبدا، ضریب تعیین. رگرسیون خطی چندگانه، بیان مدل رگرسیون خطی چندگانه با نماد ماتریسی، برآوردهای حداقل مربعات و ماکسیمم  درستنمایی پارامترها، ویژگی برآوردگرها، برآورد ضرائب مدل رگرسیون خطی چندگانه با متغیرهای استاندارد شده و تفسیر آن، جدول آنالیز واریانس، آزمون های معنی داری ضرائب مدل، تحلیل باقیمانده\x1fها و بررسی پذیره\x1fهای زیربنایی مدل رگرسیون خطی چندگانه، ضریب تعیین، مشتقات آن و تعبیر آنها. همبستگی های جزئی، روش های گزینش متغیرهای توضیحی در مدل رگرسیون خطی چندگانه (انواع روش ها: هم ورود، پیش رو، پس رو، قدم به قدم)، معرفی رویکرد تائیدی. معیارهای مختلف در انتخاب مدل Cp، مالوس، PRESS، AIC ، وتبدیل برخی از مدل های رگرسیون غیرخطی (بر حسب متغیرها) به مدل خطی.\n', '**راهبردهای تدریس و یادگیری متناسب با محتوا و هدف:**\n', '`     `تدریس و سخنرانی؛ حل مثال و مسائل مربوط به درس؛ مشارکت دانشجویان در مباحث درسی از طریق حل مسئله و انجام آزمونهای کوتاه. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد. همراه با آموزش نظری، مطالب درس به مهارت تحلیل داده\x1fها  و تسلط دانشجویان به نرم افزارهای آماری نیاز دارد که استاد درس بایستی در آزمایشگاه نرم افزار ارائه دهد و دانشجویان فعالیت\x1fهای تعریف شده را  انجام \x1fدهند. این درس نیاز به انجام پروژه و تحلیل داده\u200cهای واقعی توسط دانشجو دارد.\n', 'ملزومات، تجهیزات و امکانات مورد نیاز برای ارائه:  کلاس درس و آزمایشگاه رایانه مجهز\n']</t>
+  </si>
+  <si>
+    <t>['**روشهای فازی**:  مقدمه، مبانی نظری مجموعه\u200cهای فازی، عملگرهای فازی، روابط فازی و استنتاج در منطق فازی، قوانین و روابط فازی \n', '**روشهای تکاملی**\n', '**الگوریتم ژنتیک:** انواع کروموزومها ،انواع روشهای انتخاب والد ،انواع روشهای ترکیب ،انواع روشهای جهش ،انواع روشهای انتخاب نسل بعد، \n', '**روشهای هوش جمعی**: بهینه\u200cسازی گروه ذرات، کولونی مورچگان، زنبور عسل، فاخته و ...\n', 'نکته: از آنجا که دانشجویان در دروس یادگیری ماشین مقدماتی و آشنایی با یادگیری عمیق با شبکه\u200cهای عصبی آشنایی پیدا می\u200cکنند، این موضوع در سرفصل این درس ذکر نشده است.\n']</t>
+  </si>
+  <si>
+    <t>['`   `مفاهیم مقدماتی و ابزارهای هوش تجاری، فرایند تصمیم گیری، سیستم\u200cهای پشتیبان تصمیم گیری، مفاهیم، روشها و تکنولوژی، تصمیم گیری براساس مدل های آماری در سیستم\u200cهای تجاری، داده کاوی در هوش تجاری،  فرایند استخراج، تبدیل و  بارگذاری داده\u200cها (ETL) ، وب کاوی، انبار داده\u200cها،  پاکسازی داده\u200cها، تهیه و ساخت جداول، ایجاد ارتباط بین جداول، طراحی و ساخت  انواع گزارش ها، گزارش های زمان محور و مکان محور روی نقشه، ساخت انواع نمودارها، ساخت و سفارشی سازی داشبوردهای مدیریتی با استفاده از نرم افزارهایی مانند Tableau، Power BI، Self-Service BI، Tableau Prep، QlikSense، ارائه پروژه های دانشجویان. \n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمات، شالوده، ابزار و ساز و کارهای تجارت الکترونیکی، خرده فروشی، خدمات الکترونیکی، کسب و کار متحرک، کسب و کار هوشمند،  کسب و کار اجتماعی،بنگاه\u200cهای اجتماعی، بازاریابی الکترونیکی، تبلیغات و ترویج الکترونیکی، امنیت تجارت الکترونیکی، سامانه\u200cهای پرداخت الکترونیکی، تحقق سفارش الکترونیکی، راهبر دهای تجارت الکترونیکی، حقوق کسب و کار الکترونیکی، اسناد تجارت الکترونیکی، تجارت الکترونیکی در جهان، تجارت الکترونیکی در ایران.\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`مقدمه ای بر مدلسازی، تعریف مدلسازی و اهمیت آن، رسیدن از یک سیستم به یک مدل در غالب چند مثال، ذکر انواع مدلها از قبیل مدلهای اقتصادی مدلهای بیویوژیکی و زیستی، مدلهای فیزیکی، مدلهای تصادفی، مدلهای دینامیکی با ارائه چند مثال؛ توابع و  انواع آن در مدلسازی: انواع توابع ونمایش آنها با استفاده از جداول، نمودارها (گرافها)، فرمولها و کلمات با ذکر مثال، توابع خطی و کاربرد آنها در مدلسازی، شیب و نرخ تغییرات، فاصله و سرعت، کاربردهایی از توابع خطی دراقتصاد و مدلهای اقتصادی از قبیل تابع هزینه، تابع درآمد، تابع سود، هزینه نهایی، درآمد نهایی، عرضه وتقاضا، نرخ تعادلی و تالیر مالیات بر آن؛ توابع نمایی در مدلسازی، مقایسه بین، توابع خطی و نمایی در مدلسازی، تابع لگاریتم طبیعی و حل معادلات با استفاد از لگاریتم در مدلسازی، رشد وکاهش نمایی، استفاده از تابع نمایی در چند مدل از قبیل مدل رشد جمعیت در بیولوژی و مدل بهره مرکب در اقتصاد؛ توابع گراف و استفاده از گرافها در مدلسازی، بسط گرافها و گرافهای شیفت یافته و کاربرد آنها در مدلسازی همراه با ارائه چند مثال؛ توابع توانی و چند جمله ای ها در مدلسازی، تابع لجستیکی و چند جمله ای\u200cها در مدل رشد جمعیت (کولونی با ذخیره غذایی ثابت، جمعیت با ذخیره غذایی پایدار)، توابع متناوب، دامنه و دور آنها و استفاده از آنها در مدلسازی با ذکر چند مثال از قبیل ارتعاش پاندول؛ برازش فرمول بر داده ، برازش توابع خطی بر داده ، خط رگرسیون و استفاده از آن در پیش بینی نتایج، چگونگی عملکرد رگرسیون همراه با کاربرد آن در مدلسازی همراه با ارائه چند مثال.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`معرفی یکی از نرم افزارهای ریاضی، نحوه نصب و استفاده از راهنمای آن؛ تعریف متغیرها و ماتریس در نرم افزار؛ اعداد مختلط و پیدا کردن ریشه\u200cهای n ام، قانون دموآر، ریاضیات سمبولیک (حد، مشتق، انتگرال)، تابع ها و فایلهای تابع، رسم نمودارهای دو بعدی، برنامه\u200cنویسی در نرم\u200cافزار، بررسی مفاهیم حد، مشتق و کاربرد مشتق-انتگرال و روشهای تقریبی برآورد انتگرال، دنباله\u200cها و سری ها، قضیه تیلور،کاربرد انتگرال در محاسبه حجم، طول منحنی، گشتاور؛\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- `\t`مروری گذرا بر منطق کالسیک (ارسطویی) و نظریه مجموعه\u200cهای کالسیک. تعریف مجموعه\u200cهای فازی و متغیر زبانی، تابع عضویت و انواع متداول آن (تابع عضویت منفرد، مثلثی، ذوزنقه و گوسی)، آشنایی با مفاهیم تکیهگاه، ارتفاع، مرکز، هسته، نرمال بودن، آلفا-برش. معرفی مفاهیم زیرمجموعه بودن فازی، مکمل فازی، اجتماع فازی، اشتراک فازی، قانون دمورگان.  مروری کوتاه بر نظریه امکان و تفاوت آن با نظریه احتمال. تعریف عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی و میانگین فازی. معرفی شرایط برقراری مجموعه انجمنی برای عملگرهای مکمل فازی، -tنرم فازی و-s نرم فازی. تعریف حاصلضرب دکارتی مجموعه\u200cهای فازی، تعریف رابطه فازی و ترکیب روابط فازی، تعریف تابع فازی، معرفی مفاهیم تصویر فازی، توسعه استوانهای فازی، اصل تجزیه فازی و اصل توسیع زاده. معرفی اعداد فازی، انواع اعداد فازی متداول (عدد فازی منفرد، مثلثی، ذوزنقه\u200cای و نمایی یا گوسی)، حساب اعداد فازی بر اساس دو روش اصل توسیع فازی و استفاده از آلفا-برشها، بررسی وجود جواب معادالت خطی فازی، رتبه بندی اعداد فازی. تعریف گزاره\u200cهای فازی، قواعد اگر- آنگاه فازی، تعریف استلزام فازی و کاربرد آن در ساختن یک سیستم استنتاج فازی(سیستم کنترل فازی). تعریف موتور استنتاج فازی، فازی ساز و انواع آن، پایگاه قواعد فازی، غیر فازی ساز و انواع آن. آشنایی با ساختن یک سیستم فازی ممدانی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مفاهیم و تعاریف اولیه گراف های ساده، جهت دار و مخلوط - درجه راس - همبندی – زیرگراف ها - یکریختی گرافها – مکمل گراف. ماتریس های وابسته به گراف ها مانند ماتریس مجاورت و ماتریس وقوع. رده های مختلف گرافها مانند: دور- مسیر- دوبخشی – وتری – ابرمکعب و …. اعداد استقلال و پوشش راسی گراف ها. دورهای همیلتونی و اویلری. عملیات مختلف روی گراف ها. همبندی راسی و یالی – گراف های 2-همبند و بلوک ها - قضیه منگر. تطابق ها و قضیه هال. گراف های مسطح - قضیه کوراتوسکی. انواع رنگ آمیزی گراف ها و قضایای معروف مربوطه. مجموعه\u200cهای مستقل و خوشه ها.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- نیمگروه، گروه، همریختی، زیرگروه. گروه خارج قسمتی، قضایای گروه های دوری و قضیه لاگرانژ. گروههای جایگشتی و قضیه کیلی. زیر گروه های نرمال و زیرگروه مشتق. قضایای یکریختی. حلقه و اعمال مقدماتی روی حلقه\u200cها . زیرحلقه و مشخصه حلقه. ایده\u200cآلها و همریختی حلقه\u200cها. ایده\u200cآل اول و ماکسیمال. حلقه چندجمله\u200cای\u200cها.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- جبر خطی و فضاهای هیلبرت: یادآوری فضاهای برداری و خواص آن، ضرب داخلی و تعامد، عملگرهای خطی و خود الحاق روی فضای ضرب داخلی، فضاهای هیلبرت، دنباله ها و سری ها در فضای هیلبرت، پایه های متعامد؛ سری فوریه: دیدگاه های تاریخی، تحلیل سیگنال و مثال های متنوع، سری فوریه و قضایای همگرایی، همگرایی در نقاط پیوستگی و ناپیوستگی، همگرایی یکنواخت و  همگرایی در میانگین؛ تبدیل فوریه : تبدیل فوریه و معکوس آن، ویژگی های تبدیل فوریه، تبدیل فوریه در فضاهای اقلیدسی، تبدیل  فوریه پیچش، فرمول پلانچرل؛ تبدیل فوریه گسسته: تبدیل فوریه گسسته، پایه فوریه، تبدیل فوریه سریع و کاربردهای آن؛ موجک\u200cها:  سیستم های هار، تبدیل گسسته هار، آنالیز چند ریز ساز، پایه های موجکی، تبدیل های گسسته موجکی، موجک\u200cهار، موجک دبشیز، کاربردهایی از آنالیز موجکی شامل پردازش تصویر و ... . \n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مبانی تصویر دیجیتال. خواندن و نما یش تصویر خاکستری و رنگی. فضاهای رنگی و تبدیل فضای رنگ. افزودن نویز به تصویر. آستانه\u200cگذاری. تبدیلات هندسی تصویر، تغییر اندازه،\u200c تغییرمقیاس و …. تبدیل آفین و پرسپکتیو. فیلترینگ در حوزه مکان و فرکانس. عملگرهای ریخت شناسی. آشکارساز لبه (لبه\u200cیابی). هیستوگرام تصویر. تبدیل هاف. شناسایی نقاط کلیدی تصویر مانند گوشه\u200cها. قطعه\u200cبندی تصویر. مثالهای کاربردی همچون شناسایی اشیاء. اشاره\u200cای بر بینایی ماشین.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه و برپایی محیط توسعه اندروید \n', '- آشنایی با مفاهیم، ابزارها ، نحوه\u200cی خطایابی و آزمون در توسعه\u200cی برنامه\u200cهای اندروید، فرایند تولید یک برنامه اندروید\n', '- \u200eواسط کاربری و الگوهای آن\u200e \n', '- آشنایی با الگوی MVP، معرفی مولفه\u200cهای واسط کاربری، اصول طراحی و پیاده\u200cسازی یک واسط کاربری سفارشی ، مدیریت واسط کاربری به صورت پویا ، بهترین الگوهای  طراحی واسط کاربری در اندروید\n', '- مدیریت داده\u200cها و بومی\u200cسازی \n', '- ذخیره و بازیابی اطلاعات یک برنامه کاربردی در Preference اشتراکی و اختصاصی، ارتباط با پایگاه داده ، مکانیزم\u200cهای پشتیبانی از localization  و internationalization \n', '- حافظه و ریسمان\u200cها \n', '- چرخه\u200cی حیات برنامه اندروید ، مدل حافظه و مدیریت ریسمان\u200cها در اندروید، آشنایی با اصول پیاده\u200cسازی الگو AsyncTask\n', '- مدیریت سرویس\u200cها\u200e \n', '- سرویس\u200cهای مبتنی بر مکان ، مدیریت سرویس\u200cها و هشدارها ، مدیریت دوربین، مدیریت سنسورها ، آشنایی با پرداخت درون برنامه\u200cای\n', '- برپایی محیط توسعه iOS \n', '- آشنایی با مفاهیم و ابزارهای توسعه برنامه\u200cنویسی ، مروری بر مولفه\u200cهای واسط کاربری و آشنایی با Storyboards، آشنایی با الگوی MVC\n', '- برنامه\u200cنویسی با Swift \n', '- آشنایی با ساختار زبان، انواع داده\u200c، کلاس\u200cها و اشیا، قلمروها ، اختیاری\u200cها ، داده\u200cها و توابع عام ، آشنایی با پروتکل\u200cها ، مدیریت خطاها، مروری بر مدیریت حافظه\n', '- تکنولوژی\u200cهای iOS \n', '- تکنولوژی\u200cهای واسط کاربری، تکنولوژی\u200cهای بازی\u200cسازی ، تکنولوژی\u200cهای مدیریت داده\u200cها ، مدیریت صدا و تصویر \n', '-\n', '- امنیت\u200e، آشنایی با مخاطرات امنیتی و استانداردهای تخمین آن ، آشنایی با ابزارهای Obfuscation، آشنایی با ابزارهای تحلیل مخاطرات امنیتی\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- - مقدمه \n', '- - کلیات درس، تاریخچه\u200cی وب، پروتکل\u200c HTTP\n', '- - طراحی صفحات \n', '- - ساختار HTML، عناصر و ویژگی\u200cها، پاراگراف\u200cبندی، فرمت\u200cبندی، لینک\u200cها، لیست\u200cها\n', '- - `      `تصاویر، جدول\u200cها، فرم\u200cها، عناصر جدید در HTML5\n', '- - سبک\u200cبندی \n', '- - تعریف CSS، فرمت\u200cبندی، انتخاب\u200cکننده\u200cها، وراثت و آبشار، اصول طراحی\n', '- - چیدمان صفحه، مدل جعبه\u200cای، نمایش شناور، موقعیت\u200cها، شبه\u200cکلاس\u200cها\n', '- - جاوا اسکریپت \n', '- - ساختار کلی زبان، کاربردها، دستورات و توابع، متغیرها و انواع داده\u200cای، ساختارهای کنترلی\n', '- - آرایه\u200cها، اشیاء، نحوه\u200cی تعریف اشیاء، سازنده\u200cها، نهان\u200cسازی داده\u200cها\n', '- - مدل DOM، ویرایش عناصر و سبک\u200cها، رسیدگی به رویدادها، استثناها\n', '- - کتاب\u200cخانه\u200cی jQuery، انتخاب\u200cکننده\u200cها، رویدادها، جلوه\u200cها و پویانمایی\n', '- - ذخیره\u200cی داده\u200cها \n', '- - آشنایی با XML، کاربردها، DTD، تبدیل توسط XSLT، آشنایی با JSON\n', '- - پایگاه\u200c داده\u200cهای رابطه\u200cای\u200c، ایجاد پایگاه داده، زبان پرس\u200cوجوی SQL\n', '- - تعامل با سرور \n', '- - رابط CGI، ارسال توسط GET و POST، پردازش فرم\u200cها، کوکی\u200cها\n', '- - استفاده از AJAX، ارسال درخواست، دریافت و تجزیه\u200cی پاسخ، کاربردها\n', '- - پایتون \n', '- - خواندن صفحات وب، کارگزار وب پایتون، آشنایی با WSGI\n', '- - معماری وب \n', '- لایه\u200cبندی، معماری کاربر-کارگزار، معماری سه\u200cلایه، معماری MVC\n', '- مدل\u200cهای داده، انواع رابطه\u200c، تطابق با پایگاه\u200c داده\u200cهای رابطه\u200cای\n', '- - چارچوب جنگو \n', '- مفاهیم اولیه، نصب و راه\u200cاندازی، مؤلفه\u200cها، معماری کلی\n', '- ایجاد یک پروژه، تعریف پایگاه داده، راه\u200cاندازی مدیر، افزودن نما\n', '- لایه\u200cی مدل، نگاشت\u200cگر شیء-رابطه، وراثت، اجرای پرس\u200cوجو\n', '- `     `لایه\u200cی نما، نگاشت نشانی\u200cها، اشیاء درخواست و پاسخ، نماهای عمومی\n', '- لایه\u200cی قالب\u200c، زبان تعریف قالب، تگ\u200cها و فیلترهای آماده\n', '- پردازش فرم\u200cها، ابزارک\u200cهای توکار، اعتبارسنجی\n', '- مباحث پیشرفته \n', '- میان\u200cافزارها، بهینه\u200cسازی، فشرده\u200cسازی، استفاده از کش\n', '- احراز هویت، کنترل دسترسی\u200cها، مدیریت کاربرها و گروه\u200cها\n', '- امنیت، محافظت در مقابل حملات امنیتی، رمزنگاری\n', '- `     `جلسات، ذخیره\u200cی حالت جلسه، روش\u200cهای ترکیبی\n', '- بین\u200cالمللی\u200cسازی، محلی\u200cسازی، ابزارهای ترجمه\u200c\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- برنامه\u200cنویسی مبتنی بر سوکت. سویچینگ بسته\u200cهای آی\u200cپی. آدرس\u200cدهی و هدایت مبتنی بر آی\u200cپی. قراردادهای انتقال (تی\u200cسی\u200cپی و یو\u200cدی\u200cپی\u200c). کنترل ازدحام. ترجمه\u200cی آدرس\u200cها (دی\u200cان\u200cاس\u200c، دی\u200cاچ\u200cسی\u200cپی و اِی\u200cآر\u200cپی\u200c). میان\u200cافزار (Middleware). سوئیچ ها و پل\u200cها (Switches and Bridges). اتصالات (Links). مسیریابی حالت اتصال. مسیریابی بردار فاصله و بردار مسیر. مسیریابی بردار مسیر مبتنی بر خط مشی (BGP). شبکه\u200cهای فرالایه\u200cای و همتا-به-همتا. جریان\u200cسازی چندرسانه\u200cای. سویچینگ مداری (Circuit Switching). شبکه\u200cهای بی\u200cسیم و همراه. شبکه توزیع محتوا (CDN). شبکه\u200cهای مبتنی بر نرم\u200c\u200cافزار.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مقدمه ای بر شبیه سازی. اصول کلی و زبانهای شبیه سازی. مدلهای ریاضی و آماری در شبیه سازی. مدلهای صف. سیستمهای موجودی. تولید اعداد تصادفی. تجزیه و تحلیل داده\u200cهای ورودی به مدل. آزمایش مدلهای شبیه\u200cسازی و تعیین اعتبار آنها. تجزیه و تحلیل نتایج به دست آمده از یک مدل شبیه سازی. اجرای یک پروژه عملی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- آشنایی با مفاهیم کلی و سخت\u200cافزار\u200cهای گرافیکی. نمایش سه بعدی اشیا. معرفی توابع و سطوح اسپلاین و کار برد آنها. اشیاء حبابی شکل، نمایش محوری، روشهای مبتنی بر اشکال خوش\u200cتعریف هندسی. روش\u200cهای تشخیص سطوح قابل رویت. مدل محاسبه\u200cی روشنایی فونگ، روش\u200cهای نورپردازی و رنگ آمیزی (Rendering) سطوح. مدل های رنگ و کاربرد آنها. نورپردازی کلی (Global illumination). سایه زن\u200cها (Shaders). معرفی هندسه فراکتالی برای ساخت اشیا و صحنه\u200cهایی که با هندسه اقلیدسی قابل توصیف نیستند. مصورسازی مجموعه\u200cی داده\u200cها. پویا نمایی کامپیوتری. روش\u200cهای ضبط حرکت کل بدن و چهره (Motion Capture) و کاربرد آن\u200cها در ساخت پویانمایی، فیلم و بازی. آشنایی با ساخت یک بازی کامپیوتری.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- خواص گرافی شبکه\u200cهای اجتماعی. نظریه بازی در شبکه\u200cهای اجتماعی. انتشار اطلاعات در شبکه\u200cهای اجتماعی. دینامیک شبکه\u200cهای اجتماعی.\n', '- انواع شبکه های اجتماعی،\u200c جهت دار/ بدون جهت، وزن دار/ بدون وزن، همگن/ ناهمگن\n', '- ` `مدل های شبکه Erdos–Rényi ، Small world ، Preferential attachment\n', '- ` `تحليل ساختاری شبکه های اجتماعی،  کوتاهترین مسير، قطر و شعاع شبکه، معيارهای مرکزیت\n', '- ` `تحليل رفتاری شبکه های اجتماعی،  انتشار اطلاعات، پيدا کردن گره های تاثيرگذار\n', '- آشنایی با کاربردهای شبکه های اجتماعی، بازاریابی، تشخيص جوامع، سيستم های توصيه و ...\n', '- بصری سازی\n', '- ` `آشنایی با ابزارهای تحليل شبکه های اجتماعی\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- بررسی کلی سیستمهای عامل. بررسی پیشینه های سیستم عامل. مدیریت فرآیند. مدیریت چند نخی. زمانبندی. مدیریت همزمانی. مدیریت بن بست و الگوریتم\u200cهای شناسایی و رفع بن بست. مدیریت ذخیره سازی. برنامه\u200cنویسی لینوکس.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- مدل\u200cهای فرآیند نرم\u200cافزار: مدل آبشاری، مدل تدریجی،\u200c مدل تکاملی، مدل هم\u200cزمان\n', '- توسعه چابک، اصول چابک:\u200c مقدمه\u200cای بر چارچوب\u200cهای چابک: Scrum،\u200c مقدمه\u200cای بر نرم\u200cافزارها و ابزارهای چابک، مطالعه موردی در دنیای واقعی\n', '- فرآیند یکپارچه RUP: معرفی RUP، مدیریت نیازمندی\u200cها، زبان مدل\u200cسازی یکپارچه UML \n', '- مدل C4 برای معماری نرم\u200cافزار\n', '- اصول و الگوهای طراحی، اصول طراحی شی\u200cگرا: الگوهای طراحی نرم\u200cافزار (GoF)، استفاده از الگوهای طراحی در مواجهه با مسائل واقعی\n', '- ضدالگوها و code smellها: تشخصی ضدالگوها و code smellها\n', '- بهسازی نرم\u200cافزار: روش\u200cهای بهسازی نرم\u200cافزار، ابزارهای بهسازی نرم\u200cافزار، \n', '- کیفیت نرم\u200cافزار: مقدمه\u200eای بر مدل\u200cهای کیفیت نرم\u200cافزار، سنجه\u200cهای اندازه\u200cگیری کمّی کیفیت نرم\u200cافزار\n', '- معماری نرم\u200cافزار: مقدمه\u200cای بر مدل\u200eهای معماری نرم\u200cافزار، معماری Clean\n', '- آزمون نرم\u200cافزار: آزمون واحد، آزمون یکپارچگی، توسعه آزمون\u200cمحور (TDD)\n', '- طراحی نرم\u200cافزار به کمک هوش مصنوعی\n', '- انجام پروژه تیمی.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- معرفی کلی کامپایلر. فاز تحلیل لغوی. آتوماتای متناهی. تجزیه بالا یه پایین. تجزیه پایین به بالا. تحلیل معنایی. تولید کد. \n']</t>
+  </si>
+  <si>
+    <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n']</t>
+  </si>
+  <si>
+    <t>['بر اساس مصوبه گروه های تخصصی سرفصل و پیشنیاز در هر ترم تعیین می گردد.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['معرفی بیوانفورماتیک، حوزه های علم بیوانفورماتیک، کاربردهای بیوانفورماتیک،  اساس بیوشیمی و زیست\u200cشناسی سلولی، ساختار مولکولی و شیمی فیزیکی پروتئین\u200cها و DNA، گرافیک مولکولی، بانک\u200cهای اطلاعاتی ساختاری، آنالیز توالی پروتئین و DNA، روشهای پیشگو به\u200cوسیله توالی\u200cهای پروتئین و DNA، آنالیز ژنومیک، کاربرد بالینی / پزشکی و درمانی Bio-informatics\n']</t>
+  </si>
+  <si>
+    <t>['**محتوای پروژه برای هر دانشجو توسط استاد پروژه تعیین می شود.**\n']</t>
+  </si>
+  <si>
+    <t>['-\n', '- حل عددی معادلات دیفرانسیل عادی با شرایط اولیه. حل عددی معادلات دیفرانسیل مرزی. حل عددی معادلات دیفرانسیل با مشتقات جزئی به کمک روش تفاضلات متناهی و …. روش های تکراری برای حل دستگاه های خطی. تجزیه ماتریسها. حل مساله کمترین مربعات خطی. تجزیه ی قائم ماتریس ها. مساله ی مقدار ویژه و روش های حل آن.\n', '-\n']</t>
+  </si>
+  <si>
+    <t>['معرفی کلان داده\u200cها ، ویژگی های کلان داده\u200cها، [معماری کار با کلان داد](https://git.ir/big-data/#%D9%85%D8%B9%D9%85%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1-%D8%A8%D8%A7-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))ه\u200cها، [تکنولوژی کلان داده](https://git.ir/big-data/#%D8%AA%DA%A9%D9%86%D9%88%D9%84%D9%88%DA%98%DB%8C-%DA%A9%D9%84%D8%A7%D9%86-%D8%AF%D8%A7%D8%AF%D9%87-\\(Big%20Data\\))\u200cها، کاربرد کلان داده\u200cها در حوزه های مختلف، آشنایی با محاسبات ابری، تجزیه و تحلیل توصیفی (Descriptive)، تجزیه و تحلیل تشخیصی (Diagnostic)، تجزیه و تحلیل پیش\u200cبینی کننده (Predictive) ، تجزیه و تحلیل تجویزی ،(Prescriptive) کلان داده\u200cها با نرم افزار هایی مانند [هدوپ (Hadoop)](https://git.ir/hadoop/)، [آپاچی کسندرا (Cassandra)](https://git.ir/cassandra/)، [Apache Hive](https://git.ir/apache-hive/)، [مانگو دی بی (MongoDB)](https://git.ir/mongodb/)، آپاچی اسپارک (Apache Spark)، [اوراکل (Oracle)](https://git.ir/oracle/)\n']</t>
+  </si>
+  <si>
+    <t>['مروری بر توابع مولد  و مجموع تعداد تصادفی از متغیر های تصادفی، تعاریف و مفاهیم پایه\u200cای  فرایند تصادفی،  توزیع\u200cهای با بعد متناهی، ایستایی، با نموهای همگن، با نموهای مستقل، ویژگی مارکوفی، فرآیندهای برنولی و دوجمله\u200cای و ویژگی\u200cهای آن\u200cها، فرایند شمارشی. فرآیند گام برداری تصادفی: ویژگی\u200cهای و مسئله ورشکستگی بازیکن،   فرآیند پواسن، معرفی فرآیند پواسون، ویژگی\u200cهای  آن، تجزیه فرآیند پواسون، توزیع زمان\u200cهای رخداد، فرآیند پواسون دوباره شروع\u200cشده، ارتباط با توزیع نمائی، دوجمله\u200cای، هندسی، یکنواخت و بتا، توزیع شرطی زمان\u200cهای بین ورود و ارتباط با آماره\u200cهای ترتیبی توزیع یکنواخت،  فرآیند پواسون مرکب و کاربردی در نظریه تجدید و نظریه ریسک، فرآیند پواسون ناهمگن و ویژگی\u200cهای آن، مروری بر فرآیندهای زاد و مرگ. زنجیرهای مارکف: تابع انتقال، ماتریس انتقال یک مرحله\u200cای و چندمرحله\u200cای، معادله چپمن- کولموگرو،  توزیع اولیه، احتمالات مطلق، توزیع توأم، تجزیه فضای مکان، زنجیرهای تحویل\u200cناپذیر و آرگودیک، وضعیت\u200cهای گذرا و بازگشتی، وضعیت\u200cهای بازگشتی مثبت و بازگشتی پوچ، متوسط تعداد دفعات ملاقات از یک وضعیت بازگشتی،  متوسط اولین زمان\u200cهای گذر، احتمال\u200cهای جذب، توزیع\u200cهای ایستا، خواص توزیع\u200cهای ایستا و روشهای محاسبه؛  برآورد ماتریس انتقال.\n']</t>
+  </si>
+  <si>
+    <t>['معرفی معماری سیستم\u200cهای چندهسته\u200cای و مدل\u200cهای برنامه\u200cنوسی موازی\n', 'تاریخچه ظهور سیستم\u200cهای چند\u200cهسته\u200cای،  چالش\u200cهای برنامه\u200cنویسی کارا روی سیستم\u200cهای چند\u200cهسته\u200cای، معرفی سطوح موازات در برنامه\u200cها، تحلیل تسریع در سیستم\u200cهای چند\u200cهسته\u200cای همگون و ناهمگون، ارائه\u200cی\u200c چند نمونه واقعی از سیستم\u200cهای چند\u200cهسته\u200cای\n', 'چند\u200cپردازنده\u200cها با حافظه مشترک، \n', 'معرفی کلی معماری،  ارائه\u200cی مسئله\u200cی Cache Coherence و راه\u200cحل\u200cها، معرفی اجمالی مدل برنامه\u200cنویسی و نحوه همگام\u200cسازی نخ\u200cها،\u200c نحوه برخورد با ناحیه\u200cهای بحرانی، ایده\u200cهای کلی در بهبود برنامه\u200cهای موازی\n', 'الگو\u200cهای رایج موازی\u200cسازی محاسبات و مدیریت داده\n', 'الگوهای محاسباتی موازی: Map, Reduction, Scan, Stencil, Recurrence, Fork-Join\n', 'الگوهای موازی مدیریت داده: Gather, Scatter, Pack, Geometric Decomposition &amp; Partitions\n', 'برنامه\u200cنویسی موازی عمومی در سیستم\u200cهای چند\u200cهسته ای\n', 'برنامه\u200cنویسی با Pthreads،\u200c برنامه\u200cنویسی با OpenMP\n', 'برنامه\u200cنوسی موازی در سیستم\u200cهای برداری\n', 'معرفی کلی سیستم\u200cهای برداری و آرایه\u200cای،\u200c معرفی ISA مخصوص پردازنده Intel برای محاسبات SIMD،\u200c معرفی معماری و نحوه برنامه\u200cنویسی پردازنده CELL BE\n', 'برنامه\u200cنویسی موازی در پردازنده\u200cهای گرافیکی عام\u200cمنظوره\n', 'معرفی جامع معماری پردازنده\u200cهای گرافیکی، معرفی معماری چند نمونه واقعی از پردازنده\u200cهای گرافیکی شرکت NVIDIA\n', 'برنامه\u200cنویسی با زبان CUDA، معرفی Profiler شرکت NVIDIA\n', 'معرفی اجمالی برنامه\u200cنویسی موازی در سیستم\u200cهای توزیع\u200cشده\n', 'معرفی کتابخانه Message Passing Interface (MPI) و نحوه\u200cی برنامه\u200cنویسی موازی براساس مدل تبادل پیام\n']</t>
+  </si>
+  <si>
+    <t>['--مفاهیم اولیه، سیگنال های زمان پیوسته و گسسته، متغیر مستقل و تبدیلات آن، دسته بندی سیگنال ها و سیستم ها، معرفی سیگنال های پایه (پیوسته و گسسته)، معرفی خواص سیستم ها: حافظه دار بودن، معکوس پذیری ، علی بودن، پایداری، خطی بودن و تغییر ناپذیر با زمان \n', '--سیستم\u200cهای خطی تغییر ناپذیر با زمان، کانولوشن گسسته و پیوسته، روشی سریع برای کانولوشن گسسته، خواص کانولوشن  \n', '، پاسخ ضربه و خواص سیستم های LTI، نمایش بلوکی سیستم های LTI \n', '--سری فوریه زمان-پیوسته ، سری فوریه عمومی و مبحث توابع متعامد، توابع متعامد لژاندر؛ والش، لاگر، نمایی مختلط، پاسخ سیستم های LTI به سیگنالهای نمایی مختلط، خواص سری فوریه، خواص سری فوریه، بحث همگرایی سری فوریه \n', '--تبدیل فوریه زمان –پیوسته، تبدیل فوریه زمان پیوسته، خواص تبدیل فوریه، نمایش بلوکی سیستم های LTI وتبدیل فوریه، پاسخ فرکانس و حل معادلات سیستم های LTI، تبدیل فوریه توابع خاص \n', '--کاربردهای تبدیل فوریه زمان-پیوسته، انواع فیلترها، نمونه برداری، مدولاسیون، دمدولاسیون، دسترسی چندگانه \n', '--سری فوریه زمان-گسسته، سری فوریه گسسته و تفاوتهای آن با سری پیوسته، پاسخ سیستم های LTI و سری فوریه گسسته ، خواص سری فوریه گسسته \n', '--تبدیل فوریه زمان-گسسته، تبدیل فوریه زمان گسسته، خواص تبدیل فوریه زمان گسسته، فیلترهای دیجیتال و تبدیل فوریه زمان گسسته، پاسخ فرکانس و حل معادلات سیستم های زمان گسسته، نمایش بلوکی سیستمهای گسسته با استفاده از تبدیل فوریه زمان گسسته، تبدیل DFT \n', '--تبدیل Z و خواص آن\n']</t>
+  </si>
+  <si>
+    <t>['مقدمات، اهداف، برنامه\u200cی درسی و توافق بر الگوی تعلیم و چارچوب درس، مفاهیم بنیادی مدیریتی\n', 'مروری بر مدیریت پروژه\u200cهای فناوری اطلاعات \n', 'موارد کاری  (کسب و کاری)\n', 'بیانیه\u200cی پروژه \n', 'گروه پروژه \n', 'طرح مدیریت دامنه \n', 'ساختارشکست کار \n', 'زمان\u200cبندی و بودجه\u200cبندی پروژه\u200cها \n', 'نرم\u200cافزارهای مدیریت پروژه و وبگاه\u200cها و داشبوردها \n', 'استاندارد بدنه\u200cهای دانشی مدیریت پروژه \n', 'طرح مدیریت خطر پروژه \n', 'طرح ارتباطات پروژه \n', 'طرح کیفیت پروژه\u200cهای فا \n', 'مدیریت تغییرات، مقاومت\u200cها و تعارضات \n', 'مدیریت تدارک و برون\u200cسپاری پروژه\u200cها \n', 'رهبری و آداب پروژه \n', 'طرح پیاده\u200cسازی و پایان\u200cدهی و پروژه\u200cها \n', 'مدل بلوغ و تکاملی وروش چابک مدیریت پروژه\u200cهای فناوری اطلاعات  \n']</t>
+  </si>
+  <si>
+    <t>['مروری بربردارها و ماتریسها:جمع وتفریق و ضرب ماتریسها،ضرب داخلی و نرم بردارها و ماتریسها،ضرب داخلی و نرم توابع پیوسته، ماتریسهای منفرد و غیر منفرد و معکوس و متقارن و شبه متقارن ، ماتریسهای مختلط و مختلط مزدوج و هرمیتی و شبه هرمیتی ،یکین ، نرمال، قطری – مثلثی – متعامد – مثبت معین و نیمه معین – منفی معین و نیمه معین.\n', 'دستگاه معادلات جبری خطی: معرفی دستگاه جبری خطی – روشهای حل دستگاه معادلات جبری خطی بر پایه الگوریتم های حذفی گوس – گوس جردن – محورگیری جزئی و کلی – حل دستگاه معادلات جبری خطی برپایه تجزیه ماتریسها – تجزیه LU – تجزیه چالسکی.\n', 'فضاهای برداری: مفهوم میدان – بسته بودن نسبت به اعمال جمع و ضرب – فضای برداری – زیرفضاهای برداری – زیر فضای ستونهای یک ماتریس – مفهوم اسپن – استقلال و وابستگی خطی بردارها – مفهوم پایه و بعد در فضای برداری – رتبه ماتریس – فضای پوچی ماتریسها – تبدیلات خطی – تبدیلات پرکاربرد از قبیل انتقال ، انعکاس ، تغییر مقیاس و دوران .\n', 'متعامد سازی و مساله حداقل مربعات : مفهوم متعامد سازی – تصاویر متعامد – الگوریتم گرام اشمیت – مساله حداقل مربعات و کاربرد آن در حل دستگاه معادلات ناسازگار – نحوه بدست آوردن معادلات نرمال و روش های حل آنها بصورت مستقیم با استفاده از تجزیه چالسکی و تچزیه QR  - برازش داده ها با روش حداقل مربعات.\n', 'مقادیر ویژه و بردارهای ویژه : مفاهیم مقدار ویژه و بردار ویژه – محاسبه مقادیر ویژه با روشهای تکراری مانند روش توانی – استفاده از روش QR  - قطری سازی ماتریسها با مقادیر حقیقی و مختلط – قطری سازی ماتریسها با مقادیر ویژه تکراری.\n', 'چندجمله ای ها و توابع ماتریسی : قضیه کیلی هامیلتون – کاربرد قضیه کیلی هامیلتون برای محاسبه معکوس ماتریس – محاسبه چندجمله ای های ماتریسی – محاسبه توابع ماتریسی.\n', 'تجزیه مقادیر منفرد : مفهوم مقادیر منفرد- کاربردهای تجزیه مقادیر منفرد – تجزیه ماتریس ها براساس مقادیر منفرد – تعیین زیر فضاهای اساسی ماتریس. \n']</t>
+  </si>
+  <si>
+    <t>['بازی چیست؟، انواع و دسته\u200cبندی بازیها،  چالش و پازل،  سیستم ارتقا بازیکنان،  مکانیکهای بازی (قوانین بازی، عملهای بازیکن، مهارتهای بازیکن و ...)،  خطهای داستان بازی،  ساختار گردش اقتصادی بازی (چگونه بازیکن انرژی و توان به دست میآورد و آن را در چه کارهای، سرمایه\u200cگذاری میکند)، متعادل\u200cسازی بازی (متعادل\u200cسازی سختی بازی، متعادل\u200cسازی دینامیک بازی)،  مراحل بازی،  چرخه\u200cهای تعاملی بازیکن با بازی، مشخص کردن محدودیتها، اهداف و دستاوردهای هر چرخه،  نحوه دسترسی اطلاعات بازیکن به بازی،  محیط جذاب و واسط کاربری بازی،  بازیهای چند نفره و نحوه تعامل افراد در بازی، جداول رده\u200cبندی بازیکنان، امکانات رقابت در بازیهای چندنفره، بازیهای استراتژیک، روابط احتمالی در بازیها، گیم پلی بازی، بخش پروژه-محور، تولید بازی ساده با موتور بازیسازی یونیتی، مشخص کردن اشیا بازی، انیمیشن بازی، کدنویسی script های بازی، مدیریت بازی . کنترل بازی، بخش بازیانگاری، مطالعه یک مسئله اجتماعی-تجاری از نگاه بازی انگاری، - استفاده از ابزارهای بازی برای ایجاد سازوکار برای حل مسئله.\n']</t>
+  </si>
+  <si>
+    <t>['تاریخچه و انواع زبانهای برنامه نویسی (رویه\u200cای،تابعی، شی گرا، منطق گرا، مختلط)، تأثیر سخت افزار، انتخاب مناسب زبان برای یک کاربرد معین،  ماشین 